--- a/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
+++ b/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="110">
   <si>
     <t>资金</t>
   </si>
@@ -58,12 +58,12 @@
     <t>0790688888</t>
   </si>
   <si>
+    <t>港币</t>
+  </si>
+  <si>
     <t>--</t>
   </si>
   <si>
-    <t>港币</t>
-  </si>
-  <si>
     <t>美元</t>
   </si>
   <si>
@@ -136,10 +136,7 @@
     <t>交易市场</t>
   </si>
   <si>
-    <t>风华高科</t>
-  </si>
-  <si>
-    <t>000636</t>
+    <t>鲍斯股份</t>
   </si>
   <si>
     <t>长青集团</t>
@@ -148,24 +145,42 @@
     <t>002616</t>
   </si>
   <si>
+    <t>长盈精密</t>
+  </si>
+  <si>
+    <t>长信科技</t>
+  </si>
+  <si>
     <t>钢研高纳</t>
   </si>
   <si>
     <t>金陵体育</t>
   </si>
   <si>
-    <t>道恩股份</t>
-  </si>
-  <si>
-    <t>002838</t>
-  </si>
-  <si>
-    <t>贵研铂业</t>
+    <t>金信诺</t>
+  </si>
+  <si>
+    <t>达安基因</t>
+  </si>
+  <si>
+    <t>002030</t>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>002460</t>
+  </si>
+  <si>
+    <t>英科医疗</t>
   </si>
   <si>
     <t>艾迪精密</t>
   </si>
   <si>
+    <t>维尔利</t>
+  </si>
+  <si>
     <t>紫光学大</t>
   </si>
   <si>
@@ -184,28 +199,46 @@
     <t>SHKCED</t>
   </si>
   <si>
+    <t>激智科技</t>
+  </si>
+  <si>
     <t>海格通信</t>
   </si>
   <si>
     <t>002465</t>
   </si>
   <si>
-    <t>泛微配债</t>
+    <t>泸州老窖</t>
+  </si>
+  <si>
+    <t>000568</t>
   </si>
   <si>
     <t>泛微网络</t>
   </si>
   <si>
-    <t>普莱柯</t>
+    <t>晨光配债</t>
   </si>
   <si>
     <t>晨光生物</t>
   </si>
   <si>
+    <t>新天科技</t>
+  </si>
+  <si>
     <t>捷昌驱动</t>
   </si>
   <si>
-    <t>康龙化成</t>
+    <t>彤程新材</t>
+  </si>
+  <si>
+    <t>张  裕Ａ</t>
+  </si>
+  <si>
+    <t>000869</t>
+  </si>
+  <si>
+    <t>康德莱</t>
   </si>
   <si>
     <t>广联达</t>
@@ -214,7 +247,7 @@
     <t>002410</t>
   </si>
   <si>
-    <t>广和通</t>
+    <t>常山药业</t>
   </si>
   <si>
     <t>山东赫达</t>
@@ -226,28 +259,19 @@
     <t>密尔克卫</t>
   </si>
   <si>
-    <t>安科生物</t>
-  </si>
-  <si>
     <t>安洁科技</t>
   </si>
   <si>
     <t>002635</t>
   </si>
   <si>
-    <t>好想你</t>
-  </si>
-  <si>
-    <t>002582</t>
-  </si>
-  <si>
     <t>天壕环境</t>
   </si>
   <si>
-    <t>天华超净</t>
-  </si>
-  <si>
-    <t>大参林</t>
+    <t>大族激光</t>
+  </si>
+  <si>
+    <t>002008</t>
   </si>
   <si>
     <t>坚朗五金</t>
@@ -256,22 +280,25 @@
     <t>002791</t>
   </si>
   <si>
+    <t>和而泰</t>
+  </si>
+  <si>
+    <t>002402</t>
+  </si>
+  <si>
+    <t>台华新材</t>
+  </si>
+  <si>
     <t>双象股份</t>
   </si>
   <si>
     <t>002395</t>
   </si>
   <si>
-    <t>博瑞传播</t>
-  </si>
-  <si>
-    <t>博思软件</t>
-  </si>
-  <si>
     <t>华宝添益</t>
   </si>
   <si>
-    <t>华力创通</t>
+    <t>华友钴业</t>
   </si>
   <si>
     <t>千禾味业</t>
@@ -289,10 +316,10 @@
     <t>佩蒂股份</t>
   </si>
   <si>
-    <t>会畅通讯</t>
-  </si>
-  <si>
-    <t>亿纬锂能</t>
+    <t>五 粮 液</t>
+  </si>
+  <si>
+    <t>000858</t>
   </si>
   <si>
     <t>中航三鑫</t>
@@ -314,6 +341,9 @@
   </si>
   <si>
     <t>万业企业</t>
+  </si>
+  <si>
+    <t>XD普莱柯</t>
   </si>
 </sst>
 </file>
@@ -705,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -785,28 +815,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>621694.05</v>
+        <v>1245037.39</v>
       </c>
       <c r="D3" s="3">
-        <v>621694.05</v>
+        <v>1170734.57</v>
       </c>
       <c r="E3" s="3">
-        <v>621694.05</v>
+        <v>1170734.57</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>74302.82</v>
       </c>
       <c r="G3" s="3">
-        <v>21221578.51</v>
+        <v>20830201.99</v>
       </c>
       <c r="H3" s="3">
-        <v>21843272.56</v>
+        <v>22000936.56</v>
       </c>
       <c r="I3" s="3">
-        <v>91183.52</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>14</v>
+        <v>198995.32</v>
+      </c>
+      <c r="J3" s="3">
+        <v>28851.69</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -814,7 +844,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -841,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -876,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -916,7 +946,7 @@
         <v>159000</v>
       </c>
       <c r="C8" s="3">
-        <v>159000</v>
+        <v>159500</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -930,7 +960,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>398500</v>
+        <v>401500</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1008,38 +1038,38 @@
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>41</v>
+      <c r="B12" s="6">
+        <v>300441</v>
       </c>
       <c r="C12" s="6">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>25.48</v>
+        <v>10.26</v>
       </c>
       <c r="G12" s="7">
-        <v>25.32</v>
+        <v>0</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>165620</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7">
-        <v>1039.61</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>3639.48</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1485.31</v>
       </c>
       <c r="L12" s="8">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>26</v>
@@ -1050,10 +1080,10 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="C13" s="6">
         <v>14500</v>
@@ -1065,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>11.5</v>
+        <v>11.37</v>
       </c>
       <c r="G13" s="7">
         <v>11.367</v>
@@ -1074,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>166750</v>
+        <v>164865</v>
       </c>
       <c r="J13" s="7">
-        <v>1923.7</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>38.7</v>
+      </c>
+      <c r="K13" s="7">
+        <v>-4930</v>
       </c>
       <c r="L13" s="8">
-        <v>1.17</v>
+        <v>0.03</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>26</v>
@@ -1093,85 +1123,85 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="6">
-        <v>300034</v>
-      </c>
-      <c r="C14" s="6">
-        <v>9500</v>
-      </c>
-      <c r="D14" s="6">
-        <v>9500</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>17.82</v>
-      </c>
-      <c r="G14" s="7">
-        <v>17.694</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>169290</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1200.16</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0.71</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="8" t="s">
+      <c r="A14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="10">
+        <v>300115</v>
+      </c>
+      <c r="C14" s="10">
+        <v>8100</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>8100</v>
+      </c>
+      <c r="F14" s="11">
+        <v>21.01</v>
+      </c>
+      <c r="G14" s="11">
+        <v>21.027</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>170181</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-140.13</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-140.13</v>
+      </c>
+      <c r="L14" s="9">
+        <v>-0.08</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="6">
-        <v>300651</v>
+        <v>300088</v>
       </c>
       <c r="C15" s="6">
-        <v>5500</v>
+        <v>16300</v>
       </c>
       <c r="D15" s="6">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
+        <v>16300</v>
       </c>
       <c r="F15" s="7">
-        <v>31.9</v>
+        <v>10.82</v>
       </c>
       <c r="G15" s="7">
-        <v>30.373</v>
+        <v>10.601</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>175450</v>
+        <v>176366</v>
       </c>
       <c r="J15" s="7">
-        <v>8401.2</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>3563.54</v>
+      </c>
+      <c r="K15" s="7">
+        <v>3563.54</v>
       </c>
       <c r="L15" s="8">
-        <v>5.03</v>
+        <v>2.07</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>26</v>
@@ -1182,216 +1212,216 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="6">
+        <v>300034</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>17.75</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1095.77</v>
+      </c>
+      <c r="K16" s="7">
+        <v>-104.39</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3800</v>
-      </c>
-      <c r="D16" s="6">
-        <v>3800</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>32.07</v>
-      </c>
-      <c r="G16" s="7">
-        <v>30.411</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>121866</v>
-      </c>
-      <c r="J16" s="7">
-        <v>6305.98</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="8">
-        <v>5.46</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="10">
-        <v>600459</v>
-      </c>
-      <c r="C17" s="10">
-        <v>6800</v>
-      </c>
-      <c r="D17" s="10">
-        <v>6800</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>24.25</v>
-      </c>
-      <c r="G17" s="11">
-        <v>24.385</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>164900</v>
-      </c>
-      <c r="J17" s="11">
-        <v>-916.86</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="9">
-        <v>-0.55</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>23</v>
+      <c r="B17" s="6">
+        <v>300651</v>
+      </c>
+      <c r="C17" s="6">
+        <v>5500</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5500</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>33.17</v>
+      </c>
+      <c r="G17" s="7">
+        <v>30.373</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>182435</v>
+      </c>
+      <c r="J17" s="7">
+        <v>15386.2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1485</v>
+      </c>
+      <c r="L17" s="8">
+        <v>9.21</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="6">
+        <v>300252</v>
+      </c>
+      <c r="C18" s="6">
+        <v>17670</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>17670</v>
+      </c>
+      <c r="F18" s="7">
+        <v>9.63</v>
+      </c>
+      <c r="G18" s="7">
+        <v>9.61</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>170162.1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>348.16</v>
+      </c>
+      <c r="K18" s="7">
+        <v>348.16</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="6">
-        <v>603638</v>
-      </c>
-      <c r="C18" s="6">
-        <v>4300</v>
-      </c>
-      <c r="D18" s="6">
-        <v>4300</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>41.23</v>
-      </c>
-      <c r="G18" s="7">
-        <v>38.848</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>177289</v>
-      </c>
-      <c r="J18" s="7">
-        <v>10241.93</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="8">
-        <v>6.13</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="10">
-        <v>2114</v>
-      </c>
-      <c r="D19" s="10">
-        <v>2114</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>42.08</v>
-      </c>
-      <c r="G19" s="11">
-        <v>47.557</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>88957.12</v>
-      </c>
-      <c r="J19" s="11">
-        <v>-11579.09</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="9">
-        <v>-11.52</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" s="9" t="s">
+      <c r="C19" s="6">
+        <v>5900</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5900</v>
+      </c>
+      <c r="F19" s="7">
+        <v>31.68</v>
+      </c>
+      <c r="G19" s="7">
+        <v>30.504</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>186912</v>
+      </c>
+      <c r="J19" s="7">
+        <v>6938.61</v>
+      </c>
+      <c r="K19" s="7">
+        <v>6938.61</v>
+      </c>
+      <c r="L19" s="8">
+        <v>3.86</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="10">
+        <v>3200</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
+        <v>3200</v>
+      </c>
+      <c r="F20" s="11">
         <v>52</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="10">
-        <v>3100</v>
-      </c>
-      <c r="D20" s="10">
-        <v>3100</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <v>53.4</v>
-      </c>
       <c r="G20" s="11">
-        <v>55.06</v>
+        <v>52.991</v>
       </c>
       <c r="H20" s="11">
         <v>0</v>
       </c>
       <c r="I20" s="11">
-        <v>165540</v>
+        <v>166400</v>
       </c>
       <c r="J20" s="11">
-        <v>-5145.19</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>14</v>
+        <v>-3171.85</v>
+      </c>
+      <c r="K20" s="11">
+        <v>-3171.85</v>
       </c>
       <c r="L20" s="9">
-        <v>-3.01</v>
+        <v>-1.87</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>26</v>
@@ -1401,398 +1431,398 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="13">
-        <v>159000</v>
-      </c>
-      <c r="D21" s="13">
-        <v>159000</v>
-      </c>
-      <c r="E21" s="13">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14">
-        <v>0</v>
-      </c>
-      <c r="J21" s="14">
-        <v>0</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="12">
-        <v>0</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>23</v>
+      <c r="A21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="6">
+        <v>300677</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1700</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1700</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>116</v>
+      </c>
+      <c r="G21" s="7">
+        <v>101.546</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>197200</v>
+      </c>
+      <c r="J21" s="7">
+        <v>24572.56</v>
+      </c>
+      <c r="K21" s="7">
+        <v>10285</v>
+      </c>
+      <c r="L21" s="8">
+        <v>14.23</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="B22" s="6">
+        <v>603638</v>
       </c>
       <c r="C22" s="6">
-        <v>12400</v>
+        <v>4300</v>
       </c>
       <c r="D22" s="6">
-        <v>12400</v>
+        <v>4300</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>13.65</v>
+        <v>42.1</v>
       </c>
       <c r="G22" s="7">
-        <v>13.412</v>
+        <v>38.848</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>169260</v>
+        <v>181030</v>
       </c>
       <c r="J22" s="7">
-        <v>2954.38</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>14</v>
+        <v>13982.93</v>
+      </c>
+      <c r="K22" s="7">
+        <v>-1720</v>
       </c>
       <c r="L22" s="8">
-        <v>1.77</v>
+        <v>8.37</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="13">
-        <v>753039</v>
-      </c>
-      <c r="C23" s="13">
-        <v>40</v>
-      </c>
-      <c r="D23" s="13">
-        <v>40</v>
-      </c>
-      <c r="E23" s="13">
-        <v>0</v>
-      </c>
-      <c r="F23" s="14">
-        <v>100</v>
-      </c>
-      <c r="G23" s="14">
-        <v>0</v>
-      </c>
-      <c r="H23" s="14">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14">
-        <v>0</v>
-      </c>
-      <c r="J23" s="14">
-        <v>0</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="12">
-        <v>0</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>23</v>
+      <c r="A23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="6">
+        <v>300190</v>
+      </c>
+      <c r="C23" s="6">
+        <v>20500</v>
+      </c>
+      <c r="D23" s="6">
+        <v>20500</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>8.27</v>
+      </c>
+      <c r="G23" s="7">
+        <v>8.18</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>169535</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1837.21</v>
+      </c>
+      <c r="K23" s="7">
+        <v>5535</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1.1</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>48.04</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <v>-13033.73</v>
+      </c>
+      <c r="K24" s="11">
+        <v>-6.59</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="10">
+        <v>930</v>
+      </c>
+      <c r="D25" s="10">
+        <v>930</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>42.89</v>
+      </c>
+      <c r="G25" s="11">
+        <v>43.052</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>39887.7</v>
+      </c>
+      <c r="J25" s="11">
+        <v>-151.12</v>
+      </c>
+      <c r="K25" s="11">
+        <v>-806.61</v>
+      </c>
+      <c r="L25" s="9">
+        <v>-0.38</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="10">
-        <v>603039</v>
-      </c>
-      <c r="C24" s="10">
-        <v>2600</v>
-      </c>
-      <c r="D24" s="10">
-        <v>2600</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="F24" s="11">
-        <v>63.39</v>
-      </c>
-      <c r="G24" s="11">
-        <v>64.184</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11">
-        <v>164814</v>
-      </c>
-      <c r="J24" s="11">
-        <v>-2065.03</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="9">
-        <v>-1.24</v>
-      </c>
-      <c r="M24" s="9" t="s">
+      <c r="B26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="13">
+        <v>159500</v>
+      </c>
+      <c r="D26" s="13">
+        <v>159500</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <v>0</v>
+      </c>
+      <c r="J26" s="14">
+        <v>0</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N26" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="6">
-        <v>603566</v>
-      </c>
-      <c r="C25" s="6">
-        <v>6300</v>
-      </c>
-      <c r="D25" s="6">
-        <v>6300</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>27.64</v>
-      </c>
-      <c r="G25" s="7">
-        <v>26.402</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>174132</v>
-      </c>
-      <c r="J25" s="7">
-        <v>7800.98</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="8">
-        <v>4.69</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="9" t="s">
+    <row r="27" spans="1:14">
+      <c r="A27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="10">
-        <v>300138</v>
-      </c>
-      <c r="C26" s="10">
-        <v>13800</v>
-      </c>
-      <c r="D26" s="10">
-        <v>13800</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0</v>
-      </c>
-      <c r="F26" s="11">
-        <v>12.01</v>
-      </c>
-      <c r="G26" s="11">
-        <v>12.272</v>
-      </c>
-      <c r="H26" s="11">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
-        <v>165738</v>
-      </c>
-      <c r="J26" s="11">
-        <v>-3615.03</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="9">
-        <v>-2.13</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="8" t="s">
+      <c r="B27" s="10">
+        <v>300566</v>
+      </c>
+      <c r="C27" s="10">
+        <v>6100</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>6100</v>
+      </c>
+      <c r="F27" s="11">
+        <v>26.75</v>
+      </c>
+      <c r="G27" s="11">
+        <v>27.678</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>163175</v>
+      </c>
+      <c r="J27" s="11">
+        <v>-5661</v>
+      </c>
+      <c r="K27" s="11">
+        <v>-5661</v>
+      </c>
+      <c r="L27" s="9">
+        <v>-3.35</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="6">
-        <v>603583</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2700</v>
-      </c>
-      <c r="D27" s="6">
-        <v>2700</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>66.3</v>
-      </c>
-      <c r="G27" s="7">
-        <v>63.255</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>179010</v>
-      </c>
-      <c r="J27" s="7">
-        <v>8222.35</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="8">
-        <v>4.81</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="6">
-        <v>300759</v>
-      </c>
-      <c r="C28" s="6">
-        <v>2200</v>
-      </c>
-      <c r="D28" s="6">
-        <v>2200</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>83.2</v>
-      </c>
-      <c r="G28" s="7">
-        <v>78.286</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>183040</v>
-      </c>
-      <c r="J28" s="7">
-        <v>10810.62</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="8">
-        <v>6.28</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="8" t="s">
+      <c r="C28" s="10">
+        <v>0</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11">
+        <v>13.27</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <v>-645.03</v>
+      </c>
+      <c r="K28" s="11">
+        <v>-1119.41</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="6">
-        <v>2900</v>
-      </c>
-      <c r="D29" s="6">
-        <v>2900</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>58.34</v>
-      </c>
-      <c r="G29" s="7">
-        <v>57.369</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>169186</v>
-      </c>
-      <c r="J29" s="7">
-        <v>2815.37</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="8">
-        <v>1.69</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" s="8" t="s">
+      <c r="C29" s="10">
+        <v>1800</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1800</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>89.6</v>
+      </c>
+      <c r="G29" s="11">
+        <v>91.594</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>161280</v>
+      </c>
+      <c r="J29" s="11">
+        <v>-3588.43</v>
+      </c>
+      <c r="K29" s="11">
+        <v>-1602</v>
+      </c>
+      <c r="L29" s="9">
+        <v>-2.18</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1801,301 +1831,301 @@
         <v>66</v>
       </c>
       <c r="B30" s="6">
-        <v>300638</v>
+        <v>603039</v>
       </c>
       <c r="C30" s="6">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="D30" s="6">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="E30" s="6">
         <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>54.97</v>
+        <v>67.5</v>
       </c>
       <c r="G30" s="7">
-        <v>53.078</v>
+        <v>64.184</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>170407</v>
+        <v>175500</v>
       </c>
       <c r="J30" s="7">
-        <v>5864.61</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>14</v>
+        <v>8620.97</v>
+      </c>
+      <c r="K30" s="7">
+        <v>8476</v>
       </c>
       <c r="L30" s="8">
-        <v>3.56</v>
+        <v>5.17</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="6">
-        <v>3700</v>
-      </c>
-      <c r="D31" s="6">
-        <v>3700</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>28.12</v>
-      </c>
-      <c r="G31" s="7">
-        <v>26.778</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>104044</v>
-      </c>
-      <c r="J31" s="7">
-        <v>4964.81</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="8">
-        <v>5.01</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31" s="8" t="s">
+      <c r="B31" s="13">
+        <v>380138</v>
+      </c>
+      <c r="C31" s="13">
+        <v>181</v>
+      </c>
+      <c r="D31" s="13">
+        <v>181</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="14">
+        <v>100</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0</v>
+      </c>
+      <c r="H31" s="14">
+        <v>0</v>
+      </c>
+      <c r="I31" s="14">
+        <v>0</v>
+      </c>
+      <c r="J31" s="14">
+        <v>0</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="10">
+        <v>300138</v>
+      </c>
+      <c r="C32" s="10">
+        <v>13800</v>
+      </c>
+      <c r="D32" s="10">
+        <v>13800</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>11.79</v>
+      </c>
+      <c r="G32" s="11">
+        <v>12.272</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>162702</v>
+      </c>
+      <c r="J32" s="11">
+        <v>-6651.03</v>
+      </c>
+      <c r="K32" s="11">
+        <v>-3588</v>
+      </c>
+      <c r="L32" s="9">
+        <v>-3.93</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="10">
-        <v>603713</v>
-      </c>
-      <c r="C32" s="10">
-        <v>1800</v>
-      </c>
-      <c r="D32" s="10">
-        <v>1800</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11">
-        <v>90</v>
-      </c>
-      <c r="G32" s="11">
-        <v>90.816</v>
-      </c>
-      <c r="H32" s="11">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11">
-        <v>162000</v>
-      </c>
-      <c r="J32" s="11">
-        <v>-1469.49</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="9">
-        <v>-0.9</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="6">
-        <v>300009</v>
-      </c>
-      <c r="C33" s="6">
-        <v>11500</v>
-      </c>
-      <c r="D33" s="6">
-        <v>11500</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>15.01</v>
-      </c>
-      <c r="G33" s="7">
-        <v>14.942</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>172615</v>
-      </c>
-      <c r="J33" s="7">
-        <v>782.66</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="8">
-        <v>0.46</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="8" t="s">
+      <c r="B33" s="10">
+        <v>300259</v>
+      </c>
+      <c r="C33" s="10">
+        <v>28800</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>28800</v>
+      </c>
+      <c r="F33" s="11">
+        <v>5.92</v>
+      </c>
+      <c r="G33" s="11">
+        <v>5.923</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>170496</v>
+      </c>
+      <c r="J33" s="11">
+        <v>-93</v>
+      </c>
+      <c r="K33" s="11">
+        <v>-93</v>
+      </c>
+      <c r="L33" s="9">
+        <v>-0.05</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="B34" s="6">
+        <v>603583</v>
       </c>
       <c r="C34" s="6">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="D34" s="6">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>21.56</v>
+        <v>69.32</v>
       </c>
       <c r="G34" s="7">
-        <v>19.532</v>
+        <v>63.255</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>66836</v>
+        <v>187164</v>
       </c>
       <c r="J34" s="7">
-        <v>6286.55</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>14</v>
+        <v>16376.35</v>
+      </c>
+      <c r="K34" s="7">
+        <v>4698</v>
       </c>
       <c r="L34" s="8">
-        <v>10.38</v>
+        <v>9.59</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="B35" s="6">
+        <v>603650</v>
       </c>
       <c r="C35" s="6">
-        <v>12700</v>
+        <v>7900</v>
       </c>
       <c r="D35" s="6">
-        <v>12700</v>
+        <v>7900</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="7">
-        <v>12.51</v>
+        <v>22.85</v>
       </c>
       <c r="G35" s="7">
-        <v>12.13</v>
+        <v>22.312</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>158877</v>
+        <v>180515</v>
       </c>
       <c r="J35" s="7">
-        <v>4820.95</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>14</v>
+        <v>4246.6</v>
+      </c>
+      <c r="K35" s="7">
+        <v>711</v>
       </c>
       <c r="L35" s="8">
-        <v>3.13</v>
+        <v>2.41</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="6">
-        <v>300332</v>
+        <v>72</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C36" s="6">
-        <v>31200</v>
+        <v>3800</v>
       </c>
       <c r="D36" s="6">
-        <v>31200</v>
+        <v>3800</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
       </c>
       <c r="F36" s="7">
-        <v>4.67</v>
+        <v>29.93</v>
       </c>
       <c r="G36" s="7">
-        <v>4.631</v>
+        <v>29.6</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>145704</v>
+        <v>113734</v>
       </c>
       <c r="J36" s="7">
-        <v>1211.21</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>14</v>
+        <v>1253.39</v>
+      </c>
+      <c r="K36" s="7">
+        <v>798</v>
       </c>
       <c r="L36" s="8">
-        <v>0.84</v>
+        <v>1.11</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>26</v>
@@ -2105,217 +2135,217 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="10">
-        <v>300390</v>
-      </c>
-      <c r="C37" s="10">
-        <v>13400</v>
-      </c>
-      <c r="D37" s="10">
-        <v>13400</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0</v>
-      </c>
-      <c r="F37" s="11">
-        <v>11.8</v>
-      </c>
-      <c r="G37" s="11">
-        <v>12.515</v>
-      </c>
-      <c r="H37" s="11">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11">
-        <v>158120</v>
-      </c>
-      <c r="J37" s="11">
-        <v>-9575.8</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="9">
-        <v>-5.71</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>25</v>
+      <c r="A37" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="6">
+        <v>603987</v>
+      </c>
+      <c r="C37" s="6">
+        <v>10900</v>
+      </c>
+      <c r="D37" s="6">
+        <v>10900</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>16.19</v>
+      </c>
+      <c r="G37" s="7">
+        <v>15.424</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>176471</v>
+      </c>
+      <c r="J37" s="7">
+        <v>8349.78</v>
+      </c>
+      <c r="K37" s="7">
+        <v>-109</v>
+      </c>
+      <c r="L37" s="8">
+        <v>4.97</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2900</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2900</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>63.58</v>
+      </c>
+      <c r="G38" s="7">
+        <v>57.369</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>184382</v>
+      </c>
+      <c r="J38" s="7">
+        <v>18011.37</v>
+      </c>
+      <c r="K38" s="7">
+        <v>10817</v>
+      </c>
+      <c r="L38" s="8">
+        <v>10.83</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="6">
-        <v>603233</v>
-      </c>
-      <c r="C38" s="6">
-        <v>2100</v>
-      </c>
-      <c r="D38" s="6">
-        <v>2100</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>86</v>
-      </c>
-      <c r="G38" s="7">
-        <v>79.446</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>180600</v>
-      </c>
-      <c r="J38" s="7">
-        <v>13762.97</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="8">
-        <v>8.25</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="9" t="s">
+      <c r="B39" s="6">
+        <v>300255</v>
+      </c>
+      <c r="C39" s="6">
+        <v>29100</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>29100</v>
+      </c>
+      <c r="F39" s="7">
+        <v>5.99</v>
+      </c>
+      <c r="G39" s="7">
+        <v>5.931</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>174309</v>
+      </c>
+      <c r="J39" s="7">
+        <v>1718.8</v>
+      </c>
+      <c r="K39" s="7">
+        <v>1718.8</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="10">
-        <v>2000</v>
-      </c>
-      <c r="D39" s="10">
-        <v>2000</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0</v>
-      </c>
-      <c r="F39" s="11">
-        <v>82.4</v>
-      </c>
-      <c r="G39" s="11">
-        <v>83.987</v>
-      </c>
-      <c r="H39" s="11">
-        <v>0</v>
-      </c>
-      <c r="I39" s="11">
-        <v>164800</v>
-      </c>
-      <c r="J39" s="11">
-        <v>-3174.86</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="9">
-        <v>-1.89</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="10">
-        <v>9600</v>
-      </c>
-      <c r="D40" s="10">
-        <v>9600</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0</v>
-      </c>
-      <c r="F40" s="11">
-        <v>17.38</v>
-      </c>
-      <c r="G40" s="11">
-        <v>17.586</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>166848</v>
-      </c>
-      <c r="J40" s="11">
-        <v>-1980.96</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="9">
-        <v>-1.17</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" s="9" t="s">
+      <c r="C40" s="6">
+        <v>3700</v>
+      </c>
+      <c r="D40" s="6">
+        <v>3700</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>30.8</v>
+      </c>
+      <c r="G40" s="7">
+        <v>26.778</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>113960</v>
+      </c>
+      <c r="J40" s="7">
+        <v>14880.81</v>
+      </c>
+      <c r="K40" s="7">
+        <v>6808</v>
+      </c>
+      <c r="L40" s="8">
+        <v>15.02</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" s="6">
-        <v>600880</v>
+        <v>603713</v>
       </c>
       <c r="C41" s="6">
-        <v>34600</v>
+        <v>1800</v>
       </c>
       <c r="D41" s="6">
-        <v>34600</v>
+        <v>1800</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="7">
-        <v>4.91</v>
+        <v>98.89</v>
       </c>
       <c r="G41" s="7">
-        <v>4.701</v>
+        <v>90.816</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>169886</v>
+        <v>178002</v>
       </c>
       <c r="J41" s="7">
-        <v>7230.61</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>14</v>
+        <v>14532.51</v>
+      </c>
+      <c r="K41" s="7">
+        <v>1062</v>
       </c>
       <c r="L41" s="8">
-        <v>4.45</v>
+        <v>8.89</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>24</v>
@@ -2326,40 +2356,40 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="6">
-        <v>300525</v>
+        <v>81</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C42" s="6">
-        <v>5500</v>
+        <v>3100</v>
       </c>
       <c r="D42" s="6">
-        <v>5500</v>
+        <v>3100</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
       </c>
       <c r="F42" s="7">
-        <v>32.01</v>
+        <v>21.21</v>
       </c>
       <c r="G42" s="7">
-        <v>31.768</v>
+        <v>19.532</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>176055</v>
+        <v>65751</v>
       </c>
       <c r="J42" s="7">
-        <v>1333.28</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>14</v>
+        <v>5201.55</v>
+      </c>
+      <c r="K42" s="7">
+        <v>-4464</v>
       </c>
       <c r="L42" s="8">
-        <v>0.76</v>
+        <v>8.59</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>26</v>
@@ -2370,84 +2400,84 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" s="6">
-        <v>511990</v>
+        <v>300332</v>
       </c>
       <c r="C43" s="6">
-        <v>150399</v>
+        <v>31200</v>
       </c>
       <c r="D43" s="6">
-        <v>150399</v>
+        <v>31200</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>100.006</v>
+        <v>4.71</v>
       </c>
       <c r="G43" s="7">
-        <v>99.743</v>
+        <v>4.631</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>15040802.39</v>
+        <v>146952</v>
       </c>
       <c r="J43" s="7">
-        <v>39562.39</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>14</v>
+        <v>2459.21</v>
+      </c>
+      <c r="K43" s="7">
+        <v>312</v>
       </c>
       <c r="L43" s="8">
-        <v>0.26</v>
+        <v>1.71</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="10">
-        <v>300045</v>
-      </c>
       <c r="C44" s="10">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="D44" s="10">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="E44" s="10">
         <v>0</v>
       </c>
       <c r="F44" s="11">
-        <v>13.57</v>
+        <v>33.33</v>
       </c>
       <c r="G44" s="11">
-        <v>14.081</v>
+        <v>0</v>
       </c>
       <c r="H44" s="11">
         <v>0</v>
       </c>
       <c r="I44" s="11">
-        <v>23069</v>
+        <v>0</v>
       </c>
       <c r="J44" s="11">
-        <v>-868.11</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>14</v>
+        <v>-2620.49</v>
+      </c>
+      <c r="K44" s="11">
+        <v>-2279.8</v>
       </c>
       <c r="L44" s="9">
-        <v>-3.63</v>
+        <v>0</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>26</v>
@@ -2457,85 +2487,85 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="10">
-        <v>603027</v>
-      </c>
-      <c r="C45" s="10">
-        <v>4300</v>
-      </c>
-      <c r="D45" s="10">
-        <v>4300</v>
-      </c>
-      <c r="E45" s="10">
-        <v>0</v>
-      </c>
-      <c r="F45" s="11">
-        <v>26.67</v>
-      </c>
-      <c r="G45" s="11">
-        <v>28.593</v>
-      </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
-        <v>114681</v>
-      </c>
-      <c r="J45" s="11">
-        <v>-8268.45</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L45" s="9">
-        <v>-6.73</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>23</v>
+      <c r="B45" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D45" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>86.23</v>
+      </c>
+      <c r="G45" s="7">
+        <v>83.987</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>172460</v>
+      </c>
+      <c r="J45" s="7">
+        <v>4485.14</v>
+      </c>
+      <c r="K45" s="7">
+        <v>-4380</v>
+      </c>
+      <c r="L45" s="8">
+        <v>2.67</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C46" s="6">
-        <v>3500</v>
+        <v>11100</v>
       </c>
       <c r="D46" s="6">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="E46" s="6">
-        <v>0</v>
+        <v>11100</v>
       </c>
       <c r="F46" s="7">
-        <v>40.7</v>
+        <v>15.85</v>
       </c>
       <c r="G46" s="7">
-        <v>40.615</v>
+        <v>15.576</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>142450</v>
+        <v>175935</v>
       </c>
       <c r="J46" s="7">
-        <v>297.52</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>14</v>
+        <v>3044.04</v>
+      </c>
+      <c r="K46" s="7">
+        <v>3044.04</v>
       </c>
       <c r="L46" s="8">
-        <v>0.21</v>
+        <v>1.76</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>26</v>
@@ -2546,353 +2576,617 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B47" s="6">
-        <v>300136</v>
+        <v>603055</v>
       </c>
       <c r="C47" s="6">
-        <v>3600</v>
+        <v>21600</v>
       </c>
       <c r="D47" s="6">
-        <v>3600</v>
+        <v>21600</v>
       </c>
       <c r="E47" s="6">
         <v>0</v>
       </c>
       <c r="F47" s="7">
-        <v>46.06</v>
+        <v>7.67</v>
       </c>
       <c r="G47" s="7">
-        <v>44.925</v>
+        <v>7.658</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>165816</v>
+        <v>165672</v>
       </c>
       <c r="J47" s="7">
-        <v>4085.98</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>14</v>
+        <v>260.15</v>
+      </c>
+      <c r="K47" s="7">
+        <v>-216</v>
       </c>
       <c r="L47" s="8">
-        <v>2.53</v>
+        <v>0.16</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="6">
-        <v>300673</v>
-      </c>
-      <c r="C48" s="6">
-        <v>4700</v>
-      </c>
-      <c r="D48" s="6">
-        <v>4700</v>
-      </c>
-      <c r="E48" s="6">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7">
-        <v>36.45</v>
-      </c>
-      <c r="G48" s="7">
-        <v>35.648</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>171315</v>
-      </c>
-      <c r="J48" s="7">
-        <v>3769.2</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L48" s="8">
-        <v>2.25</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N48" s="8" t="s">
+      <c r="A48" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="10">
+        <v>2400</v>
+      </c>
+      <c r="D48" s="10">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>17.53</v>
+      </c>
+      <c r="G48" s="11">
+        <v>18.708</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>42072</v>
+      </c>
+      <c r="J48" s="11">
+        <v>-2826.18</v>
+      </c>
+      <c r="K48" s="11">
+        <v>-845.22</v>
+      </c>
+      <c r="L48" s="9">
+        <v>-6.3</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="10">
-        <v>300578</v>
-      </c>
-      <c r="C49" s="10">
-        <v>4500</v>
-      </c>
-      <c r="D49" s="10">
-        <v>4500</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11">
-        <v>37.93</v>
-      </c>
-      <c r="G49" s="11">
-        <v>39.321</v>
-      </c>
-      <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
-        <v>170685</v>
-      </c>
-      <c r="J49" s="11">
-        <v>-6258</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L49" s="9">
-        <v>-3.54</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>25</v>
+      <c r="A49" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="6">
+        <v>511990</v>
+      </c>
+      <c r="C49" s="6">
+        <v>150405</v>
+      </c>
+      <c r="D49" s="6">
+        <v>150405</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>99.998</v>
+      </c>
+      <c r="G49" s="7">
+        <v>99.739</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>15040199.19</v>
+      </c>
+      <c r="J49" s="7">
+        <v>38959.19</v>
+      </c>
+      <c r="K49" s="7">
+        <v>300.81</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="10">
-        <v>300014</v>
-      </c>
-      <c r="C50" s="10">
-        <v>3300</v>
-      </c>
-      <c r="D50" s="10">
-        <v>3300</v>
-      </c>
-      <c r="E50" s="10">
-        <v>0</v>
-      </c>
-      <c r="F50" s="11">
-        <v>42.29</v>
-      </c>
-      <c r="G50" s="11">
-        <v>42.579</v>
-      </c>
-      <c r="H50" s="11">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11">
-        <v>139557</v>
-      </c>
-      <c r="J50" s="11">
-        <v>-954.98</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L50" s="9">
-        <v>-0.68</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>25</v>
+      <c r="A50" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="6">
+        <v>603799</v>
+      </c>
+      <c r="C50" s="6">
+        <v>2700</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>2700</v>
+      </c>
+      <c r="F50" s="7">
+        <v>38.04</v>
+      </c>
+      <c r="G50" s="7">
+        <v>37.6</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>102708</v>
+      </c>
+      <c r="J50" s="7">
+        <v>1188.96</v>
+      </c>
+      <c r="K50" s="7">
+        <v>1188.96</v>
+      </c>
+      <c r="L50" s="8">
+        <v>1.17</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="B51" s="6">
+        <v>603027</v>
       </c>
       <c r="C51" s="6">
-        <v>16900</v>
+        <v>4300</v>
       </c>
       <c r="D51" s="6">
-        <v>16900</v>
+        <v>4300</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>10.25</v>
+        <v>28.6</v>
       </c>
       <c r="G51" s="7">
-        <v>10.076</v>
+        <v>28.593</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>173225</v>
+        <v>122980</v>
       </c>
       <c r="J51" s="7">
-        <v>2936.87</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>14</v>
+        <v>30.55</v>
+      </c>
+      <c r="K51" s="7">
+        <v>43</v>
       </c>
       <c r="L51" s="8">
-        <v>1.73</v>
+        <v>0.02</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C52" s="10">
+        <v>0</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <v>42.1</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0</v>
+      </c>
+      <c r="J52" s="11">
+        <v>-2071.56</v>
+      </c>
+      <c r="K52" s="11">
+        <v>-1074.08</v>
+      </c>
+      <c r="L52" s="9">
+        <v>0</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="6">
+        <v>300136</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>46.61</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <v>8159.88</v>
+      </c>
+      <c r="K53" s="7">
+        <v>-1722.1</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="6">
+        <v>300673</v>
+      </c>
+      <c r="C54" s="6">
+        <v>4700</v>
+      </c>
+      <c r="D54" s="6">
+        <v>4700</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>37.1</v>
+      </c>
+      <c r="G54" s="7">
+        <v>35.648</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>174370</v>
+      </c>
+      <c r="J54" s="7">
+        <v>6824.2</v>
+      </c>
+      <c r="K54" s="7">
+        <v>470</v>
+      </c>
+      <c r="L54" s="8">
+        <v>4.07</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="10">
+        <v>1100</v>
+      </c>
+      <c r="D55" s="10">
+        <v>1100</v>
+      </c>
+      <c r="E55" s="10">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
+        <v>155.88</v>
+      </c>
+      <c r="G55" s="11">
+        <v>158.918</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11">
+        <v>171468</v>
+      </c>
+      <c r="J55" s="11">
+        <v>-3341.71</v>
+      </c>
+      <c r="K55" s="11">
+        <v>-1980</v>
+      </c>
+      <c r="L55" s="9">
+        <v>-1.91</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>10.15</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <v>2414.15</v>
+      </c>
+      <c r="K56" s="7">
+        <v>-2212.72</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="10">
         <v>5800</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D57" s="10">
         <v>5800</v>
       </c>
-      <c r="E52" s="10">
-        <v>0</v>
-      </c>
-      <c r="F52" s="11">
-        <v>26.89</v>
-      </c>
-      <c r="G52" s="11">
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
+      <c r="F57" s="11">
+        <v>27.31</v>
+      </c>
+      <c r="G57" s="11">
         <v>27.923</v>
       </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>155962</v>
-      </c>
-      <c r="J52" s="11">
-        <v>-5990.05</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L52" s="9">
-        <v>-3.7</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N52" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="10">
+      <c r="H57" s="11">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11">
+        <v>158398</v>
+      </c>
+      <c r="J57" s="11">
+        <v>-3554.05</v>
+      </c>
+      <c r="K57" s="11">
+        <v>-2552</v>
+      </c>
+      <c r="L57" s="9">
+        <v>-2.2</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="10">
         <v>8600</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D58" s="10">
         <v>8600</v>
       </c>
-      <c r="E53" s="10">
-        <v>0</v>
-      </c>
-      <c r="F53" s="11">
-        <v>18.87</v>
-      </c>
-      <c r="G53" s="11">
+      <c r="E58" s="10">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11">
+        <v>19.24</v>
+      </c>
+      <c r="G58" s="11">
         <v>19.244</v>
       </c>
-      <c r="H53" s="11">
-        <v>0</v>
-      </c>
-      <c r="I53" s="11">
-        <v>162282</v>
-      </c>
-      <c r="J53" s="11">
-        <v>-3213.5</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L53" s="9">
-        <v>-1.94</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N53" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="10">
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>165464</v>
+      </c>
+      <c r="J58" s="11">
+        <v>-31.5</v>
+      </c>
+      <c r="K58" s="11">
+        <v>-1376</v>
+      </c>
+      <c r="L58" s="9">
+        <v>-0.02</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="6">
         <v>600641</v>
       </c>
-      <c r="C54" s="10">
-        <v>7500</v>
-      </c>
-      <c r="D54" s="10">
-        <v>7500</v>
-      </c>
-      <c r="E54" s="10">
-        <v>0</v>
-      </c>
-      <c r="F54" s="11">
-        <v>21.88</v>
-      </c>
-      <c r="G54" s="11">
-        <v>22.196</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
-        <v>164100</v>
-      </c>
-      <c r="J54" s="11">
-        <v>-2366.97</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L54" s="9">
-        <v>-1.42</v>
-      </c>
-      <c r="M54" s="9" t="s">
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>21.08</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7">
+        <v>117.39</v>
+      </c>
+      <c r="K59" s="7">
+        <v>759.36</v>
+      </c>
+      <c r="L59" s="8">
+        <v>0</v>
+      </c>
+      <c r="M59" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N54" s="9" t="s">
+      <c r="N59" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="6">
+        <v>603566</v>
+      </c>
+      <c r="C60" s="6">
+        <v>6300</v>
+      </c>
+      <c r="D60" s="6">
+        <v>6300</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>28.43</v>
+      </c>
+      <c r="G60" s="7">
+        <v>26.202</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>179109</v>
+      </c>
+      <c r="J60" s="7">
+        <v>14037.98</v>
+      </c>
+      <c r="K60" s="7">
+        <v>4158</v>
+      </c>
+      <c r="L60" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" s="8" t="s">
         <v>23</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
+++ b/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="137">
   <si>
     <t>资金</t>
   </si>
@@ -136,12 +136,12 @@
     <t>交易市场</t>
   </si>
   <si>
+    <t>XD王府井</t>
+  </si>
+  <si>
     <t>万业企业</t>
   </si>
   <si>
-    <t>万兴科技</t>
-  </si>
-  <si>
     <t>三花智控</t>
   </si>
   <si>
@@ -154,6 +154,9 @@
     <t>002602</t>
   </si>
   <si>
+    <t>世运电路</t>
+  </si>
+  <si>
     <t>东诚药业</t>
   </si>
   <si>
@@ -187,10 +190,13 @@
     <t>信维通信</t>
   </si>
   <si>
-    <t>凯撒文化</t>
-  </si>
-  <si>
-    <t>002425</t>
+    <t>北京文化</t>
+  </si>
+  <si>
+    <t>000802</t>
+  </si>
+  <si>
+    <t>北陆药业</t>
   </si>
   <si>
     <t>华大基因</t>
@@ -208,12 +214,6 @@
     <t>华荣股份</t>
   </si>
   <si>
-    <t>华闻集团</t>
-  </si>
-  <si>
-    <t>000793</t>
-  </si>
-  <si>
     <t>南大光电</t>
   </si>
   <si>
@@ -238,9 +238,6 @@
     <t>002385</t>
   </si>
   <si>
-    <t>太极集团</t>
-  </si>
-  <si>
     <t>奥特佳</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
     <t>捷昌驱动</t>
   </si>
   <si>
-    <t>新力金融</t>
-  </si>
-  <si>
     <t>新媒股份</t>
   </si>
   <si>
@@ -304,6 +298,15 @@
     <t>普莱柯</t>
   </si>
   <si>
+    <t>杉杉股份</t>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+  </si>
+  <si>
+    <t>000568</t>
+  </si>
+  <si>
     <t>海利生物</t>
   </si>
   <si>
@@ -313,24 +316,27 @@
     <t>002174</t>
   </si>
   <si>
-    <t>漫步者</t>
-  </si>
-  <si>
-    <t>002351</t>
-  </si>
-  <si>
-    <t>王府井</t>
-  </si>
-  <si>
     <t>电魂网络</t>
   </si>
   <si>
+    <t>百联股份</t>
+  </si>
+  <si>
+    <t>盛天网络</t>
+  </si>
+  <si>
+    <t>秀强股份</t>
+  </si>
+  <si>
     <t>科创额度</t>
   </si>
   <si>
     <t>SHKCED</t>
   </si>
   <si>
+    <t>立思辰</t>
+  </si>
+  <si>
     <t>老板电器</t>
   </si>
   <si>
@@ -361,6 +367,9 @@
     <t>002382</t>
   </si>
   <si>
+    <t>西藏药业</t>
+  </si>
+  <si>
     <t>贝达药业</t>
   </si>
   <si>
@@ -373,9 +382,18 @@
     <t>赤峰黄金</t>
   </si>
   <si>
+    <t>跨境通</t>
+  </si>
+  <si>
+    <t>002640</t>
+  </si>
+  <si>
     <t>达志科技</t>
   </si>
   <si>
+    <t>通化东宝</t>
+  </si>
+  <si>
     <t>通威股份</t>
   </si>
   <si>
@@ -407,9 +425,6 @@
   </si>
   <si>
     <t>002541</t>
-  </si>
-  <si>
-    <t>鹏博士</t>
   </si>
 </sst>
 </file>
@@ -801,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -881,28 +896,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>2432831.1</v>
+        <v>2649375.5</v>
       </c>
       <c r="D3" s="3">
-        <v>2641247.19</v>
+        <v>2822484.22</v>
       </c>
       <c r="E3" s="3">
-        <v>2432831.1</v>
+        <v>2649375.5</v>
       </c>
       <c r="F3" s="3">
-        <v>-208416.09</v>
+        <v>-173108.72</v>
       </c>
       <c r="G3" s="3">
-        <v>20516075.8</v>
+        <v>20655984.23</v>
       </c>
       <c r="H3" s="3">
-        <v>23157322.99</v>
+        <v>23478468.45</v>
       </c>
       <c r="I3" s="3">
-        <v>1075340.61</v>
+        <v>1472594.55</v>
       </c>
       <c r="J3" s="3">
-        <v>520991.4</v>
+        <v>320500.11</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1009,10 +1024,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>268000</v>
+        <v>294000</v>
       </c>
       <c r="C8" s="3">
-        <v>268500</v>
+        <v>294000</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1026,7 +1041,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>583500</v>
+        <v>632500</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1105,37 +1120,37 @@
         <v>40</v>
       </c>
       <c r="B12" s="6">
-        <v>600641</v>
+        <v>600859</v>
       </c>
       <c r="C12" s="6">
-        <v>26900</v>
+        <v>15600</v>
       </c>
       <c r="D12" s="6">
-        <v>0</v>
+        <v>15600</v>
       </c>
       <c r="E12" s="6">
-        <v>26900</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>23.5</v>
+        <v>49.69</v>
       </c>
       <c r="G12" s="7">
-        <v>21.944</v>
+        <v>38.071</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>632150</v>
+        <v>775164</v>
       </c>
       <c r="J12" s="7">
-        <v>41860.46</v>
+        <v>181255.7</v>
       </c>
       <c r="K12" s="7">
-        <v>41860.46</v>
+        <v>70512</v>
       </c>
       <c r="L12" s="8">
-        <v>7.09</v>
+        <v>30.52</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>24</v>
@@ -1145,47 +1160,47 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="10">
-        <v>300624</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>80.5</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>-4443.93</v>
-      </c>
-      <c r="K13" s="11">
-        <v>108.9</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>25</v>
+      <c r="B13" s="6">
+        <v>600641</v>
+      </c>
+      <c r="C13" s="6">
+        <v>26900</v>
+      </c>
+      <c r="D13" s="6">
+        <v>26900</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>23.45</v>
+      </c>
+      <c r="G13" s="7">
+        <v>21.943</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>630805</v>
+      </c>
+      <c r="J13" s="7">
+        <v>40548.51</v>
+      </c>
+      <c r="K13" s="7">
+        <v>-1345</v>
+      </c>
+      <c r="L13" s="8">
+        <v>6.87</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -1205,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>21.9</v>
+        <v>22.03</v>
       </c>
       <c r="G14" s="7">
         <v>19.244</v>
@@ -1214,16 +1229,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>188340</v>
+        <v>189458</v>
       </c>
       <c r="J14" s="7">
-        <v>22844.5</v>
+        <v>23962.5</v>
       </c>
       <c r="K14" s="7">
-        <v>2752</v>
+        <v>1118</v>
       </c>
       <c r="L14" s="8">
-        <v>13.8</v>
+        <v>14.48</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>26</v>
@@ -1249,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="11">
-        <v>15.31</v>
+        <v>15.27</v>
       </c>
       <c r="G15" s="11">
         <v>15.447</v>
@@ -1258,16 +1273,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="11">
-        <v>594028</v>
+        <v>592476</v>
       </c>
       <c r="J15" s="11">
-        <v>-5326.23</v>
+        <v>-6878.23</v>
       </c>
       <c r="K15" s="11">
-        <v>8148</v>
+        <v>-1552</v>
       </c>
       <c r="L15" s="9">
-        <v>-0.89</v>
+        <v>-1.15</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>26</v>
@@ -1277,261 +1292,261 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="6">
-        <v>13400</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>13400</v>
-      </c>
-      <c r="F16" s="7">
-        <v>20.95</v>
-      </c>
-      <c r="G16" s="7">
-        <v>20.666</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>280730</v>
-      </c>
-      <c r="J16" s="7">
-        <v>3810.37</v>
-      </c>
-      <c r="K16" s="7">
-        <v>3810.37</v>
-      </c>
-      <c r="L16" s="8">
-        <v>1.37</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>25</v>
+      <c r="B16" s="10">
+        <v>603920</v>
+      </c>
+      <c r="C16" s="10">
+        <v>500</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>500</v>
+      </c>
+      <c r="F16" s="11">
+        <v>24.91</v>
+      </c>
+      <c r="G16" s="11">
+        <v>25.469</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>12455</v>
+      </c>
+      <c r="J16" s="11">
+        <v>-279.25</v>
+      </c>
+      <c r="K16" s="11">
+        <v>-279.25</v>
+      </c>
+      <c r="L16" s="9">
+        <v>-2.19</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="6">
+        <v>13400</v>
+      </c>
+      <c r="D17" s="6">
+        <v>13400</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>20.7</v>
+      </c>
+      <c r="G17" s="7">
+        <v>20.662</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>277380</v>
+      </c>
+      <c r="J17" s="7">
+        <v>505.01</v>
+      </c>
+      <c r="K17" s="7">
+        <v>-3350</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="6">
+      <c r="B18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="6">
         <v>27700</v>
       </c>
-      <c r="D17" s="6">
-        <v>7700</v>
-      </c>
-      <c r="E17" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F17" s="7">
-        <v>22.46</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="D18" s="6">
+        <v>27700</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>22.43</v>
+      </c>
+      <c r="G18" s="7">
         <v>21.373</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>622142</v>
-      </c>
-      <c r="J17" s="7">
-        <v>30108.06</v>
-      </c>
-      <c r="K17" s="7">
-        <v>35058.77</v>
-      </c>
-      <c r="L17" s="8">
-        <v>5.09</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="10">
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>621311</v>
+      </c>
+      <c r="J18" s="7">
+        <v>29277.06</v>
+      </c>
+      <c r="K18" s="7">
+        <v>-831</v>
+      </c>
+      <c r="L18" s="8">
+        <v>4.95</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="10">
         <v>600676</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C19" s="10">
         <v>50100</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D19" s="10">
         <v>50100</v>
       </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>5.56</v>
-      </c>
-      <c r="G18" s="11">
-        <v>5.763</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
-        <v>278556</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-10187.33</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-4452.61</v>
-      </c>
-      <c r="L18" s="9">
-        <v>-3.52</v>
-      </c>
-      <c r="M18" s="9" t="s">
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>5.55</v>
+      </c>
+      <c r="G19" s="11">
+        <v>5.761</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>278055</v>
+      </c>
+      <c r="J19" s="11">
+        <v>-10572.79</v>
+      </c>
+      <c r="K19" s="11">
+        <v>-501</v>
+      </c>
+      <c r="L19" s="9">
+        <v>-3.66</v>
+      </c>
+      <c r="M19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N19" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="8" t="s">
+    <row r="20" spans="1:14">
+      <c r="A20" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="6">
+      <c r="B20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="10">
         <v>26500</v>
       </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D20" s="10">
         <v>26500</v>
       </c>
-      <c r="F19" s="7">
-        <v>22.97</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>22.54</v>
+      </c>
+      <c r="G20" s="11">
         <v>22.773</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>608705</v>
-      </c>
-      <c r="J19" s="7">
-        <v>5217.74</v>
-      </c>
-      <c r="K19" s="7">
-        <v>5217.74</v>
-      </c>
-      <c r="L19" s="8">
-        <v>0.87</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="6">
-        <v>20000</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F20" s="7">
-        <v>17.16</v>
-      </c>
-      <c r="G20" s="7">
-        <v>16.651</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>343200</v>
-      </c>
-      <c r="J20" s="7">
-        <v>10181.34</v>
-      </c>
-      <c r="K20" s="7">
-        <v>10181.34</v>
-      </c>
-      <c r="L20" s="8">
-        <v>3.06</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="8" t="s">
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>597310</v>
+      </c>
+      <c r="J20" s="11">
+        <v>-6173.44</v>
+      </c>
+      <c r="K20" s="11">
+        <v>-11395</v>
+      </c>
+      <c r="L20" s="9">
+        <v>-1.02</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="6">
-        <v>300673</v>
-      </c>
       <c r="C21" s="6">
-        <v>4700</v>
+        <v>34900</v>
       </c>
       <c r="D21" s="6">
-        <v>4700</v>
+        <v>20000</v>
       </c>
       <c r="E21" s="6">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="F21" s="7">
-        <v>38.88</v>
+        <v>18.41</v>
       </c>
       <c r="G21" s="7">
-        <v>35.648</v>
+        <v>17.2</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>182736</v>
+        <v>642509</v>
       </c>
       <c r="J21" s="7">
-        <v>15190.2</v>
+        <v>42234.04</v>
       </c>
       <c r="K21" s="7">
-        <v>-376</v>
+        <v>32043.33</v>
       </c>
       <c r="L21" s="8">
-        <v>9.07</v>
+        <v>7.03</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>26</v>
@@ -1545,125 +1560,125 @@
         <v>56</v>
       </c>
       <c r="B22" s="6">
+        <v>300673</v>
+      </c>
+      <c r="C22" s="6">
+        <v>4700</v>
+      </c>
+      <c r="D22" s="6">
+        <v>4700</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>39.51</v>
+      </c>
+      <c r="G22" s="7">
+        <v>35.648</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>185697</v>
+      </c>
+      <c r="J22" s="7">
+        <v>18151.2</v>
+      </c>
+      <c r="K22" s="7">
+        <v>2961</v>
+      </c>
+      <c r="L22" s="8">
+        <v>10.83</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="6">
         <v>300136</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C23" s="6">
         <v>5400</v>
       </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D23" s="6">
         <v>5400</v>
       </c>
-      <c r="F22" s="7">
-        <v>53.02</v>
-      </c>
-      <c r="G22" s="7">
-        <v>49.987</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>286308</v>
-      </c>
-      <c r="J22" s="7">
-        <v>16380.09</v>
-      </c>
-      <c r="K22" s="7">
-        <v>16380.09</v>
-      </c>
-      <c r="L22" s="8">
-        <v>6.07</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11">
-        <v>17.56</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11">
-        <v>-7777.16</v>
-      </c>
-      <c r="K23" s="11">
-        <v>-3109.41</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" s="9" t="s">
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>53.33</v>
+      </c>
+      <c r="G23" s="7">
+        <v>49.986</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>287982</v>
+      </c>
+      <c r="J23" s="7">
+        <v>18056.92</v>
+      </c>
+      <c r="K23" s="7">
+        <v>1674</v>
+      </c>
+      <c r="L23" s="8">
+        <v>6.69</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="6">
-        <v>300676</v>
-      </c>
       <c r="C24" s="6">
-        <v>4300</v>
+        <v>23100</v>
       </c>
       <c r="D24" s="6">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="E24" s="6">
-        <v>0</v>
+        <v>23100</v>
       </c>
       <c r="F24" s="7">
-        <v>155.91</v>
+        <v>6.74</v>
       </c>
       <c r="G24" s="7">
-        <v>136.521</v>
+        <v>6.496</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>670413</v>
+        <v>155694</v>
       </c>
       <c r="J24" s="7">
-        <v>83373.06</v>
+        <v>5633.56</v>
       </c>
       <c r="K24" s="7">
-        <v>18920</v>
+        <v>5633.56</v>
       </c>
       <c r="L24" s="8">
-        <v>14.2</v>
+        <v>3.76</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>26</v>
@@ -1673,85 +1688,85 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="6">
-        <v>511990</v>
-      </c>
-      <c r="C25" s="6">
-        <v>6</v>
-      </c>
-      <c r="D25" s="6">
-        <v>6</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>99.974</v>
-      </c>
-      <c r="G25" s="7">
-        <v>-6751.737</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>599.84</v>
-      </c>
-      <c r="J25" s="7">
-        <v>41110.26</v>
-      </c>
-      <c r="K25" s="7">
-        <v>-0.01</v>
-      </c>
-      <c r="L25" s="8">
-        <v>0</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>23</v>
+      <c r="B25" s="10">
+        <v>300016</v>
+      </c>
+      <c r="C25" s="10">
+        <v>43700</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>43700</v>
+      </c>
+      <c r="F25" s="11">
+        <v>11.92</v>
+      </c>
+      <c r="G25" s="11">
+        <v>12.274</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>520904</v>
+      </c>
+      <c r="J25" s="11">
+        <v>-15451.1</v>
+      </c>
+      <c r="K25" s="11">
+        <v>-15451.1</v>
+      </c>
+      <c r="L25" s="9">
+        <v>-2.88</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>62</v>
+      <c r="B26" s="6">
+        <v>300676</v>
       </c>
       <c r="C26" s="6">
-        <v>34100</v>
+        <v>500</v>
       </c>
       <c r="D26" s="6">
-        <v>34100</v>
+        <v>500</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
       </c>
       <c r="F26" s="7">
-        <v>18.94</v>
+        <v>156.29</v>
       </c>
       <c r="G26" s="7">
-        <v>17.456</v>
+        <v>-27.522</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>645854</v>
+        <v>78145</v>
       </c>
       <c r="J26" s="7">
-        <v>50598.83</v>
+        <v>91905.99</v>
       </c>
       <c r="K26" s="7">
-        <v>7161</v>
+        <v>8532.93</v>
       </c>
       <c r="L26" s="8">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>26</v>
@@ -1762,40 +1777,40 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="6">
-        <v>603855</v>
+        <v>511990</v>
       </c>
       <c r="C27" s="6">
-        <v>11000</v>
+        <v>6</v>
       </c>
       <c r="D27" s="6">
-        <v>11000</v>
+        <v>6</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>17.85</v>
+        <v>99.971</v>
       </c>
       <c r="G27" s="7">
-        <v>15.958</v>
+        <v>-6751.737</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>196350</v>
+        <v>599.83</v>
       </c>
       <c r="J27" s="7">
-        <v>20812.67</v>
+        <v>41110.25</v>
       </c>
       <c r="K27" s="7">
-        <v>17050</v>
+        <v>-0.01</v>
       </c>
       <c r="L27" s="8">
-        <v>11.86</v>
+        <v>0</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>24</v>
@@ -1805,129 +1820,129 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="6">
+        <v>20520</v>
+      </c>
+      <c r="D28" s="6">
+        <v>20520</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>11.62</v>
+      </c>
+      <c r="G28" s="7">
+        <v>9.417</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>238442.4</v>
+      </c>
+      <c r="J28" s="7">
+        <v>45207.57</v>
+      </c>
+      <c r="K28" s="7">
+        <v>-5404.9</v>
+      </c>
+      <c r="L28" s="8">
+        <v>23.39</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="10">
-        <v>0</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11">
-        <v>4.12</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
-        <v>0</v>
-      </c>
-      <c r="J28" s="11">
-        <v>-4346.39</v>
-      </c>
-      <c r="K28" s="11">
-        <v>5153.9</v>
-      </c>
-      <c r="L28" s="9">
-        <v>0</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="10">
-        <v>300346</v>
-      </c>
-      <c r="C29" s="10">
-        <v>13800</v>
-      </c>
-      <c r="D29" s="10">
-        <v>3800</v>
-      </c>
-      <c r="E29" s="10">
-        <v>10000</v>
-      </c>
-      <c r="F29" s="11">
-        <v>43.12</v>
-      </c>
-      <c r="G29" s="11">
-        <v>43.17</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>595056</v>
-      </c>
-      <c r="J29" s="11">
-        <v>-689.48</v>
-      </c>
-      <c r="K29" s="11">
-        <v>705.83</v>
-      </c>
-      <c r="L29" s="9">
-        <v>-0.12</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>25</v>
+      <c r="B29" s="6">
+        <v>603855</v>
+      </c>
+      <c r="C29" s="6">
+        <v>11000</v>
+      </c>
+      <c r="D29" s="6">
+        <v>11000</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>17.56</v>
+      </c>
+      <c r="G29" s="7">
+        <v>15.958</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>193160</v>
+      </c>
+      <c r="J29" s="7">
+        <v>17622.67</v>
+      </c>
+      <c r="K29" s="7">
+        <v>-3190</v>
+      </c>
+      <c r="L29" s="8">
+        <v>10.04</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="B30" s="10">
+        <v>300346</v>
       </c>
       <c r="C30" s="10">
-        <v>19400</v>
+        <v>0</v>
       </c>
       <c r="D30" s="10">
-        <v>19400</v>
+        <v>0</v>
       </c>
       <c r="E30" s="10">
         <v>0</v>
       </c>
       <c r="F30" s="11">
-        <v>24.94</v>
+        <v>42.42</v>
       </c>
       <c r="G30" s="11">
-        <v>26.501</v>
+        <v>0</v>
       </c>
       <c r="H30" s="11">
         <v>0</v>
       </c>
       <c r="I30" s="11">
-        <v>483836</v>
+        <v>0</v>
       </c>
       <c r="J30" s="11">
-        <v>-30291.84</v>
+        <v>-7675.41</v>
       </c>
       <c r="K30" s="11">
-        <v>-582</v>
+        <v>-6985.93</v>
       </c>
       <c r="L30" s="9">
-        <v>-5.89</v>
+        <v>0</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>26</v>
@@ -1938,128 +1953,128 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="6">
+        <v>19400</v>
+      </c>
+      <c r="D31" s="6">
+        <v>19400</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>26.89</v>
+      </c>
+      <c r="G31" s="7">
+        <v>26.501</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>521666</v>
+      </c>
+      <c r="J31" s="7">
+        <v>7538.16</v>
+      </c>
+      <c r="K31" s="7">
+        <v>37830</v>
+      </c>
+      <c r="L31" s="8">
+        <v>1.47</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B32" s="6">
         <v>603444</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C32" s="6">
         <v>700</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D32" s="6">
         <v>700</v>
       </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>549.01</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>549</v>
+      </c>
+      <c r="G32" s="7">
         <v>526.132</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>384307</v>
-      </c>
-      <c r="J31" s="7">
-        <v>16014.77</v>
-      </c>
-      <c r="K31" s="7">
-        <v>14987</v>
-      </c>
-      <c r="L31" s="8">
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>384300</v>
+      </c>
+      <c r="J32" s="7">
+        <v>16007.77</v>
+      </c>
+      <c r="K32" s="7">
+        <v>-7</v>
+      </c>
+      <c r="L32" s="8">
         <v>4.35</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="M32" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N31" s="8" t="s">
+      <c r="N32" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="10">
-        <v>3700</v>
-      </c>
-      <c r="D32" s="10">
-        <v>3700</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11">
-        <v>29</v>
-      </c>
-      <c r="G32" s="11">
-        <v>31.233</v>
-      </c>
-      <c r="H32" s="11">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11">
-        <v>107300</v>
-      </c>
-      <c r="J32" s="11">
-        <v>-8260.81</v>
-      </c>
-      <c r="K32" s="11">
-        <v>1332</v>
-      </c>
-      <c r="L32" s="9">
-        <v>-7.15</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C33" s="10">
-        <v>65300</v>
+        <v>0</v>
       </c>
       <c r="D33" s="10">
-        <v>35300</v>
+        <v>0</v>
       </c>
       <c r="E33" s="10">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F33" s="11">
-        <v>9.11</v>
+        <v>30.05</v>
       </c>
       <c r="G33" s="11">
-        <v>9.319</v>
+        <v>0</v>
       </c>
       <c r="H33" s="11">
         <v>0</v>
       </c>
       <c r="I33" s="11">
-        <v>594883</v>
+        <v>0</v>
       </c>
       <c r="J33" s="11">
-        <v>-13656.24</v>
+        <v>-8454.06</v>
       </c>
       <c r="K33" s="11">
-        <v>13015.33</v>
+        <v>-193.25</v>
       </c>
       <c r="L33" s="9">
-        <v>-2.24</v>
+        <v>0</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>26</v>
@@ -2070,84 +2085,84 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="10">
-        <v>600129</v>
+        <v>72</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="C34" s="10">
-        <v>0</v>
+        <v>65300</v>
       </c>
       <c r="D34" s="10">
-        <v>0</v>
+        <v>65300</v>
       </c>
       <c r="E34" s="10">
         <v>0</v>
       </c>
       <c r="F34" s="11">
-        <v>14.14</v>
+        <v>9.09</v>
       </c>
       <c r="G34" s="11">
-        <v>0</v>
+        <v>9.319</v>
       </c>
       <c r="H34" s="11">
         <v>0</v>
       </c>
       <c r="I34" s="11">
-        <v>0</v>
+        <v>593577</v>
       </c>
       <c r="J34" s="11">
-        <v>-1695.55</v>
+        <v>-14962.24</v>
       </c>
       <c r="K34" s="11">
-        <v>223.86</v>
+        <v>-1306</v>
       </c>
       <c r="L34" s="9">
-        <v>0</v>
+        <v>-2.46</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="C35" s="6">
-        <v>56100</v>
+        <v>146600</v>
       </c>
       <c r="D35" s="6">
         <v>56100</v>
       </c>
       <c r="E35" s="6">
-        <v>0</v>
+        <v>90500</v>
       </c>
       <c r="F35" s="7">
-        <v>4.08</v>
+        <v>4.49</v>
       </c>
       <c r="G35" s="7">
-        <v>3.895</v>
+        <v>4.25</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>228888</v>
+        <v>658234</v>
       </c>
       <c r="J35" s="7">
-        <v>10384.6</v>
+        <v>35143.01</v>
       </c>
       <c r="K35" s="7">
-        <v>20757</v>
+        <v>24758.41</v>
       </c>
       <c r="L35" s="8">
-        <v>4.75</v>
+        <v>5.65</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>26</v>
@@ -2157,129 +2172,129 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="C36" s="6">
+        <v>15100</v>
+      </c>
+      <c r="D36" s="6">
+        <v>15100</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>13.08</v>
+      </c>
+      <c r="G36" s="7">
+        <v>13.061</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>197508</v>
+      </c>
+      <c r="J36" s="7">
+        <v>281.36</v>
+      </c>
+      <c r="K36" s="7">
+        <v>3171</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="10">
-        <v>15100</v>
-      </c>
-      <c r="D36" s="10">
-        <v>15100</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11">
-        <v>12.87</v>
-      </c>
-      <c r="G36" s="11">
-        <v>13.061</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>194337</v>
-      </c>
-      <c r="J36" s="11">
-        <v>-2889.64</v>
-      </c>
-      <c r="K36" s="11">
-        <v>1208</v>
-      </c>
-      <c r="L36" s="9">
-        <v>-1.46</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="6">
+      <c r="B37" s="10">
         <v>300328</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="10">
         <v>600</v>
       </c>
-      <c r="D37" s="6">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6">
+      <c r="D37" s="10">
         <v>600</v>
       </c>
-      <c r="F37" s="7">
-        <v>11.97</v>
-      </c>
-      <c r="G37" s="7">
-        <v>11.848</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>7182</v>
-      </c>
-      <c r="J37" s="7">
-        <v>73</v>
-      </c>
-      <c r="K37" s="7">
-        <v>73</v>
-      </c>
-      <c r="L37" s="8">
-        <v>1.03</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N37" s="8" t="s">
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>11.74</v>
+      </c>
+      <c r="G37" s="11">
+        <v>11.842</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>7044</v>
+      </c>
+      <c r="J37" s="11">
+        <v>-60.92</v>
+      </c>
+      <c r="K37" s="11">
+        <v>-138</v>
+      </c>
+      <c r="L37" s="9">
+        <v>-0.86</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="6">
         <v>600604</v>
       </c>
       <c r="C38" s="6">
-        <v>16100</v>
+        <v>0</v>
       </c>
       <c r="D38" s="6">
         <v>0</v>
       </c>
       <c r="E38" s="6">
-        <v>16100</v>
+        <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>9.41</v>
+        <v>9.28</v>
       </c>
       <c r="G38" s="7">
-        <v>9.205</v>
+        <v>0</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>151501</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7">
-        <v>3305.41</v>
+        <v>524.56</v>
       </c>
       <c r="K38" s="7">
-        <v>3305.41</v>
+        <v>-2793.22</v>
       </c>
       <c r="L38" s="8">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>24</v>
@@ -2290,10 +2305,10 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="C39" s="6">
         <v>2900</v>
@@ -2305,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="7">
-        <v>69.7</v>
+        <v>70.38</v>
       </c>
       <c r="G39" s="7">
         <v>57.369</v>
@@ -2314,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>202130</v>
+        <v>204102</v>
       </c>
       <c r="J39" s="7">
-        <v>35759.37</v>
+        <v>37731.37</v>
       </c>
       <c r="K39" s="7">
-        <v>2900</v>
+        <v>1972</v>
       </c>
       <c r="L39" s="8">
-        <v>21.49</v>
+        <v>22.68</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>26</v>
@@ -2334,7 +2349,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="6">
         <v>300601</v>
@@ -2343,31 +2358,31 @@
         <v>200</v>
       </c>
       <c r="D40" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E40" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F40" s="7">
-        <v>162.16</v>
+        <v>161.33</v>
       </c>
       <c r="G40" s="7">
-        <v>159.825</v>
+        <v>159.821</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>32432</v>
+        <v>32266</v>
       </c>
       <c r="J40" s="7">
-        <v>467</v>
+        <v>301.85</v>
       </c>
       <c r="K40" s="7">
-        <v>467</v>
+        <v>-166</v>
       </c>
       <c r="L40" s="8">
-        <v>1.46</v>
+        <v>0.94</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>26</v>
@@ -2378,7 +2393,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" s="6">
         <v>300073</v>
@@ -2393,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="7">
-        <v>33.07</v>
+        <v>34.03</v>
       </c>
       <c r="G41" s="7">
         <v>31.454</v>
@@ -2402,16 +2417,16 @@
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>648172</v>
+        <v>666988</v>
       </c>
       <c r="J41" s="7">
-        <v>31664.86</v>
+        <v>50480.86</v>
       </c>
       <c r="K41" s="7">
-        <v>9996</v>
+        <v>18816</v>
       </c>
       <c r="L41" s="8">
-        <v>5.14</v>
+        <v>8.19</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>26</v>
@@ -2422,7 +2437,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B42" s="6">
         <v>603650</v>
@@ -2437,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="7">
-        <v>23.27</v>
+        <v>23.1</v>
       </c>
       <c r="G42" s="7">
         <v>22.312</v>
@@ -2446,16 +2461,16 @@
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>183833</v>
+        <v>182490</v>
       </c>
       <c r="J42" s="7">
-        <v>7564.6</v>
+        <v>6221.6</v>
       </c>
       <c r="K42" s="7">
-        <v>-2370</v>
+        <v>-1343</v>
       </c>
       <c r="L42" s="8">
-        <v>4.29</v>
+        <v>3.53</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>24</v>
@@ -2466,10 +2481,10 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="C43" s="6">
         <v>11200</v>
@@ -2481,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>61.33</v>
+        <v>62.31</v>
       </c>
       <c r="G43" s="7">
         <v>52.111</v>
@@ -2490,16 +2505,16 @@
         <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>686896</v>
+        <v>697872</v>
       </c>
       <c r="J43" s="7">
-        <v>103249.21</v>
+        <v>114225.21</v>
       </c>
       <c r="K43" s="7">
-        <v>62496</v>
+        <v>10976</v>
       </c>
       <c r="L43" s="8">
-        <v>17.69</v>
+        <v>19.57</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>26</v>
@@ -2510,40 +2525,40 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44" s="6">
         <v>600486</v>
       </c>
       <c r="C44" s="6">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="D44" s="6">
         <v>0</v>
       </c>
       <c r="E44" s="6">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="F44" s="7">
-        <v>82.5</v>
+        <v>81.25</v>
       </c>
       <c r="G44" s="7">
-        <v>81.811</v>
+        <v>0</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>354750</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7">
-        <v>2962.99</v>
+        <v>308.93</v>
       </c>
       <c r="K44" s="7">
-        <v>2962.99</v>
+        <v>-2700.37</v>
       </c>
       <c r="L44" s="8">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>24</v>
@@ -2554,40 +2569,40 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="6">
         <v>300373</v>
       </c>
       <c r="C45" s="6">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D45" s="6">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E45" s="6">
         <v>0</v>
       </c>
       <c r="F45" s="7">
-        <v>33.52</v>
+        <v>32.89</v>
       </c>
       <c r="G45" s="7">
-        <v>32.824</v>
+        <v>0</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
       <c r="I45" s="7">
-        <v>10056</v>
+        <v>0</v>
       </c>
       <c r="J45" s="7">
-        <v>208.72</v>
+        <v>142.71</v>
       </c>
       <c r="K45" s="7">
-        <v>-54</v>
+        <v>-66.01</v>
       </c>
       <c r="L45" s="8">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>26</v>
@@ -2598,7 +2613,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" s="6">
         <v>300623</v>
@@ -2613,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="7">
-        <v>30.05</v>
+        <v>30.08</v>
       </c>
       <c r="G46" s="7">
         <v>28.474</v>
@@ -2622,16 +2637,16 @@
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>643070</v>
+        <v>643712</v>
       </c>
       <c r="J46" s="7">
-        <v>33723.2</v>
+        <v>34365.2</v>
       </c>
       <c r="K46" s="7">
-        <v>3638</v>
+        <v>642</v>
       </c>
       <c r="L46" s="8">
-        <v>5.53</v>
+        <v>5.64</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>26</v>
@@ -2642,7 +2657,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" s="6">
         <v>603583</v>
@@ -2657,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="7">
-        <v>68.38</v>
+        <v>71.82</v>
       </c>
       <c r="G47" s="7">
         <v>63.255</v>
@@ -2666,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>184626</v>
+        <v>193914</v>
       </c>
       <c r="J47" s="7">
-        <v>13838.35</v>
+        <v>23126.35</v>
       </c>
       <c r="K47" s="7">
-        <v>5751</v>
+        <v>9288</v>
       </c>
       <c r="L47" s="8">
-        <v>8.1</v>
+        <v>13.54</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>24</v>
@@ -2685,129 +2700,129 @@
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="10">
-        <v>600318</v>
-      </c>
-      <c r="C48" s="10">
-        <v>0</v>
-      </c>
-      <c r="D48" s="10">
-        <v>0</v>
-      </c>
-      <c r="E48" s="10">
-        <v>0</v>
-      </c>
-      <c r="F48" s="11">
-        <v>12.74</v>
-      </c>
-      <c r="G48" s="11">
-        <v>0</v>
-      </c>
-      <c r="H48" s="11">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
-        <v>-75733.08</v>
-      </c>
-      <c r="K48" s="11">
-        <v>-12925.13</v>
-      </c>
-      <c r="L48" s="9">
-        <v>0</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>23</v>
+      <c r="A48" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="6">
+        <v>300770</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2800</v>
+      </c>
+      <c r="D48" s="6">
+        <v>2800</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>221.67</v>
+      </c>
+      <c r="G48" s="7">
+        <v>210.369</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>620676</v>
+      </c>
+      <c r="J48" s="7">
+        <v>31643.47</v>
+      </c>
+      <c r="K48" s="7">
+        <v>-5572</v>
+      </c>
+      <c r="L48" s="8">
+        <v>5.37</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" s="6">
-        <v>300770</v>
+        <v>603127</v>
       </c>
       <c r="C49" s="6">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="D49" s="6">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>223.66</v>
+        <v>103.5</v>
       </c>
       <c r="G49" s="7">
-        <v>210.369</v>
+        <v>0</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>626248</v>
+        <v>0</v>
       </c>
       <c r="J49" s="7">
-        <v>37215.47</v>
+        <v>99339.95</v>
       </c>
       <c r="K49" s="7">
-        <v>-10976</v>
+        <v>-4778.14</v>
       </c>
       <c r="L49" s="8">
-        <v>6.32</v>
+        <v>0</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" s="6">
-        <v>603127</v>
+        <v>603566</v>
       </c>
       <c r="C50" s="6">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="D50" s="6">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
       </c>
       <c r="F50" s="7">
-        <v>105.13</v>
+        <v>27.03</v>
       </c>
       <c r="G50" s="7">
-        <v>89.355</v>
+        <v>26.202</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>693858</v>
+        <v>170289</v>
       </c>
       <c r="J50" s="7">
-        <v>104118.09</v>
+        <v>5217.98</v>
       </c>
       <c r="K50" s="7">
-        <v>29238</v>
+        <v>-4158</v>
       </c>
       <c r="L50" s="8">
-        <v>17.65</v>
+        <v>3.16</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>24</v>
@@ -2817,217 +2832,217 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="10">
+        <v>600884</v>
+      </c>
+      <c r="C51" s="10">
+        <v>15000</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10">
+        <v>15000</v>
+      </c>
+      <c r="F51" s="11">
+        <v>12.1</v>
+      </c>
+      <c r="G51" s="11">
+        <v>12.212</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
+        <v>181500</v>
+      </c>
+      <c r="J51" s="11">
+        <v>-1677.47</v>
+      </c>
+      <c r="K51" s="11">
+        <v>-1677.47</v>
+      </c>
+      <c r="L51" s="9">
+        <v>-0.92</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="6">
-        <v>603566</v>
-      </c>
-      <c r="C51" s="6">
-        <v>6300</v>
-      </c>
-      <c r="D51" s="6">
-        <v>6300</v>
-      </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
-      <c r="F51" s="7">
-        <v>27.69</v>
-      </c>
-      <c r="G51" s="7">
-        <v>26.202</v>
-      </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7">
-        <v>174447</v>
-      </c>
-      <c r="J51" s="7">
-        <v>9375.98</v>
-      </c>
-      <c r="K51" s="7">
-        <v>2079</v>
-      </c>
-      <c r="L51" s="8">
-        <v>5.68</v>
-      </c>
-      <c r="M51" s="8" t="s">
+      <c r="B52" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="6">
+        <v>6600</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>6600</v>
+      </c>
+      <c r="F52" s="7">
+        <v>100.23</v>
+      </c>
+      <c r="G52" s="7">
+        <v>94.197</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>661518</v>
+      </c>
+      <c r="J52" s="7">
+        <v>39819.41</v>
+      </c>
+      <c r="K52" s="7">
+        <v>39819.41</v>
+      </c>
+      <c r="L52" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="6">
+        <v>603718</v>
+      </c>
+      <c r="C53" s="6">
+        <v>3800</v>
+      </c>
+      <c r="D53" s="6">
+        <v>3800</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>19.55</v>
+      </c>
+      <c r="G53" s="7">
+        <v>18.603</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>74290</v>
+      </c>
+      <c r="J53" s="7">
+        <v>3599.4</v>
+      </c>
+      <c r="K53" s="7">
+        <v>4902</v>
+      </c>
+      <c r="L53" s="8">
+        <v>5.09</v>
+      </c>
+      <c r="M53" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N51" s="8" t="s">
+      <c r="N53" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="10">
-        <v>603718</v>
-      </c>
-      <c r="C52" s="10">
-        <v>3800</v>
-      </c>
-      <c r="D52" s="10">
-        <v>3800</v>
-      </c>
-      <c r="E52" s="10">
-        <v>0</v>
-      </c>
-      <c r="F52" s="11">
-        <v>18.26</v>
-      </c>
-      <c r="G52" s="11">
-        <v>18.603</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>69388</v>
-      </c>
-      <c r="J52" s="11">
-        <v>-1302.6</v>
-      </c>
-      <c r="K52" s="11">
-        <v>-532</v>
-      </c>
-      <c r="L52" s="9">
-        <v>-1.84</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N52" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="9" t="s">
+    <row r="54" spans="1:14">
+      <c r="A54" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="10">
-        <v>12</v>
-      </c>
-      <c r="D53" s="10">
-        <v>12</v>
-      </c>
-      <c r="E53" s="10">
-        <v>0</v>
-      </c>
-      <c r="F53" s="11">
-        <v>26.08</v>
-      </c>
-      <c r="G53" s="11">
-        <v>1294.843</v>
-      </c>
-      <c r="H53" s="11">
-        <v>0</v>
-      </c>
-      <c r="I53" s="11">
-        <v>312.96</v>
-      </c>
-      <c r="J53" s="11">
-        <v>-15225.15</v>
-      </c>
-      <c r="K53" s="11">
-        <v>-539.25</v>
-      </c>
-      <c r="L53" s="9">
-        <v>-97.99</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N53" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="6">
-        <v>0</v>
-      </c>
-      <c r="D54" s="6">
-        <v>0</v>
-      </c>
-      <c r="E54" s="6">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7">
-        <v>21.12</v>
-      </c>
-      <c r="G54" s="7">
-        <v>0</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>0</v>
-      </c>
-      <c r="J54" s="7">
-        <v>16373.76</v>
-      </c>
-      <c r="K54" s="7">
-        <v>16751.93</v>
-      </c>
-      <c r="L54" s="8">
-        <v>0</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N54" s="8" t="s">
+      <c r="C54" s="10">
+        <v>0</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>25.85</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
+        <v>-15219.33</v>
+      </c>
+      <c r="K54" s="11">
+        <v>-3.99</v>
+      </c>
+      <c r="L54" s="9">
+        <v>0</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B55" s="6">
-        <v>600859</v>
+        <v>603258</v>
       </c>
       <c r="C55" s="6">
-        <v>15600</v>
+        <v>4400</v>
       </c>
       <c r="D55" s="6">
-        <v>15600</v>
+        <v>4400</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="7">
-        <v>45.55</v>
+        <v>56.1</v>
       </c>
       <c r="G55" s="7">
-        <v>38.451</v>
+        <v>48.915</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>710580</v>
+        <v>246840</v>
       </c>
       <c r="J55" s="7">
-        <v>110743.7</v>
+        <v>31613.97</v>
       </c>
       <c r="K55" s="7">
-        <v>64584</v>
+        <v>2376</v>
       </c>
       <c r="L55" s="8">
-        <v>18.46</v>
+        <v>14.69</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>24</v>
@@ -3038,40 +3053,40 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B56" s="6">
-        <v>603258</v>
+        <v>600827</v>
       </c>
       <c r="C56" s="6">
-        <v>4400</v>
+        <v>41400</v>
       </c>
       <c r="D56" s="6">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E56" s="6">
-        <v>3000</v>
+        <v>41400</v>
       </c>
       <c r="F56" s="7">
-        <v>55.56</v>
+        <v>15.22</v>
       </c>
       <c r="G56" s="7">
-        <v>48.915</v>
+        <v>14.904</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
       </c>
       <c r="I56" s="7">
-        <v>244464</v>
+        <v>630108</v>
       </c>
       <c r="J56" s="7">
-        <v>29237.97</v>
+        <v>13088.03</v>
       </c>
       <c r="K56" s="7">
-        <v>21946.22</v>
+        <v>13088.03</v>
       </c>
       <c r="L56" s="8">
-        <v>13.58</v>
+        <v>2.12</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>24</v>
@@ -3081,173 +3096,173 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="13">
-        <v>268500</v>
-      </c>
-      <c r="D57" s="13">
-        <v>268500</v>
-      </c>
-      <c r="E57" s="13">
-        <v>0</v>
-      </c>
-      <c r="F57" s="14">
-        <v>0</v>
-      </c>
-      <c r="G57" s="14">
-        <v>0</v>
-      </c>
-      <c r="H57" s="14">
-        <v>0</v>
-      </c>
-      <c r="I57" s="14">
-        <v>0</v>
-      </c>
-      <c r="J57" s="14">
-        <v>0</v>
-      </c>
-      <c r="K57" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L57" s="12">
-        <v>0</v>
-      </c>
-      <c r="M57" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N57" s="12" t="s">
-        <v>23</v>
+      <c r="A57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="10">
+        <v>300494</v>
+      </c>
+      <c r="C57" s="10">
+        <v>6400</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10">
+        <v>6400</v>
+      </c>
+      <c r="F57" s="11">
+        <v>24.51</v>
+      </c>
+      <c r="G57" s="11">
+        <v>25.226</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11">
+        <v>156864</v>
+      </c>
+      <c r="J57" s="11">
+        <v>-4582.67</v>
+      </c>
+      <c r="K57" s="11">
+        <v>-4582.67</v>
+      </c>
+      <c r="L57" s="9">
+        <v>-2.84</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="6">
+        <v>300160</v>
+      </c>
+      <c r="C58" s="6">
+        <v>73200</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>73200</v>
+      </c>
+      <c r="F58" s="7">
+        <v>8.51</v>
+      </c>
+      <c r="G58" s="7">
+        <v>8.508</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>622932</v>
+      </c>
+      <c r="J58" s="7">
+        <v>168.12</v>
+      </c>
+      <c r="K58" s="7">
+        <v>168.12</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C58" s="6">
-        <v>19200</v>
-      </c>
-      <c r="D58" s="6">
-        <v>0</v>
-      </c>
-      <c r="E58" s="6">
-        <v>19200</v>
-      </c>
-      <c r="F58" s="7">
-        <v>31.11</v>
-      </c>
-      <c r="G58" s="7">
-        <v>30.884</v>
-      </c>
-      <c r="H58" s="7">
-        <v>0</v>
-      </c>
-      <c r="I58" s="7">
-        <v>597312</v>
-      </c>
-      <c r="J58" s="7">
-        <v>4346.43</v>
-      </c>
-      <c r="K58" s="7">
-        <v>4346.43</v>
-      </c>
-      <c r="L58" s="8">
-        <v>0.73</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="6">
-        <v>1000</v>
-      </c>
-      <c r="D59" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E59" s="6">
-        <v>0</v>
-      </c>
-      <c r="F59" s="7">
-        <v>36.58</v>
-      </c>
-      <c r="G59" s="7">
-        <v>22.817</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0</v>
-      </c>
-      <c r="I59" s="7">
-        <v>36580</v>
-      </c>
-      <c r="J59" s="7">
-        <v>13762.53</v>
-      </c>
-      <c r="K59" s="7">
-        <v>-7809.83</v>
-      </c>
-      <c r="L59" s="8">
-        <v>60.32</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>25</v>
+      <c r="C59" s="13">
+        <v>294000</v>
+      </c>
+      <c r="D59" s="13">
+        <v>294000</v>
+      </c>
+      <c r="E59" s="13">
+        <v>0</v>
+      </c>
+      <c r="F59" s="14">
+        <v>0</v>
+      </c>
+      <c r="G59" s="14">
+        <v>0</v>
+      </c>
+      <c r="H59" s="14">
+        <v>0</v>
+      </c>
+      <c r="I59" s="14">
+        <v>0</v>
+      </c>
+      <c r="J59" s="14">
+        <v>0</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L59" s="12">
+        <v>0</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B60" s="6">
-        <v>300413</v>
+        <v>300010</v>
       </c>
       <c r="C60" s="6">
-        <v>500</v>
+        <v>3700</v>
       </c>
       <c r="D60" s="6">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E60" s="6">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="F60" s="7">
-        <v>65.2</v>
+        <v>20.66</v>
       </c>
       <c r="G60" s="7">
-        <v>63.806</v>
+        <v>19.837</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>32600</v>
+        <v>76442</v>
       </c>
       <c r="J60" s="7">
-        <v>696.85</v>
+        <v>3045.03</v>
       </c>
       <c r="K60" s="7">
-        <v>955</v>
+        <v>3045.03</v>
       </c>
       <c r="L60" s="8">
-        <v>2.18</v>
+        <v>4.15</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>26</v>
@@ -3257,85 +3272,85 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="10">
-        <v>1000</v>
-      </c>
-      <c r="D61" s="10">
-        <v>1000</v>
-      </c>
-      <c r="E61" s="10">
-        <v>0</v>
-      </c>
-      <c r="F61" s="11">
-        <v>13.17</v>
-      </c>
-      <c r="G61" s="11">
-        <v>13.542</v>
-      </c>
-      <c r="H61" s="11">
-        <v>0</v>
-      </c>
-      <c r="I61" s="11">
-        <v>13170</v>
-      </c>
-      <c r="J61" s="11">
-        <v>-371.76</v>
-      </c>
-      <c r="K61" s="11">
-        <v>-250</v>
-      </c>
-      <c r="L61" s="9">
-        <v>-2.75</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N61" s="9" t="s">
+      <c r="A61" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="6">
+        <v>19200</v>
+      </c>
+      <c r="D61" s="6">
+        <v>19200</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>31.9</v>
+      </c>
+      <c r="G61" s="7">
+        <v>30.881</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>612480</v>
+      </c>
+      <c r="J61" s="7">
+        <v>19560.9</v>
+      </c>
+      <c r="K61" s="7">
+        <v>15168</v>
+      </c>
+      <c r="L61" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="6">
-        <v>300677</v>
+        <v>109</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="C62" s="6">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="D62" s="6">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="E62" s="6">
         <v>0</v>
       </c>
       <c r="F62" s="7">
-        <v>127.8</v>
+        <v>34.6</v>
       </c>
       <c r="G62" s="7">
-        <v>107.135</v>
+        <v>22.762</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>242820</v>
+        <v>34600</v>
       </c>
       <c r="J62" s="7">
-        <v>39263.82</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>15</v>
+        <v>11838.16</v>
+      </c>
+      <c r="K62" s="7">
+        <v>-1980</v>
       </c>
       <c r="L62" s="8">
-        <v>19.29</v>
+        <v>52.01</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>26</v>
@@ -3346,216 +3361,216 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="6">
+        <v>300413</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>62.24</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
+        <v>283.61</v>
+      </c>
+      <c r="K63" s="7">
+        <v>-413.24</v>
+      </c>
+      <c r="L63" s="8">
+        <v>0</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="6">
-        <v>6300</v>
-      </c>
-      <c r="D63" s="6">
-        <v>6300</v>
-      </c>
-      <c r="E63" s="6">
-        <v>0</v>
-      </c>
-      <c r="F63" s="7">
-        <v>30.11</v>
-      </c>
-      <c r="G63" s="7">
-        <v>29.048</v>
-      </c>
-      <c r="H63" s="7">
-        <v>0</v>
-      </c>
-      <c r="I63" s="7">
-        <v>189693</v>
-      </c>
-      <c r="J63" s="7">
-        <v>6692.2</v>
-      </c>
-      <c r="K63" s="7">
-        <v>4347</v>
-      </c>
-      <c r="L63" s="8">
-        <v>3.66</v>
-      </c>
-      <c r="M63" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N63" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B64" s="6">
-        <v>300558</v>
-      </c>
-      <c r="C64" s="6">
-        <v>4500</v>
-      </c>
-      <c r="D64" s="6">
-        <v>4500</v>
-      </c>
-      <c r="E64" s="6">
-        <v>0</v>
-      </c>
-      <c r="F64" s="7">
-        <v>139.98</v>
-      </c>
-      <c r="G64" s="7">
-        <v>135.662</v>
-      </c>
-      <c r="H64" s="7">
-        <v>0</v>
-      </c>
-      <c r="I64" s="7">
-        <v>629910</v>
-      </c>
-      <c r="J64" s="7">
-        <v>19429.64</v>
-      </c>
-      <c r="K64" s="7">
-        <v>16605</v>
-      </c>
-      <c r="L64" s="8">
-        <v>3.18</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N64" s="8" t="s">
+      <c r="C64" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D64" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E64" s="10">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11">
+        <v>12.91</v>
+      </c>
+      <c r="G64" s="11">
+        <v>13.542</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+      <c r="I64" s="11">
+        <v>12910</v>
+      </c>
+      <c r="J64" s="11">
+        <v>-631.76</v>
+      </c>
+      <c r="K64" s="11">
+        <v>-260</v>
+      </c>
+      <c r="L64" s="9">
+        <v>-4.67</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B65" s="6">
-        <v>600459</v>
+        <v>300677</v>
       </c>
       <c r="C65" s="6">
-        <v>19900</v>
+        <v>0</v>
       </c>
       <c r="D65" s="6">
         <v>0</v>
       </c>
       <c r="E65" s="6">
-        <v>19900</v>
+        <v>0</v>
       </c>
       <c r="F65" s="7">
-        <v>29.81</v>
+        <v>123.05</v>
       </c>
       <c r="G65" s="7">
-        <v>29.605</v>
+        <v>0</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>593219</v>
+        <v>0</v>
       </c>
       <c r="J65" s="7">
-        <v>4074.03</v>
+        <v>31447.08</v>
       </c>
       <c r="K65" s="7">
-        <v>4074.03</v>
+        <v>-7816.74</v>
       </c>
       <c r="L65" s="8">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B66" s="6">
-        <v>603283</v>
+        <v>115</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="C66" s="6">
-        <v>12530</v>
+        <v>6300</v>
       </c>
       <c r="D66" s="6">
-        <v>12530</v>
+        <v>6300</v>
       </c>
       <c r="E66" s="6">
         <v>0</v>
       </c>
       <c r="F66" s="7">
-        <v>53.8</v>
+        <v>29.36</v>
       </c>
       <c r="G66" s="7">
-        <v>49.288</v>
+        <v>29.048</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>674114</v>
+        <v>184968</v>
       </c>
       <c r="J66" s="7">
-        <v>56534.37</v>
+        <v>1967.2</v>
       </c>
       <c r="K66" s="7">
-        <v>8019.2</v>
+        <v>-4725</v>
       </c>
       <c r="L66" s="8">
-        <v>9.15</v>
+        <v>1.07</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B67" s="6">
-        <v>600988</v>
+        <v>600211</v>
       </c>
       <c r="C67" s="6">
-        <v>16400</v>
+        <v>7300</v>
       </c>
       <c r="D67" s="6">
-        <v>16400</v>
+        <v>0</v>
       </c>
       <c r="E67" s="6">
-        <v>0</v>
+        <v>7300</v>
       </c>
       <c r="F67" s="7">
-        <v>11.9</v>
+        <v>69.2</v>
       </c>
       <c r="G67" s="7">
-        <v>11.015</v>
+        <v>66.746</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
       <c r="I67" s="7">
-        <v>195160</v>
+        <v>505160</v>
       </c>
       <c r="J67" s="7">
-        <v>14514.91</v>
+        <v>17911.33</v>
       </c>
       <c r="K67" s="7">
-        <v>328</v>
+        <v>17911.33</v>
       </c>
       <c r="L67" s="8">
-        <v>8.03</v>
+        <v>3.68</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>24</v>
@@ -3566,172 +3581,172 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="6">
+        <v>300558</v>
+      </c>
+      <c r="C68" s="6">
+        <v>4500</v>
+      </c>
+      <c r="D68" s="6">
+        <v>4500</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>139.21</v>
+      </c>
+      <c r="G68" s="7">
+        <v>135.662</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>626445</v>
+      </c>
+      <c r="J68" s="7">
+        <v>15964.64</v>
+      </c>
+      <c r="K68" s="7">
+        <v>-3465</v>
+      </c>
+      <c r="L68" s="8">
+        <v>2.62</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="6">
-        <v>300530</v>
-      </c>
-      <c r="C68" s="6">
-        <v>5000</v>
-      </c>
-      <c r="D68" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E68" s="6">
-        <v>0</v>
-      </c>
-      <c r="F68" s="7">
-        <v>41.28</v>
-      </c>
-      <c r="G68" s="7">
-        <v>41.119</v>
-      </c>
-      <c r="H68" s="7">
-        <v>0</v>
-      </c>
-      <c r="I68" s="7">
-        <v>206400</v>
-      </c>
-      <c r="J68" s="7">
-        <v>805.24</v>
-      </c>
-      <c r="K68" s="7">
-        <v>-2000</v>
-      </c>
-      <c r="L68" s="8">
-        <v>0.39</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N68" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69" s="10">
-        <v>600438</v>
-      </c>
-      <c r="C69" s="10">
-        <v>2100</v>
-      </c>
-      <c r="D69" s="10">
-        <v>2100</v>
-      </c>
-      <c r="E69" s="10">
-        <v>0</v>
-      </c>
-      <c r="F69" s="11">
-        <v>17.38</v>
-      </c>
-      <c r="G69" s="11">
-        <v>17.633</v>
-      </c>
-      <c r="H69" s="11">
-        <v>0</v>
-      </c>
-      <c r="I69" s="11">
-        <v>36498</v>
-      </c>
-      <c r="J69" s="11">
-        <v>-530.55</v>
-      </c>
-      <c r="K69" s="11">
-        <v>-42</v>
-      </c>
-      <c r="L69" s="9">
-        <v>-1.43</v>
-      </c>
-      <c r="M69" s="9" t="s">
+      <c r="B69" s="6">
+        <v>600459</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>29.13</v>
+      </c>
+      <c r="G69" s="7">
+        <v>0</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+      <c r="J69" s="7">
+        <v>7386.58</v>
+      </c>
+      <c r="K69" s="7">
+        <v>3196</v>
+      </c>
+      <c r="L69" s="8">
+        <v>0</v>
+      </c>
+      <c r="M69" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N69" s="9" t="s">
+      <c r="N69" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B70" s="6">
-        <v>300233</v>
+        <v>603283</v>
       </c>
       <c r="C70" s="6">
-        <v>19100</v>
+        <v>30</v>
       </c>
       <c r="D70" s="6">
-        <v>19100</v>
+        <v>30</v>
       </c>
       <c r="E70" s="6">
         <v>0</v>
       </c>
       <c r="F70" s="7">
-        <v>30.75</v>
+        <v>53.3</v>
       </c>
       <c r="G70" s="7">
-        <v>30.515</v>
+        <v>-1910.55</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>587325</v>
+        <v>1599</v>
       </c>
       <c r="J70" s="7">
-        <v>4488.25</v>
+        <v>58915.51</v>
       </c>
       <c r="K70" s="7">
-        <v>3056</v>
+        <v>2381.14</v>
       </c>
       <c r="L70" s="8">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B71" s="6">
-        <v>600609</v>
+        <v>600988</v>
       </c>
       <c r="C71" s="6">
-        <v>89700</v>
+        <v>0</v>
       </c>
       <c r="D71" s="6">
-        <v>89700</v>
+        <v>0</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <v>7</v>
+        <v>12.12</v>
       </c>
       <c r="G71" s="7">
-        <v>6.604</v>
+        <v>0</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>627900</v>
+        <v>0</v>
       </c>
       <c r="J71" s="7">
-        <v>35523.88</v>
+        <v>17778.44</v>
       </c>
       <c r="K71" s="7">
-        <v>57408</v>
+        <v>3263.53</v>
       </c>
       <c r="L71" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>24</v>
@@ -3741,217 +3756,217 @@
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B72" s="10">
-        <v>603113</v>
-      </c>
-      <c r="C72" s="10">
-        <v>4800</v>
-      </c>
-      <c r="D72" s="10">
-        <v>4800</v>
-      </c>
-      <c r="E72" s="10">
-        <v>0</v>
-      </c>
-      <c r="F72" s="11">
-        <v>11.89</v>
-      </c>
-      <c r="G72" s="11">
-        <v>12.245</v>
-      </c>
-      <c r="H72" s="11">
-        <v>0</v>
-      </c>
-      <c r="I72" s="11">
-        <v>57072</v>
-      </c>
-      <c r="J72" s="11">
-        <v>-1701.81</v>
-      </c>
-      <c r="K72" s="11">
-        <v>1152</v>
-      </c>
-      <c r="L72" s="9">
-        <v>-2.9</v>
-      </c>
-      <c r="M72" s="9" t="s">
+      <c r="C72" s="6">
+        <v>91700</v>
+      </c>
+      <c r="D72" s="6">
+        <v>0</v>
+      </c>
+      <c r="E72" s="6">
+        <v>91700</v>
+      </c>
+      <c r="F72" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="G72" s="7">
+        <v>6.98</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <v>651070</v>
+      </c>
+      <c r="J72" s="7">
+        <v>10978.51</v>
+      </c>
+      <c r="K72" s="7">
+        <v>10978.51</v>
+      </c>
+      <c r="L72" s="8">
+        <v>1.72</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="10">
+        <v>300530</v>
+      </c>
+      <c r="C73" s="10">
+        <v>0</v>
+      </c>
+      <c r="D73" s="10">
+        <v>0</v>
+      </c>
+      <c r="E73" s="10">
+        <v>0</v>
+      </c>
+      <c r="F73" s="11">
+        <v>39.5</v>
+      </c>
+      <c r="G73" s="11">
+        <v>0</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0</v>
+      </c>
+      <c r="I73" s="11">
+        <v>0</v>
+      </c>
+      <c r="J73" s="11">
+        <v>-3257.38</v>
+      </c>
+      <c r="K73" s="11">
+        <v>-4062.62</v>
+      </c>
+      <c r="L73" s="9">
+        <v>0</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="10">
+        <v>600867</v>
+      </c>
+      <c r="C74" s="10">
+        <v>34300</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0</v>
+      </c>
+      <c r="E74" s="10">
+        <v>34300</v>
+      </c>
+      <c r="F74" s="11">
+        <v>17.18</v>
+      </c>
+      <c r="G74" s="11">
+        <v>17.553</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0</v>
+      </c>
+      <c r="I74" s="11">
+        <v>589274</v>
+      </c>
+      <c r="J74" s="11">
+        <v>-12780.96</v>
+      </c>
+      <c r="K74" s="11">
+        <v>-12780.96</v>
+      </c>
+      <c r="L74" s="9">
+        <v>-2.12</v>
+      </c>
+      <c r="M74" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N72" s="9" t="s">
+      <c r="N74" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B73" s="6">
-        <v>300651</v>
-      </c>
-      <c r="C73" s="6">
-        <v>5500</v>
-      </c>
-      <c r="D73" s="6">
-        <v>5500</v>
-      </c>
-      <c r="E73" s="6">
-        <v>0</v>
-      </c>
-      <c r="F73" s="7">
-        <v>33.2</v>
-      </c>
-      <c r="G73" s="7">
-        <v>30.373</v>
-      </c>
-      <c r="H73" s="7">
-        <v>0</v>
-      </c>
-      <c r="I73" s="7">
-        <v>182600</v>
-      </c>
-      <c r="J73" s="7">
-        <v>15551.2</v>
-      </c>
-      <c r="K73" s="7">
-        <v>-1650</v>
-      </c>
-      <c r="L73" s="8">
-        <v>9.31</v>
-      </c>
-      <c r="M73" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N73" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B74" s="8" t="s">
+    <row r="75" spans="1:14">
+      <c r="A75" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="6">
-        <v>48600</v>
-      </c>
-      <c r="D74" s="6">
-        <v>0</v>
-      </c>
-      <c r="E74" s="6">
-        <v>48600</v>
-      </c>
-      <c r="F74" s="7">
-        <v>12.24</v>
-      </c>
-      <c r="G74" s="7">
-        <v>11.77</v>
-      </c>
-      <c r="H74" s="7">
-        <v>0</v>
-      </c>
-      <c r="I74" s="7">
-        <v>594864</v>
-      </c>
-      <c r="J74" s="7">
-        <v>22840.81</v>
-      </c>
-      <c r="K74" s="7">
-        <v>22840.81</v>
-      </c>
-      <c r="L74" s="8">
-        <v>3.99</v>
-      </c>
-      <c r="M74" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N74" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B75" s="6">
-        <v>601012</v>
-      </c>
-      <c r="C75" s="6">
-        <v>16400</v>
-      </c>
-      <c r="D75" s="6">
-        <v>16400</v>
-      </c>
-      <c r="E75" s="6">
-        <v>0</v>
-      </c>
-      <c r="F75" s="7">
-        <v>40.73</v>
-      </c>
-      <c r="G75" s="7">
-        <v>37.051</v>
-      </c>
-      <c r="H75" s="7">
-        <v>0</v>
-      </c>
-      <c r="I75" s="7">
-        <v>667972</v>
-      </c>
-      <c r="J75" s="7">
-        <v>60332.88</v>
-      </c>
-      <c r="K75" s="7">
-        <v>7052</v>
-      </c>
-      <c r="L75" s="8">
-        <v>9.93</v>
-      </c>
-      <c r="M75" s="8" t="s">
+      <c r="B75" s="10">
+        <v>600438</v>
+      </c>
+      <c r="C75" s="10">
+        <v>0</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0</v>
+      </c>
+      <c r="E75" s="10">
+        <v>0</v>
+      </c>
+      <c r="F75" s="11">
+        <v>17.83</v>
+      </c>
+      <c r="G75" s="11">
+        <v>0</v>
+      </c>
+      <c r="H75" s="11">
+        <v>0</v>
+      </c>
+      <c r="I75" s="11">
+        <v>0</v>
+      </c>
+      <c r="J75" s="11">
+        <v>-300.06</v>
+      </c>
+      <c r="K75" s="11">
+        <v>230.49</v>
+      </c>
+      <c r="L75" s="9">
+        <v>0</v>
+      </c>
+      <c r="M75" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N75" s="8" t="s">
+      <c r="N75" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B76" s="6">
-        <v>300767</v>
+        <v>300233</v>
       </c>
       <c r="C76" s="6">
-        <v>9200</v>
+        <v>19100</v>
       </c>
       <c r="D76" s="6">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="E76" s="6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F76" s="7">
-        <v>65.95</v>
+        <v>32.94</v>
       </c>
       <c r="G76" s="7">
-        <v>64.814</v>
+        <v>30.388</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
       </c>
       <c r="I76" s="7">
-        <v>606740</v>
+        <v>629154</v>
       </c>
       <c r="J76" s="7">
-        <v>10453.47</v>
+        <v>48751.99</v>
       </c>
       <c r="K76" s="7">
-        <v>-6716</v>
+        <v>44263.74</v>
       </c>
       <c r="L76" s="8">
-        <v>1.75</v>
+        <v>8.4</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>26</v>
@@ -3962,90 +3977,310 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="6">
+        <v>600609</v>
+      </c>
+      <c r="C77" s="6">
+        <v>89700</v>
+      </c>
+      <c r="D77" s="6">
+        <v>89700</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>7.14</v>
+      </c>
+      <c r="G77" s="7">
+        <v>6.604</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7">
+        <v>640458</v>
+      </c>
+      <c r="J77" s="7">
+        <v>48081.88</v>
+      </c>
+      <c r="K77" s="7">
+        <v>12558</v>
+      </c>
+      <c r="L77" s="8">
+        <v>8.12</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B78" s="10">
+        <v>603113</v>
+      </c>
+      <c r="C78" s="10">
+        <v>4800</v>
+      </c>
+      <c r="D78" s="10">
+        <v>4800</v>
+      </c>
+      <c r="E78" s="10">
+        <v>0</v>
+      </c>
+      <c r="F78" s="11">
+        <v>11.89</v>
+      </c>
+      <c r="G78" s="11">
+        <v>12.245</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0</v>
+      </c>
+      <c r="I78" s="11">
+        <v>57072</v>
+      </c>
+      <c r="J78" s="11">
+        <v>-1701.81</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L78" s="9">
+        <v>-2.9</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C77" s="6">
-        <v>50</v>
-      </c>
-      <c r="D77" s="6">
-        <v>50</v>
-      </c>
-      <c r="E77" s="6">
-        <v>0</v>
-      </c>
-      <c r="F77" s="7">
-        <v>29.24</v>
-      </c>
-      <c r="G77" s="7">
-        <v>-794.543</v>
-      </c>
-      <c r="H77" s="7">
-        <v>0</v>
-      </c>
-      <c r="I77" s="7">
-        <v>1462</v>
-      </c>
-      <c r="J77" s="7">
-        <v>41189.17</v>
-      </c>
-      <c r="K77" s="7">
-        <v>3683.31</v>
-      </c>
-      <c r="L77" s="8">
-        <v>0</v>
-      </c>
-      <c r="M77" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N77" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="8" t="s">
+      <c r="B79" s="6">
+        <v>300651</v>
+      </c>
+      <c r="C79" s="6">
+        <v>5500</v>
+      </c>
+      <c r="D79" s="6">
+        <v>5500</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>33.15</v>
+      </c>
+      <c r="G79" s="7">
+        <v>30.373</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>182325</v>
+      </c>
+      <c r="J79" s="7">
+        <v>15276.2</v>
+      </c>
+      <c r="K79" s="7">
+        <v>-275</v>
+      </c>
+      <c r="L79" s="8">
+        <v>9.14</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B78" s="6">
-        <v>600804</v>
-      </c>
-      <c r="C78" s="6">
-        <v>0</v>
-      </c>
-      <c r="D78" s="6">
-        <v>0</v>
-      </c>
-      <c r="E78" s="6">
-        <v>0</v>
-      </c>
-      <c r="F78" s="7">
-        <v>8.98</v>
-      </c>
-      <c r="G78" s="7">
-        <v>0</v>
-      </c>
-      <c r="H78" s="7">
-        <v>0</v>
-      </c>
-      <c r="I78" s="7">
-        <v>0</v>
-      </c>
-      <c r="J78" s="7">
-        <v>1501.85</v>
-      </c>
-      <c r="K78" s="7">
-        <v>-8711.28</v>
-      </c>
-      <c r="L78" s="8">
-        <v>0</v>
-      </c>
-      <c r="M78" s="8" t="s">
+      <c r="B80" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="6">
+        <v>48600</v>
+      </c>
+      <c r="D80" s="6">
+        <v>48600</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>13.05</v>
+      </c>
+      <c r="G80" s="7">
+        <v>11.769</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>634230</v>
+      </c>
+      <c r="J80" s="7">
+        <v>62249.64</v>
+      </c>
+      <c r="K80" s="7">
+        <v>39366</v>
+      </c>
+      <c r="L80" s="8">
+        <v>10.88</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="6">
+        <v>601012</v>
+      </c>
+      <c r="C81" s="6">
+        <v>0</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>41.6</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0</v>
+      </c>
+      <c r="J81" s="7">
+        <v>68925.26</v>
+      </c>
+      <c r="K81" s="7">
+        <v>8592.38</v>
+      </c>
+      <c r="L81" s="8">
+        <v>0</v>
+      </c>
+      <c r="M81" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N78" s="8" t="s">
+      <c r="N81" s="8" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="10">
+        <v>300767</v>
+      </c>
+      <c r="C82" s="10">
+        <v>9200</v>
+      </c>
+      <c r="D82" s="10">
+        <v>9200</v>
+      </c>
+      <c r="E82" s="10">
+        <v>0</v>
+      </c>
+      <c r="F82" s="11">
+        <v>64.3</v>
+      </c>
+      <c r="G82" s="11">
+        <v>64.814</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0</v>
+      </c>
+      <c r="I82" s="11">
+        <v>591560</v>
+      </c>
+      <c r="J82" s="11">
+        <v>-4726.53</v>
+      </c>
+      <c r="K82" s="11">
+        <v>-15180</v>
+      </c>
+      <c r="L82" s="9">
+        <v>-0.79</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" s="6">
+        <v>0</v>
+      </c>
+      <c r="D83" s="6">
+        <v>0</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>29.46</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
+      <c r="H83" s="7">
+        <v>0</v>
+      </c>
+      <c r="I83" s="7">
+        <v>0</v>
+      </c>
+      <c r="J83" s="7">
+        <v>41257.75</v>
+      </c>
+      <c r="K83" s="7">
+        <v>-6.96</v>
+      </c>
+      <c r="L83" s="8">
+        <v>0</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
+++ b/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="142">
   <si>
     <t>资金</t>
   </si>
@@ -136,12 +136,12 @@
     <t>交易市场</t>
   </si>
   <si>
-    <t>XD王府井</t>
-  </si>
-  <si>
     <t>万业企业</t>
   </si>
   <si>
+    <t>三安光电</t>
+  </si>
+  <si>
     <t>三花智控</t>
   </si>
   <si>
@@ -169,6 +169,15 @@
     <t>002129</t>
   </si>
   <si>
+    <t>中科电气</t>
+  </si>
+  <si>
+    <t>二六三</t>
+  </si>
+  <si>
+    <t>002467</t>
+  </si>
+  <si>
     <t>交运股份</t>
   </si>
   <si>
@@ -190,6 +199,9 @@
     <t>信维通信</t>
   </si>
   <si>
+    <t>凯利泰</t>
+  </si>
+  <si>
     <t>北京文化</t>
   </si>
   <si>
@@ -214,7 +226,7 @@
     <t>华荣股份</t>
   </si>
   <si>
-    <t>南大光电</t>
+    <t>司太立</t>
   </si>
   <si>
     <t>吉宏股份</t>
@@ -226,10 +238,16 @@
     <t>吉比特</t>
   </si>
   <si>
-    <t>圣农发展</t>
-  </si>
-  <si>
-    <t>002299</t>
+    <t>国新健康</t>
+  </si>
+  <si>
+    <t>000503</t>
+  </si>
+  <si>
+    <t>基蛋生物</t>
+  </si>
+  <si>
+    <t>多伦科技</t>
   </si>
   <si>
     <t>大北农</t>
@@ -238,6 +256,15 @@
     <t>002385</t>
   </si>
   <si>
+    <t>天士力</t>
+  </si>
+  <si>
+    <t>天齐锂业</t>
+  </si>
+  <si>
+    <t>002466</t>
+  </si>
+  <si>
     <t>奥特佳</t>
   </si>
   <si>
@@ -253,9 +280,6 @@
     <t>宜安科技</t>
   </si>
   <si>
-    <t>市北高新</t>
-  </si>
-  <si>
     <t>广联达</t>
   </si>
   <si>
@@ -277,22 +301,19 @@
     <t>002920</t>
   </si>
   <si>
-    <t>扬农化工</t>
-  </si>
-  <si>
-    <t>扬杰科技</t>
-  </si>
-  <si>
     <t>捷捷微电</t>
   </si>
   <si>
     <t>捷昌驱动</t>
   </si>
   <si>
+    <t>掌趣科技</t>
+  </si>
+  <si>
     <t>新媒股份</t>
   </si>
   <si>
-    <t>昭衍新药</t>
+    <t>昌红科技</t>
   </si>
   <si>
     <t>普莱柯</t>
@@ -307,13 +328,13 @@
     <t>000568</t>
   </si>
   <si>
+    <t>浙江鼎力</t>
+  </si>
+  <si>
     <t>海利生物</t>
   </si>
   <si>
-    <t>游族网络</t>
-  </si>
-  <si>
-    <t>002174</t>
+    <t>王府井</t>
   </si>
   <si>
     <t>电魂网络</t>
@@ -337,6 +358,9 @@
     <t>立思辰</t>
   </si>
   <si>
+    <t>紫天科技</t>
+  </si>
+  <si>
     <t>老板电器</t>
   </si>
   <si>
@@ -349,18 +373,12 @@
     <t>002025</t>
   </si>
   <si>
-    <t>芒果超媒</t>
-  </si>
-  <si>
     <t>苏州固锝</t>
   </si>
   <si>
     <t>002079</t>
   </si>
   <si>
-    <t>英科医疗</t>
-  </si>
-  <si>
     <t>蓝帆医疗</t>
   </si>
   <si>
@@ -373,12 +391,12 @@
     <t>贝达药业</t>
   </si>
   <si>
-    <t>贵研铂业</t>
-  </si>
-  <si>
     <t>赛腾股份</t>
   </si>
   <si>
+    <t>赢合科技</t>
+  </si>
+  <si>
     <t>赤峰黄金</t>
   </si>
   <si>
@@ -388,15 +406,15 @@
     <t>002640</t>
   </si>
   <si>
-    <t>达志科技</t>
+    <t>达安基因</t>
+  </si>
+  <si>
+    <t>002030</t>
   </si>
   <si>
     <t>通化东宝</t>
   </si>
   <si>
-    <t>通威股份</t>
-  </si>
-  <si>
     <t>金城医药</t>
   </si>
   <si>
@@ -415,16 +433,13 @@
     <t>002126</t>
   </si>
   <si>
-    <t>隆基股份</t>
+    <t>雅化集团</t>
+  </si>
+  <si>
+    <t>002497</t>
   </si>
   <si>
     <t>震安科技</t>
-  </si>
-  <si>
-    <t>鸿路钢构</t>
-  </si>
-  <si>
-    <t>002541</t>
   </si>
 </sst>
 </file>
@@ -816,7 +831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -896,28 +911,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>2649375.5</v>
+        <v>2825161.18</v>
       </c>
       <c r="D3" s="3">
-        <v>2822484.22</v>
+        <v>3499035.24</v>
       </c>
       <c r="E3" s="3">
-        <v>2649375.5</v>
+        <v>2825161.18</v>
       </c>
       <c r="F3" s="3">
-        <v>-173108.72</v>
+        <v>-673874.06</v>
       </c>
       <c r="G3" s="3">
-        <v>20655984.23</v>
+        <v>20154819.386</v>
       </c>
       <c r="H3" s="3">
-        <v>23478468.45</v>
+        <v>23650001.42</v>
       </c>
       <c r="I3" s="3">
-        <v>1472594.55</v>
+        <v>1415337.126</v>
       </c>
       <c r="J3" s="3">
-        <v>320500.11</v>
+        <v>290272.586</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1024,10 +1039,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>294000</v>
+        <v>321000</v>
       </c>
       <c r="C8" s="3">
-        <v>294000</v>
+        <v>321500</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1041,7 +1056,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>632500</v>
+        <v>681000</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1120,37 +1135,37 @@
         <v>40</v>
       </c>
       <c r="B12" s="6">
-        <v>600859</v>
+        <v>600641</v>
       </c>
       <c r="C12" s="6">
-        <v>15600</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6">
-        <v>15600</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>49.69</v>
+        <v>23.49</v>
       </c>
       <c r="G12" s="7">
-        <v>38.071</v>
+        <v>0</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>775164</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7">
-        <v>181255.7</v>
+        <v>36385.11</v>
       </c>
       <c r="K12" s="7">
-        <v>70512</v>
+        <v>409.6</v>
       </c>
       <c r="L12" s="8">
-        <v>30.52</v>
+        <v>0</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>24</v>
@@ -1164,37 +1179,37 @@
         <v>41</v>
       </c>
       <c r="B13" s="6">
-        <v>600641</v>
+        <v>600703</v>
       </c>
       <c r="C13" s="6">
-        <v>26900</v>
+        <v>23400</v>
       </c>
       <c r="D13" s="6">
-        <v>26900</v>
+        <v>0</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>23400</v>
       </c>
       <c r="F13" s="7">
-        <v>23.45</v>
+        <v>24.87</v>
       </c>
       <c r="G13" s="7">
-        <v>21.943</v>
+        <v>24.612</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>630805</v>
+        <v>581958</v>
       </c>
       <c r="J13" s="7">
-        <v>40548.51</v>
+        <v>6028.52</v>
       </c>
       <c r="K13" s="7">
-        <v>-1345</v>
+        <v>6028.52</v>
       </c>
       <c r="L13" s="8">
-        <v>6.87</v>
+        <v>1.05</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>24</v>
@@ -1220,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>22.03</v>
+        <v>21.74</v>
       </c>
       <c r="G14" s="7">
         <v>19.244</v>
@@ -1229,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>189458</v>
+        <v>186964</v>
       </c>
       <c r="J14" s="7">
-        <v>23962.5</v>
+        <v>21468.5</v>
       </c>
       <c r="K14" s="7">
-        <v>1118</v>
+        <v>-1720</v>
       </c>
       <c r="L14" s="8">
-        <v>14.48</v>
+        <v>12.97</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>26</v>
@@ -1255,34 +1270,34 @@
         <v>45</v>
       </c>
       <c r="C15" s="10">
-        <v>38800</v>
+        <v>0</v>
       </c>
       <c r="D15" s="10">
-        <v>38800</v>
+        <v>0</v>
       </c>
       <c r="E15" s="10">
         <v>0</v>
       </c>
       <c r="F15" s="11">
-        <v>15.27</v>
+        <v>15.16</v>
       </c>
       <c r="G15" s="11">
-        <v>15.447</v>
+        <v>0</v>
       </c>
       <c r="H15" s="11">
         <v>0</v>
       </c>
       <c r="I15" s="11">
-        <v>592476</v>
+        <v>0</v>
       </c>
       <c r="J15" s="11">
-        <v>-6878.23</v>
+        <v>-2200.38</v>
       </c>
       <c r="K15" s="11">
-        <v>-1552</v>
+        <v>2737.85</v>
       </c>
       <c r="L15" s="9">
-        <v>-1.15</v>
+        <v>0</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>26</v>
@@ -1302,31 +1317,31 @@
         <v>500</v>
       </c>
       <c r="D16" s="10">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E16" s="10">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F16" s="11">
-        <v>24.91</v>
+        <v>24.82</v>
       </c>
       <c r="G16" s="11">
-        <v>25.469</v>
+        <v>25.442</v>
       </c>
       <c r="H16" s="11">
         <v>0</v>
       </c>
       <c r="I16" s="11">
-        <v>12455</v>
+        <v>12410</v>
       </c>
       <c r="J16" s="11">
-        <v>-279.25</v>
+        <v>-310.9</v>
       </c>
       <c r="K16" s="11">
-        <v>-279.25</v>
+        <v>15</v>
       </c>
       <c r="L16" s="9">
-        <v>-2.19</v>
+        <v>-2.44</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>24</v>
@@ -1336,46 +1351,46 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="10">
         <v>13400</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="10">
         <v>13400</v>
       </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>20.7</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>19.64</v>
+      </c>
+      <c r="G17" s="11">
         <v>20.662</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>277380</v>
-      </c>
-      <c r="J17" s="7">
-        <v>505.01</v>
-      </c>
-      <c r="K17" s="7">
-        <v>-3350</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0.18</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="8" t="s">
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>263176</v>
+      </c>
+      <c r="J17" s="11">
+        <v>-13698.99</v>
+      </c>
+      <c r="K17" s="11">
+        <v>-10586</v>
+      </c>
+      <c r="L17" s="9">
+        <v>-4.95</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1387,34 +1402,34 @@
         <v>50</v>
       </c>
       <c r="C18" s="6">
-        <v>27700</v>
+        <v>600</v>
       </c>
       <c r="D18" s="6">
-        <v>27700</v>
+        <v>600</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>22.43</v>
+        <v>22.69</v>
       </c>
       <c r="G18" s="7">
-        <v>21.373</v>
+        <v>-23.043</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>621311</v>
+        <v>13614</v>
       </c>
       <c r="J18" s="7">
-        <v>29277.06</v>
+        <v>27439.91</v>
       </c>
       <c r="K18" s="7">
-        <v>-831</v>
+        <v>-8621.22</v>
       </c>
       <c r="L18" s="8">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>26</v>
@@ -1424,47 +1439,47 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="10">
-        <v>600676</v>
-      </c>
-      <c r="C19" s="10">
-        <v>50100</v>
-      </c>
-      <c r="D19" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>5.55</v>
-      </c>
-      <c r="G19" s="11">
-        <v>5.761</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>278055</v>
-      </c>
-      <c r="J19" s="11">
-        <v>-10572.79</v>
-      </c>
-      <c r="K19" s="11">
-        <v>-501</v>
-      </c>
-      <c r="L19" s="9">
-        <v>-3.66</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>23</v>
+      <c r="B19" s="6">
+        <v>300035</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3500</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>3500</v>
+      </c>
+      <c r="F19" s="7">
+        <v>9.09</v>
+      </c>
+      <c r="G19" s="7">
+        <v>8.949</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>31815</v>
+      </c>
+      <c r="J19" s="7">
+        <v>494</v>
+      </c>
+      <c r="K19" s="7">
+        <v>494</v>
+      </c>
+      <c r="L19" s="8">
+        <v>1.58</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1475,34 +1490,34 @@
         <v>53</v>
       </c>
       <c r="C20" s="10">
-        <v>26500</v>
+        <v>52800</v>
       </c>
       <c r="D20" s="10">
-        <v>26500</v>
+        <v>0</v>
       </c>
       <c r="E20" s="10">
-        <v>0</v>
+        <v>52800</v>
       </c>
       <c r="F20" s="11">
-        <v>22.54</v>
+        <v>7.43</v>
       </c>
       <c r="G20" s="11">
-        <v>22.773</v>
+        <v>7.471</v>
       </c>
       <c r="H20" s="11">
         <v>0</v>
       </c>
       <c r="I20" s="11">
-        <v>597310</v>
+        <v>392304</v>
       </c>
       <c r="J20" s="11">
-        <v>-6173.44</v>
+        <v>-2165.23</v>
       </c>
       <c r="K20" s="11">
-        <v>-11395</v>
+        <v>-2165.23</v>
       </c>
       <c r="L20" s="9">
-        <v>-1.02</v>
+        <v>-0.55</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>26</v>
@@ -1512,85 +1527,85 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="6">
-        <v>34900</v>
-      </c>
-      <c r="D21" s="6">
-        <v>20000</v>
-      </c>
-      <c r="E21" s="6">
-        <v>14900</v>
-      </c>
-      <c r="F21" s="7">
-        <v>18.41</v>
-      </c>
-      <c r="G21" s="7">
-        <v>17.2</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>642509</v>
-      </c>
-      <c r="J21" s="7">
-        <v>42234.04</v>
-      </c>
-      <c r="K21" s="7">
-        <v>32043.33</v>
-      </c>
-      <c r="L21" s="8">
-        <v>7.03</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>25</v>
+      <c r="B21" s="10">
+        <v>600676</v>
+      </c>
+      <c r="C21" s="10">
+        <v>50100</v>
+      </c>
+      <c r="D21" s="10">
+        <v>50100</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>5.48</v>
+      </c>
+      <c r="G21" s="11">
+        <v>5.761</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>274548</v>
+      </c>
+      <c r="J21" s="11">
+        <v>-14079.79</v>
+      </c>
+      <c r="K21" s="11">
+        <v>-501</v>
+      </c>
+      <c r="L21" s="9">
+        <v>-4.88</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="6">
-        <v>300673</v>
-      </c>
       <c r="C22" s="6">
-        <v>4700</v>
+        <v>26500</v>
       </c>
       <c r="D22" s="6">
-        <v>4700</v>
+        <v>26500</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>39.51</v>
+        <v>23.56</v>
       </c>
       <c r="G22" s="7">
-        <v>35.648</v>
+        <v>22.773</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>185697</v>
+        <v>624340</v>
       </c>
       <c r="J22" s="7">
-        <v>18151.2</v>
+        <v>20856.56</v>
       </c>
       <c r="K22" s="7">
-        <v>2961</v>
+        <v>34185</v>
       </c>
       <c r="L22" s="8">
-        <v>10.83</v>
+        <v>3.46</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>26</v>
@@ -1603,38 +1618,38 @@
       <c r="A23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="6">
-        <v>300136</v>
+      <c r="B23" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C23" s="6">
-        <v>5400</v>
+        <v>34900</v>
       </c>
       <c r="D23" s="6">
-        <v>5400</v>
+        <v>34900</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>53.33</v>
+        <v>17.72</v>
       </c>
       <c r="G23" s="7">
-        <v>49.986</v>
+        <v>17.222</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>287982</v>
+        <v>618428</v>
       </c>
       <c r="J23" s="7">
-        <v>18056.92</v>
+        <v>17367.38</v>
       </c>
       <c r="K23" s="7">
-        <v>1674</v>
+        <v>-9074</v>
       </c>
       <c r="L23" s="8">
-        <v>6.69</v>
+        <v>2.89</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>26</v>
@@ -1645,40 +1660,40 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="B24" s="6">
+        <v>300673</v>
+      </c>
       <c r="C24" s="6">
-        <v>23100</v>
+        <v>0</v>
       </c>
       <c r="D24" s="6">
         <v>0</v>
       </c>
       <c r="E24" s="6">
-        <v>23100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>6.74</v>
+        <v>38.72</v>
       </c>
       <c r="G24" s="7">
-        <v>6.496</v>
+        <v>0</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>155694</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7">
-        <v>5633.56</v>
+        <v>15761.61</v>
       </c>
       <c r="K24" s="7">
-        <v>5633.56</v>
+        <v>-3846.59</v>
       </c>
       <c r="L24" s="8">
-        <v>3.76</v>
+        <v>0</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>26</v>
@@ -1688,90 +1703,90 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="10">
-        <v>300016</v>
-      </c>
-      <c r="C25" s="10">
-        <v>43700</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0</v>
-      </c>
-      <c r="E25" s="10">
-        <v>43700</v>
-      </c>
-      <c r="F25" s="11">
-        <v>11.92</v>
-      </c>
-      <c r="G25" s="11">
-        <v>12.274</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>520904</v>
-      </c>
-      <c r="J25" s="11">
-        <v>-15451.1</v>
-      </c>
-      <c r="K25" s="11">
-        <v>-15451.1</v>
-      </c>
-      <c r="L25" s="9">
-        <v>-2.88</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N25" s="9" t="s">
+      <c r="B25" s="6">
+        <v>300136</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>53.05</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>17437.42</v>
+      </c>
+      <c r="K25" s="7">
+        <v>-2401.5</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="6">
-        <v>300676</v>
-      </c>
-      <c r="C26" s="6">
-        <v>500</v>
-      </c>
-      <c r="D26" s="6">
-        <v>500</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>156.29</v>
-      </c>
-      <c r="G26" s="7">
-        <v>-27.522</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>78145</v>
-      </c>
-      <c r="J26" s="7">
-        <v>91905.99</v>
-      </c>
-      <c r="K26" s="7">
-        <v>8532.93</v>
-      </c>
-      <c r="L26" s="8">
-        <v>0</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" s="8" t="s">
+      <c r="B26" s="10">
+        <v>300326</v>
+      </c>
+      <c r="C26" s="10">
+        <v>21800</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <v>21800</v>
+      </c>
+      <c r="F26" s="11">
+        <v>27.18</v>
+      </c>
+      <c r="G26" s="11">
+        <v>27.737</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>592524</v>
+      </c>
+      <c r="J26" s="11">
+        <v>-12136.25</v>
+      </c>
+      <c r="K26" s="11">
+        <v>-12136.25</v>
+      </c>
+      <c r="L26" s="9">
+        <v>-2.01</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1779,87 +1794,87 @@
       <c r="A27" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="6">
-        <v>511990</v>
+      <c r="B27" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C27" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D27" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>99.971</v>
+        <v>7.41</v>
       </c>
       <c r="G27" s="7">
-        <v>-6751.737</v>
+        <v>0</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>599.83</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7">
-        <v>41110.25</v>
+        <v>15658.88</v>
       </c>
       <c r="K27" s="7">
-        <v>-0.01</v>
+        <v>10016.38</v>
       </c>
       <c r="L27" s="8">
         <v>0</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="6">
-        <v>20520</v>
-      </c>
-      <c r="D28" s="6">
-        <v>20520</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>11.62</v>
-      </c>
-      <c r="G28" s="7">
-        <v>9.417</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>238442.4</v>
-      </c>
-      <c r="J28" s="7">
-        <v>45207.57</v>
-      </c>
-      <c r="K28" s="7">
-        <v>-5404.9</v>
-      </c>
-      <c r="L28" s="8">
-        <v>23.39</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="8" t="s">
+      <c r="B28" s="10">
+        <v>300016</v>
+      </c>
+      <c r="C28" s="10">
+        <v>43700</v>
+      </c>
+      <c r="D28" s="10">
+        <v>43700</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11">
+        <v>11.51</v>
+      </c>
+      <c r="G28" s="11">
+        <v>12.27</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>502987</v>
+      </c>
+      <c r="J28" s="11">
+        <v>-33222.72</v>
+      </c>
+      <c r="K28" s="11">
+        <v>-6118</v>
+      </c>
+      <c r="L28" s="9">
+        <v>-6.19</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1868,87 +1883,87 @@
         <v>65</v>
       </c>
       <c r="B29" s="6">
-        <v>603855</v>
+        <v>300676</v>
       </c>
       <c r="C29" s="6">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="D29" s="6">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>17.56</v>
+        <v>151.64</v>
       </c>
       <c r="G29" s="7">
-        <v>15.958</v>
+        <v>-27.557</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>193160</v>
+        <v>75820</v>
       </c>
       <c r="J29" s="7">
-        <v>17622.67</v>
+        <v>89598.38</v>
       </c>
       <c r="K29" s="7">
-        <v>-3190</v>
+        <v>-1380</v>
       </c>
       <c r="L29" s="8">
-        <v>10.04</v>
+        <v>0</v>
       </c>
       <c r="M29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="6">
+        <v>511990</v>
+      </c>
+      <c r="C30" s="6">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6">
+        <v>6</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>99.965</v>
+      </c>
+      <c r="G30" s="7">
+        <v>-6751.737</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>599.786</v>
+      </c>
+      <c r="J30" s="7">
+        <v>41110.206</v>
+      </c>
+      <c r="K30" s="7">
+        <v>-0.074</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="8" t="s">
+      <c r="N30" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="10">
-        <v>300346</v>
-      </c>
-      <c r="C30" s="10">
-        <v>0</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0</v>
-      </c>
-      <c r="F30" s="11">
-        <v>42.42</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
-      <c r="J30" s="11">
-        <v>-7675.41</v>
-      </c>
-      <c r="K30" s="11">
-        <v>-6985.93</v>
-      </c>
-      <c r="L30" s="9">
-        <v>0</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1959,34 +1974,34 @@
         <v>68</v>
       </c>
       <c r="C31" s="6">
-        <v>19400</v>
+        <v>20</v>
       </c>
       <c r="D31" s="6">
-        <v>19400</v>
+        <v>20</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>26.89</v>
+        <v>12.58</v>
       </c>
       <c r="G31" s="7">
-        <v>26.501</v>
+        <v>-2669.063</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>521666</v>
+        <v>251.6</v>
       </c>
       <c r="J31" s="7">
-        <v>7538.16</v>
+        <v>53632.85</v>
       </c>
       <c r="K31" s="7">
-        <v>37830</v>
+        <v>1978.18</v>
       </c>
       <c r="L31" s="8">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>26</v>
@@ -2000,37 +2015,37 @@
         <v>69</v>
       </c>
       <c r="B32" s="6">
-        <v>603444</v>
+        <v>603855</v>
       </c>
       <c r="C32" s="6">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="D32" s="6">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>549</v>
+        <v>18.05</v>
       </c>
       <c r="G32" s="7">
-        <v>526.132</v>
+        <v>0</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>384300</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7">
-        <v>16007.77</v>
+        <v>11513.09</v>
       </c>
       <c r="K32" s="7">
-        <v>-7</v>
+        <v>-1819.58</v>
       </c>
       <c r="L32" s="8">
-        <v>4.35</v>
+        <v>0</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>24</v>
@@ -2040,85 +2055,85 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="10">
-        <v>0</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11">
-        <v>30.05</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="11">
-        <v>0</v>
-      </c>
-      <c r="J33" s="11">
-        <v>-8454.06</v>
-      </c>
-      <c r="K33" s="11">
-        <v>-193.25</v>
-      </c>
-      <c r="L33" s="9">
-        <v>0</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>25</v>
+      <c r="B33" s="6">
+        <v>603520</v>
+      </c>
+      <c r="C33" s="6">
+        <v>6200</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>6200</v>
+      </c>
+      <c r="F33" s="7">
+        <v>74.31</v>
+      </c>
+      <c r="G33" s="7">
+        <v>73.504</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>460722</v>
+      </c>
+      <c r="J33" s="7">
+        <v>4995.43</v>
+      </c>
+      <c r="K33" s="7">
+        <v>4995.43</v>
+      </c>
+      <c r="L33" s="8">
+        <v>1.1</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="C34" s="10">
-        <v>65300</v>
+        <v>19400</v>
       </c>
       <c r="D34" s="10">
-        <v>65300</v>
+        <v>19400</v>
       </c>
       <c r="E34" s="10">
         <v>0</v>
       </c>
       <c r="F34" s="11">
-        <v>9.09</v>
+        <v>25.61</v>
       </c>
       <c r="G34" s="11">
-        <v>9.319</v>
+        <v>26.501</v>
       </c>
       <c r="H34" s="11">
         <v>0</v>
       </c>
       <c r="I34" s="11">
-        <v>593577</v>
+        <v>496834</v>
       </c>
       <c r="J34" s="11">
-        <v>-14962.24</v>
+        <v>-17293.84</v>
       </c>
       <c r="K34" s="11">
-        <v>-1306</v>
+        <v>-22116</v>
       </c>
       <c r="L34" s="9">
-        <v>-2.46</v>
+        <v>-3.36</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>26</v>
@@ -2129,84 +2144,84 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="B35" s="6">
+        <v>603444</v>
       </c>
       <c r="C35" s="6">
-        <v>146600</v>
+        <v>700</v>
       </c>
       <c r="D35" s="6">
-        <v>56100</v>
+        <v>700</v>
       </c>
       <c r="E35" s="6">
-        <v>90500</v>
+        <v>0</v>
       </c>
       <c r="F35" s="7">
-        <v>4.49</v>
+        <v>555.13</v>
       </c>
       <c r="G35" s="7">
-        <v>4.25</v>
+        <v>526.132</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>658234</v>
+        <v>388591</v>
       </c>
       <c r="J35" s="7">
-        <v>35143.01</v>
+        <v>20298.77</v>
       </c>
       <c r="K35" s="7">
-        <v>24758.41</v>
+        <v>476</v>
       </c>
       <c r="L35" s="8">
-        <v>5.65</v>
+        <v>5.51</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" s="6">
-        <v>15100</v>
+        <v>15700</v>
       </c>
       <c r="D36" s="6">
-        <v>15100</v>
+        <v>0</v>
       </c>
       <c r="E36" s="6">
-        <v>0</v>
+        <v>15700</v>
       </c>
       <c r="F36" s="7">
-        <v>13.08</v>
+        <v>12.43</v>
       </c>
       <c r="G36" s="7">
-        <v>13.061</v>
+        <v>12.211</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>197508</v>
+        <v>195151</v>
       </c>
       <c r="J36" s="7">
-        <v>281.36</v>
+        <v>3441.27</v>
       </c>
       <c r="K36" s="7">
-        <v>3171</v>
+        <v>3441.27</v>
       </c>
       <c r="L36" s="8">
-        <v>0.15</v>
+        <v>1.79</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>26</v>
@@ -2217,216 +2232,216 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="10">
+        <v>603387</v>
+      </c>
+      <c r="C37" s="10">
+        <v>11800</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
+        <v>11800</v>
+      </c>
+      <c r="F37" s="11">
+        <v>40.32</v>
+      </c>
+      <c r="G37" s="11">
+        <v>40.731</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>475776</v>
+      </c>
+      <c r="J37" s="11">
+        <v>-4854.28</v>
+      </c>
+      <c r="K37" s="11">
+        <v>-4854.28</v>
+      </c>
+      <c r="L37" s="9">
+        <v>-1.01</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="10">
+        <v>603528</v>
+      </c>
+      <c r="C38" s="10">
+        <v>6600</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <v>6600</v>
+      </c>
+      <c r="F38" s="11">
+        <v>10.13</v>
+      </c>
+      <c r="G38" s="11">
+        <v>10.132</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>66858</v>
+      </c>
+      <c r="J38" s="11">
+        <v>-13.33</v>
+      </c>
+      <c r="K38" s="11">
+        <v>-13.33</v>
+      </c>
+      <c r="L38" s="9">
+        <v>-0.02</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="10">
-        <v>300328</v>
-      </c>
-      <c r="C37" s="10">
-        <v>600</v>
-      </c>
-      <c r="D37" s="10">
-        <v>600</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0</v>
-      </c>
-      <c r="F37" s="11">
-        <v>11.74</v>
-      </c>
-      <c r="G37" s="11">
-        <v>11.842</v>
-      </c>
-      <c r="H37" s="11">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11">
-        <v>7044</v>
-      </c>
-      <c r="J37" s="11">
-        <v>-60.92</v>
-      </c>
-      <c r="K37" s="11">
-        <v>-138</v>
-      </c>
-      <c r="L37" s="9">
-        <v>-0.86</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="6">
-        <v>600604</v>
-      </c>
-      <c r="C38" s="6">
-        <v>0</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>9.28</v>
-      </c>
-      <c r="G38" s="7">
-        <v>0</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7">
-        <v>524.56</v>
-      </c>
-      <c r="K38" s="7">
-        <v>-2793.22</v>
-      </c>
-      <c r="L38" s="8">
-        <v>0</v>
-      </c>
-      <c r="M38" s="8" t="s">
+      <c r="C39" s="10">
+        <v>65300</v>
+      </c>
+      <c r="D39" s="10">
+        <v>65300</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>9</v>
+      </c>
+      <c r="G39" s="11">
+        <v>9.319</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>587700</v>
+      </c>
+      <c r="J39" s="11">
+        <v>-20839.24</v>
+      </c>
+      <c r="K39" s="11">
+        <v>-653</v>
+      </c>
+      <c r="L39" s="9">
+        <v>-3.42</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="10">
+        <v>600535</v>
+      </c>
+      <c r="C40" s="10">
+        <v>33600</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10">
+        <v>33600</v>
+      </c>
+      <c r="F40" s="11">
+        <v>17.71</v>
+      </c>
+      <c r="G40" s="11">
+        <v>17.733</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>595056</v>
+      </c>
+      <c r="J40" s="11">
+        <v>-784.16</v>
+      </c>
+      <c r="K40" s="11">
+        <v>-784.16</v>
+      </c>
+      <c r="L40" s="9">
+        <v>-0.13</v>
+      </c>
+      <c r="M40" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N38" s="8" t="s">
+      <c r="N40" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="6">
-        <v>2900</v>
-      </c>
-      <c r="D39" s="6">
-        <v>2900</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>70.38</v>
-      </c>
-      <c r="G39" s="7">
-        <v>57.369</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>204102</v>
-      </c>
-      <c r="J39" s="7">
-        <v>37731.37</v>
-      </c>
-      <c r="K39" s="7">
-        <v>1972</v>
-      </c>
-      <c r="L39" s="8">
-        <v>22.68</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="6">
-        <v>300601</v>
-      </c>
-      <c r="C40" s="6">
-        <v>200</v>
-      </c>
-      <c r="D40" s="6">
-        <v>200</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>161.33</v>
-      </c>
-      <c r="G40" s="7">
-        <v>159.821</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>32266</v>
-      </c>
-      <c r="J40" s="7">
-        <v>301.85</v>
-      </c>
-      <c r="K40" s="7">
-        <v>-166</v>
-      </c>
-      <c r="L40" s="8">
-        <v>0.94</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="6">
-        <v>300073</v>
+        <v>81</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C41" s="6">
-        <v>19600</v>
+        <v>7200</v>
       </c>
       <c r="D41" s="6">
-        <v>19600</v>
+        <v>0</v>
       </c>
       <c r="E41" s="6">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="F41" s="7">
-        <v>34.03</v>
+        <v>22.15</v>
       </c>
       <c r="G41" s="7">
-        <v>31.454</v>
+        <v>21.726</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>666988</v>
+        <v>159480</v>
       </c>
       <c r="J41" s="7">
-        <v>50480.86</v>
+        <v>3055.67</v>
       </c>
       <c r="K41" s="7">
-        <v>18816</v>
+        <v>3055.67</v>
       </c>
       <c r="L41" s="8">
-        <v>8.19</v>
+        <v>1.95</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>26</v>
@@ -2437,46 +2452,46 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="6">
-        <v>603650</v>
-      </c>
       <c r="C42" s="6">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="D42" s="6">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
       </c>
       <c r="F42" s="7">
-        <v>23.1</v>
+        <v>4.26</v>
       </c>
       <c r="G42" s="7">
-        <v>22.312</v>
+        <v>0</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>182490</v>
+        <v>0</v>
       </c>
       <c r="J42" s="7">
-        <v>6221.6</v>
+        <v>1975.89</v>
       </c>
       <c r="K42" s="7">
-        <v>-1343</v>
+        <v>-6779.12</v>
       </c>
       <c r="L42" s="8">
-        <v>3.53</v>
+        <v>0</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2487,34 +2502,34 @@
         <v>86</v>
       </c>
       <c r="C43" s="6">
-        <v>11200</v>
+        <v>0</v>
       </c>
       <c r="D43" s="6">
-        <v>11200</v>
+        <v>0</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>62.31</v>
+        <v>13.97</v>
       </c>
       <c r="G43" s="7">
-        <v>52.111</v>
+        <v>0</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>697872</v>
+        <v>0</v>
       </c>
       <c r="J43" s="7">
-        <v>114225.21</v>
+        <v>5359.5</v>
       </c>
       <c r="K43" s="7">
-        <v>10976</v>
+        <v>4021.14</v>
       </c>
       <c r="L43" s="8">
-        <v>19.57</v>
+        <v>0</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>26</v>
@@ -2524,55 +2539,55 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="6">
-        <v>600486</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0</v>
-      </c>
-      <c r="D44" s="6">
-        <v>0</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>81.25</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7">
-        <v>308.93</v>
-      </c>
-      <c r="K44" s="7">
-        <v>-2700.37</v>
-      </c>
-      <c r="L44" s="8">
-        <v>0</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>23</v>
+      <c r="B44" s="10">
+        <v>300328</v>
+      </c>
+      <c r="C44" s="10">
+        <v>600</v>
+      </c>
+      <c r="D44" s="10">
+        <v>600</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
+      <c r="F44" s="11">
+        <v>11.67</v>
+      </c>
+      <c r="G44" s="11">
+        <v>11.842</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>7002</v>
+      </c>
+      <c r="J44" s="11">
+        <v>-102.92</v>
+      </c>
+      <c r="K44" s="11">
+        <v>-24</v>
+      </c>
+      <c r="L44" s="9">
+        <v>-1.45</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="6">
-        <v>300373</v>
+      <c r="B45" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C45" s="6">
         <v>0</v>
@@ -2584,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="7">
-        <v>32.89</v>
+        <v>69</v>
       </c>
       <c r="G45" s="7">
         <v>0</v>
@@ -2596,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="J45" s="7">
-        <v>142.71</v>
+        <v>39249.94</v>
       </c>
       <c r="K45" s="7">
-        <v>-66.01</v>
+        <v>-5209.43</v>
       </c>
       <c r="L45" s="8">
         <v>0</v>
@@ -2612,305 +2627,305 @@
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="6">
-        <v>300623</v>
-      </c>
-      <c r="C46" s="6">
-        <v>21400</v>
-      </c>
-      <c r="D46" s="6">
-        <v>21400</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
-      <c r="F46" s="7">
-        <v>30.08</v>
-      </c>
-      <c r="G46" s="7">
-        <v>28.474</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>643712</v>
-      </c>
-      <c r="J46" s="7">
-        <v>34365.2</v>
-      </c>
-      <c r="K46" s="7">
-        <v>642</v>
-      </c>
-      <c r="L46" s="8">
-        <v>5.64</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N46" s="8" t="s">
+      <c r="A46" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="10">
+        <v>300601</v>
+      </c>
+      <c r="C46" s="10">
+        <v>200</v>
+      </c>
+      <c r="D46" s="10">
+        <v>200</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>155.3</v>
+      </c>
+      <c r="G46" s="11">
+        <v>159.821</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <v>31060</v>
+      </c>
+      <c r="J46" s="11">
+        <v>-904.15</v>
+      </c>
+      <c r="K46" s="11">
+        <v>-1024</v>
+      </c>
+      <c r="L46" s="9">
+        <v>-2.83</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="6">
-        <v>603583</v>
+        <v>300073</v>
       </c>
       <c r="C47" s="6">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="D47" s="6">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="E47" s="6">
         <v>0</v>
       </c>
       <c r="F47" s="7">
-        <v>71.82</v>
+        <v>32.85</v>
       </c>
       <c r="G47" s="7">
-        <v>63.255</v>
+        <v>0</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>193914</v>
+        <v>0</v>
       </c>
       <c r="J47" s="7">
-        <v>23126.35</v>
+        <v>44411.04</v>
       </c>
       <c r="K47" s="7">
-        <v>9288</v>
+        <v>10590.18</v>
       </c>
       <c r="L47" s="8">
-        <v>13.54</v>
+        <v>0</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" s="6">
-        <v>300770</v>
+        <v>603650</v>
       </c>
       <c r="C48" s="6">
-        <v>2800</v>
+        <v>7900</v>
       </c>
       <c r="D48" s="6">
-        <v>2800</v>
+        <v>7900</v>
       </c>
       <c r="E48" s="6">
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <v>221.67</v>
+        <v>24.52</v>
       </c>
       <c r="G48" s="7">
-        <v>210.369</v>
+        <v>22.312</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>620676</v>
+        <v>193708</v>
       </c>
       <c r="J48" s="7">
-        <v>31643.47</v>
+        <v>17439.6</v>
       </c>
       <c r="K48" s="7">
-        <v>-5572</v>
+        <v>12166</v>
       </c>
       <c r="L48" s="8">
-        <v>5.37</v>
+        <v>9.9</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="6">
-        <v>603127</v>
+        <v>93</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="C49" s="6">
-        <v>0</v>
+        <v>11200</v>
       </c>
       <c r="D49" s="6">
-        <v>0</v>
+        <v>11200</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>103.5</v>
+        <v>62.04</v>
       </c>
       <c r="G49" s="7">
-        <v>0</v>
+        <v>52.111</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>0</v>
+        <v>694848</v>
       </c>
       <c r="J49" s="7">
-        <v>99339.95</v>
+        <v>111201.21</v>
       </c>
       <c r="K49" s="7">
-        <v>-4778.14</v>
+        <v>-18032</v>
       </c>
       <c r="L49" s="8">
-        <v>0</v>
+        <v>19.05</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="6">
-        <v>603566</v>
+        <v>300623</v>
       </c>
       <c r="C50" s="6">
-        <v>6300</v>
+        <v>21400</v>
       </c>
       <c r="D50" s="6">
-        <v>6300</v>
+        <v>1400</v>
       </c>
       <c r="E50" s="6">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F50" s="7">
-        <v>27.03</v>
+        <v>31.05</v>
       </c>
       <c r="G50" s="7">
-        <v>26.202</v>
+        <v>28.155</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>170289</v>
+        <v>664470</v>
       </c>
       <c r="J50" s="7">
-        <v>5217.98</v>
+        <v>61947.37</v>
       </c>
       <c r="K50" s="7">
-        <v>-4158</v>
+        <v>20512.16</v>
       </c>
       <c r="L50" s="8">
-        <v>3.16</v>
+        <v>10.28</v>
       </c>
       <c r="M50" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="6">
+        <v>603583</v>
+      </c>
+      <c r="C51" s="6">
+        <v>200</v>
+      </c>
+      <c r="D51" s="6">
+        <v>200</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>69.79</v>
+      </c>
+      <c r="G51" s="7">
+        <v>-17.127</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>13958</v>
+      </c>
+      <c r="J51" s="7">
+        <v>17383.38</v>
+      </c>
+      <c r="K51" s="7">
+        <v>-4095.97</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
+      <c r="M51" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N50" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="10">
-        <v>600884</v>
-      </c>
-      <c r="C51" s="10">
-        <v>15000</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0</v>
-      </c>
-      <c r="E51" s="10">
-        <v>15000</v>
-      </c>
-      <c r="F51" s="11">
-        <v>12.1</v>
-      </c>
-      <c r="G51" s="11">
-        <v>12.212</v>
-      </c>
-      <c r="H51" s="11">
-        <v>0</v>
-      </c>
-      <c r="I51" s="11">
-        <v>181500</v>
-      </c>
-      <c r="J51" s="11">
-        <v>-1677.47</v>
-      </c>
-      <c r="K51" s="11">
-        <v>-1677.47</v>
-      </c>
-      <c r="L51" s="9">
-        <v>-0.92</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N51" s="9" t="s">
+      <c r="N51" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="B52" s="6">
+        <v>300315</v>
       </c>
       <c r="C52" s="6">
-        <v>6600</v>
+        <v>40700</v>
       </c>
       <c r="D52" s="6">
         <v>0</v>
       </c>
       <c r="E52" s="6">
-        <v>6600</v>
+        <v>40700</v>
       </c>
       <c r="F52" s="7">
-        <v>100.23</v>
+        <v>7.83</v>
       </c>
       <c r="G52" s="7">
-        <v>94.197</v>
+        <v>7.333</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>661518</v>
+        <v>318681</v>
       </c>
       <c r="J52" s="7">
-        <v>39819.41</v>
+        <v>20229.11</v>
       </c>
       <c r="K52" s="7">
-        <v>39819.41</v>
+        <v>20229.11</v>
       </c>
       <c r="L52" s="8">
-        <v>6.4</v>
+        <v>6.78</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>26</v>
@@ -2920,90 +2935,90 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="6">
-        <v>603718</v>
-      </c>
-      <c r="C53" s="6">
-        <v>3800</v>
-      </c>
-      <c r="D53" s="6">
-        <v>3800</v>
-      </c>
-      <c r="E53" s="6">
-        <v>0</v>
-      </c>
-      <c r="F53" s="7">
-        <v>19.55</v>
-      </c>
-      <c r="G53" s="7">
-        <v>18.603</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>74290</v>
-      </c>
-      <c r="J53" s="7">
-        <v>3599.4</v>
-      </c>
-      <c r="K53" s="7">
-        <v>4902</v>
-      </c>
-      <c r="L53" s="8">
-        <v>5.09</v>
-      </c>
-      <c r="M53" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N53" s="8" t="s">
-        <v>23</v>
+      <c r="A53" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="10">
+        <v>300770</v>
+      </c>
+      <c r="C53" s="10">
+        <v>2800</v>
+      </c>
+      <c r="D53" s="10">
+        <v>2800</v>
+      </c>
+      <c r="E53" s="10">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <v>208.24</v>
+      </c>
+      <c r="G53" s="11">
+        <v>209.715</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0</v>
+      </c>
+      <c r="I53" s="11">
+        <v>583072</v>
+      </c>
+      <c r="J53" s="11">
+        <v>-4129.23</v>
+      </c>
+      <c r="K53" s="11">
+        <v>17472</v>
+      </c>
+      <c r="L53" s="9">
+        <v>-0.7</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="10">
-        <v>0</v>
-      </c>
-      <c r="D54" s="10">
-        <v>0</v>
-      </c>
-      <c r="E54" s="10">
-        <v>0</v>
-      </c>
-      <c r="F54" s="11">
-        <v>25.85</v>
-      </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11">
-        <v>-15219.33</v>
-      </c>
-      <c r="K54" s="11">
-        <v>-3.99</v>
-      </c>
-      <c r="L54" s="9">
-        <v>0</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N54" s="9" t="s">
+      <c r="B54" s="6">
+        <v>300151</v>
+      </c>
+      <c r="C54" s="6">
+        <v>4300</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>4300</v>
+      </c>
+      <c r="F54" s="7">
+        <v>16.85</v>
+      </c>
+      <c r="G54" s="7">
+        <v>16.751</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>72455</v>
+      </c>
+      <c r="J54" s="7">
+        <v>424.77</v>
+      </c>
+      <c r="K54" s="7">
+        <v>424.77</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3012,37 +3027,37 @@
         <v>100</v>
       </c>
       <c r="B55" s="6">
-        <v>603258</v>
+        <v>603566</v>
       </c>
       <c r="C55" s="6">
-        <v>4400</v>
+        <v>6300</v>
       </c>
       <c r="D55" s="6">
-        <v>4400</v>
+        <v>6300</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="7">
-        <v>56.1</v>
+        <v>26.62</v>
       </c>
       <c r="G55" s="7">
-        <v>48.915</v>
+        <v>26.202</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>246840</v>
+        <v>167706</v>
       </c>
       <c r="J55" s="7">
-        <v>31613.97</v>
+        <v>2634.98</v>
       </c>
       <c r="K55" s="7">
-        <v>2376</v>
+        <v>-1638</v>
       </c>
       <c r="L55" s="8">
-        <v>14.69</v>
+        <v>1.6</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>24</v>
@@ -3052,178 +3067,178 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="6">
-        <v>600827</v>
-      </c>
-      <c r="C56" s="6">
-        <v>41400</v>
-      </c>
-      <c r="D56" s="6">
-        <v>0</v>
-      </c>
-      <c r="E56" s="6">
-        <v>41400</v>
-      </c>
-      <c r="F56" s="7">
-        <v>15.22</v>
-      </c>
-      <c r="G56" s="7">
-        <v>14.904</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>630108</v>
-      </c>
-      <c r="J56" s="7">
-        <v>13088.03</v>
-      </c>
-      <c r="K56" s="7">
-        <v>13088.03</v>
-      </c>
-      <c r="L56" s="8">
-        <v>2.12</v>
-      </c>
-      <c r="M56" s="8" t="s">
+      <c r="B56" s="10">
+        <v>600884</v>
+      </c>
+      <c r="C56" s="10">
+        <v>15000</v>
+      </c>
+      <c r="D56" s="10">
+        <v>15000</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>11.69</v>
+      </c>
+      <c r="G56" s="11">
+        <v>12.212</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
+        <v>175350</v>
+      </c>
+      <c r="J56" s="11">
+        <v>-7827.47</v>
+      </c>
+      <c r="K56" s="11">
+        <v>-3300</v>
+      </c>
+      <c r="L56" s="9">
+        <v>-4.27</v>
+      </c>
+      <c r="M56" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N56" s="8" t="s">
+      <c r="N56" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="10">
-        <v>300494</v>
-      </c>
-      <c r="C57" s="10">
-        <v>6400</v>
-      </c>
-      <c r="D57" s="10">
-        <v>0</v>
-      </c>
-      <c r="E57" s="10">
-        <v>6400</v>
-      </c>
-      <c r="F57" s="11">
-        <v>24.51</v>
-      </c>
-      <c r="G57" s="11">
-        <v>25.226</v>
-      </c>
-      <c r="H57" s="11">
-        <v>0</v>
-      </c>
-      <c r="I57" s="11">
-        <v>156864</v>
-      </c>
-      <c r="J57" s="11">
-        <v>-4582.67</v>
-      </c>
-      <c r="K57" s="11">
-        <v>-4582.67</v>
-      </c>
-      <c r="L57" s="9">
-        <v>-2.84</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N57" s="9" t="s">
+      <c r="B57" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="6">
+        <v>6600</v>
+      </c>
+      <c r="D57" s="6">
+        <v>600</v>
+      </c>
+      <c r="E57" s="6">
+        <v>6000</v>
+      </c>
+      <c r="F57" s="7">
+        <v>109.88</v>
+      </c>
+      <c r="G57" s="7">
+        <v>94.398</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>725208</v>
+      </c>
+      <c r="J57" s="7">
+        <v>102182.25</v>
+      </c>
+      <c r="K57" s="7">
+        <v>62359.06</v>
+      </c>
+      <c r="L57" s="8">
+        <v>16.4</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="6">
-        <v>300160</v>
-      </c>
-      <c r="C58" s="6">
-        <v>73200</v>
-      </c>
-      <c r="D58" s="6">
-        <v>0</v>
-      </c>
-      <c r="E58" s="6">
-        <v>73200</v>
-      </c>
-      <c r="F58" s="7">
-        <v>8.51</v>
-      </c>
-      <c r="G58" s="7">
-        <v>8.508</v>
-      </c>
-      <c r="H58" s="7">
-        <v>0</v>
-      </c>
-      <c r="I58" s="7">
-        <v>622932</v>
-      </c>
-      <c r="J58" s="7">
-        <v>168.12</v>
-      </c>
-      <c r="K58" s="7">
-        <v>168.12</v>
-      </c>
-      <c r="L58" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>25</v>
+      <c r="A58" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="10">
+        <v>603338</v>
+      </c>
+      <c r="C58" s="10">
+        <v>1400</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+      <c r="E58" s="10">
+        <v>1400</v>
+      </c>
+      <c r="F58" s="11">
+        <v>73.82</v>
+      </c>
+      <c r="G58" s="11">
+        <v>74.52</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>103348</v>
+      </c>
+      <c r="J58" s="11">
+        <v>-979.74</v>
+      </c>
+      <c r="K58" s="11">
+        <v>-979.74</v>
+      </c>
+      <c r="L58" s="9">
+        <v>-0.94</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" s="12" t="s">
+      <c r="A59" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="13">
-        <v>294000</v>
-      </c>
-      <c r="D59" s="13">
-        <v>294000</v>
-      </c>
-      <c r="E59" s="13">
-        <v>0</v>
-      </c>
-      <c r="F59" s="14">
-        <v>0</v>
-      </c>
-      <c r="G59" s="14">
-        <v>0</v>
-      </c>
-      <c r="H59" s="14">
-        <v>0</v>
-      </c>
-      <c r="I59" s="14">
-        <v>0</v>
-      </c>
-      <c r="J59" s="14">
-        <v>0</v>
-      </c>
-      <c r="K59" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L59" s="12">
-        <v>0</v>
-      </c>
-      <c r="M59" s="12" t="s">
+      <c r="B59" s="6">
+        <v>603718</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>19.07</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7">
+        <v>1678.48</v>
+      </c>
+      <c r="K59" s="7">
+        <v>-1122.92</v>
+      </c>
+      <c r="L59" s="8">
+        <v>0</v>
+      </c>
+      <c r="M59" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N59" s="12" t="s">
+      <c r="N59" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3232,301 +3247,301 @@
         <v>106</v>
       </c>
       <c r="B60" s="6">
-        <v>300010</v>
+        <v>600859</v>
       </c>
       <c r="C60" s="6">
-        <v>3700</v>
+        <v>15600</v>
       </c>
       <c r="D60" s="6">
-        <v>0</v>
+        <v>15600</v>
       </c>
       <c r="E60" s="6">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="F60" s="7">
-        <v>20.66</v>
+        <v>54.66</v>
       </c>
       <c r="G60" s="7">
-        <v>19.837</v>
+        <v>38.071</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>76442</v>
+        <v>852696</v>
       </c>
       <c r="J60" s="7">
-        <v>3045.03</v>
+        <v>258787.7</v>
       </c>
       <c r="K60" s="7">
-        <v>3045.03</v>
+        <v>77532</v>
       </c>
       <c r="L60" s="8">
-        <v>4.15</v>
+        <v>43.57</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>108</v>
+      <c r="B61" s="6">
+        <v>603258</v>
       </c>
       <c r="C61" s="6">
-        <v>19200</v>
+        <v>0</v>
       </c>
       <c r="D61" s="6">
-        <v>19200</v>
+        <v>0</v>
       </c>
       <c r="E61" s="6">
         <v>0</v>
       </c>
       <c r="F61" s="7">
-        <v>31.9</v>
+        <v>54.94</v>
       </c>
       <c r="G61" s="7">
-        <v>30.881</v>
+        <v>0</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
       </c>
       <c r="I61" s="7">
-        <v>612480</v>
+        <v>0</v>
       </c>
       <c r="J61" s="7">
-        <v>19560.9</v>
+        <v>26123.22</v>
       </c>
       <c r="K61" s="7">
-        <v>15168</v>
+        <v>-6326.75</v>
       </c>
       <c r="L61" s="8">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="6">
+        <v>600827</v>
+      </c>
+      <c r="C62" s="6">
+        <v>41400</v>
+      </c>
+      <c r="D62" s="6">
+        <v>16400</v>
+      </c>
+      <c r="E62" s="6">
+        <v>25000</v>
+      </c>
+      <c r="F62" s="7">
+        <v>16.33</v>
+      </c>
+      <c r="G62" s="7">
+        <v>14.717</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>676062</v>
+      </c>
+      <c r="J62" s="7">
+        <v>66771.82</v>
+      </c>
+      <c r="K62" s="7">
+        <v>67755.38</v>
+      </c>
+      <c r="L62" s="8">
+        <v>10.96</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="6">
-        <v>1000</v>
-      </c>
-      <c r="D62" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E62" s="6">
-        <v>0</v>
-      </c>
-      <c r="F62" s="7">
-        <v>34.6</v>
-      </c>
-      <c r="G62" s="7">
-        <v>22.762</v>
-      </c>
-      <c r="H62" s="7">
-        <v>0</v>
-      </c>
-      <c r="I62" s="7">
-        <v>34600</v>
-      </c>
-      <c r="J62" s="7">
-        <v>11838.16</v>
-      </c>
-      <c r="K62" s="7">
-        <v>-1980</v>
-      </c>
-      <c r="L62" s="8">
-        <v>52.01</v>
-      </c>
-      <c r="M62" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N62" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="6">
-        <v>300413</v>
-      </c>
-      <c r="C63" s="6">
-        <v>0</v>
-      </c>
-      <c r="D63" s="6">
-        <v>0</v>
-      </c>
-      <c r="E63" s="6">
-        <v>0</v>
-      </c>
-      <c r="F63" s="7">
-        <v>62.24</v>
-      </c>
-      <c r="G63" s="7">
-        <v>0</v>
-      </c>
-      <c r="H63" s="7">
-        <v>0</v>
-      </c>
-      <c r="I63" s="7">
-        <v>0</v>
-      </c>
-      <c r="J63" s="7">
-        <v>283.61</v>
-      </c>
-      <c r="K63" s="7">
-        <v>-413.24</v>
-      </c>
-      <c r="L63" s="8">
-        <v>0</v>
-      </c>
-      <c r="M63" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N63" s="8" t="s">
+      <c r="B63" s="10">
+        <v>300494</v>
+      </c>
+      <c r="C63" s="10">
+        <v>0</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10">
+        <v>0</v>
+      </c>
+      <c r="F63" s="11">
+        <v>25.22</v>
+      </c>
+      <c r="G63" s="11">
+        <v>0</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0</v>
+      </c>
+      <c r="I63" s="11">
+        <v>0</v>
+      </c>
+      <c r="J63" s="11">
+        <v>-2215.07</v>
+      </c>
+      <c r="K63" s="11">
+        <v>1467.91</v>
+      </c>
+      <c r="L63" s="9">
+        <v>0</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="10">
+        <v>300160</v>
+      </c>
+      <c r="C64" s="10">
+        <v>73200</v>
+      </c>
+      <c r="D64" s="10">
+        <v>41200</v>
+      </c>
+      <c r="E64" s="10">
+        <v>32000</v>
+      </c>
+      <c r="F64" s="11">
+        <v>8.38</v>
+      </c>
+      <c r="G64" s="11">
+        <v>8.499</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+      <c r="I64" s="11">
+        <v>613416</v>
+      </c>
+      <c r="J64" s="11">
+        <v>-8695.38</v>
+      </c>
+      <c r="K64" s="11">
+        <v>-80.42</v>
+      </c>
+      <c r="L64" s="9">
+        <v>-1.4</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C64" s="10">
-        <v>1000</v>
-      </c>
-      <c r="D64" s="10">
-        <v>1000</v>
-      </c>
-      <c r="E64" s="10">
-        <v>0</v>
-      </c>
-      <c r="F64" s="11">
-        <v>12.91</v>
-      </c>
-      <c r="G64" s="11">
-        <v>13.542</v>
-      </c>
-      <c r="H64" s="11">
-        <v>0</v>
-      </c>
-      <c r="I64" s="11">
-        <v>12910</v>
-      </c>
-      <c r="J64" s="11">
-        <v>-631.76</v>
-      </c>
-      <c r="K64" s="11">
-        <v>-260</v>
-      </c>
-      <c r="L64" s="9">
-        <v>-4.67</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N64" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="6">
-        <v>300677</v>
-      </c>
-      <c r="C65" s="6">
-        <v>0</v>
-      </c>
-      <c r="D65" s="6">
-        <v>0</v>
-      </c>
-      <c r="E65" s="6">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7">
-        <v>123.05</v>
-      </c>
-      <c r="G65" s="7">
-        <v>0</v>
-      </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="7">
-        <v>0</v>
-      </c>
-      <c r="J65" s="7">
-        <v>31447.08</v>
-      </c>
-      <c r="K65" s="7">
-        <v>-7816.74</v>
-      </c>
-      <c r="L65" s="8">
-        <v>0</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N65" s="8" t="s">
-        <v>25</v>
+      <c r="C65" s="13">
+        <v>321500</v>
+      </c>
+      <c r="D65" s="13">
+        <v>321500</v>
+      </c>
+      <c r="E65" s="13">
+        <v>0</v>
+      </c>
+      <c r="F65" s="14">
+        <v>0</v>
+      </c>
+      <c r="G65" s="14">
+        <v>0</v>
+      </c>
+      <c r="H65" s="14">
+        <v>0</v>
+      </c>
+      <c r="I65" s="14">
+        <v>0</v>
+      </c>
+      <c r="J65" s="14">
+        <v>0</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L65" s="12">
+        <v>0</v>
+      </c>
+      <c r="M65" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="B66" s="6">
+        <v>300010</v>
       </c>
       <c r="C66" s="6">
-        <v>6300</v>
+        <v>3700</v>
       </c>
       <c r="D66" s="6">
-        <v>6300</v>
+        <v>3700</v>
       </c>
       <c r="E66" s="6">
         <v>0</v>
       </c>
       <c r="F66" s="7">
-        <v>29.36</v>
+        <v>20.6</v>
       </c>
       <c r="G66" s="7">
-        <v>29.048</v>
+        <v>19.836</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>184968</v>
+        <v>76220</v>
       </c>
       <c r="J66" s="7">
-        <v>1967.2</v>
+        <v>2825.46</v>
       </c>
       <c r="K66" s="7">
-        <v>-4725</v>
+        <v>-740</v>
       </c>
       <c r="L66" s="8">
-        <v>1.07</v>
+        <v>3.85</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>26</v>
@@ -3536,85 +3551,85 @@
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="6">
-        <v>600211</v>
-      </c>
-      <c r="C67" s="6">
-        <v>7300</v>
-      </c>
-      <c r="D67" s="6">
-        <v>0</v>
-      </c>
-      <c r="E67" s="6">
-        <v>7300</v>
-      </c>
-      <c r="F67" s="7">
-        <v>69.2</v>
-      </c>
-      <c r="G67" s="7">
-        <v>66.746</v>
-      </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
-      <c r="I67" s="7">
-        <v>505160</v>
-      </c>
-      <c r="J67" s="7">
-        <v>17911.33</v>
-      </c>
-      <c r="K67" s="7">
-        <v>17911.33</v>
-      </c>
-      <c r="L67" s="8">
-        <v>3.68</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N67" s="8" t="s">
-        <v>23</v>
+      <c r="A67" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="10">
+        <v>300280</v>
+      </c>
+      <c r="C67" s="10">
+        <v>7100</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0</v>
+      </c>
+      <c r="E67" s="10">
+        <v>7100</v>
+      </c>
+      <c r="F67" s="11">
+        <v>48.15</v>
+      </c>
+      <c r="G67" s="11">
+        <v>49.035</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
+      <c r="I67" s="11">
+        <v>341865</v>
+      </c>
+      <c r="J67" s="11">
+        <v>-6286.14</v>
+      </c>
+      <c r="K67" s="11">
+        <v>-6286.14</v>
+      </c>
+      <c r="L67" s="9">
+        <v>-1.8</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" s="6">
-        <v>300558</v>
+        <v>115</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="C68" s="6">
-        <v>4500</v>
+        <v>19200</v>
       </c>
       <c r="D68" s="6">
-        <v>4500</v>
+        <v>19200</v>
       </c>
       <c r="E68" s="6">
         <v>0</v>
       </c>
       <c r="F68" s="7">
-        <v>139.21</v>
+        <v>32.28</v>
       </c>
       <c r="G68" s="7">
-        <v>135.662</v>
+        <v>30.881</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>626445</v>
+        <v>619776</v>
       </c>
       <c r="J68" s="7">
-        <v>15964.64</v>
+        <v>26856.9</v>
       </c>
       <c r="K68" s="7">
-        <v>-3465</v>
+        <v>4608</v>
       </c>
       <c r="L68" s="8">
-        <v>2.62</v>
+        <v>4.53</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>26</v>
@@ -3625,178 +3640,178 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D69" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>35.09</v>
+      </c>
+      <c r="G69" s="7">
+        <v>22.762</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>35090</v>
+      </c>
+      <c r="J69" s="7">
+        <v>12328.16</v>
+      </c>
+      <c r="K69" s="7">
+        <v>190</v>
+      </c>
+      <c r="L69" s="8">
+        <v>54.16</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="6">
-        <v>600459</v>
-      </c>
-      <c r="C69" s="6">
-        <v>0</v>
-      </c>
-      <c r="D69" s="6">
-        <v>0</v>
-      </c>
-      <c r="E69" s="6">
-        <v>0</v>
-      </c>
-      <c r="F69" s="7">
-        <v>29.13</v>
-      </c>
-      <c r="G69" s="7">
-        <v>0</v>
-      </c>
-      <c r="H69" s="7">
-        <v>0</v>
-      </c>
-      <c r="I69" s="7">
-        <v>0</v>
-      </c>
-      <c r="J69" s="7">
-        <v>7386.58</v>
-      </c>
-      <c r="K69" s="7">
-        <v>3196</v>
-      </c>
-      <c r="L69" s="8">
-        <v>0</v>
-      </c>
-      <c r="M69" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N69" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B70" s="6">
-        <v>603283</v>
-      </c>
-      <c r="C70" s="6">
-        <v>30</v>
-      </c>
-      <c r="D70" s="6">
-        <v>30</v>
-      </c>
-      <c r="E70" s="6">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7">
-        <v>53.3</v>
-      </c>
-      <c r="G70" s="7">
-        <v>-1910.55</v>
-      </c>
-      <c r="H70" s="7">
-        <v>0</v>
-      </c>
-      <c r="I70" s="7">
-        <v>1599</v>
-      </c>
-      <c r="J70" s="7">
-        <v>58915.51</v>
-      </c>
-      <c r="K70" s="7">
-        <v>2381.14</v>
-      </c>
-      <c r="L70" s="8">
-        <v>0</v>
-      </c>
-      <c r="M70" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N70" s="8" t="s">
-        <v>23</v>
+      <c r="C70" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D70" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E70" s="10">
+        <v>0</v>
+      </c>
+      <c r="F70" s="11">
+        <v>12.76</v>
+      </c>
+      <c r="G70" s="11">
+        <v>13.542</v>
+      </c>
+      <c r="H70" s="11">
+        <v>0</v>
+      </c>
+      <c r="I70" s="11">
+        <v>12760</v>
+      </c>
+      <c r="J70" s="11">
+        <v>-781.76</v>
+      </c>
+      <c r="K70" s="11">
+        <v>-90</v>
+      </c>
+      <c r="L70" s="9">
+        <v>-5.77</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="6">
-        <v>600988</v>
+      <c r="B71" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="C71" s="6">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="D71" s="6">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <v>12.12</v>
+        <v>29.38</v>
       </c>
       <c r="G71" s="7">
-        <v>0</v>
+        <v>29.048</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>0</v>
+        <v>185094</v>
       </c>
       <c r="J71" s="7">
-        <v>17778.44</v>
+        <v>2093.2</v>
       </c>
       <c r="K71" s="7">
-        <v>3263.53</v>
+        <v>819</v>
       </c>
       <c r="L71" s="8">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B72" s="8" t="s">
         <v>123</v>
       </c>
+      <c r="B72" s="6">
+        <v>600211</v>
+      </c>
       <c r="C72" s="6">
-        <v>91700</v>
+        <v>8600</v>
       </c>
       <c r="D72" s="6">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E72" s="6">
-        <v>91700</v>
+        <v>6300</v>
       </c>
       <c r="F72" s="7">
-        <v>7.1</v>
+        <v>75.5</v>
       </c>
       <c r="G72" s="7">
-        <v>6.98</v>
+        <v>67.076</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>651070</v>
+        <v>649300</v>
       </c>
       <c r="J72" s="7">
-        <v>10978.51</v>
+        <v>72445.22</v>
       </c>
       <c r="K72" s="7">
-        <v>10978.51</v>
+        <v>48032.3</v>
       </c>
       <c r="L72" s="8">
-        <v>1.72</v>
+        <v>12.56</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3804,37 +3819,37 @@
         <v>124</v>
       </c>
       <c r="B73" s="10">
-        <v>300530</v>
+        <v>300558</v>
       </c>
       <c r="C73" s="10">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="D73" s="10">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="E73" s="10">
         <v>0</v>
       </c>
       <c r="F73" s="11">
-        <v>39.5</v>
+        <v>135.49</v>
       </c>
       <c r="G73" s="11">
-        <v>0</v>
+        <v>135.662</v>
       </c>
       <c r="H73" s="11">
         <v>0</v>
       </c>
       <c r="I73" s="11">
-        <v>0</v>
+        <v>609705</v>
       </c>
       <c r="J73" s="11">
-        <v>-3257.38</v>
+        <v>-775.36</v>
       </c>
       <c r="K73" s="11">
-        <v>-4062.62</v>
+        <v>-6885</v>
       </c>
       <c r="L73" s="9">
-        <v>0</v>
+        <v>-0.13</v>
       </c>
       <c r="M73" s="9" t="s">
         <v>26</v>
@@ -3844,305 +3859,305 @@
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B74" s="10">
-        <v>600867</v>
-      </c>
-      <c r="C74" s="10">
-        <v>34300</v>
-      </c>
-      <c r="D74" s="10">
-        <v>0</v>
-      </c>
-      <c r="E74" s="10">
-        <v>34300</v>
-      </c>
-      <c r="F74" s="11">
-        <v>17.18</v>
-      </c>
-      <c r="G74" s="11">
-        <v>17.553</v>
-      </c>
-      <c r="H74" s="11">
-        <v>0</v>
-      </c>
-      <c r="I74" s="11">
-        <v>589274</v>
-      </c>
-      <c r="J74" s="11">
-        <v>-12780.96</v>
-      </c>
-      <c r="K74" s="11">
-        <v>-12780.96</v>
-      </c>
-      <c r="L74" s="9">
-        <v>-2.12</v>
-      </c>
-      <c r="M74" s="9" t="s">
+      <c r="B74" s="6">
+        <v>603283</v>
+      </c>
+      <c r="C74" s="6">
+        <v>0</v>
+      </c>
+      <c r="D74" s="6">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>53.49</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="7">
+        <v>0</v>
+      </c>
+      <c r="J74" s="7">
+        <v>59055.75</v>
+      </c>
+      <c r="K74" s="7">
+        <v>-32.74</v>
+      </c>
+      <c r="L74" s="8">
+        <v>0</v>
+      </c>
+      <c r="M74" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N74" s="9" t="s">
+      <c r="N74" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B75" s="10">
-        <v>600438</v>
-      </c>
-      <c r="C75" s="10">
-        <v>0</v>
-      </c>
-      <c r="D75" s="10">
-        <v>0</v>
-      </c>
-      <c r="E75" s="10">
-        <v>0</v>
-      </c>
-      <c r="F75" s="11">
-        <v>17.83</v>
-      </c>
-      <c r="G75" s="11">
-        <v>0</v>
-      </c>
-      <c r="H75" s="11">
-        <v>0</v>
-      </c>
-      <c r="I75" s="11">
-        <v>0</v>
-      </c>
-      <c r="J75" s="11">
-        <v>-300.06</v>
-      </c>
-      <c r="K75" s="11">
-        <v>230.49</v>
-      </c>
-      <c r="L75" s="9">
-        <v>0</v>
-      </c>
-      <c r="M75" s="9" t="s">
+      <c r="B75" s="6">
+        <v>300457</v>
+      </c>
+      <c r="C75" s="6">
+        <v>500</v>
+      </c>
+      <c r="D75" s="6">
+        <v>0</v>
+      </c>
+      <c r="E75" s="6">
+        <v>500</v>
+      </c>
+      <c r="F75" s="7">
+        <v>31.7</v>
+      </c>
+      <c r="G75" s="7">
+        <v>31.6</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0</v>
+      </c>
+      <c r="I75" s="7">
+        <v>15850</v>
+      </c>
+      <c r="J75" s="7">
+        <v>50</v>
+      </c>
+      <c r="K75" s="7">
+        <v>50</v>
+      </c>
+      <c r="L75" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="10">
+        <v>600988</v>
+      </c>
+      <c r="C76" s="10">
+        <v>13400</v>
+      </c>
+      <c r="D76" s="10">
+        <v>0</v>
+      </c>
+      <c r="E76" s="10">
+        <v>13400</v>
+      </c>
+      <c r="F76" s="11">
+        <v>11.63</v>
+      </c>
+      <c r="G76" s="11">
+        <v>11.669</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76" s="11">
+        <v>155842</v>
+      </c>
+      <c r="J76" s="11">
+        <v>-523.44</v>
+      </c>
+      <c r="K76" s="11">
+        <v>-523.44</v>
+      </c>
+      <c r="L76" s="9">
+        <v>-0.33</v>
+      </c>
+      <c r="M76" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N75" s="9" t="s">
+      <c r="N76" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B76" s="6">
-        <v>300233</v>
-      </c>
-      <c r="C76" s="6">
-        <v>19100</v>
-      </c>
-      <c r="D76" s="6">
-        <v>9100</v>
-      </c>
-      <c r="E76" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F76" s="7">
-        <v>32.94</v>
-      </c>
-      <c r="G76" s="7">
-        <v>30.388</v>
-      </c>
-      <c r="H76" s="7">
-        <v>0</v>
-      </c>
-      <c r="I76" s="7">
-        <v>629154</v>
-      </c>
-      <c r="J76" s="7">
-        <v>48751.99</v>
-      </c>
-      <c r="K76" s="7">
-        <v>44263.74</v>
-      </c>
-      <c r="L76" s="8">
-        <v>8.4</v>
-      </c>
-      <c r="M76" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N76" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B77" s="6">
-        <v>600609</v>
+      <c r="B77" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="C77" s="6">
-        <v>89700</v>
+        <v>91700</v>
       </c>
       <c r="D77" s="6">
-        <v>89700</v>
+        <v>91700</v>
       </c>
       <c r="E77" s="6">
         <v>0</v>
       </c>
       <c r="F77" s="7">
-        <v>7.14</v>
+        <v>7.85</v>
       </c>
       <c r="G77" s="7">
-        <v>6.604</v>
+        <v>6.98</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
       </c>
       <c r="I77" s="7">
-        <v>640458</v>
+        <v>719845</v>
       </c>
       <c r="J77" s="7">
-        <v>48081.88</v>
+        <v>79755.8</v>
       </c>
       <c r="K77" s="7">
-        <v>12558</v>
+        <v>65107</v>
       </c>
       <c r="L77" s="8">
-        <v>8.12</v>
+        <v>12.46</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" s="10">
-        <v>603113</v>
+        <v>130</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="C78" s="10">
-        <v>4800</v>
+        <v>17400</v>
       </c>
       <c r="D78" s="10">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="E78" s="10">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="F78" s="11">
-        <v>11.89</v>
+        <v>26.22</v>
       </c>
       <c r="G78" s="11">
-        <v>12.245</v>
+        <v>26.313</v>
       </c>
       <c r="H78" s="11">
         <v>0</v>
       </c>
       <c r="I78" s="11">
-        <v>57072</v>
+        <v>456228</v>
       </c>
       <c r="J78" s="11">
-        <v>-1701.81</v>
-      </c>
-      <c r="K78" s="11" t="s">
-        <v>15</v>
+        <v>-1623.7</v>
+      </c>
+      <c r="K78" s="11">
+        <v>-1623.7</v>
       </c>
       <c r="L78" s="9">
-        <v>-2.9</v>
+        <v>-0.35</v>
       </c>
       <c r="M78" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" s="10">
+        <v>600867</v>
+      </c>
+      <c r="C79" s="10">
+        <v>0</v>
+      </c>
+      <c r="D79" s="10">
+        <v>0</v>
+      </c>
+      <c r="E79" s="10">
+        <v>0</v>
+      </c>
+      <c r="F79" s="11">
+        <v>16.63</v>
+      </c>
+      <c r="G79" s="11">
+        <v>0</v>
+      </c>
+      <c r="H79" s="11">
+        <v>0</v>
+      </c>
+      <c r="I79" s="11">
+        <v>0</v>
+      </c>
+      <c r="J79" s="11">
+        <v>-26980.74</v>
+      </c>
+      <c r="K79" s="11">
+        <v>-3231.4</v>
+      </c>
+      <c r="L79" s="9">
+        <v>0</v>
+      </c>
+      <c r="M79" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N78" s="9" t="s">
+      <c r="N79" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B79" s="6">
-        <v>300651</v>
-      </c>
-      <c r="C79" s="6">
-        <v>5500</v>
-      </c>
-      <c r="D79" s="6">
-        <v>5500</v>
-      </c>
-      <c r="E79" s="6">
-        <v>0</v>
-      </c>
-      <c r="F79" s="7">
-        <v>33.15</v>
-      </c>
-      <c r="G79" s="7">
-        <v>30.373</v>
-      </c>
-      <c r="H79" s="7">
-        <v>0</v>
-      </c>
-      <c r="I79" s="7">
-        <v>182325</v>
-      </c>
-      <c r="J79" s="7">
-        <v>15276.2</v>
-      </c>
-      <c r="K79" s="7">
-        <v>-275</v>
-      </c>
-      <c r="L79" s="8">
-        <v>9.14</v>
-      </c>
-      <c r="M79" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N79" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="B80" s="6">
+        <v>300233</v>
       </c>
       <c r="C80" s="6">
-        <v>48600</v>
+        <v>19100</v>
       </c>
       <c r="D80" s="6">
-        <v>48600</v>
+        <v>19100</v>
       </c>
       <c r="E80" s="6">
         <v>0</v>
       </c>
       <c r="F80" s="7">
-        <v>13.05</v>
+        <v>31.94</v>
       </c>
       <c r="G80" s="7">
-        <v>11.769</v>
+        <v>30.388</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
       </c>
       <c r="I80" s="7">
-        <v>634230</v>
+        <v>610054</v>
       </c>
       <c r="J80" s="7">
-        <v>62249.64</v>
+        <v>29651.99</v>
       </c>
       <c r="K80" s="7">
-        <v>39366</v>
+        <v>-19864</v>
       </c>
       <c r="L80" s="8">
-        <v>10.88</v>
+        <v>5.11</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>26</v>
@@ -4153,40 +4168,40 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B81" s="6">
-        <v>601012</v>
+        <v>600609</v>
       </c>
       <c r="C81" s="6">
-        <v>0</v>
+        <v>89700</v>
       </c>
       <c r="D81" s="6">
-        <v>0</v>
+        <v>89700</v>
       </c>
       <c r="E81" s="6">
         <v>0</v>
       </c>
       <c r="F81" s="7">
-        <v>41.6</v>
+        <v>7.22</v>
       </c>
       <c r="G81" s="7">
-        <v>0</v>
+        <v>6.604</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
       </c>
       <c r="I81" s="7">
-        <v>0</v>
+        <v>647634</v>
       </c>
       <c r="J81" s="7">
-        <v>68925.26</v>
+        <v>55257.88</v>
       </c>
       <c r="K81" s="7">
-        <v>8592.38</v>
+        <v>-10764</v>
       </c>
       <c r="L81" s="8">
-        <v>0</v>
+        <v>9.33</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>24</v>
@@ -4196,90 +4211,222 @@
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B82" s="10">
-        <v>300767</v>
-      </c>
-      <c r="C82" s="10">
-        <v>9200</v>
-      </c>
-      <c r="D82" s="10">
-        <v>9200</v>
-      </c>
-      <c r="E82" s="10">
-        <v>0</v>
-      </c>
-      <c r="F82" s="11">
-        <v>64.3</v>
-      </c>
-      <c r="G82" s="11">
-        <v>64.814</v>
-      </c>
-      <c r="H82" s="11">
-        <v>0</v>
-      </c>
-      <c r="I82" s="11">
-        <v>591560</v>
-      </c>
-      <c r="J82" s="11">
-        <v>-4726.53</v>
-      </c>
-      <c r="K82" s="11">
-        <v>-15180</v>
-      </c>
-      <c r="L82" s="9">
-        <v>-0.79</v>
-      </c>
-      <c r="M82" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N82" s="9" t="s">
-        <v>25</v>
+      <c r="A82" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B82" s="6">
+        <v>603113</v>
+      </c>
+      <c r="C82" s="6">
+        <v>0</v>
+      </c>
+      <c r="D82" s="6">
+        <v>0</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>13.16</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0</v>
+      </c>
+      <c r="J82" s="7">
+        <v>602.55</v>
+      </c>
+      <c r="K82" s="7">
+        <v>1728.36</v>
+      </c>
+      <c r="L82" s="8">
+        <v>0</v>
+      </c>
+      <c r="M82" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B83" s="8" t="s">
         <v>136</v>
       </c>
+      <c r="B83" s="6">
+        <v>300651</v>
+      </c>
       <c r="C83" s="6">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="D83" s="6">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
       </c>
       <c r="F83" s="7">
-        <v>29.46</v>
+        <v>32.93</v>
       </c>
       <c r="G83" s="7">
-        <v>0</v>
+        <v>30.373</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
       </c>
       <c r="I83" s="7">
-        <v>0</v>
+        <v>181115</v>
       </c>
       <c r="J83" s="7">
-        <v>41257.75</v>
+        <v>14066.2</v>
       </c>
       <c r="K83" s="7">
-        <v>-6.96</v>
+        <v>-165</v>
       </c>
       <c r="L83" s="8">
-        <v>0</v>
+        <v>8.42</v>
       </c>
       <c r="M83" s="8" t="s">
         <v>26</v>
       </c>
       <c r="N83" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="6">
+        <v>48600</v>
+      </c>
+      <c r="D84" s="6">
+        <v>48600</v>
+      </c>
+      <c r="E84" s="6">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>13.11</v>
+      </c>
+      <c r="G84" s="7">
+        <v>11.769</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>637146</v>
+      </c>
+      <c r="J84" s="7">
+        <v>65165.64</v>
+      </c>
+      <c r="K84" s="7">
+        <v>-4374</v>
+      </c>
+      <c r="L84" s="8">
+        <v>11.39</v>
+      </c>
+      <c r="M84" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" s="6">
+        <v>13000</v>
+      </c>
+      <c r="D85" s="6">
+        <v>0</v>
+      </c>
+      <c r="E85" s="6">
+        <v>13000</v>
+      </c>
+      <c r="F85" s="7">
+        <v>9.62</v>
+      </c>
+      <c r="G85" s="7">
+        <v>9.215</v>
+      </c>
+      <c r="H85" s="7">
+        <v>0</v>
+      </c>
+      <c r="I85" s="7">
+        <v>125060</v>
+      </c>
+      <c r="J85" s="7">
+        <v>5261.3</v>
+      </c>
+      <c r="K85" s="7">
+        <v>5261.3</v>
+      </c>
+      <c r="L85" s="8">
+        <v>4.4</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="10">
+        <v>300767</v>
+      </c>
+      <c r="C86" s="10">
+        <v>9200</v>
+      </c>
+      <c r="D86" s="10">
+        <v>9200</v>
+      </c>
+      <c r="E86" s="10">
+        <v>0</v>
+      </c>
+      <c r="F86" s="11">
+        <v>63.75</v>
+      </c>
+      <c r="G86" s="11">
+        <v>64.814</v>
+      </c>
+      <c r="H86" s="11">
+        <v>0</v>
+      </c>
+      <c r="I86" s="11">
+        <v>586500</v>
+      </c>
+      <c r="J86" s="11">
+        <v>-9786.53</v>
+      </c>
+      <c r="K86" s="11">
+        <v>-4692</v>
+      </c>
+      <c r="L86" s="9">
+        <v>-1.64</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N86" s="9" t="s">
         <v>25</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
+++ b/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
@@ -914,25 +914,25 @@
         <v>2825161.18</v>
       </c>
       <c r="D3" s="3">
-        <v>3499035.24</v>
+        <v>3502762.01</v>
       </c>
       <c r="E3" s="3">
         <v>2825161.18</v>
       </c>
       <c r="F3" s="3">
-        <v>-673874.06</v>
+        <v>-677600.83</v>
       </c>
       <c r="G3" s="3">
-        <v>20154819.386</v>
+        <v>20057247.82</v>
       </c>
       <c r="H3" s="3">
-        <v>23650001.42</v>
+        <v>23560009.83</v>
       </c>
       <c r="I3" s="3">
-        <v>1415337.126</v>
+        <v>1321492.33</v>
       </c>
       <c r="J3" s="3">
-        <v>290272.586</v>
+        <v>196427.79</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>23.49</v>
+        <v>24.03</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>23400</v>
       </c>
       <c r="F13" s="7">
-        <v>24.87</v>
+        <v>25.13</v>
       </c>
       <c r="G13" s="7">
         <v>24.612</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>581958</v>
+        <v>588042</v>
       </c>
       <c r="J13" s="7">
-        <v>6028.52</v>
+        <v>12112.52</v>
       </c>
       <c r="K13" s="7">
-        <v>6028.52</v>
+        <v>12112.52</v>
       </c>
       <c r="L13" s="8">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>24</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>21.74</v>
+        <v>21.6</v>
       </c>
       <c r="G14" s="7">
         <v>19.244</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>186964</v>
+        <v>185760</v>
       </c>
       <c r="J14" s="7">
-        <v>21468.5</v>
+        <v>20264.5</v>
       </c>
       <c r="K14" s="7">
-        <v>-1720</v>
+        <v>-2924</v>
       </c>
       <c r="L14" s="8">
-        <v>12.97</v>
+        <v>12.24</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>26</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="11">
-        <v>15.16</v>
+        <v>15.22</v>
       </c>
       <c r="G15" s="11">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="11">
-        <v>24.82</v>
+        <v>25.07</v>
       </c>
       <c r="G16" s="11">
         <v>25.442</v>
@@ -1332,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="I16" s="11">
-        <v>12410</v>
+        <v>12535</v>
       </c>
       <c r="J16" s="11">
-        <v>-310.9</v>
+        <v>-185.9</v>
       </c>
       <c r="K16" s="11">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="L16" s="9">
-        <v>-2.44</v>
+        <v>-1.46</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>24</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="11">
-        <v>19.64</v>
+        <v>19.63</v>
       </c>
       <c r="G17" s="11">
         <v>20.662</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="11">
-        <v>263176</v>
+        <v>263042</v>
       </c>
       <c r="J17" s="11">
-        <v>-13698.99</v>
+        <v>-13832.99</v>
       </c>
       <c r="K17" s="11">
-        <v>-10586</v>
+        <v>-10720</v>
       </c>
       <c r="L17" s="9">
-        <v>-4.95</v>
+        <v>-4.99</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>26</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>22.69</v>
+        <v>22.59</v>
       </c>
       <c r="G18" s="7">
         <v>-23.043</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>13614</v>
+        <v>13554</v>
       </c>
       <c r="J18" s="7">
-        <v>27439.91</v>
+        <v>27379.91</v>
       </c>
       <c r="K18" s="7">
-        <v>-8621.22</v>
+        <v>-8681.22</v>
       </c>
       <c r="L18" s="8">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>3500</v>
       </c>
       <c r="F19" s="7">
-        <v>9.09</v>
+        <v>9.15</v>
       </c>
       <c r="G19" s="7">
         <v>8.949</v>
@@ -1464,16 +1464,16 @@
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>31815</v>
+        <v>32025</v>
       </c>
       <c r="J19" s="7">
-        <v>494</v>
+        <v>704</v>
       </c>
       <c r="K19" s="7">
-        <v>494</v>
+        <v>704</v>
       </c>
       <c r="L19" s="8">
-        <v>1.58</v>
+        <v>2.25</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>26</v>
@@ -1499,7 +1499,7 @@
         <v>52800</v>
       </c>
       <c r="F20" s="11">
-        <v>7.43</v>
+        <v>7.46</v>
       </c>
       <c r="G20" s="11">
         <v>7.471</v>
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="11">
-        <v>392304</v>
+        <v>393888</v>
       </c>
       <c r="J20" s="11">
-        <v>-2165.23</v>
+        <v>-581.23</v>
       </c>
       <c r="K20" s="11">
-        <v>-2165.23</v>
+        <v>-581.23</v>
       </c>
       <c r="L20" s="9">
-        <v>-0.55</v>
+        <v>-0.15</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>26</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="11">
-        <v>5.48</v>
+        <v>5.43</v>
       </c>
       <c r="G21" s="11">
         <v>5.761</v>
@@ -1552,16 +1552,16 @@
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <v>274548</v>
+        <v>272043</v>
       </c>
       <c r="J21" s="11">
-        <v>-14079.79</v>
+        <v>-16584.79</v>
       </c>
       <c r="K21" s="11">
-        <v>-501</v>
+        <v>-3006</v>
       </c>
       <c r="L21" s="9">
-        <v>-4.88</v>
+        <v>-5.75</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>24</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>23.56</v>
+        <v>23.45</v>
       </c>
       <c r="G22" s="7">
         <v>22.773</v>
@@ -1596,16 +1596,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>624340</v>
+        <v>621425</v>
       </c>
       <c r="J22" s="7">
-        <v>20856.56</v>
+        <v>17941.56</v>
       </c>
       <c r="K22" s="7">
-        <v>34185</v>
+        <v>31270</v>
       </c>
       <c r="L22" s="8">
-        <v>3.46</v>
+        <v>2.97</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>26</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>17.72</v>
+        <v>17.58</v>
       </c>
       <c r="G23" s="7">
         <v>17.222</v>
@@ -1640,16 +1640,16 @@
         <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>618428</v>
+        <v>613542</v>
       </c>
       <c r="J23" s="7">
-        <v>17367.38</v>
+        <v>12481.38</v>
       </c>
       <c r="K23" s="7">
-        <v>-9074</v>
+        <v>-13960</v>
       </c>
       <c r="L23" s="8">
-        <v>2.89</v>
+        <v>2.08</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>26</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>38.72</v>
+        <v>38.65</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="7">
-        <v>53.05</v>
+        <v>53.12</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>21800</v>
       </c>
       <c r="F26" s="11">
-        <v>27.18</v>
+        <v>26.68</v>
       </c>
       <c r="G26" s="11">
         <v>27.737</v>
@@ -1772,16 +1772,16 @@
         <v>0</v>
       </c>
       <c r="I26" s="11">
-        <v>592524</v>
+        <v>581624</v>
       </c>
       <c r="J26" s="11">
-        <v>-12136.25</v>
+        <v>-23036.25</v>
       </c>
       <c r="K26" s="11">
-        <v>-12136.25</v>
+        <v>-23036.25</v>
       </c>
       <c r="L26" s="9">
-        <v>-2.01</v>
+        <v>-3.81</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>26</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="11">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="G28" s="11">
         <v>12.27</v>
@@ -1860,16 +1860,16 @@
         <v>0</v>
       </c>
       <c r="I28" s="11">
-        <v>502987</v>
+        <v>499928</v>
       </c>
       <c r="J28" s="11">
-        <v>-33222.72</v>
+        <v>-36281.72</v>
       </c>
       <c r="K28" s="11">
-        <v>-6118</v>
+        <v>-9177</v>
       </c>
       <c r="L28" s="9">
-        <v>-6.19</v>
+        <v>-6.76</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>26</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>151.64</v>
+        <v>151.8</v>
       </c>
       <c r="G29" s="7">
         <v>-27.557</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>75820</v>
+        <v>75900</v>
       </c>
       <c r="J29" s="7">
-        <v>89598.38</v>
+        <v>89678.38</v>
       </c>
       <c r="K29" s="7">
-        <v>-1380</v>
+        <v>-1300</v>
       </c>
       <c r="L29" s="8">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>99.965</v>
+        <v>99.97</v>
       </c>
       <c r="G30" s="7">
         <v>-6751.737</v>
@@ -1948,13 +1948,13 @@
         <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>599.786</v>
+        <v>599.82</v>
       </c>
       <c r="J30" s="7">
-        <v>41110.206</v>
+        <v>41110.24</v>
       </c>
       <c r="K30" s="7">
-        <v>-0.074</v>
+        <v>-0.04</v>
       </c>
       <c r="L30" s="8">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>12.58</v>
+        <v>12.45</v>
       </c>
       <c r="G31" s="7">
         <v>-2669.063</v>
@@ -1992,13 +1992,13 @@
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>251.6</v>
+        <v>249</v>
       </c>
       <c r="J31" s="7">
-        <v>53632.85</v>
+        <v>53630.25</v>
       </c>
       <c r="K31" s="7">
-        <v>1978.18</v>
+        <v>1975.58</v>
       </c>
       <c r="L31" s="8">
         <v>0</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>18.05</v>
+        <v>18.12</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>6200</v>
       </c>
       <c r="F33" s="7">
-        <v>74.31</v>
+        <v>75.79</v>
       </c>
       <c r="G33" s="7">
         <v>73.504</v>
@@ -2080,16 +2080,16 @@
         <v>0</v>
       </c>
       <c r="I33" s="7">
-        <v>460722</v>
+        <v>469898</v>
       </c>
       <c r="J33" s="7">
-        <v>4995.43</v>
+        <v>14171.43</v>
       </c>
       <c r="K33" s="7">
-        <v>4995.43</v>
+        <v>14171.43</v>
       </c>
       <c r="L33" s="8">
-        <v>1.1</v>
+        <v>3.11</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>24</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="11">
-        <v>25.61</v>
+        <v>25.91</v>
       </c>
       <c r="G34" s="11">
         <v>26.501</v>
@@ -2124,16 +2124,16 @@
         <v>0</v>
       </c>
       <c r="I34" s="11">
-        <v>496834</v>
+        <v>502654</v>
       </c>
       <c r="J34" s="11">
-        <v>-17293.84</v>
+        <v>-11473.84</v>
       </c>
       <c r="K34" s="11">
-        <v>-22116</v>
+        <v>-16296</v>
       </c>
       <c r="L34" s="9">
-        <v>-3.36</v>
+        <v>-2.23</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>26</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="7">
-        <v>555.13</v>
+        <v>541</v>
       </c>
       <c r="G35" s="7">
         <v>526.132</v>
@@ -2168,16 +2168,16 @@
         <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>388591</v>
+        <v>378700</v>
       </c>
       <c r="J35" s="7">
-        <v>20298.77</v>
+        <v>10407.77</v>
       </c>
       <c r="K35" s="7">
-        <v>476</v>
+        <v>-9415</v>
       </c>
       <c r="L35" s="8">
-        <v>5.51</v>
+        <v>2.83</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>24</v>
@@ -2203,7 +2203,7 @@
         <v>15700</v>
       </c>
       <c r="F36" s="7">
-        <v>12.43</v>
+        <v>12.29</v>
       </c>
       <c r="G36" s="7">
         <v>12.211</v>
@@ -2212,16 +2212,16 @@
         <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>195151</v>
+        <v>192953</v>
       </c>
       <c r="J36" s="7">
-        <v>3441.27</v>
+        <v>1243.27</v>
       </c>
       <c r="K36" s="7">
-        <v>3441.27</v>
+        <v>1243.27</v>
       </c>
       <c r="L36" s="8">
-        <v>1.79</v>
+        <v>0.65</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>26</v>
@@ -2247,7 +2247,7 @@
         <v>11800</v>
       </c>
       <c r="F37" s="11">
-        <v>40.32</v>
+        <v>39.51</v>
       </c>
       <c r="G37" s="11">
         <v>40.731</v>
@@ -2256,16 +2256,16 @@
         <v>0</v>
       </c>
       <c r="I37" s="11">
-        <v>475776</v>
+        <v>466218</v>
       </c>
       <c r="J37" s="11">
-        <v>-4854.28</v>
+        <v>-14412.28</v>
       </c>
       <c r="K37" s="11">
-        <v>-4854.28</v>
+        <v>-14412.28</v>
       </c>
       <c r="L37" s="9">
-        <v>-1.01</v>
+        <v>-3</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>24</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="11">
-        <v>9</v>
+        <v>9.02</v>
       </c>
       <c r="G39" s="11">
         <v>9.319</v>
@@ -2344,16 +2344,16 @@
         <v>0</v>
       </c>
       <c r="I39" s="11">
-        <v>587700</v>
+        <v>589006</v>
       </c>
       <c r="J39" s="11">
-        <v>-20839.24</v>
+        <v>-19533.24</v>
       </c>
       <c r="K39" s="11">
-        <v>-653</v>
+        <v>653</v>
       </c>
       <c r="L39" s="9">
-        <v>-3.42</v>
+        <v>-3.21</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>26</v>
@@ -2363,46 +2363,46 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="6">
         <v>600535</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="6">
         <v>33600</v>
       </c>
-      <c r="D40" s="10">
-        <v>0</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
         <v>33600</v>
       </c>
-      <c r="F40" s="11">
-        <v>17.71</v>
-      </c>
-      <c r="G40" s="11">
+      <c r="F40" s="7">
+        <v>17.87</v>
+      </c>
+      <c r="G40" s="7">
         <v>17.733</v>
       </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>595056</v>
-      </c>
-      <c r="J40" s="11">
-        <v>-784.16</v>
-      </c>
-      <c r="K40" s="11">
-        <v>-784.16</v>
-      </c>
-      <c r="L40" s="9">
-        <v>-0.13</v>
-      </c>
-      <c r="M40" s="9" t="s">
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>600432</v>
+      </c>
+      <c r="J40" s="7">
+        <v>4591.84</v>
+      </c>
+      <c r="K40" s="7">
+        <v>4591.84</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="M40" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N40" s="9" t="s">
+      <c r="N40" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
         <v>7200</v>
       </c>
       <c r="F41" s="7">
-        <v>22.15</v>
+        <v>22.07</v>
       </c>
       <c r="G41" s="7">
         <v>21.726</v>
@@ -2432,16 +2432,16 @@
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>159480</v>
+        <v>158904</v>
       </c>
       <c r="J41" s="7">
-        <v>3055.67</v>
+        <v>2479.67</v>
       </c>
       <c r="K41" s="7">
-        <v>3055.67</v>
+        <v>2479.67</v>
       </c>
       <c r="L41" s="8">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>26</v>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="7">
-        <v>4.26</v>
+        <v>4.3</v>
       </c>
       <c r="G42" s="7">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>13.97</v>
+        <v>14.4</v>
       </c>
       <c r="G43" s="7">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="11">
-        <v>11.67</v>
+        <v>11.76</v>
       </c>
       <c r="G44" s="11">
         <v>11.842</v>
@@ -2564,16 +2564,16 @@
         <v>0</v>
       </c>
       <c r="I44" s="11">
-        <v>7002</v>
+        <v>7056</v>
       </c>
       <c r="J44" s="11">
-        <v>-102.92</v>
+        <v>-48.92</v>
       </c>
       <c r="K44" s="11">
-        <v>-24</v>
+        <v>30</v>
       </c>
       <c r="L44" s="9">
-        <v>-1.45</v>
+        <v>-0.69</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>26</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="7">
-        <v>69</v>
+        <v>67.1</v>
       </c>
       <c r="G45" s="7">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="11">
-        <v>155.3</v>
+        <v>154.05</v>
       </c>
       <c r="G46" s="11">
         <v>159.821</v>
@@ -2652,16 +2652,16 @@
         <v>0</v>
       </c>
       <c r="I46" s="11">
-        <v>31060</v>
+        <v>30810</v>
       </c>
       <c r="J46" s="11">
-        <v>-904.15</v>
+        <v>-1154.15</v>
       </c>
       <c r="K46" s="11">
-        <v>-1024</v>
+        <v>-1274</v>
       </c>
       <c r="L46" s="9">
-        <v>-2.83</v>
+        <v>-3.61</v>
       </c>
       <c r="M46" s="9" t="s">
         <v>26</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="7">
-        <v>32.85</v>
+        <v>32.9</v>
       </c>
       <c r="G47" s="7">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <v>24.52</v>
+        <v>24.56</v>
       </c>
       <c r="G48" s="7">
         <v>22.312</v>
@@ -2740,16 +2740,16 @@
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>193708</v>
+        <v>194024</v>
       </c>
       <c r="J48" s="7">
-        <v>17439.6</v>
+        <v>17755.6</v>
       </c>
       <c r="K48" s="7">
-        <v>12166</v>
+        <v>12482</v>
       </c>
       <c r="L48" s="8">
-        <v>9.9</v>
+        <v>10.08</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>24</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>62.04</v>
+        <v>61.73</v>
       </c>
       <c r="G49" s="7">
         <v>52.111</v>
@@ -2784,16 +2784,16 @@
         <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>694848</v>
+        <v>691376</v>
       </c>
       <c r="J49" s="7">
-        <v>111201.21</v>
+        <v>107729.21</v>
       </c>
       <c r="K49" s="7">
-        <v>-18032</v>
+        <v>-21504</v>
       </c>
       <c r="L49" s="8">
-        <v>19.05</v>
+        <v>18.46</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>26</v>
@@ -2819,7 +2819,7 @@
         <v>20000</v>
       </c>
       <c r="F50" s="7">
-        <v>31.05</v>
+        <v>30.63</v>
       </c>
       <c r="G50" s="7">
         <v>28.155</v>
@@ -2828,16 +2828,16 @@
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>664470</v>
+        <v>655482</v>
       </c>
       <c r="J50" s="7">
-        <v>61947.37</v>
+        <v>52959.37</v>
       </c>
       <c r="K50" s="7">
-        <v>20512.16</v>
+        <v>11524.16</v>
       </c>
       <c r="L50" s="8">
-        <v>10.28</v>
+        <v>8.79</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>26</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>69.79</v>
+        <v>68.97</v>
       </c>
       <c r="G51" s="7">
         <v>-17.127</v>
@@ -2872,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>13958</v>
+        <v>13794</v>
       </c>
       <c r="J51" s="7">
-        <v>17383.38</v>
+        <v>17219.38</v>
       </c>
       <c r="K51" s="7">
-        <v>-4095.97</v>
+        <v>-4259.97</v>
       </c>
       <c r="L51" s="8">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="11">
-        <v>208.24</v>
+        <v>206.5</v>
       </c>
       <c r="G53" s="11">
         <v>209.715</v>
@@ -2960,16 +2960,16 @@
         <v>0</v>
       </c>
       <c r="I53" s="11">
-        <v>583072</v>
+        <v>578200</v>
       </c>
       <c r="J53" s="11">
-        <v>-4129.23</v>
+        <v>-9001.23</v>
       </c>
       <c r="K53" s="11">
-        <v>17472</v>
+        <v>12600</v>
       </c>
       <c r="L53" s="9">
-        <v>-0.7</v>
+        <v>-1.53</v>
       </c>
       <c r="M53" s="9" t="s">
         <v>26</v>
@@ -2995,7 +2995,7 @@
         <v>4300</v>
       </c>
       <c r="F54" s="7">
-        <v>16.85</v>
+        <v>16.95</v>
       </c>
       <c r="G54" s="7">
         <v>16.751</v>
@@ -3004,16 +3004,16 @@
         <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>72455</v>
+        <v>72885</v>
       </c>
       <c r="J54" s="7">
-        <v>424.77</v>
+        <v>854.77</v>
       </c>
       <c r="K54" s="7">
-        <v>424.77</v>
+        <v>854.77</v>
       </c>
       <c r="L54" s="8">
-        <v>0.59</v>
+        <v>1.19</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>26</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="7">
-        <v>26.62</v>
+        <v>26.66</v>
       </c>
       <c r="G55" s="7">
         <v>26.202</v>
@@ -3048,16 +3048,16 @@
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>167706</v>
+        <v>167958</v>
       </c>
       <c r="J55" s="7">
-        <v>2634.98</v>
+        <v>2886.98</v>
       </c>
       <c r="K55" s="7">
-        <v>-1638</v>
+        <v>-1386</v>
       </c>
       <c r="L55" s="8">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>24</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="11">
-        <v>11.69</v>
+        <v>11.59</v>
       </c>
       <c r="G56" s="11">
         <v>12.212</v>
@@ -3092,16 +3092,16 @@
         <v>0</v>
       </c>
       <c r="I56" s="11">
-        <v>175350</v>
+        <v>173850</v>
       </c>
       <c r="J56" s="11">
-        <v>-7827.47</v>
+        <v>-9327.47</v>
       </c>
       <c r="K56" s="11">
-        <v>-3300</v>
+        <v>-4800</v>
       </c>
       <c r="L56" s="9">
-        <v>-4.27</v>
+        <v>-5.09</v>
       </c>
       <c r="M56" s="9" t="s">
         <v>24</v>
@@ -3127,7 +3127,7 @@
         <v>6000</v>
       </c>
       <c r="F57" s="7">
-        <v>109.88</v>
+        <v>107.61</v>
       </c>
       <c r="G57" s="7">
         <v>94.398</v>
@@ -3136,16 +3136,16 @@
         <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>725208</v>
+        <v>710226</v>
       </c>
       <c r="J57" s="7">
-        <v>102182.25</v>
+        <v>87200.25</v>
       </c>
       <c r="K57" s="7">
-        <v>62359.06</v>
+        <v>47377.06</v>
       </c>
       <c r="L57" s="8">
-        <v>16.4</v>
+        <v>14</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>26</v>
@@ -3171,7 +3171,7 @@
         <v>1400</v>
       </c>
       <c r="F58" s="11">
-        <v>73.82</v>
+        <v>73.75</v>
       </c>
       <c r="G58" s="11">
         <v>74.52</v>
@@ -3180,16 +3180,16 @@
         <v>0</v>
       </c>
       <c r="I58" s="11">
-        <v>103348</v>
+        <v>103250</v>
       </c>
       <c r="J58" s="11">
-        <v>-979.74</v>
+        <v>-1077.74</v>
       </c>
       <c r="K58" s="11">
-        <v>-979.74</v>
+        <v>-1077.74</v>
       </c>
       <c r="L58" s="9">
-        <v>-0.94</v>
+        <v>-1.03</v>
       </c>
       <c r="M58" s="9" t="s">
         <v>24</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>19.07</v>
+        <v>19.29</v>
       </c>
       <c r="G59" s="7">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="7">
-        <v>54.94</v>
+        <v>54.03</v>
       </c>
       <c r="G61" s="7">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>25000</v>
       </c>
       <c r="F62" s="7">
-        <v>16.33</v>
+        <v>16.37</v>
       </c>
       <c r="G62" s="7">
         <v>14.717</v>
@@ -3356,16 +3356,16 @@
         <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>676062</v>
+        <v>677718</v>
       </c>
       <c r="J62" s="7">
-        <v>66771.82</v>
+        <v>68427.82</v>
       </c>
       <c r="K62" s="7">
-        <v>67755.38</v>
+        <v>69411.38</v>
       </c>
       <c r="L62" s="8">
-        <v>10.96</v>
+        <v>11.23</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>24</v>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="11">
-        <v>25.22</v>
+        <v>25.4</v>
       </c>
       <c r="G63" s="11">
         <v>0</v>
@@ -3419,46 +3419,46 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="6">
         <v>300160</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="6">
         <v>73200</v>
       </c>
-      <c r="D64" s="10">
-        <v>41200</v>
-      </c>
-      <c r="E64" s="10">
-        <v>32000</v>
-      </c>
-      <c r="F64" s="11">
-        <v>8.38</v>
-      </c>
-      <c r="G64" s="11">
-        <v>8.499</v>
-      </c>
-      <c r="H64" s="11">
-        <v>0</v>
-      </c>
-      <c r="I64" s="11">
-        <v>613416</v>
-      </c>
-      <c r="J64" s="11">
-        <v>-8695.38</v>
-      </c>
-      <c r="K64" s="11">
-        <v>-80.42</v>
-      </c>
-      <c r="L64" s="9">
-        <v>-1.4</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N64" s="9" t="s">
+      <c r="D64" s="6">
+        <v>11600</v>
+      </c>
+      <c r="E64" s="6">
+        <v>61600</v>
+      </c>
+      <c r="F64" s="7">
+        <v>8.53</v>
+      </c>
+      <c r="G64" s="7">
+        <v>8.46</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>624396</v>
+      </c>
+      <c r="J64" s="7">
+        <v>5093.8</v>
+      </c>
+      <c r="K64" s="7">
+        <v>13708.76</v>
+      </c>
+      <c r="L64" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="7">
-        <v>20.6</v>
+        <v>20.59</v>
       </c>
       <c r="G66" s="7">
         <v>19.836</v>
@@ -3532,16 +3532,16 @@
         <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>76220</v>
+        <v>76183</v>
       </c>
       <c r="J66" s="7">
-        <v>2825.46</v>
+        <v>2788.46</v>
       </c>
       <c r="K66" s="7">
-        <v>-740</v>
+        <v>-777</v>
       </c>
       <c r="L66" s="8">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>26</v>
@@ -3567,7 +3567,7 @@
         <v>7100</v>
       </c>
       <c r="F67" s="11">
-        <v>48.15</v>
+        <v>48.71</v>
       </c>
       <c r="G67" s="11">
         <v>49.035</v>
@@ -3576,16 +3576,16 @@
         <v>0</v>
       </c>
       <c r="I67" s="11">
-        <v>341865</v>
+        <v>345841</v>
       </c>
       <c r="J67" s="11">
-        <v>-6286.14</v>
+        <v>-2310.14</v>
       </c>
       <c r="K67" s="11">
-        <v>-6286.14</v>
+        <v>-2310.14</v>
       </c>
       <c r="L67" s="9">
-        <v>-1.8</v>
+        <v>-0.66</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>26</v>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="7">
-        <v>32.28</v>
+        <v>32.4</v>
       </c>
       <c r="G68" s="7">
         <v>30.881</v>
@@ -3620,16 +3620,16 @@
         <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>619776</v>
+        <v>622080</v>
       </c>
       <c r="J68" s="7">
-        <v>26856.9</v>
+        <v>29160.9</v>
       </c>
       <c r="K68" s="7">
-        <v>4608</v>
+        <v>6912</v>
       </c>
       <c r="L68" s="8">
-        <v>4.53</v>
+        <v>4.92</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>26</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="7">
-        <v>35.09</v>
+        <v>35.2</v>
       </c>
       <c r="G69" s="7">
         <v>22.762</v>
@@ -3664,16 +3664,16 @@
         <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>35090</v>
+        <v>35200</v>
       </c>
       <c r="J69" s="7">
-        <v>12328.16</v>
+        <v>12438.16</v>
       </c>
       <c r="K69" s="7">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="L69" s="8">
-        <v>54.16</v>
+        <v>54.64</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>26</v>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="11">
-        <v>12.76</v>
+        <v>12.95</v>
       </c>
       <c r="G70" s="11">
         <v>13.542</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="I70" s="11">
-        <v>12760</v>
+        <v>12950</v>
       </c>
       <c r="J70" s="11">
-        <v>-781.76</v>
+        <v>-591.76</v>
       </c>
       <c r="K70" s="11">
-        <v>-90</v>
+        <v>100</v>
       </c>
       <c r="L70" s="9">
-        <v>-5.77</v>
+        <v>-4.37</v>
       </c>
       <c r="M70" s="9" t="s">
         <v>26</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <v>29.38</v>
+        <v>29.21</v>
       </c>
       <c r="G71" s="7">
         <v>29.048</v>
@@ -3752,16 +3752,16 @@
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>185094</v>
+        <v>184023</v>
       </c>
       <c r="J71" s="7">
-        <v>2093.2</v>
+        <v>1022.2</v>
       </c>
       <c r="K71" s="7">
-        <v>819</v>
+        <v>-252</v>
       </c>
       <c r="L71" s="8">
-        <v>1.14</v>
+        <v>0.56</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>26</v>
@@ -3781,31 +3781,31 @@
         <v>8600</v>
       </c>
       <c r="D72" s="6">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="E72" s="6">
-        <v>6300</v>
+        <v>8600</v>
       </c>
       <c r="F72" s="7">
-        <v>75.5</v>
+        <v>67.86</v>
       </c>
       <c r="G72" s="7">
-        <v>67.076</v>
+        <v>66.969</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>649300</v>
+        <v>583596</v>
       </c>
       <c r="J72" s="7">
-        <v>72445.22</v>
+        <v>7658.81</v>
       </c>
       <c r="K72" s="7">
-        <v>48032.3</v>
+        <v>-16754.11</v>
       </c>
       <c r="L72" s="8">
-        <v>12.56</v>
+        <v>1.33</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>24</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="11">
-        <v>135.49</v>
+        <v>134.9</v>
       </c>
       <c r="G73" s="11">
         <v>135.662</v>
@@ -3840,16 +3840,16 @@
         <v>0</v>
       </c>
       <c r="I73" s="11">
-        <v>609705</v>
+        <v>607050</v>
       </c>
       <c r="J73" s="11">
-        <v>-775.36</v>
+        <v>-3430.36</v>
       </c>
       <c r="K73" s="11">
-        <v>-6885</v>
+        <v>-9540</v>
       </c>
       <c r="L73" s="9">
-        <v>-0.13</v>
+        <v>-0.56</v>
       </c>
       <c r="M73" s="9" t="s">
         <v>26</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="7">
-        <v>53.49</v>
+        <v>53.75</v>
       </c>
       <c r="G74" s="7">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>500</v>
       </c>
       <c r="F75" s="7">
-        <v>31.7</v>
+        <v>31.94</v>
       </c>
       <c r="G75" s="7">
         <v>31.6</v>
@@ -3928,16 +3928,16 @@
         <v>0</v>
       </c>
       <c r="I75" s="7">
-        <v>15850</v>
+        <v>15970</v>
       </c>
       <c r="J75" s="7">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="K75" s="7">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="L75" s="8">
-        <v>0.32</v>
+        <v>1.08</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>26</v>
@@ -3963,7 +3963,7 @@
         <v>13400</v>
       </c>
       <c r="F76" s="11">
-        <v>11.63</v>
+        <v>11.6</v>
       </c>
       <c r="G76" s="11">
         <v>11.669</v>
@@ -3972,16 +3972,16 @@
         <v>0</v>
       </c>
       <c r="I76" s="11">
-        <v>155842</v>
+        <v>155440</v>
       </c>
       <c r="J76" s="11">
-        <v>-523.44</v>
+        <v>-925.44</v>
       </c>
       <c r="K76" s="11">
-        <v>-523.44</v>
+        <v>-925.44</v>
       </c>
       <c r="L76" s="9">
-        <v>-0.33</v>
+        <v>-0.59</v>
       </c>
       <c r="M76" s="9" t="s">
         <v>24</v>
@@ -4035,46 +4035,46 @@
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="6">
         <v>17400</v>
       </c>
-      <c r="D78" s="10">
-        <v>0</v>
-      </c>
-      <c r="E78" s="10">
+      <c r="D78" s="6">
+        <v>0</v>
+      </c>
+      <c r="E78" s="6">
         <v>17400</v>
       </c>
-      <c r="F78" s="11">
-        <v>26.22</v>
-      </c>
-      <c r="G78" s="11">
+      <c r="F78" s="7">
+        <v>26.45</v>
+      </c>
+      <c r="G78" s="7">
         <v>26.313</v>
       </c>
-      <c r="H78" s="11">
-        <v>0</v>
-      </c>
-      <c r="I78" s="11">
-        <v>456228</v>
-      </c>
-      <c r="J78" s="11">
-        <v>-1623.7</v>
-      </c>
-      <c r="K78" s="11">
-        <v>-1623.7</v>
-      </c>
-      <c r="L78" s="9">
-        <v>-0.35</v>
-      </c>
-      <c r="M78" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N78" s="9" t="s">
+      <c r="H78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <v>460230</v>
+      </c>
+      <c r="J78" s="7">
+        <v>2378.3</v>
+      </c>
+      <c r="K78" s="7">
+        <v>2378.3</v>
+      </c>
+      <c r="L78" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="M78" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N78" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="11">
-        <v>16.63</v>
+        <v>16.72</v>
       </c>
       <c r="G79" s="11">
         <v>0</v>
@@ -4139,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="7">
-        <v>31.94</v>
+        <v>31.95</v>
       </c>
       <c r="G80" s="7">
         <v>30.388</v>
@@ -4148,16 +4148,16 @@
         <v>0</v>
       </c>
       <c r="I80" s="7">
-        <v>610054</v>
+        <v>610245</v>
       </c>
       <c r="J80" s="7">
-        <v>29651.99</v>
+        <v>29842.99</v>
       </c>
       <c r="K80" s="7">
-        <v>-19864</v>
+        <v>-19673</v>
       </c>
       <c r="L80" s="8">
-        <v>5.11</v>
+        <v>5.14</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>26</v>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="7">
-        <v>13.16</v>
+        <v>13.21</v>
       </c>
       <c r="G82" s="7">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="7">
-        <v>32.93</v>
+        <v>33.17</v>
       </c>
       <c r="G83" s="7">
         <v>30.373</v>
@@ -4280,16 +4280,16 @@
         <v>0</v>
       </c>
       <c r="I83" s="7">
-        <v>181115</v>
+        <v>182435</v>
       </c>
       <c r="J83" s="7">
-        <v>14066.2</v>
+        <v>15386.2</v>
       </c>
       <c r="K83" s="7">
-        <v>-165</v>
+        <v>1155</v>
       </c>
       <c r="L83" s="8">
-        <v>8.42</v>
+        <v>9.21</v>
       </c>
       <c r="M83" s="8" t="s">
         <v>26</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="7">
-        <v>13.11</v>
+        <v>13.14</v>
       </c>
       <c r="G84" s="7">
         <v>11.769</v>
@@ -4324,16 +4324,16 @@
         <v>0</v>
       </c>
       <c r="I84" s="7">
-        <v>637146</v>
+        <v>638604</v>
       </c>
       <c r="J84" s="7">
-        <v>65165.64</v>
+        <v>66623.64</v>
       </c>
       <c r="K84" s="7">
-        <v>-4374</v>
+        <v>-2916</v>
       </c>
       <c r="L84" s="8">
-        <v>11.39</v>
+        <v>11.65</v>
       </c>
       <c r="M84" s="8" t="s">
         <v>26</v>
@@ -4359,7 +4359,7 @@
         <v>13000</v>
       </c>
       <c r="F85" s="7">
-        <v>9.62</v>
+        <v>9.68</v>
       </c>
       <c r="G85" s="7">
         <v>9.215</v>
@@ -4368,16 +4368,16 @@
         <v>0</v>
       </c>
       <c r="I85" s="7">
-        <v>125060</v>
+        <v>125840</v>
       </c>
       <c r="J85" s="7">
-        <v>5261.3</v>
+        <v>6041.3</v>
       </c>
       <c r="K85" s="7">
-        <v>5261.3</v>
+        <v>6041.3</v>
       </c>
       <c r="L85" s="8">
-        <v>4.4</v>
+        <v>5.05</v>
       </c>
       <c r="M85" s="8" t="s">
         <v>26</v>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="11">
-        <v>63.75</v>
+        <v>63.25</v>
       </c>
       <c r="G86" s="11">
         <v>64.814</v>
@@ -4412,16 +4412,16 @@
         <v>0</v>
       </c>
       <c r="I86" s="11">
-        <v>586500</v>
+        <v>581900</v>
       </c>
       <c r="J86" s="11">
-        <v>-9786.53</v>
+        <v>-14386.53</v>
       </c>
       <c r="K86" s="11">
-        <v>-4692</v>
+        <v>-9292</v>
       </c>
       <c r="L86" s="9">
-        <v>-1.64</v>
+        <v>-2.41</v>
       </c>
       <c r="M86" s="9" t="s">
         <v>26</v>

--- a/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
+++ b/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="143">
   <si>
     <t>资金</t>
   </si>
@@ -136,9 +136,6 @@
     <t>交易市场</t>
   </si>
   <si>
-    <t>万业企业</t>
-  </si>
-  <si>
     <t>三安光电</t>
   </si>
   <si>
@@ -148,12 +145,6 @@
     <t>002050</t>
   </si>
   <si>
-    <t>世纪华通</t>
-  </si>
-  <si>
-    <t>002602</t>
-  </si>
-  <si>
     <t>世运电路</t>
   </si>
   <si>
@@ -193,21 +184,9 @@
     <t>002317</t>
   </si>
   <si>
-    <t>佩蒂股份</t>
-  </si>
-  <si>
-    <t>信维通信</t>
-  </si>
-  <si>
     <t>凯利泰</t>
   </si>
   <si>
-    <t>北京文化</t>
-  </si>
-  <si>
-    <t>000802</t>
-  </si>
-  <si>
     <t>北陆药业</t>
   </si>
   <si>
@@ -217,13 +196,25 @@
     <t>华宝添益</t>
   </si>
   <si>
+    <t>华灿光电</t>
+  </si>
+  <si>
     <t>华统股份</t>
   </si>
   <si>
     <t>002840</t>
   </si>
   <si>
-    <t>华荣股份</t>
+    <t>南洋股份</t>
+  </si>
+  <si>
+    <t>002212</t>
+  </si>
+  <si>
+    <t>双星新材</t>
+  </si>
+  <si>
+    <t>002585</t>
   </si>
   <si>
     <t>司太立</t>
@@ -244,6 +235,9 @@
     <t>000503</t>
   </si>
   <si>
+    <t>国药股份</t>
+  </si>
+  <si>
     <t>基蛋生物</t>
   </si>
   <si>
@@ -259,39 +253,24 @@
     <t>天士力</t>
   </si>
   <si>
+    <t>天风证券</t>
+  </si>
+  <si>
     <t>天齐锂业</t>
   </si>
   <si>
     <t>002466</t>
   </si>
   <si>
-    <t>奥特佳</t>
-  </si>
-  <si>
-    <t>002239</t>
-  </si>
-  <si>
-    <t>威华股份</t>
-  </si>
-  <si>
-    <t>002240</t>
-  </si>
-  <si>
     <t>宜安科技</t>
   </si>
   <si>
-    <t>广联达</t>
-  </si>
-  <si>
-    <t>002410</t>
+    <t>市北高新</t>
   </si>
   <si>
     <t>康泰生物</t>
   </si>
   <si>
-    <t>当升科技</t>
-  </si>
-  <si>
     <t>彤程新材</t>
   </si>
   <si>
@@ -301,6 +280,12 @@
     <t>002920</t>
   </si>
   <si>
+    <t>拓维信息</t>
+  </si>
+  <si>
+    <t>002261</t>
+  </si>
+  <si>
     <t>捷捷微电</t>
   </si>
   <si>
@@ -331,21 +316,21 @@
     <t>浙江鼎力</t>
   </si>
   <si>
-    <t>海利生物</t>
+    <t>浪潮信息</t>
+  </si>
+  <si>
+    <t>000977</t>
+  </si>
+  <si>
+    <t>海量数据</t>
   </si>
   <si>
     <t>王府井</t>
   </si>
   <si>
-    <t>电魂网络</t>
-  </si>
-  <si>
     <t>百联股份</t>
   </si>
   <si>
-    <t>盛天网络</t>
-  </si>
-  <si>
     <t>秀强股份</t>
   </si>
   <si>
@@ -358,9 +343,27 @@
     <t>立思辰</t>
   </si>
   <si>
+    <t>精研科技</t>
+  </si>
+  <si>
+    <t>紫光国微</t>
+  </si>
+  <si>
+    <t>002049</t>
+  </si>
+  <si>
     <t>紫天科技</t>
   </si>
   <si>
+    <t>纳思达</t>
+  </si>
+  <si>
+    <t>002180</t>
+  </si>
+  <si>
+    <t>网宿科技</t>
+  </si>
+  <si>
     <t>老板电器</t>
   </si>
   <si>
@@ -391,9 +394,6 @@
     <t>贝达药业</t>
   </si>
   <si>
-    <t>赛腾股份</t>
-  </si>
-  <si>
     <t>赢合科技</t>
   </si>
   <si>
@@ -412,7 +412,7 @@
     <t>002030</t>
   </si>
   <si>
-    <t>通化东宝</t>
+    <t>迪瑞医疗</t>
   </si>
   <si>
     <t>金城医药</t>
@@ -421,9 +421,6 @@
     <t>金杯汽车</t>
   </si>
   <si>
-    <t>金能科技</t>
-  </si>
-  <si>
     <t>金陵体育</t>
   </si>
   <si>
@@ -440,6 +437,12 @@
   </si>
   <si>
     <t>震安科技</t>
+  </si>
+  <si>
+    <t>鲁西化工</t>
+  </si>
+  <si>
+    <t>000830</t>
   </si>
 </sst>
 </file>
@@ -831,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -911,28 +914,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>2825161.18</v>
+        <v>3503454.01</v>
       </c>
       <c r="D3" s="3">
-        <v>3502762.01</v>
+        <v>3201101.56</v>
       </c>
       <c r="E3" s="3">
-        <v>2825161.18</v>
+        <v>3201101.56</v>
       </c>
       <c r="F3" s="3">
-        <v>-677600.83</v>
+        <v>302352.45</v>
       </c>
       <c r="G3" s="3">
-        <v>20057247.82</v>
+        <v>20883680.16</v>
       </c>
       <c r="H3" s="3">
-        <v>23560009.83</v>
+        <v>24084781.72</v>
       </c>
       <c r="I3" s="3">
-        <v>1321492.33</v>
+        <v>1602294.98</v>
       </c>
       <c r="J3" s="3">
-        <v>196427.79</v>
+        <v>524079.89</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1039,10 +1042,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>321000</v>
+        <v>339000</v>
       </c>
       <c r="C8" s="3">
-        <v>321500</v>
+        <v>339500</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1056,7 +1059,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>681000</v>
+        <v>737500</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1135,37 +1138,37 @@
         <v>40</v>
       </c>
       <c r="B12" s="6">
-        <v>600641</v>
+        <v>600703</v>
       </c>
       <c r="C12" s="6">
-        <v>0</v>
+        <v>23400</v>
       </c>
       <c r="D12" s="6">
-        <v>0</v>
+        <v>23400</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>24.03</v>
+        <v>25.28</v>
       </c>
       <c r="G12" s="7">
-        <v>0</v>
+        <v>24.612</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>591552</v>
       </c>
       <c r="J12" s="7">
-        <v>36385.11</v>
+        <v>15630.59</v>
       </c>
       <c r="K12" s="7">
-        <v>409.6</v>
+        <v>3510</v>
       </c>
       <c r="L12" s="8">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>24</v>
@@ -1178,88 +1181,88 @@
       <c r="A13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="6">
-        <v>600703</v>
+      <c r="B13" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="6">
-        <v>23400</v>
+        <v>8600</v>
       </c>
       <c r="D13" s="6">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="E13" s="6">
-        <v>23400</v>
+        <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>25.13</v>
+        <v>21.8</v>
       </c>
       <c r="G13" s="7">
-        <v>24.612</v>
+        <v>19.244</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>588042</v>
+        <v>187480</v>
       </c>
       <c r="J13" s="7">
-        <v>12112.52</v>
+        <v>21984.5</v>
       </c>
       <c r="K13" s="7">
-        <v>12112.52</v>
+        <v>1720</v>
       </c>
       <c r="L13" s="8">
-        <v>2.1</v>
+        <v>13.28</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="B14" s="6">
+        <v>603920</v>
+      </c>
       <c r="C14" s="6">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="D14" s="6">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>21.6</v>
+        <v>25.73</v>
       </c>
       <c r="G14" s="7">
-        <v>19.244</v>
+        <v>0</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>185760</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7">
-        <v>20264.5</v>
+        <v>91.01</v>
       </c>
       <c r="K14" s="7">
-        <v>-2924</v>
+        <v>276.91</v>
       </c>
       <c r="L14" s="8">
-        <v>12.24</v>
+        <v>0</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -1270,34 +1273,34 @@
         <v>45</v>
       </c>
       <c r="C15" s="10">
-        <v>0</v>
+        <v>13400</v>
       </c>
       <c r="D15" s="10">
-        <v>0</v>
+        <v>13400</v>
       </c>
       <c r="E15" s="10">
         <v>0</v>
       </c>
       <c r="F15" s="11">
-        <v>15.22</v>
+        <v>19.86</v>
       </c>
       <c r="G15" s="11">
-        <v>0</v>
+        <v>20.662</v>
       </c>
       <c r="H15" s="11">
         <v>0</v>
       </c>
       <c r="I15" s="11">
-        <v>0</v>
+        <v>266124</v>
       </c>
       <c r="J15" s="11">
-        <v>-2200.38</v>
+        <v>-10750.99</v>
       </c>
       <c r="K15" s="11">
-        <v>2737.85</v>
+        <v>3082</v>
       </c>
       <c r="L15" s="9">
-        <v>0</v>
+        <v>-3.88</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>26</v>
@@ -1307,222 +1310,222 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="10">
-        <v>603920</v>
-      </c>
-      <c r="C16" s="10">
-        <v>500</v>
-      </c>
-      <c r="D16" s="10">
-        <v>500</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>25.07</v>
-      </c>
-      <c r="G16" s="11">
-        <v>25.442</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11">
-        <v>12535</v>
-      </c>
-      <c r="J16" s="11">
-        <v>-185.9</v>
-      </c>
-      <c r="K16" s="11">
-        <v>140</v>
-      </c>
-      <c r="L16" s="9">
-        <v>-1.46</v>
-      </c>
-      <c r="M16" s="9" t="s">
+      <c r="B16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
         <v>24</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>27388.55</v>
+      </c>
+      <c r="K16" s="7">
+        <v>-6.57</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="6">
+        <v>300035</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>9.41</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1177.41</v>
+      </c>
+      <c r="K17" s="7">
+        <v>447.48</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="10">
+        <v>52800</v>
+      </c>
+      <c r="D18" s="10">
+        <v>52800</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>7.41</v>
+      </c>
+      <c r="G18" s="11">
+        <v>7.471</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>391248</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-3219.28</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-2640</v>
+      </c>
+      <c r="L18" s="9">
+        <v>-0.82</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="10">
+        <v>600676</v>
+      </c>
+      <c r="C19" s="10">
+        <v>50100</v>
+      </c>
+      <c r="D19" s="10">
+        <v>50100</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>5.62</v>
+      </c>
+      <c r="G19" s="11">
+        <v>5.761</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>281562</v>
+      </c>
+      <c r="J19" s="11">
+        <v>-7065.79</v>
+      </c>
+      <c r="K19" s="11">
+        <v>9519</v>
+      </c>
+      <c r="L19" s="9">
+        <v>-2.45</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="10">
-        <v>13400</v>
-      </c>
-      <c r="D17" s="10">
-        <v>13400</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>19.63</v>
-      </c>
-      <c r="G17" s="11">
-        <v>20.662</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>263042</v>
-      </c>
-      <c r="J17" s="11">
-        <v>-13832.99</v>
-      </c>
-      <c r="K17" s="11">
-        <v>-10720</v>
-      </c>
-      <c r="L17" s="9">
-        <v>-4.99</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="6">
-        <v>600</v>
-      </c>
-      <c r="D18" s="6">
-        <v>600</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>22.59</v>
-      </c>
-      <c r="G18" s="7">
-        <v>-23.043</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>13554</v>
-      </c>
-      <c r="J18" s="7">
-        <v>27379.91</v>
-      </c>
-      <c r="K18" s="7">
-        <v>-8681.22</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="6">
-        <v>300035</v>
-      </c>
-      <c r="C19" s="6">
-        <v>3500</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>3500</v>
-      </c>
-      <c r="F19" s="7">
-        <v>9.15</v>
-      </c>
-      <c r="G19" s="7">
-        <v>8.949</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>32025</v>
-      </c>
-      <c r="J19" s="7">
-        <v>704</v>
-      </c>
-      <c r="K19" s="7">
-        <v>704</v>
-      </c>
-      <c r="L19" s="8">
-        <v>2.25</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="10">
-        <v>52800</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0</v>
-      </c>
-      <c r="E20" s="10">
-        <v>52800</v>
-      </c>
-      <c r="F20" s="11">
-        <v>7.46</v>
-      </c>
-      <c r="G20" s="11">
-        <v>7.471</v>
-      </c>
-      <c r="H20" s="11">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11">
-        <v>393888</v>
-      </c>
-      <c r="J20" s="11">
-        <v>-581.23</v>
-      </c>
-      <c r="K20" s="11">
-        <v>-581.23</v>
-      </c>
-      <c r="L20" s="9">
-        <v>-0.15</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="9" t="s">
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>24.42</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>19830.33</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1888.77</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1530,167 +1533,167 @@
       <c r="A21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="10">
-        <v>600676</v>
+      <c r="B21" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="C21" s="10">
-        <v>50100</v>
+        <v>34900</v>
       </c>
       <c r="D21" s="10">
-        <v>50100</v>
+        <v>34900</v>
       </c>
       <c r="E21" s="10">
         <v>0</v>
       </c>
       <c r="F21" s="11">
-        <v>5.43</v>
+        <v>17.1</v>
       </c>
       <c r="G21" s="11">
-        <v>5.761</v>
+        <v>17.222</v>
       </c>
       <c r="H21" s="11">
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <v>272043</v>
+        <v>596790</v>
       </c>
       <c r="J21" s="11">
-        <v>-16584.79</v>
+        <v>-4270.62</v>
       </c>
       <c r="K21" s="11">
-        <v>-3006</v>
+        <v>-16752</v>
       </c>
       <c r="L21" s="9">
-        <v>-5.75</v>
+        <v>-0.71</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="6">
-        <v>26500</v>
-      </c>
-      <c r="D22" s="6">
-        <v>26500</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>23.45</v>
-      </c>
-      <c r="G22" s="7">
-        <v>22.773</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>621425</v>
-      </c>
-      <c r="J22" s="7">
-        <v>17941.56</v>
-      </c>
-      <c r="K22" s="7">
-        <v>31270</v>
-      </c>
-      <c r="L22" s="8">
-        <v>2.97</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="8" t="s">
+      <c r="B22" s="10">
+        <v>300326</v>
+      </c>
+      <c r="C22" s="10">
+        <v>21800</v>
+      </c>
+      <c r="D22" s="10">
+        <v>21800</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>27.25</v>
+      </c>
+      <c r="G22" s="11">
+        <v>27.731</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>594050</v>
+      </c>
+      <c r="J22" s="11">
+        <v>-10483.58</v>
+      </c>
+      <c r="K22" s="11">
+        <v>12426</v>
+      </c>
+      <c r="L22" s="9">
+        <v>-1.73</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="6">
-        <v>34900</v>
-      </c>
-      <c r="D23" s="6">
-        <v>34900</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>17.58</v>
-      </c>
-      <c r="G23" s="7">
-        <v>17.222</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>613542</v>
-      </c>
-      <c r="J23" s="7">
-        <v>12481.38</v>
-      </c>
-      <c r="K23" s="7">
-        <v>-13960</v>
-      </c>
-      <c r="L23" s="8">
-        <v>2.08</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" s="8" t="s">
+      <c r="B23" s="10">
+        <v>300016</v>
+      </c>
+      <c r="C23" s="10">
+        <v>43700</v>
+      </c>
+      <c r="D23" s="10">
+        <v>43700</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>11.45</v>
+      </c>
+      <c r="G23" s="11">
+        <v>12.27</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>500365</v>
+      </c>
+      <c r="J23" s="11">
+        <v>-35844.72</v>
+      </c>
+      <c r="K23" s="11">
+        <v>437</v>
+      </c>
+      <c r="L23" s="9">
+        <v>-6.68</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="6">
-        <v>300673</v>
+        <v>300676</v>
       </c>
       <c r="C24" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D24" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>38.65</v>
+        <v>164.41</v>
       </c>
       <c r="G24" s="7">
-        <v>0</v>
+        <v>-27.557</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>82205</v>
       </c>
       <c r="J24" s="7">
-        <v>15761.61</v>
+        <v>95983.38</v>
       </c>
       <c r="K24" s="7">
-        <v>-3846.59</v>
+        <v>6305</v>
       </c>
       <c r="L24" s="8">
         <v>0</v>
@@ -1704,177 +1707,177 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="6">
+        <v>511990</v>
+      </c>
+      <c r="C25" s="6">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6">
+        <v>6</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>99.986</v>
+      </c>
+      <c r="G25" s="7">
+        <v>-6751.737</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>599.92</v>
+      </c>
+      <c r="J25" s="7">
+        <v>41110.34</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="6">
-        <v>300136</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>53.12</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7">
-        <v>17437.42</v>
-      </c>
-      <c r="K25" s="7">
-        <v>-2401.5</v>
-      </c>
-      <c r="L25" s="8">
-        <v>0</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="10">
-        <v>300326</v>
-      </c>
-      <c r="C26" s="10">
-        <v>21800</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <v>21800</v>
-      </c>
-      <c r="F26" s="11">
-        <v>26.68</v>
-      </c>
-      <c r="G26" s="11">
-        <v>27.737</v>
-      </c>
-      <c r="H26" s="11">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
-        <v>581624</v>
-      </c>
-      <c r="J26" s="11">
-        <v>-23036.25</v>
-      </c>
-      <c r="K26" s="11">
-        <v>-23036.25</v>
-      </c>
-      <c r="L26" s="9">
-        <v>-3.81</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" s="9" t="s">
+      <c r="B26" s="6">
+        <v>300323</v>
+      </c>
+      <c r="C26" s="6">
+        <v>106900</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>106900</v>
+      </c>
+      <c r="F26" s="7">
+        <v>5.78</v>
+      </c>
+      <c r="G26" s="7">
+        <v>5.692</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>617882</v>
+      </c>
+      <c r="J26" s="7">
+        <v>9427.37</v>
+      </c>
+      <c r="K26" s="7">
+        <v>9427.37</v>
+      </c>
+      <c r="L26" s="8">
+        <v>1.55</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>12.29</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>53642.7</v>
+      </c>
+      <c r="K27" s="7">
+        <v>-7.05</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>7.41</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7">
-        <v>15658.88</v>
-      </c>
-      <c r="K27" s="7">
-        <v>10016.38</v>
-      </c>
-      <c r="L27" s="8">
-        <v>0</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="10">
-        <v>300016</v>
-      </c>
-      <c r="C28" s="10">
-        <v>43700</v>
-      </c>
-      <c r="D28" s="10">
-        <v>43700</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11">
-        <v>11.44</v>
-      </c>
-      <c r="G28" s="11">
-        <v>12.27</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
-        <v>499928</v>
-      </c>
-      <c r="J28" s="11">
-        <v>-36281.72</v>
-      </c>
-      <c r="K28" s="11">
-        <v>-9177</v>
-      </c>
-      <c r="L28" s="9">
-        <v>-6.76</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="9" t="s">
+      <c r="C28" s="6">
+        <v>24100</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>24100</v>
+      </c>
+      <c r="F28" s="7">
+        <v>26.55</v>
+      </c>
+      <c r="G28" s="7">
+        <v>25.782</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>639855</v>
+      </c>
+      <c r="J28" s="7">
+        <v>18501.35</v>
+      </c>
+      <c r="K28" s="7">
+        <v>18501.35</v>
+      </c>
+      <c r="L28" s="8">
+        <v>2.98</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1882,38 +1885,38 @@
       <c r="A29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="6">
-        <v>300676</v>
+      <c r="B29" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C29" s="6">
-        <v>500</v>
+        <v>89300</v>
       </c>
       <c r="D29" s="6">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E29" s="6">
-        <v>0</v>
+        <v>89300</v>
       </c>
       <c r="F29" s="7">
-        <v>151.8</v>
+        <v>7.2</v>
       </c>
       <c r="G29" s="7">
-        <v>-27.557</v>
+        <v>6.994</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>75900</v>
+        <v>642960</v>
       </c>
       <c r="J29" s="7">
-        <v>89678.38</v>
+        <v>18430.21</v>
       </c>
       <c r="K29" s="7">
-        <v>-1300</v>
+        <v>18430.21</v>
       </c>
       <c r="L29" s="8">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>26</v>
@@ -1924,40 +1927,40 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" s="6">
-        <v>511990</v>
+        <v>603520</v>
       </c>
       <c r="C30" s="6">
-        <v>6</v>
+        <v>6200</v>
       </c>
       <c r="D30" s="6">
-        <v>6</v>
+        <v>6200</v>
       </c>
       <c r="E30" s="6">
         <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>99.97</v>
+        <v>76.2</v>
       </c>
       <c r="G30" s="7">
-        <v>-6751.737</v>
+        <v>73.5</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>599.82</v>
+        <v>472440</v>
       </c>
       <c r="J30" s="7">
-        <v>41110.24</v>
+        <v>16739.65</v>
       </c>
       <c r="K30" s="7">
-        <v>-0.04</v>
+        <v>2542</v>
       </c>
       <c r="L30" s="8">
-        <v>0</v>
+        <v>3.67</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>24</v>
@@ -1967,85 +1970,85 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="6">
-        <v>20</v>
-      </c>
-      <c r="D31" s="6">
-        <v>20</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>12.45</v>
-      </c>
-      <c r="G31" s="7">
-        <v>-2669.063</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>249</v>
-      </c>
-      <c r="J31" s="7">
-        <v>53630.25</v>
-      </c>
-      <c r="K31" s="7">
-        <v>1975.58</v>
-      </c>
-      <c r="L31" s="8">
-        <v>0</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31" s="8" t="s">
+      <c r="B31" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="10">
+        <v>19400</v>
+      </c>
+      <c r="D31" s="10">
+        <v>19400</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <v>26.27</v>
+      </c>
+      <c r="G31" s="11">
+        <v>26.501</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>509638</v>
+      </c>
+      <c r="J31" s="11">
+        <v>-4489.84</v>
+      </c>
+      <c r="K31" s="11">
+        <v>6984</v>
+      </c>
+      <c r="L31" s="9">
+        <v>-0.87</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" s="6">
-        <v>603855</v>
+        <v>603444</v>
       </c>
       <c r="C32" s="6">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="D32" s="6">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>18.12</v>
+        <v>541.92</v>
       </c>
       <c r="G32" s="7">
-        <v>0</v>
+        <v>526.132</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>379344</v>
       </c>
       <c r="J32" s="7">
-        <v>11513.09</v>
+        <v>11051.77</v>
       </c>
       <c r="K32" s="7">
-        <v>-1819.58</v>
+        <v>644</v>
       </c>
       <c r="L32" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>24</v>
@@ -2056,260 +2059,260 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="6">
-        <v>603520</v>
+        <v>71</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C33" s="6">
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
       </c>
       <c r="E33" s="6">
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="F33" s="7">
-        <v>75.79</v>
+        <v>12.49</v>
       </c>
       <c r="G33" s="7">
-        <v>73.504</v>
+        <v>0</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
       <c r="I33" s="7">
-        <v>469898</v>
+        <v>0</v>
       </c>
       <c r="J33" s="7">
-        <v>14171.43</v>
+        <v>403.43</v>
       </c>
       <c r="K33" s="7">
-        <v>14171.43</v>
+        <v>-848.65</v>
       </c>
       <c r="L33" s="8">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="M33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="6">
+        <v>600511</v>
+      </c>
+      <c r="C34" s="6">
+        <v>15800</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>15800</v>
+      </c>
+      <c r="F34" s="7">
+        <v>38.9</v>
+      </c>
+      <c r="G34" s="7">
+        <v>38.162</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>614620</v>
+      </c>
+      <c r="J34" s="7">
+        <v>11664.03</v>
+      </c>
+      <c r="K34" s="7">
+        <v>11664.03</v>
+      </c>
+      <c r="L34" s="8">
+        <v>1.93</v>
+      </c>
+      <c r="M34" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N33" s="8" t="s">
+      <c r="N34" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="10">
-        <v>19400</v>
-      </c>
-      <c r="D34" s="10">
-        <v>19400</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0</v>
-      </c>
-      <c r="F34" s="11">
-        <v>25.91</v>
-      </c>
-      <c r="G34" s="11">
-        <v>26.501</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>502654</v>
-      </c>
-      <c r="J34" s="11">
-        <v>-11473.84</v>
-      </c>
-      <c r="K34" s="11">
-        <v>-16296</v>
-      </c>
-      <c r="L34" s="9">
-        <v>-2.23</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="6">
-        <v>603444</v>
-      </c>
-      <c r="C35" s="6">
-        <v>700</v>
-      </c>
-      <c r="D35" s="6">
-        <v>700</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7">
-        <v>541</v>
-      </c>
-      <c r="G35" s="7">
-        <v>526.132</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>378700</v>
-      </c>
-      <c r="J35" s="7">
-        <v>10407.77</v>
-      </c>
-      <c r="K35" s="7">
-        <v>-9415</v>
-      </c>
-      <c r="L35" s="8">
-        <v>2.83</v>
-      </c>
-      <c r="M35" s="8" t="s">
+      <c r="A35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="10">
+        <v>603387</v>
+      </c>
+      <c r="C35" s="10">
+        <v>11800</v>
+      </c>
+      <c r="D35" s="10">
+        <v>11800</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>39.83</v>
+      </c>
+      <c r="G35" s="11">
+        <v>40.726</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>469994</v>
+      </c>
+      <c r="J35" s="11">
+        <v>-10573.01</v>
+      </c>
+      <c r="K35" s="11">
+        <v>3776</v>
+      </c>
+      <c r="L35" s="9">
+        <v>-2.2</v>
+      </c>
+      <c r="M35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N35" s="8" t="s">
+      <c r="N35" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="6">
-        <v>15700</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6">
-        <v>15700</v>
-      </c>
-      <c r="F36" s="7">
-        <v>12.29</v>
-      </c>
-      <c r="G36" s="7">
-        <v>12.211</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>192953</v>
-      </c>
-      <c r="J36" s="7">
-        <v>1243.27</v>
-      </c>
-      <c r="K36" s="7">
-        <v>1243.27</v>
-      </c>
-      <c r="L36" s="8">
-        <v>0.65</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>25</v>
+      <c r="B36" s="10">
+        <v>603528</v>
+      </c>
+      <c r="C36" s="10">
+        <v>6600</v>
+      </c>
+      <c r="D36" s="10">
+        <v>6600</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>9.9</v>
+      </c>
+      <c r="G36" s="11">
+        <v>10.127</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>65340</v>
+      </c>
+      <c r="J36" s="11">
+        <v>-1495.02</v>
+      </c>
+      <c r="K36" s="11">
+        <v>-1518</v>
+      </c>
+      <c r="L36" s="9">
+        <v>-2.24</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="10">
-        <v>603387</v>
+      <c r="B37" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="C37" s="10">
-        <v>11800</v>
+        <v>65300</v>
       </c>
       <c r="D37" s="10">
-        <v>0</v>
+        <v>65300</v>
       </c>
       <c r="E37" s="10">
-        <v>11800</v>
+        <v>0</v>
       </c>
       <c r="F37" s="11">
-        <v>39.51</v>
+        <v>8.94</v>
       </c>
       <c r="G37" s="11">
-        <v>40.731</v>
+        <v>9.319</v>
       </c>
       <c r="H37" s="11">
         <v>0</v>
       </c>
       <c r="I37" s="11">
-        <v>466218</v>
+        <v>583782</v>
       </c>
       <c r="J37" s="11">
-        <v>-14412.28</v>
+        <v>-24757.24</v>
       </c>
       <c r="K37" s="11">
-        <v>-14412.28</v>
+        <v>-5224</v>
       </c>
       <c r="L37" s="9">
-        <v>-3</v>
+        <v>-4.07</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38" s="10">
-        <v>603528</v>
+        <v>600535</v>
       </c>
       <c r="C38" s="10">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="D38" s="10">
         <v>0</v>
       </c>
       <c r="E38" s="10">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="F38" s="11">
-        <v>10.13</v>
+        <v>17.18</v>
       </c>
       <c r="G38" s="11">
-        <v>10.132</v>
+        <v>0</v>
       </c>
       <c r="H38" s="11">
         <v>0</v>
       </c>
       <c r="I38" s="11">
-        <v>66858</v>
+        <v>0</v>
       </c>
       <c r="J38" s="11">
-        <v>-13.33</v>
+        <v>-7327.06</v>
       </c>
       <c r="K38" s="11">
-        <v>-13.33</v>
+        <v>-11923.67</v>
       </c>
       <c r="L38" s="9">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>24</v>
@@ -2319,363 +2322,363 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="10">
-        <v>65300</v>
-      </c>
-      <c r="D39" s="10">
-        <v>65300</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0</v>
-      </c>
-      <c r="F39" s="11">
-        <v>9.02</v>
-      </c>
-      <c r="G39" s="11">
-        <v>9.319</v>
-      </c>
-      <c r="H39" s="11">
-        <v>0</v>
-      </c>
-      <c r="I39" s="11">
-        <v>589006</v>
-      </c>
-      <c r="J39" s="11">
-        <v>-19533.24</v>
-      </c>
-      <c r="K39" s="11">
-        <v>653</v>
-      </c>
-      <c r="L39" s="9">
-        <v>-3.21</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>25</v>
+      <c r="B39" s="6">
+        <v>601162</v>
+      </c>
+      <c r="C39" s="6">
+        <v>90400</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>90400</v>
+      </c>
+      <c r="F39" s="7">
+        <v>7.15</v>
+      </c>
+      <c r="G39" s="7">
+        <v>6.951</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>646360</v>
+      </c>
+      <c r="J39" s="7">
+        <v>17985.75</v>
+      </c>
+      <c r="K39" s="7">
+        <v>17985.75</v>
+      </c>
+      <c r="L39" s="8">
+        <v>2.86</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="6">
-        <v>600535</v>
+      <c r="B40" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="C40" s="6">
-        <v>33600</v>
+        <v>7200</v>
       </c>
       <c r="D40" s="6">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="E40" s="6">
-        <v>33600</v>
+        <v>0</v>
       </c>
       <c r="F40" s="7">
-        <v>17.87</v>
+        <v>22.52</v>
       </c>
       <c r="G40" s="7">
-        <v>17.733</v>
+        <v>21.726</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>600432</v>
+        <v>162144</v>
       </c>
       <c r="J40" s="7">
-        <v>4591.84</v>
+        <v>5719.67</v>
       </c>
       <c r="K40" s="7">
-        <v>4591.84</v>
+        <v>3240</v>
       </c>
       <c r="L40" s="8">
-        <v>0.77</v>
+        <v>3.65</v>
       </c>
       <c r="M40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="10">
+        <v>300328</v>
+      </c>
+      <c r="C41" s="10">
+        <v>600</v>
+      </c>
+      <c r="D41" s="10">
+        <v>600</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="11">
+        <v>11.82</v>
+      </c>
+      <c r="G41" s="11">
+        <v>11.842</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
+      </c>
+      <c r="I41" s="11">
+        <v>7092</v>
+      </c>
+      <c r="J41" s="11">
+        <v>-12.92</v>
+      </c>
+      <c r="K41" s="11">
+        <v>36</v>
+      </c>
+      <c r="L41" s="9">
+        <v>-0.19</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="10">
+        <v>600604</v>
+      </c>
+      <c r="C42" s="10">
+        <v>36000</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <v>36000</v>
+      </c>
+      <c r="F42" s="11">
+        <v>10</v>
+      </c>
+      <c r="G42" s="11">
+        <v>10.087</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>360000</v>
+      </c>
+      <c r="J42" s="11">
+        <v>-3133.84</v>
+      </c>
+      <c r="K42" s="11">
+        <v>-3133.84</v>
+      </c>
+      <c r="L42" s="9">
+        <v>-0.86</v>
+      </c>
+      <c r="M42" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N40" s="8" t="s">
+      <c r="N42" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="6">
-        <v>7200</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0</v>
-      </c>
-      <c r="E41" s="6">
-        <v>7200</v>
-      </c>
-      <c r="F41" s="7">
-        <v>22.07</v>
-      </c>
-      <c r="G41" s="7">
-        <v>21.726</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>158904</v>
-      </c>
-      <c r="J41" s="7">
-        <v>2479.67</v>
-      </c>
-      <c r="K41" s="7">
-        <v>2479.67</v>
-      </c>
-      <c r="L41" s="8">
-        <v>1.58</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="8" t="s">
+    <row r="43" spans="1:14">
+      <c r="A43" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="6">
-        <v>0</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0</v>
-      </c>
-      <c r="E42" s="6">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7">
-        <v>4.3</v>
-      </c>
-      <c r="G42" s="7">
-        <v>0</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7">
-        <v>1975.89</v>
-      </c>
-      <c r="K42" s="7">
-        <v>-6779.12</v>
-      </c>
-      <c r="L42" s="8">
-        <v>0</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="8" t="s">
+      <c r="B43" s="10">
+        <v>300601</v>
+      </c>
+      <c r="C43" s="10">
+        <v>200</v>
+      </c>
+      <c r="D43" s="10">
+        <v>200</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
+        <v>158</v>
+      </c>
+      <c r="G43" s="11">
+        <v>159.821</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>31600</v>
+      </c>
+      <c r="J43" s="11">
+        <v>-364.15</v>
+      </c>
+      <c r="K43" s="11">
+        <v>790</v>
+      </c>
+      <c r="L43" s="9">
+        <v>-1.14</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="7">
-        <v>14.4</v>
-      </c>
-      <c r="G43" s="7">
-        <v>0</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7">
-        <v>5359.5</v>
-      </c>
-      <c r="K43" s="7">
-        <v>4021.14</v>
-      </c>
-      <c r="L43" s="8">
-        <v>0</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="10">
-        <v>300328</v>
-      </c>
-      <c r="C44" s="10">
-        <v>600</v>
-      </c>
-      <c r="D44" s="10">
-        <v>600</v>
-      </c>
-      <c r="E44" s="10">
-        <v>0</v>
-      </c>
-      <c r="F44" s="11">
-        <v>11.76</v>
-      </c>
-      <c r="G44" s="11">
-        <v>11.842</v>
-      </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11">
-        <v>7056</v>
-      </c>
-      <c r="J44" s="11">
-        <v>-48.92</v>
-      </c>
-      <c r="K44" s="11">
-        <v>30</v>
-      </c>
-      <c r="L44" s="9">
-        <v>-0.69</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N44" s="9" t="s">
-        <v>25</v>
+      <c r="B44" s="6">
+        <v>603650</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>24.78</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>16353.88</v>
+      </c>
+      <c r="K44" s="7">
+        <v>-1401.72</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="6">
+        <v>11200</v>
+      </c>
+      <c r="D45" s="6">
+        <v>11200</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>61.8</v>
+      </c>
+      <c r="G45" s="7">
+        <v>52.111</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>692160</v>
+      </c>
+      <c r="J45" s="7">
+        <v>108513.21</v>
+      </c>
+      <c r="K45" s="7">
+        <v>784</v>
+      </c>
+      <c r="L45" s="8">
+        <v>18.59</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="6">
-        <v>0</v>
-      </c>
-      <c r="D45" s="6">
-        <v>0</v>
-      </c>
-      <c r="E45" s="6">
-        <v>0</v>
-      </c>
-      <c r="F45" s="7">
-        <v>67.1</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7">
-        <v>39249.94</v>
-      </c>
-      <c r="K45" s="7">
-        <v>-5209.43</v>
-      </c>
-      <c r="L45" s="8">
-        <v>0</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="10">
-        <v>300601</v>
-      </c>
-      <c r="C46" s="10">
-        <v>200</v>
-      </c>
-      <c r="D46" s="10">
-        <v>200</v>
-      </c>
-      <c r="E46" s="10">
-        <v>0</v>
-      </c>
-      <c r="F46" s="11">
-        <v>154.05</v>
-      </c>
-      <c r="G46" s="11">
-        <v>159.821</v>
-      </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="11">
-        <v>30810</v>
-      </c>
-      <c r="J46" s="11">
-        <v>-1154.15</v>
-      </c>
-      <c r="K46" s="11">
-        <v>-1274</v>
-      </c>
-      <c r="L46" s="9">
-        <v>-3.61</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N46" s="9" t="s">
+      <c r="C46" s="6">
+        <v>66800</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>66800</v>
+      </c>
+      <c r="F46" s="7">
+        <v>9.21</v>
+      </c>
+      <c r="G46" s="7">
+        <v>9.13</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>615228</v>
+      </c>
+      <c r="J46" s="7">
+        <v>5359.89</v>
+      </c>
+      <c r="K46" s="7">
+        <v>5359.89</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" s="6">
-        <v>300073</v>
+        <v>300623</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -2687,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="7">
-        <v>32.9</v>
+        <v>30.33</v>
       </c>
       <c r="G47" s="7">
         <v>0</v>
@@ -2699,10 +2702,10 @@
         <v>0</v>
       </c>
       <c r="J47" s="7">
-        <v>44411.04</v>
+        <v>53741.6</v>
       </c>
       <c r="K47" s="7">
-        <v>10590.18</v>
+        <v>782.23</v>
       </c>
       <c r="L47" s="8">
         <v>0</v>
@@ -2716,40 +2719,40 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="6">
-        <v>603650</v>
+        <v>603583</v>
       </c>
       <c r="C48" s="6">
-        <v>7900</v>
+        <v>200</v>
       </c>
       <c r="D48" s="6">
-        <v>7900</v>
+        <v>200</v>
       </c>
       <c r="E48" s="6">
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <v>24.56</v>
+        <v>69.15</v>
       </c>
       <c r="G48" s="7">
-        <v>22.312</v>
+        <v>-17.363</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>194024</v>
+        <v>13830</v>
       </c>
       <c r="J48" s="7">
-        <v>17755.6</v>
+        <v>17302.68</v>
       </c>
       <c r="K48" s="7">
-        <v>12482</v>
+        <v>36</v>
       </c>
       <c r="L48" s="8">
-        <v>10.08</v>
+        <v>0</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>24</v>
@@ -2760,480 +2763,480 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="6">
+        <v>300315</v>
+      </c>
+      <c r="C49" s="6">
+        <v>92</v>
+      </c>
+      <c r="D49" s="6">
+        <v>92</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>7.72</v>
+      </c>
+      <c r="G49" s="7">
+        <v>-198.372</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>710.24</v>
+      </c>
+      <c r="J49" s="7">
+        <v>18960.42</v>
+      </c>
+      <c r="K49" s="7">
+        <v>-1269.79</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="6">
-        <v>11200</v>
-      </c>
-      <c r="D49" s="6">
-        <v>11200</v>
-      </c>
-      <c r="E49" s="6">
-        <v>0</v>
-      </c>
-      <c r="F49" s="7">
-        <v>61.73</v>
-      </c>
-      <c r="G49" s="7">
-        <v>52.111</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>691376</v>
-      </c>
-      <c r="J49" s="7">
-        <v>107729.21</v>
-      </c>
-      <c r="K49" s="7">
-        <v>-21504</v>
-      </c>
-      <c r="L49" s="8">
-        <v>18.46</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="6">
-        <v>300623</v>
-      </c>
-      <c r="C50" s="6">
-        <v>21400</v>
-      </c>
-      <c r="D50" s="6">
-        <v>1400</v>
-      </c>
-      <c r="E50" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F50" s="7">
-        <v>30.63</v>
-      </c>
-      <c r="G50" s="7">
-        <v>28.155</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>655482</v>
-      </c>
-      <c r="J50" s="7">
-        <v>52959.37</v>
-      </c>
-      <c r="K50" s="7">
-        <v>11524.16</v>
-      </c>
-      <c r="L50" s="8">
-        <v>8.79</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N50" s="8" t="s">
+      <c r="B50" s="10">
+        <v>300770</v>
+      </c>
+      <c r="C50" s="10">
+        <v>0</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>206.8</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11">
+        <v>-43418.78</v>
+      </c>
+      <c r="K50" s="11">
+        <v>-34417.55</v>
+      </c>
+      <c r="L50" s="9">
+        <v>0</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" s="6">
-        <v>603583</v>
+        <v>300151</v>
       </c>
       <c r="C51" s="6">
-        <v>200</v>
+        <v>4300</v>
       </c>
       <c r="D51" s="6">
-        <v>200</v>
+        <v>4300</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>68.97</v>
+        <v>17.2</v>
       </c>
       <c r="G51" s="7">
-        <v>-17.127</v>
+        <v>16.749</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>13794</v>
+        <v>73960</v>
       </c>
       <c r="J51" s="7">
-        <v>17219.38</v>
+        <v>1940.64</v>
       </c>
       <c r="K51" s="7">
-        <v>-4259.97</v>
+        <v>1075</v>
       </c>
       <c r="L51" s="8">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B52" s="6">
-        <v>300315</v>
+        <v>603566</v>
       </c>
       <c r="C52" s="6">
-        <v>40700</v>
+        <v>6300</v>
       </c>
       <c r="D52" s="6">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="E52" s="6">
-        <v>40700</v>
+        <v>0</v>
       </c>
       <c r="F52" s="7">
-        <v>7.83</v>
+        <v>26.3</v>
       </c>
       <c r="G52" s="7">
-        <v>7.333</v>
+        <v>26.202</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>318681</v>
+        <v>165690</v>
       </c>
       <c r="J52" s="7">
-        <v>20229.11</v>
+        <v>618.98</v>
       </c>
       <c r="K52" s="7">
-        <v>20229.11</v>
+        <v>-2268</v>
       </c>
       <c r="L52" s="8">
-        <v>6.78</v>
+        <v>0.37</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B53" s="10">
-        <v>300770</v>
+        <v>600884</v>
       </c>
       <c r="C53" s="10">
-        <v>2800</v>
+        <v>15000</v>
       </c>
       <c r="D53" s="10">
-        <v>2800</v>
+        <v>15000</v>
       </c>
       <c r="E53" s="10">
         <v>0</v>
       </c>
       <c r="F53" s="11">
-        <v>206.5</v>
+        <v>12.19</v>
       </c>
       <c r="G53" s="11">
-        <v>209.715</v>
+        <v>12.212</v>
       </c>
       <c r="H53" s="11">
         <v>0</v>
       </c>
       <c r="I53" s="11">
-        <v>578200</v>
+        <v>182850</v>
       </c>
       <c r="J53" s="11">
-        <v>-9001.23</v>
+        <v>-327.47</v>
       </c>
       <c r="K53" s="11">
-        <v>12600</v>
+        <v>9000</v>
       </c>
       <c r="L53" s="9">
-        <v>-1.53</v>
+        <v>-0.18</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="6">
+        <v>6600</v>
+      </c>
+      <c r="D54" s="6">
+        <v>6600</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>110.1</v>
+      </c>
+      <c r="G54" s="7">
+        <v>94.398</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>726660</v>
+      </c>
+      <c r="J54" s="7">
+        <v>103634.25</v>
+      </c>
+      <c r="K54" s="7">
+        <v>16434</v>
+      </c>
+      <c r="L54" s="8">
+        <v>16.63</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="6">
-        <v>300151</v>
-      </c>
-      <c r="C54" s="6">
-        <v>4300</v>
-      </c>
-      <c r="D54" s="6">
-        <v>0</v>
-      </c>
-      <c r="E54" s="6">
-        <v>4300</v>
-      </c>
-      <c r="F54" s="7">
-        <v>16.95</v>
-      </c>
-      <c r="G54" s="7">
-        <v>16.751</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>72885</v>
-      </c>
-      <c r="J54" s="7">
-        <v>854.77</v>
-      </c>
-      <c r="K54" s="7">
-        <v>854.77</v>
-      </c>
-      <c r="L54" s="8">
-        <v>1.19</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N54" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="8" t="s">
+      <c r="B55" s="10">
+        <v>603338</v>
+      </c>
+      <c r="C55" s="10">
+        <v>1400</v>
+      </c>
+      <c r="D55" s="10">
+        <v>1400</v>
+      </c>
+      <c r="E55" s="10">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
+        <v>74.1</v>
+      </c>
+      <c r="G55" s="11">
+        <v>74.5</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11">
+        <v>103740</v>
+      </c>
+      <c r="J55" s="11">
+        <v>-559.52</v>
+      </c>
+      <c r="K55" s="11">
+        <v>490</v>
+      </c>
+      <c r="L55" s="9">
+        <v>-0.54</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="6">
-        <v>603566</v>
-      </c>
-      <c r="C55" s="6">
-        <v>6300</v>
-      </c>
-      <c r="D55" s="6">
-        <v>6300</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
-      <c r="F55" s="7">
-        <v>26.66</v>
-      </c>
-      <c r="G55" s="7">
-        <v>26.202</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>167958</v>
-      </c>
-      <c r="J55" s="7">
-        <v>2886.98</v>
-      </c>
-      <c r="K55" s="7">
-        <v>-1386</v>
-      </c>
-      <c r="L55" s="8">
-        <v>1.75</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="10">
-        <v>600884</v>
-      </c>
-      <c r="C56" s="10">
-        <v>15000</v>
-      </c>
-      <c r="D56" s="10">
-        <v>15000</v>
-      </c>
-      <c r="E56" s="10">
-        <v>0</v>
-      </c>
-      <c r="F56" s="11">
-        <v>11.59</v>
-      </c>
-      <c r="G56" s="11">
-        <v>12.212</v>
-      </c>
-      <c r="H56" s="11">
-        <v>0</v>
-      </c>
-      <c r="I56" s="11">
-        <v>173850</v>
-      </c>
-      <c r="J56" s="11">
-        <v>-9327.47</v>
-      </c>
-      <c r="K56" s="11">
-        <v>-4800</v>
-      </c>
-      <c r="L56" s="9">
-        <v>-5.09</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N56" s="9" t="s">
-        <v>23</v>
+      <c r="C56" s="6">
+        <v>16500</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>16500</v>
+      </c>
+      <c r="F56" s="7">
+        <v>38.18</v>
+      </c>
+      <c r="G56" s="7">
+        <v>37.658</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>629970</v>
+      </c>
+      <c r="J56" s="7">
+        <v>8615.2</v>
+      </c>
+      <c r="K56" s="7">
+        <v>8615.2</v>
+      </c>
+      <c r="L56" s="8">
+        <v>1.39</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="6">
+        <v>603138</v>
+      </c>
+      <c r="C57" s="6">
+        <v>700</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>700</v>
+      </c>
+      <c r="F57" s="7">
+        <v>19.96</v>
+      </c>
+      <c r="G57" s="7">
+        <v>19.369</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>13972</v>
+      </c>
+      <c r="J57" s="7">
+        <v>413.72</v>
+      </c>
+      <c r="K57" s="7">
+        <v>413.72</v>
+      </c>
+      <c r="L57" s="8">
+        <v>3.05</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="6">
-        <v>6600</v>
-      </c>
-      <c r="D57" s="6">
-        <v>600</v>
-      </c>
-      <c r="E57" s="6">
-        <v>6000</v>
-      </c>
-      <c r="F57" s="7">
-        <v>107.61</v>
-      </c>
-      <c r="G57" s="7">
-        <v>94.398</v>
-      </c>
-      <c r="H57" s="7">
-        <v>0</v>
-      </c>
-      <c r="I57" s="7">
-        <v>710226</v>
-      </c>
-      <c r="J57" s="7">
-        <v>87200.25</v>
-      </c>
-      <c r="K57" s="7">
-        <v>47377.06</v>
-      </c>
-      <c r="L57" s="8">
-        <v>14</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="10">
-        <v>603338</v>
-      </c>
-      <c r="C58" s="10">
-        <v>1400</v>
-      </c>
-      <c r="D58" s="10">
-        <v>0</v>
-      </c>
-      <c r="E58" s="10">
-        <v>1400</v>
-      </c>
-      <c r="F58" s="11">
-        <v>73.75</v>
-      </c>
-      <c r="G58" s="11">
-        <v>74.52</v>
-      </c>
-      <c r="H58" s="11">
-        <v>0</v>
-      </c>
-      <c r="I58" s="11">
-        <v>103250</v>
-      </c>
-      <c r="J58" s="11">
-        <v>-1077.74</v>
-      </c>
-      <c r="K58" s="11">
-        <v>-1077.74</v>
-      </c>
-      <c r="L58" s="9">
-        <v>-1.03</v>
-      </c>
-      <c r="M58" s="9" t="s">
+      <c r="B58" s="6">
+        <v>600859</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>60.13</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
+        <v>297137.44</v>
+      </c>
+      <c r="K58" s="7">
+        <v>38349.74</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0</v>
+      </c>
+      <c r="M58" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="9" t="s">
+      <c r="N58" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B59" s="6">
-        <v>603718</v>
+        <v>600827</v>
       </c>
       <c r="C59" s="6">
-        <v>0</v>
+        <v>41400</v>
       </c>
       <c r="D59" s="6">
-        <v>0</v>
+        <v>41400</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>19.29</v>
+        <v>18.01</v>
       </c>
       <c r="G59" s="7">
-        <v>0</v>
+        <v>14.717</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>0</v>
+        <v>745614</v>
       </c>
       <c r="J59" s="7">
-        <v>1678.48</v>
+        <v>136323.82</v>
       </c>
       <c r="K59" s="7">
-        <v>-1122.92</v>
+        <v>67896</v>
       </c>
       <c r="L59" s="8">
-        <v>0</v>
+        <v>22.38</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>24</v>
@@ -3244,89 +3247,89 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="6">
+        <v>300160</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>8.35</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <v>39912.75</v>
+      </c>
+      <c r="K60" s="7">
+        <v>34813.35</v>
+      </c>
+      <c r="L60" s="8">
+        <v>0</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="6">
-        <v>600859</v>
-      </c>
-      <c r="C60" s="6">
-        <v>15600</v>
-      </c>
-      <c r="D60" s="6">
-        <v>15600</v>
-      </c>
-      <c r="E60" s="6">
-        <v>0</v>
-      </c>
-      <c r="F60" s="7">
-        <v>54.66</v>
-      </c>
-      <c r="G60" s="7">
-        <v>38.071</v>
-      </c>
-      <c r="H60" s="7">
-        <v>0</v>
-      </c>
-      <c r="I60" s="7">
-        <v>852696</v>
-      </c>
-      <c r="J60" s="7">
-        <v>258787.7</v>
-      </c>
-      <c r="K60" s="7">
-        <v>77532</v>
-      </c>
-      <c r="L60" s="8">
-        <v>43.57</v>
-      </c>
-      <c r="M60" s="8" t="s">
+      <c r="B61" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="13">
+        <v>339500</v>
+      </c>
+      <c r="D61" s="13">
+        <v>339500</v>
+      </c>
+      <c r="E61" s="13">
+        <v>0</v>
+      </c>
+      <c r="F61" s="14">
+        <v>0</v>
+      </c>
+      <c r="G61" s="14">
+        <v>0</v>
+      </c>
+      <c r="H61" s="14">
+        <v>0</v>
+      </c>
+      <c r="I61" s="14">
+        <v>0</v>
+      </c>
+      <c r="J61" s="14">
+        <v>0</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L61" s="12">
+        <v>0</v>
+      </c>
+      <c r="M61" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N60" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="6">
-        <v>603258</v>
-      </c>
-      <c r="C61" s="6">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6">
-        <v>0</v>
-      </c>
-      <c r="E61" s="6">
-        <v>0</v>
-      </c>
-      <c r="F61" s="7">
-        <v>54.03</v>
-      </c>
-      <c r="G61" s="7">
-        <v>0</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>0</v>
-      </c>
-      <c r="J61" s="7">
-        <v>26123.22</v>
-      </c>
-      <c r="K61" s="7">
-        <v>-6326.75</v>
-      </c>
-      <c r="L61" s="8">
-        <v>0</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N61" s="8" t="s">
+      <c r="N61" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3335,86 +3338,86 @@
         <v>108</v>
       </c>
       <c r="B62" s="6">
-        <v>600827</v>
+        <v>300010</v>
       </c>
       <c r="C62" s="6">
-        <v>41400</v>
+        <v>3700</v>
       </c>
       <c r="D62" s="6">
-        <v>16400</v>
+        <v>3700</v>
       </c>
       <c r="E62" s="6">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="F62" s="7">
-        <v>16.37</v>
+        <v>20.41</v>
       </c>
       <c r="G62" s="7">
-        <v>14.717</v>
+        <v>19.836</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>677718</v>
+        <v>75517</v>
       </c>
       <c r="J62" s="7">
-        <v>68427.82</v>
+        <v>2122.46</v>
       </c>
       <c r="K62" s="7">
-        <v>69411.38</v>
+        <v>-666</v>
       </c>
       <c r="L62" s="8">
-        <v>11.23</v>
+        <v>2.89</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="10">
-        <v>300494</v>
-      </c>
-      <c r="C63" s="10">
-        <v>0</v>
-      </c>
-      <c r="D63" s="10">
-        <v>0</v>
-      </c>
-      <c r="E63" s="10">
-        <v>0</v>
-      </c>
-      <c r="F63" s="11">
-        <v>25.4</v>
-      </c>
-      <c r="G63" s="11">
-        <v>0</v>
-      </c>
-      <c r="H63" s="11">
-        <v>0</v>
-      </c>
-      <c r="I63" s="11">
-        <v>0</v>
-      </c>
-      <c r="J63" s="11">
-        <v>-2215.07</v>
-      </c>
-      <c r="K63" s="11">
-        <v>1467.91</v>
-      </c>
-      <c r="L63" s="9">
-        <v>0</v>
-      </c>
-      <c r="M63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N63" s="9" t="s">
+      <c r="B63" s="6">
+        <v>300709</v>
+      </c>
+      <c r="C63" s="6">
+        <v>500</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0</v>
+      </c>
+      <c r="E63" s="6">
+        <v>500</v>
+      </c>
+      <c r="F63" s="7">
+        <v>97.2</v>
+      </c>
+      <c r="G63" s="7">
+        <v>93.072</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>48600</v>
+      </c>
+      <c r="J63" s="7">
+        <v>2063.95</v>
+      </c>
+      <c r="K63" s="7">
+        <v>2063.95</v>
+      </c>
+      <c r="L63" s="8">
+        <v>4.44</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3422,38 +3425,38 @@
       <c r="A64" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B64" s="6">
-        <v>300160</v>
+      <c r="B64" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="C64" s="6">
-        <v>73200</v>
+        <v>6900</v>
       </c>
       <c r="D64" s="6">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="E64" s="6">
-        <v>61600</v>
+        <v>6900</v>
       </c>
       <c r="F64" s="7">
-        <v>8.53</v>
+        <v>96.83</v>
       </c>
       <c r="G64" s="7">
-        <v>8.46</v>
+        <v>93.597</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>624396</v>
+        <v>668127</v>
       </c>
       <c r="J64" s="7">
-        <v>5093.8</v>
+        <v>22308.87</v>
       </c>
       <c r="K64" s="7">
-        <v>13708.76</v>
+        <v>22308.87</v>
       </c>
       <c r="L64" s="8">
-        <v>0.83</v>
+        <v>3.45</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>26</v>
@@ -3463,85 +3466,85 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B65" s="12" t="s">
+      <c r="A65" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="13">
-        <v>321500</v>
-      </c>
-      <c r="D65" s="13">
-        <v>321500</v>
-      </c>
-      <c r="E65" s="13">
-        <v>0</v>
-      </c>
-      <c r="F65" s="14">
-        <v>0</v>
-      </c>
-      <c r="G65" s="14">
-        <v>0</v>
-      </c>
-      <c r="H65" s="14">
-        <v>0</v>
-      </c>
-      <c r="I65" s="14">
-        <v>0</v>
-      </c>
-      <c r="J65" s="14">
-        <v>0</v>
-      </c>
-      <c r="K65" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L65" s="12">
-        <v>0</v>
-      </c>
-      <c r="M65" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N65" s="12" t="s">
-        <v>23</v>
+      <c r="B65" s="6">
+        <v>300280</v>
+      </c>
+      <c r="C65" s="6">
+        <v>7100</v>
+      </c>
+      <c r="D65" s="6">
+        <v>7100</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>53.58</v>
+      </c>
+      <c r="G65" s="7">
+        <v>49.025</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>380418</v>
+      </c>
+      <c r="J65" s="7">
+        <v>32340.75</v>
+      </c>
+      <c r="K65" s="7">
+        <v>34577</v>
+      </c>
+      <c r="L65" s="8">
+        <v>9.29</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B66" s="6">
-        <v>300010</v>
+      <c r="B66" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C66" s="6">
-        <v>3700</v>
+        <v>18800</v>
       </c>
       <c r="D66" s="6">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="E66" s="6">
-        <v>0</v>
+        <v>18800</v>
       </c>
       <c r="F66" s="7">
-        <v>20.59</v>
+        <v>33.45</v>
       </c>
       <c r="G66" s="7">
-        <v>19.836</v>
+        <v>32.51</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>76183</v>
+        <v>628860</v>
       </c>
       <c r="J66" s="7">
-        <v>2788.46</v>
+        <v>17663.98</v>
       </c>
       <c r="K66" s="7">
-        <v>-777</v>
+        <v>17663.98</v>
       </c>
       <c r="L66" s="8">
-        <v>3.8</v>
+        <v>2.89</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>26</v>
@@ -3551,85 +3554,85 @@
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="10">
-        <v>300280</v>
-      </c>
-      <c r="C67" s="10">
-        <v>7100</v>
-      </c>
-      <c r="D67" s="10">
-        <v>0</v>
-      </c>
-      <c r="E67" s="10">
-        <v>7100</v>
-      </c>
-      <c r="F67" s="11">
-        <v>48.71</v>
-      </c>
-      <c r="G67" s="11">
-        <v>49.035</v>
-      </c>
-      <c r="H67" s="11">
-        <v>0</v>
-      </c>
-      <c r="I67" s="11">
-        <v>345841</v>
-      </c>
-      <c r="J67" s="11">
-        <v>-2310.14</v>
-      </c>
-      <c r="K67" s="11">
-        <v>-2310.14</v>
-      </c>
-      <c r="L67" s="9">
-        <v>-0.66</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N67" s="9" t="s">
+      <c r="A67" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="6">
+        <v>300017</v>
+      </c>
+      <c r="C67" s="6">
+        <v>65100</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
+        <v>65100</v>
+      </c>
+      <c r="F67" s="7">
+        <v>9.72</v>
+      </c>
+      <c r="G67" s="7">
+        <v>9.505</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>632772</v>
+      </c>
+      <c r="J67" s="7">
+        <v>13992.57</v>
+      </c>
+      <c r="K67" s="7">
+        <v>13992.57</v>
+      </c>
+      <c r="L67" s="8">
+        <v>2.26</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C68" s="6">
-        <v>19200</v>
+        <v>0</v>
       </c>
       <c r="D68" s="6">
-        <v>19200</v>
+        <v>0</v>
       </c>
       <c r="E68" s="6">
         <v>0</v>
       </c>
       <c r="F68" s="7">
-        <v>32.4</v>
+        <v>33.29</v>
       </c>
       <c r="G68" s="7">
-        <v>30.881</v>
+        <v>0</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>622080</v>
+        <v>0</v>
       </c>
       <c r="J68" s="7">
-        <v>29160.9</v>
+        <v>41848.7</v>
       </c>
       <c r="K68" s="7">
-        <v>6912</v>
+        <v>12687.8</v>
       </c>
       <c r="L68" s="8">
-        <v>4.92</v>
+        <v>0</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>26</v>
@@ -3640,10 +3643,10 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C69" s="6">
         <v>1000</v>
@@ -3669,8 +3672,8 @@
       <c r="J69" s="7">
         <v>12438.16</v>
       </c>
-      <c r="K69" s="7">
-        <v>300</v>
+      <c r="K69" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="L69" s="8">
         <v>54.64</v>
@@ -3684,10 +3687,10 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C70" s="10">
         <v>1000</v>
@@ -3699,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="11">
-        <v>12.95</v>
+        <v>12.66</v>
       </c>
       <c r="G70" s="11">
         <v>13.542</v>
@@ -3708,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="I70" s="11">
-        <v>12950</v>
+        <v>12660</v>
       </c>
       <c r="J70" s="11">
-        <v>-591.76</v>
+        <v>-881.76</v>
       </c>
       <c r="K70" s="11">
-        <v>100</v>
+        <v>-290</v>
       </c>
       <c r="L70" s="9">
-        <v>-4.37</v>
+        <v>-6.51</v>
       </c>
       <c r="M70" s="9" t="s">
         <v>26</v>
@@ -3728,10 +3731,10 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C71" s="6">
         <v>6300</v>
@@ -3743,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <v>29.21</v>
+        <v>29.8</v>
       </c>
       <c r="G71" s="7">
         <v>29.048</v>
@@ -3752,16 +3755,16 @@
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>184023</v>
+        <v>187740</v>
       </c>
       <c r="J71" s="7">
-        <v>1022.2</v>
+        <v>4739.2</v>
       </c>
       <c r="K71" s="7">
-        <v>-252</v>
+        <v>3717</v>
       </c>
       <c r="L71" s="8">
-        <v>0.56</v>
+        <v>2.59</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>26</v>
@@ -3772,7 +3775,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B72" s="6">
         <v>600211</v>
@@ -3781,31 +3784,31 @@
         <v>8600</v>
       </c>
       <c r="D72" s="6">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="E72" s="6">
-        <v>8600</v>
+        <v>3300</v>
       </c>
       <c r="F72" s="7">
-        <v>67.86</v>
+        <v>69.38</v>
       </c>
       <c r="G72" s="7">
-        <v>66.969</v>
+        <v>67.009</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>583596</v>
+        <v>596668</v>
       </c>
       <c r="J72" s="7">
-        <v>7658.81</v>
+        <v>20388.21</v>
       </c>
       <c r="K72" s="7">
-        <v>-16754.11</v>
+        <v>12721.3</v>
       </c>
       <c r="L72" s="8">
-        <v>1.33</v>
+        <v>3.54</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>24</v>
@@ -3815,217 +3818,217 @@
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B73" s="10">
+      <c r="A73" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="6">
         <v>300558</v>
       </c>
-      <c r="C73" s="10">
-        <v>4500</v>
-      </c>
-      <c r="D73" s="10">
-        <v>4500</v>
-      </c>
-      <c r="E73" s="10">
-        <v>0</v>
-      </c>
-      <c r="F73" s="11">
-        <v>134.9</v>
-      </c>
-      <c r="G73" s="11">
-        <v>135.662</v>
-      </c>
-      <c r="H73" s="11">
-        <v>0</v>
-      </c>
-      <c r="I73" s="11">
-        <v>607050</v>
-      </c>
-      <c r="J73" s="11">
-        <v>-3430.36</v>
-      </c>
-      <c r="K73" s="11">
-        <v>-9540</v>
-      </c>
-      <c r="L73" s="9">
-        <v>-0.56</v>
-      </c>
-      <c r="M73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N73" s="9" t="s">
+      <c r="C73" s="6">
+        <v>0</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>139.62</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>0</v>
+      </c>
+      <c r="J73" s="7">
+        <v>10678.38</v>
+      </c>
+      <c r="K73" s="7">
+        <v>14108.74</v>
+      </c>
+      <c r="L73" s="8">
+        <v>0</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B74" s="6">
-        <v>603283</v>
+        <v>300457</v>
       </c>
       <c r="C74" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D74" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E74" s="6">
         <v>0</v>
       </c>
       <c r="F74" s="7">
-        <v>53.75</v>
+        <v>31.81</v>
       </c>
       <c r="G74" s="7">
-        <v>0</v>
+        <v>31.594</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
       </c>
       <c r="I74" s="7">
-        <v>0</v>
+        <v>15905</v>
       </c>
       <c r="J74" s="7">
-        <v>59055.75</v>
+        <v>107.95</v>
       </c>
       <c r="K74" s="7">
-        <v>-32.74</v>
+        <v>-65</v>
       </c>
       <c r="L74" s="8">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="M74" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="10">
+        <v>600988</v>
+      </c>
+      <c r="C75" s="10">
+        <v>13400</v>
+      </c>
+      <c r="D75" s="10">
+        <v>13400</v>
+      </c>
+      <c r="E75" s="10">
+        <v>0</v>
+      </c>
+      <c r="F75" s="11">
+        <v>11.58</v>
+      </c>
+      <c r="G75" s="11">
+        <v>11.669</v>
+      </c>
+      <c r="H75" s="11">
+        <v>0</v>
+      </c>
+      <c r="I75" s="11">
+        <v>155172</v>
+      </c>
+      <c r="J75" s="11">
+        <v>-1193.44</v>
+      </c>
+      <c r="K75" s="11">
+        <v>-268</v>
+      </c>
+      <c r="L75" s="9">
+        <v>-0.76</v>
+      </c>
+      <c r="M75" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N74" s="8" t="s">
+      <c r="N75" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75" s="6">
-        <v>300457</v>
-      </c>
-      <c r="C75" s="6">
-        <v>500</v>
-      </c>
-      <c r="D75" s="6">
-        <v>0</v>
-      </c>
-      <c r="E75" s="6">
-        <v>500</v>
-      </c>
-      <c r="F75" s="7">
-        <v>31.94</v>
-      </c>
-      <c r="G75" s="7">
-        <v>31.6</v>
-      </c>
-      <c r="H75" s="7">
-        <v>0</v>
-      </c>
-      <c r="I75" s="7">
-        <v>15970</v>
-      </c>
-      <c r="J75" s="7">
-        <v>170</v>
-      </c>
-      <c r="K75" s="7">
-        <v>170</v>
-      </c>
-      <c r="L75" s="8">
-        <v>1.08</v>
-      </c>
-      <c r="M75" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N75" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B76" s="10">
-        <v>600988</v>
-      </c>
-      <c r="C76" s="10">
-        <v>13400</v>
-      </c>
-      <c r="D76" s="10">
-        <v>0</v>
-      </c>
-      <c r="E76" s="10">
-        <v>13400</v>
-      </c>
-      <c r="F76" s="11">
-        <v>11.6</v>
-      </c>
-      <c r="G76" s="11">
-        <v>11.669</v>
-      </c>
-      <c r="H76" s="11">
-        <v>0</v>
-      </c>
-      <c r="I76" s="11">
-        <v>155440</v>
-      </c>
-      <c r="J76" s="11">
-        <v>-925.44</v>
-      </c>
-      <c r="K76" s="11">
-        <v>-925.44</v>
-      </c>
-      <c r="L76" s="9">
-        <v>-0.59</v>
-      </c>
-      <c r="M76" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N76" s="9" t="s">
-        <v>23</v>
+      <c r="A76" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" s="6">
+        <v>0</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7">
+        <v>92105.46</v>
+      </c>
+      <c r="K76" s="7">
+        <v>12349.66</v>
+      </c>
+      <c r="L76" s="8">
+        <v>0</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N76" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C77" s="6">
-        <v>91700</v>
+        <v>17400</v>
       </c>
       <c r="D77" s="6">
-        <v>91700</v>
+        <v>3200</v>
       </c>
       <c r="E77" s="6">
-        <v>0</v>
+        <v>14200</v>
       </c>
       <c r="F77" s="7">
-        <v>7.85</v>
+        <v>27.69</v>
       </c>
       <c r="G77" s="7">
-        <v>6.98</v>
+        <v>26.271</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
       </c>
       <c r="I77" s="7">
-        <v>719845</v>
+        <v>481806</v>
       </c>
       <c r="J77" s="7">
-        <v>79755.8</v>
+        <v>24696.2</v>
       </c>
       <c r="K77" s="7">
-        <v>65107</v>
+        <v>22295.72</v>
       </c>
       <c r="L77" s="8">
-        <v>12.46</v>
+        <v>5.4</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>26</v>
@@ -4036,40 +4039,40 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="B78" s="6">
+        <v>300396</v>
       </c>
       <c r="C78" s="6">
-        <v>17400</v>
+        <v>6900</v>
       </c>
       <c r="D78" s="6">
         <v>0</v>
       </c>
       <c r="E78" s="6">
-        <v>17400</v>
+        <v>6900</v>
       </c>
       <c r="F78" s="7">
-        <v>26.45</v>
+        <v>28.65</v>
       </c>
       <c r="G78" s="7">
-        <v>26.313</v>
+        <v>28.073</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
       </c>
       <c r="I78" s="7">
-        <v>460230</v>
+        <v>197685</v>
       </c>
       <c r="J78" s="7">
-        <v>2378.3</v>
+        <v>3979</v>
       </c>
       <c r="K78" s="7">
-        <v>2378.3</v>
+        <v>3979</v>
       </c>
       <c r="L78" s="8">
-        <v>0.52</v>
+        <v>2.06</v>
       </c>
       <c r="M78" s="8" t="s">
         <v>26</v>
@@ -4079,217 +4082,217 @@
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B79" s="10">
-        <v>600867</v>
-      </c>
-      <c r="C79" s="10">
-        <v>0</v>
-      </c>
-      <c r="D79" s="10">
-        <v>0</v>
-      </c>
-      <c r="E79" s="10">
-        <v>0</v>
-      </c>
-      <c r="F79" s="11">
-        <v>16.72</v>
-      </c>
-      <c r="G79" s="11">
-        <v>0</v>
-      </c>
-      <c r="H79" s="11">
-        <v>0</v>
-      </c>
-      <c r="I79" s="11">
-        <v>0</v>
-      </c>
-      <c r="J79" s="11">
-        <v>-26980.74</v>
-      </c>
-      <c r="K79" s="11">
-        <v>-3231.4</v>
-      </c>
-      <c r="L79" s="9">
-        <v>0</v>
-      </c>
-      <c r="M79" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N79" s="9" t="s">
-        <v>23</v>
+      <c r="A79" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="6">
+        <v>300233</v>
+      </c>
+      <c r="C79" s="6">
+        <v>19100</v>
+      </c>
+      <c r="D79" s="6">
+        <v>19100</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>34.29</v>
+      </c>
+      <c r="G79" s="7">
+        <v>30.388</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>654939</v>
+      </c>
+      <c r="J79" s="7">
+        <v>74536.99</v>
+      </c>
+      <c r="K79" s="7">
+        <v>44694</v>
+      </c>
+      <c r="L79" s="8">
+        <v>12.84</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B80" s="6">
-        <v>300233</v>
+        <v>600609</v>
       </c>
       <c r="C80" s="6">
-        <v>19100</v>
+        <v>89700</v>
       </c>
       <c r="D80" s="6">
-        <v>19100</v>
+        <v>9700</v>
       </c>
       <c r="E80" s="6">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="F80" s="7">
-        <v>31.95</v>
+        <v>7.88</v>
       </c>
       <c r="G80" s="7">
-        <v>30.388</v>
+        <v>6.568</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
       </c>
       <c r="I80" s="7">
-        <v>610245</v>
+        <v>706836</v>
       </c>
       <c r="J80" s="7">
-        <v>29842.99</v>
+        <v>117651.83</v>
       </c>
       <c r="K80" s="7">
-        <v>-19673</v>
+        <v>62393.95</v>
       </c>
       <c r="L80" s="8">
-        <v>5.14</v>
+        <v>19.98</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B81" s="6">
-        <v>600609</v>
+        <v>300651</v>
       </c>
       <c r="C81" s="6">
-        <v>89700</v>
+        <v>5500</v>
       </c>
       <c r="D81" s="6">
-        <v>89700</v>
+        <v>5500</v>
       </c>
       <c r="E81" s="6">
         <v>0</v>
       </c>
       <c r="F81" s="7">
-        <v>7.22</v>
+        <v>32.76</v>
       </c>
       <c r="G81" s="7">
-        <v>6.604</v>
+        <v>30.373</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
       </c>
       <c r="I81" s="7">
-        <v>647634</v>
+        <v>180180</v>
       </c>
       <c r="J81" s="7">
-        <v>55257.88</v>
+        <v>13131.2</v>
       </c>
       <c r="K81" s="7">
-        <v>-10764</v>
+        <v>-2255</v>
       </c>
       <c r="L81" s="8">
-        <v>9.33</v>
+        <v>7.86</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B82" s="6">
-        <v>603113</v>
+        <v>136</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="C82" s="6">
-        <v>0</v>
+        <v>48600</v>
       </c>
       <c r="D82" s="6">
-        <v>0</v>
+        <v>48600</v>
       </c>
       <c r="E82" s="6">
         <v>0</v>
       </c>
       <c r="F82" s="7">
-        <v>13.21</v>
+        <v>13.29</v>
       </c>
       <c r="G82" s="7">
-        <v>0</v>
+        <v>11.769</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
       </c>
       <c r="I82" s="7">
-        <v>0</v>
+        <v>645894</v>
       </c>
       <c r="J82" s="7">
-        <v>602.55</v>
+        <v>73913.64</v>
       </c>
       <c r="K82" s="7">
-        <v>1728.36</v>
+        <v>7290</v>
       </c>
       <c r="L82" s="8">
-        <v>0</v>
+        <v>12.92</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B83" s="6">
-        <v>300651</v>
+        <v>138</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="C83" s="6">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="D83" s="6">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
       </c>
       <c r="F83" s="7">
-        <v>33.17</v>
+        <v>9.62</v>
       </c>
       <c r="G83" s="7">
-        <v>30.373</v>
+        <v>9.215</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
       </c>
       <c r="I83" s="7">
-        <v>182435</v>
+        <v>125060</v>
       </c>
       <c r="J83" s="7">
-        <v>15386.2</v>
+        <v>5263.43</v>
       </c>
       <c r="K83" s="7">
-        <v>1155</v>
+        <v>-780</v>
       </c>
       <c r="L83" s="8">
-        <v>9.21</v>
+        <v>4.4</v>
       </c>
       <c r="M83" s="8" t="s">
         <v>26</v>
@@ -4299,134 +4302,90 @@
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C84" s="6">
-        <v>48600</v>
-      </c>
-      <c r="D84" s="6">
-        <v>48600</v>
-      </c>
-      <c r="E84" s="6">
-        <v>0</v>
-      </c>
-      <c r="F84" s="7">
-        <v>13.14</v>
-      </c>
-      <c r="G84" s="7">
-        <v>11.769</v>
-      </c>
-      <c r="H84" s="7">
-        <v>0</v>
-      </c>
-      <c r="I84" s="7">
-        <v>638604</v>
-      </c>
-      <c r="J84" s="7">
-        <v>66623.64</v>
-      </c>
-      <c r="K84" s="7">
-        <v>-2916</v>
-      </c>
-      <c r="L84" s="8">
-        <v>11.65</v>
-      </c>
-      <c r="M84" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N84" s="8" t="s">
+      <c r="A84" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="10">
+        <v>300767</v>
+      </c>
+      <c r="C84" s="10">
+        <v>9200</v>
+      </c>
+      <c r="D84" s="10">
+        <v>9200</v>
+      </c>
+      <c r="E84" s="10">
+        <v>0</v>
+      </c>
+      <c r="F84" s="11">
+        <v>63.2</v>
+      </c>
+      <c r="G84" s="11">
+        <v>64.814</v>
+      </c>
+      <c r="H84" s="11">
+        <v>0</v>
+      </c>
+      <c r="I84" s="11">
+        <v>581440</v>
+      </c>
+      <c r="J84" s="11">
+        <v>-14846.53</v>
+      </c>
+      <c r="K84" s="11">
+        <v>-460</v>
+      </c>
+      <c r="L84" s="9">
+        <v>-2.49</v>
+      </c>
+      <c r="M84" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C85" s="6">
-        <v>13000</v>
+        <v>24600</v>
       </c>
       <c r="D85" s="6">
         <v>0</v>
       </c>
       <c r="E85" s="6">
-        <v>13000</v>
+        <v>24600</v>
       </c>
       <c r="F85" s="7">
-        <v>9.68</v>
+        <v>8.65</v>
       </c>
       <c r="G85" s="7">
-        <v>9.215</v>
+        <v>8.416</v>
       </c>
       <c r="H85" s="7">
         <v>0</v>
       </c>
       <c r="I85" s="7">
-        <v>125840</v>
+        <v>212790</v>
       </c>
       <c r="J85" s="7">
-        <v>6041.3</v>
+        <v>5749.09</v>
       </c>
       <c r="K85" s="7">
-        <v>6041.3</v>
+        <v>5749.09</v>
       </c>
       <c r="L85" s="8">
-        <v>5.05</v>
+        <v>2.78</v>
       </c>
       <c r="M85" s="8" t="s">
         <v>26</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B86" s="10">
-        <v>300767</v>
-      </c>
-      <c r="C86" s="10">
-        <v>9200</v>
-      </c>
-      <c r="D86" s="10">
-        <v>9200</v>
-      </c>
-      <c r="E86" s="10">
-        <v>0</v>
-      </c>
-      <c r="F86" s="11">
-        <v>63.25</v>
-      </c>
-      <c r="G86" s="11">
-        <v>64.814</v>
-      </c>
-      <c r="H86" s="11">
-        <v>0</v>
-      </c>
-      <c r="I86" s="11">
-        <v>581900</v>
-      </c>
-      <c r="J86" s="11">
-        <v>-14386.53</v>
-      </c>
-      <c r="K86" s="11">
-        <v>-9292</v>
-      </c>
-      <c r="L86" s="9">
-        <v>-2.41</v>
-      </c>
-      <c r="M86" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N86" s="9" t="s">
         <v>25</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
+++ b/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="144">
   <si>
     <t>资金</t>
   </si>
@@ -136,13 +136,22 @@
     <t>交易市场</t>
   </si>
   <si>
-    <t>三安光电</t>
-  </si>
-  <si>
-    <t>三花智控</t>
-  </si>
-  <si>
-    <t>002050</t>
+    <t>XD绿地控</t>
+  </si>
+  <si>
+    <t>上实发展</t>
+  </si>
+  <si>
+    <t>东方精工</t>
+  </si>
+  <si>
+    <t>002611</t>
+  </si>
+  <si>
+    <t>东方航空</t>
+  </si>
+  <si>
+    <t>东方通</t>
   </si>
   <si>
     <t>东诚药业</t>
@@ -151,64 +160,121 @@
     <t>002675</t>
   </si>
   <si>
+    <t>中信重工</t>
+  </si>
+  <si>
+    <t>中再资环</t>
+  </si>
+  <si>
+    <t>中国石油</t>
+  </si>
+  <si>
+    <t>中国重工</t>
+  </si>
+  <si>
+    <t>中来股份</t>
+  </si>
+  <si>
+    <t>中钢国际</t>
+  </si>
+  <si>
+    <t>000928</t>
+  </si>
+  <si>
+    <t>中钢天源</t>
+  </si>
+  <si>
+    <t>002057</t>
+  </si>
+  <si>
     <t>二六三</t>
   </si>
   <si>
     <t>002467</t>
   </si>
   <si>
+    <t>云赛智联</t>
+  </si>
+  <si>
     <t>交运股份</t>
   </si>
   <si>
-    <t>众生药业</t>
-  </si>
-  <si>
-    <t>002317</t>
+    <t>佳力图</t>
+  </si>
+  <si>
+    <t>光环新网</t>
+  </si>
+  <si>
+    <t>克劳斯</t>
+  </si>
+  <si>
+    <t>兴森科技</t>
+  </si>
+  <si>
+    <t>002436</t>
   </si>
   <si>
     <t>凯利泰</t>
   </si>
   <si>
+    <t>分众传媒</t>
+  </si>
+  <si>
+    <t>002027</t>
+  </si>
+  <si>
+    <t>利尔化学</t>
+  </si>
+  <si>
+    <t>002258</t>
+  </si>
+  <si>
+    <t>北信源</t>
+  </si>
+  <si>
     <t>北陆药业</t>
   </si>
   <si>
-    <t>华大基因</t>
+    <t>华宏科技</t>
+  </si>
+  <si>
+    <t>002645</t>
   </si>
   <si>
     <t>华宝添益</t>
   </si>
   <si>
-    <t>华灿光电</t>
-  </si>
-  <si>
-    <t>南洋股份</t>
-  </si>
-  <si>
-    <t>002212</t>
-  </si>
-  <si>
-    <t>双星新材</t>
-  </si>
-  <si>
-    <t>002585</t>
+    <t>卓翼科技</t>
+  </si>
+  <si>
+    <t>002369</t>
+  </si>
+  <si>
+    <t>博瑞传播</t>
+  </si>
+  <si>
+    <t>友阿股份</t>
+  </si>
+  <si>
+    <t>002277</t>
+  </si>
+  <si>
+    <t>史丹利</t>
+  </si>
+  <si>
+    <t>002588</t>
+  </si>
+  <si>
+    <t>号百控股</t>
   </si>
   <si>
     <t>司太立</t>
   </si>
   <si>
-    <t>吉宏股份</t>
-  </si>
-  <si>
-    <t>002803</t>
-  </si>
-  <si>
-    <t>吉比特</t>
-  </si>
-  <si>
-    <t>国药股份</t>
-  </si>
-  <si>
-    <t>基蛋生物</t>
+    <t>国际医学</t>
+  </si>
+  <si>
+    <t>000516</t>
   </si>
   <si>
     <t>多伦科技</t>
@@ -220,112 +286,115 @@
     <t>002385</t>
   </si>
   <si>
-    <t>天风证券</t>
-  </si>
-  <si>
-    <t>天齐锂业</t>
-  </si>
-  <si>
-    <t>002466</t>
-  </si>
-  <si>
-    <t>宜安科技</t>
-  </si>
-  <si>
-    <t>市北高新</t>
-  </si>
-  <si>
-    <t>康泰生物</t>
-  </si>
-  <si>
-    <t>德赛西威</t>
-  </si>
-  <si>
-    <t>002920</t>
-  </si>
-  <si>
-    <t>拓维信息</t>
-  </si>
-  <si>
-    <t>002261</t>
-  </si>
-  <si>
-    <t>捷昌驱动</t>
-  </si>
-  <si>
-    <t>掌趣科技</t>
-  </si>
-  <si>
-    <t>昌红科技</t>
-  </si>
-  <si>
-    <t>普莱柯</t>
-  </si>
-  <si>
-    <t>杉杉股份</t>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-  </si>
-  <si>
-    <t>000568</t>
-  </si>
-  <si>
-    <t>浙江鼎力</t>
-  </si>
-  <si>
-    <t>浪潮信息</t>
-  </si>
-  <si>
-    <t>000977</t>
-  </si>
-  <si>
-    <t>海量数据</t>
+    <t>大连重工</t>
+  </si>
+  <si>
+    <t>002204</t>
+  </si>
+  <si>
+    <t>天沃科技</t>
+  </si>
+  <si>
+    <t>002564</t>
+  </si>
+  <si>
+    <t>奥特佳</t>
+  </si>
+  <si>
+    <t>002239</t>
+  </si>
+  <si>
+    <t>宝泰隆</t>
+  </si>
+  <si>
+    <t>常山北明</t>
+  </si>
+  <si>
+    <t>000158</t>
+  </si>
+  <si>
+    <t>广西广电</t>
+  </si>
+  <si>
+    <t>恒华科技</t>
+  </si>
+  <si>
+    <t>数码科技</t>
+  </si>
+  <si>
+    <t>新乳业</t>
+  </si>
+  <si>
+    <t>002946</t>
+  </si>
+  <si>
+    <t>新朋股份</t>
+  </si>
+  <si>
+    <t>002328</t>
+  </si>
+  <si>
+    <t>新洋丰</t>
+  </si>
+  <si>
+    <t>000902</t>
+  </si>
+  <si>
+    <t>星星科技</t>
+  </si>
+  <si>
+    <t>格林美</t>
+  </si>
+  <si>
+    <t>002340</t>
+  </si>
+  <si>
+    <t>海油工程</t>
+  </si>
+  <si>
+    <t>深科技</t>
+  </si>
+  <si>
+    <t>000021</t>
+  </si>
+  <si>
+    <t>理邦仪器</t>
   </si>
   <si>
     <t>百联股份</t>
   </si>
   <si>
+    <t>神剑股份</t>
+  </si>
+  <si>
+    <t>002361</t>
+  </si>
+  <si>
+    <t>神州泰岳</t>
+  </si>
+  <si>
     <t>科创额度</t>
   </si>
   <si>
     <t>SHKCED</t>
   </si>
   <si>
-    <t>立思辰</t>
-  </si>
-  <si>
-    <t>精研科技</t>
-  </si>
-  <si>
-    <t>紫光国微</t>
-  </si>
-  <si>
-    <t>002049</t>
-  </si>
-  <si>
-    <t>紫天科技</t>
-  </si>
-  <si>
-    <t>纳思达</t>
-  </si>
-  <si>
-    <t>002180</t>
+    <t>科达股份</t>
+  </si>
+  <si>
+    <t>纳川股份</t>
   </si>
   <si>
     <t>网宿科技</t>
   </si>
   <si>
-    <t>航天电器</t>
-  </si>
-  <si>
-    <t>002025</t>
-  </si>
-  <si>
-    <t>苏州固锝</t>
-  </si>
-  <si>
-    <t>002079</t>
+    <t>聚飞光电</t>
+  </si>
+  <si>
+    <t>舒泰神</t>
+  </si>
+  <si>
+    <t>苏农银行</t>
   </si>
   <si>
     <t>蓝帆医疗</t>
@@ -334,37 +403,16 @@
     <t>002382</t>
   </si>
   <si>
-    <t>西藏药业</t>
-  </si>
-  <si>
-    <t>赢合科技</t>
-  </si>
-  <si>
-    <t>赤峰黄金</t>
-  </si>
-  <si>
-    <t>达安基因</t>
-  </si>
-  <si>
-    <t>002030</t>
-  </si>
-  <si>
-    <t>迪瑞医疗</t>
-  </si>
-  <si>
-    <t>金城医药</t>
-  </si>
-  <si>
-    <t>金杯汽车</t>
+    <t>通化金马</t>
+  </si>
+  <si>
+    <t>000766</t>
   </si>
   <si>
     <t>金陵体育</t>
   </si>
   <si>
-    <t>银轮股份</t>
-  </si>
-  <si>
-    <t>002126</t>
+    <t>银龙股份</t>
   </si>
   <si>
     <t>雅化集团</t>
@@ -373,13 +421,31 @@
     <t>002497</t>
   </si>
   <si>
-    <t>震安科技</t>
+    <t>雅本化学</t>
+  </si>
+  <si>
+    <t>露笑科技</t>
+  </si>
+  <si>
+    <t>002617</t>
+  </si>
+  <si>
+    <t>高鸿股份</t>
+  </si>
+  <si>
+    <t>000851</t>
+  </si>
+  <si>
+    <t>鲁抗医药</t>
   </si>
   <si>
     <t>鲁西化工</t>
   </si>
   <si>
     <t>000830</t>
+  </si>
+  <si>
+    <t>鹏鹞环保</t>
   </si>
 </sst>
 </file>
@@ -771,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -851,28 +917,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>1901754.45</v>
+        <v>122022.86</v>
       </c>
       <c r="D3" s="3">
-        <v>1902462.66</v>
+        <v>2892121.89</v>
       </c>
       <c r="E3" s="3">
-        <v>1901754.45</v>
+        <v>122022.86</v>
       </c>
       <c r="F3" s="3">
-        <v>-708.21</v>
+        <v>-2770099.03</v>
       </c>
       <c r="G3" s="3">
-        <v>21680471.71</v>
+        <v>19393928.69</v>
       </c>
       <c r="H3" s="3">
-        <v>23582934.37</v>
+        <v>22286050.58</v>
       </c>
       <c r="I3" s="3">
-        <v>1796606.4</v>
+        <v>1788693.33</v>
       </c>
       <c r="J3" s="3">
-        <v>797694.76</v>
+        <v>8679.52</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -979,10 +1045,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>362000</v>
+        <v>438000</v>
       </c>
       <c r="C8" s="3">
-        <v>362500</v>
+        <v>438000</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -996,7 +1062,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>786000</v>
+        <v>1019000</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1075,37 +1141,37 @@
         <v>40</v>
       </c>
       <c r="B12" s="6">
-        <v>600703</v>
+        <v>600606</v>
       </c>
       <c r="C12" s="6">
-        <v>23400</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6">
-        <v>23400</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>27.35</v>
+        <v>9.06</v>
       </c>
       <c r="G12" s="7">
-        <v>24.612</v>
+        <v>0</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>639990</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7">
-        <v>64068.59</v>
+        <v>65237.58</v>
       </c>
       <c r="K12" s="7">
-        <v>48438</v>
+        <v>-6355.87</v>
       </c>
       <c r="L12" s="8">
-        <v>11.12</v>
+        <v>0</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>24</v>
@@ -1118,214 +1184,214 @@
       <c r="A13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>42</v>
+      <c r="B13" s="6">
+        <v>600748</v>
       </c>
       <c r="C13" s="6">
-        <v>8600</v>
+        <v>78500</v>
       </c>
       <c r="D13" s="6">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>78500</v>
       </c>
       <c r="F13" s="7">
-        <v>22.68</v>
+        <v>5.98</v>
       </c>
       <c r="G13" s="7">
-        <v>19.244</v>
+        <v>5.965</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>195048</v>
+        <v>469430</v>
       </c>
       <c r="J13" s="7">
-        <v>29552.5</v>
+        <v>1144.96</v>
       </c>
       <c r="K13" s="7">
-        <v>7568</v>
+        <v>1144.96</v>
       </c>
       <c r="L13" s="8">
-        <v>17.85</v>
+        <v>0.25</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="10">
+        <v>19400</v>
+      </c>
+      <c r="D14" s="10">
+        <v>19400</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>5.05</v>
+      </c>
+      <c r="G14" s="11">
+        <v>5.111</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>97970</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-1176.89</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-1552</v>
+      </c>
+      <c r="L14" s="9">
+        <v>-1.19</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="10">
-        <v>13400</v>
-      </c>
-      <c r="D14" s="10">
-        <v>13400</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>19.88</v>
-      </c>
-      <c r="G14" s="11">
-        <v>20.662</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>266392</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-10482.99</v>
-      </c>
-      <c r="K14" s="11">
-        <v>268</v>
-      </c>
-      <c r="L14" s="9">
-        <v>-3.78</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
+      <c r="B15" s="10">
+        <v>600115</v>
+      </c>
+      <c r="C15" s="10">
+        <v>129200</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>129200</v>
+      </c>
+      <c r="F15" s="11">
+        <v>4.63</v>
+      </c>
+      <c r="G15" s="11">
+        <v>4.671</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>598196</v>
+      </c>
+      <c r="J15" s="11">
+        <v>-5258.52</v>
+      </c>
+      <c r="K15" s="11">
+        <v>-5258.52</v>
+      </c>
+      <c r="L15" s="9">
+        <v>-0.88</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="6">
-        <v>52800</v>
-      </c>
-      <c r="D15" s="6">
-        <v>52800</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>7.64</v>
-      </c>
-      <c r="G15" s="7">
-        <v>7.471</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>403392</v>
-      </c>
-      <c r="J15" s="7">
-        <v>8924.72</v>
-      </c>
-      <c r="K15" s="7">
-        <v>12144</v>
-      </c>
-      <c r="L15" s="8">
-        <v>2.26</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="10">
-        <v>600676</v>
-      </c>
-      <c r="C16" s="10">
-        <v>50100</v>
-      </c>
-      <c r="D16" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>5.69</v>
-      </c>
-      <c r="G16" s="11">
-        <v>5.761</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11">
-        <v>285069</v>
-      </c>
-      <c r="J16" s="11">
-        <v>-3558.79</v>
-      </c>
-      <c r="K16" s="11">
-        <v>3507</v>
-      </c>
-      <c r="L16" s="9">
-        <v>-1.23</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>23</v>
+      <c r="B16" s="6">
+        <v>300379</v>
+      </c>
+      <c r="C16" s="6">
+        <v>600</v>
+      </c>
+      <c r="D16" s="6">
+        <v>600</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>52.35</v>
+      </c>
+      <c r="G16" s="7">
+        <v>-224.84</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>31410</v>
+      </c>
+      <c r="J16" s="7">
+        <v>166313.88</v>
+      </c>
+      <c r="K16" s="7">
+        <v>-3892.11</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="6">
-        <v>34900</v>
+        <v>9500</v>
       </c>
       <c r="D17" s="6">
-        <v>34900</v>
+        <v>9500</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>17.25</v>
+        <v>21.8</v>
       </c>
       <c r="G17" s="7">
-        <v>17.222</v>
+        <v>20.116</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>602025</v>
+        <v>207100</v>
       </c>
       <c r="J17" s="7">
-        <v>964.38</v>
+        <v>15995.17</v>
       </c>
       <c r="K17" s="7">
-        <v>5235</v>
+        <v>9880</v>
       </c>
       <c r="L17" s="8">
-        <v>0.16</v>
+        <v>8.37</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>26</v>
@@ -1336,304 +1402,304 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="10">
-        <v>300326</v>
+        <v>601608</v>
       </c>
       <c r="C18" s="10">
-        <v>21800</v>
+        <v>46700</v>
       </c>
       <c r="D18" s="10">
-        <v>21800</v>
+        <v>0</v>
       </c>
       <c r="E18" s="10">
-        <v>0</v>
+        <v>46700</v>
       </c>
       <c r="F18" s="11">
-        <v>26.85</v>
+        <v>4.27</v>
       </c>
       <c r="G18" s="11">
-        <v>27.731</v>
+        <v>4.323</v>
       </c>
       <c r="H18" s="11">
         <v>0</v>
       </c>
       <c r="I18" s="11">
-        <v>585330</v>
+        <v>199409</v>
       </c>
       <c r="J18" s="11">
-        <v>-19203.58</v>
+        <v>-2481.49</v>
       </c>
       <c r="K18" s="11">
-        <v>-8720</v>
+        <v>-2481.49</v>
       </c>
       <c r="L18" s="9">
-        <v>-3.18</v>
+        <v>-1.23</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="10">
+        <v>600217</v>
+      </c>
+      <c r="C19" s="10">
+        <v>76500</v>
+      </c>
+      <c r="D19" s="10">
+        <v>76500</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>5.13</v>
+      </c>
+      <c r="G19" s="11">
+        <v>5.143</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>392445</v>
+      </c>
+      <c r="J19" s="11">
+        <v>-968</v>
+      </c>
+      <c r="K19" s="11">
+        <v>-15300</v>
+      </c>
+      <c r="L19" s="9">
+        <v>-0.25</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="10">
+        <v>601857</v>
+      </c>
+      <c r="C20" s="10">
+        <v>129700</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
+        <v>129700</v>
+      </c>
+      <c r="F20" s="11">
+        <v>4.6</v>
+      </c>
+      <c r="G20" s="11">
+        <v>4.673</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>596620</v>
+      </c>
+      <c r="J20" s="11">
+        <v>-9466.93</v>
+      </c>
+      <c r="K20" s="11">
+        <v>-9466.93</v>
+      </c>
+      <c r="L20" s="9">
+        <v>-1.56</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="10">
-        <v>300016</v>
-      </c>
-      <c r="C19" s="10">
-        <v>43700</v>
-      </c>
-      <c r="D19" s="10">
-        <v>43700</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>11.64</v>
-      </c>
-      <c r="G19" s="11">
-        <v>12.27</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>508668</v>
-      </c>
-      <c r="J19" s="11">
-        <v>-27541.72</v>
-      </c>
-      <c r="K19" s="11">
-        <v>8303</v>
-      </c>
-      <c r="L19" s="9">
-        <v>-5.13</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="6">
-        <v>300676</v>
-      </c>
-      <c r="C20" s="6">
-        <v>500</v>
-      </c>
-      <c r="D20" s="6">
-        <v>500</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>162.1</v>
-      </c>
-      <c r="G20" s="7">
-        <v>-27.557</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>81050</v>
-      </c>
-      <c r="J20" s="7">
-        <v>94828.38</v>
-      </c>
-      <c r="K20" s="7">
-        <v>-1155</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="6">
-        <v>511990</v>
-      </c>
-      <c r="C21" s="6">
-        <v>6</v>
-      </c>
-      <c r="D21" s="6">
-        <v>6</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>99.952</v>
-      </c>
-      <c r="G21" s="7">
-        <v>-6751.737</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>599.71</v>
-      </c>
-      <c r="J21" s="7">
-        <v>41110.13</v>
-      </c>
-      <c r="K21" s="7">
-        <v>-0.21</v>
-      </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="M21" s="8" t="s">
+      <c r="B21" s="10">
+        <v>601989</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>4.81</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>-19427.08</v>
+      </c>
+      <c r="K21" s="11">
+        <v>-19196.21</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N21" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="6">
+        <v>300393</v>
+      </c>
+      <c r="C22" s="6">
+        <v>76500</v>
+      </c>
+      <c r="D22" s="6">
+        <v>76500</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>7.06</v>
+      </c>
+      <c r="G22" s="7">
+        <v>7.05</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>540090</v>
+      </c>
+      <c r="J22" s="7">
+        <v>738.91</v>
+      </c>
+      <c r="K22" s="7">
+        <v>-16065</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0.14</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="6">
-        <v>300323</v>
-      </c>
-      <c r="C22" s="6">
-        <v>106900</v>
-      </c>
-      <c r="D22" s="6">
-        <v>106900</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>6.36</v>
-      </c>
-      <c r="G22" s="7">
-        <v>5.692</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>679884</v>
-      </c>
-      <c r="J22" s="7">
-        <v>71456.92</v>
-      </c>
-      <c r="K22" s="7">
-        <v>62002</v>
-      </c>
-      <c r="L22" s="8">
-        <v>11.74</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="6">
-        <v>24100</v>
-      </c>
-      <c r="D23" s="6">
-        <v>24100</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>27.83</v>
-      </c>
-      <c r="G23" s="7">
-        <v>25.781</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>670703</v>
-      </c>
-      <c r="J23" s="7">
-        <v>49384.25</v>
-      </c>
-      <c r="K23" s="7">
-        <v>30848</v>
-      </c>
-      <c r="L23" s="8">
-        <v>7.95</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" s="8" t="s">
+      <c r="C23" s="10">
+        <v>11900</v>
+      </c>
+      <c r="D23" s="10">
+        <v>11900</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>4.31</v>
+      </c>
+      <c r="G23" s="11">
+        <v>4.341</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>51289</v>
+      </c>
+      <c r="J23" s="11">
+        <v>-363.71</v>
+      </c>
+      <c r="K23" s="11">
+        <v>-1666</v>
+      </c>
+      <c r="L23" s="9">
+        <v>-0.71</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="6">
-        <v>89300</v>
+        <v>57900</v>
       </c>
       <c r="D24" s="6">
-        <v>89300</v>
+        <v>57900</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>7.8</v>
+        <v>7.65</v>
       </c>
       <c r="G24" s="7">
-        <v>6.994</v>
+        <v>7.414</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>696540</v>
+        <v>442935</v>
       </c>
       <c r="J24" s="7">
-        <v>72019.82</v>
+        <v>13691.57</v>
       </c>
       <c r="K24" s="7">
-        <v>53580</v>
+        <v>-16791</v>
       </c>
       <c r="L24" s="8">
-        <v>11.52</v>
+        <v>3.18</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>26</v>
@@ -1644,172 +1710,172 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="6">
-        <v>603520</v>
+        <v>57</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C25" s="6">
-        <v>6200</v>
+        <v>52800</v>
       </c>
       <c r="D25" s="6">
-        <v>6200</v>
+        <v>52800</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="7">
-        <v>74.7</v>
+        <v>8.13</v>
       </c>
       <c r="G25" s="7">
-        <v>73.5</v>
+        <v>7.471</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>463140</v>
+        <v>429264</v>
       </c>
       <c r="J25" s="7">
-        <v>7439.65</v>
+        <v>34796.72</v>
       </c>
       <c r="K25" s="7">
-        <v>-9300</v>
+        <v>-21120</v>
       </c>
       <c r="L25" s="8">
-        <v>1.63</v>
+        <v>8.82</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="6">
+        <v>600602</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3200</v>
+      </c>
+      <c r="D26" s="6">
+        <v>3200</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>7.98</v>
+      </c>
+      <c r="G26" s="7">
+        <v>7.781</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>25536</v>
+      </c>
+      <c r="J26" s="7">
+        <v>636.26</v>
+      </c>
+      <c r="K26" s="7">
+        <v>-448</v>
+      </c>
+      <c r="L26" s="8">
+        <v>2.56</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="6">
-        <v>19400</v>
-      </c>
-      <c r="D26" s="6">
-        <v>19400</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>28.43</v>
-      </c>
-      <c r="G26" s="7">
-        <v>26.501</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>551542</v>
-      </c>
-      <c r="J26" s="7">
-        <v>37414.16</v>
-      </c>
-      <c r="K26" s="7">
-        <v>41904</v>
-      </c>
-      <c r="L26" s="8">
-        <v>7.28</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="6">
-        <v>603444</v>
-      </c>
-      <c r="C27" s="6">
-        <v>700</v>
-      </c>
-      <c r="D27" s="6">
-        <v>700</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>535.56</v>
-      </c>
-      <c r="G27" s="7">
-        <v>526.132</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>374892</v>
-      </c>
-      <c r="J27" s="7">
-        <v>6599.77</v>
-      </c>
-      <c r="K27" s="7">
-        <v>-4452</v>
-      </c>
-      <c r="L27" s="8">
-        <v>1.79</v>
-      </c>
-      <c r="M27" s="8" t="s">
+      <c r="B27" s="10">
+        <v>600676</v>
+      </c>
+      <c r="C27" s="10">
+        <v>50100</v>
+      </c>
+      <c r="D27" s="10">
+        <v>50100</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>5.63</v>
+      </c>
+      <c r="G27" s="11">
+        <v>5.761</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>282063</v>
+      </c>
+      <c r="J27" s="11">
+        <v>-6564.79</v>
+      </c>
+      <c r="K27" s="11">
+        <v>-1002</v>
+      </c>
+      <c r="L27" s="9">
+        <v>-2.27</v>
+      </c>
+      <c r="M27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="N27" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28" s="6">
-        <v>600511</v>
+        <v>603912</v>
       </c>
       <c r="C28" s="6">
-        <v>15800</v>
+        <v>1900</v>
       </c>
       <c r="D28" s="6">
-        <v>15800</v>
+        <v>0</v>
       </c>
       <c r="E28" s="6">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="F28" s="7">
-        <v>39.41</v>
+        <v>26.41</v>
       </c>
       <c r="G28" s="7">
-        <v>38.162</v>
+        <v>24.882</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>622678</v>
+        <v>50179</v>
       </c>
       <c r="J28" s="7">
-        <v>19723.56</v>
+        <v>2904.05</v>
       </c>
       <c r="K28" s="7">
-        <v>8058</v>
+        <v>2904.05</v>
       </c>
       <c r="L28" s="8">
-        <v>3.27</v>
+        <v>6.14</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>24</v>
@@ -1819,129 +1885,129 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="10">
-        <v>603387</v>
-      </c>
-      <c r="C29" s="10">
-        <v>11800</v>
-      </c>
-      <c r="D29" s="10">
-        <v>11800</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <v>40.57</v>
-      </c>
-      <c r="G29" s="11">
-        <v>40.726</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>478726</v>
-      </c>
-      <c r="J29" s="11">
-        <v>-1841.01</v>
-      </c>
-      <c r="K29" s="11">
-        <v>8732</v>
-      </c>
-      <c r="L29" s="9">
-        <v>-0.38</v>
-      </c>
-      <c r="M29" s="9" t="s">
+      <c r="A29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="6">
+        <v>300383</v>
+      </c>
+      <c r="C29" s="6">
+        <v>22200</v>
+      </c>
+      <c r="D29" s="6">
+        <v>22200</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="G29" s="7">
+        <v>29.044</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>679320</v>
+      </c>
+      <c r="J29" s="7">
+        <v>34535.18</v>
+      </c>
+      <c r="K29" s="7">
+        <v>10212</v>
+      </c>
+      <c r="L29" s="8">
+        <v>5.36</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="10">
+        <v>600579</v>
+      </c>
+      <c r="C30" s="10">
+        <v>24900</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10">
+        <v>24900</v>
+      </c>
+      <c r="F30" s="11">
+        <v>6.09</v>
+      </c>
+      <c r="G30" s="11">
+        <v>6.233</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>151641</v>
+      </c>
+      <c r="J30" s="11">
+        <v>-3550.6</v>
+      </c>
+      <c r="K30" s="11">
+        <v>-3550.6</v>
+      </c>
+      <c r="L30" s="9">
+        <v>-2.29</v>
+      </c>
+      <c r="M30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="6">
-        <v>603528</v>
-      </c>
-      <c r="C30" s="6">
-        <v>6600</v>
-      </c>
-      <c r="D30" s="6">
-        <v>6600</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>10.32</v>
-      </c>
-      <c r="G30" s="7">
-        <v>10.127</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>68112</v>
-      </c>
-      <c r="J30" s="7">
-        <v>1276.98</v>
-      </c>
-      <c r="K30" s="7">
-        <v>2772</v>
-      </c>
-      <c r="L30" s="8">
-        <v>1.91</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" s="8" t="s">
+      <c r="N30" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" s="6">
-        <v>65300</v>
+        <v>0</v>
       </c>
       <c r="D31" s="6">
-        <v>65300</v>
+        <v>0</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>9.32</v>
+        <v>15.98</v>
       </c>
       <c r="G31" s="7">
-        <v>9.319</v>
+        <v>0</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>608596</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7">
-        <v>56.76</v>
+        <v>44815.12</v>
       </c>
       <c r="K31" s="7">
-        <v>24814</v>
+        <v>-19473.73</v>
       </c>
       <c r="L31" s="8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>26</v>
@@ -1952,436 +2018,436 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="6">
+        <v>300326</v>
+      </c>
+      <c r="C32" s="6">
+        <v>21800</v>
+      </c>
+      <c r="D32" s="6">
+        <v>21800</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>28.76</v>
+      </c>
+      <c r="G32" s="7">
+        <v>27.731</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>626968</v>
+      </c>
+      <c r="J32" s="7">
+        <v>22434.42</v>
+      </c>
+      <c r="K32" s="7">
+        <v>16568</v>
+      </c>
+      <c r="L32" s="8">
+        <v>3.71</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="6">
-        <v>601162</v>
-      </c>
-      <c r="C32" s="6">
-        <v>90400</v>
-      </c>
-      <c r="D32" s="6">
-        <v>90400</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7">
-        <v>7.82</v>
-      </c>
-      <c r="G32" s="7">
-        <v>6.951</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J32" s="7">
-        <v>78553.75</v>
-      </c>
-      <c r="K32" s="7">
-        <v>60568</v>
-      </c>
-      <c r="L32" s="8">
-        <v>12.5</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="6">
-        <v>7200</v>
-      </c>
-      <c r="D33" s="6">
-        <v>7200</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>23.8</v>
-      </c>
-      <c r="G33" s="7">
-        <v>21.726</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>171360</v>
-      </c>
-      <c r="J33" s="7">
-        <v>14935.67</v>
-      </c>
-      <c r="K33" s="7">
-        <v>9216</v>
-      </c>
-      <c r="L33" s="8">
-        <v>9.55</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="8" t="s">
+      <c r="C33" s="10">
+        <v>23500</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>23500</v>
+      </c>
+      <c r="F33" s="11">
+        <v>6.02</v>
+      </c>
+      <c r="G33" s="11">
+        <v>6.041</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>141470</v>
+      </c>
+      <c r="J33" s="11">
+        <v>-492.12</v>
+      </c>
+      <c r="K33" s="11">
+        <v>-492.12</v>
+      </c>
+      <c r="L33" s="9">
+        <v>-0.35</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>20.7</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <v>10899.65</v>
+      </c>
+      <c r="K34" s="7">
+        <v>-23.52</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="6">
-        <v>300328</v>
-      </c>
-      <c r="C34" s="6">
-        <v>600</v>
-      </c>
-      <c r="D34" s="6">
-        <v>600</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
-      <c r="F34" s="7">
-        <v>12.24</v>
-      </c>
-      <c r="G34" s="7">
-        <v>11.842</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>7344</v>
-      </c>
-      <c r="J34" s="7">
-        <v>239.08</v>
-      </c>
-      <c r="K34" s="7">
-        <v>252</v>
-      </c>
-      <c r="L34" s="8">
-        <v>3.36</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="8" t="s">
+      <c r="B35" s="10">
+        <v>300352</v>
+      </c>
+      <c r="C35" s="10">
+        <v>4100</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
+        <v>4100</v>
+      </c>
+      <c r="F35" s="11">
+        <v>8.3</v>
+      </c>
+      <c r="G35" s="11">
+        <v>8.581</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>34030</v>
+      </c>
+      <c r="J35" s="11">
+        <v>-1153</v>
+      </c>
+      <c r="K35" s="11">
+        <v>-1153</v>
+      </c>
+      <c r="L35" s="9">
+        <v>-3.27</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="6">
-        <v>600604</v>
-      </c>
-      <c r="C35" s="6">
-        <v>36000</v>
-      </c>
-      <c r="D35" s="6">
-        <v>36000</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7">
-        <v>10.44</v>
-      </c>
-      <c r="G35" s="7">
-        <v>10.087</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>375840</v>
-      </c>
-      <c r="J35" s="7">
-        <v>12706.56</v>
-      </c>
-      <c r="K35" s="7">
-        <v>15840</v>
-      </c>
-      <c r="L35" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="9" t="s">
+      <c r="B36" s="6">
+        <v>300016</v>
+      </c>
+      <c r="C36" s="6">
+        <v>43700</v>
+      </c>
+      <c r="D36" s="6">
+        <v>43700</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>12.53</v>
+      </c>
+      <c r="G36" s="7">
+        <v>12.27</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>547561</v>
+      </c>
+      <c r="J36" s="7">
+        <v>11351.28</v>
+      </c>
+      <c r="K36" s="7">
+        <v>2622</v>
+      </c>
+      <c r="L36" s="8">
+        <v>2.12</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="10">
-        <v>300601</v>
-      </c>
-      <c r="C36" s="10">
-        <v>200</v>
-      </c>
-      <c r="D36" s="10">
-        <v>200</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11">
-        <v>157.62</v>
-      </c>
-      <c r="G36" s="11">
-        <v>159.821</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>31524</v>
-      </c>
-      <c r="J36" s="11">
-        <v>-440.15</v>
-      </c>
-      <c r="K36" s="11">
-        <v>-76</v>
-      </c>
-      <c r="L36" s="9">
-        <v>-1.38</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="6">
-        <v>11200</v>
-      </c>
-      <c r="D37" s="6">
-        <v>11200</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="7">
-        <v>64.99</v>
-      </c>
-      <c r="G37" s="7">
-        <v>52.111</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>727888</v>
-      </c>
-      <c r="J37" s="7">
-        <v>144241.21</v>
-      </c>
-      <c r="K37" s="7">
-        <v>35728</v>
-      </c>
-      <c r="L37" s="8">
-        <v>24.71</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N37" s="8" t="s">
+      <c r="C37" s="10">
+        <v>5600</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
+        <v>5600</v>
+      </c>
+      <c r="F37" s="11">
+        <v>9.05</v>
+      </c>
+      <c r="G37" s="11">
+        <v>9.363</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>50680</v>
+      </c>
+      <c r="J37" s="11">
+        <v>-1751</v>
+      </c>
+      <c r="K37" s="11">
+        <v>-1751</v>
+      </c>
+      <c r="L37" s="9">
+        <v>-3.34</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="B38" s="6">
+        <v>511990</v>
       </c>
       <c r="C38" s="6">
-        <v>66800</v>
+        <v>6</v>
       </c>
       <c r="D38" s="6">
-        <v>66800</v>
+        <v>6</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>9.62</v>
+        <v>100.031</v>
       </c>
       <c r="G38" s="7">
-        <v>9.13</v>
+        <v>-6751.737</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>642616</v>
+        <v>600.19</v>
       </c>
       <c r="J38" s="7">
-        <v>32759.72</v>
+        <v>41110.61</v>
       </c>
       <c r="K38" s="7">
-        <v>27388</v>
+        <v>0.17</v>
       </c>
       <c r="L38" s="8">
-        <v>5.37</v>
+        <v>0</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="6">
-        <v>603583</v>
+        <v>76</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="C39" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D39" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="7">
-        <v>68.51</v>
+        <v>9.71</v>
       </c>
       <c r="G39" s="7">
-        <v>-17.363</v>
+        <v>0</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>13702</v>
+        <v>0</v>
       </c>
       <c r="J39" s="7">
-        <v>17174.68</v>
+        <v>45955.06</v>
       </c>
       <c r="K39" s="7">
-        <v>-128</v>
+        <v>12485.77</v>
       </c>
       <c r="L39" s="8">
         <v>0</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="6">
-        <v>300315</v>
+        <v>600880</v>
       </c>
       <c r="C40" s="6">
-        <v>0</v>
+        <v>68600</v>
       </c>
       <c r="D40" s="6">
-        <v>0</v>
+        <v>68600</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
       </c>
       <c r="F40" s="7">
-        <v>7.93</v>
+        <v>5.27</v>
       </c>
       <c r="G40" s="7">
-        <v>0</v>
+        <v>4.91</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>0</v>
+        <v>361522</v>
       </c>
       <c r="J40" s="7">
-        <v>18966.61</v>
+        <v>24670.48</v>
       </c>
       <c r="K40" s="7">
-        <v>-2.03</v>
+        <v>-686</v>
       </c>
       <c r="L40" s="8">
-        <v>0</v>
+        <v>7.33</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="6">
-        <v>300151</v>
-      </c>
       <c r="C41" s="6">
-        <v>4300</v>
+        <v>77200</v>
       </c>
       <c r="D41" s="6">
-        <v>4300</v>
+        <v>27400</v>
       </c>
       <c r="E41" s="6">
-        <v>0</v>
+        <v>49800</v>
       </c>
       <c r="F41" s="7">
-        <v>17.13</v>
+        <v>4.66</v>
       </c>
       <c r="G41" s="7">
-        <v>16.749</v>
+        <v>4.513</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>73659</v>
+        <v>359752</v>
       </c>
       <c r="J41" s="7">
-        <v>1639.64</v>
+        <v>11384.04</v>
       </c>
       <c r="K41" s="7">
-        <v>-301</v>
+        <v>4001.61</v>
       </c>
       <c r="L41" s="8">
-        <v>2.27</v>
+        <v>3.26</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>26</v>
@@ -2394,82 +2460,82 @@
       <c r="A42" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="6">
-        <v>603566</v>
+      <c r="B42" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C42" s="6">
-        <v>6300</v>
+        <v>83400</v>
       </c>
       <c r="D42" s="6">
-        <v>6300</v>
+        <v>0</v>
       </c>
       <c r="E42" s="6">
-        <v>0</v>
+        <v>83400</v>
       </c>
       <c r="F42" s="7">
-        <v>26.67</v>
+        <v>4.76</v>
       </c>
       <c r="G42" s="7">
-        <v>26.202</v>
+        <v>4.728</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>168021</v>
+        <v>396984</v>
       </c>
       <c r="J42" s="7">
-        <v>2949.98</v>
+        <v>2707.34</v>
       </c>
       <c r="K42" s="7">
-        <v>2331</v>
+        <v>2707.34</v>
       </c>
       <c r="L42" s="8">
-        <v>1.79</v>
+        <v>0.68</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" s="6">
-        <v>600884</v>
+        <v>600640</v>
       </c>
       <c r="C43" s="6">
-        <v>15000</v>
+        <v>800</v>
       </c>
       <c r="D43" s="6">
-        <v>15000</v>
+        <v>800</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>12.62</v>
+        <v>21.14</v>
       </c>
       <c r="G43" s="7">
-        <v>12.212</v>
+        <v>20.691</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>189300</v>
+        <v>16912</v>
       </c>
       <c r="J43" s="7">
-        <v>6122.53</v>
+        <v>359.52</v>
       </c>
       <c r="K43" s="7">
-        <v>6450</v>
+        <v>-712</v>
       </c>
       <c r="L43" s="8">
-        <v>3.34</v>
+        <v>2.17</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>24</v>
@@ -2480,304 +2546,304 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="8" t="s">
         <v>84</v>
       </c>
+      <c r="B44" s="6">
+        <v>603520</v>
+      </c>
       <c r="C44" s="6">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="D44" s="6">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="E44" s="6">
         <v>0</v>
       </c>
       <c r="F44" s="7">
-        <v>111.47</v>
+        <v>78.52</v>
       </c>
       <c r="G44" s="7">
-        <v>94.398</v>
+        <v>0</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>735702</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7">
-        <v>112676.25</v>
+        <v>39433.7</v>
       </c>
       <c r="K44" s="7">
-        <v>9042</v>
+        <v>19346.05</v>
       </c>
       <c r="L44" s="8">
-        <v>18.09</v>
+        <v>0</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="10">
-        <v>603338</v>
-      </c>
-      <c r="C45" s="10">
-        <v>1400</v>
-      </c>
-      <c r="D45" s="10">
-        <v>1400</v>
-      </c>
-      <c r="E45" s="10">
-        <v>0</v>
-      </c>
-      <c r="F45" s="11">
-        <v>74.29</v>
-      </c>
-      <c r="G45" s="11">
-        <v>74.5</v>
-      </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
-        <v>104006</v>
-      </c>
-      <c r="J45" s="11">
-        <v>-293.52</v>
-      </c>
-      <c r="K45" s="11">
-        <v>266</v>
-      </c>
-      <c r="L45" s="9">
-        <v>-0.28</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>23</v>
+      <c r="B45" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="6">
+        <v>50</v>
+      </c>
+      <c r="D45" s="6">
+        <v>50</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>6.01</v>
+      </c>
+      <c r="G45" s="7">
+        <v>-1533.515</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>300.5</v>
+      </c>
+      <c r="J45" s="7">
+        <v>76976.27</v>
+      </c>
+      <c r="K45" s="7">
+        <v>21179.35</v>
+      </c>
+      <c r="L45" s="8">
+        <v>0</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="8" t="s">
         <v>87</v>
       </c>
+      <c r="B46" s="6">
+        <v>603528</v>
+      </c>
       <c r="C46" s="6">
-        <v>16500</v>
+        <v>6600</v>
       </c>
       <c r="D46" s="6">
-        <v>16500</v>
+        <v>6600</v>
       </c>
       <c r="E46" s="6">
         <v>0</v>
       </c>
       <c r="F46" s="7">
-        <v>40.12</v>
+        <v>11.89</v>
       </c>
       <c r="G46" s="7">
-        <v>37.658</v>
+        <v>10.127</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>661980</v>
+        <v>78474</v>
       </c>
       <c r="J46" s="7">
-        <v>40628.24</v>
+        <v>11638.98</v>
       </c>
       <c r="K46" s="7">
-        <v>32010</v>
+        <v>66</v>
       </c>
       <c r="L46" s="8">
-        <v>6.54</v>
+        <v>17.41</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="6">
-        <v>603138</v>
+      <c r="B47" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C47" s="6">
-        <v>700</v>
+        <v>65900</v>
       </c>
       <c r="D47" s="6">
-        <v>700</v>
+        <v>65900</v>
       </c>
       <c r="E47" s="6">
         <v>0</v>
       </c>
       <c r="F47" s="7">
-        <v>20.94</v>
+        <v>9.77</v>
       </c>
       <c r="G47" s="7">
-        <v>19.357</v>
+        <v>9.318</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>14658</v>
+        <v>643843</v>
       </c>
       <c r="J47" s="7">
-        <v>1107.96</v>
+        <v>29773.82</v>
       </c>
       <c r="K47" s="7">
-        <v>686</v>
+        <v>-25701</v>
       </c>
       <c r="L47" s="8">
-        <v>8.18</v>
+        <v>4.85</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="6">
-        <v>600827</v>
-      </c>
-      <c r="C48" s="6">
-        <v>41400</v>
-      </c>
-      <c r="D48" s="6">
-        <v>41400</v>
-      </c>
-      <c r="E48" s="6">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7">
-        <v>19.81</v>
-      </c>
-      <c r="G48" s="7">
-        <v>14.717</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>820134</v>
-      </c>
-      <c r="J48" s="7">
-        <v>210843.82</v>
-      </c>
-      <c r="K48" s="7">
-        <v>74520</v>
-      </c>
-      <c r="L48" s="8">
-        <v>34.61</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>23</v>
+      <c r="A48" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="10">
+        <v>83200</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
+      <c r="E48" s="10">
+        <v>83200</v>
+      </c>
+      <c r="F48" s="11">
+        <v>4.78</v>
+      </c>
+      <c r="G48" s="11">
+        <v>4.914</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>397696</v>
+      </c>
+      <c r="J48" s="11">
+        <v>-11120.58</v>
+      </c>
+      <c r="K48" s="11">
+        <v>-11120.58</v>
+      </c>
+      <c r="L48" s="9">
+        <v>-2.73</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="13">
-        <v>362500</v>
-      </c>
-      <c r="D49" s="13">
-        <v>362500</v>
-      </c>
-      <c r="E49" s="13">
-        <v>0</v>
-      </c>
-      <c r="F49" s="14">
-        <v>0</v>
-      </c>
-      <c r="G49" s="14">
-        <v>0</v>
-      </c>
-      <c r="H49" s="14">
-        <v>0</v>
-      </c>
-      <c r="I49" s="14">
-        <v>0</v>
-      </c>
-      <c r="J49" s="14">
-        <v>0</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L49" s="12">
-        <v>0</v>
-      </c>
-      <c r="M49" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N49" s="12" t="s">
-        <v>23</v>
+      <c r="A49" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="10">
+        <v>20600</v>
+      </c>
+      <c r="D49" s="10">
+        <v>20600</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="G49" s="11">
+        <v>4.251</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <v>86520</v>
+      </c>
+      <c r="J49" s="11">
+        <v>-1041.38</v>
+      </c>
+      <c r="K49" s="11">
+        <v>-1854</v>
+      </c>
+      <c r="L49" s="9">
+        <v>-1.2</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="6">
-        <v>300010</v>
+        <v>94</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="C50" s="6">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="D50" s="6">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
       </c>
       <c r="F50" s="7">
-        <v>20.64</v>
+        <v>5.76</v>
       </c>
       <c r="G50" s="7">
-        <v>19.836</v>
+        <v>0</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>76368</v>
+        <v>0</v>
       </c>
       <c r="J50" s="7">
-        <v>2973.46</v>
+        <v>37808.63</v>
       </c>
       <c r="K50" s="7">
-        <v>851</v>
+        <v>31243.01</v>
       </c>
       <c r="L50" s="8">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>26</v>
@@ -2788,84 +2854,84 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B51" s="6">
-        <v>300709</v>
+        <v>601011</v>
       </c>
       <c r="C51" s="6">
-        <v>500</v>
+        <v>18000</v>
       </c>
       <c r="D51" s="6">
-        <v>500</v>
+        <v>18000</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>100.45</v>
+        <v>4.25</v>
       </c>
       <c r="G51" s="7">
-        <v>93.072</v>
+        <v>4.221</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>50225</v>
+        <v>76500</v>
       </c>
       <c r="J51" s="7">
-        <v>3688.95</v>
+        <v>528.61</v>
       </c>
       <c r="K51" s="7">
-        <v>1625</v>
+        <v>-2340</v>
       </c>
       <c r="L51" s="8">
-        <v>7.93</v>
+        <v>0.69</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C52" s="6">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="D52" s="6">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="E52" s="6">
         <v>0</v>
       </c>
       <c r="F52" s="7">
-        <v>106.51</v>
+        <v>12.22</v>
       </c>
       <c r="G52" s="7">
-        <v>93.596</v>
+        <v>0</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>734919</v>
+        <v>0</v>
       </c>
       <c r="J52" s="7">
-        <v>89109.05</v>
+        <v>45451.74</v>
       </c>
       <c r="K52" s="7">
-        <v>66792</v>
+        <v>-5321.57</v>
       </c>
       <c r="L52" s="8">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>26</v>
@@ -2876,84 +2942,84 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B53" s="6">
-        <v>300280</v>
+        <v>600936</v>
       </c>
       <c r="C53" s="6">
-        <v>7100</v>
+        <v>500</v>
       </c>
       <c r="D53" s="6">
-        <v>7100</v>
+        <v>500</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="7">
-        <v>54.7</v>
+        <v>4.23</v>
       </c>
       <c r="G53" s="7">
-        <v>49.025</v>
+        <v>4.221</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>388370</v>
+        <v>2115</v>
       </c>
       <c r="J53" s="7">
-        <v>40292.75</v>
+        <v>4.69</v>
       </c>
       <c r="K53" s="7">
-        <v>7952</v>
+        <v>-25</v>
       </c>
       <c r="L53" s="8">
-        <v>11.58</v>
+        <v>0.21</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="B54" s="6">
+        <v>300365</v>
       </c>
       <c r="C54" s="6">
-        <v>18800</v>
+        <v>30400</v>
       </c>
       <c r="D54" s="6">
-        <v>18800</v>
+        <v>30400</v>
       </c>
       <c r="E54" s="6">
         <v>0</v>
       </c>
       <c r="F54" s="7">
-        <v>35.08</v>
+        <v>11.66</v>
       </c>
       <c r="G54" s="7">
-        <v>32.51</v>
+        <v>11.064</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>659504</v>
+        <v>354464</v>
       </c>
       <c r="J54" s="7">
-        <v>48312.56</v>
+        <v>18121.28</v>
       </c>
       <c r="K54" s="7">
-        <v>30644</v>
+        <v>-8816</v>
       </c>
       <c r="L54" s="8">
-        <v>7.91</v>
+        <v>5.39</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>26</v>
@@ -2964,40 +3030,40 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B55" s="6">
-        <v>300017</v>
+        <v>300079</v>
       </c>
       <c r="C55" s="6">
-        <v>65100</v>
+        <v>94000</v>
       </c>
       <c r="D55" s="6">
-        <v>65100</v>
+        <v>94000</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="7">
-        <v>10.07</v>
+        <v>5.26</v>
       </c>
       <c r="G55" s="7">
-        <v>9.505</v>
+        <v>5.134</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>655557</v>
+        <v>494440</v>
       </c>
       <c r="J55" s="7">
-        <v>36777.57</v>
+        <v>11886.07</v>
       </c>
       <c r="K55" s="7">
-        <v>22785</v>
+        <v>-12220</v>
       </c>
       <c r="L55" s="8">
-        <v>5.94</v>
+        <v>2.45</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>26</v>
@@ -3008,40 +3074,40 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C56" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D56" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E56" s="6">
         <v>0</v>
       </c>
       <c r="F56" s="7">
-        <v>35.68</v>
+        <v>20.3</v>
       </c>
       <c r="G56" s="7">
-        <v>22.762</v>
+        <v>0</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
       </c>
       <c r="I56" s="7">
-        <v>35680</v>
+        <v>0</v>
       </c>
       <c r="J56" s="7">
-        <v>12918.16</v>
+        <v>8210.25</v>
       </c>
       <c r="K56" s="7">
-        <v>480</v>
+        <v>-485.4</v>
       </c>
       <c r="L56" s="8">
-        <v>56.75</v>
+        <v>0</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>26</v>
@@ -3051,85 +3117,85 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="10">
-        <v>1000</v>
-      </c>
-      <c r="D57" s="10">
-        <v>1000</v>
-      </c>
-      <c r="E57" s="10">
-        <v>0</v>
-      </c>
-      <c r="F57" s="11">
-        <v>13.53</v>
-      </c>
-      <c r="G57" s="11">
-        <v>13.542</v>
-      </c>
-      <c r="H57" s="11">
-        <v>0</v>
-      </c>
-      <c r="I57" s="11">
-        <v>13530</v>
-      </c>
-      <c r="J57" s="11">
-        <v>-11.76</v>
-      </c>
-      <c r="K57" s="11">
-        <v>870</v>
-      </c>
-      <c r="L57" s="9">
-        <v>-0.09</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N57" s="9" t="s">
+      <c r="A57" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="6">
+        <v>102500</v>
+      </c>
+      <c r="D57" s="6">
+        <v>102500</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>6.32</v>
+      </c>
+      <c r="G57" s="7">
+        <v>5.994</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>647800</v>
+      </c>
+      <c r="J57" s="7">
+        <v>33425.14</v>
+      </c>
+      <c r="K57" s="7">
+        <v>4100</v>
+      </c>
+      <c r="L57" s="8">
+        <v>5.44</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C58" s="6">
-        <v>6300</v>
+        <v>24000</v>
       </c>
       <c r="D58" s="6">
-        <v>6300</v>
+        <v>24000</v>
       </c>
       <c r="E58" s="6">
         <v>0</v>
       </c>
       <c r="F58" s="7">
-        <v>29.92</v>
+        <v>10.5</v>
       </c>
       <c r="G58" s="7">
-        <v>29.048</v>
+        <v>8.036</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>188496</v>
+        <v>252000</v>
       </c>
       <c r="J58" s="7">
-        <v>5495.2</v>
+        <v>59146.39</v>
       </c>
       <c r="K58" s="7">
-        <v>756</v>
+        <v>-7200</v>
       </c>
       <c r="L58" s="8">
-        <v>3</v>
+        <v>30.66</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>26</v>
@@ -3140,172 +3206,172 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B59" s="6">
-        <v>600211</v>
+        <v>300256</v>
       </c>
       <c r="C59" s="6">
-        <v>8600</v>
+        <v>46400</v>
       </c>
       <c r="D59" s="6">
-        <v>8600</v>
+        <v>46400</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>69.46</v>
+        <v>7.28</v>
       </c>
       <c r="G59" s="7">
-        <v>67.008</v>
+        <v>6.909</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>597356</v>
+        <v>337792</v>
       </c>
       <c r="J59" s="7">
-        <v>21085.76</v>
+        <v>17208.11</v>
       </c>
       <c r="K59" s="7">
-        <v>688</v>
+        <v>6032</v>
       </c>
       <c r="L59" s="8">
-        <v>3.66</v>
+        <v>5.37</v>
       </c>
       <c r="M59" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="10">
+        <v>118000</v>
+      </c>
+      <c r="D60" s="10">
+        <v>118000</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0</v>
+      </c>
+      <c r="F60" s="11">
+        <v>5.31</v>
+      </c>
+      <c r="G60" s="11">
+        <v>5.34</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0</v>
+      </c>
+      <c r="I60" s="11">
+        <v>626580</v>
+      </c>
+      <c r="J60" s="11">
+        <v>-3584.59</v>
+      </c>
+      <c r="K60" s="11">
+        <v>-18880</v>
+      </c>
+      <c r="L60" s="9">
+        <v>-0.56</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="10">
+        <v>600583</v>
+      </c>
+      <c r="C61" s="10">
+        <v>24200</v>
+      </c>
+      <c r="D61" s="10">
+        <v>24200</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>5</v>
+      </c>
+      <c r="G61" s="11">
+        <v>5.027</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>121000</v>
+      </c>
+      <c r="J61" s="11">
+        <v>-660.76</v>
+      </c>
+      <c r="K61" s="11">
+        <v>-5082</v>
+      </c>
+      <c r="L61" s="9">
+        <v>-0.54</v>
+      </c>
+      <c r="M61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N59" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="6">
-        <v>300457</v>
-      </c>
-      <c r="C60" s="6">
-        <v>500</v>
-      </c>
-      <c r="D60" s="6">
-        <v>500</v>
-      </c>
-      <c r="E60" s="6">
-        <v>0</v>
-      </c>
-      <c r="F60" s="7">
-        <v>34.08</v>
-      </c>
-      <c r="G60" s="7">
-        <v>31.594</v>
-      </c>
-      <c r="H60" s="7">
-        <v>0</v>
-      </c>
-      <c r="I60" s="7">
-        <v>17040</v>
-      </c>
-      <c r="J60" s="7">
-        <v>1242.95</v>
-      </c>
-      <c r="K60" s="7">
-        <v>1135</v>
-      </c>
-      <c r="L60" s="8">
-        <v>7.87</v>
-      </c>
-      <c r="M60" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" s="6">
-        <v>600988</v>
-      </c>
-      <c r="C61" s="6">
-        <v>13400</v>
-      </c>
-      <c r="D61" s="6">
-        <v>13400</v>
-      </c>
-      <c r="E61" s="6">
-        <v>0</v>
-      </c>
-      <c r="F61" s="7">
-        <v>11.75</v>
-      </c>
-      <c r="G61" s="7">
-        <v>11.669</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>157450</v>
-      </c>
-      <c r="J61" s="7">
-        <v>1084.56</v>
-      </c>
-      <c r="K61" s="7">
-        <v>2278</v>
-      </c>
-      <c r="L61" s="8">
-        <v>0.69</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N61" s="8" t="s">
+      <c r="N61" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C62" s="6">
-        <v>17400</v>
+        <v>23800</v>
       </c>
       <c r="D62" s="6">
-        <v>17400</v>
+        <v>23800</v>
       </c>
       <c r="E62" s="6">
         <v>0</v>
       </c>
       <c r="F62" s="7">
-        <v>28.03</v>
+        <v>28.05</v>
       </c>
       <c r="G62" s="7">
-        <v>26.271</v>
+        <v>26.589</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>487722</v>
+        <v>667590</v>
       </c>
       <c r="J62" s="7">
-        <v>30612.2</v>
+        <v>34767.76</v>
       </c>
       <c r="K62" s="7">
-        <v>5916</v>
+        <v>9282</v>
       </c>
       <c r="L62" s="8">
-        <v>6.7</v>
+        <v>5.49</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>26</v>
@@ -3315,173 +3381,173 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="10">
-        <v>300396</v>
-      </c>
-      <c r="C63" s="10">
-        <v>6900</v>
-      </c>
-      <c r="D63" s="10">
-        <v>6900</v>
-      </c>
-      <c r="E63" s="10">
-        <v>0</v>
-      </c>
-      <c r="F63" s="11">
-        <v>28</v>
-      </c>
-      <c r="G63" s="11">
-        <v>28.065</v>
-      </c>
-      <c r="H63" s="11">
-        <v>0</v>
-      </c>
-      <c r="I63" s="11">
-        <v>193200</v>
-      </c>
-      <c r="J63" s="11">
-        <v>-451.17</v>
-      </c>
-      <c r="K63" s="11">
-        <v>-4485</v>
-      </c>
-      <c r="L63" s="9">
-        <v>-0.23</v>
-      </c>
-      <c r="M63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N63" s="9" t="s">
+      <c r="A63" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="6">
+        <v>300206</v>
+      </c>
+      <c r="C63" s="6">
+        <v>27800</v>
+      </c>
+      <c r="D63" s="6">
+        <v>27800</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>26.87</v>
+      </c>
+      <c r="G63" s="7">
+        <v>23.552</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>746986</v>
+      </c>
+      <c r="J63" s="7">
+        <v>92228.89</v>
+      </c>
+      <c r="K63" s="7">
+        <v>-7506</v>
+      </c>
+      <c r="L63" s="8">
+        <v>14.09</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B64" s="6">
-        <v>300233</v>
+        <v>600827</v>
       </c>
       <c r="C64" s="6">
-        <v>19100</v>
+        <v>0</v>
       </c>
       <c r="D64" s="6">
-        <v>19100</v>
+        <v>0</v>
       </c>
       <c r="E64" s="6">
         <v>0</v>
       </c>
       <c r="F64" s="7">
-        <v>36.31</v>
+        <v>29.01</v>
       </c>
       <c r="G64" s="7">
-        <v>30.388</v>
+        <v>0</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>693521</v>
+        <v>0</v>
       </c>
       <c r="J64" s="7">
-        <v>113118.99</v>
+        <v>526733.27</v>
       </c>
       <c r="K64" s="7">
-        <v>38582</v>
+        <v>53515.57</v>
       </c>
       <c r="L64" s="8">
-        <v>19.49</v>
+        <v>0</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="6">
-        <v>600609</v>
+        <v>116</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="C65" s="6">
-        <v>89700</v>
+        <v>32700</v>
       </c>
       <c r="D65" s="6">
-        <v>89700</v>
+        <v>32700</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
       </c>
       <c r="F65" s="7">
-        <v>8.2</v>
+        <v>4.79</v>
       </c>
       <c r="G65" s="7">
-        <v>6.568</v>
+        <v>4.566</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>735540</v>
+        <v>156633</v>
       </c>
       <c r="J65" s="7">
-        <v>146355.83</v>
+        <v>7336.6</v>
       </c>
       <c r="K65" s="7">
-        <v>28704</v>
+        <v>1308</v>
       </c>
       <c r="L65" s="8">
-        <v>24.85</v>
+        <v>4.91</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B66" s="6">
-        <v>300651</v>
+        <v>300002</v>
       </c>
       <c r="C66" s="6">
-        <v>5500</v>
+        <v>87800</v>
       </c>
       <c r="D66" s="6">
-        <v>5500</v>
+        <v>87800</v>
       </c>
       <c r="E66" s="6">
         <v>0</v>
       </c>
       <c r="F66" s="7">
-        <v>33.93</v>
+        <v>7.36</v>
       </c>
       <c r="G66" s="7">
-        <v>30.373</v>
+        <v>7.188</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>186615</v>
+        <v>646208</v>
       </c>
       <c r="J66" s="7">
-        <v>19566.2</v>
+        <v>15092.96</v>
       </c>
       <c r="K66" s="7">
-        <v>6435</v>
+        <v>7024</v>
       </c>
       <c r="L66" s="8">
-        <v>11.71</v>
+        <v>2.39</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>26</v>
@@ -3491,178 +3557,794 @@
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" s="6">
-        <v>48600</v>
-      </c>
-      <c r="D67" s="6">
-        <v>48600</v>
-      </c>
-      <c r="E67" s="6">
-        <v>0</v>
-      </c>
-      <c r="F67" s="7">
-        <v>13.35</v>
-      </c>
-      <c r="G67" s="7">
-        <v>11.769</v>
-      </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
-      <c r="I67" s="7">
-        <v>648810</v>
-      </c>
-      <c r="J67" s="7">
-        <v>76829.64</v>
-      </c>
-      <c r="K67" s="7">
-        <v>2916</v>
-      </c>
-      <c r="L67" s="8">
-        <v>13.43</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N67" s="8" t="s">
-        <v>25</v>
+      <c r="A67" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="13">
+        <v>438000</v>
+      </c>
+      <c r="D67" s="13">
+        <v>438000</v>
+      </c>
+      <c r="E67" s="13">
+        <v>0</v>
+      </c>
+      <c r="F67" s="14">
+        <v>0</v>
+      </c>
+      <c r="G67" s="14">
+        <v>0</v>
+      </c>
+      <c r="H67" s="14">
+        <v>0</v>
+      </c>
+      <c r="I67" s="14">
+        <v>0</v>
+      </c>
+      <c r="J67" s="14">
+        <v>0</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L67" s="12">
+        <v>0</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N67" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="B68" s="6">
+        <v>600986</v>
       </c>
       <c r="C68" s="6">
-        <v>13000</v>
+        <v>39200</v>
       </c>
       <c r="D68" s="6">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="E68" s="6">
-        <v>0</v>
+        <v>39200</v>
       </c>
       <c r="F68" s="7">
-        <v>10.02</v>
+        <v>5.81</v>
       </c>
       <c r="G68" s="7">
-        <v>9.2</v>
+        <v>5.775</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>130260</v>
+        <v>227752</v>
       </c>
       <c r="J68" s="7">
-        <v>10658.43</v>
+        <v>1368.67</v>
       </c>
       <c r="K68" s="7">
-        <v>5395</v>
+        <v>1368.67</v>
       </c>
       <c r="L68" s="8">
-        <v>8.91</v>
+        <v>0.61</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" s="10">
-        <v>300767</v>
-      </c>
-      <c r="C69" s="10">
-        <v>9200</v>
-      </c>
-      <c r="D69" s="10">
-        <v>9200</v>
-      </c>
-      <c r="E69" s="10">
-        <v>0</v>
-      </c>
-      <c r="F69" s="11">
-        <v>63.22</v>
-      </c>
-      <c r="G69" s="11">
-        <v>64.814</v>
-      </c>
-      <c r="H69" s="11">
-        <v>0</v>
-      </c>
-      <c r="I69" s="11">
-        <v>581624</v>
-      </c>
-      <c r="J69" s="11">
-        <v>-14662.53</v>
-      </c>
-      <c r="K69" s="11">
-        <v>184</v>
-      </c>
-      <c r="L69" s="9">
-        <v>-2.46</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N69" s="9" t="s">
+      <c r="A69" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="6">
+        <v>300198</v>
+      </c>
+      <c r="C69" s="6">
+        <v>47500</v>
+      </c>
+      <c r="D69" s="6">
+        <v>47500</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>4.77</v>
+      </c>
+      <c r="G69" s="7">
+        <v>4.221</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>226575</v>
+      </c>
+      <c r="J69" s="7">
+        <v>26098.94</v>
+      </c>
+      <c r="K69" s="7">
+        <v>11400</v>
+      </c>
+      <c r="L69" s="8">
+        <v>13.01</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N69" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="B70" s="6">
+        <v>300017</v>
       </c>
       <c r="C70" s="6">
+        <v>62400</v>
+      </c>
+      <c r="D70" s="6">
+        <v>62400</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>10.26</v>
+      </c>
+      <c r="G70" s="7">
+        <v>10.119</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>640224</v>
+      </c>
+      <c r="J70" s="7">
+        <v>8801.92</v>
+      </c>
+      <c r="K70" s="7">
+        <v>-14976</v>
+      </c>
+      <c r="L70" s="8">
+        <v>1.39</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N70" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="6">
+        <v>300303</v>
+      </c>
+      <c r="C71" s="6">
+        <v>92600</v>
+      </c>
+      <c r="D71" s="6">
+        <v>92600</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="G71" s="7">
+        <v>6.404</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <v>611160</v>
+      </c>
+      <c r="J71" s="7">
+        <v>18148.69</v>
+      </c>
+      <c r="K71" s="7">
+        <v>-9260</v>
+      </c>
+      <c r="L71" s="8">
+        <v>3.06</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="10">
+        <v>300204</v>
+      </c>
+      <c r="C72" s="10">
+        <v>11700</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0</v>
+      </c>
+      <c r="E72" s="10">
+        <v>11700</v>
+      </c>
+      <c r="F72" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="G72" s="11">
+        <v>12.002</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0</v>
+      </c>
+      <c r="I72" s="11">
+        <v>136890</v>
+      </c>
+      <c r="J72" s="11">
+        <v>-3539</v>
+      </c>
+      <c r="K72" s="11">
+        <v>-3539</v>
+      </c>
+      <c r="L72" s="9">
+        <v>-2.52</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" s="6">
+        <v>603323</v>
+      </c>
+      <c r="C73" s="6">
+        <v>0</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>5.04</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>0</v>
+      </c>
+      <c r="J73" s="7">
+        <v>315.85</v>
+      </c>
+      <c r="K73" s="7">
+        <v>-163.02</v>
+      </c>
+      <c r="L73" s="8">
+        <v>0</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="6">
+        <v>21900</v>
+      </c>
+      <c r="D74" s="6">
+        <v>21900</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>31.78</v>
+      </c>
+      <c r="G74" s="7">
+        <v>28.372</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="7">
+        <v>695982</v>
+      </c>
+      <c r="J74" s="7">
+        <v>74637.25</v>
+      </c>
+      <c r="K74" s="7">
+        <v>63291</v>
+      </c>
+      <c r="L74" s="8">
+        <v>12.01</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="6">
+        <v>32700</v>
+      </c>
+      <c r="D75" s="6">
+        <v>32700</v>
+      </c>
+      <c r="E75" s="6">
+        <v>0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="G75" s="7">
+        <v>5.153</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0</v>
+      </c>
+      <c r="I75" s="7">
+        <v>170040</v>
+      </c>
+      <c r="J75" s="7">
+        <v>1537.11</v>
+      </c>
+      <c r="K75" s="7">
+        <v>-4578</v>
+      </c>
+      <c r="L75" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="6">
+        <v>300651</v>
+      </c>
+      <c r="C76" s="6">
+        <v>5500</v>
+      </c>
+      <c r="D76" s="6">
+        <v>5500</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>37.2</v>
+      </c>
+      <c r="G76" s="7">
+        <v>30.373</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>204600</v>
+      </c>
+      <c r="J76" s="7">
+        <v>37551.2</v>
+      </c>
+      <c r="K76" s="7">
+        <v>11110</v>
+      </c>
+      <c r="L76" s="8">
+        <v>22.48</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N76" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="6">
+        <v>603969</v>
+      </c>
+      <c r="C77" s="6">
+        <v>44900</v>
+      </c>
+      <c r="D77" s="6">
+        <v>44900</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>4.62</v>
+      </c>
+      <c r="G77" s="7">
+        <v>4.511</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7">
+        <v>207438</v>
+      </c>
+      <c r="J77" s="7">
+        <v>4914.96</v>
+      </c>
+      <c r="K77" s="7">
+        <v>-6286</v>
+      </c>
+      <c r="L77" s="8">
+        <v>2.42</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" s="6">
+        <v>58200</v>
+      </c>
+      <c r="D78" s="6">
+        <v>58200</v>
+      </c>
+      <c r="E78" s="6">
+        <v>0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="G78" s="7">
+        <v>10.244</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <v>616920</v>
+      </c>
+      <c r="J78" s="7">
+        <v>20716.48</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L78" s="8">
+        <v>3.48</v>
+      </c>
+      <c r="M78" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N78" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" s="6">
+        <v>300261</v>
+      </c>
+      <c r="C79" s="6">
+        <v>10400</v>
+      </c>
+      <c r="D79" s="6">
+        <v>10400</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>6.36</v>
+      </c>
+      <c r="G79" s="7">
+        <v>6.133</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>66144</v>
+      </c>
+      <c r="J79" s="7">
+        <v>2361.71</v>
+      </c>
+      <c r="K79" s="7">
+        <v>-3224</v>
+      </c>
+      <c r="L79" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="6">
+        <v>83500</v>
+      </c>
+      <c r="D80" s="6">
+        <v>83500</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>5.54</v>
+      </c>
+      <c r="G80" s="7">
+        <v>5.448</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>462590</v>
+      </c>
+      <c r="J80" s="7">
+        <v>7645.86</v>
+      </c>
+      <c r="K80" s="7">
+        <v>-6680</v>
+      </c>
+      <c r="L80" s="8">
+        <v>1.69</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" s="6">
+        <v>58000</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0</v>
+      </c>
+      <c r="E81" s="6">
+        <v>58000</v>
+      </c>
+      <c r="F81" s="7">
+        <v>10.77</v>
+      </c>
+      <c r="G81" s="7">
+        <v>10.479</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>624660</v>
+      </c>
+      <c r="J81" s="7">
+        <v>16894.61</v>
+      </c>
+      <c r="K81" s="7">
+        <v>16894.61</v>
+      </c>
+      <c r="L81" s="8">
+        <v>2.78</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" s="6">
+        <v>600789</v>
+      </c>
+      <c r="C82" s="6">
+        <v>16500</v>
+      </c>
+      <c r="D82" s="6">
+        <v>16500</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="G82" s="7">
+        <v>9.591</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>171600</v>
+      </c>
+      <c r="J82" s="7">
+        <v>13348.21</v>
+      </c>
+      <c r="K82" s="7">
+        <v>-660</v>
+      </c>
+      <c r="L82" s="8">
+        <v>8.43</v>
+      </c>
+      <c r="M82" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" s="6">
         <v>24600</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D83" s="6">
         <v>24600</v>
       </c>
-      <c r="E70" s="6">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7">
-        <v>9.01</v>
-      </c>
-      <c r="G70" s="7">
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>8.66</v>
+      </c>
+      <c r="G83" s="7">
         <v>8.416</v>
       </c>
-      <c r="H70" s="7">
-        <v>0</v>
-      </c>
-      <c r="I70" s="7">
-        <v>221646</v>
-      </c>
-      <c r="J70" s="7">
-        <v>14605.09</v>
-      </c>
-      <c r="K70" s="7">
-        <v>8856</v>
-      </c>
-      <c r="L70" s="8">
-        <v>7.06</v>
-      </c>
-      <c r="M70" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N70" s="8" t="s">
+      <c r="H83" s="7">
+        <v>0</v>
+      </c>
+      <c r="I83" s="7">
+        <v>213036</v>
+      </c>
+      <c r="J83" s="7">
+        <v>5995.09</v>
+      </c>
+      <c r="K83" s="7">
+        <v>-6888</v>
+      </c>
+      <c r="L83" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="6">
+        <v>300664</v>
+      </c>
+      <c r="C84" s="6">
+        <v>0</v>
+      </c>
+      <c r="D84" s="6">
+        <v>0</v>
+      </c>
+      <c r="E84" s="6">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>9.45</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
+        <v>3502.26</v>
+      </c>
+      <c r="K84" s="7">
+        <v>236.03</v>
+      </c>
+      <c r="L84" s="8">
+        <v>0</v>
+      </c>
+      <c r="M84" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" s="8" t="s">
         <v>25</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
+++ b/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="148">
   <si>
     <t>资金</t>
   </si>
@@ -136,9 +136,6 @@
     <t>交易市场</t>
   </si>
   <si>
-    <t>XD绿地控</t>
-  </si>
-  <si>
     <t>上实发展</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>中国石油</t>
   </si>
   <si>
-    <t>中国重工</t>
-  </si>
-  <si>
     <t>中来股份</t>
   </si>
   <si>
@@ -196,6 +190,12 @@
     <t>云赛智联</t>
   </si>
   <si>
+    <t>云铝股份</t>
+  </si>
+  <si>
+    <t>000807</t>
+  </si>
+  <si>
     <t>交运股份</t>
   </si>
   <si>
@@ -208,27 +208,21 @@
     <t>克劳斯</t>
   </si>
   <si>
-    <t>兴森科技</t>
-  </si>
-  <si>
-    <t>002436</t>
-  </si>
-  <si>
     <t>凯利泰</t>
   </si>
   <si>
+    <t>凯撒文化</t>
+  </si>
+  <si>
+    <t>002425</t>
+  </si>
+  <si>
     <t>分众传媒</t>
   </si>
   <si>
     <t>002027</t>
   </si>
   <si>
-    <t>利尔化学</t>
-  </si>
-  <si>
-    <t>002258</t>
-  </si>
-  <si>
     <t>北信源</t>
   </si>
   <si>
@@ -244,12 +238,6 @@
     <t>华宝添益</t>
   </si>
   <si>
-    <t>卓翼科技</t>
-  </si>
-  <si>
-    <t>002369</t>
-  </si>
-  <si>
     <t>博瑞传播</t>
   </si>
   <si>
@@ -268,9 +256,6 @@
     <t>号百控股</t>
   </si>
   <si>
-    <t>司太立</t>
-  </si>
-  <si>
     <t>国际医学</t>
   </si>
   <si>
@@ -286,6 +271,9 @@
     <t>002385</t>
   </si>
   <si>
+    <t>大智慧</t>
+  </si>
+  <si>
     <t>大连重工</t>
   </si>
   <si>
@@ -298,19 +286,37 @@
     <t>002564</t>
   </si>
   <si>
+    <t>奥佳华</t>
+  </si>
+  <si>
+    <t>002614</t>
+  </si>
+  <si>
     <t>奥特佳</t>
   </si>
   <si>
     <t>002239</t>
   </si>
   <si>
+    <t>安泰科技</t>
+  </si>
+  <si>
+    <t>000969</t>
+  </si>
+  <si>
     <t>宝泰隆</t>
   </si>
   <si>
-    <t>常山北明</t>
-  </si>
-  <si>
-    <t>000158</t>
+    <t>山西证券</t>
+  </si>
+  <si>
+    <t>002500</t>
+  </si>
+  <si>
+    <t>广发证券</t>
+  </si>
+  <si>
+    <t>000776</t>
   </si>
   <si>
     <t>广西广电</t>
@@ -322,12 +328,6 @@
     <t>数码科技</t>
   </si>
   <si>
-    <t>新乳业</t>
-  </si>
-  <si>
-    <t>002946</t>
-  </si>
-  <si>
     <t>新朋股份</t>
   </si>
   <si>
@@ -361,9 +361,6 @@
     <t>理邦仪器</t>
   </si>
   <si>
-    <t>百联股份</t>
-  </si>
-  <si>
     <t>神剑股份</t>
   </si>
   <si>
@@ -382,9 +379,18 @@
     <t>科达股份</t>
   </si>
   <si>
+    <t>紫光国微</t>
+  </si>
+  <si>
+    <t>002049</t>
+  </si>
+  <si>
     <t>纳川股份</t>
   </si>
   <si>
+    <t>绿地控股</t>
+  </si>
+  <si>
     <t>网宿科技</t>
   </si>
   <si>
@@ -394,21 +400,30 @@
     <t>舒泰神</t>
   </si>
   <si>
-    <t>苏农银行</t>
-  </si>
-  <si>
     <t>蓝帆医疗</t>
   </si>
   <si>
     <t>002382</t>
   </si>
   <si>
+    <t>跨境通</t>
+  </si>
+  <si>
+    <t>002640</t>
+  </si>
+  <si>
     <t>通化金马</t>
   </si>
   <si>
     <t>000766</t>
   </si>
   <si>
+    <t>酒鬼酒</t>
+  </si>
+  <si>
+    <t>000799</t>
+  </si>
+  <si>
     <t>金陵体育</t>
   </si>
   <si>
@@ -443,9 +458,6 @@
   </si>
   <si>
     <t>000830</t>
-  </si>
-  <si>
-    <t>鹏鹞环保</t>
   </si>
 </sst>
 </file>
@@ -917,28 +929,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>122022.86</v>
+        <v>2892381.73</v>
       </c>
       <c r="D3" s="3">
-        <v>2892121.89</v>
+        <v>1901735.72</v>
       </c>
       <c r="E3" s="3">
-        <v>122022.86</v>
+        <v>1901735.72</v>
       </c>
       <c r="F3" s="3">
-        <v>-2770099.03</v>
+        <v>990646.01</v>
       </c>
       <c r="G3" s="3">
-        <v>19393928.69</v>
+        <v>21127512.24</v>
       </c>
       <c r="H3" s="3">
-        <v>22286050.58</v>
+        <v>23029247.96</v>
       </c>
       <c r="I3" s="3">
-        <v>1788693.33</v>
+        <v>1722900.74</v>
       </c>
       <c r="J3" s="3">
-        <v>8679.52</v>
+        <v>742937.54</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1045,10 +1057,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>438000</v>
+        <v>452000</v>
       </c>
       <c r="C8" s="3">
-        <v>438000</v>
+        <v>452000</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1062,7 +1074,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>1019000</v>
+        <v>1086500</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1141,37 +1153,37 @@
         <v>40</v>
       </c>
       <c r="B12" s="6">
-        <v>600606</v>
+        <v>600748</v>
       </c>
       <c r="C12" s="6">
-        <v>0</v>
+        <v>78500</v>
       </c>
       <c r="D12" s="6">
-        <v>0</v>
+        <v>78500</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>9.06</v>
+        <v>6.1</v>
       </c>
       <c r="G12" s="7">
-        <v>0</v>
+        <v>5.964</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>478850</v>
       </c>
       <c r="J12" s="7">
-        <v>65237.58</v>
+        <v>10651.78</v>
       </c>
       <c r="K12" s="7">
-        <v>-6355.87</v>
+        <v>9420</v>
       </c>
       <c r="L12" s="8">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>24</v>
@@ -1184,167 +1196,167 @@
       <c r="A13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="6">
-        <v>600748</v>
+      <c r="B13" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="6">
-        <v>78500</v>
+        <v>19400</v>
       </c>
       <c r="D13" s="6">
-        <v>0</v>
+        <v>19400</v>
       </c>
       <c r="E13" s="6">
-        <v>78500</v>
+        <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>5.98</v>
+        <v>5.22</v>
       </c>
       <c r="G13" s="7">
-        <v>5.965</v>
+        <v>5.111</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>469430</v>
+        <v>101268</v>
       </c>
       <c r="J13" s="7">
-        <v>1144.96</v>
+        <v>2121.11</v>
       </c>
       <c r="K13" s="7">
-        <v>1144.96</v>
+        <v>3298</v>
       </c>
       <c r="L13" s="8">
-        <v>0.25</v>
+        <v>2.13</v>
       </c>
       <c r="M13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="6">
+        <v>600115</v>
+      </c>
+      <c r="C14" s="6">
+        <v>129200</v>
+      </c>
+      <c r="D14" s="6">
+        <v>129200</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4.68</v>
+      </c>
+      <c r="G14" s="7">
+        <v>4.671</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>604656</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1201.48</v>
+      </c>
+      <c r="K14" s="7">
+        <v>6460</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N14" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="10">
-        <v>19400</v>
-      </c>
-      <c r="D14" s="10">
-        <v>19400</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>5.05</v>
-      </c>
-      <c r="G14" s="11">
-        <v>5.111</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>97970</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-1176.89</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-1552</v>
-      </c>
-      <c r="L14" s="9">
-        <v>-1.19</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="10">
-        <v>600115</v>
-      </c>
-      <c r="C15" s="10">
-        <v>129200</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>129200</v>
-      </c>
-      <c r="F15" s="11">
-        <v>4.63</v>
-      </c>
-      <c r="G15" s="11">
-        <v>4.671</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>598196</v>
-      </c>
-      <c r="J15" s="11">
-        <v>-5258.52</v>
-      </c>
-      <c r="K15" s="11">
-        <v>-5258.52</v>
-      </c>
-      <c r="L15" s="9">
-        <v>-0.88</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>23</v>
+      <c r="B15" s="6">
+        <v>300379</v>
+      </c>
+      <c r="C15" s="6">
+        <v>11700</v>
+      </c>
+      <c r="D15" s="6">
+        <v>600</v>
+      </c>
+      <c r="E15" s="6">
+        <v>11100</v>
+      </c>
+      <c r="F15" s="7">
+        <v>52.73</v>
+      </c>
+      <c r="G15" s="7">
+        <v>38.111</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>616941</v>
+      </c>
+      <c r="J15" s="7">
+        <v>171041.46</v>
+      </c>
+      <c r="K15" s="7">
+        <v>4706.73</v>
+      </c>
+      <c r="L15" s="8">
+        <v>38.36</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="6">
-        <v>300379</v>
+      <c r="B16" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C16" s="6">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="D16" s="6">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>52.35</v>
+        <v>21.97</v>
       </c>
       <c r="G16" s="7">
-        <v>-224.84</v>
+        <v>0</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>31410</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7">
-        <v>166313.88</v>
+        <v>20199.93</v>
       </c>
       <c r="K16" s="7">
-        <v>-3892.11</v>
+        <v>4204.76</v>
       </c>
       <c r="L16" s="8">
         <v>0</v>
@@ -1357,90 +1369,90 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="6">
-        <v>9500</v>
-      </c>
-      <c r="D17" s="6">
-        <v>9500</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>21.8</v>
-      </c>
-      <c r="G17" s="7">
-        <v>20.116</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>207100</v>
-      </c>
-      <c r="J17" s="7">
-        <v>15995.17</v>
-      </c>
-      <c r="K17" s="7">
-        <v>9880</v>
-      </c>
-      <c r="L17" s="8">
-        <v>8.37</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>25</v>
+      <c r="B17" s="10">
+        <v>601608</v>
+      </c>
+      <c r="C17" s="10">
+        <v>46700</v>
+      </c>
+      <c r="D17" s="10">
+        <v>46700</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="G17" s="11">
+        <v>4.323</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>200810</v>
+      </c>
+      <c r="J17" s="11">
+        <v>-1075.31</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1401</v>
+      </c>
+      <c r="L17" s="9">
+        <v>-0.53</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="10">
-        <v>601608</v>
-      </c>
-      <c r="C18" s="10">
-        <v>46700</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>46700</v>
-      </c>
-      <c r="F18" s="11">
-        <v>4.27</v>
-      </c>
-      <c r="G18" s="11">
-        <v>4.323</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
-        <v>199409</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-2481.49</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-2481.49</v>
-      </c>
-      <c r="L18" s="9">
-        <v>-1.23</v>
-      </c>
-      <c r="M18" s="9" t="s">
+      <c r="B18" s="6">
+        <v>600217</v>
+      </c>
+      <c r="C18" s="6">
+        <v>76500</v>
+      </c>
+      <c r="D18" s="6">
+        <v>76500</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5.26</v>
+      </c>
+      <c r="G18" s="7">
+        <v>5.143</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>402390</v>
+      </c>
+      <c r="J18" s="7">
+        <v>8977</v>
+      </c>
+      <c r="K18" s="7">
+        <v>9945</v>
+      </c>
+      <c r="L18" s="8">
+        <v>2.27</v>
+      </c>
+      <c r="M18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1449,37 +1461,37 @@
         <v>49</v>
       </c>
       <c r="B19" s="10">
-        <v>600217</v>
+        <v>601857</v>
       </c>
       <c r="C19" s="10">
-        <v>76500</v>
+        <v>129700</v>
       </c>
       <c r="D19" s="10">
-        <v>76500</v>
+        <v>129700</v>
       </c>
       <c r="E19" s="10">
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>5.13</v>
+        <v>4.63</v>
       </c>
       <c r="G19" s="11">
-        <v>5.143</v>
+        <v>4.673</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>392445</v>
+        <v>600511</v>
       </c>
       <c r="J19" s="11">
-        <v>-968</v>
+        <v>-5575.93</v>
       </c>
       <c r="K19" s="11">
-        <v>-15300</v>
+        <v>3891</v>
       </c>
       <c r="L19" s="9">
-        <v>-0.25</v>
+        <v>-0.92</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>24</v>
@@ -1489,129 +1501,129 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="10">
-        <v>601857</v>
-      </c>
-      <c r="C20" s="10">
-        <v>129700</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0</v>
-      </c>
-      <c r="E20" s="10">
-        <v>129700</v>
-      </c>
-      <c r="F20" s="11">
-        <v>4.6</v>
-      </c>
-      <c r="G20" s="11">
-        <v>4.673</v>
-      </c>
-      <c r="H20" s="11">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11">
-        <v>596620</v>
-      </c>
-      <c r="J20" s="11">
-        <v>-9466.93</v>
-      </c>
-      <c r="K20" s="11">
-        <v>-9466.93</v>
-      </c>
-      <c r="L20" s="9">
-        <v>-1.56</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>23</v>
+      <c r="B20" s="6">
+        <v>300393</v>
+      </c>
+      <c r="C20" s="6">
+        <v>76500</v>
+      </c>
+      <c r="D20" s="6">
+        <v>76500</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>7.54</v>
+      </c>
+      <c r="G20" s="7">
+        <v>7.05</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>576810</v>
+      </c>
+      <c r="J20" s="7">
+        <v>37458.91</v>
+      </c>
+      <c r="K20" s="7">
+        <v>36720</v>
+      </c>
+      <c r="L20" s="8">
+        <v>6.95</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="10">
-        <v>601989</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11">
-        <v>4.81</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>-19427.08</v>
-      </c>
-      <c r="K21" s="11">
-        <v>-19196.21</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>23</v>
+      <c r="B21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="6">
+        <v>11900</v>
+      </c>
+      <c r="D21" s="6">
+        <v>11900</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>4.42</v>
+      </c>
+      <c r="G21" s="7">
+        <v>4.341</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>52598</v>
+      </c>
+      <c r="J21" s="7">
+        <v>945.29</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1309</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1.82</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="6">
-        <v>300393</v>
+        <v>53</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C22" s="6">
-        <v>76500</v>
+        <v>57900</v>
       </c>
       <c r="D22" s="6">
-        <v>76500</v>
+        <v>57900</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>7.06</v>
+        <v>7.93</v>
       </c>
       <c r="G22" s="7">
-        <v>7.05</v>
+        <v>7.414</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>540090</v>
+        <v>459147</v>
       </c>
       <c r="J22" s="7">
-        <v>738.91</v>
+        <v>29903.57</v>
       </c>
       <c r="K22" s="7">
-        <v>-16065</v>
+        <v>16212</v>
       </c>
       <c r="L22" s="8">
-        <v>0.14</v>
+        <v>6.96</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>26</v>
@@ -1621,129 +1633,129 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="10">
-        <v>11900</v>
-      </c>
-      <c r="D23" s="10">
-        <v>11900</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11">
-        <v>4.31</v>
-      </c>
-      <c r="G23" s="11">
-        <v>4.341</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>51289</v>
-      </c>
-      <c r="J23" s="11">
-        <v>-363.71</v>
-      </c>
-      <c r="K23" s="11">
-        <v>-1666</v>
-      </c>
-      <c r="L23" s="9">
-        <v>-0.71</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" s="9" t="s">
+      <c r="A23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="6">
+        <v>52800</v>
+      </c>
+      <c r="D23" s="6">
+        <v>52800</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>8.64</v>
+      </c>
+      <c r="G23" s="7">
+        <v>7.471</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>456192</v>
+      </c>
+      <c r="J23" s="7">
+        <v>61724.72</v>
+      </c>
+      <c r="K23" s="7">
+        <v>26928</v>
+      </c>
+      <c r="L23" s="8">
+        <v>15.65</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="B24" s="6">
+        <v>600602</v>
       </c>
       <c r="C24" s="6">
-        <v>57900</v>
+        <v>0</v>
       </c>
       <c r="D24" s="6">
-        <v>57900</v>
+        <v>0</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>7.65</v>
+        <v>8.15</v>
       </c>
       <c r="G24" s="7">
-        <v>7.414</v>
+        <v>0</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>442935</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7">
-        <v>13691.57</v>
+        <v>782.02</v>
       </c>
       <c r="K24" s="7">
-        <v>-16791</v>
+        <v>145.76</v>
       </c>
       <c r="L24" s="8">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="6">
-        <v>52800</v>
+        <v>97400</v>
       </c>
       <c r="D25" s="6">
-        <v>52800</v>
+        <v>0</v>
       </c>
       <c r="E25" s="6">
-        <v>0</v>
+        <v>97400</v>
       </c>
       <c r="F25" s="7">
-        <v>8.13</v>
+        <v>6.65</v>
       </c>
       <c r="G25" s="7">
-        <v>7.471</v>
+        <v>6.513</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>429264</v>
+        <v>647710</v>
       </c>
       <c r="J25" s="7">
-        <v>34796.72</v>
+        <v>13387.55</v>
       </c>
       <c r="K25" s="7">
-        <v>-21120</v>
+        <v>13387.55</v>
       </c>
       <c r="L25" s="8">
-        <v>8.82</v>
+        <v>2.1</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>26</v>
@@ -1754,40 +1766,40 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="6">
-        <v>600602</v>
+        <v>600676</v>
       </c>
       <c r="C26" s="6">
-        <v>3200</v>
+        <v>50100</v>
       </c>
       <c r="D26" s="6">
-        <v>3200</v>
+        <v>50100</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
       </c>
       <c r="F26" s="7">
-        <v>7.98</v>
+        <v>5.83</v>
       </c>
       <c r="G26" s="7">
-        <v>7.781</v>
+        <v>5.761</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>25536</v>
+        <v>292083</v>
       </c>
       <c r="J26" s="7">
-        <v>636.26</v>
+        <v>3455.21</v>
       </c>
       <c r="K26" s="7">
-        <v>-448</v>
+        <v>10020</v>
       </c>
       <c r="L26" s="8">
-        <v>2.56</v>
+        <v>1.2</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>24</v>
@@ -1797,217 +1809,217 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="10">
-        <v>600676</v>
-      </c>
-      <c r="C27" s="10">
-        <v>50100</v>
-      </c>
-      <c r="D27" s="10">
-        <v>50100</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" s="11">
-        <v>5.63</v>
-      </c>
-      <c r="G27" s="11">
-        <v>5.761</v>
-      </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
-        <v>282063</v>
-      </c>
-      <c r="J27" s="11">
-        <v>-6564.79</v>
-      </c>
-      <c r="K27" s="11">
-        <v>-1002</v>
-      </c>
-      <c r="L27" s="9">
-        <v>-2.27</v>
-      </c>
-      <c r="M27" s="9" t="s">
+      <c r="A27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="6">
+        <v>603912</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>26.67</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>2520.03</v>
+      </c>
+      <c r="K27" s="7">
+        <v>-397.87</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N27" s="9" t="s">
+      <c r="N27" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="6">
-        <v>603912</v>
+        <v>300383</v>
       </c>
       <c r="C28" s="6">
-        <v>1900</v>
+        <v>15</v>
       </c>
       <c r="D28" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E28" s="6">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>26.41</v>
+        <v>31.48</v>
       </c>
       <c r="G28" s="7">
-        <v>24.882</v>
+        <v>-2563.941</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>50179</v>
+        <v>472.2</v>
       </c>
       <c r="J28" s="7">
-        <v>2904.05</v>
+        <v>38931.32</v>
       </c>
       <c r="K28" s="7">
-        <v>2904.05</v>
+        <v>4396.14</v>
       </c>
       <c r="L28" s="8">
-        <v>6.14</v>
+        <v>0</v>
       </c>
       <c r="M28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="10">
+        <v>600579</v>
+      </c>
+      <c r="C29" s="10">
+        <v>24900</v>
+      </c>
+      <c r="D29" s="10">
+        <v>24900</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>6.2</v>
+      </c>
+      <c r="G29" s="11">
+        <v>6.232</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>154380</v>
+      </c>
+      <c r="J29" s="11">
+        <v>-800.27</v>
+      </c>
+      <c r="K29" s="11">
+        <v>2739</v>
+      </c>
+      <c r="L29" s="9">
+        <v>-0.51</v>
+      </c>
+      <c r="M29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N28" s="8" t="s">
+      <c r="N29" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="6">
-        <v>300383</v>
-      </c>
-      <c r="C29" s="6">
-        <v>22200</v>
-      </c>
-      <c r="D29" s="6">
-        <v>22200</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>30.6</v>
-      </c>
-      <c r="G29" s="7">
-        <v>29.044</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>679320</v>
-      </c>
-      <c r="J29" s="7">
-        <v>34535.18</v>
-      </c>
-      <c r="K29" s="7">
-        <v>10212</v>
-      </c>
-      <c r="L29" s="8">
-        <v>5.36</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="10">
-        <v>600579</v>
-      </c>
-      <c r="C30" s="10">
-        <v>24900</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0</v>
-      </c>
-      <c r="E30" s="10">
-        <v>24900</v>
-      </c>
-      <c r="F30" s="11">
-        <v>6.09</v>
-      </c>
-      <c r="G30" s="11">
-        <v>6.233</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <v>151641</v>
-      </c>
-      <c r="J30" s="11">
-        <v>-3550.6</v>
-      </c>
-      <c r="K30" s="11">
-        <v>-3550.6</v>
-      </c>
-      <c r="L30" s="9">
-        <v>-2.29</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>23</v>
+      <c r="A30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="6">
+        <v>300326</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>30.69</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>31549.28</v>
+      </c>
+      <c r="K30" s="7">
+        <v>9114.86</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="6">
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="D31" s="6">
         <v>0</v>
       </c>
       <c r="E31" s="6">
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="F31" s="7">
-        <v>15.98</v>
+        <v>18.48</v>
       </c>
       <c r="G31" s="7">
-        <v>0</v>
+        <v>18.237</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>145992</v>
       </c>
       <c r="J31" s="7">
-        <v>44815.12</v>
+        <v>1917.14</v>
       </c>
       <c r="K31" s="7">
-        <v>-19473.73</v>
+        <v>1917.14</v>
       </c>
       <c r="L31" s="8">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>26</v>
@@ -2017,85 +2029,85 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="6">
-        <v>300326</v>
-      </c>
-      <c r="C32" s="6">
-        <v>21800</v>
-      </c>
-      <c r="D32" s="6">
-        <v>21800</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7">
-        <v>28.76</v>
-      </c>
-      <c r="G32" s="7">
-        <v>27.731</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>626968</v>
-      </c>
-      <c r="J32" s="7">
-        <v>22434.42</v>
-      </c>
-      <c r="K32" s="7">
-        <v>16568</v>
-      </c>
-      <c r="L32" s="8">
-        <v>3.71</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N32" s="8" t="s">
+      <c r="A32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>6.04</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>-1117.78</v>
+      </c>
+      <c r="K32" s="11">
+        <v>-629.33</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="B33" s="10">
+        <v>300352</v>
       </c>
       <c r="C33" s="10">
-        <v>23500</v>
+        <v>4100</v>
       </c>
       <c r="D33" s="10">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="E33" s="10">
-        <v>23500</v>
+        <v>0</v>
       </c>
       <c r="F33" s="11">
-        <v>6.02</v>
+        <v>8.45</v>
       </c>
       <c r="G33" s="11">
-        <v>6.041</v>
+        <v>8.581</v>
       </c>
       <c r="H33" s="11">
         <v>0</v>
       </c>
       <c r="I33" s="11">
-        <v>141470</v>
+        <v>34645</v>
       </c>
       <c r="J33" s="11">
-        <v>-492.12</v>
+        <v>-537.57</v>
       </c>
       <c r="K33" s="11">
-        <v>-492.12</v>
+        <v>615</v>
       </c>
       <c r="L33" s="9">
-        <v>-0.35</v>
+        <v>-1.53</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>26</v>
@@ -2106,11 +2118,11 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="B34" s="6">
+        <v>300016</v>
+      </c>
       <c r="C34" s="6">
         <v>0</v>
       </c>
@@ -2121,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>20.7</v>
+        <v>12.76</v>
       </c>
       <c r="G34" s="7">
         <v>0</v>
@@ -2133,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="J34" s="7">
-        <v>10899.65</v>
+        <v>7328.92</v>
       </c>
       <c r="K34" s="7">
-        <v>-23.52</v>
+        <v>-4022.36</v>
       </c>
       <c r="L34" s="8">
         <v>0</v>
@@ -2152,38 +2164,38 @@
       <c r="A35" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="10">
-        <v>300352</v>
+      <c r="B35" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="C35" s="10">
-        <v>4100</v>
+        <v>5600</v>
       </c>
       <c r="D35" s="10">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="E35" s="10">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="11">
-        <v>8.3</v>
+        <v>9.27</v>
       </c>
       <c r="G35" s="11">
-        <v>8.581</v>
+        <v>9.361</v>
       </c>
       <c r="H35" s="11">
         <v>0</v>
       </c>
       <c r="I35" s="11">
-        <v>34030</v>
+        <v>51912</v>
       </c>
       <c r="J35" s="11">
-        <v>-1153</v>
+        <v>-510.81</v>
       </c>
       <c r="K35" s="11">
-        <v>-1153</v>
+        <v>1232</v>
       </c>
       <c r="L35" s="9">
-        <v>-3.27</v>
+        <v>-0.97</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>26</v>
@@ -2194,169 +2206,169 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B36" s="6">
-        <v>300016</v>
+        <v>511990</v>
       </c>
       <c r="C36" s="6">
-        <v>43700</v>
+        <v>6</v>
       </c>
       <c r="D36" s="6">
-        <v>43700</v>
+        <v>6</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
       </c>
       <c r="F36" s="7">
-        <v>12.53</v>
+        <v>100.01</v>
       </c>
       <c r="G36" s="7">
-        <v>12.27</v>
+        <v>-6751.737</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>547561</v>
+        <v>600.06</v>
       </c>
       <c r="J36" s="7">
-        <v>11351.28</v>
+        <v>41110.48</v>
       </c>
       <c r="K36" s="7">
-        <v>2622</v>
+        <v>-0.13</v>
       </c>
       <c r="L36" s="8">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="10">
-        <v>5600</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0</v>
-      </c>
-      <c r="E37" s="10">
-        <v>5600</v>
-      </c>
-      <c r="F37" s="11">
-        <v>9.05</v>
-      </c>
-      <c r="G37" s="11">
-        <v>9.363</v>
-      </c>
-      <c r="H37" s="11">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11">
-        <v>50680</v>
-      </c>
-      <c r="J37" s="11">
-        <v>-1751</v>
-      </c>
-      <c r="K37" s="11">
-        <v>-1751</v>
-      </c>
-      <c r="L37" s="9">
-        <v>-3.34</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>25</v>
+      <c r="B37" s="6">
+        <v>600880</v>
+      </c>
+      <c r="C37" s="6">
+        <v>68600</v>
+      </c>
+      <c r="D37" s="6">
+        <v>68600</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>5.32</v>
+      </c>
+      <c r="G37" s="7">
+        <v>4.91</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>364952</v>
+      </c>
+      <c r="J37" s="7">
+        <v>28100.48</v>
+      </c>
+      <c r="K37" s="7">
+        <v>3430</v>
+      </c>
+      <c r="L37" s="8">
+        <v>8.35</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="6">
-        <v>511990</v>
+      <c r="B38" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C38" s="6">
-        <v>6</v>
+        <v>77200</v>
       </c>
       <c r="D38" s="6">
-        <v>6</v>
+        <v>77200</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>100.031</v>
+        <v>4.9</v>
       </c>
       <c r="G38" s="7">
-        <v>-6751.737</v>
+        <v>4.513</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>600.19</v>
+        <v>378280</v>
       </c>
       <c r="J38" s="7">
-        <v>41110.61</v>
+        <v>29914.71</v>
       </c>
       <c r="K38" s="7">
-        <v>0.17</v>
+        <v>18528</v>
       </c>
       <c r="L38" s="8">
-        <v>0</v>
+        <v>8.58</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="6">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D39" s="6">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="7">
-        <v>9.71</v>
+        <v>5.05</v>
       </c>
       <c r="G39" s="7">
-        <v>0</v>
+        <v>-74.351</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>0</v>
+        <v>363.6</v>
       </c>
       <c r="J39" s="7">
-        <v>45955.06</v>
+        <v>5716.89</v>
       </c>
       <c r="K39" s="7">
-        <v>12485.77</v>
+        <v>3003.14</v>
       </c>
       <c r="L39" s="8">
         <v>0</v>
@@ -2370,40 +2382,40 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40" s="6">
-        <v>600880</v>
+        <v>600640</v>
       </c>
       <c r="C40" s="6">
-        <v>68600</v>
+        <v>800</v>
       </c>
       <c r="D40" s="6">
-        <v>68600</v>
+        <v>800</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
       </c>
       <c r="F40" s="7">
-        <v>5.27</v>
+        <v>21.75</v>
       </c>
       <c r="G40" s="7">
-        <v>4.91</v>
+        <v>20.691</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>361522</v>
+        <v>17400</v>
       </c>
       <c r="J40" s="7">
-        <v>24670.48</v>
+        <v>847.52</v>
       </c>
       <c r="K40" s="7">
-        <v>-686</v>
+        <v>488</v>
       </c>
       <c r="L40" s="8">
-        <v>7.33</v>
+        <v>5.12</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>24</v>
@@ -2414,40 +2426,40 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="6">
-        <v>77200</v>
+        <v>0</v>
       </c>
       <c r="D41" s="6">
-        <v>27400</v>
+        <v>0</v>
       </c>
       <c r="E41" s="6">
-        <v>49800</v>
+        <v>0</v>
       </c>
       <c r="F41" s="7">
-        <v>4.66</v>
+        <v>6.61</v>
       </c>
       <c r="G41" s="7">
-        <v>4.513</v>
+        <v>0</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>359752</v>
+        <v>0</v>
       </c>
       <c r="J41" s="7">
-        <v>11384.04</v>
+        <v>76977.42</v>
       </c>
       <c r="K41" s="7">
-        <v>4001.61</v>
+        <v>-7.8</v>
       </c>
       <c r="L41" s="8">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>26</v>
@@ -2458,128 +2470,128 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="8" t="s">
         <v>82</v>
       </c>
+      <c r="B42" s="6">
+        <v>603528</v>
+      </c>
       <c r="C42" s="6">
-        <v>83400</v>
+        <v>0</v>
       </c>
       <c r="D42" s="6">
         <v>0</v>
       </c>
       <c r="E42" s="6">
-        <v>83400</v>
+        <v>0</v>
       </c>
       <c r="F42" s="7">
-        <v>4.76</v>
+        <v>12.31</v>
       </c>
       <c r="G42" s="7">
-        <v>4.728</v>
+        <v>0</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>396984</v>
+        <v>0</v>
       </c>
       <c r="J42" s="7">
-        <v>2707.34</v>
+        <v>13455.97</v>
       </c>
       <c r="K42" s="7">
-        <v>2707.34</v>
+        <v>1816.99</v>
       </c>
       <c r="L42" s="8">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="6">
-        <v>600640</v>
+      <c r="B43" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C43" s="6">
-        <v>800</v>
+        <v>65900</v>
       </c>
       <c r="D43" s="6">
-        <v>800</v>
+        <v>56900</v>
       </c>
       <c r="E43" s="6">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="F43" s="7">
-        <v>21.14</v>
+        <v>10.75</v>
       </c>
       <c r="G43" s="7">
-        <v>20.691</v>
+        <v>9.308</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>16912</v>
+        <v>708425</v>
       </c>
       <c r="J43" s="7">
-        <v>359.52</v>
+        <v>95046.63</v>
       </c>
       <c r="K43" s="7">
-        <v>-712</v>
+        <v>65272.81</v>
       </c>
       <c r="L43" s="8">
-        <v>2.17</v>
+        <v>15.49</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" s="6">
-        <v>603520</v>
+        <v>601519</v>
       </c>
       <c r="C44" s="6">
-        <v>0</v>
+        <v>49200</v>
       </c>
       <c r="D44" s="6">
         <v>0</v>
       </c>
       <c r="E44" s="6">
-        <v>0</v>
+        <v>49200</v>
       </c>
       <c r="F44" s="7">
-        <v>78.52</v>
+        <v>12.4</v>
       </c>
       <c r="G44" s="7">
-        <v>0</v>
+        <v>12.264</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>0</v>
+        <v>610080</v>
       </c>
       <c r="J44" s="7">
-        <v>39433.7</v>
+        <v>6667.51</v>
       </c>
       <c r="K44" s="7">
-        <v>19346.05</v>
+        <v>6667.51</v>
       </c>
       <c r="L44" s="8">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>24</v>
@@ -2590,40 +2602,40 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" s="6">
-        <v>50</v>
+        <v>83200</v>
       </c>
       <c r="D45" s="6">
-        <v>50</v>
+        <v>83200</v>
       </c>
       <c r="E45" s="6">
         <v>0</v>
       </c>
       <c r="F45" s="7">
-        <v>6.01</v>
+        <v>4.97</v>
       </c>
       <c r="G45" s="7">
-        <v>-1533.515</v>
+        <v>4.913</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
       <c r="I45" s="7">
-        <v>300.5</v>
+        <v>413504</v>
       </c>
       <c r="J45" s="7">
-        <v>76976.27</v>
+        <v>4704.87</v>
       </c>
       <c r="K45" s="7">
-        <v>21179.35</v>
+        <v>15808</v>
       </c>
       <c r="L45" s="8">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>26</v>
@@ -2634,84 +2646,84 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="6">
-        <v>603528</v>
+        <v>88</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C46" s="6">
-        <v>6600</v>
+        <v>20600</v>
       </c>
       <c r="D46" s="6">
-        <v>6600</v>
+        <v>20600</v>
       </c>
       <c r="E46" s="6">
         <v>0</v>
       </c>
       <c r="F46" s="7">
-        <v>11.89</v>
+        <v>4.31</v>
       </c>
       <c r="G46" s="7">
-        <v>10.127</v>
+        <v>4.251</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>78474</v>
+        <v>88786</v>
       </c>
       <c r="J46" s="7">
-        <v>11638.98</v>
+        <v>1224.62</v>
       </c>
       <c r="K46" s="7">
-        <v>66</v>
+        <v>2266</v>
       </c>
       <c r="L46" s="8">
-        <v>17.41</v>
+        <v>1.39</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C47" s="6">
-        <v>65900</v>
+        <v>1100</v>
       </c>
       <c r="D47" s="6">
-        <v>65900</v>
+        <v>0</v>
       </c>
       <c r="E47" s="6">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F47" s="7">
-        <v>9.77</v>
+        <v>12.5</v>
       </c>
       <c r="G47" s="7">
-        <v>9.318</v>
+        <v>12.155</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>643843</v>
+        <v>13750</v>
       </c>
       <c r="J47" s="7">
-        <v>29773.82</v>
+        <v>380</v>
       </c>
       <c r="K47" s="7">
-        <v>-25701</v>
+        <v>380</v>
       </c>
       <c r="L47" s="8">
-        <v>4.85</v>
+        <v>2.84</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>26</v>
@@ -2721,217 +2733,217 @@
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="10">
-        <v>83200</v>
-      </c>
-      <c r="D48" s="10">
-        <v>0</v>
-      </c>
-      <c r="E48" s="10">
-        <v>83200</v>
-      </c>
-      <c r="F48" s="11">
-        <v>4.78</v>
-      </c>
-      <c r="G48" s="11">
-        <v>4.914</v>
-      </c>
-      <c r="H48" s="11">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
-        <v>397696</v>
-      </c>
-      <c r="J48" s="11">
-        <v>-11120.58</v>
-      </c>
-      <c r="K48" s="11">
-        <v>-11120.58</v>
-      </c>
-      <c r="L48" s="9">
-        <v>-2.73</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N48" s="9" t="s">
+      <c r="A48" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="6">
+        <v>76400</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>76400</v>
+      </c>
+      <c r="F48" s="7">
+        <v>6.34</v>
+      </c>
+      <c r="G48" s="7">
+        <v>6.186</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>484376</v>
+      </c>
+      <c r="J48" s="7">
+        <v>11789.58</v>
+      </c>
+      <c r="K48" s="7">
+        <v>11789.58</v>
+      </c>
+      <c r="L48" s="8">
+        <v>2.49</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="10">
-        <v>20600</v>
-      </c>
-      <c r="D49" s="10">
-        <v>20600</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11">
-        <v>4.2</v>
-      </c>
-      <c r="G49" s="11">
-        <v>4.251</v>
-      </c>
-      <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
-        <v>86520</v>
-      </c>
-      <c r="J49" s="11">
-        <v>-1041.38</v>
-      </c>
-      <c r="K49" s="11">
-        <v>-1854</v>
-      </c>
-      <c r="L49" s="9">
-        <v>-1.2</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N49" s="9" t="s">
+      <c r="A49" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="6">
+        <v>15800</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>15800</v>
+      </c>
+      <c r="F49" s="7">
+        <v>7.57</v>
+      </c>
+      <c r="G49" s="7">
+        <v>7.464</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>119606</v>
+      </c>
+      <c r="J49" s="7">
+        <v>1669.28</v>
+      </c>
+      <c r="K49" s="7">
+        <v>1669.28</v>
+      </c>
+      <c r="L49" s="8">
+        <v>1.42</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="B50" s="6">
+        <v>601011</v>
       </c>
       <c r="C50" s="6">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="D50" s="6">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
       </c>
       <c r="F50" s="7">
-        <v>5.76</v>
+        <v>4.43</v>
       </c>
       <c r="G50" s="7">
-        <v>0</v>
+        <v>4.221</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>0</v>
+        <v>79740</v>
       </c>
       <c r="J50" s="7">
-        <v>37808.63</v>
+        <v>3768.61</v>
       </c>
       <c r="K50" s="7">
-        <v>31243.01</v>
+        <v>3240</v>
       </c>
       <c r="L50" s="8">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="6">
-        <v>601011</v>
-      </c>
-      <c r="C51" s="6">
-        <v>18000</v>
-      </c>
-      <c r="D51" s="6">
-        <v>18000</v>
-      </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
-      <c r="F51" s="7">
-        <v>4.25</v>
-      </c>
-      <c r="G51" s="7">
-        <v>4.221</v>
-      </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7">
-        <v>76500</v>
-      </c>
-      <c r="J51" s="7">
-        <v>528.61</v>
-      </c>
-      <c r="K51" s="7">
-        <v>-2340</v>
-      </c>
-      <c r="L51" s="8">
-        <v>0.69</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N51" s="8" t="s">
-        <v>23</v>
+      <c r="A51" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="10">
+        <v>66700</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10">
+        <v>66700</v>
+      </c>
+      <c r="F51" s="11">
+        <v>9.46</v>
+      </c>
+      <c r="G51" s="11">
+        <v>9.782</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
+        <v>630982</v>
+      </c>
+      <c r="J51" s="11">
+        <v>-21467.21</v>
+      </c>
+      <c r="K51" s="11">
+        <v>-21467.21</v>
+      </c>
+      <c r="L51" s="9">
+        <v>-3.29</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C52" s="6">
-        <v>0</v>
+        <v>34800</v>
       </c>
       <c r="D52" s="6">
         <v>0</v>
       </c>
       <c r="E52" s="6">
-        <v>0</v>
+        <v>34800</v>
       </c>
       <c r="F52" s="7">
-        <v>12.22</v>
+        <v>17.29</v>
       </c>
       <c r="G52" s="7">
-        <v>0</v>
+        <v>16.816</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>0</v>
+        <v>601692</v>
       </c>
       <c r="J52" s="7">
-        <v>45451.74</v>
+        <v>16494.93</v>
       </c>
       <c r="K52" s="7">
-        <v>-5321.57</v>
+        <v>16494.93</v>
       </c>
       <c r="L52" s="8">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>26</v>
@@ -2942,7 +2954,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="6">
         <v>600936</v>
@@ -2957,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="7">
-        <v>4.23</v>
+        <v>4.32</v>
       </c>
       <c r="G53" s="7">
         <v>4.221</v>
@@ -2966,16 +2978,16 @@
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>2115</v>
+        <v>2160</v>
       </c>
       <c r="J53" s="7">
-        <v>4.69</v>
+        <v>49.69</v>
       </c>
       <c r="K53" s="7">
-        <v>-25</v>
+        <v>45</v>
       </c>
       <c r="L53" s="8">
-        <v>0.21</v>
+        <v>2.35</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>24</v>
@@ -2986,40 +2998,40 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="6">
         <v>300365</v>
       </c>
       <c r="C54" s="6">
-        <v>30400</v>
+        <v>0</v>
       </c>
       <c r="D54" s="6">
-        <v>30400</v>
+        <v>0</v>
       </c>
       <c r="E54" s="6">
         <v>0</v>
       </c>
       <c r="F54" s="7">
-        <v>11.66</v>
+        <v>12.15</v>
       </c>
       <c r="G54" s="7">
-        <v>11.064</v>
+        <v>0</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>354464</v>
+        <v>0</v>
       </c>
       <c r="J54" s="7">
-        <v>18121.28</v>
+        <v>22173.23</v>
       </c>
       <c r="K54" s="7">
-        <v>-8816</v>
+        <v>4051.95</v>
       </c>
       <c r="L54" s="8">
-        <v>5.39</v>
+        <v>0</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>26</v>
@@ -3030,7 +3042,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="6">
         <v>300079</v>
@@ -3045,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="7">
-        <v>5.26</v>
+        <v>5.44</v>
       </c>
       <c r="G55" s="7">
         <v>5.134</v>
@@ -3054,16 +3066,16 @@
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>494440</v>
+        <v>511360</v>
       </c>
       <c r="J55" s="7">
-        <v>11886.07</v>
+        <v>28806.07</v>
       </c>
       <c r="K55" s="7">
-        <v>-12220</v>
+        <v>16920</v>
       </c>
       <c r="L55" s="8">
-        <v>2.45</v>
+        <v>5.96</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>26</v>
@@ -3074,40 +3086,40 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C56" s="6">
-        <v>0</v>
+        <v>102500</v>
       </c>
       <c r="D56" s="6">
-        <v>0</v>
+        <v>102500</v>
       </c>
       <c r="E56" s="6">
         <v>0</v>
       </c>
       <c r="F56" s="7">
-        <v>20.3</v>
+        <v>6.52</v>
       </c>
       <c r="G56" s="7">
-        <v>0</v>
+        <v>5.994</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
       </c>
       <c r="I56" s="7">
-        <v>0</v>
+        <v>668300</v>
       </c>
       <c r="J56" s="7">
-        <v>8210.25</v>
+        <v>53925.14</v>
       </c>
       <c r="K56" s="7">
-        <v>-485.4</v>
+        <v>20500</v>
       </c>
       <c r="L56" s="8">
-        <v>0</v>
+        <v>8.78</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>26</v>
@@ -3118,40 +3130,40 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C57" s="6">
-        <v>102500</v>
+        <v>24000</v>
       </c>
       <c r="D57" s="6">
-        <v>102500</v>
+        <v>24000</v>
       </c>
       <c r="E57" s="6">
         <v>0</v>
       </c>
       <c r="F57" s="7">
-        <v>6.32</v>
+        <v>11.35</v>
       </c>
       <c r="G57" s="7">
-        <v>5.994</v>
+        <v>8.036</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>647800</v>
+        <v>272400</v>
       </c>
       <c r="J57" s="7">
-        <v>33425.14</v>
+        <v>79546.39</v>
       </c>
       <c r="K57" s="7">
-        <v>4100</v>
+        <v>20400</v>
       </c>
       <c r="L57" s="8">
-        <v>5.44</v>
+        <v>41.24</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>26</v>
@@ -3162,40 +3174,40 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="B58" s="6">
+        <v>300256</v>
       </c>
       <c r="C58" s="6">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="D58" s="6">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="E58" s="6">
         <v>0</v>
       </c>
       <c r="F58" s="7">
-        <v>10.5</v>
+        <v>7.88</v>
       </c>
       <c r="G58" s="7">
-        <v>8.036</v>
+        <v>6.909</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>252000</v>
+        <v>365632</v>
       </c>
       <c r="J58" s="7">
-        <v>59146.39</v>
+        <v>45048.11</v>
       </c>
       <c r="K58" s="7">
-        <v>-7200</v>
+        <v>27840</v>
       </c>
       <c r="L58" s="8">
-        <v>30.66</v>
+        <v>14.05</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>26</v>
@@ -3206,40 +3218,40 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="6">
-        <v>300256</v>
+        <v>109</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="C59" s="6">
-        <v>46400</v>
+        <v>118000</v>
       </c>
       <c r="D59" s="6">
-        <v>46400</v>
+        <v>118000</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>7.28</v>
+        <v>5.68</v>
       </c>
       <c r="G59" s="7">
-        <v>6.909</v>
+        <v>5.34</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>337792</v>
+        <v>670240</v>
       </c>
       <c r="J59" s="7">
-        <v>17208.11</v>
+        <v>40075.41</v>
       </c>
       <c r="K59" s="7">
-        <v>6032</v>
+        <v>43660</v>
       </c>
       <c r="L59" s="8">
-        <v>5.37</v>
+        <v>6.37</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>26</v>
@@ -3249,129 +3261,129 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="10">
-        <v>118000</v>
-      </c>
-      <c r="D60" s="10">
-        <v>118000</v>
-      </c>
-      <c r="E60" s="10">
-        <v>0</v>
-      </c>
-      <c r="F60" s="11">
-        <v>5.31</v>
-      </c>
-      <c r="G60" s="11">
-        <v>5.34</v>
-      </c>
-      <c r="H60" s="11">
-        <v>0</v>
-      </c>
-      <c r="I60" s="11">
-        <v>626580</v>
-      </c>
-      <c r="J60" s="11">
-        <v>-3584.59</v>
-      </c>
-      <c r="K60" s="11">
-        <v>-18880</v>
-      </c>
-      <c r="L60" s="9">
-        <v>-0.56</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N60" s="9" t="s">
-        <v>25</v>
+      <c r="A60" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="6">
+        <v>600583</v>
+      </c>
+      <c r="C60" s="6">
+        <v>24200</v>
+      </c>
+      <c r="D60" s="6">
+        <v>24200</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>5.09</v>
+      </c>
+      <c r="G60" s="7">
+        <v>5.027</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>123178</v>
+      </c>
+      <c r="J60" s="7">
+        <v>1517.24</v>
+      </c>
+      <c r="K60" s="7">
+        <v>2178</v>
+      </c>
+      <c r="L60" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" s="10">
-        <v>600583</v>
-      </c>
-      <c r="C61" s="10">
-        <v>24200</v>
-      </c>
-      <c r="D61" s="10">
-        <v>24200</v>
-      </c>
-      <c r="E61" s="10">
-        <v>0</v>
-      </c>
-      <c r="F61" s="11">
-        <v>5</v>
-      </c>
-      <c r="G61" s="11">
-        <v>5.027</v>
-      </c>
-      <c r="H61" s="11">
-        <v>0</v>
-      </c>
-      <c r="I61" s="11">
-        <v>121000</v>
-      </c>
-      <c r="J61" s="11">
-        <v>-660.76</v>
-      </c>
-      <c r="K61" s="11">
-        <v>-5082</v>
-      </c>
-      <c r="L61" s="9">
-        <v>-0.54</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N61" s="9" t="s">
-        <v>23</v>
+      <c r="A61" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="6">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>28.51</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <v>43056.11</v>
+      </c>
+      <c r="K61" s="7">
+        <v>8288.35</v>
+      </c>
+      <c r="L61" s="8">
+        <v>0</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="B62" s="6">
+        <v>300206</v>
       </c>
       <c r="C62" s="6">
-        <v>23800</v>
+        <v>27800</v>
       </c>
       <c r="D62" s="6">
-        <v>23800</v>
+        <v>27800</v>
       </c>
       <c r="E62" s="6">
         <v>0</v>
       </c>
       <c r="F62" s="7">
-        <v>28.05</v>
+        <v>26.9</v>
       </c>
       <c r="G62" s="7">
-        <v>26.589</v>
+        <v>23.552</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>667590</v>
+        <v>747820</v>
       </c>
       <c r="J62" s="7">
-        <v>34767.76</v>
+        <v>93062.89</v>
       </c>
       <c r="K62" s="7">
-        <v>9282</v>
+        <v>834</v>
       </c>
       <c r="L62" s="8">
-        <v>5.49</v>
+        <v>14.22</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>26</v>
@@ -3382,40 +3394,40 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B63" s="6">
-        <v>300206</v>
+        <v>115</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="C63" s="6">
-        <v>27800</v>
+        <v>0</v>
       </c>
       <c r="D63" s="6">
-        <v>27800</v>
+        <v>0</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
       </c>
       <c r="F63" s="7">
-        <v>26.87</v>
+        <v>4.98</v>
       </c>
       <c r="G63" s="7">
-        <v>23.552</v>
+        <v>0</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>746986</v>
+        <v>0</v>
       </c>
       <c r="J63" s="7">
-        <v>92228.89</v>
+        <v>10735.76</v>
       </c>
       <c r="K63" s="7">
-        <v>-7506</v>
+        <v>3399.16</v>
       </c>
       <c r="L63" s="8">
-        <v>14.09</v>
+        <v>0</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>26</v>
@@ -3426,286 +3438,286 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B64" s="6">
-        <v>600827</v>
+        <v>300002</v>
       </c>
       <c r="C64" s="6">
-        <v>0</v>
+        <v>87800</v>
       </c>
       <c r="D64" s="6">
-        <v>0</v>
+        <v>57800</v>
       </c>
       <c r="E64" s="6">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F64" s="7">
-        <v>29.01</v>
+        <v>7.55</v>
       </c>
       <c r="G64" s="7">
-        <v>0</v>
+        <v>7.188</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>0</v>
+        <v>662890</v>
       </c>
       <c r="J64" s="7">
-        <v>526733.27</v>
+        <v>31787.34</v>
       </c>
       <c r="K64" s="7">
-        <v>53515.57</v>
+        <v>16694.38</v>
       </c>
       <c r="L64" s="8">
-        <v>0</v>
+        <v>5.04</v>
       </c>
       <c r="M64" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="13">
+        <v>452000</v>
+      </c>
+      <c r="D65" s="13">
+        <v>452000</v>
+      </c>
+      <c r="E65" s="13">
+        <v>0</v>
+      </c>
+      <c r="F65" s="14">
+        <v>0</v>
+      </c>
+      <c r="G65" s="14">
+        <v>0</v>
+      </c>
+      <c r="H65" s="14">
+        <v>0</v>
+      </c>
+      <c r="I65" s="14">
+        <v>0</v>
+      </c>
+      <c r="J65" s="14">
+        <v>0</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L65" s="12">
+        <v>0</v>
+      </c>
+      <c r="M65" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N64" s="8" t="s">
+      <c r="N65" s="12" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="6">
-        <v>32700</v>
-      </c>
-      <c r="D65" s="6">
-        <v>32700</v>
-      </c>
-      <c r="E65" s="6">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7">
-        <v>4.79</v>
-      </c>
-      <c r="G65" s="7">
-        <v>4.566</v>
-      </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="7">
-        <v>156633</v>
-      </c>
-      <c r="J65" s="7">
-        <v>7336.6</v>
-      </c>
-      <c r="K65" s="7">
-        <v>1308</v>
-      </c>
-      <c r="L65" s="8">
-        <v>4.91</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N65" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B66" s="6">
-        <v>300002</v>
+        <v>600986</v>
       </c>
       <c r="C66" s="6">
-        <v>87800</v>
+        <v>39200</v>
       </c>
       <c r="D66" s="6">
-        <v>87800</v>
+        <v>39200</v>
       </c>
       <c r="E66" s="6">
         <v>0</v>
       </c>
       <c r="F66" s="7">
-        <v>7.36</v>
+        <v>6.18</v>
       </c>
       <c r="G66" s="7">
-        <v>7.188</v>
+        <v>5.775</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>646208</v>
+        <v>242256</v>
       </c>
       <c r="J66" s="7">
-        <v>15092.96</v>
+        <v>15875.04</v>
       </c>
       <c r="K66" s="7">
-        <v>7024</v>
+        <v>14504</v>
       </c>
       <c r="L66" s="8">
-        <v>2.39</v>
+        <v>7.01</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" s="13">
-        <v>438000</v>
-      </c>
-      <c r="D67" s="13">
-        <v>438000</v>
-      </c>
-      <c r="E67" s="13">
-        <v>0</v>
-      </c>
-      <c r="F67" s="14">
-        <v>0</v>
-      </c>
-      <c r="G67" s="14">
-        <v>0</v>
-      </c>
-      <c r="H67" s="14">
-        <v>0</v>
-      </c>
-      <c r="I67" s="14">
-        <v>0</v>
-      </c>
-      <c r="J67" s="14">
-        <v>0</v>
-      </c>
-      <c r="K67" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L67" s="12">
-        <v>0</v>
-      </c>
-      <c r="M67" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N67" s="12" t="s">
-        <v>23</v>
+      <c r="A67" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="6">
+        <v>4800</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
+        <v>4800</v>
+      </c>
+      <c r="F67" s="7">
+        <v>134.75</v>
+      </c>
+      <c r="G67" s="7">
+        <v>131.963</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>646800</v>
+      </c>
+      <c r="J67" s="7">
+        <v>13378.38</v>
+      </c>
+      <c r="K67" s="7">
+        <v>13378.38</v>
+      </c>
+      <c r="L67" s="8">
+        <v>2.11</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B68" s="6">
-        <v>600986</v>
+        <v>300198</v>
       </c>
       <c r="C68" s="6">
-        <v>39200</v>
+        <v>0</v>
       </c>
       <c r="D68" s="6">
         <v>0</v>
       </c>
       <c r="E68" s="6">
-        <v>39200</v>
+        <v>0</v>
       </c>
       <c r="F68" s="7">
-        <v>5.81</v>
+        <v>4.91</v>
       </c>
       <c r="G68" s="7">
-        <v>5.775</v>
+        <v>0</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>227752</v>
+        <v>0</v>
       </c>
       <c r="J68" s="7">
-        <v>1368.67</v>
+        <v>36067.87</v>
       </c>
       <c r="K68" s="7">
-        <v>1368.67</v>
+        <v>9968.93</v>
       </c>
       <c r="L68" s="8">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="M68" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="10">
+        <v>600606</v>
+      </c>
+      <c r="C69" s="10">
+        <v>67700</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="10">
+        <v>67700</v>
+      </c>
+      <c r="F69" s="11">
+        <v>8.83</v>
+      </c>
+      <c r="G69" s="11">
+        <v>8.84</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
+      </c>
+      <c r="I69" s="11">
+        <v>597791</v>
+      </c>
+      <c r="J69" s="11">
+        <v>-659.2</v>
+      </c>
+      <c r="K69" s="11">
+        <v>-659.2</v>
+      </c>
+      <c r="L69" s="9">
+        <v>-0.11</v>
+      </c>
+      <c r="M69" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N68" s="8" t="s">
+      <c r="N69" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="6">
-        <v>300198</v>
-      </c>
-      <c r="C69" s="6">
-        <v>47500</v>
-      </c>
-      <c r="D69" s="6">
-        <v>47500</v>
-      </c>
-      <c r="E69" s="6">
-        <v>0</v>
-      </c>
-      <c r="F69" s="7">
-        <v>4.77</v>
-      </c>
-      <c r="G69" s="7">
-        <v>4.221</v>
-      </c>
-      <c r="H69" s="7">
-        <v>0</v>
-      </c>
-      <c r="I69" s="7">
-        <v>226575</v>
-      </c>
-      <c r="J69" s="7">
-        <v>26098.94</v>
-      </c>
-      <c r="K69" s="7">
-        <v>11400</v>
-      </c>
-      <c r="L69" s="8">
-        <v>13.01</v>
-      </c>
-      <c r="M69" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N69" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B70" s="6">
         <v>300017</v>
       </c>
       <c r="C70" s="6">
-        <v>62400</v>
+        <v>62477</v>
       </c>
       <c r="D70" s="6">
-        <v>62400</v>
+        <v>60800</v>
       </c>
       <c r="E70" s="6">
-        <v>0</v>
+        <v>1677</v>
       </c>
       <c r="F70" s="7">
-        <v>10.26</v>
+        <v>10.94</v>
       </c>
       <c r="G70" s="7">
         <v>10.119</v>
@@ -3714,16 +3726,16 @@
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>640224</v>
+        <v>683498.38</v>
       </c>
       <c r="J70" s="7">
-        <v>8801.92</v>
+        <v>51271.4</v>
       </c>
       <c r="K70" s="7">
-        <v>-14976</v>
+        <v>42469.48</v>
       </c>
       <c r="L70" s="8">
-        <v>1.39</v>
+        <v>8.11</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>26</v>
@@ -3734,7 +3746,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B71" s="6">
         <v>300303</v>
@@ -3749,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <v>6.6</v>
+        <v>6.87</v>
       </c>
       <c r="G71" s="7">
         <v>6.404</v>
@@ -3758,16 +3770,16 @@
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>611160</v>
+        <v>636162</v>
       </c>
       <c r="J71" s="7">
-        <v>18148.69</v>
+        <v>43150.69</v>
       </c>
       <c r="K71" s="7">
-        <v>-9260</v>
+        <v>25002</v>
       </c>
       <c r="L71" s="8">
-        <v>3.06</v>
+        <v>7.28</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>26</v>
@@ -3777,129 +3789,129 @@
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B72" s="10">
+      <c r="A72" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="6">
         <v>300204</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="6">
         <v>11700</v>
       </c>
-      <c r="D72" s="10">
-        <v>0</v>
-      </c>
-      <c r="E72" s="10">
+      <c r="D72" s="6">
         <v>11700</v>
       </c>
-      <c r="F72" s="11">
-        <v>11.7</v>
-      </c>
-      <c r="G72" s="11">
-        <v>12.002</v>
-      </c>
-      <c r="H72" s="11">
-        <v>0</v>
-      </c>
-      <c r="I72" s="11">
-        <v>136890</v>
-      </c>
-      <c r="J72" s="11">
-        <v>-3539</v>
-      </c>
-      <c r="K72" s="11">
-        <v>-3539</v>
-      </c>
-      <c r="L72" s="9">
-        <v>-2.52</v>
-      </c>
-      <c r="M72" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N72" s="9" t="s">
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>12.1</v>
+      </c>
+      <c r="G72" s="7">
+        <v>12.001</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <v>141570</v>
+      </c>
+      <c r="J72" s="7">
+        <v>1152.75</v>
+      </c>
+      <c r="K72" s="7">
+        <v>4680</v>
+      </c>
+      <c r="L72" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" s="6">
-        <v>603323</v>
+        <v>128</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="C73" s="6">
-        <v>0</v>
+        <v>21900</v>
       </c>
       <c r="D73" s="6">
-        <v>0</v>
+        <v>21900</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
       </c>
       <c r="F73" s="7">
-        <v>5.04</v>
+        <v>34.96</v>
       </c>
       <c r="G73" s="7">
-        <v>0</v>
+        <v>28.372</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
       </c>
       <c r="I73" s="7">
-        <v>0</v>
+        <v>765624</v>
       </c>
       <c r="J73" s="7">
-        <v>315.85</v>
+        <v>144279.25</v>
       </c>
       <c r="K73" s="7">
-        <v>-163.02</v>
+        <v>69642</v>
       </c>
       <c r="L73" s="8">
-        <v>0</v>
+        <v>23.22</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C74" s="6">
-        <v>21900</v>
+        <v>61200</v>
       </c>
       <c r="D74" s="6">
-        <v>21900</v>
+        <v>0</v>
       </c>
       <c r="E74" s="6">
-        <v>0</v>
+        <v>61200</v>
       </c>
       <c r="F74" s="7">
-        <v>31.78</v>
+        <v>9.73</v>
       </c>
       <c r="G74" s="7">
-        <v>28.372</v>
+        <v>9.504</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
       </c>
       <c r="I74" s="7">
-        <v>695982</v>
+        <v>595476</v>
       </c>
       <c r="J74" s="7">
-        <v>74637.25</v>
+        <v>13831.6</v>
       </c>
       <c r="K74" s="7">
-        <v>63291</v>
+        <v>13831.6</v>
       </c>
       <c r="L74" s="8">
-        <v>12.01</v>
+        <v>2.38</v>
       </c>
       <c r="M74" s="8" t="s">
         <v>26</v>
@@ -3910,10 +3922,10 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C75" s="6">
         <v>32700</v>
@@ -3925,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="7">
-        <v>5.2</v>
+        <v>5.35</v>
       </c>
       <c r="G75" s="7">
         <v>5.153</v>
@@ -3934,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="I75" s="7">
-        <v>170040</v>
+        <v>174945</v>
       </c>
       <c r="J75" s="7">
-        <v>1537.11</v>
+        <v>6442.11</v>
       </c>
       <c r="K75" s="7">
-        <v>-4578</v>
+        <v>4905</v>
       </c>
       <c r="L75" s="8">
-        <v>0.91</v>
+        <v>3.82</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>26</v>
@@ -3954,40 +3966,40 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B76" s="6">
-        <v>300651</v>
+        <v>134</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C76" s="6">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="D76" s="6">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="E76" s="6">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="F76" s="7">
-        <v>37.2</v>
+        <v>77.43</v>
       </c>
       <c r="G76" s="7">
-        <v>30.373</v>
+        <v>73.429</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
       </c>
       <c r="I76" s="7">
-        <v>204600</v>
+        <v>619440</v>
       </c>
       <c r="J76" s="7">
-        <v>37551.2</v>
+        <v>32009.51</v>
       </c>
       <c r="K76" s="7">
-        <v>11110</v>
+        <v>32009.51</v>
       </c>
       <c r="L76" s="8">
-        <v>22.48</v>
+        <v>5.45</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>26</v>
@@ -3998,128 +4010,128 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B77" s="6">
-        <v>603969</v>
+        <v>300651</v>
       </c>
       <c r="C77" s="6">
-        <v>44900</v>
+        <v>0</v>
       </c>
       <c r="D77" s="6">
-        <v>44900</v>
+        <v>0</v>
       </c>
       <c r="E77" s="6">
         <v>0</v>
       </c>
       <c r="F77" s="7">
-        <v>4.62</v>
+        <v>39.2</v>
       </c>
       <c r="G77" s="7">
-        <v>4.511</v>
+        <v>0</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
       </c>
       <c r="I77" s="7">
-        <v>207438</v>
+        <v>0</v>
       </c>
       <c r="J77" s="7">
-        <v>4914.96</v>
+        <v>37563.97</v>
       </c>
       <c r="K77" s="7">
-        <v>-6286</v>
+        <v>12.77</v>
       </c>
       <c r="L77" s="8">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="B78" s="6">
+        <v>603969</v>
       </c>
       <c r="C78" s="6">
-        <v>58200</v>
+        <v>44900</v>
       </c>
       <c r="D78" s="6">
-        <v>58200</v>
+        <v>44900</v>
       </c>
       <c r="E78" s="6">
         <v>0</v>
       </c>
       <c r="F78" s="7">
-        <v>10.6</v>
+        <v>4.77</v>
       </c>
       <c r="G78" s="7">
-        <v>10.244</v>
+        <v>4.511</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
       </c>
       <c r="I78" s="7">
-        <v>616920</v>
+        <v>214173</v>
       </c>
       <c r="J78" s="7">
-        <v>20716.48</v>
-      </c>
-      <c r="K78" s="7" t="s">
-        <v>15</v>
+        <v>11649.96</v>
+      </c>
+      <c r="K78" s="7">
+        <v>6735</v>
       </c>
       <c r="L78" s="8">
-        <v>3.48</v>
+        <v>5.74</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B79" s="6">
-        <v>300261</v>
+        <v>138</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="C79" s="6">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="D79" s="6">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
       </c>
       <c r="F79" s="7">
-        <v>6.36</v>
+        <v>11.3</v>
       </c>
       <c r="G79" s="7">
-        <v>6.133</v>
+        <v>0</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
       </c>
       <c r="I79" s="7">
-        <v>66144</v>
+        <v>0</v>
       </c>
       <c r="J79" s="7">
-        <v>2361.71</v>
+        <v>38223.47</v>
       </c>
       <c r="K79" s="7">
-        <v>-3224</v>
+        <v>17506.99</v>
       </c>
       <c r="L79" s="8">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>26</v>
@@ -4130,40 +4142,40 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="B80" s="6">
+        <v>300261</v>
       </c>
       <c r="C80" s="6">
-        <v>83500</v>
+        <v>10400</v>
       </c>
       <c r="D80" s="6">
-        <v>83500</v>
+        <v>10400</v>
       </c>
       <c r="E80" s="6">
         <v>0</v>
       </c>
       <c r="F80" s="7">
-        <v>5.54</v>
+        <v>7</v>
       </c>
       <c r="G80" s="7">
-        <v>5.448</v>
+        <v>6.133</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
       </c>
       <c r="I80" s="7">
-        <v>462590</v>
+        <v>72800</v>
       </c>
       <c r="J80" s="7">
-        <v>7645.86</v>
+        <v>9017.71</v>
       </c>
       <c r="K80" s="7">
-        <v>-6680</v>
+        <v>6656</v>
       </c>
       <c r="L80" s="8">
-        <v>1.69</v>
+        <v>14.14</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>26</v>
@@ -4174,40 +4186,40 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C81" s="6">
-        <v>58000</v>
+        <v>83500</v>
       </c>
       <c r="D81" s="6">
-        <v>0</v>
+        <v>83500</v>
       </c>
       <c r="E81" s="6">
-        <v>58000</v>
+        <v>0</v>
       </c>
       <c r="F81" s="7">
-        <v>10.77</v>
+        <v>5.79</v>
       </c>
       <c r="G81" s="7">
-        <v>10.479</v>
+        <v>5.448</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
       </c>
       <c r="I81" s="7">
-        <v>624660</v>
+        <v>483465</v>
       </c>
       <c r="J81" s="7">
-        <v>16894.61</v>
+        <v>28520.86</v>
       </c>
       <c r="K81" s="7">
-        <v>16894.61</v>
+        <v>20875</v>
       </c>
       <c r="L81" s="8">
-        <v>2.78</v>
+        <v>6.28</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>26</v>
@@ -4218,128 +4230,128 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B82" s="6">
-        <v>600789</v>
+        <v>143</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="C82" s="6">
-        <v>16500</v>
+        <v>58000</v>
       </c>
       <c r="D82" s="6">
-        <v>16500</v>
+        <v>58000</v>
       </c>
       <c r="E82" s="6">
         <v>0</v>
       </c>
       <c r="F82" s="7">
-        <v>10.4</v>
+        <v>10.71</v>
       </c>
       <c r="G82" s="7">
-        <v>9.591</v>
+        <v>10.479</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
       </c>
       <c r="I82" s="7">
-        <v>171600</v>
+        <v>621180</v>
       </c>
       <c r="J82" s="7">
-        <v>13348.21</v>
+        <v>13420.59</v>
       </c>
       <c r="K82" s="7">
-        <v>-660</v>
+        <v>-3480</v>
       </c>
       <c r="L82" s="8">
-        <v>8.43</v>
+        <v>2.2</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="B83" s="6">
+        <v>600789</v>
       </c>
       <c r="C83" s="6">
-        <v>24600</v>
+        <v>0</v>
       </c>
       <c r="D83" s="6">
-        <v>24600</v>
+        <v>0</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
       </c>
       <c r="F83" s="7">
-        <v>8.66</v>
+        <v>10.86</v>
       </c>
       <c r="G83" s="7">
-        <v>8.416</v>
+        <v>0</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
       </c>
       <c r="I83" s="7">
-        <v>213036</v>
+        <v>0</v>
       </c>
       <c r="J83" s="7">
-        <v>5995.09</v>
+        <v>15632.97</v>
       </c>
       <c r="K83" s="7">
-        <v>-6888</v>
+        <v>2284.76</v>
       </c>
       <c r="L83" s="8">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B84" s="6">
-        <v>300664</v>
+        <v>146</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="C84" s="6">
-        <v>0</v>
+        <v>24600</v>
       </c>
       <c r="D84" s="6">
-        <v>0</v>
+        <v>24600</v>
       </c>
       <c r="E84" s="6">
         <v>0</v>
       </c>
       <c r="F84" s="7">
-        <v>9.45</v>
+        <v>8.88</v>
       </c>
       <c r="G84" s="7">
-        <v>0</v>
+        <v>8.416</v>
       </c>
       <c r="H84" s="7">
         <v>0</v>
       </c>
       <c r="I84" s="7">
-        <v>0</v>
+        <v>218448</v>
       </c>
       <c r="J84" s="7">
-        <v>3502.26</v>
+        <v>11407.09</v>
       </c>
       <c r="K84" s="7">
-        <v>236.03</v>
+        <v>5412</v>
       </c>
       <c r="L84" s="8">
-        <v>0</v>
+        <v>5.51</v>
       </c>
       <c r="M84" s="8" t="s">
         <v>26</v>

--- a/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
+++ b/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="136">
   <si>
     <t>资金</t>
   </si>
@@ -136,43 +136,49 @@
     <t>交易市场</t>
   </si>
   <si>
-    <t>上实发展</t>
-  </si>
-  <si>
-    <t>东方精工</t>
-  </si>
-  <si>
-    <t>002611</t>
-  </si>
-  <si>
-    <t>东方航空</t>
+    <t>TCL科技</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>上海莱士</t>
+  </si>
+  <si>
+    <t>002252</t>
+  </si>
+  <si>
+    <t>东方日升</t>
   </si>
   <si>
     <t>东方通</t>
   </si>
   <si>
-    <t>东诚药业</t>
-  </si>
-  <si>
-    <t>002675</t>
-  </si>
-  <si>
-    <t>中信重工</t>
-  </si>
-  <si>
     <t>中再资环</t>
   </si>
   <si>
-    <t>中国石油</t>
+    <t>中国中免</t>
   </si>
   <si>
     <t>中来股份</t>
   </si>
   <si>
-    <t>中钢国际</t>
-  </si>
-  <si>
-    <t>000928</t>
+    <t>中科创达</t>
+  </si>
+  <si>
+    <t>中航光电</t>
+  </si>
+  <si>
+    <t>002179</t>
+  </si>
+  <si>
+    <t>中航飞机</t>
+  </si>
+  <si>
+    <t>000768</t>
+  </si>
+  <si>
+    <t>中远海能</t>
   </si>
   <si>
     <t>中钢天源</t>
@@ -181,34 +187,31 @@
     <t>002057</t>
   </si>
   <si>
-    <t>二六三</t>
-  </si>
-  <si>
-    <t>002467</t>
-  </si>
-  <si>
-    <t>云赛智联</t>
-  </si>
-  <si>
-    <t>云铝股份</t>
-  </si>
-  <si>
-    <t>000807</t>
-  </si>
-  <si>
-    <t>交运股份</t>
-  </si>
-  <si>
-    <t>佳力图</t>
-  </si>
-  <si>
-    <t>光环新网</t>
-  </si>
-  <si>
-    <t>克劳斯</t>
-  </si>
-  <si>
-    <t>凯利泰</t>
+    <t>中钨高新</t>
+  </si>
+  <si>
+    <t>000657</t>
+  </si>
+  <si>
+    <t>云南白药</t>
+  </si>
+  <si>
+    <t>000538</t>
+  </si>
+  <si>
+    <t>云南锗业</t>
+  </si>
+  <si>
+    <t>002428</t>
+  </si>
+  <si>
+    <t>亿纬锂能</t>
+  </si>
+  <si>
+    <t>会畅通讯</t>
+  </si>
+  <si>
+    <t>冠昊生物</t>
   </si>
   <si>
     <t>凯撒文化</t>
@@ -217,79 +220,34 @@
     <t>002425</t>
   </si>
   <si>
-    <t>分众传媒</t>
-  </si>
-  <si>
-    <t>002027</t>
-  </si>
-  <si>
     <t>北信源</t>
   </si>
   <si>
-    <t>北陆药业</t>
-  </si>
-  <si>
-    <t>华宏科技</t>
-  </si>
-  <si>
-    <t>002645</t>
+    <t>北新建材</t>
+  </si>
+  <si>
+    <t>000786</t>
   </si>
   <si>
     <t>华宝添益</t>
   </si>
   <si>
-    <t>博瑞传播</t>
-  </si>
-  <si>
-    <t>友阿股份</t>
-  </si>
-  <si>
-    <t>002277</t>
-  </si>
-  <si>
-    <t>史丹利</t>
-  </si>
-  <si>
-    <t>002588</t>
-  </si>
-  <si>
-    <t>号百控股</t>
-  </si>
-  <si>
-    <t>国际医学</t>
-  </si>
-  <si>
-    <t>000516</t>
-  </si>
-  <si>
-    <t>多伦科技</t>
-  </si>
-  <si>
-    <t>大北农</t>
-  </si>
-  <si>
-    <t>002385</t>
-  </si>
-  <si>
-    <t>大智慧</t>
-  </si>
-  <si>
-    <t>大连重工</t>
-  </si>
-  <si>
-    <t>002204</t>
-  </si>
-  <si>
-    <t>天沃科技</t>
-  </si>
-  <si>
-    <t>002564</t>
-  </si>
-  <si>
-    <t>奥佳华</t>
-  </si>
-  <si>
-    <t>002614</t>
+    <t>华宝股份</t>
+  </si>
+  <si>
+    <t>华钰矿业</t>
+  </si>
+  <si>
+    <t>博思软件</t>
+  </si>
+  <si>
+    <t>四方精创</t>
+  </si>
+  <si>
+    <t>大立科技</t>
+  </si>
+  <si>
+    <t>002214</t>
   </si>
   <si>
     <t>奥特佳</t>
@@ -298,49 +256,40 @@
     <t>002239</t>
   </si>
   <si>
-    <t>安泰科技</t>
-  </si>
-  <si>
-    <t>000969</t>
-  </si>
-  <si>
-    <t>宝泰隆</t>
-  </si>
-  <si>
-    <t>山西证券</t>
-  </si>
-  <si>
-    <t>002500</t>
-  </si>
-  <si>
-    <t>广发证券</t>
-  </si>
-  <si>
-    <t>000776</t>
-  </si>
-  <si>
-    <t>广西广电</t>
-  </si>
-  <si>
-    <t>恒华科技</t>
-  </si>
-  <si>
-    <t>数码科技</t>
-  </si>
-  <si>
-    <t>新朋股份</t>
-  </si>
-  <si>
-    <t>002328</t>
-  </si>
-  <si>
-    <t>新洋丰</t>
-  </si>
-  <si>
-    <t>000902</t>
-  </si>
-  <si>
-    <t>星星科技</t>
+    <t>奥翔药业</t>
+  </si>
+  <si>
+    <t>宇信科技</t>
+  </si>
+  <si>
+    <t>尔康制药</t>
+  </si>
+  <si>
+    <t>承德露露</t>
+  </si>
+  <si>
+    <t>000848</t>
+  </si>
+  <si>
+    <t>新农股份</t>
+  </si>
+  <si>
+    <t>002942</t>
+  </si>
+  <si>
+    <t>新宙邦</t>
+  </si>
+  <si>
+    <t>新研股份</t>
+  </si>
+  <si>
+    <t>春秋航空</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>000651</t>
   </si>
   <si>
     <t>格林美</t>
@@ -349,25 +298,49 @@
     <t>002340</t>
   </si>
   <si>
-    <t>海油工程</t>
-  </si>
-  <si>
-    <t>深科技</t>
-  </si>
-  <si>
-    <t>000021</t>
+    <t>江淮汽车</t>
+  </si>
+  <si>
+    <t>海螺水泥</t>
+  </si>
+  <si>
+    <t>深振业Ａ</t>
+  </si>
+  <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t>深物业A</t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>瀚蓝环境</t>
+  </si>
+  <si>
+    <t>爱施德</t>
+  </si>
+  <si>
+    <t>002416</t>
+  </si>
+  <si>
+    <t>牧原股份</t>
+  </si>
+  <si>
+    <t>002714</t>
+  </si>
+  <si>
+    <t>王府井</t>
   </si>
   <si>
     <t>理邦仪器</t>
   </si>
   <si>
-    <t>神剑股份</t>
-  </si>
-  <si>
-    <t>002361</t>
-  </si>
-  <si>
-    <t>神州泰岳</t>
+    <t>盈峰环境</t>
+  </si>
+  <si>
+    <t>000967</t>
   </si>
   <si>
     <t>科创额度</t>
@@ -376,7 +349,19 @@
     <t>SHKCED</t>
   </si>
   <si>
-    <t>科达股份</t>
+    <t>立讯精密</t>
+  </si>
+  <si>
+    <t>002475</t>
+  </si>
+  <si>
+    <t>第一创业</t>
+  </si>
+  <si>
+    <t>002797</t>
+  </si>
+  <si>
+    <t>精测电子</t>
   </si>
   <si>
     <t>紫光国微</t>
@@ -385,7 +370,7 @@
     <t>002049</t>
   </si>
   <si>
-    <t>纳川股份</t>
+    <t>紫江企业</t>
   </si>
   <si>
     <t>绿地控股</t>
@@ -394,70 +379,49 @@
     <t>网宿科技</t>
   </si>
   <si>
-    <t>聚飞光电</t>
-  </si>
-  <si>
-    <t>舒泰神</t>
-  </si>
-  <si>
-    <t>蓝帆医疗</t>
-  </si>
-  <si>
-    <t>002382</t>
-  </si>
-  <si>
-    <t>跨境通</t>
-  </si>
-  <si>
-    <t>002640</t>
-  </si>
-  <si>
-    <t>通化金马</t>
-  </si>
-  <si>
-    <t>000766</t>
-  </si>
-  <si>
-    <t>酒鬼酒</t>
-  </si>
-  <si>
-    <t>000799</t>
-  </si>
-  <si>
-    <t>金陵体育</t>
+    <t>航发控制</t>
+  </si>
+  <si>
+    <t>000738</t>
+  </si>
+  <si>
+    <t>航天彩虹</t>
+  </si>
+  <si>
+    <t>002389</t>
+  </si>
+  <si>
+    <t>花园生物</t>
+  </si>
+  <si>
+    <t>苏试试验</t>
+  </si>
+  <si>
+    <t>英科医疗</t>
+  </si>
+  <si>
+    <t>赛意信息</t>
+  </si>
+  <si>
+    <t>迈为股份</t>
+  </si>
+  <si>
+    <t>金达威</t>
+  </si>
+  <si>
+    <t>002626</t>
   </si>
   <si>
     <t>银龙股份</t>
   </si>
   <si>
-    <t>雅化集团</t>
-  </si>
-  <si>
-    <t>002497</t>
+    <t>隆基股份</t>
   </si>
   <si>
     <t>雅本化学</t>
   </si>
   <si>
-    <t>露笑科技</t>
-  </si>
-  <si>
-    <t>002617</t>
-  </si>
-  <si>
-    <t>高鸿股份</t>
-  </si>
-  <si>
-    <t>000851</t>
-  </si>
-  <si>
-    <t>鲁抗医药</t>
-  </si>
-  <si>
-    <t>鲁西化工</t>
-  </si>
-  <si>
-    <t>000830</t>
+    <t>鼎龙股份</t>
   </si>
 </sst>
 </file>
@@ -477,12 +441,12 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFCA4949"/>
+      <color rgb="FF007AD0"/>
       <name val="SimSun"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF007AD0"/>
+      <color rgb="FFCA4949"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -849,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -929,28 +893,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>2892381.73</v>
+        <v>22428.26</v>
       </c>
       <c r="D3" s="3">
-        <v>1901735.72</v>
+        <v>372.98</v>
       </c>
       <c r="E3" s="3">
-        <v>1901735.72</v>
+        <v>372.98</v>
       </c>
       <c r="F3" s="3">
-        <v>990646.01</v>
+        <v>22055.28</v>
       </c>
       <c r="G3" s="3">
-        <v>21127512.24</v>
+        <v>19362764.39</v>
       </c>
       <c r="H3" s="3">
-        <v>23029247.96</v>
+        <v>19363137.37</v>
       </c>
       <c r="I3" s="3">
-        <v>1722900.74</v>
+        <v>-1037016.92</v>
       </c>
       <c r="J3" s="3">
-        <v>742937.54</v>
+        <v>122498.89</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1057,10 +1021,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>452000</v>
+        <v>514000</v>
       </c>
       <c r="C8" s="3">
-        <v>452000</v>
+        <v>514500</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1074,7 +1038,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>1086500</v>
+        <v>1316000</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1152,82 +1116,82 @@
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="6">
-        <v>600748</v>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="6">
-        <v>78500</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6">
-        <v>78500</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>6.1</v>
+        <v>6.62</v>
       </c>
       <c r="G12" s="7">
-        <v>5.964</v>
+        <v>0</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>478850</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7">
-        <v>10651.78</v>
+        <v>-35642.9</v>
       </c>
       <c r="K12" s="7">
-        <v>9420</v>
+        <v>3316.88</v>
       </c>
       <c r="L12" s="8">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="6">
-        <v>19400</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6">
-        <v>19400</v>
+        <v>0</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>5.22</v>
+        <v>9.49</v>
       </c>
       <c r="G13" s="7">
-        <v>5.111</v>
+        <v>0</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>101268</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7">
-        <v>2121.11</v>
+        <v>-7593.02</v>
       </c>
       <c r="K13" s="7">
-        <v>3298</v>
+        <v>-1197.53</v>
       </c>
       <c r="L13" s="8">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>26</v>
@@ -1238,134 +1202,134 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="6">
-        <v>600115</v>
+        <v>300118</v>
       </c>
       <c r="C14" s="6">
-        <v>129200</v>
+        <v>0</v>
       </c>
       <c r="D14" s="6">
-        <v>129200</v>
+        <v>0</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>4.68</v>
+        <v>15.66</v>
       </c>
       <c r="G14" s="7">
-        <v>4.671</v>
+        <v>0</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>604656</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7">
-        <v>1201.48</v>
+        <v>-59047.36</v>
       </c>
       <c r="K14" s="7">
-        <v>6460</v>
+        <v>1917.58</v>
       </c>
       <c r="L14" s="8">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="M14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="10">
+        <v>300379</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>49.3</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>128676.69</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1194.39</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="10">
+        <v>600217</v>
+      </c>
+      <c r="C16" s="10">
+        <v>8400</v>
+      </c>
+      <c r="D16" s="10">
+        <v>8400</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>5.07</v>
+      </c>
+      <c r="G16" s="11">
+        <v>4.975</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>42588</v>
+      </c>
+      <c r="J16" s="11">
+        <v>799.2</v>
+      </c>
+      <c r="K16" s="11">
+        <v>1092</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1.91</v>
+      </c>
+      <c r="M16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N16" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="6">
-        <v>300379</v>
-      </c>
-      <c r="C15" s="6">
-        <v>11700</v>
-      </c>
-      <c r="D15" s="6">
-        <v>600</v>
-      </c>
-      <c r="E15" s="6">
-        <v>11100</v>
-      </c>
-      <c r="F15" s="7">
-        <v>52.73</v>
-      </c>
-      <c r="G15" s="7">
-        <v>38.111</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>616941</v>
-      </c>
-      <c r="J15" s="7">
-        <v>171041.46</v>
-      </c>
-      <c r="K15" s="7">
-        <v>4706.73</v>
-      </c>
-      <c r="L15" s="8">
-        <v>38.36</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>21.97</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
-        <v>20199.93</v>
-      </c>
-      <c r="K16" s="7">
-        <v>4204.76</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1373,37 +1337,37 @@
         <v>47</v>
       </c>
       <c r="B17" s="10">
-        <v>601608</v>
+        <v>601888</v>
       </c>
       <c r="C17" s="10">
-        <v>46700</v>
+        <v>3400</v>
       </c>
       <c r="D17" s="10">
-        <v>46700</v>
+        <v>0</v>
       </c>
       <c r="E17" s="10">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="F17" s="11">
-        <v>4.3</v>
+        <v>188.1</v>
       </c>
       <c r="G17" s="11">
-        <v>4.323</v>
+        <v>185.813</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
       </c>
       <c r="I17" s="11">
-        <v>200810</v>
+        <v>639540</v>
       </c>
       <c r="J17" s="11">
-        <v>-1075.31</v>
+        <v>7776.32</v>
       </c>
       <c r="K17" s="11">
-        <v>1401</v>
+        <v>7776.32</v>
       </c>
       <c r="L17" s="9">
-        <v>-0.53</v>
+        <v>1.23</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>24</v>
@@ -1413,129 +1377,129 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="6">
-        <v>600217</v>
-      </c>
-      <c r="C18" s="6">
-        <v>76500</v>
-      </c>
-      <c r="D18" s="6">
-        <v>76500</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>5.26</v>
-      </c>
-      <c r="G18" s="7">
-        <v>5.143</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>402390</v>
-      </c>
-      <c r="J18" s="7">
-        <v>8977</v>
-      </c>
-      <c r="K18" s="7">
-        <v>9945</v>
-      </c>
-      <c r="L18" s="8">
-        <v>2.27</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>23</v>
+      <c r="B18" s="10">
+        <v>300393</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>6.78</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>23849.11</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-5.14</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="10">
-        <v>601857</v>
-      </c>
-      <c r="C19" s="10">
-        <v>129700</v>
-      </c>
-      <c r="D19" s="10">
-        <v>129700</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>4.63</v>
-      </c>
-      <c r="G19" s="11">
-        <v>4.673</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>600511</v>
-      </c>
-      <c r="J19" s="11">
-        <v>-5575.93</v>
-      </c>
-      <c r="K19" s="11">
-        <v>3891</v>
-      </c>
-      <c r="L19" s="9">
-        <v>-0.92</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>23</v>
+      <c r="B19" s="6">
+        <v>300496</v>
+      </c>
+      <c r="C19" s="6">
+        <v>5700</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5700</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>96.13</v>
+      </c>
+      <c r="G19" s="7">
+        <v>109.573</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>547941</v>
+      </c>
+      <c r="J19" s="7">
+        <v>-76627.18</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1824</v>
+      </c>
+      <c r="L19" s="8">
+        <v>-12.27</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="6">
-        <v>300393</v>
+      <c r="B20" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C20" s="6">
-        <v>76500</v>
+        <v>1000</v>
       </c>
       <c r="D20" s="6">
-        <v>76500</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="6">
         <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>7.54</v>
+        <v>41.77</v>
       </c>
       <c r="G20" s="7">
-        <v>7.05</v>
+        <v>42.464</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>576810</v>
+        <v>41770</v>
       </c>
       <c r="J20" s="7">
-        <v>37458.91</v>
+        <v>-693.52</v>
       </c>
       <c r="K20" s="7">
-        <v>36720</v>
+        <v>1760</v>
       </c>
       <c r="L20" s="8">
-        <v>6.95</v>
+        <v>-1.63</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>26</v>
@@ -1546,40 +1510,40 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="6">
-        <v>11900</v>
+        <v>20300</v>
       </c>
       <c r="D21" s="6">
-        <v>11900</v>
+        <v>20300</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>4.42</v>
+        <v>23.08</v>
       </c>
       <c r="G21" s="7">
-        <v>4.341</v>
+        <v>23.529</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>52598</v>
+        <v>468524</v>
       </c>
       <c r="J21" s="7">
-        <v>945.29</v>
+        <v>-9114.08</v>
       </c>
       <c r="K21" s="7">
-        <v>1309</v>
+        <v>13601</v>
       </c>
       <c r="L21" s="8">
-        <v>1.82</v>
+        <v>-1.91</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>26</v>
@@ -1590,46 +1554,46 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="8" t="s">
         <v>54</v>
       </c>
+      <c r="B22" s="6">
+        <v>600026</v>
+      </c>
       <c r="C22" s="6">
-        <v>57900</v>
+        <v>20800</v>
       </c>
       <c r="D22" s="6">
-        <v>57900</v>
+        <v>0</v>
       </c>
       <c r="E22" s="6">
-        <v>0</v>
+        <v>20800</v>
       </c>
       <c r="F22" s="7">
-        <v>7.93</v>
+        <v>7.43</v>
       </c>
       <c r="G22" s="7">
-        <v>7.414</v>
+        <v>7.553</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>459147</v>
+        <v>154544</v>
       </c>
       <c r="J22" s="7">
-        <v>29903.57</v>
+        <v>-2553.08</v>
       </c>
       <c r="K22" s="7">
-        <v>16212</v>
+        <v>-2553.08</v>
       </c>
       <c r="L22" s="8">
-        <v>6.96</v>
+        <v>-1.63</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1640,34 +1604,34 @@
         <v>56</v>
       </c>
       <c r="C23" s="6">
-        <v>52800</v>
+        <v>0</v>
       </c>
       <c r="D23" s="6">
-        <v>52800</v>
+        <v>0</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>8.64</v>
+        <v>7.35</v>
       </c>
       <c r="G23" s="7">
-        <v>7.471</v>
+        <v>0</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>456192</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7">
-        <v>61724.72</v>
+        <v>-5504.54</v>
       </c>
       <c r="K23" s="7">
-        <v>26928</v>
+        <v>-20354.11</v>
       </c>
       <c r="L23" s="8">
-        <v>15.65</v>
+        <v>0</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>26</v>
@@ -1680,82 +1644,82 @@
       <c r="A24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="6">
-        <v>600602</v>
+      <c r="B24" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C24" s="6">
-        <v>0</v>
+        <v>61300</v>
       </c>
       <c r="D24" s="6">
-        <v>0</v>
+        <v>61300</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>8.15</v>
+        <v>6.68</v>
       </c>
       <c r="G24" s="7">
-        <v>0</v>
+        <v>7.111</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>409484</v>
       </c>
       <c r="J24" s="7">
-        <v>782.02</v>
+        <v>-26416.65</v>
       </c>
       <c r="K24" s="7">
-        <v>145.76</v>
+        <v>2452</v>
       </c>
       <c r="L24" s="8">
-        <v>0</v>
+        <v>-6.06</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="6">
-        <v>97400</v>
+        <v>5500</v>
       </c>
       <c r="D25" s="6">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="E25" s="6">
-        <v>97400</v>
+        <v>0</v>
       </c>
       <c r="F25" s="7">
-        <v>6.65</v>
+        <v>106</v>
       </c>
       <c r="G25" s="7">
-        <v>6.513</v>
+        <v>109.623</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>647710</v>
+        <v>583000</v>
       </c>
       <c r="J25" s="7">
-        <v>13387.55</v>
+        <v>-19925.36</v>
       </c>
       <c r="K25" s="7">
-        <v>13387.55</v>
+        <v>10065</v>
       </c>
       <c r="L25" s="8">
-        <v>2.1</v>
+        <v>-3.3</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>26</v>
@@ -1765,126 +1729,126 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="6">
-        <v>600676</v>
-      </c>
-      <c r="C26" s="6">
-        <v>50100</v>
-      </c>
-      <c r="D26" s="6">
-        <v>50100</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>5.83</v>
-      </c>
-      <c r="G26" s="7">
-        <v>5.761</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>292083</v>
-      </c>
-      <c r="J26" s="7">
-        <v>3455.21</v>
-      </c>
-      <c r="K26" s="7">
-        <v>10020</v>
-      </c>
-      <c r="L26" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>23</v>
+      <c r="A26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="10">
+        <v>35900</v>
+      </c>
+      <c r="D26" s="10">
+        <v>35900</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>16.8</v>
+      </c>
+      <c r="G26" s="11">
+        <v>16.181</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>603120</v>
+      </c>
+      <c r="J26" s="11">
+        <v>22205.49</v>
+      </c>
+      <c r="K26" s="11">
+        <v>22258</v>
+      </c>
+      <c r="L26" s="9">
+        <v>3.83</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B27" s="6">
-        <v>603912</v>
+        <v>300014</v>
       </c>
       <c r="C27" s="6">
-        <v>0</v>
+        <v>11180</v>
       </c>
       <c r="D27" s="6">
         <v>0</v>
       </c>
       <c r="E27" s="6">
-        <v>0</v>
+        <v>11180</v>
       </c>
       <c r="F27" s="7">
-        <v>26.67</v>
+        <v>51.97</v>
       </c>
       <c r="G27" s="7">
-        <v>0</v>
+        <v>52.369</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>0</v>
+        <v>581024.6</v>
       </c>
       <c r="J27" s="7">
-        <v>2520.03</v>
+        <v>-4461.83</v>
       </c>
       <c r="K27" s="7">
-        <v>-397.87</v>
+        <v>-4461.83</v>
       </c>
       <c r="L27" s="8">
-        <v>0</v>
+        <v>-0.76</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B28" s="6">
-        <v>300383</v>
+        <v>300578</v>
       </c>
       <c r="C28" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D28" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>31.48</v>
+        <v>43.81</v>
       </c>
       <c r="G28" s="7">
-        <v>-2563.941</v>
+        <v>0</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>472.2</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7">
-        <v>38931.32</v>
+        <v>-42080.52</v>
       </c>
       <c r="K28" s="7">
-        <v>4396.14</v>
+        <v>1104.09</v>
       </c>
       <c r="L28" s="8">
         <v>0</v>
@@ -1897,85 +1861,85 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="10">
-        <v>600579</v>
-      </c>
-      <c r="C29" s="10">
-        <v>24900</v>
-      </c>
-      <c r="D29" s="10">
-        <v>24900</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <v>6.2</v>
-      </c>
-      <c r="G29" s="11">
-        <v>6.232</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>154380</v>
-      </c>
-      <c r="J29" s="11">
-        <v>-800.27</v>
-      </c>
-      <c r="K29" s="11">
-        <v>2739</v>
-      </c>
-      <c r="L29" s="9">
-        <v>-0.51</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>23</v>
+      <c r="A29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="6">
+        <v>300238</v>
+      </c>
+      <c r="C29" s="6">
+        <v>20300</v>
+      </c>
+      <c r="D29" s="6">
+        <v>20300</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>30.61</v>
+      </c>
+      <c r="G29" s="7">
+        <v>31.345</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>621383</v>
+      </c>
+      <c r="J29" s="7">
+        <v>-14915.72</v>
+      </c>
+      <c r="K29" s="7">
+        <v>23142</v>
+      </c>
+      <c r="L29" s="8">
+        <v>-2.34</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="6">
-        <v>300326</v>
+        <v>66</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C30" s="6">
-        <v>0</v>
+        <v>37800</v>
       </c>
       <c r="D30" s="6">
-        <v>0</v>
+        <v>35800</v>
       </c>
       <c r="E30" s="6">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F30" s="7">
-        <v>30.69</v>
+        <v>13.82</v>
       </c>
       <c r="G30" s="7">
-        <v>0</v>
+        <v>17.958</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>522396</v>
       </c>
       <c r="J30" s="7">
-        <v>31549.28</v>
+        <v>-156410.05</v>
       </c>
       <c r="K30" s="7">
-        <v>9114.86</v>
+        <v>-55939</v>
       </c>
       <c r="L30" s="8">
-        <v>0</v>
+        <v>-23.04</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>26</v>
@@ -1986,40 +1950,40 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="B31" s="6">
+        <v>300352</v>
       </c>
       <c r="C31" s="6">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="D31" s="6">
         <v>0</v>
       </c>
       <c r="E31" s="6">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>18.48</v>
+        <v>7.72</v>
       </c>
       <c r="G31" s="7">
-        <v>18.237</v>
+        <v>0</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>145992</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7">
-        <v>1917.14</v>
+        <v>-2543.25</v>
       </c>
       <c r="K31" s="7">
-        <v>1917.14</v>
+        <v>331.32</v>
       </c>
       <c r="L31" s="8">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>26</v>
@@ -2030,40 +1994,40 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C32" s="10">
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="D32" s="10">
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="E32" s="10">
         <v>0</v>
       </c>
       <c r="F32" s="11">
-        <v>6.04</v>
+        <v>29.79</v>
       </c>
       <c r="G32" s="11">
-        <v>0</v>
+        <v>28.998</v>
       </c>
       <c r="H32" s="11">
         <v>0</v>
       </c>
       <c r="I32" s="11">
-        <v>0</v>
+        <v>250236</v>
       </c>
       <c r="J32" s="11">
-        <v>-1117.78</v>
+        <v>6653.35</v>
       </c>
       <c r="K32" s="11">
-        <v>-629.33</v>
+        <v>10584</v>
       </c>
       <c r="L32" s="9">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>26</v>
@@ -2074,84 +2038,84 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B33" s="10">
-        <v>300352</v>
+        <v>511990</v>
       </c>
       <c r="C33" s="10">
-        <v>4100</v>
+        <v>6</v>
       </c>
       <c r="D33" s="10">
-        <v>4100</v>
+        <v>6</v>
       </c>
       <c r="E33" s="10">
         <v>0</v>
       </c>
       <c r="F33" s="11">
-        <v>8.45</v>
+        <v>100.018</v>
       </c>
       <c r="G33" s="11">
-        <v>8.581</v>
+        <v>-6751.737</v>
       </c>
       <c r="H33" s="11">
         <v>0</v>
       </c>
       <c r="I33" s="11">
-        <v>34645</v>
+        <v>600.11</v>
       </c>
       <c r="J33" s="11">
-        <v>-537.57</v>
+        <v>41110.53</v>
       </c>
       <c r="K33" s="11">
-        <v>615</v>
+        <v>-0.17</v>
       </c>
       <c r="L33" s="9">
-        <v>-1.53</v>
+        <v>0</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B34" s="6">
-        <v>300016</v>
+        <v>300741</v>
       </c>
       <c r="C34" s="6">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="D34" s="6">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>12.76</v>
+        <v>57.8</v>
       </c>
       <c r="G34" s="7">
-        <v>0</v>
+        <v>69.575</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>514420</v>
       </c>
       <c r="J34" s="7">
-        <v>7328.92</v>
+        <v>-104798.48</v>
       </c>
       <c r="K34" s="7">
-        <v>-4022.36</v>
+        <v>-8010</v>
       </c>
       <c r="L34" s="8">
-        <v>0</v>
+        <v>-16.92</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>26</v>
@@ -2161,173 +2125,173 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="10">
-        <v>5600</v>
-      </c>
-      <c r="D35" s="10">
-        <v>5600</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11">
-        <v>9.27</v>
-      </c>
-      <c r="G35" s="11">
-        <v>9.361</v>
-      </c>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
-        <v>51912</v>
-      </c>
-      <c r="J35" s="11">
-        <v>-510.81</v>
-      </c>
-      <c r="K35" s="11">
-        <v>1232</v>
-      </c>
-      <c r="L35" s="9">
-        <v>-0.97</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>25</v>
+      <c r="A35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="6">
+        <v>601020</v>
+      </c>
+      <c r="C35" s="6">
+        <v>43200</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>43200</v>
+      </c>
+      <c r="F35" s="7">
+        <v>11.67</v>
+      </c>
+      <c r="G35" s="7">
+        <v>12.057</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>504144</v>
+      </c>
+      <c r="J35" s="7">
+        <v>-16734.01</v>
+      </c>
+      <c r="K35" s="7">
+        <v>-16734.01</v>
+      </c>
+      <c r="L35" s="8">
+        <v>-3.21</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B36" s="6">
-        <v>511990</v>
+        <v>300525</v>
       </c>
       <c r="C36" s="6">
-        <v>6</v>
+        <v>15300</v>
       </c>
       <c r="D36" s="6">
-        <v>6</v>
+        <v>15300</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
       </c>
       <c r="F36" s="7">
-        <v>100.01</v>
+        <v>38.72</v>
       </c>
       <c r="G36" s="7">
-        <v>-6751.737</v>
+        <v>40.89</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>600.06</v>
+        <v>592416</v>
       </c>
       <c r="J36" s="7">
-        <v>41110.48</v>
+        <v>-33208.34</v>
       </c>
       <c r="K36" s="7">
-        <v>-0.13</v>
+        <v>-1530</v>
       </c>
       <c r="L36" s="8">
-        <v>0</v>
+        <v>-5.31</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" s="6">
-        <v>600880</v>
+        <v>300468</v>
       </c>
       <c r="C37" s="6">
-        <v>68600</v>
+        <v>0</v>
       </c>
       <c r="D37" s="6">
-        <v>68600</v>
+        <v>0</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="7">
-        <v>5.32</v>
+        <v>24</v>
       </c>
       <c r="G37" s="7">
-        <v>4.91</v>
+        <v>0</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>364952</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7">
-        <v>28100.48</v>
+        <v>-18246.99</v>
       </c>
       <c r="K37" s="7">
-        <v>3430</v>
+        <v>-6938.76</v>
       </c>
       <c r="L37" s="8">
-        <v>8.35</v>
+        <v>0</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="6">
-        <v>77200</v>
+        <v>21400</v>
       </c>
       <c r="D38" s="6">
-        <v>77200</v>
+        <v>21400</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>4.9</v>
+        <v>27.84</v>
       </c>
       <c r="G38" s="7">
-        <v>4.513</v>
+        <v>29.53</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>378280</v>
+        <v>595776</v>
       </c>
       <c r="J38" s="7">
-        <v>29914.71</v>
+        <v>-36163.14</v>
       </c>
       <c r="K38" s="7">
-        <v>18528</v>
+        <v>27178</v>
       </c>
       <c r="L38" s="8">
-        <v>8.58</v>
+        <v>-5.72</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>26</v>
@@ -2338,40 +2302,40 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="6">
-        <v>72</v>
+        <v>100000</v>
       </c>
       <c r="D39" s="6">
-        <v>72</v>
+        <v>100000</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="7">
-        <v>5.05</v>
+        <v>5.49</v>
       </c>
       <c r="G39" s="7">
-        <v>-74.351</v>
+        <v>6.182</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>363.6</v>
+        <v>549000</v>
       </c>
       <c r="J39" s="7">
-        <v>5716.89</v>
+        <v>-69209.23</v>
       </c>
       <c r="K39" s="7">
-        <v>3003.14</v>
+        <v>-19000</v>
       </c>
       <c r="L39" s="8">
-        <v>0</v>
+        <v>-11.19</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>26</v>
@@ -2381,85 +2345,85 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="6">
-        <v>600640</v>
-      </c>
-      <c r="C40" s="6">
+      <c r="A40" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="10">
+        <v>603229</v>
+      </c>
+      <c r="C40" s="10">
         <v>800</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10">
         <v>800</v>
       </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>21.75</v>
-      </c>
-      <c r="G40" s="7">
-        <v>20.691</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>17400</v>
-      </c>
-      <c r="J40" s="7">
-        <v>847.52</v>
-      </c>
-      <c r="K40" s="7">
-        <v>488</v>
-      </c>
-      <c r="L40" s="8">
-        <v>5.12</v>
-      </c>
-      <c r="M40" s="8" t="s">
+      <c r="F40" s="11">
+        <v>45.01</v>
+      </c>
+      <c r="G40" s="11">
+        <v>44.858</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>36008</v>
+      </c>
+      <c r="J40" s="11">
+        <v>121.28</v>
+      </c>
+      <c r="K40" s="11">
+        <v>121.28</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="M40" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N40" s="8" t="s">
+      <c r="N40" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="8" t="s">
         <v>81</v>
       </c>
+      <c r="B41" s="6">
+        <v>300674</v>
+      </c>
       <c r="C41" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D41" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="7">
-        <v>6.61</v>
+        <v>57.48</v>
       </c>
       <c r="G41" s="7">
-        <v>0</v>
+        <v>59.898</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>0</v>
+        <v>28740</v>
       </c>
       <c r="J41" s="7">
-        <v>76977.42</v>
+        <v>-1208.89</v>
       </c>
       <c r="K41" s="7">
-        <v>-7.8</v>
+        <v>1380</v>
       </c>
       <c r="L41" s="8">
-        <v>0</v>
+        <v>-4.04</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>26</v>
@@ -2473,7 +2437,7 @@
         <v>82</v>
       </c>
       <c r="B42" s="6">
-        <v>603528</v>
+        <v>300267</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -2485,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="7">
-        <v>12.31</v>
+        <v>4.54</v>
       </c>
       <c r="G42" s="7">
         <v>0</v>
@@ -2497,19 +2461,19 @@
         <v>0</v>
       </c>
       <c r="J42" s="7">
-        <v>13455.97</v>
+        <v>-18021.95</v>
       </c>
       <c r="K42" s="7">
-        <v>1816.99</v>
+        <v>-9895.78</v>
       </c>
       <c r="L42" s="8">
         <v>0</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2520,34 +2484,34 @@
         <v>84</v>
       </c>
       <c r="C43" s="6">
-        <v>65900</v>
+        <v>38900</v>
       </c>
       <c r="D43" s="6">
-        <v>56900</v>
+        <v>38900</v>
       </c>
       <c r="E43" s="6">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>10.75</v>
+        <v>8.42</v>
       </c>
       <c r="G43" s="7">
-        <v>9.308</v>
+        <v>8.443</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>708425</v>
+        <v>327538</v>
       </c>
       <c r="J43" s="7">
-        <v>95046.63</v>
+        <v>-892.69</v>
       </c>
       <c r="K43" s="7">
-        <v>65272.81</v>
+        <v>14393</v>
       </c>
       <c r="L43" s="8">
-        <v>15.49</v>
+        <v>-0.27</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>26</v>
@@ -2560,82 +2524,82 @@
       <c r="A44" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="6">
-        <v>601519</v>
+      <c r="B44" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="C44" s="6">
-        <v>49200</v>
+        <v>0</v>
       </c>
       <c r="D44" s="6">
         <v>0</v>
       </c>
       <c r="E44" s="6">
-        <v>49200</v>
+        <v>0</v>
       </c>
       <c r="F44" s="7">
-        <v>12.4</v>
+        <v>34.3</v>
       </c>
       <c r="G44" s="7">
-        <v>12.264</v>
+        <v>0</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>610080</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7">
-        <v>6667.51</v>
+        <v>-222.17</v>
       </c>
       <c r="K44" s="7">
-        <v>6667.51</v>
+        <v>-102.14</v>
       </c>
       <c r="L44" s="8">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="8" t="s">
         <v>87</v>
       </c>
+      <c r="B45" s="6">
+        <v>300037</v>
+      </c>
       <c r="C45" s="6">
-        <v>83200</v>
+        <v>4900</v>
       </c>
       <c r="D45" s="6">
-        <v>83200</v>
+        <v>4900</v>
       </c>
       <c r="E45" s="6">
         <v>0</v>
       </c>
       <c r="F45" s="7">
-        <v>4.97</v>
+        <v>60.79</v>
       </c>
       <c r="G45" s="7">
-        <v>4.913</v>
+        <v>64.348</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
       <c r="I45" s="7">
-        <v>413504</v>
+        <v>297871</v>
       </c>
       <c r="J45" s="7">
-        <v>4704.87</v>
+        <v>-17435.97</v>
       </c>
       <c r="K45" s="7">
-        <v>15808</v>
+        <v>4998</v>
       </c>
       <c r="L45" s="8">
-        <v>1.16</v>
+        <v>-5.53</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>26</v>
@@ -2648,38 +2612,38 @@
       <c r="A46" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>89</v>
+      <c r="B46" s="6">
+        <v>300159</v>
       </c>
       <c r="C46" s="6">
-        <v>20600</v>
+        <v>106700</v>
       </c>
       <c r="D46" s="6">
-        <v>20600</v>
+        <v>106700</v>
       </c>
       <c r="E46" s="6">
         <v>0</v>
       </c>
       <c r="F46" s="7">
-        <v>4.31</v>
+        <v>4.9</v>
       </c>
       <c r="G46" s="7">
-        <v>4.251</v>
+        <v>4.994</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>88786</v>
+        <v>522830</v>
       </c>
       <c r="J46" s="7">
-        <v>1224.62</v>
-      </c>
-      <c r="K46" s="7">
-        <v>2266</v>
+        <v>-10040.25</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="L46" s="8">
-        <v>1.39</v>
+        <v>-1.88</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>26</v>
@@ -2690,172 +2654,172 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="6">
+        <v>601021</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>38.41</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7">
+        <v>-8682.97</v>
+      </c>
+      <c r="K47" s="7">
+        <v>-487.08</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="6">
-        <v>1100</v>
-      </c>
-      <c r="D47" s="6">
-        <v>0</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1100</v>
-      </c>
-      <c r="F47" s="7">
-        <v>12.5</v>
-      </c>
-      <c r="G47" s="7">
-        <v>12.155</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>13750</v>
-      </c>
-      <c r="J47" s="7">
-        <v>380</v>
-      </c>
-      <c r="K47" s="7">
-        <v>380</v>
-      </c>
-      <c r="L47" s="8">
-        <v>2.84</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="8" t="s">
+      <c r="C48" s="10">
+        <v>10400</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
+      <c r="E48" s="10">
+        <v>10400</v>
+      </c>
+      <c r="F48" s="11">
+        <v>57.21</v>
+      </c>
+      <c r="G48" s="11">
+        <v>57.187</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>594984</v>
+      </c>
+      <c r="J48" s="11">
+        <v>236.7</v>
+      </c>
+      <c r="K48" s="11">
+        <v>236.7</v>
+      </c>
+      <c r="L48" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="6">
-        <v>76400</v>
-      </c>
-      <c r="D48" s="6">
-        <v>0</v>
-      </c>
-      <c r="E48" s="6">
-        <v>76400</v>
-      </c>
-      <c r="F48" s="7">
-        <v>6.34</v>
-      </c>
-      <c r="G48" s="7">
-        <v>6.186</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>484376</v>
-      </c>
-      <c r="J48" s="7">
-        <v>11789.58</v>
-      </c>
-      <c r="K48" s="7">
-        <v>11789.58</v>
-      </c>
-      <c r="L48" s="8">
-        <v>2.49</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="6">
-        <v>15800</v>
-      </c>
-      <c r="D49" s="6">
-        <v>0</v>
-      </c>
-      <c r="E49" s="6">
-        <v>15800</v>
-      </c>
-      <c r="F49" s="7">
-        <v>7.57</v>
-      </c>
-      <c r="G49" s="7">
-        <v>7.464</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>119606</v>
-      </c>
-      <c r="J49" s="7">
-        <v>1669.28</v>
-      </c>
-      <c r="K49" s="7">
-        <v>1669.28</v>
-      </c>
-      <c r="L49" s="8">
-        <v>1.42</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N49" s="8" t="s">
+      <c r="C49" s="10">
+        <v>118000</v>
+      </c>
+      <c r="D49" s="10">
+        <v>118000</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>5.36</v>
+      </c>
+      <c r="G49" s="11">
+        <v>5.34</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <v>632480</v>
+      </c>
+      <c r="J49" s="11">
+        <v>2315.41</v>
+      </c>
+      <c r="K49" s="11">
+        <v>35400</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50" s="6">
-        <v>601011</v>
+        <v>600418</v>
       </c>
       <c r="C50" s="6">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="D50" s="6">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
       </c>
       <c r="F50" s="7">
-        <v>4.43</v>
+        <v>9.51</v>
       </c>
       <c r="G50" s="7">
-        <v>4.221</v>
+        <v>0</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>79740</v>
+        <v>0</v>
       </c>
       <c r="J50" s="7">
-        <v>3768.61</v>
+        <v>-64511.51</v>
       </c>
       <c r="K50" s="7">
-        <v>3240</v>
+        <v>5045.53</v>
       </c>
       <c r="L50" s="8">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>24</v>
@@ -2865,349 +2829,349 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="10">
-        <v>66700</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0</v>
-      </c>
-      <c r="E51" s="10">
-        <v>66700</v>
-      </c>
-      <c r="F51" s="11">
-        <v>9.46</v>
-      </c>
-      <c r="G51" s="11">
-        <v>9.782</v>
-      </c>
-      <c r="H51" s="11">
-        <v>0</v>
-      </c>
-      <c r="I51" s="11">
-        <v>630982</v>
-      </c>
-      <c r="J51" s="11">
-        <v>-21467.21</v>
-      </c>
-      <c r="K51" s="11">
-        <v>-21467.21</v>
-      </c>
-      <c r="L51" s="9">
-        <v>-3.29</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N51" s="9" t="s">
-        <v>25</v>
+      <c r="A51" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="6">
+        <v>600585</v>
+      </c>
+      <c r="C51" s="6">
+        <v>10600</v>
+      </c>
+      <c r="D51" s="6">
+        <v>10600</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>56.99</v>
+      </c>
+      <c r="G51" s="7">
+        <v>57.803</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>604094</v>
+      </c>
+      <c r="J51" s="7">
+        <v>-8615.91</v>
+      </c>
+      <c r="K51" s="7">
+        <v>14522</v>
+      </c>
+      <c r="L51" s="8">
+        <v>-1.41</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>7.14</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>-42717.89</v>
+      </c>
+      <c r="K52" s="7">
+        <v>-10635.54</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="6">
-        <v>34800</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0</v>
-      </c>
-      <c r="E52" s="6">
-        <v>34800</v>
-      </c>
-      <c r="F52" s="7">
-        <v>17.29</v>
-      </c>
-      <c r="G52" s="7">
-        <v>16.816</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>601692</v>
-      </c>
-      <c r="J52" s="7">
-        <v>16494.93</v>
-      </c>
-      <c r="K52" s="7">
-        <v>16494.93</v>
-      </c>
-      <c r="L52" s="8">
-        <v>2.82</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N52" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="6">
-        <v>600936</v>
-      </c>
-      <c r="C53" s="6">
-        <v>500</v>
-      </c>
-      <c r="D53" s="6">
-        <v>500</v>
-      </c>
-      <c r="E53" s="6">
-        <v>0</v>
-      </c>
-      <c r="F53" s="7">
-        <v>4.32</v>
-      </c>
-      <c r="G53" s="7">
-        <v>4.221</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>2160</v>
-      </c>
-      <c r="J53" s="7">
-        <v>49.69</v>
-      </c>
-      <c r="K53" s="7">
-        <v>45</v>
-      </c>
-      <c r="L53" s="8">
-        <v>2.35</v>
-      </c>
-      <c r="M53" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N53" s="8" t="s">
-        <v>23</v>
+      <c r="C53" s="10">
+        <v>0</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+      <c r="E53" s="10">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <v>23.9</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0</v>
+      </c>
+      <c r="I53" s="11">
+        <v>0</v>
+      </c>
+      <c r="J53" s="11">
+        <v>1762.64</v>
+      </c>
+      <c r="K53" s="11">
+        <v>-16041.86</v>
+      </c>
+      <c r="L53" s="9">
+        <v>0</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B54" s="6">
-        <v>300365</v>
+        <v>600323</v>
       </c>
       <c r="C54" s="6">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="D54" s="6">
         <v>0</v>
       </c>
       <c r="E54" s="6">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="F54" s="7">
-        <v>12.15</v>
+        <v>24.85</v>
       </c>
       <c r="G54" s="7">
-        <v>0</v>
+        <v>25.621</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>0</v>
+        <v>116795</v>
       </c>
       <c r="J54" s="7">
-        <v>22173.23</v>
+        <v>-3623.4</v>
       </c>
       <c r="K54" s="7">
-        <v>4051.95</v>
+        <v>-3623.4</v>
       </c>
       <c r="L54" s="8">
-        <v>0</v>
+        <v>-3.01</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="6">
+        <v>8300</v>
+      </c>
+      <c r="D55" s="6">
+        <v>8300</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>8.07</v>
+      </c>
+      <c r="G55" s="7">
+        <v>8.635</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>66981</v>
+      </c>
+      <c r="J55" s="7">
+        <v>-4686.32</v>
+      </c>
+      <c r="K55" s="7">
+        <v>-664</v>
+      </c>
+      <c r="L55" s="8">
+        <v>-6.54</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="6">
-        <v>300079</v>
-      </c>
-      <c r="C55" s="6">
-        <v>94000</v>
-      </c>
-      <c r="D55" s="6">
-        <v>94000</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
-      <c r="F55" s="7">
-        <v>5.44</v>
-      </c>
-      <c r="G55" s="7">
-        <v>5.134</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>511360</v>
-      </c>
-      <c r="J55" s="7">
-        <v>28806.07</v>
-      </c>
-      <c r="K55" s="7">
-        <v>16920</v>
-      </c>
-      <c r="L55" s="8">
-        <v>5.96</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="6">
-        <v>102500</v>
-      </c>
-      <c r="D56" s="6">
-        <v>102500</v>
-      </c>
-      <c r="E56" s="6">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
-        <v>6.52</v>
-      </c>
-      <c r="G56" s="7">
-        <v>5.994</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>668300</v>
-      </c>
-      <c r="J56" s="7">
-        <v>53925.14</v>
-      </c>
-      <c r="K56" s="7">
-        <v>20500</v>
-      </c>
-      <c r="L56" s="8">
-        <v>8.78</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N56" s="8" t="s">
+      <c r="C56" s="10">
+        <v>6500</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+      <c r="E56" s="10">
+        <v>6500</v>
+      </c>
+      <c r="F56" s="11">
+        <v>94.48</v>
+      </c>
+      <c r="G56" s="11">
+        <v>91.551</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
+        <v>614120</v>
+      </c>
+      <c r="J56" s="11">
+        <v>19039.41</v>
+      </c>
+      <c r="K56" s="11">
+        <v>19039.41</v>
+      </c>
+      <c r="L56" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="B57" s="6">
+        <v>600859</v>
       </c>
       <c r="C57" s="6">
-        <v>24000</v>
+        <v>9400</v>
       </c>
       <c r="D57" s="6">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="E57" s="6">
-        <v>0</v>
+        <v>9400</v>
       </c>
       <c r="F57" s="7">
-        <v>11.35</v>
+        <v>57.17</v>
       </c>
       <c r="G57" s="7">
-        <v>8.036</v>
+        <v>60.608</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>272400</v>
+        <v>537398</v>
       </c>
       <c r="J57" s="7">
-        <v>79546.39</v>
+        <v>-32317.63</v>
       </c>
       <c r="K57" s="7">
-        <v>20400</v>
+        <v>-32317.63</v>
       </c>
       <c r="L57" s="8">
-        <v>41.24</v>
+        <v>-5.67</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B58" s="6">
-        <v>300256</v>
+        <v>300206</v>
       </c>
       <c r="C58" s="6">
-        <v>46400</v>
+        <v>4400</v>
       </c>
       <c r="D58" s="6">
-        <v>46400</v>
+        <v>4400</v>
       </c>
       <c r="E58" s="6">
         <v>0</v>
       </c>
       <c r="F58" s="7">
-        <v>7.88</v>
+        <v>23.4</v>
       </c>
       <c r="G58" s="7">
-        <v>6.909</v>
+        <v>24.913</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>365632</v>
+        <v>102960</v>
       </c>
       <c r="J58" s="7">
-        <v>45048.11</v>
+        <v>-6658.25</v>
       </c>
       <c r="K58" s="7">
-        <v>27840</v>
+        <v>4840</v>
       </c>
       <c r="L58" s="8">
-        <v>14.05</v>
+        <v>-6.07</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>26</v>
@@ -3218,172 +3182,172 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="6">
+        <v>56100</v>
+      </c>
+      <c r="D59" s="6">
+        <v>56100</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>8.78</v>
+      </c>
+      <c r="G59" s="7">
+        <v>8.799</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>492558</v>
+      </c>
+      <c r="J59" s="7">
+        <v>-1064.16</v>
+      </c>
+      <c r="K59" s="7">
+        <v>10659</v>
+      </c>
+      <c r="L59" s="8">
+        <v>-0.22</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B60" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="6">
-        <v>118000</v>
-      </c>
-      <c r="D59" s="6">
-        <v>118000</v>
-      </c>
-      <c r="E59" s="6">
-        <v>0</v>
-      </c>
-      <c r="F59" s="7">
-        <v>5.68</v>
-      </c>
-      <c r="G59" s="7">
-        <v>5.34</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0</v>
-      </c>
-      <c r="I59" s="7">
-        <v>670240</v>
-      </c>
-      <c r="J59" s="7">
-        <v>40075.41</v>
-      </c>
-      <c r="K59" s="7">
-        <v>43660</v>
-      </c>
-      <c r="L59" s="8">
-        <v>6.37</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="8" t="s">
+      <c r="C60" s="13">
+        <v>514500</v>
+      </c>
+      <c r="D60" s="13">
+        <v>514500</v>
+      </c>
+      <c r="E60" s="13">
+        <v>0</v>
+      </c>
+      <c r="F60" s="14">
+        <v>0</v>
+      </c>
+      <c r="G60" s="14">
+        <v>0</v>
+      </c>
+      <c r="H60" s="14">
+        <v>0</v>
+      </c>
+      <c r="I60" s="14">
+        <v>0</v>
+      </c>
+      <c r="J60" s="14">
+        <v>0</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L60" s="12">
+        <v>0</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="6">
-        <v>600583</v>
-      </c>
-      <c r="C60" s="6">
-        <v>24200</v>
-      </c>
-      <c r="D60" s="6">
-        <v>24200</v>
-      </c>
-      <c r="E60" s="6">
-        <v>0</v>
-      </c>
-      <c r="F60" s="7">
-        <v>5.09</v>
-      </c>
-      <c r="G60" s="7">
-        <v>5.027</v>
-      </c>
-      <c r="H60" s="7">
-        <v>0</v>
-      </c>
-      <c r="I60" s="7">
-        <v>123178</v>
-      </c>
-      <c r="J60" s="7">
-        <v>1517.24</v>
-      </c>
-      <c r="K60" s="7">
-        <v>2178</v>
-      </c>
-      <c r="L60" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="M60" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="8" t="s">
+      <c r="B61" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="6">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6">
-        <v>0</v>
-      </c>
-      <c r="E61" s="6">
-        <v>0</v>
-      </c>
-      <c r="F61" s="7">
-        <v>28.51</v>
-      </c>
-      <c r="G61" s="7">
-        <v>0</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>0</v>
-      </c>
-      <c r="J61" s="7">
-        <v>43056.11</v>
-      </c>
-      <c r="K61" s="7">
-        <v>8288.35</v>
-      </c>
-      <c r="L61" s="8">
-        <v>0</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N61" s="8" t="s">
+      <c r="C61" s="10">
+        <v>11000</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10">
+        <v>11000</v>
+      </c>
+      <c r="F61" s="11">
+        <v>55.16</v>
+      </c>
+      <c r="G61" s="11">
+        <v>54.221</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>606760</v>
+      </c>
+      <c r="J61" s="11">
+        <v>10326.47</v>
+      </c>
+      <c r="K61" s="11">
+        <v>10326.47</v>
+      </c>
+      <c r="L61" s="9">
+        <v>1.73</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="6">
-        <v>300206</v>
-      </c>
       <c r="C62" s="6">
-        <v>27800</v>
+        <v>57400</v>
       </c>
       <c r="D62" s="6">
-        <v>27800</v>
+        <v>57400</v>
       </c>
       <c r="E62" s="6">
         <v>0</v>
       </c>
       <c r="F62" s="7">
-        <v>26.9</v>
+        <v>10.02</v>
       </c>
       <c r="G62" s="7">
-        <v>23.552</v>
+        <v>10.881</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>747820</v>
+        <v>575148</v>
       </c>
       <c r="J62" s="7">
-        <v>93062.89</v>
+        <v>-49404.17</v>
       </c>
       <c r="K62" s="7">
-        <v>834</v>
+        <v>-21812</v>
       </c>
       <c r="L62" s="8">
-        <v>14.22</v>
+        <v>-7.91</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>26</v>
@@ -3396,38 +3360,38 @@
       <c r="A63" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>116</v>
+      <c r="B63" s="6">
+        <v>300567</v>
       </c>
       <c r="C63" s="6">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="D63" s="6">
         <v>0</v>
       </c>
       <c r="E63" s="6">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="F63" s="7">
-        <v>4.98</v>
+        <v>69.9</v>
       </c>
       <c r="G63" s="7">
-        <v>0</v>
+        <v>72.606</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>0</v>
+        <v>489300</v>
       </c>
       <c r="J63" s="7">
-        <v>10735.76</v>
+        <v>-18942</v>
       </c>
       <c r="K63" s="7">
-        <v>3399.16</v>
+        <v>-18942</v>
       </c>
       <c r="L63" s="8">
-        <v>0</v>
+        <v>-3.73</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>26</v>
@@ -3438,40 +3402,40 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="6">
-        <v>300002</v>
-      </c>
       <c r="C64" s="6">
-        <v>87800</v>
+        <v>5100</v>
       </c>
       <c r="D64" s="6">
-        <v>57800</v>
+        <v>4900</v>
       </c>
       <c r="E64" s="6">
-        <v>30000</v>
+        <v>200</v>
       </c>
       <c r="F64" s="7">
-        <v>7.55</v>
+        <v>115</v>
       </c>
       <c r="G64" s="7">
-        <v>7.188</v>
+        <v>124.059</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>662890</v>
+        <v>586500</v>
       </c>
       <c r="J64" s="7">
-        <v>31787.34</v>
+        <v>-46200.66</v>
       </c>
       <c r="K64" s="7">
-        <v>16694.38</v>
+        <v>4345.2</v>
       </c>
       <c r="L64" s="8">
-        <v>5.04</v>
+        <v>-7.3</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>26</v>
@@ -3481,85 +3445,85 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="13">
-        <v>452000</v>
-      </c>
-      <c r="D65" s="13">
-        <v>452000</v>
-      </c>
-      <c r="E65" s="13">
-        <v>0</v>
-      </c>
-      <c r="F65" s="14">
-        <v>0</v>
-      </c>
-      <c r="G65" s="14">
-        <v>0</v>
-      </c>
-      <c r="H65" s="14">
-        <v>0</v>
-      </c>
-      <c r="I65" s="14">
-        <v>0</v>
-      </c>
-      <c r="J65" s="14">
-        <v>0</v>
-      </c>
-      <c r="K65" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L65" s="12">
-        <v>0</v>
-      </c>
-      <c r="M65" s="12" t="s">
+      <c r="B65" s="6">
+        <v>600210</v>
+      </c>
+      <c r="C65" s="6">
+        <v>0</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>4.9</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7">
+        <v>-19916.88</v>
+      </c>
+      <c r="K65" s="7">
+        <v>3284.1</v>
+      </c>
+      <c r="L65" s="8">
+        <v>0</v>
+      </c>
+      <c r="M65" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N65" s="12" t="s">
+      <c r="N65" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B66" s="6">
-        <v>600986</v>
+        <v>600606</v>
       </c>
       <c r="C66" s="6">
-        <v>39200</v>
+        <v>0</v>
       </c>
       <c r="D66" s="6">
-        <v>39200</v>
+        <v>0</v>
       </c>
       <c r="E66" s="6">
         <v>0</v>
       </c>
       <c r="F66" s="7">
-        <v>6.18</v>
+        <v>7.69</v>
       </c>
       <c r="G66" s="7">
-        <v>5.775</v>
+        <v>0</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>242256</v>
+        <v>0</v>
       </c>
       <c r="J66" s="7">
-        <v>15875.04</v>
+        <v>-26032.43</v>
       </c>
       <c r="K66" s="7">
-        <v>14504</v>
+        <v>18004.19</v>
       </c>
       <c r="L66" s="8">
-        <v>7.01</v>
+        <v>0</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>24</v>
@@ -3570,134 +3534,134 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="6">
+        <v>300017</v>
+      </c>
+      <c r="C67" s="6">
+        <v>77</v>
+      </c>
+      <c r="D67" s="6">
+        <v>77</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="7">
+        <v>9.52</v>
+      </c>
+      <c r="G67" s="7">
+        <v>230.861</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>733.04</v>
+      </c>
+      <c r="J67" s="7">
+        <v>-17043.26</v>
+      </c>
+      <c r="K67" s="7">
+        <v>1597.65</v>
+      </c>
+      <c r="L67" s="8">
+        <v>-95.88</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C67" s="6">
-        <v>4800</v>
-      </c>
-      <c r="D67" s="6">
-        <v>0</v>
-      </c>
-      <c r="E67" s="6">
-        <v>4800</v>
-      </c>
-      <c r="F67" s="7">
-        <v>134.75</v>
-      </c>
-      <c r="G67" s="7">
-        <v>131.963</v>
-      </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
-      <c r="I67" s="7">
-        <v>646800</v>
-      </c>
-      <c r="J67" s="7">
-        <v>13378.38</v>
-      </c>
-      <c r="K67" s="7">
-        <v>13378.38</v>
-      </c>
-      <c r="L67" s="8">
-        <v>2.11</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N67" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="8" t="s">
+      <c r="C68" s="10">
+        <v>35400</v>
+      </c>
+      <c r="D68" s="10">
+        <v>15400</v>
+      </c>
+      <c r="E68" s="10">
+        <v>20000</v>
+      </c>
+      <c r="F68" s="11">
+        <v>17.57</v>
+      </c>
+      <c r="G68" s="11">
+        <v>16.946</v>
+      </c>
+      <c r="H68" s="11">
+        <v>0</v>
+      </c>
+      <c r="I68" s="11">
+        <v>621978</v>
+      </c>
+      <c r="J68" s="11">
+        <v>22091.08</v>
+      </c>
+      <c r="K68" s="11">
+        <v>56199</v>
+      </c>
+      <c r="L68" s="9">
+        <v>3.68</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="6">
-        <v>300198</v>
-      </c>
-      <c r="C68" s="6">
-        <v>0</v>
-      </c>
-      <c r="D68" s="6">
-        <v>0</v>
-      </c>
-      <c r="E68" s="6">
-        <v>0</v>
-      </c>
-      <c r="F68" s="7">
-        <v>4.91</v>
-      </c>
-      <c r="G68" s="7">
-        <v>0</v>
-      </c>
-      <c r="H68" s="7">
-        <v>0</v>
-      </c>
-      <c r="I68" s="7">
-        <v>0</v>
-      </c>
-      <c r="J68" s="7">
-        <v>36067.87</v>
-      </c>
-      <c r="K68" s="7">
-        <v>9968.93</v>
-      </c>
-      <c r="L68" s="8">
-        <v>0</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N68" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="10">
-        <v>600606</v>
-      </c>
-      <c r="C69" s="10">
-        <v>67700</v>
-      </c>
-      <c r="D69" s="10">
-        <v>0</v>
-      </c>
-      <c r="E69" s="10">
-        <v>67700</v>
-      </c>
-      <c r="F69" s="11">
-        <v>8.83</v>
-      </c>
-      <c r="G69" s="11">
-        <v>8.84</v>
-      </c>
-      <c r="H69" s="11">
-        <v>0</v>
-      </c>
-      <c r="I69" s="11">
-        <v>597791</v>
-      </c>
-      <c r="J69" s="11">
-        <v>-659.2</v>
-      </c>
-      <c r="K69" s="11">
-        <v>-659.2</v>
-      </c>
-      <c r="L69" s="9">
-        <v>-0.11</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N69" s="9" t="s">
-        <v>23</v>
+      <c r="C69" s="6">
+        <v>19066</v>
+      </c>
+      <c r="D69" s="6">
+        <v>19066</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>20.04</v>
+      </c>
+      <c r="G69" s="7">
+        <v>20.611</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>382082.64</v>
+      </c>
+      <c r="J69" s="7">
+        <v>-10880.66</v>
+      </c>
+      <c r="K69" s="7">
+        <v>6482.44</v>
+      </c>
+      <c r="L69" s="8">
+        <v>-2.77</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3705,37 +3669,37 @@
         <v>125</v>
       </c>
       <c r="B70" s="6">
-        <v>300017</v>
+        <v>300401</v>
       </c>
       <c r="C70" s="6">
-        <v>62477</v>
+        <v>100</v>
       </c>
       <c r="D70" s="6">
-        <v>60800</v>
+        <v>100</v>
       </c>
       <c r="E70" s="6">
-        <v>1677</v>
+        <v>0</v>
       </c>
       <c r="F70" s="7">
-        <v>10.94</v>
+        <v>14.97</v>
       </c>
       <c r="G70" s="7">
-        <v>10.119</v>
+        <v>16.302</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>683498.38</v>
+        <v>1497</v>
       </c>
       <c r="J70" s="7">
-        <v>51271.4</v>
+        <v>-133.21</v>
       </c>
       <c r="K70" s="7">
-        <v>42469.48</v>
+        <v>-8</v>
       </c>
       <c r="L70" s="8">
-        <v>8.11</v>
+        <v>-8.17</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>26</v>
@@ -3749,37 +3713,37 @@
         <v>126</v>
       </c>
       <c r="B71" s="6">
-        <v>300303</v>
+        <v>300416</v>
       </c>
       <c r="C71" s="6">
-        <v>92600</v>
+        <v>4200</v>
       </c>
       <c r="D71" s="6">
-        <v>92600</v>
+        <v>4200</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <v>6.87</v>
+        <v>23.34</v>
       </c>
       <c r="G71" s="7">
-        <v>6.404</v>
+        <v>23.979</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>636162</v>
+        <v>98028</v>
       </c>
       <c r="J71" s="7">
-        <v>43150.69</v>
+        <v>-2684.09</v>
       </c>
       <c r="K71" s="7">
-        <v>25002</v>
+        <v>2310</v>
       </c>
       <c r="L71" s="8">
-        <v>7.28</v>
+        <v>-2.66</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>26</v>
@@ -3793,37 +3757,37 @@
         <v>127</v>
       </c>
       <c r="B72" s="6">
-        <v>300204</v>
+        <v>300677</v>
       </c>
       <c r="C72" s="6">
-        <v>11700</v>
+        <v>3700</v>
       </c>
       <c r="D72" s="6">
-        <v>11700</v>
+        <v>3700</v>
       </c>
       <c r="E72" s="6">
         <v>0</v>
       </c>
       <c r="F72" s="7">
-        <v>12.1</v>
+        <v>161.92</v>
       </c>
       <c r="G72" s="7">
-        <v>12.001</v>
+        <v>174.725</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>141570</v>
+        <v>599104</v>
       </c>
       <c r="J72" s="7">
-        <v>1152.75</v>
+        <v>-47379.04</v>
       </c>
       <c r="K72" s="7">
-        <v>4680</v>
+        <v>14504</v>
       </c>
       <c r="L72" s="8">
-        <v>0.82</v>
+        <v>-7.33</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>26</v>
@@ -3836,38 +3800,38 @@
       <c r="A73" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>129</v>
+      <c r="B73" s="6">
+        <v>300687</v>
       </c>
       <c r="C73" s="6">
-        <v>21900</v>
+        <v>10400</v>
       </c>
       <c r="D73" s="6">
-        <v>21900</v>
+        <v>10400</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
       </c>
       <c r="F73" s="7">
-        <v>34.96</v>
+        <v>21.47</v>
       </c>
       <c r="G73" s="7">
-        <v>28.372</v>
+        <v>24.389</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
       </c>
       <c r="I73" s="7">
-        <v>765624</v>
+        <v>223288</v>
       </c>
       <c r="J73" s="7">
-        <v>144279.25</v>
+        <v>-30357.97</v>
       </c>
       <c r="K73" s="7">
-        <v>69642</v>
+        <v>-4368</v>
       </c>
       <c r="L73" s="8">
-        <v>23.22</v>
+        <v>-11.97</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>26</v>
@@ -3878,485 +3842,265 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="6">
+        <v>300751</v>
+      </c>
+      <c r="C74" s="6">
+        <v>500</v>
+      </c>
+      <c r="D74" s="6">
+        <v>500</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>299</v>
+      </c>
+      <c r="G74" s="7">
+        <v>336.602</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="7">
+        <v>149500</v>
+      </c>
+      <c r="J74" s="7">
+        <v>-18800.88</v>
+      </c>
+      <c r="K74" s="7">
+        <v>-5165</v>
+      </c>
+      <c r="L74" s="8">
+        <v>-11.17</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B75" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="6">
-        <v>61200</v>
-      </c>
-      <c r="D74" s="6">
-        <v>0</v>
-      </c>
-      <c r="E74" s="6">
-        <v>61200</v>
-      </c>
-      <c r="F74" s="7">
-        <v>9.73</v>
-      </c>
-      <c r="G74" s="7">
-        <v>9.504</v>
-      </c>
-      <c r="H74" s="7">
-        <v>0</v>
-      </c>
-      <c r="I74" s="7">
-        <v>595476</v>
-      </c>
-      <c r="J74" s="7">
-        <v>13831.6</v>
-      </c>
-      <c r="K74" s="7">
-        <v>13831.6</v>
-      </c>
-      <c r="L74" s="8">
-        <v>2.38</v>
-      </c>
-      <c r="M74" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N74" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C75" s="6">
-        <v>32700</v>
-      </c>
-      <c r="D75" s="6">
-        <v>32700</v>
-      </c>
-      <c r="E75" s="6">
-        <v>0</v>
-      </c>
-      <c r="F75" s="7">
-        <v>5.35</v>
-      </c>
-      <c r="G75" s="7">
-        <v>5.153</v>
-      </c>
-      <c r="H75" s="7">
-        <v>0</v>
-      </c>
-      <c r="I75" s="7">
-        <v>174945</v>
-      </c>
-      <c r="J75" s="7">
-        <v>6442.11</v>
-      </c>
-      <c r="K75" s="7">
-        <v>4905</v>
-      </c>
-      <c r="L75" s="8">
+      <c r="C75" s="10">
+        <v>14300</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0</v>
+      </c>
+      <c r="E75" s="10">
+        <v>14300</v>
+      </c>
+      <c r="F75" s="11">
+        <v>44.8</v>
+      </c>
+      <c r="G75" s="11">
+        <v>43.153</v>
+      </c>
+      <c r="H75" s="11">
+        <v>0</v>
+      </c>
+      <c r="I75" s="11">
+        <v>640640</v>
+      </c>
+      <c r="J75" s="11">
+        <v>23552.09</v>
+      </c>
+      <c r="K75" s="11">
+        <v>23552.09</v>
+      </c>
+      <c r="L75" s="9">
         <v>3.82</v>
       </c>
-      <c r="M75" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N75" s="8" t="s">
+      <c r="M75" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="6">
+        <v>603969</v>
+      </c>
+      <c r="C76" s="6">
+        <v>0</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>3.93</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7">
+        <v>-5977.32</v>
+      </c>
+      <c r="K76" s="7">
+        <v>-20.28</v>
+      </c>
+      <c r="L76" s="8">
+        <v>0</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N76" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" s="10">
+        <v>601012</v>
+      </c>
+      <c r="C77" s="10">
+        <v>12700</v>
+      </c>
+      <c r="D77" s="10">
+        <v>0</v>
+      </c>
+      <c r="E77" s="10">
+        <v>12700</v>
+      </c>
+      <c r="F77" s="11">
+        <v>46.26</v>
+      </c>
+      <c r="G77" s="11">
+        <v>45.538</v>
+      </c>
+      <c r="H77" s="11">
+        <v>0</v>
+      </c>
+      <c r="I77" s="11">
+        <v>587502</v>
+      </c>
+      <c r="J77" s="11">
+        <v>9175.21</v>
+      </c>
+      <c r="K77" s="11">
+        <v>9175.21</v>
+      </c>
+      <c r="L77" s="9">
+        <v>1.59</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="6">
-        <v>8000</v>
-      </c>
-      <c r="D76" s="6">
-        <v>0</v>
-      </c>
-      <c r="E76" s="6">
-        <v>8000</v>
-      </c>
-      <c r="F76" s="7">
-        <v>77.43</v>
-      </c>
-      <c r="G76" s="7">
-        <v>73.429</v>
-      </c>
-      <c r="H76" s="7">
-        <v>0</v>
-      </c>
-      <c r="I76" s="7">
-        <v>619440</v>
-      </c>
-      <c r="J76" s="7">
-        <v>32009.51</v>
-      </c>
-      <c r="K76" s="7">
-        <v>32009.51</v>
-      </c>
-      <c r="L76" s="8">
-        <v>5.45</v>
-      </c>
-      <c r="M76" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N76" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="6">
-        <v>300651</v>
-      </c>
-      <c r="C77" s="6">
-        <v>0</v>
-      </c>
-      <c r="D77" s="6">
-        <v>0</v>
-      </c>
-      <c r="E77" s="6">
-        <v>0</v>
-      </c>
-      <c r="F77" s="7">
-        <v>39.2</v>
-      </c>
-      <c r="G77" s="7">
-        <v>0</v>
-      </c>
-      <c r="H77" s="7">
-        <v>0</v>
-      </c>
-      <c r="I77" s="7">
-        <v>0</v>
-      </c>
-      <c r="J77" s="7">
-        <v>37563.97</v>
-      </c>
-      <c r="K77" s="7">
-        <v>12.77</v>
-      </c>
-      <c r="L77" s="8">
-        <v>0</v>
-      </c>
-      <c r="M77" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N77" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B78" s="6">
-        <v>603969</v>
-      </c>
-      <c r="C78" s="6">
-        <v>44900</v>
-      </c>
-      <c r="D78" s="6">
-        <v>44900</v>
-      </c>
-      <c r="E78" s="6">
-        <v>0</v>
-      </c>
-      <c r="F78" s="7">
-        <v>4.77</v>
-      </c>
-      <c r="G78" s="7">
-        <v>4.511</v>
-      </c>
-      <c r="H78" s="7">
-        <v>0</v>
-      </c>
-      <c r="I78" s="7">
-        <v>214173</v>
-      </c>
-      <c r="J78" s="7">
-        <v>11649.96</v>
-      </c>
-      <c r="K78" s="7">
-        <v>6735</v>
-      </c>
-      <c r="L78" s="8">
-        <v>5.74</v>
-      </c>
-      <c r="M78" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N78" s="8" t="s">
-        <v>23</v>
+      <c r="B78" s="10">
+        <v>300261</v>
+      </c>
+      <c r="C78" s="10">
+        <v>10400</v>
+      </c>
+      <c r="D78" s="10">
+        <v>7400</v>
+      </c>
+      <c r="E78" s="10">
+        <v>3000</v>
+      </c>
+      <c r="F78" s="11">
+        <v>6.85</v>
+      </c>
+      <c r="G78" s="11">
+        <v>6.143</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0</v>
+      </c>
+      <c r="I78" s="11">
+        <v>71240</v>
+      </c>
+      <c r="J78" s="11">
+        <v>7349.07</v>
+      </c>
+      <c r="K78" s="11">
+        <v>-7906.62</v>
+      </c>
+      <c r="L78" s="9">
+        <v>11.51</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
+      </c>
+      <c r="B79" s="6">
+        <v>300054</v>
       </c>
       <c r="C79" s="6">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="D79" s="6">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
       </c>
       <c r="F79" s="7">
-        <v>11.3</v>
+        <v>17.74</v>
       </c>
       <c r="G79" s="7">
-        <v>0</v>
+        <v>21.331</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
       </c>
       <c r="I79" s="7">
-        <v>0</v>
+        <v>532200</v>
       </c>
       <c r="J79" s="7">
-        <v>38223.47</v>
+        <v>-107715.19</v>
       </c>
       <c r="K79" s="7">
-        <v>17506.99</v>
+        <v>1200</v>
       </c>
       <c r="L79" s="8">
-        <v>0</v>
+        <v>-16.83</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>26</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B80" s="6">
-        <v>300261</v>
-      </c>
-      <c r="C80" s="6">
-        <v>10400</v>
-      </c>
-      <c r="D80" s="6">
-        <v>10400</v>
-      </c>
-      <c r="E80" s="6">
-        <v>0</v>
-      </c>
-      <c r="F80" s="7">
-        <v>7</v>
-      </c>
-      <c r="G80" s="7">
-        <v>6.133</v>
-      </c>
-      <c r="H80" s="7">
-        <v>0</v>
-      </c>
-      <c r="I80" s="7">
-        <v>72800</v>
-      </c>
-      <c r="J80" s="7">
-        <v>9017.71</v>
-      </c>
-      <c r="K80" s="7">
-        <v>6656</v>
-      </c>
-      <c r="L80" s="8">
-        <v>14.14</v>
-      </c>
-      <c r="M80" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N80" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C81" s="6">
-        <v>83500</v>
-      </c>
-      <c r="D81" s="6">
-        <v>83500</v>
-      </c>
-      <c r="E81" s="6">
-        <v>0</v>
-      </c>
-      <c r="F81" s="7">
-        <v>5.79</v>
-      </c>
-      <c r="G81" s="7">
-        <v>5.448</v>
-      </c>
-      <c r="H81" s="7">
-        <v>0</v>
-      </c>
-      <c r="I81" s="7">
-        <v>483465</v>
-      </c>
-      <c r="J81" s="7">
-        <v>28520.86</v>
-      </c>
-      <c r="K81" s="7">
-        <v>20875</v>
-      </c>
-      <c r="L81" s="8">
-        <v>6.28</v>
-      </c>
-      <c r="M81" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N81" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C82" s="6">
-        <v>58000</v>
-      </c>
-      <c r="D82" s="6">
-        <v>58000</v>
-      </c>
-      <c r="E82" s="6">
-        <v>0</v>
-      </c>
-      <c r="F82" s="7">
-        <v>10.71</v>
-      </c>
-      <c r="G82" s="7">
-        <v>10.479</v>
-      </c>
-      <c r="H82" s="7">
-        <v>0</v>
-      </c>
-      <c r="I82" s="7">
-        <v>621180</v>
-      </c>
-      <c r="J82" s="7">
-        <v>13420.59</v>
-      </c>
-      <c r="K82" s="7">
-        <v>-3480</v>
-      </c>
-      <c r="L82" s="8">
-        <v>2.2</v>
-      </c>
-      <c r="M82" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N82" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B83" s="6">
-        <v>600789</v>
-      </c>
-      <c r="C83" s="6">
-        <v>0</v>
-      </c>
-      <c r="D83" s="6">
-        <v>0</v>
-      </c>
-      <c r="E83" s="6">
-        <v>0</v>
-      </c>
-      <c r="F83" s="7">
-        <v>10.86</v>
-      </c>
-      <c r="G83" s="7">
-        <v>0</v>
-      </c>
-      <c r="H83" s="7">
-        <v>0</v>
-      </c>
-      <c r="I83" s="7">
-        <v>0</v>
-      </c>
-      <c r="J83" s="7">
-        <v>15632.97</v>
-      </c>
-      <c r="K83" s="7">
-        <v>2284.76</v>
-      </c>
-      <c r="L83" s="8">
-        <v>0</v>
-      </c>
-      <c r="M83" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N83" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C84" s="6">
-        <v>24600</v>
-      </c>
-      <c r="D84" s="6">
-        <v>24600</v>
-      </c>
-      <c r="E84" s="6">
-        <v>0</v>
-      </c>
-      <c r="F84" s="7">
-        <v>8.88</v>
-      </c>
-      <c r="G84" s="7">
-        <v>8.416</v>
-      </c>
-      <c r="H84" s="7">
-        <v>0</v>
-      </c>
-      <c r="I84" s="7">
-        <v>218448</v>
-      </c>
-      <c r="J84" s="7">
-        <v>11407.09</v>
-      </c>
-      <c r="K84" s="7">
-        <v>5412</v>
-      </c>
-      <c r="L84" s="8">
-        <v>5.51</v>
-      </c>
-      <c r="M84" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N84" s="8" t="s">
         <v>25</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
+++ b/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="161">
   <si>
     <t>资金</t>
   </si>
@@ -151,7 +151,10 @@
     <t>中再资环</t>
   </si>
   <si>
-    <t>中国中免</t>
+    <t>中国长城</t>
+  </si>
+  <si>
+    <t>000066</t>
   </si>
   <si>
     <t>中航光电</t>
@@ -160,10 +163,7 @@
     <t>002179</t>
   </si>
   <si>
-    <t>中钨高新</t>
-  </si>
-  <si>
-    <t>000657</t>
+    <t>中金黄金</t>
   </si>
   <si>
     <t>乐普医疗</t>
@@ -190,9 +190,6 @@
     <t>000401</t>
   </si>
   <si>
-    <t>冠昊生物</t>
-  </si>
-  <si>
     <t>凯撒文化</t>
   </si>
   <si>
@@ -229,6 +226,12 @@
     <t>000948</t>
   </si>
   <si>
+    <t>南山控股</t>
+  </si>
+  <si>
+    <t>002314</t>
+  </si>
+  <si>
     <t>博思软件</t>
   </si>
   <si>
@@ -244,6 +247,9 @@
     <t>000875</t>
   </si>
   <si>
+    <t>嘉化能源</t>
+  </si>
+  <si>
     <t>国海证券</t>
   </si>
   <si>
@@ -253,6 +259,9 @@
     <t>国网信通</t>
   </si>
   <si>
+    <t>复星医药</t>
+  </si>
+  <si>
     <t>大立科技</t>
   </si>
   <si>
@@ -271,9 +280,6 @@
     <t>000829</t>
   </si>
   <si>
-    <t>宇信科技</t>
-  </si>
-  <si>
     <t>宏川智慧</t>
   </si>
   <si>
@@ -301,6 +307,12 @@
     <t>000733</t>
   </si>
   <si>
+    <t>新乳业</t>
+  </si>
+  <si>
+    <t>002946</t>
+  </si>
+  <si>
     <t>新安股份</t>
   </si>
   <si>
@@ -334,7 +346,10 @@
     <t>浙江龙盛</t>
   </si>
   <si>
-    <t>海螺水泥</t>
+    <t>海南发展</t>
+  </si>
+  <si>
+    <t>002163</t>
   </si>
   <si>
     <t>湖南黄金</t>
@@ -346,6 +361,12 @@
     <t>滨化股份</t>
   </si>
   <si>
+    <t>燕京啤酒</t>
+  </si>
+  <si>
+    <t>000729</t>
+  </si>
+  <si>
     <t>爱施德</t>
   </si>
   <si>
@@ -403,6 +424,9 @@
     <t>苏试配债</t>
   </si>
   <si>
+    <t>英唐智控</t>
+  </si>
+  <si>
     <t>英科医疗</t>
   </si>
   <si>
@@ -430,31 +454,40 @@
     <t>赛意信息</t>
   </si>
   <si>
+    <t>超华科技</t>
+  </si>
+  <si>
+    <t>002288</t>
+  </si>
+  <si>
+    <t>越秀金控</t>
+  </si>
+  <si>
+    <t>000987</t>
+  </si>
+  <si>
     <t>跨境通</t>
   </si>
   <si>
     <t>002640</t>
   </si>
   <si>
-    <t>通威股份</t>
-  </si>
-  <si>
     <t>金新农</t>
   </si>
   <si>
     <t>002548</t>
   </si>
   <si>
+    <t>锦龙股份</t>
+  </si>
+  <si>
+    <t>000712</t>
+  </si>
+  <si>
     <t>阳光电源</t>
   </si>
   <si>
     <t>雅本化学</t>
-  </si>
-  <si>
-    <t>青农商行</t>
-  </si>
-  <si>
-    <t>002958</t>
   </si>
   <si>
     <t>鲁西化工</t>
@@ -855,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -935,28 +968,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>3190817.1</v>
+        <v>1029</v>
       </c>
       <c r="D3" s="3">
-        <v>314.29</v>
+        <v>1932774.04</v>
       </c>
       <c r="E3" s="3">
-        <v>314.29</v>
+        <v>1029</v>
       </c>
       <c r="F3" s="3">
-        <v>3190502.81</v>
+        <v>-1931745.04</v>
       </c>
       <c r="G3" s="3">
-        <v>22330960.75</v>
+        <v>20571425.97</v>
       </c>
       <c r="H3" s="3">
-        <v>22331275.04</v>
+        <v>22504200.01</v>
       </c>
       <c r="I3" s="3">
-        <v>35243.37</v>
+        <v>67498.58</v>
       </c>
       <c r="J3" s="3">
-        <v>155250.03</v>
+        <v>172210.26</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1063,10 +1096,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>548000</v>
+        <v>550000</v>
       </c>
       <c r="C8" s="3">
-        <v>548000</v>
+        <v>550500</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1080,7 +1113,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>1485000</v>
+        <v>1481000</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1162,34 +1195,34 @@
         <v>41</v>
       </c>
       <c r="C12" s="6">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>8.28</v>
+        <v>8.09</v>
       </c>
       <c r="G12" s="7">
-        <v>7.967</v>
+        <v>0</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>58788</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7">
-        <v>2224.65</v>
+        <v>2090.91</v>
       </c>
       <c r="K12" s="7">
-        <v>-1207</v>
+        <v>-133.74</v>
       </c>
       <c r="L12" s="8">
-        <v>3.93</v>
+        <v>0</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>26</v>
@@ -1199,46 +1232,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="6">
         <v>300118</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="6">
         <v>54500</v>
       </c>
-      <c r="D13" s="10">
-        <v>34800</v>
-      </c>
-      <c r="E13" s="10">
-        <v>19700</v>
-      </c>
-      <c r="F13" s="11">
-        <v>18.43</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="D13" s="6">
+        <v>54500</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>19</v>
+      </c>
+      <c r="G13" s="7">
         <v>18.512</v>
       </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>1004435</v>
-      </c>
-      <c r="J13" s="11">
-        <v>-4483.58</v>
-      </c>
-      <c r="K13" s="11">
-        <v>-8991.04</v>
-      </c>
-      <c r="L13" s="9">
-        <v>-0.44</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="9" t="s">
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1035500</v>
+      </c>
+      <c r="J13" s="7">
+        <v>26581.42</v>
+      </c>
+      <c r="K13" s="7">
+        <v>31065</v>
+      </c>
+      <c r="L13" s="8">
+        <v>2.64</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1253,31 +1286,31 @@
         <v>51400</v>
       </c>
       <c r="D14" s="6">
-        <v>51400</v>
+        <v>49000</v>
       </c>
       <c r="E14" s="6">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F14" s="7">
-        <v>12.02</v>
+        <v>12.05</v>
       </c>
       <c r="G14" s="7">
-        <v>11.759</v>
+        <v>11.761</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>617828</v>
+        <v>619370</v>
       </c>
       <c r="J14" s="7">
-        <v>13401.77</v>
+        <v>14879.62</v>
       </c>
       <c r="K14" s="7">
-        <v>3598</v>
+        <v>1477.85</v>
       </c>
       <c r="L14" s="8">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>24</v>
@@ -1303,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>5.4</v>
+        <v>5.48</v>
       </c>
       <c r="G15" s="7">
         <v>4.975</v>
@@ -1312,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>45360</v>
+        <v>46032</v>
       </c>
       <c r="J15" s="7">
-        <v>3571.2</v>
+        <v>4243.2</v>
       </c>
       <c r="K15" s="7">
-        <v>1512</v>
+        <v>672</v>
       </c>
       <c r="L15" s="8">
-        <v>8.54</v>
+        <v>10.15</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>24</v>
@@ -1331,85 +1364,85 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="6">
-        <v>601888</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>206.61</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
-        <v>42386.62</v>
-      </c>
-      <c r="K16" s="7">
-        <v>4339.82</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>23</v>
+      <c r="B16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="10">
+        <v>35400</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>35400</v>
+      </c>
+      <c r="F16" s="11">
+        <v>17.22</v>
+      </c>
+      <c r="G16" s="11">
+        <v>17.337</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>609588</v>
+      </c>
+      <c r="J16" s="11">
+        <v>-4141.77</v>
+      </c>
+      <c r="K16" s="11">
+        <v>-4141.77</v>
+      </c>
+      <c r="L16" s="9">
+        <v>-0.67</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D17" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>45.59</v>
+        <v>46.07</v>
       </c>
       <c r="G17" s="7">
-        <v>42.464</v>
+        <v>0</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>45590</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7">
-        <v>3126.48</v>
+        <v>3565.39</v>
       </c>
       <c r="K17" s="7">
-        <v>2250</v>
+        <v>438.91</v>
       </c>
       <c r="L17" s="8">
-        <v>7.36</v>
+        <v>0</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>26</v>
@@ -1420,46 +1453,46 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="9" t="s">
         <v>49</v>
       </c>
+      <c r="B18" s="10">
+        <v>600489</v>
+      </c>
       <c r="C18" s="10">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
       </c>
       <c r="E18" s="10">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F18" s="11">
-        <v>7.22</v>
+        <v>11</v>
       </c>
       <c r="G18" s="11">
-        <v>0</v>
+        <v>11.095</v>
       </c>
       <c r="H18" s="11">
         <v>0</v>
       </c>
       <c r="I18" s="11">
-        <v>0</v>
+        <v>330000</v>
       </c>
       <c r="J18" s="11">
-        <v>-4810.81</v>
+        <v>-2835.89</v>
       </c>
       <c r="K18" s="11">
-        <v>5667.84</v>
+        <v>-2835.89</v>
       </c>
       <c r="L18" s="9">
-        <v>0</v>
+        <v>-0.86</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1473,31 +1506,31 @@
         <v>8400</v>
       </c>
       <c r="D19" s="6">
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="E19" s="6">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>44.85</v>
+        <v>45.2</v>
       </c>
       <c r="G19" s="7">
-        <v>44.569</v>
+        <v>44.563</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>376740</v>
+        <v>379680</v>
       </c>
       <c r="J19" s="7">
-        <v>2361.16</v>
+        <v>5353.34</v>
       </c>
       <c r="K19" s="7">
-        <v>2361.16</v>
+        <v>2940</v>
       </c>
       <c r="L19" s="8">
-        <v>0.63</v>
+        <v>1.43</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>26</v>
@@ -1523,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>16.35</v>
+        <v>16.85</v>
       </c>
       <c r="G20" s="7">
         <v>16.181</v>
@@ -1532,16 +1565,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>586965</v>
+        <v>604915</v>
       </c>
       <c r="J20" s="7">
-        <v>6050.49</v>
+        <v>24000.49</v>
       </c>
       <c r="K20" s="7">
-        <v>3590</v>
+        <v>17950</v>
       </c>
       <c r="L20" s="8">
-        <v>1.04</v>
+        <v>4.13</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>26</v>
@@ -1558,34 +1591,34 @@
         <v>300014</v>
       </c>
       <c r="C21" s="10">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D21" s="10">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E21" s="10">
         <v>0</v>
       </c>
       <c r="F21" s="11">
-        <v>56.5</v>
+        <v>59.14</v>
       </c>
       <c r="G21" s="11">
-        <v>84.762</v>
+        <v>0</v>
       </c>
       <c r="H21" s="11">
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <v>4520</v>
+        <v>0</v>
       </c>
       <c r="J21" s="11">
-        <v>-2260.97</v>
+        <v>-2336.02</v>
       </c>
       <c r="K21" s="11">
-        <v>246.4</v>
+        <v>-75.05</v>
       </c>
       <c r="L21" s="9">
-        <v>-33.34</v>
+        <v>0</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>26</v>
@@ -1605,31 +1638,31 @@
         <v>7600</v>
       </c>
       <c r="D22" s="10">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="E22" s="10">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="F22" s="11">
-        <v>16.43</v>
+        <v>16.19</v>
       </c>
       <c r="G22" s="11">
-        <v>16.476</v>
+        <v>16.47</v>
       </c>
       <c r="H22" s="11">
         <v>0</v>
       </c>
       <c r="I22" s="11">
-        <v>124868</v>
+        <v>123044</v>
       </c>
       <c r="J22" s="11">
-        <v>-348</v>
+        <v>-2128.29</v>
       </c>
       <c r="K22" s="11">
-        <v>-348</v>
+        <v>-1824</v>
       </c>
       <c r="L22" s="9">
-        <v>-0.28</v>
+        <v>-1.7</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>26</v>
@@ -1646,34 +1679,34 @@
         <v>57</v>
       </c>
       <c r="C23" s="10">
-        <v>30800</v>
+        <v>0</v>
       </c>
       <c r="D23" s="10">
-        <v>30800</v>
+        <v>0</v>
       </c>
       <c r="E23" s="10">
         <v>0</v>
       </c>
       <c r="F23" s="11">
-        <v>19</v>
+        <v>19.26</v>
       </c>
       <c r="G23" s="11">
-        <v>19.504</v>
+        <v>0</v>
       </c>
       <c r="H23" s="11">
         <v>0</v>
       </c>
       <c r="I23" s="11">
-        <v>585200</v>
+        <v>0</v>
       </c>
       <c r="J23" s="11">
-        <v>-15521.84</v>
+        <v>-10215.13</v>
       </c>
       <c r="K23" s="11">
-        <v>-10780</v>
+        <v>5306.71</v>
       </c>
       <c r="L23" s="9">
-        <v>-2.58</v>
+        <v>0</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>26</v>
@@ -1683,134 +1716,134 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="6">
-        <v>300238</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>34.02</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7">
-        <v>50819.23</v>
-      </c>
-      <c r="K24" s="7">
-        <v>-20028.31</v>
-      </c>
-      <c r="L24" s="8">
-        <v>0</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" s="8" t="s">
+      <c r="B24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="10">
+        <v>37800</v>
+      </c>
+      <c r="D24" s="10">
+        <v>37800</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>14.72</v>
+      </c>
+      <c r="G24" s="11">
+        <v>17.913</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>556416</v>
+      </c>
+      <c r="J24" s="11">
+        <v>-120712.15</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="9">
+        <v>-17.83</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="10">
-        <v>37800</v>
-      </c>
-      <c r="D25" s="10">
-        <v>37800</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11">
-        <v>14.72</v>
-      </c>
-      <c r="G25" s="11">
-        <v>17.913</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>556416</v>
-      </c>
-      <c r="J25" s="11">
-        <v>-120712.15</v>
-      </c>
-      <c r="K25" s="11">
-        <v>6426</v>
-      </c>
-      <c r="L25" s="9">
-        <v>-17.83</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N25" s="9" t="s">
+      <c r="B25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>6.32</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>3581.99</v>
+      </c>
+      <c r="K25" s="7">
+        <v>-5695.31</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="6">
-        <v>99100</v>
-      </c>
-      <c r="D26" s="6">
-        <v>99100</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>6.28</v>
-      </c>
-      <c r="G26" s="7">
-        <v>6.186</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>622348</v>
-      </c>
-      <c r="J26" s="7">
-        <v>9277.3</v>
-      </c>
-      <c r="K26" s="7">
-        <v>20811</v>
-      </c>
-      <c r="L26" s="8">
-        <v>1.52</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" s="8" t="s">
+      <c r="B26" s="10">
+        <v>300083</v>
+      </c>
+      <c r="C26" s="10">
+        <v>25500</v>
+      </c>
+      <c r="D26" s="10">
+        <v>25500</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>8.88</v>
+      </c>
+      <c r="G26" s="11">
+        <v>9.307</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>226440</v>
+      </c>
+      <c r="J26" s="11">
+        <v>-10879.85</v>
+      </c>
+      <c r="K26" s="11">
+        <v>-8415</v>
+      </c>
+      <c r="L26" s="9">
+        <v>-4.59</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1818,38 +1851,38 @@
       <c r="A27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="10">
-        <v>300083</v>
+      <c r="B27" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="C27" s="10">
-        <v>25500</v>
+        <v>29600</v>
       </c>
       <c r="D27" s="10">
-        <v>0</v>
+        <v>29600</v>
       </c>
       <c r="E27" s="10">
-        <v>25500</v>
+        <v>0</v>
       </c>
       <c r="F27" s="11">
-        <v>9.21</v>
+        <v>12.29</v>
       </c>
       <c r="G27" s="11">
-        <v>9.307</v>
+        <v>12.584</v>
       </c>
       <c r="H27" s="11">
         <v>0</v>
       </c>
       <c r="I27" s="11">
-        <v>234855</v>
+        <v>363784</v>
       </c>
       <c r="J27" s="11">
-        <v>-2465.86</v>
+        <v>-8706.42</v>
       </c>
       <c r="K27" s="11">
-        <v>-2465.86</v>
+        <v>-1480</v>
       </c>
       <c r="L27" s="9">
-        <v>-1.04</v>
+        <v>-2.34</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>26</v>
@@ -1859,91 +1892,91 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="10">
-        <v>29600</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0</v>
-      </c>
-      <c r="E28" s="10">
-        <v>29600</v>
-      </c>
-      <c r="F28" s="11">
-        <v>12.34</v>
-      </c>
-      <c r="G28" s="11">
-        <v>12.585</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
-        <v>365264</v>
-      </c>
-      <c r="J28" s="11">
-        <v>-7261.42</v>
-      </c>
-      <c r="K28" s="11">
-        <v>-7261.42</v>
-      </c>
-      <c r="L28" s="9">
-        <v>-1.95</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>25</v>
+      <c r="B28" s="6">
+        <v>511990</v>
+      </c>
+      <c r="C28" s="6">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6">
+        <v>6</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>100.011</v>
+      </c>
+      <c r="G28" s="7">
+        <v>-6751.737</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>600.07</v>
+      </c>
+      <c r="J28" s="7">
+        <v>41110.49</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="6">
-        <v>511990</v>
-      </c>
-      <c r="C29" s="6">
-        <v>6</v>
-      </c>
-      <c r="D29" s="6">
-        <v>6</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>100.011</v>
-      </c>
-      <c r="G29" s="7">
-        <v>-6751.737</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>600.07</v>
-      </c>
-      <c r="J29" s="7">
-        <v>41110.49</v>
-      </c>
-      <c r="K29" s="7">
-        <v>-0.04</v>
-      </c>
-      <c r="L29" s="8">
-        <v>0</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>23</v>
+      <c r="B29" s="10">
+        <v>300741</v>
+      </c>
+      <c r="C29" s="10">
+        <v>8900</v>
+      </c>
+      <c r="D29" s="10">
+        <v>8900</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>63.51</v>
+      </c>
+      <c r="G29" s="11">
+        <v>69.575</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>565239</v>
+      </c>
+      <c r="J29" s="11">
+        <v>-53979.48</v>
+      </c>
+      <c r="K29" s="11">
+        <v>14329</v>
+      </c>
+      <c r="L29" s="9">
+        <v>-8.72</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1951,136 +1984,136 @@
         <v>67</v>
       </c>
       <c r="B30" s="10">
-        <v>300741</v>
+        <v>603128</v>
       </c>
       <c r="C30" s="10">
-        <v>8900</v>
+        <v>64900</v>
       </c>
       <c r="D30" s="10">
-        <v>8900</v>
+        <v>64900</v>
       </c>
       <c r="E30" s="10">
         <v>0</v>
       </c>
       <c r="F30" s="11">
-        <v>61.9</v>
+        <v>8.91</v>
       </c>
       <c r="G30" s="11">
-        <v>69.575</v>
+        <v>9.253</v>
       </c>
       <c r="H30" s="11">
         <v>0</v>
       </c>
       <c r="I30" s="11">
-        <v>550910</v>
+        <v>578259</v>
       </c>
       <c r="J30" s="11">
-        <v>-68308.48</v>
+        <v>-22287.13</v>
       </c>
       <c r="K30" s="11">
-        <v>13350</v>
+        <v>1298</v>
       </c>
       <c r="L30" s="9">
-        <v>-11.03</v>
+        <v>-3.71</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="10">
-        <v>603128</v>
+      <c r="B31" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="C31" s="10">
-        <v>64900</v>
+        <v>16300</v>
       </c>
       <c r="D31" s="10">
-        <v>64900</v>
+        <v>16300</v>
       </c>
       <c r="E31" s="10">
         <v>0</v>
       </c>
       <c r="F31" s="11">
-        <v>8.89</v>
+        <v>13.95</v>
       </c>
       <c r="G31" s="11">
-        <v>9.253</v>
+        <v>14.001</v>
       </c>
       <c r="H31" s="11">
         <v>0</v>
       </c>
       <c r="I31" s="11">
-        <v>576961</v>
+        <v>227385</v>
       </c>
       <c r="J31" s="11">
-        <v>-23585.13</v>
+        <v>-827.66</v>
       </c>
       <c r="K31" s="11">
-        <v>-9086</v>
+        <v>-4075</v>
       </c>
       <c r="L31" s="9">
-        <v>-3.92</v>
+        <v>-0.36</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="6">
-        <v>16300</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6">
-        <v>16300</v>
-      </c>
-      <c r="F32" s="7">
-        <v>14.2</v>
-      </c>
-      <c r="G32" s="7">
-        <v>14.004</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>231460</v>
-      </c>
-      <c r="J32" s="7">
-        <v>3192</v>
-      </c>
-      <c r="K32" s="7">
-        <v>3192</v>
-      </c>
-      <c r="L32" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N32" s="8" t="s">
+      <c r="B32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="11">
+        <v>4.47</v>
+      </c>
+      <c r="G32" s="11">
+        <v>4.505</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>4470</v>
+      </c>
+      <c r="J32" s="11">
+        <v>-35</v>
+      </c>
+      <c r="K32" s="11">
+        <v>-35</v>
+      </c>
+      <c r="L32" s="9">
+        <v>-0.78</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B33" s="10">
         <v>300525</v>
@@ -2095,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="11">
-        <v>39.51</v>
+        <v>41.1</v>
       </c>
       <c r="G33" s="11">
         <v>74.924</v>
@@ -2104,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="I33" s="11">
-        <v>71118</v>
+        <v>73980</v>
       </c>
       <c r="J33" s="11">
-        <v>-63745.54</v>
+        <v>-60883.54</v>
       </c>
       <c r="K33" s="11">
-        <v>4878</v>
+        <v>2862</v>
       </c>
       <c r="L33" s="9">
-        <v>-47.27</v>
+        <v>-45.14</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>26</v>
@@ -2124,10 +2157,10 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="6">
         <v>3500</v>
@@ -2139,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>17.42</v>
+        <v>17.51</v>
       </c>
       <c r="G34" s="7">
         <v>17.35</v>
@@ -2148,16 +2181,16 @@
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>60970</v>
+        <v>61285</v>
       </c>
       <c r="J34" s="7">
-        <v>244.11</v>
+        <v>559.11</v>
       </c>
       <c r="K34" s="7">
-        <v>35</v>
+        <v>315</v>
       </c>
       <c r="L34" s="8">
-        <v>0.4</v>
+        <v>0.92</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>26</v>
@@ -2168,10 +2201,10 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="10">
         <v>78100</v>
@@ -2183,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="11">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="G35" s="11">
         <v>4.534</v>
@@ -2192,16 +2225,16 @@
         <v>0</v>
       </c>
       <c r="I35" s="11">
-        <v>343640</v>
+        <v>335830</v>
       </c>
       <c r="J35" s="11">
-        <v>-10439.02</v>
+        <v>-18249.02</v>
       </c>
       <c r="K35" s="11">
         <v>-7810</v>
       </c>
       <c r="L35" s="9">
-        <v>-2.96</v>
+        <v>-5.16</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>26</v>
@@ -2212,134 +2245,134 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="B36" s="10">
+        <v>600273</v>
+      </c>
       <c r="C36" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F36" s="11">
+        <v>11.75</v>
+      </c>
+      <c r="G36" s="11">
+        <v>12.023</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>23500</v>
+      </c>
+      <c r="J36" s="11">
+        <v>-545.48</v>
+      </c>
+      <c r="K36" s="11">
+        <v>-545.48</v>
+      </c>
+      <c r="L36" s="9">
+        <v>-2.27</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="10">
         <v>103600</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D37" s="10">
         <v>103600</v>
       </c>
-      <c r="E36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11">
-        <v>5.89</v>
-      </c>
-      <c r="G36" s="11">
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>5.97</v>
+      </c>
+      <c r="G37" s="11">
         <v>6.053</v>
       </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>610204</v>
-      </c>
-      <c r="J36" s="11">
-        <v>-16895.3</v>
-      </c>
-      <c r="K36" s="11">
-        <v>-11396</v>
-      </c>
-      <c r="L36" s="9">
-        <v>-2.69</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="6">
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>618492</v>
+      </c>
+      <c r="J37" s="11">
+        <v>-8607.3</v>
+      </c>
+      <c r="K37" s="11">
+        <v>8288</v>
+      </c>
+      <c r="L37" s="9">
+        <v>-1.37</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="6">
         <v>600131</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C38" s="6">
         <v>19400</v>
       </c>
-      <c r="D37" s="6">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6">
+      <c r="D38" s="6">
         <v>19400</v>
       </c>
-      <c r="F37" s="7">
-        <v>23.02</v>
-      </c>
-      <c r="G37" s="7">
-        <v>22.068</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>446588</v>
-      </c>
-      <c r="J37" s="7">
-        <v>18466.76</v>
-      </c>
-      <c r="K37" s="7">
-        <v>18466.76</v>
-      </c>
-      <c r="L37" s="8">
-        <v>4.31</v>
-      </c>
-      <c r="M37" s="8" t="s">
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>23.17</v>
+      </c>
+      <c r="G38" s="7">
+        <v>22.067</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>449498</v>
+      </c>
+      <c r="J38" s="7">
+        <v>21392.8</v>
+      </c>
+      <c r="K38" s="7">
+        <v>2910</v>
+      </c>
+      <c r="L38" s="8">
+        <v>5</v>
+      </c>
+      <c r="M38" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N37" s="8" t="s">
+      <c r="N38" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="10">
-        <v>21400</v>
-      </c>
-      <c r="D38" s="10">
-        <v>21400</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0</v>
-      </c>
-      <c r="F38" s="11">
-        <v>29.1</v>
-      </c>
-      <c r="G38" s="11">
-        <v>29.53</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
-        <v>622740</v>
-      </c>
-      <c r="J38" s="11">
-        <v>-9199.14</v>
-      </c>
-      <c r="K38" s="11">
-        <v>-1926</v>
-      </c>
-      <c r="L38" s="9">
-        <v>-1.46</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2347,37 +2380,37 @@
         <v>81</v>
       </c>
       <c r="B39" s="6">
-        <v>600161</v>
+        <v>600196</v>
       </c>
       <c r="C39" s="6">
-        <v>1700</v>
+        <v>14100</v>
       </c>
       <c r="D39" s="6">
         <v>0</v>
       </c>
       <c r="E39" s="6">
-        <v>1700</v>
+        <v>14100</v>
       </c>
       <c r="F39" s="7">
-        <v>42.8</v>
+        <v>47.6</v>
       </c>
       <c r="G39" s="7">
-        <v>40.897</v>
+        <v>45.351</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>72760</v>
+        <v>671160</v>
       </c>
       <c r="J39" s="7">
-        <v>3234.3</v>
+        <v>31711.11</v>
       </c>
       <c r="K39" s="7">
-        <v>3234.3</v>
+        <v>31711.11</v>
       </c>
       <c r="L39" s="8">
-        <v>4.65</v>
+        <v>4.96</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>24</v>
@@ -2390,38 +2423,38 @@
       <c r="A40" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="10">
-        <v>300148</v>
+      <c r="B40" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="C40" s="10">
-        <v>105400</v>
+        <v>0</v>
       </c>
       <c r="D40" s="10">
-        <v>105400</v>
+        <v>0</v>
       </c>
       <c r="E40" s="10">
         <v>0</v>
       </c>
       <c r="F40" s="11">
-        <v>5.82</v>
+        <v>30.5</v>
       </c>
       <c r="G40" s="11">
-        <v>5.915</v>
+        <v>0</v>
       </c>
       <c r="H40" s="11">
         <v>0</v>
       </c>
       <c r="I40" s="11">
-        <v>613428</v>
+        <v>0</v>
       </c>
       <c r="J40" s="11">
-        <v>-10060.04</v>
+        <v>-2387.72</v>
       </c>
       <c r="K40" s="11">
-        <v>-5270</v>
+        <v>6811.42</v>
       </c>
       <c r="L40" s="9">
-        <v>-1.61</v>
+        <v>0</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>26</v>
@@ -2432,46 +2465,46 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="8" t="s">
         <v>84</v>
       </c>
+      <c r="B41" s="6">
+        <v>600161</v>
+      </c>
       <c r="C41" s="6">
-        <v>73500</v>
+        <v>14200</v>
       </c>
       <c r="D41" s="6">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E41" s="6">
-        <v>73500</v>
+        <v>12500</v>
       </c>
       <c r="F41" s="7">
-        <v>9.02</v>
+        <v>46.97</v>
       </c>
       <c r="G41" s="7">
-        <v>8.477</v>
+        <v>44.109</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>662970</v>
+        <v>666974</v>
       </c>
       <c r="J41" s="7">
-        <v>39925.02</v>
+        <v>40621.01</v>
       </c>
       <c r="K41" s="7">
-        <v>39925.02</v>
+        <v>37385.43</v>
       </c>
       <c r="L41" s="8">
-        <v>6.41</v>
+        <v>6.49</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2479,37 +2512,37 @@
         <v>85</v>
       </c>
       <c r="B42" s="10">
-        <v>300674</v>
+        <v>300148</v>
       </c>
       <c r="C42" s="10">
-        <v>0</v>
+        <v>105400</v>
       </c>
       <c r="D42" s="10">
-        <v>0</v>
+        <v>105400</v>
       </c>
       <c r="E42" s="10">
         <v>0</v>
       </c>
       <c r="F42" s="11">
-        <v>55.88</v>
+        <v>5.58</v>
       </c>
       <c r="G42" s="11">
-        <v>0</v>
+        <v>5.915</v>
       </c>
       <c r="H42" s="11">
         <v>0</v>
       </c>
       <c r="I42" s="11">
-        <v>0</v>
+        <v>588132</v>
       </c>
       <c r="J42" s="11">
-        <v>-1156.82</v>
+        <v>-35356.04</v>
       </c>
       <c r="K42" s="11">
-        <v>-1602.49</v>
+        <v>-25296</v>
       </c>
       <c r="L42" s="9">
-        <v>0</v>
+        <v>-5.66</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>26</v>
@@ -2519,129 +2552,129 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>8.66</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>24198.99</v>
+      </c>
+      <c r="K43" s="7">
+        <v>-15726.03</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="10">
         <v>8900</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D44" s="10">
         <v>8900</v>
       </c>
-      <c r="E43" s="10">
-        <v>0</v>
-      </c>
-      <c r="F43" s="11">
-        <v>21.34</v>
-      </c>
-      <c r="G43" s="11">
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
+      <c r="F44" s="11">
+        <v>20.37</v>
+      </c>
+      <c r="G44" s="11">
         <v>21.709</v>
       </c>
-      <c r="H43" s="11">
-        <v>0</v>
-      </c>
-      <c r="I43" s="11">
-        <v>189926</v>
-      </c>
-      <c r="J43" s="11">
-        <v>-3282.11</v>
-      </c>
-      <c r="K43" s="11">
-        <v>-1869</v>
-      </c>
-      <c r="L43" s="9">
-        <v>-1.7</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N43" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="6">
-        <v>603599</v>
-      </c>
-      <c r="C44" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D44" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>18.74</v>
-      </c>
-      <c r="G44" s="7">
-        <v>17.865</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>37480</v>
-      </c>
-      <c r="J44" s="7">
-        <v>1750.64</v>
-      </c>
-      <c r="K44" s="7">
-        <v>-220</v>
-      </c>
-      <c r="L44" s="8">
-        <v>4.9</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>23</v>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>181293</v>
+      </c>
+      <c r="J44" s="11">
+        <v>-11915.11</v>
+      </c>
+      <c r="K44" s="11">
+        <v>-8633</v>
+      </c>
+      <c r="L44" s="9">
+        <v>-6.17</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B45" s="6">
-        <v>600707</v>
+        <v>603599</v>
       </c>
       <c r="C45" s="6">
-        <v>56700</v>
+        <v>2000</v>
       </c>
       <c r="D45" s="6">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E45" s="6">
-        <v>56700</v>
+        <v>0</v>
       </c>
       <c r="F45" s="7">
-        <v>4.94</v>
+        <v>18.46</v>
       </c>
       <c r="G45" s="7">
-        <v>4.895</v>
+        <v>17.865</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
       <c r="I45" s="7">
-        <v>280098</v>
+        <v>36920</v>
       </c>
       <c r="J45" s="7">
-        <v>2534.46</v>
+        <v>1190.64</v>
       </c>
       <c r="K45" s="7">
-        <v>2534.46</v>
+        <v>-560</v>
       </c>
       <c r="L45" s="8">
-        <v>0.92</v>
+        <v>3.33</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>24</v>
@@ -2651,310 +2684,310 @@
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="10">
+      <c r="A46" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="6">
+        <v>600707</v>
+      </c>
+      <c r="C46" s="6">
+        <v>56700</v>
+      </c>
+      <c r="D46" s="6">
+        <v>56700</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>4.9</v>
+      </c>
+      <c r="G46" s="7">
+        <v>4.895</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>277830</v>
+      </c>
+      <c r="J46" s="7">
+        <v>273.35</v>
+      </c>
+      <c r="K46" s="7">
+        <v>-2268</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="10">
         <v>300740</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C47" s="10">
         <v>7400</v>
       </c>
-      <c r="D46" s="10">
-        <v>0</v>
-      </c>
-      <c r="E46" s="10">
+      <c r="D47" s="10">
         <v>7400</v>
       </c>
-      <c r="F46" s="11">
-        <v>19.85</v>
-      </c>
-      <c r="G46" s="11">
-        <v>20.257</v>
-      </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="11">
-        <v>146890</v>
-      </c>
-      <c r="J46" s="11">
-        <v>-3010.26</v>
-      </c>
-      <c r="K46" s="11">
-        <v>-3010.26</v>
-      </c>
-      <c r="L46" s="9">
-        <v>-2.01</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="6">
-        <v>88</v>
-      </c>
-      <c r="D47" s="6">
-        <v>88</v>
-      </c>
-      <c r="E47" s="6">
-        <v>0</v>
-      </c>
-      <c r="F47" s="7">
-        <v>8.9</v>
-      </c>
-      <c r="G47" s="7">
-        <v>-302.012</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>783.2</v>
-      </c>
-      <c r="J47" s="7">
-        <v>27360.25</v>
-      </c>
-      <c r="K47" s="7">
-        <v>-16.72</v>
-      </c>
-      <c r="L47" s="8">
-        <v>0</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N47" s="8" t="s">
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>19.99</v>
+      </c>
+      <c r="G47" s="11">
+        <v>20.252</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
+        <v>147926</v>
+      </c>
+      <c r="J47" s="11">
+        <v>-1938.46</v>
+      </c>
+      <c r="K47" s="11">
+        <v>1036</v>
+      </c>
+      <c r="L47" s="9">
+        <v>-1.29</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>8.82</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7">
+        <v>27346.2</v>
+      </c>
+      <c r="K48" s="7">
+        <v>-14.05</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="6">
         <v>20700</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D49" s="6">
         <v>20700</v>
       </c>
-      <c r="E48" s="10">
-        <v>0</v>
-      </c>
-      <c r="F48" s="11">
-        <v>30.41</v>
-      </c>
-      <c r="G48" s="11">
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>30.92</v>
+      </c>
+      <c r="G49" s="7">
         <v>30.664</v>
       </c>
-      <c r="H48" s="11">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
-        <v>629487</v>
-      </c>
-      <c r="J48" s="11">
-        <v>-5266.5</v>
-      </c>
-      <c r="K48" s="11">
-        <v>15525</v>
-      </c>
-      <c r="L48" s="9">
-        <v>-0.83</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="10">
-        <v>600596</v>
-      </c>
-      <c r="C49" s="10">
-        <v>53400</v>
-      </c>
-      <c r="D49" s="10">
-        <v>53400</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11">
-        <v>9.1</v>
-      </c>
-      <c r="G49" s="11">
-        <v>9.463</v>
-      </c>
-      <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
-        <v>485940</v>
-      </c>
-      <c r="J49" s="11">
-        <v>-19410.82</v>
-      </c>
-      <c r="K49" s="11">
-        <v>-12282</v>
-      </c>
-      <c r="L49" s="9">
-        <v>-3.84</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>23</v>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>640044</v>
+      </c>
+      <c r="J49" s="7">
+        <v>5290.5</v>
+      </c>
+      <c r="K49" s="7">
+        <v>10557</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="8" t="s">
+      <c r="A50" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="6">
-        <v>10400</v>
-      </c>
-      <c r="D50" s="6">
-        <v>10400</v>
-      </c>
-      <c r="E50" s="6">
-        <v>0</v>
-      </c>
-      <c r="F50" s="7">
-        <v>59.52</v>
-      </c>
-      <c r="G50" s="7">
-        <v>57.187</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>619008</v>
-      </c>
-      <c r="J50" s="7">
-        <v>24260.7</v>
-      </c>
-      <c r="K50" s="7">
-        <v>6344</v>
-      </c>
-      <c r="L50" s="8">
-        <v>4.08</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N50" s="8" t="s">
+      <c r="B50" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="10">
+        <v>21700</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
+        <v>21700</v>
+      </c>
+      <c r="F50" s="11">
+        <v>19.97</v>
+      </c>
+      <c r="G50" s="11">
+        <v>19.978</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>433349</v>
+      </c>
+      <c r="J50" s="11">
+        <v>-162.91</v>
+      </c>
+      <c r="K50" s="11">
+        <v>-162.91</v>
+      </c>
+      <c r="L50" s="9">
+        <v>-0.04</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="9" t="s">
         <v>99</v>
       </c>
+      <c r="B51" s="10">
+        <v>600596</v>
+      </c>
       <c r="C51" s="10">
-        <v>118000</v>
+        <v>53400</v>
       </c>
       <c r="D51" s="10">
-        <v>118000</v>
+        <v>53400</v>
       </c>
       <c r="E51" s="10">
         <v>0</v>
       </c>
       <c r="F51" s="11">
-        <v>5.28</v>
+        <v>8.98</v>
       </c>
       <c r="G51" s="11">
-        <v>5.34</v>
+        <v>9.463</v>
       </c>
       <c r="H51" s="11">
         <v>0</v>
       </c>
       <c r="I51" s="11">
-        <v>623040</v>
+        <v>479532</v>
       </c>
       <c r="J51" s="11">
-        <v>-7124.59</v>
+        <v>-25818.82</v>
       </c>
       <c r="K51" s="11">
-        <v>-8260</v>
+        <v>-6408</v>
       </c>
       <c r="L51" s="9">
-        <v>-1.12</v>
+        <v>-5.1</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="10">
-        <v>17700</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0</v>
-      </c>
-      <c r="E52" s="10">
-        <v>17700</v>
-      </c>
-      <c r="F52" s="11">
-        <v>21.89</v>
-      </c>
-      <c r="G52" s="11">
-        <v>22.095</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>387453</v>
-      </c>
-      <c r="J52" s="11">
-        <v>-3626.83</v>
-      </c>
-      <c r="K52" s="11">
-        <v>-3626.83</v>
-      </c>
-      <c r="L52" s="9">
-        <v>-0.93</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N52" s="9" t="s">
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>60.09</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>24395.3</v>
+      </c>
+      <c r="K52" s="7">
+        <v>134.6</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2962,38 +2995,38 @@
       <c r="A53" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="6">
-        <v>300653</v>
+      <c r="B53" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C53" s="6">
-        <v>3300</v>
+        <v>118000</v>
       </c>
       <c r="D53" s="6">
-        <v>0</v>
+        <v>118000</v>
       </c>
       <c r="E53" s="6">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="F53" s="7">
-        <v>80.44</v>
+        <v>5.39</v>
       </c>
       <c r="G53" s="7">
-        <v>76.68</v>
+        <v>5.34</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>265452</v>
+        <v>636020</v>
       </c>
       <c r="J53" s="7">
-        <v>12409.03</v>
+        <v>5855.41</v>
       </c>
       <c r="K53" s="7">
-        <v>12409.03</v>
+        <v>12980</v>
       </c>
       <c r="L53" s="8">
-        <v>4.9</v>
+        <v>0.94</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>26</v>
@@ -3003,173 +3036,173 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" s="6">
-        <v>300007</v>
-      </c>
-      <c r="C54" s="6">
-        <v>25400</v>
-      </c>
-      <c r="D54" s="6">
-        <v>0</v>
-      </c>
-      <c r="E54" s="6">
-        <v>25400</v>
-      </c>
-      <c r="F54" s="7">
-        <v>16.83</v>
-      </c>
-      <c r="G54" s="7">
-        <v>16.571</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>427482</v>
-      </c>
-      <c r="J54" s="7">
-        <v>6575.65</v>
-      </c>
-      <c r="K54" s="7">
-        <v>6575.65</v>
-      </c>
-      <c r="L54" s="8">
-        <v>1.56</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N54" s="8" t="s">
+      <c r="A54" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="10">
+        <v>17700</v>
+      </c>
+      <c r="D54" s="10">
+        <v>17700</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>21.24</v>
+      </c>
+      <c r="G54" s="11">
+        <v>22.094</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>375948</v>
+      </c>
+      <c r="J54" s="11">
+        <v>-15115.49</v>
+      </c>
+      <c r="K54" s="11">
+        <v>-11505</v>
+      </c>
+      <c r="L54" s="9">
+        <v>-3.87</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B55" s="6">
-        <v>601878</v>
+        <v>300653</v>
       </c>
       <c r="C55" s="6">
-        <v>35900</v>
+        <v>0</v>
       </c>
       <c r="D55" s="6">
-        <v>35900</v>
+        <v>0</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="7">
-        <v>16.84</v>
+        <v>80.72</v>
       </c>
       <c r="G55" s="7">
-        <v>16.457</v>
+        <v>0</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>604556</v>
+        <v>0</v>
       </c>
       <c r="J55" s="7">
-        <v>13766.05</v>
+        <v>9055.45</v>
       </c>
       <c r="K55" s="7">
-        <v>17591</v>
+        <v>-3392.67</v>
       </c>
       <c r="L55" s="8">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="6">
-        <v>600352</v>
-      </c>
-      <c r="C56" s="6">
-        <v>40800</v>
-      </c>
-      <c r="D56" s="6">
-        <v>40800</v>
-      </c>
-      <c r="E56" s="6">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
-        <v>15.05</v>
-      </c>
-      <c r="G56" s="7">
-        <v>15.022</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>614040</v>
-      </c>
-      <c r="J56" s="7">
-        <v>1155.09</v>
-      </c>
-      <c r="K56" s="7">
-        <v>-7752</v>
-      </c>
-      <c r="L56" s="8">
-        <v>0.19</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>23</v>
+      <c r="A56" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="10">
+        <v>300007</v>
+      </c>
+      <c r="C56" s="10">
+        <v>25400</v>
+      </c>
+      <c r="D56" s="10">
+        <v>25400</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>16.3</v>
+      </c>
+      <c r="G56" s="11">
+        <v>16.57</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
+        <v>414020</v>
+      </c>
+      <c r="J56" s="11">
+        <v>-6861.7</v>
+      </c>
+      <c r="K56" s="11">
+        <v>-13462</v>
+      </c>
+      <c r="L56" s="9">
+        <v>-1.63</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B57" s="6">
-        <v>600585</v>
+        <v>601878</v>
       </c>
       <c r="C57" s="6">
-        <v>0</v>
+        <v>36100</v>
       </c>
       <c r="D57" s="6">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="E57" s="6">
-        <v>0</v>
+        <v>30200</v>
       </c>
       <c r="F57" s="7">
-        <v>60.97</v>
+        <v>17.23</v>
       </c>
       <c r="G57" s="7">
-        <v>0</v>
+        <v>16.359</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>0</v>
+        <v>622003</v>
       </c>
       <c r="J57" s="7">
-        <v>26001.71</v>
+        <v>31451.29</v>
       </c>
       <c r="K57" s="7">
-        <v>-6934.38</v>
+        <v>17685.24</v>
       </c>
       <c r="L57" s="8">
-        <v>0</v>
+        <v>5.32</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>24</v>
@@ -3180,128 +3213,128 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="B58" s="10">
+        <v>600352</v>
       </c>
       <c r="C58" s="10">
-        <v>33800</v>
+        <v>40800</v>
       </c>
       <c r="D58" s="10">
-        <v>0</v>
+        <v>40800</v>
       </c>
       <c r="E58" s="10">
-        <v>33800</v>
+        <v>0</v>
       </c>
       <c r="F58" s="11">
-        <v>8.9</v>
+        <v>14.99</v>
       </c>
       <c r="G58" s="11">
-        <v>8.995</v>
+        <v>15.022</v>
       </c>
       <c r="H58" s="11">
         <v>0</v>
       </c>
       <c r="I58" s="11">
-        <v>300820</v>
+        <v>611592</v>
       </c>
       <c r="J58" s="11">
-        <v>-3199.74</v>
+        <v>-1292.91</v>
       </c>
       <c r="K58" s="11">
-        <v>-3199.74</v>
+        <v>-2448</v>
       </c>
       <c r="L58" s="9">
-        <v>-1.06</v>
+        <v>-0.21</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" s="10">
-        <v>601678</v>
-      </c>
-      <c r="C59" s="10">
-        <v>76600</v>
-      </c>
-      <c r="D59" s="10">
-        <v>76600</v>
-      </c>
-      <c r="E59" s="10">
-        <v>0</v>
-      </c>
-      <c r="F59" s="11">
-        <v>4.81</v>
-      </c>
-      <c r="G59" s="11">
-        <v>5.024</v>
-      </c>
-      <c r="H59" s="11">
-        <v>0</v>
-      </c>
-      <c r="I59" s="11">
-        <v>368446</v>
-      </c>
-      <c r="J59" s="11">
-        <v>-16363.71</v>
-      </c>
-      <c r="K59" s="11">
-        <v>-3064</v>
-      </c>
-      <c r="L59" s="9">
-        <v>-4.26</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N59" s="9" t="s">
-        <v>23</v>
+      <c r="A59" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="6">
+        <v>20200</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>20200</v>
+      </c>
+      <c r="F59" s="7">
+        <v>12.23</v>
+      </c>
+      <c r="G59" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>247046</v>
+      </c>
+      <c r="J59" s="7">
+        <v>598.17</v>
+      </c>
+      <c r="K59" s="7">
+        <v>598.17</v>
+      </c>
+      <c r="L59" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C60" s="6">
-        <v>8300</v>
+        <v>33800</v>
       </c>
       <c r="D60" s="6">
-        <v>8300</v>
+        <v>33800</v>
       </c>
       <c r="E60" s="6">
         <v>0</v>
       </c>
       <c r="F60" s="7">
-        <v>9.14</v>
+        <v>9.01</v>
       </c>
       <c r="G60" s="7">
-        <v>8.635</v>
+        <v>8.994</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>75862</v>
+        <v>304538</v>
       </c>
       <c r="J60" s="7">
-        <v>4194.68</v>
+        <v>526.49</v>
       </c>
       <c r="K60" s="7">
-        <v>1328</v>
+        <v>3718</v>
       </c>
       <c r="L60" s="8">
-        <v>5.85</v>
+        <v>0.18</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>26</v>
@@ -3311,261 +3344,261 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B61" s="6">
-        <v>600089</v>
-      </c>
-      <c r="C61" s="6">
-        <v>73400</v>
-      </c>
-      <c r="D61" s="6">
-        <v>0</v>
-      </c>
-      <c r="E61" s="6">
-        <v>73400</v>
-      </c>
-      <c r="F61" s="7">
-        <v>8.48</v>
-      </c>
-      <c r="G61" s="7">
-        <v>8.167</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>622432</v>
-      </c>
-      <c r="J61" s="7">
-        <v>23005.92</v>
-      </c>
-      <c r="K61" s="7">
-        <v>23005.92</v>
-      </c>
-      <c r="L61" s="8">
-        <v>3.83</v>
-      </c>
-      <c r="M61" s="8" t="s">
+      <c r="A61" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="10">
+        <v>601678</v>
+      </c>
+      <c r="C61" s="10">
+        <v>0</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>4.82</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>0</v>
+      </c>
+      <c r="J61" s="11">
+        <v>-19850.61</v>
+      </c>
+      <c r="K61" s="11">
+        <v>-3486.9</v>
+      </c>
+      <c r="L61" s="9">
+        <v>0</v>
+      </c>
+      <c r="M61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="8" t="s">
+      <c r="N61" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B62" s="6">
+        <v>115</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="6">
+        <v>3700</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6">
+        <v>3700</v>
+      </c>
+      <c r="F62" s="7">
+        <v>8.18</v>
+      </c>
+      <c r="G62" s="7">
+        <v>8.096</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>30266</v>
+      </c>
+      <c r="J62" s="7">
+        <v>309</v>
+      </c>
+      <c r="K62" s="7">
+        <v>309</v>
+      </c>
+      <c r="L62" s="8">
+        <v>1.04</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="6">
+        <v>8300</v>
+      </c>
+      <c r="D63" s="6">
+        <v>8300</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>9.14</v>
+      </c>
+      <c r="G63" s="7">
+        <v>8.635</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>75862</v>
+      </c>
+      <c r="J63" s="7">
+        <v>4194.68</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L63" s="8">
+        <v>5.85</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="6">
+        <v>600089</v>
+      </c>
+      <c r="C64" s="6">
+        <v>73400</v>
+      </c>
+      <c r="D64" s="6">
+        <v>73400</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>8.58</v>
+      </c>
+      <c r="G64" s="7">
+        <v>8.166</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>629772</v>
+      </c>
+      <c r="J64" s="7">
+        <v>30352.1</v>
+      </c>
+      <c r="K64" s="7">
+        <v>7340</v>
+      </c>
+      <c r="L64" s="8">
+        <v>5.07</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="6">
         <v>600859</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C65" s="6">
         <v>10200</v>
       </c>
-      <c r="D62" s="6">
-        <v>10200</v>
-      </c>
-      <c r="E62" s="6">
-        <v>0</v>
-      </c>
-      <c r="F62" s="7">
-        <v>61.7</v>
-      </c>
-      <c r="G62" s="7">
-        <v>60.532</v>
-      </c>
-      <c r="H62" s="7">
-        <v>0</v>
-      </c>
-      <c r="I62" s="7">
-        <v>629340</v>
-      </c>
-      <c r="J62" s="7">
-        <v>11915.97</v>
-      </c>
-      <c r="K62" s="7">
-        <v>27540</v>
-      </c>
-      <c r="L62" s="8">
-        <v>1.93</v>
-      </c>
-      <c r="M62" s="8" t="s">
+      <c r="D65" s="6">
+        <v>1700</v>
+      </c>
+      <c r="E65" s="6">
+        <v>8500</v>
+      </c>
+      <c r="F65" s="7">
+        <v>65.5</v>
+      </c>
+      <c r="G65" s="7">
+        <v>60.288</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>668100</v>
+      </c>
+      <c r="J65" s="7">
+        <v>53163.21</v>
+      </c>
+      <c r="K65" s="7">
+        <v>41247.24</v>
+      </c>
+      <c r="L65" s="8">
+        <v>8.65</v>
+      </c>
+      <c r="M65" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B63" s="10">
-        <v>300206</v>
-      </c>
-      <c r="C63" s="10">
-        <v>4400</v>
-      </c>
-      <c r="D63" s="10">
-        <v>4400</v>
-      </c>
-      <c r="E63" s="10">
-        <v>0</v>
-      </c>
-      <c r="F63" s="11">
-        <v>24.08</v>
-      </c>
-      <c r="G63" s="11">
-        <v>24.913</v>
-      </c>
-      <c r="H63" s="11">
-        <v>0</v>
-      </c>
-      <c r="I63" s="11">
-        <v>105952</v>
-      </c>
-      <c r="J63" s="11">
-        <v>-3666.25</v>
-      </c>
-      <c r="K63" s="11">
-        <v>-968</v>
-      </c>
-      <c r="L63" s="9">
-        <v>-3.34</v>
-      </c>
-      <c r="M63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N63" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B64" s="10">
-        <v>300215</v>
-      </c>
-      <c r="C64" s="10">
-        <v>31500</v>
-      </c>
-      <c r="D64" s="10">
-        <v>0</v>
-      </c>
-      <c r="E64" s="10">
-        <v>31500</v>
-      </c>
-      <c r="F64" s="11">
-        <v>6.93</v>
-      </c>
-      <c r="G64" s="11">
-        <v>7.042</v>
-      </c>
-      <c r="H64" s="11">
-        <v>0</v>
-      </c>
-      <c r="I64" s="11">
-        <v>218295</v>
-      </c>
-      <c r="J64" s="11">
-        <v>-3519.64</v>
-      </c>
-      <c r="K64" s="11">
-        <v>-3519.64</v>
-      </c>
-      <c r="L64" s="9">
-        <v>-1.59</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N64" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="13">
-        <v>548000</v>
-      </c>
-      <c r="D65" s="13">
-        <v>548000</v>
-      </c>
-      <c r="E65" s="13">
-        <v>0</v>
-      </c>
-      <c r="F65" s="14">
-        <v>0</v>
-      </c>
-      <c r="G65" s="14">
-        <v>0</v>
-      </c>
-      <c r="H65" s="14">
-        <v>0</v>
-      </c>
-      <c r="I65" s="14">
-        <v>0</v>
-      </c>
-      <c r="J65" s="14">
-        <v>0</v>
-      </c>
-      <c r="K65" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L65" s="12">
-        <v>0</v>
-      </c>
-      <c r="M65" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N65" s="12" t="s">
+      <c r="N65" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="B66" s="10">
+        <v>300206</v>
       </c>
       <c r="C66" s="10">
-        <v>57400</v>
+        <v>4400</v>
       </c>
       <c r="D66" s="10">
-        <v>57400</v>
+        <v>4400</v>
       </c>
       <c r="E66" s="10">
         <v>0</v>
       </c>
       <c r="F66" s="11">
-        <v>10.84</v>
+        <v>24.04</v>
       </c>
       <c r="G66" s="11">
-        <v>10.872</v>
+        <v>24.913</v>
       </c>
       <c r="H66" s="11">
         <v>0</v>
       </c>
       <c r="I66" s="11">
-        <v>622216</v>
+        <v>105776</v>
       </c>
       <c r="J66" s="11">
-        <v>-1814.05</v>
+        <v>-3842.25</v>
       </c>
       <c r="K66" s="11">
-        <v>45920</v>
+        <v>-176</v>
       </c>
       <c r="L66" s="9">
-        <v>-0.29</v>
+        <v>-3.5</v>
       </c>
       <c r="M66" s="9" t="s">
         <v>26</v>
@@ -3576,40 +3609,40 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="B67" s="6">
+        <v>300215</v>
       </c>
       <c r="C67" s="6">
-        <v>5100</v>
+        <v>31500</v>
       </c>
       <c r="D67" s="6">
-        <v>5100</v>
+        <v>31500</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
       </c>
       <c r="F67" s="7">
-        <v>124.1</v>
+        <v>7.47</v>
       </c>
       <c r="G67" s="7">
-        <v>124.059</v>
+        <v>7.04</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
       <c r="I67" s="7">
-        <v>632910</v>
+        <v>235305</v>
       </c>
       <c r="J67" s="7">
-        <v>211.43</v>
+        <v>13537.17</v>
       </c>
       <c r="K67" s="7">
-        <v>-2040</v>
+        <v>17010</v>
       </c>
       <c r="L67" s="8">
-        <v>0.03</v>
+        <v>6.11</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>26</v>
@@ -3619,129 +3652,129 @@
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B68" s="10">
-        <v>600271</v>
-      </c>
-      <c r="C68" s="10">
-        <v>3000</v>
-      </c>
-      <c r="D68" s="10">
-        <v>3000</v>
-      </c>
-      <c r="E68" s="10">
-        <v>0</v>
-      </c>
-      <c r="F68" s="11">
-        <v>18.56</v>
-      </c>
-      <c r="G68" s="11">
-        <v>19.63</v>
-      </c>
-      <c r="H68" s="11">
-        <v>0</v>
-      </c>
-      <c r="I68" s="11">
-        <v>55680</v>
-      </c>
-      <c r="J68" s="11">
-        <v>-3208.83</v>
-      </c>
-      <c r="K68" s="11">
-        <v>-330</v>
-      </c>
-      <c r="L68" s="9">
-        <v>-5.45</v>
-      </c>
-      <c r="M68" s="9" t="s">
+      <c r="A68" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="13">
+        <v>550500</v>
+      </c>
+      <c r="D68" s="13">
+        <v>550500</v>
+      </c>
+      <c r="E68" s="13">
+        <v>0</v>
+      </c>
+      <c r="F68" s="14">
+        <v>0</v>
+      </c>
+      <c r="G68" s="14">
+        <v>0</v>
+      </c>
+      <c r="H68" s="14">
+        <v>0</v>
+      </c>
+      <c r="I68" s="14">
+        <v>0</v>
+      </c>
+      <c r="J68" s="14">
+        <v>0</v>
+      </c>
+      <c r="K68" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L68" s="12">
+        <v>0</v>
+      </c>
+      <c r="M68" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N68" s="9" t="s">
+      <c r="N68" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69" s="6">
-        <v>6566</v>
-      </c>
-      <c r="D69" s="6">
-        <v>66</v>
-      </c>
-      <c r="E69" s="6">
-        <v>6500</v>
-      </c>
-      <c r="F69" s="7">
-        <v>22.28</v>
-      </c>
-      <c r="G69" s="7">
-        <v>18.32</v>
-      </c>
-      <c r="H69" s="7">
-        <v>0</v>
-      </c>
-      <c r="I69" s="7">
-        <v>146290.48</v>
-      </c>
-      <c r="J69" s="7">
-        <v>26000.52</v>
-      </c>
-      <c r="K69" s="7">
-        <v>-5997.48</v>
-      </c>
-      <c r="L69" s="8">
-        <v>21.62</v>
-      </c>
-      <c r="M69" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N69" s="8" t="s">
+      <c r="A69" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="10">
+        <v>57400</v>
+      </c>
+      <c r="D69" s="10">
+        <v>7400</v>
+      </c>
+      <c r="E69" s="10">
+        <v>50000</v>
+      </c>
+      <c r="F69" s="11">
+        <v>10.75</v>
+      </c>
+      <c r="G69" s="11">
+        <v>10.857</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
+      </c>
+      <c r="I69" s="11">
+        <v>617050</v>
+      </c>
+      <c r="J69" s="11">
+        <v>-6151.16</v>
+      </c>
+      <c r="K69" s="11">
+        <v>-4337.11</v>
+      </c>
+      <c r="L69" s="9">
+        <v>-0.99</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N69" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C70" s="6">
-        <v>56400</v>
+        <v>5100</v>
       </c>
       <c r="D70" s="6">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="E70" s="6">
-        <v>56400</v>
+        <v>0</v>
       </c>
       <c r="F70" s="7">
-        <v>11.16</v>
+        <v>124.1</v>
       </c>
       <c r="G70" s="7">
-        <v>11.026</v>
+        <v>124.059</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>629424</v>
+        <v>632910</v>
       </c>
       <c r="J70" s="7">
-        <v>7564.16</v>
-      </c>
-      <c r="K70" s="7">
-        <v>7564.16</v>
+        <v>211.43</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="L70" s="8">
-        <v>1.22</v>
+        <v>0.03</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>26</v>
@@ -3752,260 +3785,260 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B71" s="10">
+        <v>600271</v>
+      </c>
+      <c r="C71" s="10">
+        <v>0</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
+      <c r="E71" s="10">
+        <v>0</v>
+      </c>
+      <c r="F71" s="11">
+        <v>18.06</v>
+      </c>
+      <c r="G71" s="11">
+        <v>0</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0</v>
+      </c>
+      <c r="I71" s="11">
+        <v>0</v>
+      </c>
+      <c r="J71" s="11">
+        <v>-4081.94</v>
+      </c>
+      <c r="K71" s="11">
+        <v>-873.11</v>
+      </c>
+      <c r="L71" s="9">
+        <v>0</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="6">
+        <v>66</v>
+      </c>
+      <c r="D72" s="6">
+        <v>66</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>24.17</v>
+      </c>
+      <c r="G72" s="7">
+        <v>-385.757</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <v>1595.22</v>
+      </c>
+      <c r="J72" s="7">
+        <v>27055.16</v>
+      </c>
+      <c r="K72" s="7">
+        <v>1048.56</v>
+      </c>
+      <c r="L72" s="8">
+        <v>0</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="6">
+        <v>56400</v>
+      </c>
+      <c r="D73" s="6">
+        <v>56400</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="G73" s="7">
+        <v>11.026</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>637320</v>
+      </c>
+      <c r="J73" s="7">
+        <v>15460.16</v>
+      </c>
+      <c r="K73" s="7">
+        <v>7896</v>
+      </c>
+      <c r="L73" s="8">
+        <v>2.49</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="10">
         <v>300401</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C74" s="10">
         <v>100</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D74" s="10">
         <v>100</v>
       </c>
-      <c r="E71" s="10">
-        <v>0</v>
-      </c>
-      <c r="F71" s="11">
-        <v>15.87</v>
-      </c>
-      <c r="G71" s="11">
+      <c r="E74" s="10">
+        <v>0</v>
+      </c>
+      <c r="F74" s="11">
+        <v>15.86</v>
+      </c>
+      <c r="G74" s="11">
         <v>16.302</v>
       </c>
-      <c r="H71" s="11">
-        <v>0</v>
-      </c>
-      <c r="I71" s="11">
-        <v>1587</v>
-      </c>
-      <c r="J71" s="11">
-        <v>-43.21</v>
-      </c>
-      <c r="K71" s="11">
+      <c r="H74" s="11">
+        <v>0</v>
+      </c>
+      <c r="I74" s="11">
+        <v>1586</v>
+      </c>
+      <c r="J74" s="11">
+        <v>-44.21</v>
+      </c>
+      <c r="K74" s="11">
+        <v>-1</v>
+      </c>
+      <c r="L74" s="9">
+        <v>-2.71</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B75" s="13">
+        <v>380416</v>
+      </c>
+      <c r="C75" s="13">
+        <v>64</v>
+      </c>
+      <c r="D75" s="13">
+        <v>64</v>
+      </c>
+      <c r="E75" s="13">
+        <v>0</v>
+      </c>
+      <c r="F75" s="14">
+        <v>100</v>
+      </c>
+      <c r="G75" s="14">
+        <v>0</v>
+      </c>
+      <c r="H75" s="14">
+        <v>0</v>
+      </c>
+      <c r="I75" s="14">
+        <v>0</v>
+      </c>
+      <c r="J75" s="14">
+        <v>0</v>
+      </c>
+      <c r="K75" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L71" s="9">
-        <v>-2.65</v>
-      </c>
-      <c r="M71" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N71" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B72" s="13">
-        <v>380416</v>
-      </c>
-      <c r="C72" s="13">
-        <v>64</v>
-      </c>
-      <c r="D72" s="13">
-        <v>64</v>
-      </c>
-      <c r="E72" s="13">
-        <v>0</v>
-      </c>
-      <c r="F72" s="14">
-        <v>100</v>
-      </c>
-      <c r="G72" s="14">
-        <v>0</v>
-      </c>
-      <c r="H72" s="14">
-        <v>0</v>
-      </c>
-      <c r="I72" s="14">
-        <v>0</v>
-      </c>
-      <c r="J72" s="14">
-        <v>0</v>
-      </c>
-      <c r="K72" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L72" s="12">
-        <v>0</v>
-      </c>
-      <c r="M72" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N72" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B73" s="10">
-        <v>300677</v>
-      </c>
-      <c r="C73" s="10">
-        <v>3700</v>
-      </c>
-      <c r="D73" s="10">
-        <v>3700</v>
-      </c>
-      <c r="E73" s="10">
-        <v>0</v>
-      </c>
-      <c r="F73" s="11">
-        <v>166.96</v>
-      </c>
-      <c r="G73" s="11">
-        <v>174.725</v>
-      </c>
-      <c r="H73" s="11">
-        <v>0</v>
-      </c>
-      <c r="I73" s="11">
-        <v>617752</v>
-      </c>
-      <c r="J73" s="11">
-        <v>-28731.04</v>
-      </c>
-      <c r="K73" s="11">
-        <v>3996</v>
-      </c>
-      <c r="L73" s="9">
-        <v>-4.44</v>
-      </c>
-      <c r="M73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N73" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" s="6">
-        <v>300293</v>
-      </c>
-      <c r="C74" s="6">
-        <v>5400</v>
-      </c>
-      <c r="D74" s="6">
-        <v>5400</v>
-      </c>
-      <c r="E74" s="6">
-        <v>0</v>
-      </c>
-      <c r="F74" s="7">
-        <v>28.42</v>
-      </c>
-      <c r="G74" s="7">
-        <v>27.146</v>
-      </c>
-      <c r="H74" s="7">
-        <v>0</v>
-      </c>
-      <c r="I74" s="7">
-        <v>153468</v>
-      </c>
-      <c r="J74" s="7">
-        <v>6877.94</v>
-      </c>
-      <c r="K74" s="7">
-        <v>6696</v>
-      </c>
-      <c r="L74" s="8">
-        <v>4.69</v>
-      </c>
-      <c r="M74" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N74" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75" s="6">
-        <v>26500</v>
-      </c>
-      <c r="D75" s="6">
-        <v>0</v>
-      </c>
-      <c r="E75" s="6">
-        <v>26500</v>
-      </c>
-      <c r="F75" s="7">
-        <v>6.66</v>
-      </c>
-      <c r="G75" s="7">
-        <v>6.036</v>
-      </c>
-      <c r="H75" s="7">
-        <v>0</v>
-      </c>
-      <c r="I75" s="7">
-        <v>176490</v>
-      </c>
-      <c r="J75" s="7">
-        <v>16533</v>
-      </c>
-      <c r="K75" s="7">
-        <v>16533</v>
-      </c>
-      <c r="L75" s="8">
-        <v>10.34</v>
-      </c>
-      <c r="M75" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N75" s="8" t="s">
+      <c r="L75" s="12">
+        <v>0</v>
+      </c>
+      <c r="M75" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="B76" s="10">
+        <v>300131</v>
       </c>
       <c r="C76" s="10">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="D76" s="10">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="E76" s="10">
-        <v>0</v>
+        <v>10100</v>
       </c>
       <c r="F76" s="11">
-        <v>12.04</v>
+        <v>6.9</v>
       </c>
       <c r="G76" s="11">
-        <v>12.533</v>
+        <v>7.011</v>
       </c>
       <c r="H76" s="11">
         <v>0</v>
       </c>
       <c r="I76" s="11">
-        <v>125216</v>
+        <v>69690</v>
       </c>
       <c r="J76" s="11">
-        <v>-5126.94</v>
+        <v>-1120.2</v>
       </c>
       <c r="K76" s="11">
-        <v>-1872</v>
+        <v>-1120.2</v>
       </c>
       <c r="L76" s="9">
-        <v>-3.93</v>
+        <v>-1.58</v>
       </c>
       <c r="M76" s="9" t="s">
         <v>26</v>
@@ -4015,85 +4048,85 @@
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="6">
-        <v>800</v>
-      </c>
-      <c r="D77" s="6">
-        <v>800</v>
-      </c>
-      <c r="E77" s="6">
-        <v>0</v>
-      </c>
-      <c r="F77" s="7">
-        <v>7.73</v>
-      </c>
-      <c r="G77" s="7">
-        <v>7.541</v>
-      </c>
-      <c r="H77" s="7">
-        <v>0</v>
-      </c>
-      <c r="I77" s="7">
-        <v>6184</v>
-      </c>
-      <c r="J77" s="7">
-        <v>151.22</v>
-      </c>
-      <c r="K77" s="7">
-        <v>-136</v>
-      </c>
-      <c r="L77" s="8">
-        <v>2.51</v>
-      </c>
-      <c r="M77" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N77" s="8" t="s">
+      <c r="A77" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="10">
+        <v>300677</v>
+      </c>
+      <c r="C77" s="10">
+        <v>0</v>
+      </c>
+      <c r="D77" s="10">
+        <v>0</v>
+      </c>
+      <c r="E77" s="10">
+        <v>0</v>
+      </c>
+      <c r="F77" s="11">
+        <v>165.75</v>
+      </c>
+      <c r="G77" s="11">
+        <v>0</v>
+      </c>
+      <c r="H77" s="11">
+        <v>0</v>
+      </c>
+      <c r="I77" s="11">
+        <v>0</v>
+      </c>
+      <c r="J77" s="11">
+        <v>-47973.78</v>
+      </c>
+      <c r="K77" s="11">
+        <v>-19242.74</v>
+      </c>
+      <c r="L77" s="9">
+        <v>0</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N77" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B78" s="10">
-        <v>300687</v>
+        <v>300293</v>
       </c>
       <c r="C78" s="10">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="D78" s="10">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="E78" s="10">
         <v>0</v>
       </c>
       <c r="F78" s="11">
-        <v>21.77</v>
+        <v>28</v>
       </c>
       <c r="G78" s="11">
-        <v>32.475</v>
+        <v>0</v>
       </c>
       <c r="H78" s="11">
         <v>0</v>
       </c>
       <c r="I78" s="11">
-        <v>50071</v>
+        <v>0</v>
       </c>
       <c r="J78" s="11">
-        <v>-24622.46</v>
+        <v>-4.38</v>
       </c>
       <c r="K78" s="11">
-        <v>-552</v>
+        <v>-6882.32</v>
       </c>
       <c r="L78" s="9">
-        <v>-32.96</v>
+        <v>0</v>
       </c>
       <c r="M78" s="9" t="s">
         <v>26</v>
@@ -4103,129 +4136,129 @@
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C79" s="10">
-        <v>13100</v>
-      </c>
-      <c r="D79" s="10">
-        <v>13100</v>
-      </c>
-      <c r="E79" s="10">
-        <v>0</v>
-      </c>
-      <c r="F79" s="11">
-        <v>8.23</v>
-      </c>
-      <c r="G79" s="11">
-        <v>8.262</v>
-      </c>
-      <c r="H79" s="11">
-        <v>0</v>
-      </c>
-      <c r="I79" s="11">
-        <v>107813</v>
-      </c>
-      <c r="J79" s="11">
-        <v>-415.06</v>
-      </c>
-      <c r="K79" s="11">
-        <v>131</v>
-      </c>
-      <c r="L79" s="9">
-        <v>-0.39</v>
-      </c>
-      <c r="M79" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N79" s="9" t="s">
+      <c r="B79" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="6">
+        <v>26500</v>
+      </c>
+      <c r="D79" s="6">
+        <v>26500</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>7.33</v>
+      </c>
+      <c r="G79" s="7">
+        <v>6.033</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>194245</v>
+      </c>
+      <c r="J79" s="7">
+        <v>34362.22</v>
+      </c>
+      <c r="K79" s="7">
+        <v>17755</v>
+      </c>
+      <c r="L79" s="8">
+        <v>21.5</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N79" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B80" s="6">
-        <v>600438</v>
-      </c>
-      <c r="C80" s="6">
-        <v>0</v>
-      </c>
-      <c r="D80" s="6">
-        <v>0</v>
-      </c>
-      <c r="E80" s="6">
-        <v>0</v>
-      </c>
-      <c r="F80" s="7">
-        <v>22.78</v>
-      </c>
-      <c r="G80" s="7">
-        <v>0</v>
-      </c>
-      <c r="H80" s="7">
-        <v>0</v>
-      </c>
-      <c r="I80" s="7">
-        <v>0</v>
-      </c>
-      <c r="J80" s="7">
-        <v>27516.87</v>
-      </c>
-      <c r="K80" s="7">
-        <v>-24460.24</v>
-      </c>
-      <c r="L80" s="8">
-        <v>0</v>
-      </c>
-      <c r="M80" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N80" s="8" t="s">
-        <v>23</v>
+      <c r="A80" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="10">
+        <v>0</v>
+      </c>
+      <c r="D80" s="10">
+        <v>0</v>
+      </c>
+      <c r="E80" s="10">
+        <v>0</v>
+      </c>
+      <c r="F80" s="11">
+        <v>11.87</v>
+      </c>
+      <c r="G80" s="11">
+        <v>0</v>
+      </c>
+      <c r="H80" s="11">
+        <v>0</v>
+      </c>
+      <c r="I80" s="11">
+        <v>0</v>
+      </c>
+      <c r="J80" s="11">
+        <v>-6813.77</v>
+      </c>
+      <c r="K80" s="11">
+        <v>-1686.83</v>
+      </c>
+      <c r="L80" s="9">
+        <v>0</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C81" s="6">
-        <v>56700</v>
+        <v>800</v>
       </c>
       <c r="D81" s="6">
-        <v>56700</v>
+        <v>800</v>
       </c>
       <c r="E81" s="6">
         <v>0</v>
       </c>
       <c r="F81" s="7">
-        <v>10.85</v>
+        <v>8.04</v>
       </c>
       <c r="G81" s="7">
-        <v>10.44</v>
+        <v>7.541</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
       </c>
       <c r="I81" s="7">
-        <v>615195</v>
+        <v>6432</v>
       </c>
       <c r="J81" s="7">
-        <v>23272.05</v>
+        <v>399.22</v>
       </c>
       <c r="K81" s="7">
-        <v>-6804</v>
+        <v>248</v>
       </c>
       <c r="L81" s="8">
-        <v>3.93</v>
+        <v>6.62</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>26</v>
@@ -4236,40 +4269,40 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B82" s="10">
-        <v>300274</v>
+        <v>300687</v>
       </c>
       <c r="C82" s="10">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="D82" s="10">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="E82" s="10">
         <v>0</v>
       </c>
       <c r="F82" s="11">
-        <v>19.02</v>
+        <v>21.26</v>
       </c>
       <c r="G82" s="11">
-        <v>19.766</v>
+        <v>32.475</v>
       </c>
       <c r="H82" s="11">
         <v>0</v>
       </c>
       <c r="I82" s="11">
-        <v>64668</v>
+        <v>48898</v>
       </c>
       <c r="J82" s="11">
-        <v>-2537.74</v>
+        <v>-25795.46</v>
       </c>
       <c r="K82" s="11">
-        <v>-850</v>
+        <v>-1173</v>
       </c>
       <c r="L82" s="9">
-        <v>-3.77</v>
+        <v>-34.53</v>
       </c>
       <c r="M82" s="9" t="s">
         <v>26</v>
@@ -4279,129 +4312,129 @@
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B83" s="6">
-        <v>300261</v>
-      </c>
-      <c r="C83" s="6">
-        <v>10400</v>
-      </c>
-      <c r="D83" s="6">
-        <v>10400</v>
-      </c>
-      <c r="E83" s="6">
-        <v>0</v>
-      </c>
-      <c r="F83" s="7">
-        <v>7.8</v>
-      </c>
-      <c r="G83" s="7">
-        <v>6.168</v>
-      </c>
-      <c r="H83" s="7">
-        <v>0</v>
-      </c>
-      <c r="I83" s="7">
-        <v>81120</v>
-      </c>
-      <c r="J83" s="7">
-        <v>16968.04</v>
-      </c>
-      <c r="K83" s="7">
-        <v>3640</v>
-      </c>
-      <c r="L83" s="8">
-        <v>26.46</v>
-      </c>
-      <c r="M83" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N83" s="8" t="s">
+      <c r="A83" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="10">
+        <v>86302</v>
+      </c>
+      <c r="D83" s="10">
+        <v>0</v>
+      </c>
+      <c r="E83" s="10">
+        <v>86302</v>
+      </c>
+      <c r="F83" s="11">
+        <v>5.84</v>
+      </c>
+      <c r="G83" s="11">
+        <v>5.92</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0</v>
+      </c>
+      <c r="I83" s="11">
+        <v>504003.68</v>
+      </c>
+      <c r="J83" s="11">
+        <v>-6914.22</v>
+      </c>
+      <c r="K83" s="11">
+        <v>-6914.22</v>
+      </c>
+      <c r="L83" s="9">
+        <v>-1.35</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C84" s="10">
-        <v>0</v>
-      </c>
-      <c r="D84" s="10">
-        <v>0</v>
-      </c>
-      <c r="E84" s="10">
-        <v>0</v>
-      </c>
-      <c r="F84" s="11">
-        <v>6.13</v>
-      </c>
-      <c r="G84" s="11">
-        <v>0</v>
-      </c>
-      <c r="H84" s="11">
-        <v>0</v>
-      </c>
-      <c r="I84" s="11">
-        <v>0</v>
-      </c>
-      <c r="J84" s="11">
-        <v>-317.94</v>
-      </c>
-      <c r="K84" s="11">
-        <v>-2413.27</v>
-      </c>
-      <c r="L84" s="9">
-        <v>0</v>
-      </c>
-      <c r="M84" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N84" s="9" t="s">
+      <c r="A84" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" s="6">
+        <v>6400</v>
+      </c>
+      <c r="D84" s="6">
+        <v>0</v>
+      </c>
+      <c r="E84" s="6">
+        <v>6400</v>
+      </c>
+      <c r="F84" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="G84" s="7">
+        <v>22.298</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>154880</v>
+      </c>
+      <c r="J84" s="7">
+        <v>12173.99</v>
+      </c>
+      <c r="K84" s="7">
+        <v>12173.99</v>
+      </c>
+      <c r="L84" s="8">
+        <v>8.53</v>
+      </c>
+      <c r="M84" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C85" s="6">
-        <v>6200</v>
+        <v>13100</v>
       </c>
       <c r="D85" s="6">
-        <v>0</v>
+        <v>13100</v>
       </c>
       <c r="E85" s="6">
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="F85" s="7">
-        <v>11.82</v>
+        <v>8.43</v>
       </c>
       <c r="G85" s="7">
-        <v>11.531</v>
+        <v>8.262</v>
       </c>
       <c r="H85" s="7">
         <v>0</v>
       </c>
       <c r="I85" s="7">
-        <v>73284</v>
+        <v>110433</v>
       </c>
       <c r="J85" s="7">
-        <v>1788.71</v>
+        <v>2204.94</v>
       </c>
       <c r="K85" s="7">
-        <v>1788.71</v>
+        <v>2620</v>
       </c>
       <c r="L85" s="8">
-        <v>2.51</v>
+        <v>2.03</v>
       </c>
       <c r="M85" s="8" t="s">
         <v>26</v>
@@ -4412,45 +4445,265 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B86" s="6">
+        <v>152</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C86" s="6">
+        <v>0</v>
+      </c>
+      <c r="D86" s="6">
+        <v>0</v>
+      </c>
+      <c r="E86" s="6">
+        <v>0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>11.45</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0</v>
+      </c>
+      <c r="J86" s="7">
+        <v>8292.34</v>
+      </c>
+      <c r="K86" s="7">
+        <v>-14979.71</v>
+      </c>
+      <c r="L86" s="8">
+        <v>0</v>
+      </c>
+      <c r="M86" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N86" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" s="10">
+        <v>11400</v>
+      </c>
+      <c r="D87" s="10">
+        <v>0</v>
+      </c>
+      <c r="E87" s="10">
+        <v>11400</v>
+      </c>
+      <c r="F87" s="11">
+        <v>16.72</v>
+      </c>
+      <c r="G87" s="11">
+        <v>16.798</v>
+      </c>
+      <c r="H87" s="11">
+        <v>0</v>
+      </c>
+      <c r="I87" s="11">
+        <v>190608</v>
+      </c>
+      <c r="J87" s="11">
+        <v>-885.07</v>
+      </c>
+      <c r="K87" s="11">
+        <v>-885.07</v>
+      </c>
+      <c r="L87" s="9">
+        <v>-0.46</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" s="10">
+        <v>300274</v>
+      </c>
+      <c r="C88" s="10">
+        <v>0</v>
+      </c>
+      <c r="D88" s="10">
+        <v>0</v>
+      </c>
+      <c r="E88" s="10">
+        <v>0</v>
+      </c>
+      <c r="F88" s="11">
+        <v>20.06</v>
+      </c>
+      <c r="G88" s="11">
+        <v>0</v>
+      </c>
+      <c r="H88" s="11">
+        <v>0</v>
+      </c>
+      <c r="I88" s="11">
+        <v>0</v>
+      </c>
+      <c r="J88" s="11">
+        <v>-2681.02</v>
+      </c>
+      <c r="K88" s="11">
+        <v>-143.28</v>
+      </c>
+      <c r="L88" s="9">
+        <v>0</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="6">
+        <v>300261</v>
+      </c>
+      <c r="C89" s="6">
+        <v>0</v>
+      </c>
+      <c r="D89" s="6">
+        <v>0</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0</v>
+      </c>
+      <c r="F89" s="7">
+        <v>7.63</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0</v>
+      </c>
+      <c r="H89" s="7">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7">
+        <v>0</v>
+      </c>
+      <c r="J89" s="7">
+        <v>15422.01</v>
+      </c>
+      <c r="K89" s="7">
+        <v>-1546.03</v>
+      </c>
+      <c r="L89" s="8">
+        <v>0</v>
+      </c>
+      <c r="M89" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="10">
+        <v>0</v>
+      </c>
+      <c r="D90" s="10">
+        <v>0</v>
+      </c>
+      <c r="E90" s="10">
+        <v>0</v>
+      </c>
+      <c r="F90" s="11">
+        <v>11.81</v>
+      </c>
+      <c r="G90" s="11">
+        <v>0</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0</v>
+      </c>
+      <c r="I90" s="11">
+        <v>0</v>
+      </c>
+      <c r="J90" s="11">
+        <v>-1019.02</v>
+      </c>
+      <c r="K90" s="11">
+        <v>-2807.73</v>
+      </c>
+      <c r="L90" s="9">
+        <v>0</v>
+      </c>
+      <c r="M90" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N90" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91" s="6">
         <v>300378</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C91" s="6">
         <v>17100</v>
       </c>
-      <c r="D86" s="6">
-        <v>0</v>
-      </c>
-      <c r="E86" s="6">
-        <v>17100</v>
-      </c>
-      <c r="F86" s="7">
-        <v>26.04</v>
-      </c>
-      <c r="G86" s="7">
-        <v>25.421</v>
-      </c>
-      <c r="H86" s="7">
-        <v>0</v>
-      </c>
-      <c r="I86" s="7">
-        <v>445284</v>
-      </c>
-      <c r="J86" s="7">
-        <v>10579.52</v>
-      </c>
-      <c r="K86" s="7">
-        <v>10579.52</v>
-      </c>
-      <c r="L86" s="8">
-        <v>2.43</v>
-      </c>
-      <c r="M86" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N86" s="8" t="s">
+      <c r="D91" s="6">
+        <v>5200</v>
+      </c>
+      <c r="E91" s="6">
+        <v>11900</v>
+      </c>
+      <c r="F91" s="7">
+        <v>28.6</v>
+      </c>
+      <c r="G91" s="7">
+        <v>25.332</v>
+      </c>
+      <c r="H91" s="7">
+        <v>0</v>
+      </c>
+      <c r="I91" s="7">
+        <v>489060</v>
+      </c>
+      <c r="J91" s="7">
+        <v>55884.66</v>
+      </c>
+      <c r="K91" s="7">
+        <v>45290.18</v>
+      </c>
+      <c r="L91" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N91" s="8" t="s">
         <v>25</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
+++ b/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="136">
   <si>
     <t>资金</t>
   </si>
@@ -139,12 +139,18 @@
     <t>一汽富维</t>
   </si>
   <si>
+    <t>上海医药</t>
+  </si>
+  <si>
     <t>东方雨虹</t>
   </si>
   <si>
     <t>002271</t>
   </si>
   <si>
+    <t>东睦股份</t>
+  </si>
+  <si>
     <t>中化国际</t>
   </si>
   <si>
@@ -154,10 +160,16 @@
     <t>中新药业</t>
   </si>
   <si>
-    <t>云图控股</t>
-  </si>
-  <si>
-    <t>002539</t>
+    <t>中材科技</t>
+  </si>
+  <si>
+    <t>002080</t>
+  </si>
+  <si>
+    <t>五 粮 液</t>
+  </si>
+  <si>
+    <t>000858</t>
   </si>
   <si>
     <t>亿嘉和</t>
@@ -166,10 +178,7 @@
     <t>伊利股份</t>
   </si>
   <si>
-    <t>值得买</t>
-  </si>
-  <si>
-    <t>凯伦股份</t>
+    <t>兆易创新</t>
   </si>
   <si>
     <t>凯撒文化</t>
@@ -184,21 +193,12 @@
     <t>000065</t>
   </si>
   <si>
-    <t>千禾味业</t>
-  </si>
-  <si>
     <t>华宝添益</t>
   </si>
   <si>
     <t>华新水泥</t>
   </si>
   <si>
-    <t>华金资本</t>
-  </si>
-  <si>
-    <t>000532</t>
-  </si>
-  <si>
     <t>博彦科技</t>
   </si>
   <si>
@@ -226,12 +226,18 @@
     <t>奥克股份</t>
   </si>
   <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
     <t>安琪酵母</t>
   </si>
   <si>
     <t>宝钢包装</t>
   </si>
   <si>
+    <t>寒锐钴业</t>
+  </si>
+  <si>
     <t>山东黄金</t>
   </si>
   <si>
@@ -241,12 +247,6 @@
     <t>002097</t>
   </si>
   <si>
-    <t>川能动力</t>
-  </si>
-  <si>
-    <t>000155</t>
-  </si>
-  <si>
     <t>广信股份</t>
   </si>
   <si>
@@ -256,7 +256,7 @@
     <t>002410</t>
   </si>
   <si>
-    <t>广西广电</t>
+    <t>康泰生物</t>
   </si>
   <si>
     <t>康跃科技</t>
@@ -268,6 +268,9 @@
     <t>002028</t>
   </si>
   <si>
+    <t>恒力石化</t>
+  </si>
+  <si>
     <t>恒瑞医药</t>
   </si>
   <si>
@@ -277,12 +280,6 @@
     <t>002262</t>
   </si>
   <si>
-    <t>我爱我家</t>
-  </si>
-  <si>
-    <t>000560</t>
-  </si>
-  <si>
     <t>捷佳伟创</t>
   </si>
   <si>
@@ -292,13 +289,13 @@
     <t>新华医疗</t>
   </si>
   <si>
-    <t>易事特</t>
-  </si>
-  <si>
     <t>星宇股份</t>
   </si>
   <si>
-    <t>智飞生物</t>
+    <t>杭氧股份</t>
+  </si>
+  <si>
+    <t>002430</t>
   </si>
   <si>
     <t>森源电气</t>
@@ -307,12 +304,6 @@
     <t>002358</t>
   </si>
   <si>
-    <t>森马服饰</t>
-  </si>
-  <si>
-    <t>002563</t>
-  </si>
-  <si>
     <t>欧比特</t>
   </si>
   <si>
@@ -322,10 +313,19 @@
     <t>海螺水泥</t>
   </si>
   <si>
-    <t>火炬电子</t>
-  </si>
-  <si>
-    <t>特变电工</t>
+    <t>爱施德</t>
+  </si>
+  <si>
+    <t>002416</t>
+  </si>
+  <si>
+    <t>牧原股份</t>
+  </si>
+  <si>
+    <t>002714</t>
+  </si>
+  <si>
+    <t>玉龙股份</t>
   </si>
   <si>
     <t>环旭电子</t>
@@ -343,21 +343,12 @@
     <t>000531</t>
   </si>
   <si>
-    <t>立讯精密</t>
-  </si>
-  <si>
-    <t>002475</t>
-  </si>
-  <si>
     <t>精准信息</t>
   </si>
   <si>
     <t>紫金矿业</t>
   </si>
   <si>
-    <t>红相股份</t>
-  </si>
-  <si>
     <t>美克家居</t>
   </si>
   <si>
@@ -367,6 +358,9 @@
     <t>000333</t>
   </si>
   <si>
+    <t>聆达股份</t>
+  </si>
+  <si>
     <t>胜宏科技</t>
   </si>
   <si>
@@ -397,21 +391,9 @@
     <t>赛意信息</t>
   </si>
   <si>
-    <t>达实智能</t>
-  </si>
-  <si>
-    <t>002421</t>
-  </si>
-  <si>
     <t>迈瑞医疗</t>
   </si>
   <si>
-    <t>通化金马</t>
-  </si>
-  <si>
-    <t>000766</t>
-  </si>
-  <si>
     <t>金冠股份</t>
   </si>
   <si>
@@ -421,15 +403,6 @@
     <t>002515</t>
   </si>
   <si>
-    <t>铭普光磁</t>
-  </si>
-  <si>
-    <t>002902</t>
-  </si>
-  <si>
-    <t>银河磁体</t>
-  </si>
-  <si>
     <t>长春高新</t>
   </si>
   <si>
@@ -446,12 +419,6 @@
   </si>
   <si>
     <t>002352</t>
-  </si>
-  <si>
-    <t>顺络电子</t>
-  </si>
-  <si>
-    <t>002138</t>
   </si>
   <si>
     <t>鲁亿通</t>
@@ -846,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -926,28 +893,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>2188292.07</v>
+        <v>2600330.78</v>
       </c>
       <c r="D3" s="3">
-        <v>2502201.49</v>
+        <v>2368995.77</v>
       </c>
       <c r="E3" s="3">
-        <v>2188292.07</v>
+        <v>2368995.77</v>
       </c>
       <c r="F3" s="3">
-        <v>-313909.42</v>
+        <v>231335.01</v>
       </c>
       <c r="G3" s="3">
-        <v>20228571.45</v>
+        <v>20162668.39</v>
       </c>
       <c r="H3" s="3">
-        <v>22730772.94</v>
+        <v>22531664.16</v>
       </c>
       <c r="I3" s="3">
-        <v>-85292.11</v>
+        <v>-143033.85</v>
       </c>
       <c r="J3" s="3">
-        <v>-248550.7</v>
+        <v>-316582.39</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1054,10 +1021,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>527000</v>
+        <v>566000</v>
       </c>
       <c r="C8" s="3">
-        <v>527500</v>
+        <v>566500</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1071,7 +1038,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>1499000</v>
+        <v>1457500</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1162,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>10.7</v>
+        <v>10.86</v>
       </c>
       <c r="G12" s="7">
         <v>11.026</v>
@@ -1171,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>128400</v>
+        <v>130320</v>
       </c>
       <c r="J12" s="7">
-        <v>-3908.81</v>
+        <v>-1988.81</v>
       </c>
       <c r="K12" s="7">
-        <v>-2160</v>
+        <v>-2280</v>
       </c>
       <c r="L12" s="8">
-        <v>-2.96</v>
+        <v>-1.51</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>24</v>
@@ -1193,88 +1160,88 @@
       <c r="A13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>42</v>
+      <c r="B13" s="6">
+        <v>601607</v>
       </c>
       <c r="C13" s="6">
-        <v>4400</v>
+        <v>8700</v>
       </c>
       <c r="D13" s="6">
         <v>0</v>
       </c>
       <c r="E13" s="6">
-        <v>4400</v>
+        <v>8700</v>
       </c>
       <c r="F13" s="7">
-        <v>55.1</v>
+        <v>23.17</v>
       </c>
       <c r="G13" s="7">
-        <v>55.172</v>
+        <v>23.681</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>242440</v>
+        <v>201579</v>
       </c>
       <c r="J13" s="7">
-        <v>-314.9</v>
+        <v>-4444.65</v>
       </c>
       <c r="K13" s="7">
-        <v>-314.9</v>
+        <v>-4444.65</v>
       </c>
       <c r="L13" s="8">
-        <v>-0.13</v>
+        <v>-2.16</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="10">
-        <v>600500</v>
-      </c>
       <c r="C14" s="10">
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="D14" s="10">
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
       </c>
       <c r="F14" s="11">
-        <v>5.92</v>
+        <v>55.06</v>
       </c>
       <c r="G14" s="11">
-        <v>5.701</v>
+        <v>0</v>
       </c>
       <c r="H14" s="11">
         <v>0</v>
       </c>
       <c r="I14" s="11">
-        <v>99456</v>
+        <v>0</v>
       </c>
       <c r="J14" s="11">
-        <v>3681.65</v>
+        <v>6694.57</v>
       </c>
       <c r="K14" s="11">
-        <v>-336</v>
+        <v>5848.14</v>
       </c>
       <c r="L14" s="9">
-        <v>3.84</v>
+        <v>0</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -1282,37 +1249,37 @@
         <v>44</v>
       </c>
       <c r="B15" s="6">
-        <v>601949</v>
+        <v>600114</v>
       </c>
       <c r="C15" s="6">
-        <v>36500</v>
+        <v>19300</v>
       </c>
       <c r="D15" s="6">
-        <v>36500</v>
+        <v>0</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
+        <v>19300</v>
       </c>
       <c r="F15" s="7">
-        <v>5.97</v>
+        <v>11.83</v>
       </c>
       <c r="G15" s="7">
-        <v>6.234</v>
+        <v>11.97</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>217905</v>
+        <v>228319</v>
       </c>
       <c r="J15" s="7">
-        <v>-9632.76</v>
+        <v>-2696.3</v>
       </c>
       <c r="K15" s="7">
-        <v>-4745</v>
+        <v>-2696.3</v>
       </c>
       <c r="L15" s="8">
-        <v>-4.23</v>
+        <v>-1.17</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>24</v>
@@ -1326,37 +1293,37 @@
         <v>45</v>
       </c>
       <c r="B16" s="10">
-        <v>600329</v>
+        <v>600500</v>
       </c>
       <c r="C16" s="10">
-        <v>5700</v>
+        <v>16800</v>
       </c>
       <c r="D16" s="10">
-        <v>5700</v>
+        <v>16800</v>
       </c>
       <c r="E16" s="10">
         <v>0</v>
       </c>
       <c r="F16" s="11">
-        <v>18.61</v>
+        <v>5.92</v>
       </c>
       <c r="G16" s="11">
-        <v>18.491</v>
+        <v>5.701</v>
       </c>
       <c r="H16" s="11">
         <v>0</v>
       </c>
       <c r="I16" s="11">
-        <v>106077</v>
+        <v>99456</v>
       </c>
       <c r="J16" s="11">
-        <v>680.21</v>
+        <v>3681.65</v>
       </c>
       <c r="K16" s="11">
-        <v>-3705</v>
+        <v>-1344</v>
       </c>
       <c r="L16" s="9">
-        <v>0.64</v>
+        <v>3.84</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>24</v>
@@ -1369,434 +1336,434 @@
       <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6">
+        <v>601949</v>
+      </c>
+      <c r="C17" s="6">
+        <v>36500</v>
+      </c>
+      <c r="D17" s="6">
+        <v>36500</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>5.85</v>
+      </c>
+      <c r="G17" s="7">
+        <v>6.234</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>213525</v>
+      </c>
+      <c r="J17" s="7">
+        <v>-14012.76</v>
+      </c>
+      <c r="K17" s="7">
+        <v>-8030</v>
+      </c>
+      <c r="L17" s="8">
+        <v>-6.16</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="6">
-        <v>26000</v>
-      </c>
-      <c r="D17" s="6">
-        <v>26000</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>7.2</v>
-      </c>
-      <c r="G17" s="7">
-        <v>7.58</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>187200</v>
-      </c>
-      <c r="J17" s="7">
-        <v>-9870.66</v>
-      </c>
-      <c r="K17" s="7">
-        <v>-4420</v>
-      </c>
-      <c r="L17" s="8">
-        <v>-5.01</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="10">
-        <v>603666</v>
-      </c>
-      <c r="C18" s="10">
-        <v>2600</v>
-      </c>
-      <c r="D18" s="10">
-        <v>2600</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>115.34</v>
-      </c>
-      <c r="G18" s="11">
-        <v>106.932</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
-        <v>299884</v>
-      </c>
-      <c r="J18" s="11">
-        <v>21861.37</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-2496</v>
-      </c>
-      <c r="L18" s="9">
-        <v>7.86</v>
-      </c>
-      <c r="M18" s="9" t="s">
+      <c r="B18" s="6">
+        <v>600329</v>
+      </c>
+      <c r="C18" s="6">
+        <v>5700</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5700</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>18.07</v>
+      </c>
+      <c r="G18" s="7">
+        <v>18.491</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>102999</v>
+      </c>
+      <c r="J18" s="7">
+        <v>-2397.79</v>
+      </c>
+      <c r="K18" s="7">
+        <v>-1824</v>
+      </c>
+      <c r="L18" s="8">
+        <v>-2.28</v>
+      </c>
+      <c r="M18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="6">
-        <v>600887</v>
-      </c>
       <c r="C19" s="6">
-        <v>16466</v>
+        <v>4300</v>
       </c>
       <c r="D19" s="6">
-        <v>16466</v>
+        <v>0</v>
       </c>
       <c r="E19" s="6">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="F19" s="7">
-        <v>36.43</v>
+        <v>21.17</v>
       </c>
       <c r="G19" s="7">
-        <v>37.331</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>599856.38</v>
+        <v>91031</v>
       </c>
       <c r="J19" s="7">
-        <v>-14835.25</v>
+        <v>-3569.72</v>
       </c>
       <c r="K19" s="7">
-        <v>-11526.2</v>
+        <v>-3569.72</v>
       </c>
       <c r="L19" s="8">
-        <v>-2.41</v>
+        <v>-3.77</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="6">
-        <v>300785</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1500</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1500</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>111.4</v>
-      </c>
-      <c r="G20" s="7">
-        <v>122.694</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>167100</v>
-      </c>
-      <c r="J20" s="7">
-        <v>-16940.92</v>
-      </c>
-      <c r="K20" s="7">
-        <v>-7785</v>
-      </c>
-      <c r="L20" s="8">
-        <v>-9.21</v>
-      </c>
-      <c r="M20" s="8" t="s">
+      <c r="B20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2900</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>209</v>
+      </c>
+      <c r="G20" s="11">
+        <v>205.432</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>606100</v>
+      </c>
+      <c r="J20" s="11">
+        <v>10348.57</v>
+      </c>
+      <c r="K20" s="11">
+        <v>8874</v>
+      </c>
+      <c r="L20" s="9">
+        <v>1.74</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="10">
-        <v>300715</v>
+        <v>603666</v>
       </c>
       <c r="C21" s="10">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="D21" s="10">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E21" s="10">
         <v>0</v>
       </c>
       <c r="F21" s="11">
-        <v>44.75</v>
+        <v>115.08</v>
       </c>
       <c r="G21" s="11">
-        <v>0</v>
+        <v>106.932</v>
       </c>
       <c r="H21" s="11">
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <v>0</v>
+        <v>299208</v>
       </c>
       <c r="J21" s="11">
-        <v>17208.47</v>
+        <v>21185.37</v>
       </c>
       <c r="K21" s="11">
-        <v>7880.67</v>
+        <v>-4862</v>
       </c>
       <c r="L21" s="9">
-        <v>0</v>
+        <v>7.62</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="8" t="s">
         <v>53</v>
       </c>
+      <c r="B22" s="6">
+        <v>600887</v>
+      </c>
       <c r="C22" s="6">
-        <v>23800</v>
+        <v>16466</v>
       </c>
       <c r="D22" s="6">
-        <v>0</v>
+        <v>16466</v>
       </c>
       <c r="E22" s="6">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>14.39</v>
+        <v>36</v>
       </c>
       <c r="G22" s="7">
-        <v>14.518</v>
+        <v>37.331</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>342482</v>
+        <v>592776</v>
       </c>
       <c r="J22" s="7">
-        <v>-3037.83</v>
+        <v>-21915.63</v>
       </c>
       <c r="K22" s="7">
-        <v>-3037.83</v>
+        <v>-6915.72</v>
       </c>
       <c r="L22" s="8">
-        <v>-0.88</v>
+        <v>-3.57</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>55</v>
+      <c r="B23" s="10">
+        <v>603986</v>
       </c>
       <c r="C23" s="10">
-        <v>19100</v>
+        <v>2800</v>
       </c>
       <c r="D23" s="10">
-        <v>19100</v>
+        <v>2800</v>
       </c>
       <c r="E23" s="10">
         <v>0</v>
       </c>
       <c r="F23" s="11">
-        <v>8.46</v>
+        <v>215.66</v>
       </c>
       <c r="G23" s="11">
-        <v>8.319</v>
+        <v>214.39</v>
       </c>
       <c r="H23" s="11">
         <v>0</v>
       </c>
       <c r="I23" s="11">
-        <v>161586</v>
+        <v>603848</v>
       </c>
       <c r="J23" s="11">
-        <v>2690.31</v>
+        <v>3555.95</v>
       </c>
       <c r="K23" s="11">
-        <v>-4584</v>
+        <v>-6664</v>
       </c>
       <c r="L23" s="9">
-        <v>1.69</v>
+        <v>0.59</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="6">
-        <v>603027</v>
-      </c>
       <c r="C24" s="6">
-        <v>0</v>
+        <v>23800</v>
       </c>
       <c r="D24" s="6">
-        <v>0</v>
+        <v>23800</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>33.02</v>
+        <v>13.48</v>
       </c>
       <c r="G24" s="7">
-        <v>0</v>
+        <v>14.514</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>320824</v>
       </c>
       <c r="J24" s="7">
-        <v>-12775.58</v>
+        <v>-24616.52</v>
       </c>
       <c r="K24" s="7">
-        <v>-3436.04</v>
+        <v>-15708</v>
       </c>
       <c r="L24" s="8">
-        <v>0</v>
+        <v>-7.12</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="10">
-        <v>511990</v>
+      <c r="B25" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="C25" s="10">
-        <v>6</v>
+        <v>19100</v>
       </c>
       <c r="D25" s="10">
-        <v>6</v>
+        <v>19100</v>
       </c>
       <c r="E25" s="10">
         <v>0</v>
       </c>
       <c r="F25" s="11">
-        <v>100.012</v>
+        <v>8.49</v>
       </c>
       <c r="G25" s="11">
-        <v>-6751.737</v>
+        <v>8.319</v>
       </c>
       <c r="H25" s="11">
         <v>0</v>
       </c>
       <c r="I25" s="11">
-        <v>600.07</v>
+        <v>162159</v>
       </c>
       <c r="J25" s="11">
-        <v>41110.49</v>
+        <v>3263.31</v>
       </c>
       <c r="K25" s="11">
-        <v>0.03</v>
+        <v>-5348</v>
       </c>
       <c r="L25" s="9">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" s="10">
-        <v>600801</v>
+        <v>511990</v>
       </c>
       <c r="C26" s="10">
-        <v>4600</v>
+        <v>6</v>
       </c>
       <c r="D26" s="10">
-        <v>4600</v>
+        <v>6</v>
       </c>
       <c r="E26" s="10">
         <v>0</v>
       </c>
       <c r="F26" s="11">
-        <v>27.64</v>
+        <v>100.017</v>
       </c>
       <c r="G26" s="11">
-        <v>27.52</v>
+        <v>-6751.737</v>
       </c>
       <c r="H26" s="11">
         <v>0</v>
       </c>
       <c r="I26" s="11">
-        <v>127144</v>
+        <v>600.1</v>
       </c>
       <c r="J26" s="11">
-        <v>550</v>
+        <v>41110.52</v>
       </c>
       <c r="K26" s="11">
-        <v>1656</v>
+        <v>0.05</v>
       </c>
       <c r="L26" s="9">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>24</v>
@@ -1807,46 +1774,46 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="8" t="s">
         <v>60</v>
       </c>
+      <c r="B27" s="6">
+        <v>600801</v>
+      </c>
       <c r="C27" s="6">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="D27" s="6">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>13.15</v>
+        <v>26.67</v>
       </c>
       <c r="G27" s="7">
-        <v>0</v>
+        <v>27.52</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>0</v>
+        <v>122682</v>
       </c>
       <c r="J27" s="7">
-        <v>-10738.65</v>
+        <v>-3912</v>
       </c>
       <c r="K27" s="7">
-        <v>-13676.12</v>
+        <v>-3312</v>
       </c>
       <c r="L27" s="8">
-        <v>0</v>
+        <v>-3.09</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1857,34 +1824,34 @@
         <v>62</v>
       </c>
       <c r="C28" s="10">
-        <v>22700</v>
+        <v>0</v>
       </c>
       <c r="D28" s="10">
-        <v>22700</v>
+        <v>0</v>
       </c>
       <c r="E28" s="10">
         <v>0</v>
       </c>
       <c r="F28" s="11">
-        <v>9.25</v>
+        <v>10.56</v>
       </c>
       <c r="G28" s="11">
-        <v>9.045</v>
+        <v>0</v>
       </c>
       <c r="H28" s="11">
         <v>0</v>
       </c>
       <c r="I28" s="11">
-        <v>209975</v>
+        <v>0</v>
       </c>
       <c r="J28" s="11">
-        <v>4658.16</v>
+        <v>37303.61</v>
       </c>
       <c r="K28" s="11">
-        <v>-5448</v>
+        <v>11534.45</v>
       </c>
       <c r="L28" s="9">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>26</v>
@@ -1910,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>4.26</v>
+        <v>4.44</v>
       </c>
       <c r="G29" s="7">
         <v>4.524</v>
@@ -1919,16 +1886,16 @@
         <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>332706</v>
+        <v>346764</v>
       </c>
       <c r="J29" s="7">
-        <v>-20648.2</v>
-      </c>
-      <c r="K29" s="7">
-        <v>-9372</v>
+        <v>-6590.2</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="L29" s="8">
-        <v>-5.84</v>
+        <v>-1.86</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>26</v>
@@ -1938,46 +1905,46 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="10">
         <v>300094</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="10">
         <v>86400</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="10">
         <v>86400</v>
       </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>4.31</v>
-      </c>
-      <c r="G30" s="7">
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>4.77</v>
+      </c>
+      <c r="G30" s="11">
         <v>4.328</v>
       </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>372384</v>
-      </c>
-      <c r="J30" s="7">
-        <v>-1512.61</v>
-      </c>
-      <c r="K30" s="7">
-        <v>-6048</v>
-      </c>
-      <c r="L30" s="8">
-        <v>-0.42</v>
-      </c>
-      <c r="M30" s="8" t="s">
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>412128</v>
+      </c>
+      <c r="J30" s="11">
+        <v>38231.39</v>
+      </c>
+      <c r="K30" s="11">
+        <v>37152</v>
+      </c>
+      <c r="L30" s="9">
+        <v>10.21</v>
+      </c>
+      <c r="M30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="8" t="s">
+      <c r="N30" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1998,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>3.9</v>
+        <v>3.87</v>
       </c>
       <c r="G31" s="7">
         <v>3.936</v>
@@ -2007,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>34710</v>
+        <v>34443</v>
       </c>
       <c r="J31" s="7">
-        <v>-316.92</v>
+        <v>-583.92</v>
       </c>
       <c r="K31" s="7">
         <v>-712</v>
       </c>
       <c r="L31" s="8">
-        <v>-0.91</v>
+        <v>-1.68</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>24</v>
@@ -2026,46 +1993,46 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="10">
         <v>600161</v>
       </c>
-      <c r="C32" s="6">
-        <v>12500</v>
-      </c>
-      <c r="D32" s="6">
-        <v>10100</v>
-      </c>
-      <c r="E32" s="6">
-        <v>2400</v>
-      </c>
-      <c r="F32" s="7">
-        <v>47.99</v>
-      </c>
-      <c r="G32" s="7">
-        <v>50.204</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>599875</v>
-      </c>
-      <c r="J32" s="7">
-        <v>-27678.08</v>
-      </c>
-      <c r="K32" s="7">
-        <v>-11141.88</v>
-      </c>
-      <c r="L32" s="8">
-        <v>-4.41</v>
-      </c>
-      <c r="M32" s="8" t="s">
+      <c r="C32" s="10">
+        <v>8200</v>
+      </c>
+      <c r="D32" s="10">
+        <v>8200</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>50.99</v>
+      </c>
+      <c r="G32" s="11">
+        <v>49.199</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>418118</v>
+      </c>
+      <c r="J32" s="11">
+        <v>14682.96</v>
+      </c>
+      <c r="K32" s="11">
+        <v>17104.11</v>
+      </c>
+      <c r="L32" s="9">
+        <v>3.64</v>
+      </c>
+      <c r="M32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="8" t="s">
+      <c r="N32" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2086,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="7">
-        <v>16.76</v>
+        <v>16.57</v>
       </c>
       <c r="G33" s="7">
         <v>17.033</v>
@@ -2095,16 +2062,16 @@
         <v>0</v>
       </c>
       <c r="I33" s="7">
-        <v>8380</v>
+        <v>8285</v>
       </c>
       <c r="J33" s="7">
-        <v>-136.28</v>
+        <v>-231.28</v>
       </c>
       <c r="K33" s="7">
-        <v>-60</v>
+        <v>-160</v>
       </c>
       <c r="L33" s="8">
-        <v>-1.6</v>
+        <v>-2.72</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>24</v>
@@ -2130,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>8.34</v>
+        <v>8.1</v>
       </c>
       <c r="G34" s="7">
         <v>8.565</v>
@@ -2139,16 +2106,16 @@
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>59214</v>
+        <v>57510</v>
       </c>
       <c r="J34" s="7">
-        <v>-1596.91</v>
+        <v>-3300.91</v>
       </c>
       <c r="K34" s="7">
         <v>-1988</v>
       </c>
       <c r="L34" s="8">
-        <v>-2.63</v>
+        <v>-5.43</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>26</v>
@@ -2158,437 +2125,437 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="6">
+        <v>300750</v>
+      </c>
+      <c r="C35" s="6">
+        <v>900</v>
+      </c>
+      <c r="D35" s="6">
+        <v>900</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>198.42</v>
+      </c>
+      <c r="G35" s="7">
+        <v>199.602</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>178578</v>
+      </c>
+      <c r="J35" s="7">
+        <v>-1063.36</v>
+      </c>
+      <c r="K35" s="7">
+        <v>-2034</v>
+      </c>
+      <c r="L35" s="8">
+        <v>-0.59</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="10">
         <v>600298</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C36" s="10">
         <v>100</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D36" s="10">
         <v>100</v>
       </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11">
-        <v>67.89</v>
-      </c>
-      <c r="G35" s="11">
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>68.02</v>
+      </c>
+      <c r="G36" s="11">
         <v>67.21</v>
       </c>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
-        <v>6789</v>
-      </c>
-      <c r="J35" s="11">
-        <v>68</v>
-      </c>
-      <c r="K35" s="11">
-        <v>-25</v>
-      </c>
-      <c r="L35" s="9">
-        <v>1.01</v>
-      </c>
-      <c r="M35" s="9" t="s">
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>6802</v>
+      </c>
+      <c r="J36" s="11">
+        <v>81</v>
+      </c>
+      <c r="K36" s="11">
+        <v>95</v>
+      </c>
+      <c r="L36" s="9">
+        <v>1.21</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N35" s="9" t="s">
+      <c r="N36" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="6">
+    <row r="37" spans="1:14">
+      <c r="A37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="6">
         <v>601968</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C37" s="6">
         <v>20400</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D37" s="6">
         <v>20400</v>
       </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7">
-        <v>7.07</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>6.97</v>
+      </c>
+      <c r="G37" s="7">
         <v>7.091</v>
       </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>144228</v>
-      </c>
-      <c r="J36" s="7">
-        <v>-425.69</v>
-      </c>
-      <c r="K36" s="7">
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>142188</v>
+      </c>
+      <c r="J37" s="7">
+        <v>-2465.69</v>
+      </c>
+      <c r="K37" s="7">
         <v>-2244</v>
       </c>
-      <c r="L36" s="8">
-        <v>-0.3</v>
-      </c>
-      <c r="M36" s="8" t="s">
+      <c r="L37" s="8">
+        <v>-1.71</v>
+      </c>
+      <c r="M37" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N36" s="8" t="s">
+      <c r="N37" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="10">
-        <v>600547</v>
-      </c>
-      <c r="C37" s="10">
-        <v>14600</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0</v>
-      </c>
-      <c r="E37" s="10">
-        <v>14600</v>
-      </c>
-      <c r="F37" s="11">
-        <v>44.52</v>
-      </c>
-      <c r="G37" s="11">
-        <v>43.045</v>
-      </c>
-      <c r="H37" s="11">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11">
-        <v>649992</v>
-      </c>
-      <c r="J37" s="11">
-        <v>21536.57</v>
-      </c>
-      <c r="K37" s="11">
-        <v>-11672.23</v>
-      </c>
-      <c r="L37" s="9">
-        <v>3.43</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="10">
-        <v>51100</v>
-      </c>
-      <c r="D38" s="10">
-        <v>51100</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0</v>
-      </c>
-      <c r="F38" s="11">
-        <v>8.48</v>
-      </c>
-      <c r="G38" s="11">
-        <v>6.961</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
-        <v>433328</v>
-      </c>
-      <c r="J38" s="11">
-        <v>77622.76</v>
-      </c>
-      <c r="K38" s="11">
-        <v>22995</v>
-      </c>
-      <c r="L38" s="9">
-        <v>21.82</v>
-      </c>
-      <c r="M38" s="9" t="s">
+      <c r="B38" s="6">
+        <v>300618</v>
+      </c>
+      <c r="C38" s="6">
+        <v>7375</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>7375</v>
+      </c>
+      <c r="F38" s="7">
+        <v>78.11</v>
+      </c>
+      <c r="G38" s="7">
+        <v>81.302</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>576061.25</v>
+      </c>
+      <c r="J38" s="7">
+        <v>-23541.86</v>
+      </c>
+      <c r="K38" s="7">
+        <v>-23541.86</v>
+      </c>
+      <c r="L38" s="8">
+        <v>-3.93</v>
+      </c>
+      <c r="M38" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="9" t="s">
+      <c r="N38" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="6">
+        <v>600547</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>41.39</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <v>-5862.18</v>
+      </c>
+      <c r="K39" s="7">
+        <v>-7542.75</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="6">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6">
-        <v>0</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>5.39</v>
-      </c>
-      <c r="G39" s="7">
-        <v>0</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0</v>
-      </c>
-      <c r="J39" s="7">
-        <v>-735.99</v>
-      </c>
-      <c r="K39" s="7">
-        <v>-830.46</v>
-      </c>
-      <c r="L39" s="8">
-        <v>0</v>
-      </c>
-      <c r="M39" s="8" t="s">
+      <c r="C40" s="10">
+        <v>51100</v>
+      </c>
+      <c r="D40" s="10">
+        <v>51100</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>8.08</v>
+      </c>
+      <c r="G40" s="11">
+        <v>6.961</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>412888</v>
+      </c>
+      <c r="J40" s="11">
+        <v>57182.76</v>
+      </c>
+      <c r="K40" s="11">
+        <v>-9198</v>
+      </c>
+      <c r="L40" s="9">
+        <v>16.08</v>
+      </c>
+      <c r="M40" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N39" s="8" t="s">
+      <c r="N40" s="9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="6">
-        <v>603599</v>
-      </c>
-      <c r="C40" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D40" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>17.41</v>
-      </c>
-      <c r="G40" s="7">
-        <v>17.865</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>34820</v>
-      </c>
-      <c r="J40" s="7">
-        <v>-909.36</v>
-      </c>
-      <c r="K40" s="7">
-        <v>-780</v>
-      </c>
-      <c r="L40" s="8">
-        <v>-2.55</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="B41" s="6">
+        <v>603599</v>
       </c>
       <c r="C41" s="6">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="D41" s="6">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="7">
-        <v>72.96</v>
+        <v>17.01</v>
       </c>
       <c r="G41" s="7">
-        <v>76.561</v>
+        <v>17.865</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>401280</v>
+        <v>34020</v>
       </c>
       <c r="J41" s="7">
-        <v>-19807.75</v>
+        <v>-1709.36</v>
       </c>
       <c r="K41" s="7">
-        <v>-13035</v>
+        <v>-1100</v>
       </c>
       <c r="L41" s="8">
-        <v>-4.7</v>
+        <v>-4.79</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="6">
+        <v>5500</v>
+      </c>
+      <c r="D42" s="6">
+        <v>5500</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>67.95</v>
+      </c>
+      <c r="G42" s="7">
+        <v>76.561</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>373725</v>
+      </c>
+      <c r="J42" s="7">
+        <v>-47362.75</v>
+      </c>
+      <c r="K42" s="7">
+        <v>-8525</v>
+      </c>
+      <c r="L42" s="8">
+        <v>-11.25</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="6">
-        <v>600936</v>
-      </c>
-      <c r="C42" s="6">
-        <v>0</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0</v>
-      </c>
-      <c r="E42" s="6">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7">
-        <v>4.22</v>
-      </c>
-      <c r="G42" s="7">
-        <v>0</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7">
-        <v>-3842.38</v>
-      </c>
-      <c r="K42" s="7">
-        <v>-2225.67</v>
-      </c>
-      <c r="L42" s="8">
-        <v>0</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="10">
-        <v>300391</v>
-      </c>
-      <c r="C43" s="10">
-        <v>21700</v>
-      </c>
-      <c r="D43" s="10">
-        <v>21700</v>
-      </c>
-      <c r="E43" s="10">
-        <v>0</v>
-      </c>
-      <c r="F43" s="11">
-        <v>17.2</v>
-      </c>
-      <c r="G43" s="11">
-        <v>15.581</v>
-      </c>
-      <c r="H43" s="11">
-        <v>0</v>
-      </c>
-      <c r="I43" s="11">
-        <v>373240</v>
-      </c>
-      <c r="J43" s="11">
-        <v>35138.58</v>
-      </c>
-      <c r="K43" s="11">
-        <v>-1519</v>
-      </c>
-      <c r="L43" s="9">
-        <v>10.39</v>
-      </c>
-      <c r="M43" s="9" t="s">
+      <c r="B43" s="6">
+        <v>300601</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2700</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>2700</v>
+      </c>
+      <c r="F43" s="7">
+        <v>231.11</v>
+      </c>
+      <c r="G43" s="7">
+        <v>239.138</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>623997</v>
+      </c>
+      <c r="J43" s="7">
+        <v>-21676.48</v>
+      </c>
+      <c r="K43" s="7">
+        <v>-21676.48</v>
+      </c>
+      <c r="L43" s="8">
+        <v>-3.36</v>
+      </c>
+      <c r="M43" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N43" s="9" t="s">
+      <c r="N43" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="B44" s="10">
+        <v>300391</v>
       </c>
       <c r="C44" s="10">
-        <v>20000</v>
+        <v>21700</v>
       </c>
       <c r="D44" s="10">
-        <v>20000</v>
+        <v>21700</v>
       </c>
       <c r="E44" s="10">
         <v>0</v>
       </c>
       <c r="F44" s="11">
-        <v>28.43</v>
+        <v>17.23</v>
       </c>
       <c r="G44" s="11">
-        <v>27.488</v>
+        <v>15.581</v>
       </c>
       <c r="H44" s="11">
         <v>0</v>
       </c>
       <c r="I44" s="11">
-        <v>568600</v>
+        <v>373891</v>
       </c>
       <c r="J44" s="11">
-        <v>18832.28</v>
+        <v>35789.58</v>
       </c>
       <c r="K44" s="11">
-        <v>2400</v>
+        <v>1085</v>
       </c>
       <c r="L44" s="9">
-        <v>3.43</v>
+        <v>10.58</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>26</v>
@@ -2599,216 +2566,216 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="10">
-        <v>600276</v>
+        <v>82</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="C45" s="10">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="D45" s="10">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="E45" s="10">
         <v>0</v>
       </c>
       <c r="F45" s="11">
-        <v>91.2</v>
+        <v>27.07</v>
       </c>
       <c r="G45" s="11">
-        <v>90.814</v>
+        <v>0</v>
       </c>
       <c r="H45" s="11">
         <v>0</v>
       </c>
       <c r="I45" s="11">
-        <v>611040</v>
+        <v>0</v>
       </c>
       <c r="J45" s="11">
-        <v>2584.74</v>
+        <v>7815.57</v>
       </c>
       <c r="K45" s="11">
-        <v>1340</v>
+        <v>-44135.97</v>
       </c>
       <c r="L45" s="9">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="B46" s="6">
+        <v>600346</v>
       </c>
       <c r="C46" s="6">
-        <v>17800</v>
+        <v>26214</v>
       </c>
       <c r="D46" s="6">
-        <v>17800</v>
+        <v>0</v>
       </c>
       <c r="E46" s="6">
-        <v>0</v>
+        <v>26214</v>
       </c>
       <c r="F46" s="7">
-        <v>18.2</v>
+        <v>19.36</v>
       </c>
       <c r="G46" s="7">
-        <v>18.696</v>
+        <v>19.631</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>323960</v>
+        <v>507503.04</v>
       </c>
       <c r="J46" s="7">
-        <v>-8822.27</v>
+        <v>-7111.14</v>
       </c>
       <c r="K46" s="7">
-        <v>-7298</v>
+        <v>-7111.14</v>
       </c>
       <c r="L46" s="8">
-        <v>-2.65</v>
+        <v>-1.38</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="10">
+        <v>600276</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>91.78</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11">
+        <v>11094.39</v>
+      </c>
+      <c r="K47" s="11">
+        <v>11256.65</v>
+      </c>
+      <c r="L47" s="9">
+        <v>0</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="10">
-        <v>0</v>
-      </c>
-      <c r="D47" s="10">
-        <v>0</v>
-      </c>
-      <c r="E47" s="10">
-        <v>0</v>
-      </c>
-      <c r="F47" s="11">
-        <v>5.22</v>
-      </c>
-      <c r="G47" s="11">
-        <v>0</v>
-      </c>
-      <c r="H47" s="11">
-        <v>0</v>
-      </c>
-      <c r="I47" s="11">
-        <v>0</v>
-      </c>
-      <c r="J47" s="11">
-        <v>4975.93</v>
-      </c>
-      <c r="K47" s="11">
-        <v>-1560.17</v>
-      </c>
-      <c r="L47" s="9">
-        <v>0</v>
-      </c>
-      <c r="M47" s="9" t="s">
+      <c r="C48" s="10">
+        <v>17800</v>
+      </c>
+      <c r="D48" s="10">
+        <v>17800</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>19.63</v>
+      </c>
+      <c r="G48" s="11">
+        <v>18.696</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>349414</v>
+      </c>
+      <c r="J48" s="11">
+        <v>16631.73</v>
+      </c>
+      <c r="K48" s="11">
+        <v>-6942</v>
+      </c>
+      <c r="L48" s="9">
+        <v>5</v>
+      </c>
+      <c r="M48" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N47" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="6">
-        <v>300724</v>
-      </c>
-      <c r="C48" s="6">
-        <v>4800</v>
-      </c>
-      <c r="D48" s="6">
-        <v>4800</v>
-      </c>
-      <c r="E48" s="6">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7">
-        <v>85.67</v>
-      </c>
-      <c r="G48" s="7">
-        <v>92.142</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>411216</v>
-      </c>
-      <c r="J48" s="7">
-        <v>-31063.48</v>
-      </c>
-      <c r="K48" s="7">
-        <v>-11040</v>
-      </c>
-      <c r="L48" s="8">
-        <v>-7.02</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N48" s="8" t="s">
+      <c r="N48" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B49" s="6">
-        <v>300182</v>
+        <v>300724</v>
       </c>
       <c r="C49" s="6">
-        <v>120000</v>
+        <v>4800</v>
       </c>
       <c r="D49" s="6">
-        <v>120000</v>
+        <v>4800</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>5.04</v>
+        <v>87</v>
       </c>
       <c r="G49" s="7">
-        <v>5.286</v>
+        <v>92.142</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>604800</v>
+        <v>417600</v>
       </c>
       <c r="J49" s="7">
-        <v>-29560.45</v>
+        <v>-24679.48</v>
       </c>
       <c r="K49" s="7">
-        <v>-13200</v>
+        <v>7200</v>
       </c>
       <c r="L49" s="8">
-        <v>-4.65</v>
+        <v>-5.58</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>26</v>
@@ -2819,95 +2786,95 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B50" s="6">
-        <v>600587</v>
+        <v>300182</v>
       </c>
       <c r="C50" s="6">
-        <v>25100</v>
+        <v>120000</v>
       </c>
       <c r="D50" s="6">
-        <v>25100</v>
+        <v>120000</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
       </c>
       <c r="F50" s="7">
-        <v>19.1</v>
+        <v>4.95</v>
       </c>
       <c r="G50" s="7">
-        <v>21.096</v>
+        <v>5.286</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>479410</v>
+        <v>594000</v>
       </c>
       <c r="J50" s="7">
-        <v>-50097.38</v>
+        <v>-40360.45</v>
       </c>
       <c r="K50" s="7">
-        <v>-11797</v>
+        <v>-8400</v>
       </c>
       <c r="L50" s="8">
-        <v>-9.46</v>
+        <v>-6.36</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B51" s="6">
-        <v>300376</v>
+        <v>600587</v>
       </c>
       <c r="C51" s="6">
-        <v>1800</v>
+        <v>25100</v>
       </c>
       <c r="D51" s="6">
-        <v>1800</v>
+        <v>25100</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>5.11</v>
+        <v>18.74</v>
       </c>
       <c r="G51" s="7">
-        <v>5.271</v>
+        <v>21.096</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>9198</v>
+        <v>470374</v>
       </c>
       <c r="J51" s="7">
-        <v>-289.23</v>
+        <v>-59133.38</v>
       </c>
       <c r="K51" s="7">
-        <v>-270</v>
+        <v>-30371</v>
       </c>
       <c r="L51" s="8">
-        <v>-3.05</v>
+        <v>-11.17</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B52" s="10">
         <v>601799</v>
@@ -2916,31 +2883,31 @@
         <v>900</v>
       </c>
       <c r="D52" s="10">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E52" s="10">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F52" s="11">
-        <v>144.32</v>
+        <v>146.88</v>
       </c>
       <c r="G52" s="11">
-        <v>143.724</v>
+        <v>143.693</v>
       </c>
       <c r="H52" s="11">
         <v>0</v>
       </c>
       <c r="I52" s="11">
-        <v>129888</v>
+        <v>132192</v>
       </c>
       <c r="J52" s="11">
-        <v>536.39</v>
+        <v>2868.57</v>
       </c>
       <c r="K52" s="11">
-        <v>536.39</v>
+        <v>2322</v>
       </c>
       <c r="L52" s="9">
-        <v>0.41</v>
+        <v>2.22</v>
       </c>
       <c r="M52" s="9" t="s">
         <v>24</v>
@@ -2951,40 +2918,40 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="6">
-        <v>300122</v>
+        <v>92</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="C53" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D53" s="6">
         <v>0</v>
       </c>
       <c r="E53" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F53" s="7">
-        <v>161.05</v>
+        <v>18.14</v>
       </c>
       <c r="G53" s="7">
-        <v>0</v>
+        <v>18.42</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>0</v>
+        <v>9070</v>
       </c>
       <c r="J53" s="7">
-        <v>-47847.65</v>
+        <v>-140</v>
       </c>
       <c r="K53" s="7">
-        <v>0.08</v>
+        <v>-140</v>
       </c>
       <c r="L53" s="8">
-        <v>0</v>
+        <v>-1.52</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>26</v>
@@ -2995,40 +2962,40 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="C54" s="10">
-        <v>58900</v>
+        <v>12600</v>
       </c>
       <c r="D54" s="10">
-        <v>58900</v>
+        <v>12600</v>
       </c>
       <c r="E54" s="10">
         <v>0</v>
       </c>
       <c r="F54" s="11">
-        <v>5.83</v>
+        <v>5.55</v>
       </c>
       <c r="G54" s="11">
-        <v>5.608</v>
+        <v>5.041</v>
       </c>
       <c r="H54" s="11">
         <v>0</v>
       </c>
       <c r="I54" s="11">
-        <v>343387</v>
+        <v>69930</v>
       </c>
       <c r="J54" s="11">
-        <v>13070.07</v>
+        <v>6419.15</v>
       </c>
       <c r="K54" s="11">
-        <v>2356</v>
+        <v>-3024</v>
       </c>
       <c r="L54" s="9">
-        <v>3.96</v>
+        <v>10.1</v>
       </c>
       <c r="M54" s="9" t="s">
         <v>26</v>
@@ -3039,40 +3006,40 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="B55" s="6">
+        <v>300053</v>
       </c>
       <c r="C55" s="6">
-        <v>2900</v>
+        <v>41600</v>
       </c>
       <c r="D55" s="6">
-        <v>2900</v>
+        <v>41600</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="7">
-        <v>7.25</v>
+        <v>12.32</v>
       </c>
       <c r="G55" s="7">
-        <v>7.589</v>
+        <v>12.986</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>21025</v>
+        <v>512512</v>
       </c>
       <c r="J55" s="7">
-        <v>-981.86</v>
+        <v>-27692.21</v>
       </c>
       <c r="K55" s="7">
-        <v>-348</v>
+        <v>-19552</v>
       </c>
       <c r="L55" s="8">
-        <v>-4.47</v>
+        <v>-5.13</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>26</v>
@@ -3083,40 +3050,40 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B56" s="10">
-        <v>300053</v>
+        <v>300146</v>
       </c>
       <c r="C56" s="10">
-        <v>41600</v>
+        <v>0</v>
       </c>
       <c r="D56" s="10">
-        <v>41600</v>
+        <v>0</v>
       </c>
       <c r="E56" s="10">
         <v>0</v>
       </c>
       <c r="F56" s="11">
-        <v>13.01</v>
+        <v>25.85</v>
       </c>
       <c r="G56" s="11">
-        <v>12.986</v>
+        <v>0</v>
       </c>
       <c r="H56" s="11">
         <v>0</v>
       </c>
       <c r="I56" s="11">
-        <v>541216</v>
+        <v>0</v>
       </c>
       <c r="J56" s="11">
-        <v>1011.79</v>
+        <v>58235.31</v>
       </c>
       <c r="K56" s="11">
-        <v>-1248</v>
+        <v>22689.33</v>
       </c>
       <c r="L56" s="9">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="M56" s="9" t="s">
         <v>26</v>
@@ -3126,222 +3093,222 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="6">
+        <v>600585</v>
+      </c>
+      <c r="C57" s="6">
+        <v>10100</v>
+      </c>
+      <c r="D57" s="6">
+        <v>10100</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>60.55</v>
+      </c>
+      <c r="G57" s="7">
+        <v>61.016</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>611555</v>
+      </c>
+      <c r="J57" s="7">
+        <v>-4710.42</v>
+      </c>
+      <c r="K57" s="7">
+        <v>-10605</v>
+      </c>
+      <c r="L57" s="8">
+        <v>-0.76</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="10">
-        <v>300146</v>
-      </c>
-      <c r="C57" s="10">
-        <v>25300</v>
-      </c>
-      <c r="D57" s="10">
-        <v>25300</v>
-      </c>
-      <c r="E57" s="10">
-        <v>0</v>
-      </c>
-      <c r="F57" s="11">
+      <c r="C58" s="6">
+        <v>52300</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>52300</v>
+      </c>
+      <c r="F58" s="7">
+        <v>10.58</v>
+      </c>
+      <c r="G58" s="7">
+        <v>10.982</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>553334</v>
+      </c>
+      <c r="J58" s="7">
+        <v>-21046.55</v>
+      </c>
+      <c r="K58" s="7">
+        <v>-21046.55</v>
+      </c>
+      <c r="L58" s="8">
+        <v>-3.66</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G57" s="11">
-        <v>24.025</v>
-      </c>
-      <c r="H57" s="11">
-        <v>0</v>
-      </c>
-      <c r="I57" s="11">
-        <v>632500</v>
-      </c>
-      <c r="J57" s="11">
-        <v>24666.98</v>
-      </c>
-      <c r="K57" s="11">
-        <v>5566</v>
-      </c>
-      <c r="L57" s="9">
-        <v>4.06</v>
-      </c>
-      <c r="M57" s="9" t="s">
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="6">
+        <v>6700</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>6700</v>
+      </c>
+      <c r="F59" s="7">
+        <v>93.93</v>
+      </c>
+      <c r="G59" s="7">
+        <v>95.083</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>629331</v>
+      </c>
+      <c r="J59" s="7">
+        <v>-7725.57</v>
+      </c>
+      <c r="K59" s="7">
+        <v>-7725.57</v>
+      </c>
+      <c r="L59" s="8">
+        <v>-1.21</v>
+      </c>
+      <c r="M59" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N57" s="9" t="s">
+      <c r="N59" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="10">
-        <v>600585</v>
-      </c>
-      <c r="C58" s="10">
-        <v>10100</v>
-      </c>
-      <c r="D58" s="10">
-        <v>10100</v>
-      </c>
-      <c r="E58" s="10">
-        <v>0</v>
-      </c>
-      <c r="F58" s="11">
-        <v>61.5</v>
-      </c>
-      <c r="G58" s="11">
-        <v>61.016</v>
-      </c>
-      <c r="H58" s="11">
-        <v>0</v>
-      </c>
-      <c r="I58" s="11">
-        <v>621150</v>
-      </c>
-      <c r="J58" s="11">
-        <v>4884.58</v>
-      </c>
-      <c r="K58" s="11">
-        <v>2121</v>
-      </c>
-      <c r="L58" s="9">
-        <v>0.79</v>
-      </c>
-      <c r="M58" s="9" t="s">
+    <row r="60" spans="1:14">
+      <c r="A60" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="6">
+        <v>601028</v>
+      </c>
+      <c r="C60" s="6">
+        <v>2500</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>2500</v>
+      </c>
+      <c r="F60" s="7">
+        <v>12.65</v>
+      </c>
+      <c r="G60" s="7">
+        <v>12.781</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>31625</v>
+      </c>
+      <c r="J60" s="7">
+        <v>-328.68</v>
+      </c>
+      <c r="K60" s="7">
+        <v>-328.68</v>
+      </c>
+      <c r="L60" s="8">
+        <v>-1.02</v>
+      </c>
+      <c r="M60" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="9" t="s">
+      <c r="N60" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="10">
-        <v>603678</v>
-      </c>
-      <c r="C59" s="10">
-        <v>50</v>
-      </c>
-      <c r="D59" s="10">
-        <v>50</v>
-      </c>
-      <c r="E59" s="10">
-        <v>0</v>
-      </c>
-      <c r="F59" s="11">
-        <v>40.8</v>
-      </c>
-      <c r="G59" s="11">
-        <v>-436.567</v>
-      </c>
-      <c r="H59" s="11">
-        <v>0</v>
-      </c>
-      <c r="I59" s="11">
-        <v>2040</v>
-      </c>
-      <c r="J59" s="11">
-        <v>23868.34</v>
-      </c>
-      <c r="K59" s="11">
-        <v>1527.82</v>
-      </c>
-      <c r="L59" s="9">
-        <v>0</v>
-      </c>
-      <c r="M59" s="9" t="s">
+    <row r="61" spans="1:14">
+      <c r="A61" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="6">
+        <v>601231</v>
+      </c>
+      <c r="C61" s="6">
+        <v>8600</v>
+      </c>
+      <c r="D61" s="6">
+        <v>8600</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
         <v>24</v>
       </c>
-      <c r="N59" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="10">
-        <v>600089</v>
-      </c>
-      <c r="C60" s="10">
-        <v>0</v>
-      </c>
-      <c r="D60" s="10">
-        <v>0</v>
-      </c>
-      <c r="E60" s="10">
-        <v>0</v>
-      </c>
-      <c r="F60" s="11">
-        <v>9.1</v>
-      </c>
-      <c r="G60" s="11">
-        <v>0</v>
-      </c>
-      <c r="H60" s="11">
-        <v>0</v>
-      </c>
-      <c r="I60" s="11">
-        <v>0</v>
-      </c>
-      <c r="J60" s="11">
-        <v>10362.77</v>
-      </c>
-      <c r="K60" s="11">
-        <v>7371.4</v>
-      </c>
-      <c r="L60" s="9">
-        <v>0</v>
-      </c>
-      <c r="M60" s="9" t="s">
+      <c r="G61" s="7">
+        <v>26.281</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>206400</v>
+      </c>
+      <c r="J61" s="7">
+        <v>-19616.9</v>
+      </c>
+      <c r="K61" s="7">
+        <v>344</v>
+      </c>
+      <c r="L61" s="8">
+        <v>-8.68</v>
+      </c>
+      <c r="M61" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N60" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61" s="10">
-        <v>601231</v>
-      </c>
-      <c r="C61" s="10">
-        <v>8600</v>
-      </c>
-      <c r="D61" s="10">
-        <v>8600</v>
-      </c>
-      <c r="E61" s="10">
-        <v>0</v>
-      </c>
-      <c r="F61" s="11">
-        <v>26.62</v>
-      </c>
-      <c r="G61" s="11">
-        <v>26.281</v>
-      </c>
-      <c r="H61" s="11">
-        <v>0</v>
-      </c>
-      <c r="I61" s="11">
-        <v>228932</v>
-      </c>
-      <c r="J61" s="11">
-        <v>2915.1</v>
-      </c>
-      <c r="K61" s="11">
-        <v>-3268</v>
-      </c>
-      <c r="L61" s="9">
-        <v>1.29</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N61" s="9" t="s">
+      <c r="N61" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3353,10 +3320,10 @@
         <v>106</v>
       </c>
       <c r="C62" s="13">
-        <v>527500</v>
+        <v>566500</v>
       </c>
       <c r="D62" s="13">
-        <v>527500</v>
+        <v>566500</v>
       </c>
       <c r="E62" s="13">
         <v>0</v>
@@ -3397,34 +3364,34 @@
         <v>108</v>
       </c>
       <c r="C63" s="6">
-        <v>46300</v>
+        <v>39100</v>
       </c>
       <c r="D63" s="6">
-        <v>46300</v>
+        <v>39100</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
       </c>
       <c r="F63" s="7">
-        <v>10.8</v>
+        <v>10.59</v>
       </c>
       <c r="G63" s="7">
-        <v>11.673</v>
+        <v>11.847</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>500040</v>
+        <v>414069</v>
       </c>
       <c r="J63" s="7">
-        <v>-40429.03</v>
+        <v>-49152.64</v>
       </c>
       <c r="K63" s="7">
-        <v>-29331.51</v>
+        <v>-13294</v>
       </c>
       <c r="L63" s="8">
-        <v>-7.48</v>
+        <v>-10.61</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>26</v>
@@ -3434,173 +3401,173 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="10">
+        <v>300099</v>
+      </c>
+      <c r="C64" s="10">
+        <v>0</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0</v>
+      </c>
+      <c r="E64" s="10">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11">
+        <v>11.65</v>
+      </c>
+      <c r="G64" s="11">
+        <v>0</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+      <c r="I64" s="11">
+        <v>0</v>
+      </c>
+      <c r="J64" s="11">
+        <v>50923.5</v>
+      </c>
+      <c r="K64" s="11">
+        <v>4849.85</v>
+      </c>
+      <c r="L64" s="9">
+        <v>0</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="6">
-        <v>10900</v>
-      </c>
-      <c r="D64" s="6">
-        <v>10900</v>
-      </c>
-      <c r="E64" s="6">
-        <v>0</v>
-      </c>
-      <c r="F64" s="7">
-        <v>53.65</v>
-      </c>
-      <c r="G64" s="7">
-        <v>55.952</v>
-      </c>
-      <c r="H64" s="7">
-        <v>0</v>
-      </c>
-      <c r="I64" s="7">
-        <v>584785</v>
-      </c>
-      <c r="J64" s="7">
-        <v>-25096.27</v>
-      </c>
-      <c r="K64" s="7">
-        <v>-28231</v>
-      </c>
-      <c r="L64" s="8">
-        <v>-4.11</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N64" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="9" t="s">
+      <c r="B65" s="6">
+        <v>601899</v>
+      </c>
+      <c r="C65" s="6">
+        <v>91500</v>
+      </c>
+      <c r="D65" s="6">
+        <v>91500</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>6.03</v>
+      </c>
+      <c r="G65" s="7">
+        <v>6.671</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>551745</v>
+      </c>
+      <c r="J65" s="7">
+        <v>-58675.55</v>
+      </c>
+      <c r="K65" s="7">
+        <v>-27450</v>
+      </c>
+      <c r="L65" s="8">
+        <v>-9.61</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="10">
-        <v>300099</v>
-      </c>
-      <c r="C65" s="10">
-        <v>9700</v>
-      </c>
-      <c r="D65" s="10">
-        <v>9700</v>
-      </c>
-      <c r="E65" s="10">
-        <v>0</v>
-      </c>
-      <c r="F65" s="11">
-        <v>10.33</v>
-      </c>
-      <c r="G65" s="11">
-        <v>6.61</v>
-      </c>
-      <c r="H65" s="11">
-        <v>0</v>
-      </c>
-      <c r="I65" s="11">
-        <v>100201</v>
-      </c>
-      <c r="J65" s="11">
-        <v>36082.65</v>
-      </c>
-      <c r="K65" s="11">
-        <v>9118</v>
-      </c>
-      <c r="L65" s="9">
-        <v>56.28</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N65" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B66" s="6">
-        <v>601899</v>
-      </c>
-      <c r="C66" s="6">
-        <v>67500</v>
-      </c>
-      <c r="D66" s="6">
-        <v>0</v>
-      </c>
-      <c r="E66" s="6">
-        <v>67500</v>
-      </c>
-      <c r="F66" s="7">
-        <v>6.64</v>
-      </c>
-      <c r="G66" s="7">
-        <v>6.828</v>
-      </c>
-      <c r="H66" s="7">
-        <v>0</v>
-      </c>
-      <c r="I66" s="7">
-        <v>448200</v>
-      </c>
-      <c r="J66" s="7">
-        <v>-12685.99</v>
-      </c>
-      <c r="K66" s="7">
-        <v>-12685.99</v>
-      </c>
-      <c r="L66" s="8">
-        <v>-2.75</v>
-      </c>
-      <c r="M66" s="8" t="s">
+      <c r="B66" s="10">
+        <v>600337</v>
+      </c>
+      <c r="C66" s="10">
+        <v>81800</v>
+      </c>
+      <c r="D66" s="10">
+        <v>81800</v>
+      </c>
+      <c r="E66" s="10">
+        <v>0</v>
+      </c>
+      <c r="F66" s="11">
+        <v>5.62</v>
+      </c>
+      <c r="G66" s="11">
+        <v>5.087</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0</v>
+      </c>
+      <c r="I66" s="11">
+        <v>459716</v>
+      </c>
+      <c r="J66" s="11">
+        <v>43572.6</v>
+      </c>
+      <c r="K66" s="11">
+        <v>818</v>
+      </c>
+      <c r="L66" s="9">
+        <v>10.48</v>
+      </c>
+      <c r="M66" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N66" s="8" t="s">
+      <c r="N66" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B67" s="10">
-        <v>300427</v>
-      </c>
       <c r="C67" s="10">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="D67" s="10">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="E67" s="10">
         <v>0</v>
       </c>
       <c r="F67" s="11">
-        <v>27.32</v>
+        <v>71.3</v>
       </c>
       <c r="G67" s="11">
-        <v>0</v>
+        <v>70.398</v>
       </c>
       <c r="H67" s="11">
         <v>0</v>
       </c>
       <c r="I67" s="11">
-        <v>0</v>
+        <v>620310</v>
       </c>
       <c r="J67" s="11">
-        <v>294.66</v>
+        <v>7845.4</v>
       </c>
       <c r="K67" s="11">
-        <v>-159.96</v>
+        <v>-6090</v>
       </c>
       <c r="L67" s="9">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>26</v>
@@ -3614,175 +3581,175 @@
         <v>114</v>
       </c>
       <c r="B68" s="10">
-        <v>600337</v>
+        <v>300125</v>
       </c>
       <c r="C68" s="10">
-        <v>81800</v>
+        <v>800</v>
       </c>
       <c r="D68" s="10">
-        <v>81800</v>
+        <v>0</v>
       </c>
       <c r="E68" s="10">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F68" s="11">
-        <v>5.36</v>
+        <v>18.25</v>
       </c>
       <c r="G68" s="11">
-        <v>5.087</v>
+        <v>18.226</v>
       </c>
       <c r="H68" s="11">
         <v>0</v>
       </c>
       <c r="I68" s="11">
-        <v>438448</v>
+        <v>14600</v>
       </c>
       <c r="J68" s="11">
-        <v>22304.6</v>
+        <v>19</v>
       </c>
       <c r="K68" s="11">
-        <v>-15542</v>
+        <v>19</v>
       </c>
       <c r="L68" s="9">
-        <v>5.37</v>
+        <v>0.13</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C69" s="10">
-        <v>8700</v>
-      </c>
-      <c r="D69" s="10">
-        <v>8700</v>
-      </c>
-      <c r="E69" s="10">
-        <v>0</v>
-      </c>
-      <c r="F69" s="11">
-        <v>70.55</v>
-      </c>
-      <c r="G69" s="11">
-        <v>70.398</v>
-      </c>
-      <c r="H69" s="11">
-        <v>0</v>
-      </c>
-      <c r="I69" s="11">
-        <v>613785</v>
-      </c>
-      <c r="J69" s="11">
-        <v>1320.4</v>
-      </c>
-      <c r="K69" s="11">
-        <v>-435</v>
-      </c>
-      <c r="L69" s="9">
-        <v>0.22</v>
-      </c>
-      <c r="M69" s="9" t="s">
+      <c r="B69" s="6">
+        <v>300476</v>
+      </c>
+      <c r="C69" s="6">
+        <v>1200</v>
+      </c>
+      <c r="D69" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>21.22</v>
+      </c>
+      <c r="G69" s="7">
+        <v>21.843</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>25464</v>
+      </c>
+      <c r="J69" s="7">
+        <v>-747.41</v>
+      </c>
+      <c r="K69" s="7">
+        <v>-600</v>
+      </c>
+      <c r="L69" s="8">
+        <v>-2.85</v>
+      </c>
+      <c r="M69" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N69" s="9" t="s">
+      <c r="N69" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B70" s="6">
-        <v>300476</v>
+        <v>603660</v>
       </c>
       <c r="C70" s="6">
-        <v>1200</v>
+        <v>38700</v>
       </c>
       <c r="D70" s="6">
-        <v>0</v>
+        <v>38700</v>
       </c>
       <c r="E70" s="6">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F70" s="7">
-        <v>21.77</v>
+        <v>9.17</v>
       </c>
       <c r="G70" s="7">
-        <v>21.848</v>
+        <v>9.359</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>26124</v>
+        <v>354879</v>
       </c>
       <c r="J70" s="7">
-        <v>-94</v>
+        <v>-7333.34</v>
       </c>
       <c r="K70" s="7">
-        <v>-94</v>
+        <v>-11610</v>
       </c>
       <c r="L70" s="8">
-        <v>-0.36</v>
+        <v>-2.02</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B71" s="6">
-        <v>603660</v>
-      </c>
       <c r="C71" s="6">
-        <v>38700</v>
+        <v>14900</v>
       </c>
       <c r="D71" s="6">
-        <v>38700</v>
+        <v>14900</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <v>9.16</v>
+        <v>15.13</v>
       </c>
       <c r="G71" s="7">
-        <v>9.359</v>
+        <v>16.249</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>354492</v>
+        <v>225437</v>
       </c>
       <c r="J71" s="7">
-        <v>-7720.34</v>
+        <v>-16677.46</v>
       </c>
       <c r="K71" s="7">
-        <v>-7353</v>
+        <v>-7450</v>
       </c>
       <c r="L71" s="8">
-        <v>-2.13</v>
+        <v>-6.89</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3793,34 +3760,34 @@
         <v>120</v>
       </c>
       <c r="C72" s="6">
-        <v>14900</v>
+        <v>2300</v>
       </c>
       <c r="D72" s="6">
-        <v>14900</v>
+        <v>2300</v>
       </c>
       <c r="E72" s="6">
         <v>0</v>
       </c>
       <c r="F72" s="7">
-        <v>15.63</v>
+        <v>100.01</v>
       </c>
       <c r="G72" s="7">
-        <v>16.249</v>
+        <v>104.425</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>232887</v>
+        <v>230023</v>
       </c>
       <c r="J72" s="7">
-        <v>-9227.46</v>
+        <v>-10155.31</v>
       </c>
       <c r="K72" s="7">
-        <v>-3427</v>
+        <v>-552</v>
       </c>
       <c r="L72" s="8">
-        <v>-3.81</v>
+        <v>-4.23</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>26</v>
@@ -3830,173 +3797,173 @@
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C73" s="6">
-        <v>2300</v>
-      </c>
-      <c r="D73" s="6">
-        <v>2300</v>
-      </c>
-      <c r="E73" s="6">
-        <v>0</v>
-      </c>
-      <c r="F73" s="7">
-        <v>102.51</v>
-      </c>
-      <c r="G73" s="7">
-        <v>104.425</v>
-      </c>
-      <c r="H73" s="7">
-        <v>0</v>
-      </c>
-      <c r="I73" s="7">
-        <v>235773</v>
-      </c>
-      <c r="J73" s="7">
-        <v>-4405.31</v>
-      </c>
-      <c r="K73" s="7">
-        <v>-644</v>
-      </c>
-      <c r="L73" s="8">
-        <v>-1.83</v>
-      </c>
-      <c r="M73" s="8" t="s">
+      <c r="C73" s="10">
+        <v>8000</v>
+      </c>
+      <c r="D73" s="10">
+        <v>8000</v>
+      </c>
+      <c r="E73" s="10">
+        <v>0</v>
+      </c>
+      <c r="F73" s="11">
+        <v>75.95</v>
+      </c>
+      <c r="G73" s="11">
+        <v>73.492</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0</v>
+      </c>
+      <c r="I73" s="11">
+        <v>607600</v>
+      </c>
+      <c r="J73" s="11">
+        <v>19661.56</v>
+      </c>
+      <c r="K73" s="11">
+        <v>-10400</v>
+      </c>
+      <c r="L73" s="9">
+        <v>3.34</v>
+      </c>
+      <c r="M73" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N73" s="8" t="s">
+      <c r="N73" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" s="10">
-        <v>8000</v>
-      </c>
-      <c r="D74" s="10">
-        <v>8000</v>
-      </c>
-      <c r="E74" s="10">
-        <v>0</v>
-      </c>
-      <c r="F74" s="11">
-        <v>77.38</v>
-      </c>
-      <c r="G74" s="11">
-        <v>73.492</v>
-      </c>
-      <c r="H74" s="11">
-        <v>0</v>
-      </c>
-      <c r="I74" s="11">
-        <v>619040</v>
-      </c>
-      <c r="J74" s="11">
-        <v>31101.56</v>
-      </c>
-      <c r="K74" s="11">
-        <v>3040</v>
-      </c>
-      <c r="L74" s="9">
-        <v>5.29</v>
-      </c>
-      <c r="M74" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N74" s="9" t="s">
-        <v>25</v>
+      <c r="B74" s="6">
+        <v>600519</v>
+      </c>
+      <c r="C74" s="6">
+        <v>400</v>
+      </c>
+      <c r="D74" s="6">
+        <v>400</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>1642.51</v>
+      </c>
+      <c r="G74" s="7">
+        <v>1649.657</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="7">
+        <v>657004</v>
+      </c>
+      <c r="J74" s="7">
+        <v>-2858.97</v>
+      </c>
+      <c r="K74" s="7">
+        <v>3408</v>
+      </c>
+      <c r="L74" s="8">
+        <v>-0.43</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N74" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B75" s="6">
-        <v>600519</v>
+        <v>300687</v>
       </c>
       <c r="C75" s="6">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="D75" s="6">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="E75" s="6">
         <v>0</v>
       </c>
       <c r="F75" s="7">
-        <v>1631</v>
+        <v>21.22</v>
       </c>
       <c r="G75" s="7">
-        <v>1649.657</v>
+        <v>32.475</v>
       </c>
       <c r="H75" s="7">
         <v>0</v>
       </c>
       <c r="I75" s="7">
-        <v>652400</v>
+        <v>48806</v>
       </c>
       <c r="J75" s="7">
-        <v>-7462.97</v>
+        <v>-25887.46</v>
       </c>
       <c r="K75" s="7">
-        <v>-2784</v>
+        <v>-2944</v>
       </c>
       <c r="L75" s="8">
-        <v>-1.13</v>
+        <v>-34.66</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B76" s="6">
-        <v>300687</v>
+        <v>300760</v>
       </c>
       <c r="C76" s="6">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="D76" s="6">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="E76" s="6">
         <v>0</v>
       </c>
       <c r="F76" s="7">
-        <v>21.85</v>
+        <v>316.5</v>
       </c>
       <c r="G76" s="7">
-        <v>32.475</v>
+        <v>329.261</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
       </c>
       <c r="I76" s="7">
-        <v>50255</v>
+        <v>601350</v>
       </c>
       <c r="J76" s="7">
-        <v>-24438.46</v>
+        <v>-24246.29</v>
       </c>
       <c r="K76" s="7">
-        <v>-1035</v>
+        <v>-13262</v>
       </c>
       <c r="L76" s="8">
-        <v>-32.72</v>
+        <v>-3.88</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>26</v>
@@ -4007,40 +3974,40 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="B77" s="6">
+        <v>300510</v>
       </c>
       <c r="C77" s="6">
-        <v>65100</v>
+        <v>36600</v>
       </c>
       <c r="D77" s="6">
-        <v>65100</v>
+        <v>36600</v>
       </c>
       <c r="E77" s="6">
         <v>0</v>
       </c>
       <c r="F77" s="7">
-        <v>4.25</v>
+        <v>5.15</v>
       </c>
       <c r="G77" s="7">
-        <v>4.36</v>
+        <v>5.251</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
       </c>
       <c r="I77" s="7">
-        <v>276675</v>
+        <v>188490</v>
       </c>
       <c r="J77" s="7">
-        <v>-7153.82</v>
+        <v>-3684.96</v>
       </c>
       <c r="K77" s="7">
-        <v>-5859</v>
+        <v>-8418</v>
       </c>
       <c r="L77" s="8">
-        <v>-2.52</v>
+        <v>-1.92</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>26</v>
@@ -4050,85 +4017,85 @@
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" s="6">
-        <v>300760</v>
-      </c>
-      <c r="C78" s="6">
-        <v>1800</v>
-      </c>
-      <c r="D78" s="6">
-        <v>0</v>
-      </c>
-      <c r="E78" s="6">
-        <v>1800</v>
-      </c>
-      <c r="F78" s="7">
-        <v>327.37</v>
-      </c>
-      <c r="G78" s="7">
-        <v>329.614</v>
-      </c>
-      <c r="H78" s="7">
-        <v>0</v>
-      </c>
-      <c r="I78" s="7">
-        <v>589266</v>
-      </c>
-      <c r="J78" s="7">
-        <v>-4039</v>
-      </c>
-      <c r="K78" s="7">
-        <v>-4039</v>
-      </c>
-      <c r="L78" s="8">
-        <v>-0.68</v>
-      </c>
-      <c r="M78" s="8" t="s">
+      <c r="A78" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="10">
+        <v>0</v>
+      </c>
+      <c r="D78" s="10">
+        <v>0</v>
+      </c>
+      <c r="E78" s="10">
+        <v>0</v>
+      </c>
+      <c r="F78" s="11">
+        <v>7.15</v>
+      </c>
+      <c r="G78" s="11">
+        <v>0</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0</v>
+      </c>
+      <c r="I78" s="11">
+        <v>0</v>
+      </c>
+      <c r="J78" s="11">
+        <v>4341.91</v>
+      </c>
+      <c r="K78" s="11">
+        <v>-1043.58</v>
+      </c>
+      <c r="L78" s="9">
+        <v>0</v>
+      </c>
+      <c r="M78" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N78" s="8" t="s">
+      <c r="N78" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="C79" s="6">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="D79" s="6">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
       </c>
       <c r="F79" s="7">
-        <v>5.14</v>
+        <v>486.67</v>
       </c>
       <c r="G79" s="7">
-        <v>0</v>
+        <v>491.408</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
       </c>
       <c r="I79" s="7">
-        <v>0</v>
+        <v>632671</v>
       </c>
       <c r="J79" s="7">
-        <v>-5579.29</v>
+        <v>-6159.04</v>
       </c>
       <c r="K79" s="7">
-        <v>-3463.05</v>
+        <v>-2379</v>
       </c>
       <c r="L79" s="8">
-        <v>0</v>
+        <v>-0.96</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>26</v>
@@ -4139,128 +4106,128 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="10">
+        <v>601012</v>
+      </c>
+      <c r="C80" s="10">
+        <v>10700</v>
+      </c>
+      <c r="D80" s="10">
+        <v>10700</v>
+      </c>
+      <c r="E80" s="10">
+        <v>0</v>
+      </c>
+      <c r="F80" s="11">
+        <v>57</v>
+      </c>
+      <c r="G80" s="11">
+        <v>55.38</v>
+      </c>
+      <c r="H80" s="11">
+        <v>0</v>
+      </c>
+      <c r="I80" s="11">
+        <v>609900</v>
+      </c>
+      <c r="J80" s="11">
+        <v>17329.16</v>
+      </c>
+      <c r="K80" s="11">
+        <v>-17976</v>
+      </c>
+      <c r="L80" s="9">
+        <v>2.93</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="10">
-        <v>300510</v>
-      </c>
-      <c r="C80" s="10">
-        <v>36600</v>
-      </c>
-      <c r="D80" s="10">
-        <v>36600</v>
-      </c>
-      <c r="E80" s="10">
-        <v>0</v>
-      </c>
-      <c r="F80" s="11">
-        <v>5.26</v>
-      </c>
-      <c r="G80" s="11">
-        <v>5.251</v>
-      </c>
-      <c r="H80" s="11">
-        <v>0</v>
-      </c>
-      <c r="I80" s="11">
-        <v>192516</v>
-      </c>
-      <c r="J80" s="11">
-        <v>341.04</v>
-      </c>
-      <c r="K80" s="11">
-        <v>-3294</v>
-      </c>
-      <c r="L80" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N80" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C81" s="10">
-        <v>4200</v>
-      </c>
-      <c r="D81" s="10">
-        <v>4200</v>
-      </c>
-      <c r="E81" s="10">
-        <v>0</v>
-      </c>
-      <c r="F81" s="11">
-        <v>7.36</v>
-      </c>
-      <c r="G81" s="11">
-        <v>6.259</v>
-      </c>
-      <c r="H81" s="11">
-        <v>0</v>
-      </c>
-      <c r="I81" s="11">
-        <v>30912</v>
-      </c>
-      <c r="J81" s="11">
-        <v>4625.04</v>
-      </c>
-      <c r="K81" s="11">
-        <v>-9955.08</v>
-      </c>
-      <c r="L81" s="9">
-        <v>17.59</v>
-      </c>
-      <c r="M81" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N81" s="9" t="s">
-        <v>25</v>
+      <c r="B81" s="6">
+        <v>603501</v>
+      </c>
+      <c r="C81" s="6">
+        <v>2100</v>
+      </c>
+      <c r="D81" s="6">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>187</v>
+      </c>
+      <c r="G81" s="7">
+        <v>205.427</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>392700</v>
+      </c>
+      <c r="J81" s="7">
+        <v>-38695.68</v>
+      </c>
+      <c r="K81" s="7">
+        <v>-9471</v>
+      </c>
+      <c r="L81" s="8">
+        <v>-8.97</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C82" s="6">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="D82" s="6">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="E82" s="6">
         <v>0</v>
       </c>
       <c r="F82" s="7">
-        <v>22.98</v>
+        <v>66.08</v>
       </c>
       <c r="G82" s="7">
-        <v>0</v>
+        <v>67.956</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
       </c>
       <c r="I82" s="7">
-        <v>0</v>
+        <v>588112</v>
       </c>
       <c r="J82" s="7">
-        <v>-27626.19</v>
+        <v>-16693.36</v>
       </c>
       <c r="K82" s="7">
-        <v>-2456.49</v>
+        <v>-11748</v>
       </c>
       <c r="L82" s="8">
-        <v>0</v>
+        <v>-2.76</v>
       </c>
       <c r="M82" s="8" t="s">
         <v>26</v>
@@ -4271,309 +4238,45 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B83" s="10">
-        <v>300127</v>
+        <v>300423</v>
       </c>
       <c r="C83" s="10">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="D83" s="10">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="E83" s="10">
         <v>0</v>
       </c>
       <c r="F83" s="11">
-        <v>20.02</v>
+        <v>14.61</v>
       </c>
       <c r="G83" s="11">
-        <v>0</v>
+        <v>13.662</v>
       </c>
       <c r="H83" s="11">
         <v>0</v>
       </c>
       <c r="I83" s="11">
-        <v>0</v>
+        <v>70128</v>
       </c>
       <c r="J83" s="11">
-        <v>1978</v>
+        <v>4551.48</v>
       </c>
       <c r="K83" s="11">
-        <v>205.79</v>
+        <v>-1392</v>
       </c>
       <c r="L83" s="9">
-        <v>0</v>
+        <v>6.94</v>
       </c>
       <c r="M83" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N83" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C84" s="6">
-        <v>1300</v>
-      </c>
-      <c r="D84" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E84" s="6">
-        <v>100</v>
-      </c>
-      <c r="F84" s="7">
-        <v>484.19</v>
-      </c>
-      <c r="G84" s="7">
-        <v>491.408</v>
-      </c>
-      <c r="H84" s="7">
-        <v>0</v>
-      </c>
-      <c r="I84" s="7">
-        <v>629447</v>
-      </c>
-      <c r="J84" s="7">
-        <v>-9383.04</v>
-      </c>
-      <c r="K84" s="7">
-        <v>-8896.3</v>
-      </c>
-      <c r="L84" s="8">
-        <v>-1.47</v>
-      </c>
-      <c r="M84" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N84" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B85" s="10">
-        <v>601012</v>
-      </c>
-      <c r="C85" s="10">
-        <v>10700</v>
-      </c>
-      <c r="D85" s="10">
-        <v>10700</v>
-      </c>
-      <c r="E85" s="10">
-        <v>0</v>
-      </c>
-      <c r="F85" s="11">
-        <v>58.2</v>
-      </c>
-      <c r="G85" s="11">
-        <v>55.38</v>
-      </c>
-      <c r="H85" s="11">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11">
-        <v>622740</v>
-      </c>
-      <c r="J85" s="11">
-        <v>30169.16</v>
-      </c>
-      <c r="K85" s="11">
-        <v>28890</v>
-      </c>
-      <c r="L85" s="9">
-        <v>5.09</v>
-      </c>
-      <c r="M85" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N85" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B86" s="6">
-        <v>603501</v>
-      </c>
-      <c r="C86" s="6">
-        <v>2100</v>
-      </c>
-      <c r="D86" s="6">
-        <v>2100</v>
-      </c>
-      <c r="E86" s="6">
-        <v>0</v>
-      </c>
-      <c r="F86" s="7">
-        <v>188.78</v>
-      </c>
-      <c r="G86" s="7">
-        <v>205.427</v>
-      </c>
-      <c r="H86" s="7">
-        <v>0</v>
-      </c>
-      <c r="I86" s="7">
-        <v>396438</v>
-      </c>
-      <c r="J86" s="7">
-        <v>-34957.68</v>
-      </c>
-      <c r="K86" s="7">
-        <v>-17640</v>
-      </c>
-      <c r="L86" s="8">
-        <v>-8.1</v>
-      </c>
-      <c r="M86" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N86" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C87" s="6">
-        <v>8900</v>
-      </c>
-      <c r="D87" s="6">
-        <v>8900</v>
-      </c>
-      <c r="E87" s="6">
-        <v>0</v>
-      </c>
-      <c r="F87" s="7">
-        <v>67.7</v>
-      </c>
-      <c r="G87" s="7">
-        <v>67.956</v>
-      </c>
-      <c r="H87" s="7">
-        <v>0</v>
-      </c>
-      <c r="I87" s="7">
-        <v>602530</v>
-      </c>
-      <c r="J87" s="7">
-        <v>-2275.36</v>
-      </c>
-      <c r="K87" s="7">
-        <v>-4005</v>
-      </c>
-      <c r="L87" s="8">
-        <v>-0.38</v>
-      </c>
-      <c r="M87" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N87" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C88" s="10">
-        <v>3600</v>
-      </c>
-      <c r="D88" s="10">
-        <v>3600</v>
-      </c>
-      <c r="E88" s="10">
-        <v>0</v>
-      </c>
-      <c r="F88" s="11">
-        <v>26.19</v>
-      </c>
-      <c r="G88" s="11">
-        <v>26.042</v>
-      </c>
-      <c r="H88" s="11">
-        <v>0</v>
-      </c>
-      <c r="I88" s="11">
-        <v>94284</v>
-      </c>
-      <c r="J88" s="11">
-        <v>533.82</v>
-      </c>
-      <c r="K88" s="11">
-        <v>-3384</v>
-      </c>
-      <c r="L88" s="9">
-        <v>0.57</v>
-      </c>
-      <c r="M88" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N88" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B89" s="10">
-        <v>300423</v>
-      </c>
-      <c r="C89" s="10">
-        <v>4800</v>
-      </c>
-      <c r="D89" s="10">
-        <v>4800</v>
-      </c>
-      <c r="E89" s="10">
-        <v>0</v>
-      </c>
-      <c r="F89" s="11">
-        <v>14.15</v>
-      </c>
-      <c r="G89" s="11">
-        <v>13.662</v>
-      </c>
-      <c r="H89" s="11">
-        <v>0</v>
-      </c>
-      <c r="I89" s="11">
-        <v>67920</v>
-      </c>
-      <c r="J89" s="11">
-        <v>2343.48</v>
-      </c>
-      <c r="K89" s="11">
-        <v>-1488</v>
-      </c>
-      <c r="L89" s="9">
-        <v>3.57</v>
-      </c>
-      <c r="M89" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N89" s="9" t="s">
         <v>25</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
+++ b/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="138">
   <si>
     <t>资金</t>
   </si>
@@ -142,18 +142,21 @@
     <t>上海医药</t>
   </si>
   <si>
-    <t>东方雨虹</t>
-  </si>
-  <si>
-    <t>002271</t>
-  </si>
-  <si>
     <t>东睦股份</t>
   </si>
   <si>
+    <t>东诚药业</t>
+  </si>
+  <si>
+    <t>002675</t>
+  </si>
+  <si>
     <t>中化国际</t>
   </si>
   <si>
+    <t>中国中免</t>
+  </si>
+  <si>
     <t>中国出版</t>
   </si>
   <si>
@@ -199,12 +202,6 @@
     <t>华新水泥</t>
   </si>
   <si>
-    <t>博彦科技</t>
-  </si>
-  <si>
-    <t>002649</t>
-  </si>
-  <si>
     <t>吉电股份</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>寒锐钴业</t>
   </si>
   <si>
-    <t>山东黄金</t>
-  </si>
-  <si>
     <t>山河智能</t>
   </si>
   <si>
@@ -250,6 +244,9 @@
     <t>广信股份</t>
   </si>
   <si>
+    <t>广州酒家</t>
+  </si>
+  <si>
     <t>广联达</t>
   </si>
   <si>
@@ -262,18 +259,12 @@
     <t>康跃科技</t>
   </si>
   <si>
-    <t>思源电气</t>
-  </si>
-  <si>
-    <t>002028</t>
+    <t>康龙化成</t>
   </si>
   <si>
     <t>恒力石化</t>
   </si>
   <si>
-    <t>恒瑞医药</t>
-  </si>
-  <si>
     <t>恩华药业</t>
   </si>
   <si>
@@ -286,12 +277,18 @@
     <t>捷成股份</t>
   </si>
   <si>
+    <t>数据港</t>
+  </si>
+  <si>
     <t>新华医疗</t>
   </si>
   <si>
     <t>星宇股份</t>
   </si>
   <si>
+    <t>智飞生物</t>
+  </si>
+  <si>
     <t>杭氧股份</t>
   </si>
   <si>
@@ -307,7 +304,16 @@
     <t>欧比特</t>
   </si>
   <si>
-    <t>汤臣倍健</t>
+    <t>沃森生物</t>
+  </si>
+  <si>
+    <t>海大集团</t>
+  </si>
+  <si>
+    <t>002311</t>
+  </si>
+  <si>
+    <t>海尔智家</t>
   </si>
   <si>
     <t>海螺水泥</t>
@@ -319,6 +325,9 @@
     <t>002416</t>
   </si>
   <si>
+    <t>片仔癀</t>
+  </si>
+  <si>
     <t>牧原股份</t>
   </si>
   <si>
@@ -343,9 +352,6 @@
     <t>000531</t>
   </si>
   <si>
-    <t>精准信息</t>
-  </si>
-  <si>
     <t>紫金矿业</t>
   </si>
   <si>
@@ -367,6 +373,9 @@
     <t>苏州科达</t>
   </si>
   <si>
+    <t>英科医疗</t>
+  </si>
+  <si>
     <t>葵花药业</t>
   </si>
   <si>
@@ -397,12 +406,6 @@
     <t>金冠股份</t>
   </si>
   <si>
-    <t>金字火腿</t>
-  </si>
-  <si>
-    <t>002515</t>
-  </si>
-  <si>
     <t>长春高新</t>
   </si>
   <si>
@@ -419,6 +422,9 @@
   </si>
   <si>
     <t>002352</t>
+  </si>
+  <si>
+    <t>首商股份</t>
   </si>
   <si>
     <t>鲁亿通</t>
@@ -813,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -893,28 +899,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>2600330.78</v>
+        <v>2369658.27</v>
       </c>
       <c r="D3" s="3">
-        <v>2368995.77</v>
+        <v>1816059.88</v>
       </c>
       <c r="E3" s="3">
-        <v>2368995.77</v>
+        <v>1816059.88</v>
       </c>
       <c r="F3" s="3">
-        <v>231335.01</v>
+        <v>553598.39</v>
       </c>
       <c r="G3" s="3">
-        <v>20162668.39</v>
+        <v>20356033.46</v>
       </c>
       <c r="H3" s="3">
-        <v>22531664.16</v>
+        <v>22172093.34</v>
       </c>
       <c r="I3" s="3">
-        <v>-143033.85</v>
+        <v>-673499.1</v>
       </c>
       <c r="J3" s="3">
-        <v>-316582.39</v>
+        <v>-360233.32</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1021,10 +1027,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>566000</v>
+        <v>585000</v>
       </c>
       <c r="C8" s="3">
-        <v>566500</v>
+        <v>585500</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1038,7 +1044,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>1457500</v>
+        <v>1434000</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1129,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>10.86</v>
+        <v>10.91</v>
       </c>
       <c r="G12" s="7">
         <v>11.026</v>
@@ -1138,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>130320</v>
+        <v>130920</v>
       </c>
       <c r="J12" s="7">
-        <v>-1988.81</v>
+        <v>-1388.81</v>
       </c>
       <c r="K12" s="7">
-        <v>-2280</v>
+        <v>600</v>
       </c>
       <c r="L12" s="8">
-        <v>-1.51</v>
+        <v>-1.05</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>24</v>
@@ -1167,31 +1173,31 @@
         <v>8700</v>
       </c>
       <c r="D13" s="6">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="E13" s="6">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>23.17</v>
+        <v>22.9</v>
       </c>
       <c r="G13" s="7">
-        <v>23.681</v>
+        <v>23.676</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>201579</v>
+        <v>199230</v>
       </c>
       <c r="J13" s="7">
-        <v>-4444.65</v>
+        <v>-6751.88</v>
       </c>
       <c r="K13" s="7">
-        <v>-4444.65</v>
+        <v>-2349</v>
       </c>
       <c r="L13" s="8">
-        <v>-2.16</v>
+        <v>-3.28</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>24</v>
@@ -1201,91 +1207,91 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6">
+        <v>600114</v>
+      </c>
+      <c r="C14" s="6">
+        <v>200</v>
+      </c>
+      <c r="D14" s="6">
+        <v>200</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>11.24</v>
+      </c>
+      <c r="G14" s="7">
+        <v>96.061</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2248</v>
+      </c>
+      <c r="J14" s="7">
+        <v>-16964.1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>-14275.46</v>
+      </c>
+      <c r="L14" s="8">
+        <v>-88.3</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="10">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>55.06</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>6694.57</v>
-      </c>
-      <c r="K14" s="11">
-        <v>5848.14</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9" t="s">
+      <c r="B15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10">
+        <v>14900</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>14900</v>
+      </c>
+      <c r="F15" s="11">
+        <v>25.42</v>
+      </c>
+      <c r="G15" s="11">
+        <v>25.151</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>378758</v>
+      </c>
+      <c r="J15" s="11">
+        <v>4015.32</v>
+      </c>
+      <c r="K15" s="11">
+        <v>4015.32</v>
+      </c>
+      <c r="L15" s="9">
+        <v>1.07</v>
+      </c>
+      <c r="M15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N15" s="9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="6">
-        <v>600114</v>
-      </c>
-      <c r="C15" s="6">
-        <v>19300</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>19300</v>
-      </c>
-      <c r="F15" s="7">
-        <v>11.83</v>
-      </c>
-      <c r="G15" s="7">
-        <v>11.97</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>228319</v>
-      </c>
-      <c r="J15" s="7">
-        <v>-2696.3</v>
-      </c>
-      <c r="K15" s="7">
-        <v>-2696.3</v>
-      </c>
-      <c r="L15" s="8">
-        <v>-1.17</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1296,34 +1302,34 @@
         <v>600500</v>
       </c>
       <c r="C16" s="10">
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="D16" s="10">
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="E16" s="10">
         <v>0</v>
       </c>
       <c r="F16" s="11">
-        <v>5.92</v>
+        <v>5.9</v>
       </c>
       <c r="G16" s="11">
-        <v>5.701</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
         <v>0</v>
       </c>
       <c r="I16" s="11">
-        <v>99456</v>
+        <v>0</v>
       </c>
       <c r="J16" s="11">
-        <v>3681.65</v>
+        <v>2457.25</v>
       </c>
       <c r="K16" s="11">
-        <v>-1344</v>
+        <v>-1224.4</v>
       </c>
       <c r="L16" s="9">
-        <v>3.84</v>
+        <v>0</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>24</v>
@@ -1333,46 +1339,46 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="6">
-        <v>601949</v>
-      </c>
-      <c r="C17" s="6">
-        <v>36500</v>
-      </c>
-      <c r="D17" s="6">
-        <v>36500</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>5.85</v>
-      </c>
-      <c r="G17" s="7">
-        <v>6.234</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>213525</v>
-      </c>
-      <c r="J17" s="7">
-        <v>-14012.76</v>
-      </c>
-      <c r="K17" s="7">
-        <v>-8030</v>
-      </c>
-      <c r="L17" s="8">
-        <v>-6.16</v>
-      </c>
-      <c r="M17" s="8" t="s">
+      <c r="B17" s="10">
+        <v>601888</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2900</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2900</v>
+      </c>
+      <c r="F17" s="11">
+        <v>206.65</v>
+      </c>
+      <c r="G17" s="11">
+        <v>205.015</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>599285</v>
+      </c>
+      <c r="J17" s="11">
+        <v>4742.83</v>
+      </c>
+      <c r="K17" s="11">
+        <v>4742.83</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1381,37 +1387,37 @@
         <v>47</v>
       </c>
       <c r="B18" s="6">
-        <v>600329</v>
+        <v>601949</v>
       </c>
       <c r="C18" s="6">
-        <v>5700</v>
+        <v>36500</v>
       </c>
       <c r="D18" s="6">
-        <v>5700</v>
+        <v>36500</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>18.07</v>
+        <v>5.83</v>
       </c>
       <c r="G18" s="7">
-        <v>18.491</v>
+        <v>6.234</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>102999</v>
+        <v>212795</v>
       </c>
       <c r="J18" s="7">
-        <v>-2397.79</v>
+        <v>-14742.76</v>
       </c>
       <c r="K18" s="7">
-        <v>-1824</v>
+        <v>-730</v>
       </c>
       <c r="L18" s="8">
-        <v>-2.28</v>
+        <v>-6.48</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>24</v>
@@ -1424,219 +1430,219 @@
       <c r="A19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6">
+        <v>600329</v>
+      </c>
+      <c r="C19" s="6">
+        <v>5700</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5700</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>17.81</v>
+      </c>
+      <c r="G19" s="7">
+        <v>18.491</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>101517</v>
+      </c>
+      <c r="J19" s="7">
+        <v>-3879.79</v>
+      </c>
+      <c r="K19" s="7">
+        <v>-1482</v>
+      </c>
+      <c r="L19" s="8">
+        <v>-3.68</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="6">
+      <c r="B20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="6">
         <v>4300</v>
       </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D20" s="6">
         <v>4300</v>
       </c>
-      <c r="F19" s="7">
-        <v>21.17</v>
-      </c>
-      <c r="G19" s="7">
-        <v>22</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>91031</v>
-      </c>
-      <c r="J19" s="7">
-        <v>-3569.72</v>
-      </c>
-      <c r="K19" s="7">
-        <v>-3569.72</v>
-      </c>
-      <c r="L19" s="8">
-        <v>-3.77</v>
-      </c>
-      <c r="M19" s="8" t="s">
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="G20" s="7">
+        <v>21.998</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>88150</v>
+      </c>
+      <c r="J20" s="7">
+        <v>-6443.3</v>
+      </c>
+      <c r="K20" s="7">
+        <v>-2881</v>
+      </c>
+      <c r="L20" s="8">
+        <v>-6.81</v>
+      </c>
+      <c r="M20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2900</v>
-      </c>
-      <c r="D20" s="10">
-        <v>2900</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <v>209</v>
-      </c>
-      <c r="G20" s="11">
-        <v>205.432</v>
-      </c>
-      <c r="H20" s="11">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11">
-        <v>606100</v>
-      </c>
-      <c r="J20" s="11">
-        <v>10348.57</v>
-      </c>
-      <c r="K20" s="11">
-        <v>8874</v>
-      </c>
-      <c r="L20" s="9">
-        <v>1.74</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="10">
+      <c r="C21" s="10">
+        <v>2900</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2900</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>206.47</v>
+      </c>
+      <c r="G21" s="11">
+        <v>205.432</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>598763</v>
+      </c>
+      <c r="J21" s="11">
+        <v>3011.57</v>
+      </c>
+      <c r="K21" s="11">
+        <v>-7337</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0.51</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="10">
         <v>603666</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C22" s="10">
         <v>2600</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D22" s="10">
         <v>2600</v>
       </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11">
-        <v>115.08</v>
-      </c>
-      <c r="G21" s="11">
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>109.83</v>
+      </c>
+      <c r="G22" s="11">
         <v>106.932</v>
       </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>299208</v>
-      </c>
-      <c r="J21" s="11">
-        <v>21185.37</v>
-      </c>
-      <c r="K21" s="11">
-        <v>-4862</v>
-      </c>
-      <c r="L21" s="9">
-        <v>7.62</v>
-      </c>
-      <c r="M21" s="9" t="s">
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>285558</v>
+      </c>
+      <c r="J22" s="11">
+        <v>7535.37</v>
+      </c>
+      <c r="K22" s="11">
+        <v>-13650</v>
+      </c>
+      <c r="L22" s="9">
+        <v>2.71</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N22" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="6">
+    <row r="23" spans="1:14">
+      <c r="A23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="6">
         <v>600887</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C23" s="6">
         <v>16466</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="6">
         <v>16466</v>
       </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>36</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>35.32</v>
+      </c>
+      <c r="G23" s="7">
         <v>37.331</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>592776</v>
-      </c>
-      <c r="J22" s="7">
-        <v>-21915.63</v>
-      </c>
-      <c r="K22" s="7">
-        <v>-6915.72</v>
-      </c>
-      <c r="L22" s="8">
-        <v>-3.57</v>
-      </c>
-      <c r="M22" s="8" t="s">
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>581579.12</v>
+      </c>
+      <c r="J23" s="7">
+        <v>-33112.51</v>
+      </c>
+      <c r="K23" s="7">
+        <v>-11196.88</v>
+      </c>
+      <c r="L23" s="8">
+        <v>-5.39</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="10">
-        <v>603986</v>
-      </c>
-      <c r="C23" s="10">
-        <v>2800</v>
-      </c>
-      <c r="D23" s="10">
-        <v>2800</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11">
-        <v>215.66</v>
-      </c>
-      <c r="G23" s="11">
-        <v>214.39</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>603848</v>
-      </c>
-      <c r="J23" s="11">
-        <v>3555.95</v>
-      </c>
-      <c r="K23" s="11">
-        <v>-6664</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0.59</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="9" t="s">
+      <c r="N23" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1644,258 +1650,258 @@
       <c r="A24" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6">
+        <v>603986</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>211.5</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <v>-16100.29</v>
+      </c>
+      <c r="K24" s="7">
+        <v>-19656.24</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="6">
+      <c r="B25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="6">
         <v>23800</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="6">
         <v>23800</v>
       </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>13.48</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>13.08</v>
+      </c>
+      <c r="G25" s="7">
         <v>14.514</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>320824</v>
-      </c>
-      <c r="J24" s="7">
-        <v>-24616.52</v>
-      </c>
-      <c r="K24" s="7">
-        <v>-15708</v>
-      </c>
-      <c r="L24" s="8">
-        <v>-7.12</v>
-      </c>
-      <c r="M24" s="8" t="s">
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>311304</v>
+      </c>
+      <c r="J25" s="7">
+        <v>-34136.52</v>
+      </c>
+      <c r="K25" s="7">
+        <v>-9520</v>
+      </c>
+      <c r="L25" s="8">
+        <v>-9.88</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="10">
-        <v>19100</v>
-      </c>
-      <c r="D25" s="10">
-        <v>19100</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11">
-        <v>8.49</v>
-      </c>
-      <c r="G25" s="11">
-        <v>8.319</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>162159</v>
-      </c>
-      <c r="J25" s="11">
-        <v>3263.31</v>
-      </c>
-      <c r="K25" s="11">
-        <v>-5348</v>
-      </c>
-      <c r="L25" s="9">
-        <v>2.06</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="10">
+      <c r="C26" s="10">
+        <v>19100</v>
+      </c>
+      <c r="D26" s="10">
+        <v>19100</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>8.52</v>
+      </c>
+      <c r="G26" s="11">
+        <v>8.319</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>162732</v>
+      </c>
+      <c r="J26" s="11">
+        <v>3836.31</v>
+      </c>
+      <c r="K26" s="11">
+        <v>573</v>
+      </c>
+      <c r="L26" s="9">
+        <v>2.42</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="10">
         <v>511990</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C27" s="10">
         <v>6</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D27" s="10">
         <v>6</v>
       </c>
-      <c r="E26" s="10">
-        <v>0</v>
-      </c>
-      <c r="F26" s="11">
-        <v>100.017</v>
-      </c>
-      <c r="G26" s="11">
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>100.012</v>
+      </c>
+      <c r="G27" s="11">
         <v>-6751.737</v>
       </c>
-      <c r="H26" s="11">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
-        <v>600.1</v>
-      </c>
-      <c r="J26" s="11">
-        <v>41110.52</v>
-      </c>
-      <c r="K26" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0</v>
-      </c>
-      <c r="M26" s="9" t="s">
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>600.07</v>
+      </c>
+      <c r="J27" s="11">
+        <v>41110.49</v>
+      </c>
+      <c r="K27" s="11">
+        <v>-0.03</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="N27" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="6">
+    <row r="28" spans="1:14">
+      <c r="A28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="6">
         <v>600801</v>
       </c>
-      <c r="C27" s="6">
-        <v>4600</v>
-      </c>
-      <c r="D27" s="6">
-        <v>4600</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>26.67</v>
-      </c>
-      <c r="G27" s="7">
-        <v>27.52</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>122682</v>
-      </c>
-      <c r="J27" s="7">
-        <v>-3912</v>
-      </c>
-      <c r="K27" s="7">
-        <v>-3312</v>
-      </c>
-      <c r="L27" s="8">
-        <v>-3.09</v>
-      </c>
-      <c r="M27" s="8" t="s">
+      <c r="C28" s="6">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6">
+        <v>21</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>26.19</v>
+      </c>
+      <c r="G28" s="7">
+        <v>381.308</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>549.99</v>
+      </c>
+      <c r="J28" s="7">
+        <v>-7457.48</v>
+      </c>
+      <c r="K28" s="7">
+        <v>-3545.48</v>
+      </c>
+      <c r="L28" s="8">
+        <v>-93.13</v>
+      </c>
+      <c r="M28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="N28" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11">
-        <v>10.56</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
-        <v>0</v>
-      </c>
-      <c r="J28" s="11">
-        <v>37303.61</v>
-      </c>
-      <c r="K28" s="11">
-        <v>11534.45</v>
-      </c>
-      <c r="L28" s="9">
-        <v>0</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="C29" s="6">
-        <v>78100</v>
+        <v>0</v>
       </c>
       <c r="D29" s="6">
-        <v>78100</v>
+        <v>0</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>4.44</v>
+        <v>4.47</v>
       </c>
       <c r="G29" s="7">
-        <v>4.524</v>
+        <v>0</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>346764</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7">
-        <v>-6590.2</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>15</v>
+        <v>-10107.23</v>
+      </c>
+      <c r="K29" s="7">
+        <v>-3517.03</v>
       </c>
       <c r="L29" s="8">
-        <v>-1.86</v>
+        <v>0</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>26</v>
@@ -1906,40 +1912,40 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="10">
         <v>300094</v>
       </c>
       <c r="C30" s="10">
-        <v>86400</v>
+        <v>42000</v>
       </c>
       <c r="D30" s="10">
-        <v>86400</v>
+        <v>42000</v>
       </c>
       <c r="E30" s="10">
         <v>0</v>
       </c>
       <c r="F30" s="11">
-        <v>4.77</v>
+        <v>5</v>
       </c>
       <c r="G30" s="11">
-        <v>4.328</v>
+        <v>3.626</v>
       </c>
       <c r="H30" s="11">
         <v>0</v>
       </c>
       <c r="I30" s="11">
-        <v>412128</v>
+        <v>210000</v>
       </c>
       <c r="J30" s="11">
-        <v>38231.39</v>
+        <v>57713.22</v>
       </c>
       <c r="K30" s="11">
-        <v>37152</v>
+        <v>19481.83</v>
       </c>
       <c r="L30" s="9">
-        <v>10.21</v>
+        <v>37.89</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>26</v>
@@ -1950,7 +1956,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="6">
         <v>600611</v>
@@ -1965,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>3.87</v>
+        <v>3.88</v>
       </c>
       <c r="G31" s="7">
         <v>3.936</v>
@@ -1974,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>34443</v>
+        <v>34532</v>
       </c>
       <c r="J31" s="7">
-        <v>-583.92</v>
+        <v>-494.92</v>
       </c>
       <c r="K31" s="7">
-        <v>-712</v>
+        <v>89</v>
       </c>
       <c r="L31" s="8">
-        <v>-1.68</v>
+        <v>-1.42</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>24</v>
@@ -1993,52 +1999,52 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="10">
+      <c r="A32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="6">
         <v>600161</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="6">
         <v>8200</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="6">
         <v>8200</v>
       </c>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11">
-        <v>50.99</v>
-      </c>
-      <c r="G32" s="11">
-        <v>49.199</v>
-      </c>
-      <c r="H32" s="11">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11">
-        <v>418118</v>
-      </c>
-      <c r="J32" s="11">
-        <v>14682.96</v>
-      </c>
-      <c r="K32" s="11">
-        <v>17104.11</v>
-      </c>
-      <c r="L32" s="9">
-        <v>3.64</v>
-      </c>
-      <c r="M32" s="9" t="s">
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>47.53</v>
+      </c>
+      <c r="G32" s="7">
+        <v>49.193</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>389746</v>
+      </c>
+      <c r="J32" s="7">
+        <v>-13633.19</v>
+      </c>
+      <c r="K32" s="7">
+        <v>-28372</v>
+      </c>
+      <c r="L32" s="8">
+        <v>-3.38</v>
+      </c>
+      <c r="M32" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="N32" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="6">
         <v>600129</v>
@@ -2053,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="7">
-        <v>16.57</v>
+        <v>16.24</v>
       </c>
       <c r="G33" s="7">
         <v>17.033</v>
@@ -2062,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="I33" s="7">
-        <v>8285</v>
+        <v>8120</v>
       </c>
       <c r="J33" s="7">
-        <v>-231.28</v>
+        <v>-396.28</v>
       </c>
       <c r="K33" s="7">
-        <v>-160</v>
+        <v>-165</v>
       </c>
       <c r="L33" s="8">
-        <v>-2.72</v>
+        <v>-4.66</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>24</v>
@@ -2082,7 +2088,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="6">
         <v>300082</v>
@@ -2097,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>8.1</v>
+        <v>8.53</v>
       </c>
       <c r="G34" s="7">
         <v>8.565</v>
@@ -2106,16 +2112,16 @@
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>57510</v>
+        <v>60563</v>
       </c>
       <c r="J34" s="7">
-        <v>-3300.91</v>
+        <v>-247.91</v>
       </c>
       <c r="K34" s="7">
-        <v>-1988</v>
+        <v>3053</v>
       </c>
       <c r="L34" s="8">
-        <v>-5.43</v>
+        <v>-0.41</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>26</v>
@@ -2126,7 +2132,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="6">
         <v>300750</v>
@@ -2141,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="7">
-        <v>198.42</v>
+        <v>195.73</v>
       </c>
       <c r="G35" s="7">
         <v>199.602</v>
@@ -2150,16 +2156,16 @@
         <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>178578</v>
+        <v>176157</v>
       </c>
       <c r="J35" s="7">
-        <v>-1063.36</v>
+        <v>-3484.36</v>
       </c>
       <c r="K35" s="7">
-        <v>-2034</v>
+        <v>-2421</v>
       </c>
       <c r="L35" s="8">
-        <v>-0.59</v>
+        <v>-1.94</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>26</v>
@@ -2169,52 +2175,52 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="10">
+      <c r="A36" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="6">
         <v>600298</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="6">
         <v>100</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="6">
         <v>100</v>
       </c>
-      <c r="E36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11">
-        <v>68.02</v>
-      </c>
-      <c r="G36" s="11">
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>65.49</v>
+      </c>
+      <c r="G36" s="7">
         <v>67.21</v>
       </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>6802</v>
-      </c>
-      <c r="J36" s="11">
-        <v>81</v>
-      </c>
-      <c r="K36" s="11">
-        <v>95</v>
-      </c>
-      <c r="L36" s="9">
-        <v>1.21</v>
-      </c>
-      <c r="M36" s="9" t="s">
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>6549</v>
+      </c>
+      <c r="J36" s="7">
+        <v>-172</v>
+      </c>
+      <c r="K36" s="7">
+        <v>-253</v>
+      </c>
+      <c r="L36" s="8">
+        <v>-2.56</v>
+      </c>
+      <c r="M36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N36" s="9" t="s">
+      <c r="N36" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" s="6">
         <v>601968</v>
@@ -2229,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="7">
-        <v>6.97</v>
+        <v>6.73</v>
       </c>
       <c r="G37" s="7">
         <v>7.091</v>
@@ -2238,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>142188</v>
+        <v>137292</v>
       </c>
       <c r="J37" s="7">
-        <v>-2465.69</v>
+        <v>-7361.69</v>
       </c>
       <c r="K37" s="7">
-        <v>-2244</v>
+        <v>-4896</v>
       </c>
       <c r="L37" s="8">
-        <v>-1.71</v>
+        <v>-5.09</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>24</v>
@@ -2258,40 +2264,40 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="6">
         <v>300618</v>
       </c>
       <c r="C38" s="6">
-        <v>7375</v>
+        <v>75</v>
       </c>
       <c r="D38" s="6">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E38" s="6">
-        <v>7375</v>
+        <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>78.11</v>
+        <v>80.44</v>
       </c>
       <c r="G38" s="7">
-        <v>81.302</v>
+        <v>303.548</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>576061.25</v>
+        <v>6033</v>
       </c>
       <c r="J38" s="7">
-        <v>-23541.86</v>
+        <v>-16733.13</v>
       </c>
       <c r="K38" s="7">
-        <v>-23541.86</v>
+        <v>6751.79</v>
       </c>
       <c r="L38" s="8">
-        <v>-3.93</v>
+        <v>-73.5</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>26</v>
@@ -2301,143 +2307,143 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="6">
-        <v>600547</v>
-      </c>
-      <c r="C39" s="6">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6">
-        <v>0</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>41.39</v>
-      </c>
-      <c r="G39" s="7">
-        <v>0</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0</v>
-      </c>
-      <c r="J39" s="7">
-        <v>-5862.18</v>
-      </c>
-      <c r="K39" s="7">
-        <v>-7542.75</v>
-      </c>
-      <c r="L39" s="8">
-        <v>0</v>
-      </c>
-      <c r="M39" s="8" t="s">
+      <c r="C39" s="10">
+        <v>51100</v>
+      </c>
+      <c r="D39" s="10">
+        <v>51100</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>8.01</v>
+      </c>
+      <c r="G39" s="11">
+        <v>6.961</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>409311</v>
+      </c>
+      <c r="J39" s="11">
+        <v>53605.76</v>
+      </c>
+      <c r="K39" s="11">
+        <v>-3577</v>
+      </c>
+      <c r="L39" s="9">
+        <v>15.07</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="6">
+        <v>603599</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>16.83</v>
+      </c>
+      <c r="G40" s="7">
+        <v>17.865</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>33660</v>
+      </c>
+      <c r="J40" s="7">
+        <v>-2069.36</v>
+      </c>
+      <c r="K40" s="7">
+        <v>-360</v>
+      </c>
+      <c r="L40" s="8">
+        <v>-5.79</v>
+      </c>
+      <c r="M40" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="8" t="s">
+      <c r="N40" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="9" t="s">
+    <row r="41" spans="1:14">
+      <c r="A41" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="10">
-        <v>51100</v>
-      </c>
-      <c r="D40" s="10">
-        <v>51100</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0</v>
-      </c>
-      <c r="F40" s="11">
-        <v>8.08</v>
-      </c>
-      <c r="G40" s="11">
-        <v>6.961</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>412888</v>
-      </c>
-      <c r="J40" s="11">
-        <v>57182.76</v>
-      </c>
-      <c r="K40" s="11">
-        <v>-9198</v>
-      </c>
-      <c r="L40" s="9">
-        <v>16.08</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="6">
-        <v>603599</v>
-      </c>
-      <c r="C41" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E41" s="6">
-        <v>0</v>
-      </c>
-      <c r="F41" s="7">
-        <v>17.01</v>
-      </c>
-      <c r="G41" s="7">
-        <v>17.865</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>34020</v>
-      </c>
-      <c r="J41" s="7">
-        <v>-1709.36</v>
-      </c>
-      <c r="K41" s="7">
-        <v>-1100</v>
-      </c>
-      <c r="L41" s="8">
-        <v>-4.79</v>
-      </c>
-      <c r="M41" s="8" t="s">
+      <c r="B41" s="10">
+        <v>603043</v>
+      </c>
+      <c r="C41" s="10">
+        <v>7900</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <v>7900</v>
+      </c>
+      <c r="F41" s="11">
+        <v>43.52</v>
+      </c>
+      <c r="G41" s="11">
+        <v>43.361</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
+      </c>
+      <c r="I41" s="11">
+        <v>343808</v>
+      </c>
+      <c r="J41" s="11">
+        <v>1253.85</v>
+      </c>
+      <c r="K41" s="11">
+        <v>1253.85</v>
+      </c>
+      <c r="L41" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="M41" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N41" s="8" t="s">
+      <c r="N41" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="C42" s="6">
         <v>5500</v>
@@ -2449,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="7">
-        <v>67.95</v>
+        <v>66.92</v>
       </c>
       <c r="G42" s="7">
         <v>76.561</v>
@@ -2458,16 +2464,16 @@
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>373725</v>
+        <v>368060</v>
       </c>
       <c r="J42" s="7">
-        <v>-47362.75</v>
+        <v>-53027.75</v>
       </c>
       <c r="K42" s="7">
-        <v>-8525</v>
+        <v>-5665</v>
       </c>
       <c r="L42" s="8">
-        <v>-11.25</v>
+        <v>-12.59</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>26</v>
@@ -2478,7 +2484,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" s="6">
         <v>300601</v>
@@ -2487,31 +2493,31 @@
         <v>2700</v>
       </c>
       <c r="D43" s="6">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E43" s="6">
-        <v>2700</v>
+        <v>1000</v>
       </c>
       <c r="F43" s="7">
-        <v>231.11</v>
+        <v>208</v>
       </c>
       <c r="G43" s="7">
-        <v>239.138</v>
+        <v>238.853</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>623997</v>
+        <v>561600</v>
       </c>
       <c r="J43" s="7">
-        <v>-21676.48</v>
+        <v>-83302.4</v>
       </c>
       <c r="K43" s="7">
-        <v>-21676.48</v>
+        <v>-61650.47</v>
       </c>
       <c r="L43" s="8">
-        <v>-3.36</v>
+        <v>-12.92</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>26</v>
@@ -2522,7 +2528,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="10">
         <v>300391</v>
@@ -2537,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="11">
-        <v>17.23</v>
+        <v>17.03</v>
       </c>
       <c r="G44" s="11">
         <v>15.581</v>
@@ -2546,16 +2552,16 @@
         <v>0</v>
       </c>
       <c r="I44" s="11">
-        <v>373891</v>
+        <v>369551</v>
       </c>
       <c r="J44" s="11">
-        <v>35789.58</v>
+        <v>31449.58</v>
       </c>
       <c r="K44" s="11">
-        <v>1085</v>
+        <v>-4340</v>
       </c>
       <c r="L44" s="9">
-        <v>10.58</v>
+        <v>9.3</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>26</v>
@@ -2566,40 +2572,40 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="B45" s="10">
+        <v>300759</v>
       </c>
       <c r="C45" s="10">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="D45" s="10">
         <v>0</v>
       </c>
       <c r="E45" s="10">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="F45" s="11">
-        <v>27.07</v>
+        <v>94.3</v>
       </c>
       <c r="G45" s="11">
-        <v>0</v>
+        <v>93.546</v>
       </c>
       <c r="H45" s="11">
         <v>0</v>
       </c>
       <c r="I45" s="11">
-        <v>0</v>
+        <v>452640</v>
       </c>
       <c r="J45" s="11">
-        <v>7815.57</v>
+        <v>3619.92</v>
       </c>
       <c r="K45" s="11">
-        <v>-44135.97</v>
+        <v>3619.92</v>
       </c>
       <c r="L45" s="9">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="M45" s="9" t="s">
         <v>26</v>
@@ -2610,7 +2616,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" s="6">
         <v>600346</v>
@@ -2619,31 +2625,31 @@
         <v>26214</v>
       </c>
       <c r="D46" s="6">
-        <v>0</v>
+        <v>26214</v>
       </c>
       <c r="E46" s="6">
-        <v>26214</v>
+        <v>0</v>
       </c>
       <c r="F46" s="7">
-        <v>19.36</v>
+        <v>19.06</v>
       </c>
       <c r="G46" s="7">
-        <v>19.631</v>
+        <v>19.63</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>507503.04</v>
+        <v>499638.84</v>
       </c>
       <c r="J46" s="7">
-        <v>-7111.14</v>
+        <v>-14937.2</v>
       </c>
       <c r="K46" s="7">
-        <v>-7111.14</v>
+        <v>-7864.2</v>
       </c>
       <c r="L46" s="8">
-        <v>-1.38</v>
+        <v>-2.9</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>24</v>
@@ -2653,129 +2659,129 @@
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="6">
+        <v>17800</v>
+      </c>
+      <c r="D47" s="6">
+        <v>17800</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>18.64</v>
+      </c>
+      <c r="G47" s="7">
+        <v>18.696</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>331792</v>
+      </c>
+      <c r="J47" s="7">
+        <v>-990.27</v>
+      </c>
+      <c r="K47" s="7">
+        <v>-17622</v>
+      </c>
+      <c r="L47" s="8">
+        <v>-0.3</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="10">
-        <v>600276</v>
-      </c>
-      <c r="C47" s="10">
-        <v>0</v>
-      </c>
-      <c r="D47" s="10">
-        <v>0</v>
-      </c>
-      <c r="E47" s="10">
-        <v>0</v>
-      </c>
-      <c r="F47" s="11">
-        <v>91.78</v>
-      </c>
-      <c r="G47" s="11">
-        <v>0</v>
-      </c>
-      <c r="H47" s="11">
-        <v>0</v>
-      </c>
-      <c r="I47" s="11">
-        <v>0</v>
-      </c>
-      <c r="J47" s="11">
-        <v>11094.39</v>
-      </c>
-      <c r="K47" s="11">
-        <v>11256.65</v>
-      </c>
-      <c r="L47" s="9">
-        <v>0</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="10">
-        <v>17800</v>
-      </c>
-      <c r="D48" s="10">
-        <v>17800</v>
-      </c>
-      <c r="E48" s="10">
-        <v>0</v>
-      </c>
-      <c r="F48" s="11">
-        <v>19.63</v>
-      </c>
-      <c r="G48" s="11">
-        <v>18.696</v>
-      </c>
-      <c r="H48" s="11">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
-        <v>349414</v>
-      </c>
-      <c r="J48" s="11">
-        <v>16631.73</v>
-      </c>
-      <c r="K48" s="11">
-        <v>-6942</v>
-      </c>
-      <c r="L48" s="9">
-        <v>5</v>
-      </c>
-      <c r="M48" s="9" t="s">
+      <c r="B48" s="6">
+        <v>300724</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>83.25</v>
+      </c>
+      <c r="G48" s="7">
+        <v>105.118</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>166500</v>
+      </c>
+      <c r="J48" s="7">
+        <v>-43735.89</v>
+      </c>
+      <c r="K48" s="7">
+        <v>-19056.41</v>
+      </c>
+      <c r="L48" s="8">
+        <v>-20.8</v>
+      </c>
+      <c r="M48" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N48" s="9" t="s">
+      <c r="N48" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" s="6">
-        <v>300724</v>
+        <v>300182</v>
       </c>
       <c r="C49" s="6">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="D49" s="6">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>87</v>
+        <v>5.24</v>
       </c>
       <c r="G49" s="7">
-        <v>92.142</v>
+        <v>0</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>417600</v>
+        <v>0</v>
       </c>
       <c r="J49" s="7">
-        <v>-24679.48</v>
+        <v>-31620.37</v>
       </c>
       <c r="K49" s="7">
-        <v>7200</v>
+        <v>8740.08</v>
       </c>
       <c r="L49" s="8">
-        <v>-5.58</v>
+        <v>0</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>26</v>
@@ -2785,85 +2791,85 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="6">
-        <v>300182</v>
-      </c>
-      <c r="C50" s="6">
-        <v>120000</v>
-      </c>
-      <c r="D50" s="6">
-        <v>120000</v>
-      </c>
-      <c r="E50" s="6">
-        <v>0</v>
-      </c>
-      <c r="F50" s="7">
-        <v>4.95</v>
-      </c>
-      <c r="G50" s="7">
-        <v>5.286</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>594000</v>
-      </c>
-      <c r="J50" s="7">
-        <v>-40360.45</v>
-      </c>
-      <c r="K50" s="7">
-        <v>-8400</v>
-      </c>
-      <c r="L50" s="8">
-        <v>-6.36</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>25</v>
+      <c r="A50" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="10">
+        <v>603881</v>
+      </c>
+      <c r="C50" s="10">
+        <v>5300</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
+        <v>5300</v>
+      </c>
+      <c r="F50" s="11">
+        <v>83.48</v>
+      </c>
+      <c r="G50" s="11">
+        <v>82.745</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>442444</v>
+      </c>
+      <c r="J50" s="11">
+        <v>3894.72</v>
+      </c>
+      <c r="K50" s="11">
+        <v>3894.72</v>
+      </c>
+      <c r="L50" s="9">
+        <v>0.89</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B51" s="6">
         <v>600587</v>
       </c>
       <c r="C51" s="6">
-        <v>25100</v>
+        <v>2300</v>
       </c>
       <c r="D51" s="6">
-        <v>25100</v>
+        <v>2300</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>18.74</v>
+        <v>17.84</v>
       </c>
       <c r="G51" s="7">
-        <v>21.096</v>
+        <v>51.691</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>470374</v>
+        <v>41032</v>
       </c>
       <c r="J51" s="7">
-        <v>-59133.38</v>
+        <v>-77857.31</v>
       </c>
       <c r="K51" s="7">
-        <v>-30371</v>
+        <v>-18723.93</v>
       </c>
       <c r="L51" s="8">
-        <v>-11.17</v>
+        <v>-65.49</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>24</v>
@@ -2873,85 +2879,85 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="10">
+      <c r="A52" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="6">
         <v>601799</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="6">
         <v>900</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="6">
         <v>900</v>
       </c>
-      <c r="E52" s="10">
-        <v>0</v>
-      </c>
-      <c r="F52" s="11">
-        <v>146.88</v>
-      </c>
-      <c r="G52" s="11">
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>143.09</v>
+      </c>
+      <c r="G52" s="7">
         <v>143.693</v>
       </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>132192</v>
-      </c>
-      <c r="J52" s="11">
-        <v>2868.57</v>
-      </c>
-      <c r="K52" s="11">
-        <v>2322</v>
-      </c>
-      <c r="L52" s="9">
-        <v>2.22</v>
-      </c>
-      <c r="M52" s="9" t="s">
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>128781</v>
+      </c>
+      <c r="J52" s="7">
+        <v>-542.43</v>
+      </c>
+      <c r="K52" s="7">
+        <v>-3411</v>
+      </c>
+      <c r="L52" s="8">
+        <v>-0.42</v>
+      </c>
+      <c r="M52" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N52" s="9" t="s">
+      <c r="N52" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="B53" s="6">
+        <v>300122</v>
       </c>
       <c r="C53" s="6">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="D53" s="6">
         <v>0</v>
       </c>
       <c r="E53" s="6">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="F53" s="7">
-        <v>18.14</v>
+        <v>145.74</v>
       </c>
       <c r="G53" s="7">
-        <v>18.42</v>
+        <v>147.13</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>9070</v>
+        <v>510090</v>
       </c>
       <c r="J53" s="7">
-        <v>-140</v>
+        <v>-4866.61</v>
       </c>
       <c r="K53" s="7">
-        <v>-140</v>
+        <v>-4866.61</v>
       </c>
       <c r="L53" s="8">
-        <v>-1.52</v>
+        <v>-0.94</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>26</v>
@@ -2961,305 +2967,305 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="6">
+        <v>500</v>
+      </c>
+      <c r="D54" s="6">
+        <v>500</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>17.88</v>
+      </c>
+      <c r="G54" s="7">
+        <v>18.412</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>8940</v>
+      </c>
+      <c r="J54" s="7">
+        <v>-266.2</v>
+      </c>
+      <c r="K54" s="7">
+        <v>-130</v>
+      </c>
+      <c r="L54" s="8">
+        <v>-2.89</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="C55" s="10">
+        <v>84</v>
+      </c>
+      <c r="D55" s="10">
+        <v>84</v>
+      </c>
+      <c r="E55" s="10">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
+        <v>5.66</v>
+      </c>
+      <c r="G55" s="11">
+        <v>-72.342</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11">
+        <v>475.44</v>
+      </c>
+      <c r="J55" s="11">
+        <v>6552.18</v>
+      </c>
+      <c r="K55" s="11">
+        <v>133.03</v>
+      </c>
+      <c r="L55" s="9">
+        <v>0</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="10">
-        <v>12600</v>
-      </c>
-      <c r="D54" s="10">
-        <v>12600</v>
-      </c>
-      <c r="E54" s="10">
-        <v>0</v>
-      </c>
-      <c r="F54" s="11">
-        <v>5.55</v>
-      </c>
-      <c r="G54" s="11">
-        <v>5.041</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
-        <v>69930</v>
-      </c>
-      <c r="J54" s="11">
-        <v>6419.15</v>
-      </c>
-      <c r="K54" s="11">
-        <v>-3024</v>
-      </c>
-      <c r="L54" s="9">
-        <v>10.1</v>
-      </c>
-      <c r="M54" s="9" t="s">
+      <c r="B56" s="6">
+        <v>300053</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>12.78</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <v>-28642.38</v>
+      </c>
+      <c r="K56" s="7">
+        <v>-950.17</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0</v>
+      </c>
+      <c r="M56" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N54" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" s="6">
-        <v>300053</v>
-      </c>
-      <c r="C55" s="6">
-        <v>41600</v>
-      </c>
-      <c r="D55" s="6">
-        <v>41600</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
-      <c r="F55" s="7">
-        <v>12.32</v>
-      </c>
-      <c r="G55" s="7">
-        <v>12.986</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>512512</v>
-      </c>
-      <c r="J55" s="7">
-        <v>-27692.21</v>
-      </c>
-      <c r="K55" s="7">
-        <v>-19552</v>
-      </c>
-      <c r="L55" s="8">
-        <v>-5.13</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" s="10">
-        <v>300146</v>
-      </c>
-      <c r="C56" s="10">
-        <v>0</v>
-      </c>
-      <c r="D56" s="10">
-        <v>0</v>
-      </c>
-      <c r="E56" s="10">
-        <v>0</v>
-      </c>
-      <c r="F56" s="11">
-        <v>25.85</v>
-      </c>
-      <c r="G56" s="11">
-        <v>0</v>
-      </c>
-      <c r="H56" s="11">
-        <v>0</v>
-      </c>
-      <c r="I56" s="11">
-        <v>0</v>
-      </c>
-      <c r="J56" s="11">
-        <v>58235.31</v>
-      </c>
-      <c r="K56" s="11">
-        <v>22689.33</v>
-      </c>
-      <c r="L56" s="9">
-        <v>0</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N56" s="9" t="s">
+      <c r="N56" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="6">
+        <v>300142</v>
+      </c>
+      <c r="C57" s="6">
+        <v>8000</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>8000</v>
+      </c>
+      <c r="F57" s="7">
+        <v>75.16</v>
+      </c>
+      <c r="G57" s="7">
+        <v>75.829</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>601280</v>
+      </c>
+      <c r="J57" s="7">
+        <v>-5352.23</v>
+      </c>
+      <c r="K57" s="7">
+        <v>-5352.23</v>
+      </c>
+      <c r="L57" s="8">
+        <v>-0.88</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="6">
-        <v>600585</v>
-      </c>
-      <c r="C57" s="6">
-        <v>10100</v>
-      </c>
-      <c r="D57" s="6">
-        <v>10100</v>
-      </c>
-      <c r="E57" s="6">
-        <v>0</v>
-      </c>
-      <c r="F57" s="7">
-        <v>60.55</v>
-      </c>
-      <c r="G57" s="7">
-        <v>61.016</v>
-      </c>
-      <c r="H57" s="7">
-        <v>0</v>
-      </c>
-      <c r="I57" s="7">
-        <v>611555</v>
-      </c>
-      <c r="J57" s="7">
-        <v>-4710.42</v>
-      </c>
-      <c r="K57" s="7">
-        <v>-10605</v>
-      </c>
-      <c r="L57" s="8">
-        <v>-0.76</v>
-      </c>
-      <c r="M57" s="8" t="s">
+      <c r="C58" s="10">
+        <v>8900</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+      <c r="E58" s="10">
+        <v>8900</v>
+      </c>
+      <c r="F58" s="11">
+        <v>65.48</v>
+      </c>
+      <c r="G58" s="11">
+        <v>65.324</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>582772</v>
+      </c>
+      <c r="J58" s="11">
+        <v>1386.11</v>
+      </c>
+      <c r="K58" s="11">
+        <v>1386.11</v>
+      </c>
+      <c r="L58" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="10">
+        <v>600690</v>
+      </c>
+      <c r="C59" s="10">
+        <v>25000</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
+        <v>25000</v>
+      </c>
+      <c r="F59" s="11">
+        <v>21.61</v>
+      </c>
+      <c r="G59" s="11">
+        <v>21.275</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+      <c r="I59" s="11">
+        <v>540250</v>
+      </c>
+      <c r="J59" s="11">
+        <v>8378.32</v>
+      </c>
+      <c r="K59" s="11">
+        <v>8378.32</v>
+      </c>
+      <c r="L59" s="9">
+        <v>1.57</v>
+      </c>
+      <c r="M59" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N57" s="8" t="s">
+      <c r="N59" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="6">
-        <v>52300</v>
-      </c>
-      <c r="D58" s="6">
-        <v>0</v>
-      </c>
-      <c r="E58" s="6">
-        <v>52300</v>
-      </c>
-      <c r="F58" s="7">
-        <v>10.58</v>
-      </c>
-      <c r="G58" s="7">
-        <v>10.982</v>
-      </c>
-      <c r="H58" s="7">
-        <v>0</v>
-      </c>
-      <c r="I58" s="7">
-        <v>553334</v>
-      </c>
-      <c r="J58" s="7">
-        <v>-21046.55</v>
-      </c>
-      <c r="K58" s="7">
-        <v>-21046.55</v>
-      </c>
-      <c r="L58" s="8">
-        <v>-3.66</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="6">
-        <v>6700</v>
-      </c>
-      <c r="D59" s="6">
-        <v>0</v>
-      </c>
-      <c r="E59" s="6">
-        <v>6700</v>
-      </c>
-      <c r="F59" s="7">
-        <v>93.93</v>
-      </c>
-      <c r="G59" s="7">
-        <v>95.083</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0</v>
-      </c>
-      <c r="I59" s="7">
-        <v>629331</v>
-      </c>
-      <c r="J59" s="7">
-        <v>-7725.57</v>
-      </c>
-      <c r="K59" s="7">
-        <v>-7725.57</v>
-      </c>
-      <c r="L59" s="8">
-        <v>-1.21</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B60" s="6">
-        <v>601028</v>
+        <v>600585</v>
       </c>
       <c r="C60" s="6">
-        <v>2500</v>
+        <v>10100</v>
       </c>
       <c r="D60" s="6">
-        <v>0</v>
+        <v>10100</v>
       </c>
       <c r="E60" s="6">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F60" s="7">
-        <v>12.65</v>
+        <v>59.08</v>
       </c>
       <c r="G60" s="7">
-        <v>12.781</v>
+        <v>61.016</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>31625</v>
+        <v>596708</v>
       </c>
       <c r="J60" s="7">
-        <v>-328.68</v>
+        <v>-19557.42</v>
       </c>
       <c r="K60" s="7">
-        <v>-328.68</v>
+        <v>-14847</v>
       </c>
       <c r="L60" s="8">
-        <v>-1.02</v>
+        <v>-3.17</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>24</v>
@@ -3269,129 +3275,129 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61" s="6">
-        <v>601231</v>
-      </c>
-      <c r="C61" s="6">
-        <v>8600</v>
-      </c>
-      <c r="D61" s="6">
-        <v>8600</v>
-      </c>
-      <c r="E61" s="6">
-        <v>0</v>
-      </c>
-      <c r="F61" s="7">
+      <c r="A61" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="10">
+        <v>52300</v>
+      </c>
+      <c r="D61" s="10">
+        <v>52300</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>11.02</v>
+      </c>
+      <c r="G61" s="11">
+        <v>10.982</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>576346</v>
+      </c>
+      <c r="J61" s="11">
+        <v>2006.35</v>
+      </c>
+      <c r="K61" s="11">
+        <v>23012</v>
+      </c>
+      <c r="L61" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="10">
+        <v>600436</v>
+      </c>
+      <c r="C62" s="10">
+        <v>2500</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+      <c r="E62" s="10">
+        <v>2500</v>
+      </c>
+      <c r="F62" s="11">
+        <v>199.56</v>
+      </c>
+      <c r="G62" s="11">
+        <v>196.828</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
+      </c>
+      <c r="I62" s="11">
+        <v>498900</v>
+      </c>
+      <c r="J62" s="11">
+        <v>6830.23</v>
+      </c>
+      <c r="K62" s="11">
+        <v>6830.23</v>
+      </c>
+      <c r="L62" s="9">
+        <v>1.39</v>
+      </c>
+      <c r="M62" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G61" s="7">
-        <v>26.281</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>206400</v>
-      </c>
-      <c r="J61" s="7">
-        <v>-19616.9</v>
-      </c>
-      <c r="K61" s="7">
-        <v>344</v>
-      </c>
-      <c r="L61" s="8">
-        <v>-8.68</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N61" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="13">
-        <v>566500</v>
-      </c>
-      <c r="D62" s="13">
-        <v>566500</v>
-      </c>
-      <c r="E62" s="13">
-        <v>0</v>
-      </c>
-      <c r="F62" s="14">
-        <v>0</v>
-      </c>
-      <c r="G62" s="14">
-        <v>0</v>
-      </c>
-      <c r="H62" s="14">
-        <v>0</v>
-      </c>
-      <c r="I62" s="14">
-        <v>0</v>
-      </c>
-      <c r="J62" s="14">
-        <v>0</v>
-      </c>
-      <c r="K62" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L62" s="12">
-        <v>0</v>
-      </c>
-      <c r="M62" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N62" s="12" t="s">
+      <c r="N62" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C63" s="6">
-        <v>39100</v>
+        <v>6700</v>
       </c>
       <c r="D63" s="6">
-        <v>39100</v>
+        <v>6700</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
       </c>
       <c r="F63" s="7">
-        <v>10.59</v>
+        <v>92.7</v>
       </c>
       <c r="G63" s="7">
-        <v>11.847</v>
+        <v>95.083</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>414069</v>
+        <v>621090</v>
       </c>
       <c r="J63" s="7">
-        <v>-49152.64</v>
+        <v>-15962.81</v>
       </c>
       <c r="K63" s="7">
-        <v>-13294</v>
+        <v>-8241</v>
       </c>
       <c r="L63" s="8">
-        <v>-10.61</v>
+        <v>-2.51</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>26</v>
@@ -3402,84 +3408,84 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B64" s="10">
-        <v>300099</v>
+        <v>601028</v>
       </c>
       <c r="C64" s="10">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D64" s="10">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E64" s="10">
         <v>0</v>
       </c>
       <c r="F64" s="11">
-        <v>11.65</v>
+        <v>12.9</v>
       </c>
       <c r="G64" s="11">
-        <v>0</v>
+        <v>12.773</v>
       </c>
       <c r="H64" s="11">
         <v>0</v>
       </c>
       <c r="I64" s="11">
-        <v>0</v>
+        <v>32250</v>
       </c>
       <c r="J64" s="11">
-        <v>50923.5</v>
+        <v>317.17</v>
       </c>
       <c r="K64" s="11">
-        <v>4849.85</v>
+        <v>625</v>
       </c>
       <c r="L64" s="9">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B65" s="6">
-        <v>601899</v>
+        <v>601231</v>
       </c>
       <c r="C65" s="6">
-        <v>91500</v>
+        <v>0</v>
       </c>
       <c r="D65" s="6">
-        <v>91500</v>
+        <v>0</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
       </c>
       <c r="F65" s="7">
-        <v>6.03</v>
+        <v>24.7</v>
       </c>
       <c r="G65" s="7">
-        <v>6.671</v>
+        <v>0</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>551745</v>
+        <v>0</v>
       </c>
       <c r="J65" s="7">
-        <v>-58675.55</v>
+        <v>-18684.1</v>
       </c>
       <c r="K65" s="7">
-        <v>-27450</v>
+        <v>932.8</v>
       </c>
       <c r="L65" s="8">
-        <v>-9.61</v>
+        <v>0</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>24</v>
@@ -3489,305 +3495,305 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="13">
+        <v>585500</v>
+      </c>
+      <c r="D66" s="13">
+        <v>585500</v>
+      </c>
+      <c r="E66" s="13">
+        <v>0</v>
+      </c>
+      <c r="F66" s="14">
+        <v>0</v>
+      </c>
+      <c r="G66" s="14">
+        <v>0</v>
+      </c>
+      <c r="H66" s="14">
+        <v>0</v>
+      </c>
+      <c r="I66" s="14">
+        <v>0</v>
+      </c>
+      <c r="J66" s="14">
+        <v>0</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L66" s="12">
+        <v>0</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N66" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="10">
+      <c r="C67" s="6">
+        <v>39100</v>
+      </c>
+      <c r="D67" s="6">
+        <v>39100</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="7">
+        <v>10.71</v>
+      </c>
+      <c r="G67" s="7">
+        <v>11.847</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>418761</v>
+      </c>
+      <c r="J67" s="7">
+        <v>-44460.64</v>
+      </c>
+      <c r="K67" s="7">
+        <v>4692</v>
+      </c>
+      <c r="L67" s="8">
+        <v>-9.6</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="6">
+        <v>601899</v>
+      </c>
+      <c r="C68" s="6">
+        <v>0</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="7">
+        <v>-103486.23</v>
+      </c>
+      <c r="K68" s="7">
+        <v>-44810.68</v>
+      </c>
+      <c r="L68" s="8">
+        <v>0</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="10">
         <v>600337</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C69" s="10">
         <v>81800</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D69" s="10">
         <v>81800</v>
       </c>
-      <c r="E66" s="10">
-        <v>0</v>
-      </c>
-      <c r="F66" s="11">
-        <v>5.62</v>
-      </c>
-      <c r="G66" s="11">
+      <c r="E69" s="10">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11">
+        <v>5.61</v>
+      </c>
+      <c r="G69" s="11">
         <v>5.087</v>
       </c>
-      <c r="H66" s="11">
-        <v>0</v>
-      </c>
-      <c r="I66" s="11">
-        <v>459716</v>
-      </c>
-      <c r="J66" s="11">
-        <v>43572.6</v>
-      </c>
-      <c r="K66" s="11">
-        <v>818</v>
-      </c>
-      <c r="L66" s="9">
-        <v>10.48</v>
-      </c>
-      <c r="M66" s="9" t="s">
+      <c r="H69" s="11">
+        <v>0</v>
+      </c>
+      <c r="I69" s="11">
+        <v>458898</v>
+      </c>
+      <c r="J69" s="11">
+        <v>42754.6</v>
+      </c>
+      <c r="K69" s="11">
+        <v>-818</v>
+      </c>
+      <c r="L69" s="9">
+        <v>10.28</v>
+      </c>
+      <c r="M69" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N66" s="9" t="s">
+      <c r="N69" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C67" s="10">
-        <v>8700</v>
-      </c>
-      <c r="D67" s="10">
-        <v>8700</v>
-      </c>
-      <c r="E67" s="10">
-        <v>0</v>
-      </c>
-      <c r="F67" s="11">
-        <v>71.3</v>
-      </c>
-      <c r="G67" s="11">
-        <v>70.398</v>
-      </c>
-      <c r="H67" s="11">
-        <v>0</v>
-      </c>
-      <c r="I67" s="11">
-        <v>620310</v>
-      </c>
-      <c r="J67" s="11">
-        <v>7845.4</v>
-      </c>
-      <c r="K67" s="11">
-        <v>-6090</v>
-      </c>
-      <c r="L67" s="9">
-        <v>1.28</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68" s="10">
-        <v>300125</v>
-      </c>
-      <c r="C68" s="10">
-        <v>800</v>
-      </c>
-      <c r="D68" s="10">
-        <v>0</v>
-      </c>
-      <c r="E68" s="10">
-        <v>800</v>
-      </c>
-      <c r="F68" s="11">
-        <v>18.25</v>
-      </c>
-      <c r="G68" s="11">
-        <v>18.226</v>
-      </c>
-      <c r="H68" s="11">
-        <v>0</v>
-      </c>
-      <c r="I68" s="11">
-        <v>14600</v>
-      </c>
-      <c r="J68" s="11">
-        <v>19</v>
-      </c>
-      <c r="K68" s="11">
-        <v>19</v>
-      </c>
-      <c r="L68" s="9">
-        <v>0.13</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N68" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B69" s="6">
-        <v>300476</v>
-      </c>
-      <c r="C69" s="6">
-        <v>1200</v>
-      </c>
-      <c r="D69" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E69" s="6">
-        <v>0</v>
-      </c>
-      <c r="F69" s="7">
-        <v>21.22</v>
-      </c>
-      <c r="G69" s="7">
-        <v>21.843</v>
-      </c>
-      <c r="H69" s="7">
-        <v>0</v>
-      </c>
-      <c r="I69" s="7">
-        <v>25464</v>
-      </c>
-      <c r="J69" s="7">
-        <v>-747.41</v>
-      </c>
-      <c r="K69" s="7">
-        <v>-600</v>
-      </c>
-      <c r="L69" s="8">
-        <v>-2.85</v>
-      </c>
-      <c r="M69" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N69" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="6">
+        <v>8700</v>
+      </c>
+      <c r="D70" s="6">
+        <v>8700</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>69.66</v>
+      </c>
+      <c r="G70" s="7">
+        <v>70.398</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>606042</v>
+      </c>
+      <c r="J70" s="7">
+        <v>-6422.6</v>
+      </c>
+      <c r="K70" s="7">
+        <v>-14268</v>
+      </c>
+      <c r="L70" s="8">
+        <v>-1.05</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N70" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B70" s="6">
-        <v>603660</v>
-      </c>
-      <c r="C70" s="6">
-        <v>38700</v>
-      </c>
-      <c r="D70" s="6">
-        <v>38700</v>
-      </c>
-      <c r="E70" s="6">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7">
-        <v>9.17</v>
-      </c>
-      <c r="G70" s="7">
-        <v>9.359</v>
-      </c>
-      <c r="H70" s="7">
-        <v>0</v>
-      </c>
-      <c r="I70" s="7">
-        <v>354879</v>
-      </c>
-      <c r="J70" s="7">
-        <v>-7333.34</v>
-      </c>
-      <c r="K70" s="7">
-        <v>-11610</v>
-      </c>
-      <c r="L70" s="8">
-        <v>-2.02</v>
-      </c>
-      <c r="M70" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N70" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C71" s="6">
-        <v>14900</v>
-      </c>
-      <c r="D71" s="6">
-        <v>14900</v>
-      </c>
-      <c r="E71" s="6">
-        <v>0</v>
-      </c>
-      <c r="F71" s="7">
-        <v>15.13</v>
-      </c>
-      <c r="G71" s="7">
-        <v>16.249</v>
-      </c>
-      <c r="H71" s="7">
-        <v>0</v>
-      </c>
-      <c r="I71" s="7">
-        <v>225437</v>
-      </c>
-      <c r="J71" s="7">
-        <v>-16677.46</v>
-      </c>
-      <c r="K71" s="7">
-        <v>-7450</v>
-      </c>
-      <c r="L71" s="8">
-        <v>-6.89</v>
-      </c>
-      <c r="M71" s="8" t="s">
+      <c r="B71" s="10">
+        <v>300125</v>
+      </c>
+      <c r="C71" s="10">
+        <v>800</v>
+      </c>
+      <c r="D71" s="10">
+        <v>800</v>
+      </c>
+      <c r="E71" s="10">
+        <v>0</v>
+      </c>
+      <c r="F71" s="11">
+        <v>18.35</v>
+      </c>
+      <c r="G71" s="11">
+        <v>18.21</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0</v>
+      </c>
+      <c r="I71" s="11">
+        <v>14680</v>
+      </c>
+      <c r="J71" s="11">
+        <v>112.11</v>
+      </c>
+      <c r="K71" s="11">
+        <v>80</v>
+      </c>
+      <c r="L71" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="M71" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N71" s="8" t="s">
+      <c r="N71" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="B72" s="6">
+        <v>300476</v>
       </c>
       <c r="C72" s="6">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="D72" s="6">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="E72" s="6">
         <v>0</v>
       </c>
       <c r="F72" s="7">
-        <v>100.01</v>
+        <v>21.11</v>
       </c>
       <c r="G72" s="7">
-        <v>104.425</v>
+        <v>0</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>230023</v>
+        <v>0</v>
       </c>
       <c r="J72" s="7">
-        <v>-10155.31</v>
+        <v>-1090.58</v>
       </c>
       <c r="K72" s="7">
-        <v>-552</v>
+        <v>-343.17</v>
       </c>
       <c r="L72" s="8">
-        <v>-4.23</v>
+        <v>0</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>26</v>
@@ -3797,129 +3803,129 @@
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C73" s="10">
-        <v>8000</v>
-      </c>
-      <c r="D73" s="10">
-        <v>8000</v>
-      </c>
-      <c r="E73" s="10">
-        <v>0</v>
-      </c>
-      <c r="F73" s="11">
-        <v>75.95</v>
-      </c>
-      <c r="G73" s="11">
-        <v>73.492</v>
-      </c>
-      <c r="H73" s="11">
-        <v>0</v>
-      </c>
-      <c r="I73" s="11">
-        <v>607600</v>
-      </c>
-      <c r="J73" s="11">
-        <v>19661.56</v>
-      </c>
-      <c r="K73" s="11">
-        <v>-10400</v>
-      </c>
-      <c r="L73" s="9">
-        <v>3.34</v>
-      </c>
-      <c r="M73" s="9" t="s">
+      <c r="A73" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" s="6">
+        <v>603660</v>
+      </c>
+      <c r="C73" s="6">
+        <v>13200</v>
+      </c>
+      <c r="D73" s="6">
+        <v>13200</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>9.09</v>
+      </c>
+      <c r="G73" s="7">
+        <v>10.205</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>119988</v>
+      </c>
+      <c r="J73" s="7">
+        <v>-14717.48</v>
+      </c>
+      <c r="K73" s="7">
+        <v>-7384.14</v>
+      </c>
+      <c r="L73" s="8">
+        <v>-10.93</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="10">
+        <v>300677</v>
+      </c>
+      <c r="C74" s="10">
+        <v>3700</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0</v>
+      </c>
+      <c r="E74" s="10">
+        <v>3700</v>
+      </c>
+      <c r="F74" s="11">
+        <v>157.09</v>
+      </c>
+      <c r="G74" s="11">
+        <v>155.617</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0</v>
+      </c>
+      <c r="I74" s="11">
+        <v>581233</v>
+      </c>
+      <c r="J74" s="11">
+        <v>5450.82</v>
+      </c>
+      <c r="K74" s="11">
+        <v>5450.82</v>
+      </c>
+      <c r="L74" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="M74" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N73" s="9" t="s">
+      <c r="N74" s="9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B74" s="6">
-        <v>600519</v>
-      </c>
-      <c r="C74" s="6">
-        <v>400</v>
-      </c>
-      <c r="D74" s="6">
-        <v>400</v>
-      </c>
-      <c r="E74" s="6">
-        <v>0</v>
-      </c>
-      <c r="F74" s="7">
-        <v>1642.51</v>
-      </c>
-      <c r="G74" s="7">
-        <v>1649.657</v>
-      </c>
-      <c r="H74" s="7">
-        <v>0</v>
-      </c>
-      <c r="I74" s="7">
-        <v>657004</v>
-      </c>
-      <c r="J74" s="7">
-        <v>-2858.97</v>
-      </c>
-      <c r="K74" s="7">
-        <v>3408</v>
-      </c>
-      <c r="L74" s="8">
-        <v>-0.43</v>
-      </c>
-      <c r="M74" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N74" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B75" s="6">
-        <v>300687</v>
+        <v>120</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="C75" s="6">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="D75" s="6">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="E75" s="6">
         <v>0</v>
       </c>
       <c r="F75" s="7">
-        <v>21.22</v>
+        <v>14.93</v>
       </c>
       <c r="G75" s="7">
-        <v>32.475</v>
+        <v>0</v>
       </c>
       <c r="H75" s="7">
         <v>0</v>
       </c>
       <c r="I75" s="7">
-        <v>48806</v>
+        <v>0</v>
       </c>
       <c r="J75" s="7">
-        <v>-25887.46</v>
+        <v>-21460.95</v>
       </c>
       <c r="K75" s="7">
-        <v>-2944</v>
+        <v>-4783.49</v>
       </c>
       <c r="L75" s="8">
-        <v>-34.66</v>
+        <v>0</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>26</v>
@@ -3930,40 +3936,40 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B76" s="6">
-        <v>300760</v>
+        <v>122</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="C76" s="6">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="D76" s="6">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="E76" s="6">
         <v>0</v>
       </c>
       <c r="F76" s="7">
-        <v>316.5</v>
+        <v>96.15</v>
       </c>
       <c r="G76" s="7">
-        <v>329.261</v>
+        <v>104.425</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
       </c>
       <c r="I76" s="7">
-        <v>601350</v>
+        <v>221145</v>
       </c>
       <c r="J76" s="7">
-        <v>-24246.29</v>
+        <v>-19033.31</v>
       </c>
       <c r="K76" s="7">
-        <v>-13262</v>
+        <v>-8878</v>
       </c>
       <c r="L76" s="8">
-        <v>-3.88</v>
+        <v>-7.92</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>26</v>
@@ -3974,40 +3980,40 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B77" s="6">
-        <v>300510</v>
+        <v>124</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C77" s="6">
-        <v>36600</v>
+        <v>8000</v>
       </c>
       <c r="D77" s="6">
-        <v>36600</v>
+        <v>8000</v>
       </c>
       <c r="E77" s="6">
         <v>0</v>
       </c>
       <c r="F77" s="7">
-        <v>5.15</v>
+        <v>72.5</v>
       </c>
       <c r="G77" s="7">
-        <v>5.251</v>
+        <v>73.492</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
       </c>
       <c r="I77" s="7">
-        <v>188490</v>
+        <v>580000</v>
       </c>
       <c r="J77" s="7">
-        <v>-3684.96</v>
+        <v>-7938.44</v>
       </c>
       <c r="K77" s="7">
-        <v>-8418</v>
+        <v>-27600</v>
       </c>
       <c r="L77" s="8">
-        <v>-1.92</v>
+        <v>-1.35</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>26</v>
@@ -4017,85 +4023,85 @@
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" s="10">
-        <v>0</v>
-      </c>
-      <c r="D78" s="10">
-        <v>0</v>
-      </c>
-      <c r="E78" s="10">
-        <v>0</v>
-      </c>
-      <c r="F78" s="11">
-        <v>7.15</v>
-      </c>
-      <c r="G78" s="11">
-        <v>0</v>
-      </c>
-      <c r="H78" s="11">
-        <v>0</v>
-      </c>
-      <c r="I78" s="11">
-        <v>0</v>
-      </c>
-      <c r="J78" s="11">
-        <v>4341.91</v>
-      </c>
-      <c r="K78" s="11">
-        <v>-1043.58</v>
-      </c>
-      <c r="L78" s="9">
-        <v>0</v>
-      </c>
-      <c r="M78" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N78" s="9" t="s">
-        <v>25</v>
+      <c r="A78" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="6">
+        <v>600519</v>
+      </c>
+      <c r="C78" s="6">
+        <v>400</v>
+      </c>
+      <c r="D78" s="6">
+        <v>400</v>
+      </c>
+      <c r="E78" s="6">
+        <v>0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>1626.95</v>
+      </c>
+      <c r="G78" s="7">
+        <v>1649.657</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <v>650780</v>
+      </c>
+      <c r="J78" s="7">
+        <v>-9082.97</v>
+      </c>
+      <c r="K78" s="7">
+        <v>-6224</v>
+      </c>
+      <c r="L78" s="8">
+        <v>-1.38</v>
+      </c>
+      <c r="M78" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N78" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="B79" s="6">
+        <v>300687</v>
       </c>
       <c r="C79" s="6">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="D79" s="6">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
       </c>
       <c r="F79" s="7">
-        <v>486.67</v>
+        <v>20.5</v>
       </c>
       <c r="G79" s="7">
-        <v>491.408</v>
+        <v>0</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
       </c>
       <c r="I79" s="7">
-        <v>632671</v>
+        <v>0</v>
       </c>
       <c r="J79" s="7">
-        <v>-6159.04</v>
+        <v>-27941.36</v>
       </c>
       <c r="K79" s="7">
-        <v>-2379</v>
+        <v>-2053.9</v>
       </c>
       <c r="L79" s="8">
-        <v>-0.96</v>
+        <v>0</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>26</v>
@@ -4105,129 +4111,129 @@
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B80" s="10">
-        <v>601012</v>
-      </c>
-      <c r="C80" s="10">
-        <v>10700</v>
-      </c>
-      <c r="D80" s="10">
-        <v>10700</v>
-      </c>
-      <c r="E80" s="10">
-        <v>0</v>
-      </c>
-      <c r="F80" s="11">
-        <v>57</v>
-      </c>
-      <c r="G80" s="11">
-        <v>55.38</v>
-      </c>
-      <c r="H80" s="11">
-        <v>0</v>
-      </c>
-      <c r="I80" s="11">
-        <v>609900</v>
-      </c>
-      <c r="J80" s="11">
-        <v>17329.16</v>
-      </c>
-      <c r="K80" s="11">
-        <v>-17976</v>
-      </c>
-      <c r="L80" s="9">
-        <v>2.93</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N80" s="9" t="s">
-        <v>23</v>
+      <c r="A80" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="6">
+        <v>300760</v>
+      </c>
+      <c r="C80" s="6">
+        <v>1900</v>
+      </c>
+      <c r="D80" s="6">
+        <v>1900</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>312.5</v>
+      </c>
+      <c r="G80" s="7">
+        <v>329.261</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>593750</v>
+      </c>
+      <c r="J80" s="7">
+        <v>-31846.29</v>
+      </c>
+      <c r="K80" s="7">
+        <v>-7600</v>
+      </c>
+      <c r="L80" s="8">
+        <v>-5.09</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B81" s="6">
-        <v>603501</v>
+        <v>300510</v>
       </c>
       <c r="C81" s="6">
-        <v>2100</v>
+        <v>36600</v>
       </c>
       <c r="D81" s="6">
-        <v>2100</v>
+        <v>36600</v>
       </c>
       <c r="E81" s="6">
         <v>0</v>
       </c>
       <c r="F81" s="7">
-        <v>187</v>
+        <v>5.21</v>
       </c>
       <c r="G81" s="7">
-        <v>205.427</v>
+        <v>5.251</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
       </c>
       <c r="I81" s="7">
-        <v>392700</v>
+        <v>190686</v>
       </c>
       <c r="J81" s="7">
-        <v>-38695.68</v>
+        <v>-1488.96</v>
       </c>
       <c r="K81" s="7">
-        <v>-9471</v>
+        <v>2196</v>
       </c>
       <c r="L81" s="8">
-        <v>-8.97</v>
+        <v>-0.78</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C82" s="6">
-        <v>8900</v>
+        <v>1300</v>
       </c>
       <c r="D82" s="6">
-        <v>8900</v>
+        <v>1300</v>
       </c>
       <c r="E82" s="6">
         <v>0</v>
       </c>
       <c r="F82" s="7">
-        <v>66.08</v>
+        <v>475.89</v>
       </c>
       <c r="G82" s="7">
-        <v>67.956</v>
+        <v>491.408</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
       </c>
       <c r="I82" s="7">
-        <v>588112</v>
+        <v>618657</v>
       </c>
       <c r="J82" s="7">
-        <v>-16693.36</v>
+        <v>-20173.04</v>
       </c>
       <c r="K82" s="7">
-        <v>-11748</v>
+        <v>-14014</v>
       </c>
       <c r="L82" s="8">
-        <v>-2.76</v>
+        <v>-3.16</v>
       </c>
       <c r="M82" s="8" t="s">
         <v>26</v>
@@ -4237,46 +4243,222 @@
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" s="6">
+        <v>601012</v>
+      </c>
+      <c r="C83" s="6">
+        <v>10800</v>
+      </c>
+      <c r="D83" s="6">
+        <v>10700</v>
+      </c>
+      <c r="E83" s="6">
+        <v>100</v>
+      </c>
+      <c r="F83" s="7">
+        <v>55.36</v>
+      </c>
+      <c r="G83" s="7">
+        <v>55.378</v>
+      </c>
+      <c r="H83" s="7">
+        <v>0</v>
+      </c>
+      <c r="I83" s="7">
+        <v>597888</v>
+      </c>
+      <c r="J83" s="7">
+        <v>-189.95</v>
+      </c>
+      <c r="K83" s="7">
+        <v>-17519.11</v>
+      </c>
+      <c r="L83" s="8">
+        <v>-0.03</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="6">
+        <v>603501</v>
+      </c>
+      <c r="C84" s="6">
+        <v>2100</v>
+      </c>
+      <c r="D84" s="6">
+        <v>2100</v>
+      </c>
+      <c r="E84" s="6">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>187.05</v>
+      </c>
+      <c r="G84" s="7">
+        <v>205.427</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>392805</v>
+      </c>
+      <c r="J84" s="7">
+        <v>-38590.68</v>
+      </c>
+      <c r="K84" s="7">
+        <v>105</v>
+      </c>
+      <c r="L84" s="8">
+        <v>-8.95</v>
+      </c>
+      <c r="M84" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N84" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B83" s="10">
+      <c r="C85" s="6">
+        <v>8900</v>
+      </c>
+      <c r="D85" s="6">
+        <v>8900</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0</v>
+      </c>
+      <c r="F85" s="7">
+        <v>64.56</v>
+      </c>
+      <c r="G85" s="7">
+        <v>67.956</v>
+      </c>
+      <c r="H85" s="7">
+        <v>0</v>
+      </c>
+      <c r="I85" s="7">
+        <v>574584</v>
+      </c>
+      <c r="J85" s="7">
+        <v>-30221.36</v>
+      </c>
+      <c r="K85" s="7">
+        <v>-13528</v>
+      </c>
+      <c r="L85" s="8">
+        <v>-5</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="10">
+        <v>600723</v>
+      </c>
+      <c r="C86" s="10">
+        <v>23600</v>
+      </c>
+      <c r="D86" s="10">
+        <v>0</v>
+      </c>
+      <c r="E86" s="10">
+        <v>23600</v>
+      </c>
+      <c r="F86" s="11">
+        <v>11.27</v>
+      </c>
+      <c r="G86" s="11">
+        <v>11.103</v>
+      </c>
+      <c r="H86" s="11">
+        <v>0</v>
+      </c>
+      <c r="I86" s="11">
+        <v>265972</v>
+      </c>
+      <c r="J86" s="11">
+        <v>3947.06</v>
+      </c>
+      <c r="K86" s="11">
+        <v>3947.06</v>
+      </c>
+      <c r="L86" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" s="10">
         <v>300423</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C87" s="10">
         <v>4800</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D87" s="10">
         <v>4800</v>
       </c>
-      <c r="E83" s="10">
-        <v>0</v>
-      </c>
-      <c r="F83" s="11">
-        <v>14.61</v>
-      </c>
-      <c r="G83" s="11">
+      <c r="E87" s="10">
+        <v>0</v>
+      </c>
+      <c r="F87" s="11">
+        <v>14.43</v>
+      </c>
+      <c r="G87" s="11">
         <v>13.662</v>
       </c>
-      <c r="H83" s="11">
-        <v>0</v>
-      </c>
-      <c r="I83" s="11">
-        <v>70128</v>
-      </c>
-      <c r="J83" s="11">
-        <v>4551.48</v>
-      </c>
-      <c r="K83" s="11">
-        <v>-1392</v>
-      </c>
-      <c r="L83" s="9">
-        <v>6.94</v>
-      </c>
-      <c r="M83" s="9" t="s">
+      <c r="H87" s="11">
+        <v>0</v>
+      </c>
+      <c r="I87" s="11">
+        <v>69264</v>
+      </c>
+      <c r="J87" s="11">
+        <v>3687.48</v>
+      </c>
+      <c r="K87" s="11">
+        <v>-864</v>
+      </c>
+      <c r="L87" s="9">
+        <v>5.62</v>
+      </c>
+      <c r="M87" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N83" s="9" t="s">
+      <c r="N87" s="9" t="s">
         <v>25</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
+++ b/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="134">
   <si>
     <t>资金</t>
   </si>
@@ -142,9 +142,6 @@
     <t>上海医药</t>
   </si>
   <si>
-    <t>东睦股份</t>
-  </si>
-  <si>
     <t>东诚药业</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>中国出版</t>
   </si>
   <si>
-    <t>中新药业</t>
-  </si>
-  <si>
     <t>中材科技</t>
   </si>
   <si>
@@ -181,6 +175,12 @@
     <t>伊利股份</t>
   </si>
   <si>
+    <t>光启技术</t>
+  </si>
+  <si>
+    <t>002625</t>
+  </si>
+  <si>
     <t>凯撒文化</t>
   </si>
   <si>
@@ -208,10 +208,7 @@
     <t>华宝添益</t>
   </si>
   <si>
-    <t>华新水泥</t>
-  </si>
-  <si>
-    <t>国联水产</t>
+    <t>同仁堂</t>
   </si>
   <si>
     <t>大众交通</t>
@@ -223,21 +220,18 @@
     <t>太极集团</t>
   </si>
   <si>
-    <t>奥克股份</t>
-  </si>
-  <si>
     <t>宁德时代</t>
   </si>
   <si>
     <t>安琪酵母</t>
   </si>
   <si>
+    <t>宝丰能源</t>
+  </si>
+  <si>
     <t>宝钢包装</t>
   </si>
   <si>
-    <t>寒锐钴业</t>
-  </si>
-  <si>
     <t>山河智能</t>
   </si>
   <si>
@@ -283,36 +277,27 @@
     <t>002262</t>
   </si>
   <si>
-    <t>捷佳伟创</t>
+    <t>振华科技</t>
+  </si>
+  <si>
+    <t>000733</t>
   </si>
   <si>
     <t>数据港</t>
   </si>
   <si>
-    <t>新华医疗</t>
-  </si>
-  <si>
     <t>星宇股份</t>
   </si>
   <si>
     <t>智飞生物</t>
   </si>
   <si>
-    <t>杭氧股份</t>
-  </si>
-  <si>
-    <t>002430</t>
-  </si>
-  <si>
-    <t>森源电气</t>
-  </si>
-  <si>
-    <t>002358</t>
-  </si>
-  <si>
     <t>沃森生物</t>
   </si>
   <si>
+    <t>海利生物</t>
+  </si>
+  <si>
     <t>海大集团</t>
   </si>
   <si>
@@ -370,7 +355,10 @@
     <t>航发科技</t>
   </si>
   <si>
-    <t>苏州科达</t>
+    <t>航天科技</t>
+  </si>
+  <si>
+    <t>000901</t>
   </si>
   <si>
     <t>英科医疗</t>
@@ -394,6 +382,9 @@
     <t>贵州茅台</t>
   </si>
   <si>
+    <t>赤峰黄金</t>
+  </si>
+  <si>
     <t>迈瑞医疗</t>
   </si>
   <si>
@@ -401,9 +392,6 @@
   </si>
   <si>
     <t>002081</t>
-  </si>
-  <si>
-    <t>金冠股份</t>
   </si>
   <si>
     <t>长春高新</t>
@@ -819,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -899,28 +887,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>1817900.34</v>
+        <v>1252088.35</v>
       </c>
       <c r="D3" s="3">
-        <v>1251472.48</v>
+        <v>1575327.3</v>
       </c>
       <c r="E3" s="3">
-        <v>1251472.48</v>
+        <v>1252088.35</v>
       </c>
       <c r="F3" s="3">
-        <v>566427.86</v>
+        <v>-323238.95</v>
       </c>
       <c r="G3" s="3">
-        <v>20816119.98</v>
+        <v>20748460.87</v>
       </c>
       <c r="H3" s="3">
-        <v>22067592.46</v>
+        <v>22323788.17</v>
       </c>
       <c r="I3" s="3">
-        <v>-521684.39</v>
+        <v>-158646.25</v>
       </c>
       <c r="J3" s="3">
-        <v>-106341.34</v>
+        <v>255579.84</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1027,10 +1015,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>601000</v>
+        <v>620000</v>
       </c>
       <c r="C8" s="3">
-        <v>601000</v>
+        <v>620000</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1044,7 +1032,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>1412500</v>
+        <v>1394500</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1135,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="G12" s="7">
         <v>11.026</v>
@@ -1144,16 +1132,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>144000</v>
+        <v>142800</v>
       </c>
       <c r="J12" s="7">
-        <v>11691.19</v>
+        <v>10491.19</v>
       </c>
       <c r="K12" s="7">
-        <v>13080</v>
+        <v>-1200</v>
       </c>
       <c r="L12" s="8">
-        <v>8.83</v>
+        <v>7.93</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>24</v>
@@ -1179,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>22.41</v>
+        <v>22.59</v>
       </c>
       <c r="G13" s="11">
         <v>23.676</v>
@@ -1188,16 +1176,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>194967</v>
+        <v>196533</v>
       </c>
       <c r="J13" s="11">
-        <v>-11014.88</v>
+        <v>-9448.88</v>
       </c>
       <c r="K13" s="11">
-        <v>-4263</v>
+        <v>1566</v>
       </c>
       <c r="L13" s="9">
-        <v>-5.35</v>
+        <v>-4.59</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>24</v>
@@ -1207,91 +1195,91 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="10">
-        <v>600114</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>11.92</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-16725.95</v>
-      </c>
-      <c r="K14" s="11">
-        <v>160.53</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>23</v>
+      <c r="B14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="6">
+        <v>14900</v>
+      </c>
+      <c r="D14" s="6">
+        <v>14900</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>25.25</v>
+      </c>
+      <c r="G14" s="7">
+        <v>25.149</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>376225</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1502.29</v>
+      </c>
+      <c r="K14" s="7">
+        <v>745</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="B15" s="6">
+        <v>601888</v>
+      </c>
       <c r="C15" s="6">
-        <v>14900</v>
+        <v>3000</v>
       </c>
       <c r="D15" s="6">
-        <v>14900</v>
+        <v>3000</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>25.2</v>
+        <v>207.25</v>
       </c>
       <c r="G15" s="7">
-        <v>25.149</v>
+        <v>204.899</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>375480</v>
+        <v>621750</v>
       </c>
       <c r="J15" s="7">
-        <v>757.29</v>
+        <v>7053.81</v>
       </c>
       <c r="K15" s="7">
-        <v>-3278</v>
+        <v>8280</v>
       </c>
       <c r="L15" s="8">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1299,37 +1287,37 @@
         <v>45</v>
       </c>
       <c r="B16" s="10">
-        <v>601888</v>
+        <v>601949</v>
       </c>
       <c r="C16" s="10">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D16" s="10">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="E16" s="10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F16" s="11">
-        <v>204.49</v>
+        <v>5.85</v>
       </c>
       <c r="G16" s="11">
-        <v>204.9</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
         <v>0</v>
       </c>
       <c r="I16" s="11">
-        <v>613470</v>
+        <v>0</v>
       </c>
       <c r="J16" s="11">
-        <v>-1228.57</v>
+        <v>-17567.87</v>
       </c>
       <c r="K16" s="11">
-        <v>-5971.4</v>
+        <v>-2825.11</v>
       </c>
       <c r="L16" s="9">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>24</v>
@@ -1342,434 +1330,434 @@
       <c r="A17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="10">
-        <v>601949</v>
+      <c r="B17" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C17" s="10">
-        <v>36500</v>
+        <v>4300</v>
       </c>
       <c r="D17" s="10">
-        <v>36500</v>
+        <v>4300</v>
       </c>
       <c r="E17" s="10">
         <v>0</v>
       </c>
       <c r="F17" s="11">
-        <v>5.83</v>
+        <v>20.41</v>
       </c>
       <c r="G17" s="11">
-        <v>6.234</v>
+        <v>21.998</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
       </c>
       <c r="I17" s="11">
-        <v>212795</v>
+        <v>87763</v>
       </c>
       <c r="J17" s="11">
-        <v>-14742.76</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>15</v>
+        <v>-6830.3</v>
+      </c>
+      <c r="K17" s="11">
+        <v>473</v>
       </c>
       <c r="L17" s="9">
-        <v>-6.48</v>
+        <v>-7.22</v>
       </c>
       <c r="M17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>212.9</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>9565.4</v>
+      </c>
+      <c r="K18" s="7">
+        <v>5306.83</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="6">
+        <v>603666</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2600</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2600</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>113</v>
+      </c>
+      <c r="G19" s="7">
+        <v>106.932</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>293800</v>
+      </c>
+      <c r="J19" s="7">
+        <v>15777.37</v>
+      </c>
+      <c r="K19" s="7">
+        <v>9360</v>
+      </c>
+      <c r="L19" s="8">
+        <v>5.67</v>
+      </c>
+      <c r="M19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N19" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="10">
-        <v>600329</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>17.55</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-5221.13</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-1341.34</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9" t="s">
+    <row r="20" spans="1:14">
+      <c r="A20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="10">
+        <v>603733</v>
+      </c>
+      <c r="C20" s="10">
+        <v>4900</v>
+      </c>
+      <c r="D20" s="10">
+        <v>4900</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>23.33</v>
+      </c>
+      <c r="G20" s="11">
+        <v>23.592</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>114317</v>
+      </c>
+      <c r="J20" s="11">
+        <v>-1281.36</v>
+      </c>
+      <c r="K20" s="11">
+        <v>833</v>
+      </c>
+      <c r="L20" s="9">
+        <v>-1.11</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N20" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="10">
-        <v>4300</v>
-      </c>
-      <c r="D19" s="10">
-        <v>4300</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>20.3</v>
-      </c>
-      <c r="G19" s="11">
-        <v>21.998</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>87290</v>
-      </c>
-      <c r="J19" s="11">
-        <v>-7303.3</v>
-      </c>
-      <c r="K19" s="11">
-        <v>-860</v>
-      </c>
-      <c r="L19" s="9">
-        <v>-7.72</v>
-      </c>
-      <c r="M19" s="9" t="s">
+    <row r="21" spans="1:14">
+      <c r="A21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="10">
+        <v>600887</v>
+      </c>
+      <c r="C21" s="10">
+        <v>16466</v>
+      </c>
+      <c r="D21" s="10">
+        <v>16466</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>35.24</v>
+      </c>
+      <c r="G21" s="11">
+        <v>37.331</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>580261.84</v>
+      </c>
+      <c r="J21" s="11">
+        <v>-34429.79</v>
+      </c>
+      <c r="K21" s="11">
+        <v>6586.4</v>
+      </c>
+      <c r="L21" s="9">
+        <v>-5.6</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="6">
+        <v>25900</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>25900</v>
+      </c>
+      <c r="F22" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="G22" s="7">
+        <v>22.575</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>606060</v>
+      </c>
+      <c r="J22" s="7">
+        <v>21359.75</v>
+      </c>
+      <c r="K22" s="7">
+        <v>21359.75</v>
+      </c>
+      <c r="L22" s="8">
+        <v>3.65</v>
+      </c>
+      <c r="M22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N22" s="8" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2900</v>
-      </c>
-      <c r="D20" s="6">
-        <v>2900</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>206.9</v>
-      </c>
-      <c r="G20" s="7">
-        <v>205.432</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>600010</v>
-      </c>
-      <c r="J20" s="7">
-        <v>4258.57</v>
-      </c>
-      <c r="K20" s="7">
-        <v>1247</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0.71</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="6">
-        <v>603666</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2600</v>
-      </c>
-      <c r="D21" s="6">
-        <v>2600</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>109.4</v>
-      </c>
-      <c r="G21" s="7">
-        <v>106.932</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>284440</v>
-      </c>
-      <c r="J21" s="7">
-        <v>6417.37</v>
-      </c>
-      <c r="K21" s="7">
-        <v>-1118</v>
-      </c>
-      <c r="L21" s="8">
-        <v>2.31</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="10">
-        <v>603733</v>
-      </c>
-      <c r="C22" s="10">
-        <v>4900</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>4900</v>
-      </c>
-      <c r="F22" s="11">
-        <v>23.16</v>
-      </c>
-      <c r="G22" s="11">
-        <v>23.603</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
-        <v>113484</v>
-      </c>
-      <c r="J22" s="11">
-        <v>-2169.54</v>
-      </c>
-      <c r="K22" s="11">
-        <v>-2169.54</v>
-      </c>
-      <c r="L22" s="9">
-        <v>-1.88</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="10">
-        <v>600887</v>
+        <v>55</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C23" s="10">
-        <v>16466</v>
+        <v>0</v>
       </c>
       <c r="D23" s="10">
-        <v>16466</v>
+        <v>0</v>
       </c>
       <c r="E23" s="10">
         <v>0</v>
       </c>
       <c r="F23" s="11">
-        <v>34.84</v>
+        <v>13.12</v>
       </c>
       <c r="G23" s="11">
-        <v>37.331</v>
+        <v>0</v>
       </c>
       <c r="H23" s="11">
         <v>0</v>
       </c>
       <c r="I23" s="11">
-        <v>573675.44</v>
+        <v>0</v>
       </c>
       <c r="J23" s="11">
-        <v>-41016.19</v>
+        <v>-39066.61</v>
       </c>
       <c r="K23" s="11">
-        <v>-7903.68</v>
+        <v>-6358.09</v>
       </c>
       <c r="L23" s="9">
-        <v>-6.67</v>
+        <v>0</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="10">
-        <v>23800</v>
-      </c>
-      <c r="D24" s="10">
-        <v>23800</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="F24" s="11">
-        <v>13.14</v>
-      </c>
-      <c r="G24" s="11">
-        <v>14.514</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11">
-        <v>312732</v>
-      </c>
-      <c r="J24" s="11">
-        <v>-32708.52</v>
-      </c>
-      <c r="K24" s="11">
-        <v>1428</v>
-      </c>
-      <c r="L24" s="9">
-        <v>-9.47</v>
-      </c>
-      <c r="M24" s="9" t="s">
+      <c r="A24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3000</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1800</v>
+      </c>
+      <c r="F24" s="7">
+        <v>208</v>
+      </c>
+      <c r="G24" s="7">
+        <v>207.773</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>624000</v>
+      </c>
+      <c r="J24" s="7">
+        <v>682.39</v>
+      </c>
+      <c r="K24" s="7">
+        <v>6784.15</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="M24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N24" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="10">
-        <v>1200</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1200</v>
-      </c>
-      <c r="F25" s="11">
-        <v>205</v>
-      </c>
-      <c r="G25" s="11">
-        <v>210.1</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>246000</v>
-      </c>
-      <c r="J25" s="11">
-        <v>-6119.91</v>
-      </c>
-      <c r="K25" s="11">
-        <v>-6119.91</v>
-      </c>
-      <c r="L25" s="9">
-        <v>-2.43</v>
-      </c>
-      <c r="M25" s="9" t="s">
+      <c r="A25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="6">
+        <v>19100</v>
+      </c>
+      <c r="D25" s="6">
+        <v>19100</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>8.35</v>
+      </c>
+      <c r="G25" s="7">
+        <v>8.319</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>159485</v>
+      </c>
+      <c r="J25" s="7">
+        <v>589.31</v>
+      </c>
+      <c r="K25" s="7">
+        <v>382</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="6">
-        <v>19100</v>
+        <v>11400</v>
       </c>
       <c r="D26" s="6">
-        <v>19100</v>
+        <v>11100</v>
       </c>
       <c r="E26" s="6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7">
-        <v>8.33</v>
+        <v>54.85</v>
       </c>
       <c r="G26" s="7">
-        <v>8.319</v>
+        <v>53.504</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>159103</v>
+        <v>625290</v>
       </c>
       <c r="J26" s="7">
-        <v>207.31</v>
+        <v>15344.93</v>
       </c>
       <c r="K26" s="7">
-        <v>-3629</v>
+        <v>9445</v>
       </c>
       <c r="L26" s="8">
-        <v>0.13</v>
+        <v>2.52</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>26</v>
@@ -1780,84 +1768,84 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="B27" s="6">
+        <v>511990</v>
       </c>
       <c r="C27" s="6">
-        <v>11100</v>
+        <v>6</v>
       </c>
       <c r="D27" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E27" s="6">
-        <v>11100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>54.04</v>
+        <v>100.005</v>
       </c>
       <c r="G27" s="7">
-        <v>53.51</v>
+        <v>-6751.737</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>599844</v>
+        <v>600.03</v>
       </c>
       <c r="J27" s="7">
-        <v>5879.84</v>
+        <v>41110.45</v>
       </c>
       <c r="K27" s="7">
-        <v>5879.84</v>
+        <v>-0.11</v>
       </c>
       <c r="L27" s="8">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="6">
-        <v>511990</v>
+        <v>600085</v>
       </c>
       <c r="C28" s="6">
-        <v>6</v>
+        <v>20100</v>
       </c>
       <c r="D28" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E28" s="6">
-        <v>0</v>
+        <v>20100</v>
       </c>
       <c r="F28" s="7">
-        <v>100.024</v>
+        <v>30.45</v>
       </c>
       <c r="G28" s="7">
-        <v>-6751.737</v>
+        <v>29.905</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>600.14</v>
+        <v>612045</v>
       </c>
       <c r="J28" s="7">
-        <v>41110.56</v>
+        <v>10953.67</v>
       </c>
       <c r="K28" s="7">
-        <v>0.07</v>
+        <v>10953.67</v>
       </c>
       <c r="L28" s="8">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>24</v>
@@ -1868,10 +1856,10 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="10">
-        <v>600801</v>
+        <v>600611</v>
       </c>
       <c r="C29" s="10">
         <v>0</v>
@@ -1883,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="11">
-        <v>27.19</v>
+        <v>3.94</v>
       </c>
       <c r="G29" s="11">
         <v>0</v>
@@ -1895,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="11">
-        <v>-7406.5</v>
+        <v>-357.32</v>
       </c>
       <c r="K29" s="11">
-        <v>11.43</v>
+        <v>-218.4</v>
       </c>
       <c r="L29" s="9">
         <v>0</v>
@@ -1911,85 +1899,85 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="6">
-        <v>300094</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>5.17</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7">
-        <v>62788.28</v>
-      </c>
-      <c r="K30" s="7">
-        <v>5071.61</v>
-      </c>
-      <c r="L30" s="8">
-        <v>0</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>25</v>
+      <c r="A30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="10">
+        <v>600161</v>
+      </c>
+      <c r="C30" s="10">
+        <v>8200</v>
+      </c>
+      <c r="D30" s="10">
+        <v>8200</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>46.33</v>
+      </c>
+      <c r="G30" s="11">
+        <v>49.193</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>379906</v>
+      </c>
+      <c r="J30" s="11">
+        <v>-23473.19</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1394</v>
+      </c>
+      <c r="L30" s="9">
+        <v>-5.82</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="10">
-        <v>600611</v>
+        <v>600129</v>
       </c>
       <c r="C31" s="10">
-        <v>8900</v>
+        <v>0</v>
       </c>
       <c r="D31" s="10">
-        <v>8900</v>
+        <v>0</v>
       </c>
       <c r="E31" s="10">
         <v>0</v>
       </c>
       <c r="F31" s="11">
-        <v>3.92</v>
+        <v>16.45</v>
       </c>
       <c r="G31" s="11">
-        <v>3.936</v>
+        <v>0</v>
       </c>
       <c r="H31" s="11">
         <v>0</v>
       </c>
       <c r="I31" s="11">
-        <v>34888</v>
+        <v>0</v>
       </c>
       <c r="J31" s="11">
-        <v>-138.92</v>
+        <v>-439.53</v>
       </c>
       <c r="K31" s="11">
-        <v>356</v>
+        <v>-93.25</v>
       </c>
       <c r="L31" s="9">
-        <v>-0.41</v>
+        <v>0</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>24</v>
@@ -2000,84 +1988,84 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="10">
-        <v>600161</v>
+        <v>300750</v>
       </c>
       <c r="C32" s="10">
-        <v>8200</v>
+        <v>0</v>
       </c>
       <c r="D32" s="10">
-        <v>8200</v>
+        <v>0</v>
       </c>
       <c r="E32" s="10">
         <v>0</v>
       </c>
       <c r="F32" s="11">
-        <v>46.16</v>
+        <v>200.37</v>
       </c>
       <c r="G32" s="11">
-        <v>49.193</v>
+        <v>0</v>
       </c>
       <c r="H32" s="11">
         <v>0</v>
       </c>
       <c r="I32" s="11">
-        <v>378512</v>
+        <v>0</v>
       </c>
       <c r="J32" s="11">
-        <v>-24867.19</v>
+        <v>-3116.11</v>
       </c>
       <c r="K32" s="11">
-        <v>-11234</v>
+        <v>134.25</v>
       </c>
       <c r="L32" s="9">
-        <v>-6.17</v>
+        <v>0</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="10">
-        <v>600129</v>
+        <v>600298</v>
       </c>
       <c r="C33" s="10">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D33" s="10">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E33" s="10">
         <v>0</v>
       </c>
       <c r="F33" s="11">
-        <v>16.34</v>
+        <v>66</v>
       </c>
       <c r="G33" s="11">
-        <v>17.033</v>
+        <v>67.21</v>
       </c>
       <c r="H33" s="11">
         <v>0</v>
       </c>
       <c r="I33" s="11">
-        <v>8170</v>
+        <v>6600</v>
       </c>
       <c r="J33" s="11">
-        <v>-346.28</v>
+        <v>-121</v>
       </c>
       <c r="K33" s="11">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="L33" s="9">
-        <v>-4.07</v>
+        <v>-1.8</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>24</v>
@@ -2087,187 +2075,187 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="10">
-        <v>300082</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0</v>
-      </c>
-      <c r="F34" s="11">
-        <v>8.38</v>
-      </c>
-      <c r="G34" s="11">
-        <v>0</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-      <c r="J34" s="11">
-        <v>-2334.51</v>
-      </c>
-      <c r="K34" s="11">
-        <v>-2086.6</v>
-      </c>
-      <c r="L34" s="9">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>25</v>
+      <c r="A34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="6">
+        <v>600989</v>
+      </c>
+      <c r="C34" s="6">
+        <v>4000</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>4000</v>
+      </c>
+      <c r="F34" s="7">
+        <v>12.38</v>
+      </c>
+      <c r="G34" s="7">
+        <v>12.072</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>49520</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1232.75</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1232.75</v>
+      </c>
+      <c r="L34" s="8">
+        <v>2.55</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" s="10">
-        <v>300750</v>
+        <v>601968</v>
       </c>
       <c r="C35" s="10">
-        <v>900</v>
+        <v>20400</v>
       </c>
       <c r="D35" s="10">
-        <v>900</v>
+        <v>20400</v>
       </c>
       <c r="E35" s="10">
         <v>0</v>
       </c>
       <c r="F35" s="11">
-        <v>195.99</v>
+        <v>7.08</v>
       </c>
       <c r="G35" s="11">
-        <v>199.602</v>
+        <v>7.091</v>
       </c>
       <c r="H35" s="11">
         <v>0</v>
       </c>
       <c r="I35" s="11">
-        <v>176391</v>
+        <v>144432</v>
       </c>
       <c r="J35" s="11">
-        <v>-3250.36</v>
+        <v>-221.69</v>
       </c>
       <c r="K35" s="11">
-        <v>234</v>
+        <v>3876</v>
       </c>
       <c r="L35" s="9">
-        <v>-1.81</v>
+        <v>-0.16</v>
       </c>
       <c r="M35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="6">
+        <v>51100</v>
+      </c>
+      <c r="D36" s="6">
+        <v>51100</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>7.96</v>
+      </c>
+      <c r="G36" s="7">
+        <v>6.961</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>406756</v>
+      </c>
+      <c r="J36" s="7">
+        <v>51050.76</v>
+      </c>
+      <c r="K36" s="7">
+        <v>-5110</v>
+      </c>
+      <c r="L36" s="8">
+        <v>14.35</v>
+      </c>
+      <c r="M36" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N35" s="9" t="s">
+      <c r="N36" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="10">
-        <v>600298</v>
-      </c>
-      <c r="C36" s="10">
-        <v>100</v>
-      </c>
-      <c r="D36" s="10">
-        <v>100</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11">
-        <v>64.53</v>
-      </c>
-      <c r="G36" s="11">
-        <v>67.21</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>6453</v>
-      </c>
-      <c r="J36" s="11">
-        <v>-268</v>
-      </c>
-      <c r="K36" s="11">
-        <v>-96</v>
-      </c>
-      <c r="L36" s="9">
-        <v>-3.99</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="10">
-        <v>601968</v>
-      </c>
-      <c r="C37" s="10">
-        <v>20400</v>
-      </c>
-      <c r="D37" s="10">
-        <v>20400</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0</v>
-      </c>
-      <c r="F37" s="11">
-        <v>6.89</v>
-      </c>
-      <c r="G37" s="11">
-        <v>7.091</v>
-      </c>
-      <c r="H37" s="11">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11">
-        <v>140556</v>
-      </c>
-      <c r="J37" s="11">
-        <v>-4097.69</v>
-      </c>
-      <c r="K37" s="11">
-        <v>3264</v>
-      </c>
-      <c r="L37" s="9">
-        <v>-2.83</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>23</v>
+      <c r="A37" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="6">
+        <v>24000</v>
+      </c>
+      <c r="D37" s="6">
+        <v>24000</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>21.98</v>
+      </c>
+      <c r="G37" s="7">
+        <v>21.423</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>527520</v>
+      </c>
+      <c r="J37" s="7">
+        <v>13375.17</v>
+      </c>
+      <c r="K37" s="7">
+        <v>4560</v>
+      </c>
+      <c r="L37" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38" s="10">
-        <v>300618</v>
+        <v>603599</v>
       </c>
       <c r="C38" s="10">
         <v>0</v>
@@ -2279,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="11">
-        <v>76.93</v>
+        <v>17.04</v>
       </c>
       <c r="G38" s="11">
         <v>0</v>
@@ -2291,233 +2279,233 @@
         <v>0</v>
       </c>
       <c r="J38" s="11">
-        <v>-16749.21</v>
+        <v>-2243.56</v>
       </c>
       <c r="K38" s="11">
-        <v>-96.45</v>
+        <v>-314.2</v>
       </c>
       <c r="L38" s="9">
         <v>0</v>
       </c>
       <c r="M38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="10">
+        <v>603043</v>
+      </c>
+      <c r="C39" s="10">
+        <v>7900</v>
+      </c>
+      <c r="D39" s="10">
+        <v>7900</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>42.86</v>
+      </c>
+      <c r="G39" s="11">
+        <v>43.358</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>338594</v>
+      </c>
+      <c r="J39" s="11">
+        <v>-3935.37</v>
+      </c>
+      <c r="K39" s="11">
+        <v>5214</v>
+      </c>
+      <c r="L39" s="9">
+        <v>-1.15</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="10">
+        <v>5500</v>
+      </c>
+      <c r="D40" s="10">
+        <v>5500</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>66.45</v>
+      </c>
+      <c r="G40" s="11">
+        <v>76.561</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>365475</v>
+      </c>
+      <c r="J40" s="11">
+        <v>-55612.75</v>
+      </c>
+      <c r="K40" s="11">
+        <v>3575</v>
+      </c>
+      <c r="L40" s="9">
+        <v>-13.21</v>
+      </c>
+      <c r="M40" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="6">
-        <v>51100</v>
-      </c>
-      <c r="D39" s="6">
-        <v>51100</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>8.06</v>
-      </c>
-      <c r="G39" s="7">
-        <v>6.961</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>411866</v>
-      </c>
-      <c r="J39" s="7">
-        <v>56160.76</v>
-      </c>
-      <c r="K39" s="7">
-        <v>2555</v>
-      </c>
-      <c r="L39" s="8">
-        <v>15.79</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="6">
-        <v>24000</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0</v>
-      </c>
-      <c r="E40" s="6">
-        <v>24000</v>
-      </c>
-      <c r="F40" s="7">
-        <v>21.79</v>
-      </c>
-      <c r="G40" s="7">
-        <v>21.423</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>522960</v>
-      </c>
-      <c r="J40" s="7">
-        <v>8804.9</v>
-      </c>
-      <c r="K40" s="7">
-        <v>8804.9</v>
-      </c>
-      <c r="L40" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" s="8" t="s">
+      <c r="N40" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="10">
-        <v>603599</v>
+        <v>300601</v>
       </c>
       <c r="C41" s="10">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="D41" s="10">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E41" s="10">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="11">
-        <v>16.9</v>
+        <v>199.64</v>
       </c>
       <c r="G41" s="11">
-        <v>17.865</v>
+        <v>232.283</v>
       </c>
       <c r="H41" s="11">
         <v>0</v>
       </c>
       <c r="I41" s="11">
-        <v>33800</v>
+        <v>638848</v>
       </c>
       <c r="J41" s="11">
-        <v>-1929.36</v>
+        <v>-104457.09</v>
       </c>
       <c r="K41" s="11">
-        <v>140</v>
+        <v>17307</v>
       </c>
       <c r="L41" s="9">
-        <v>-5.4</v>
+        <v>-14.05</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="10">
-        <v>603043</v>
-      </c>
-      <c r="C42" s="10">
-        <v>7900</v>
-      </c>
-      <c r="D42" s="10">
-        <v>7900</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0</v>
-      </c>
-      <c r="F42" s="11">
-        <v>42.2</v>
-      </c>
-      <c r="G42" s="11">
-        <v>43.358</v>
-      </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11">
-        <v>333380</v>
-      </c>
-      <c r="J42" s="11">
-        <v>-9149.37</v>
-      </c>
-      <c r="K42" s="11">
-        <v>-10428</v>
-      </c>
-      <c r="L42" s="9">
-        <v>-2.67</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>23</v>
+      <c r="A42" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="6">
+        <v>300391</v>
+      </c>
+      <c r="C42" s="6">
+        <v>21700</v>
+      </c>
+      <c r="D42" s="6">
+        <v>21700</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>17.4</v>
+      </c>
+      <c r="G42" s="7">
+        <v>15.581</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>377580</v>
+      </c>
+      <c r="J42" s="7">
+        <v>39478.58</v>
+      </c>
+      <c r="K42" s="7">
+        <v>4991</v>
+      </c>
+      <c r="L42" s="8">
+        <v>11.67</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="B43" s="10">
+        <v>300759</v>
       </c>
       <c r="C43" s="10">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="D43" s="10">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="E43" s="10">
         <v>0</v>
       </c>
       <c r="F43" s="11">
-        <v>65.8</v>
+        <v>93.28</v>
       </c>
       <c r="G43" s="11">
-        <v>76.561</v>
+        <v>93.517</v>
       </c>
       <c r="H43" s="11">
         <v>0</v>
       </c>
       <c r="I43" s="11">
-        <v>361900</v>
+        <v>447744</v>
       </c>
       <c r="J43" s="11">
-        <v>-59187.75</v>
+        <v>-1138.36</v>
       </c>
       <c r="K43" s="11">
-        <v>-6160</v>
+        <v>5616</v>
       </c>
       <c r="L43" s="9">
-        <v>-14.06</v>
+        <v>-0.25</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>26</v>
@@ -2528,84 +2516,84 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B44" s="10">
-        <v>300601</v>
+        <v>600346</v>
       </c>
       <c r="C44" s="10">
-        <v>3000</v>
+        <v>24700</v>
       </c>
       <c r="D44" s="10">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="E44" s="10">
-        <v>300</v>
+        <v>24700</v>
       </c>
       <c r="F44" s="11">
-        <v>194.1</v>
+        <v>18.85</v>
       </c>
       <c r="G44" s="11">
-        <v>234.69</v>
+        <v>19.775</v>
       </c>
       <c r="H44" s="11">
         <v>0</v>
       </c>
       <c r="I44" s="11">
-        <v>582300</v>
+        <v>465595</v>
       </c>
       <c r="J44" s="11">
-        <v>-121771.4</v>
+        <v>-22845.61</v>
       </c>
       <c r="K44" s="11">
-        <v>-38469</v>
+        <v>10207.1</v>
       </c>
       <c r="L44" s="9">
-        <v>-17.3</v>
+        <v>-4.68</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" s="6">
-        <v>300391</v>
+        <v>300374</v>
       </c>
       <c r="C45" s="6">
-        <v>21700</v>
+        <v>5400</v>
       </c>
       <c r="D45" s="6">
-        <v>21700</v>
+        <v>5400</v>
       </c>
       <c r="E45" s="6">
         <v>0</v>
       </c>
       <c r="F45" s="7">
-        <v>17.17</v>
+        <v>18.44</v>
       </c>
       <c r="G45" s="7">
-        <v>15.581</v>
+        <v>18.347</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
       <c r="I45" s="7">
-        <v>372589</v>
+        <v>99576</v>
       </c>
       <c r="J45" s="7">
-        <v>34487.58</v>
+        <v>504.11</v>
       </c>
       <c r="K45" s="7">
-        <v>3038</v>
+        <v>1026</v>
       </c>
       <c r="L45" s="8">
-        <v>10.2</v>
+        <v>0.51</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>26</v>
@@ -2616,40 +2604,40 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="10">
-        <v>300759</v>
+        <v>85</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="C46" s="10">
-        <v>4800</v>
+        <v>17800</v>
       </c>
       <c r="D46" s="10">
-        <v>4800</v>
+        <v>17800</v>
       </c>
       <c r="E46" s="10">
         <v>0</v>
       </c>
       <c r="F46" s="11">
-        <v>92.11</v>
+        <v>18.33</v>
       </c>
       <c r="G46" s="11">
-        <v>93.517</v>
+        <v>18.696</v>
       </c>
       <c r="H46" s="11">
         <v>0</v>
       </c>
       <c r="I46" s="11">
-        <v>442128</v>
+        <v>326274</v>
       </c>
       <c r="J46" s="11">
-        <v>-6754.36</v>
+        <v>-6508.27</v>
       </c>
       <c r="K46" s="11">
-        <v>-10512</v>
+        <v>534</v>
       </c>
       <c r="L46" s="9">
-        <v>-1.5</v>
+        <v>-1.96</v>
       </c>
       <c r="M46" s="9" t="s">
         <v>26</v>
@@ -2659,173 +2647,173 @@
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="10">
-        <v>600346</v>
-      </c>
-      <c r="C47" s="10">
-        <v>14</v>
-      </c>
-      <c r="D47" s="10">
-        <v>14</v>
-      </c>
-      <c r="E47" s="10">
-        <v>0</v>
-      </c>
-      <c r="F47" s="11">
-        <v>18.6</v>
-      </c>
-      <c r="G47" s="11">
-        <v>2379.508</v>
-      </c>
-      <c r="H47" s="11">
-        <v>0</v>
-      </c>
-      <c r="I47" s="11">
-        <v>260.4</v>
-      </c>
-      <c r="J47" s="11">
-        <v>-33052.71</v>
-      </c>
-      <c r="K47" s="11">
-        <v>-18115.51</v>
-      </c>
-      <c r="L47" s="9">
-        <v>-99.22</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>23</v>
+      <c r="A47" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="6">
+        <v>13700</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>13700</v>
+      </c>
+      <c r="F47" s="7">
+        <v>47.02</v>
+      </c>
+      <c r="G47" s="7">
+        <v>46.632</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>644174</v>
+      </c>
+      <c r="J47" s="7">
+        <v>5310.65</v>
+      </c>
+      <c r="K47" s="7">
+        <v>5310.65</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B48" s="10">
-        <v>300374</v>
+        <v>603881</v>
       </c>
       <c r="C48" s="10">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="D48" s="10">
         <v>0</v>
       </c>
       <c r="E48" s="10">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="F48" s="11">
-        <v>18.25</v>
+        <v>83.72</v>
       </c>
       <c r="G48" s="11">
-        <v>18.352</v>
+        <v>0</v>
       </c>
       <c r="H48" s="11">
         <v>0</v>
       </c>
       <c r="I48" s="11">
-        <v>98550</v>
+        <v>0</v>
       </c>
       <c r="J48" s="11">
-        <v>-550.68</v>
+        <v>-4385.24</v>
       </c>
       <c r="K48" s="11">
-        <v>-550.68</v>
+        <v>-1006.34</v>
       </c>
       <c r="L48" s="9">
-        <v>-0.56</v>
+        <v>0</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="10">
-        <v>17800</v>
-      </c>
-      <c r="D49" s="10">
-        <v>17800</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11">
-        <v>18.3</v>
-      </c>
-      <c r="G49" s="11">
-        <v>18.696</v>
-      </c>
-      <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
-        <v>325740</v>
-      </c>
-      <c r="J49" s="11">
-        <v>-7042.27</v>
-      </c>
-      <c r="K49" s="11">
-        <v>-6052</v>
-      </c>
-      <c r="L49" s="9">
-        <v>-2.12</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>25</v>
+      <c r="A49" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="6">
+        <v>601799</v>
+      </c>
+      <c r="C49" s="6">
+        <v>900</v>
+      </c>
+      <c r="D49" s="6">
+        <v>900</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>157.16</v>
+      </c>
+      <c r="G49" s="7">
+        <v>143.693</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>141444</v>
+      </c>
+      <c r="J49" s="7">
+        <v>12120.57</v>
+      </c>
+      <c r="K49" s="7">
+        <v>4842</v>
+      </c>
+      <c r="L49" s="8">
+        <v>9.37</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="10">
-        <v>300724</v>
+        <v>300122</v>
       </c>
       <c r="C50" s="10">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="D50" s="10">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="E50" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F50" s="11">
-        <v>83.22</v>
+        <v>145</v>
       </c>
       <c r="G50" s="11">
-        <v>0</v>
+        <v>145.688</v>
       </c>
       <c r="H50" s="11">
         <v>0</v>
       </c>
       <c r="I50" s="11">
-        <v>0</v>
+        <v>623500</v>
       </c>
       <c r="J50" s="11">
-        <v>-45710.21</v>
+        <v>-2960.38</v>
       </c>
       <c r="K50" s="11">
-        <v>-2084.06</v>
+        <v>13025</v>
       </c>
       <c r="L50" s="9">
-        <v>0</v>
+        <v>-0.47</v>
       </c>
       <c r="M50" s="9" t="s">
         <v>26</v>
@@ -2836,392 +2824,392 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="10">
-        <v>603881</v>
+        <v>300142</v>
       </c>
       <c r="C51" s="10">
-        <v>5300</v>
+        <v>8600</v>
       </c>
       <c r="D51" s="10">
-        <v>5300</v>
+        <v>8000</v>
       </c>
       <c r="E51" s="10">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F51" s="11">
-        <v>82.09</v>
+        <v>73.52</v>
       </c>
       <c r="G51" s="11">
-        <v>82.728</v>
+        <v>75.363</v>
       </c>
       <c r="H51" s="11">
         <v>0</v>
       </c>
       <c r="I51" s="11">
-        <v>435077</v>
+        <v>632272</v>
       </c>
       <c r="J51" s="11">
-        <v>-3378.9</v>
+        <v>-15847.46</v>
       </c>
       <c r="K51" s="11">
-        <v>-7367</v>
+        <v>14778</v>
       </c>
       <c r="L51" s="9">
-        <v>-0.77</v>
+        <v>-2.45</v>
       </c>
       <c r="M51" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="6">
+        <v>603718</v>
+      </c>
+      <c r="C52" s="6">
+        <v>5800</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>5800</v>
+      </c>
+      <c r="F52" s="7">
+        <v>35.53</v>
+      </c>
+      <c r="G52" s="7">
+        <v>34.931</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>206074</v>
+      </c>
+      <c r="J52" s="7">
+        <v>3475.13</v>
+      </c>
+      <c r="K52" s="7">
+        <v>3475.13</v>
+      </c>
+      <c r="L52" s="8">
+        <v>1.71</v>
+      </c>
+      <c r="M52" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N51" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="10">
-        <v>600587</v>
-      </c>
-      <c r="C52" s="10">
-        <v>0</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0</v>
-      </c>
-      <c r="E52" s="10">
-        <v>0</v>
-      </c>
-      <c r="F52" s="11">
-        <v>17.82</v>
-      </c>
-      <c r="G52" s="11">
-        <v>0</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>0</v>
-      </c>
-      <c r="J52" s="11">
-        <v>-77911.03</v>
-      </c>
-      <c r="K52" s="11">
-        <v>-87.86</v>
-      </c>
-      <c r="L52" s="9">
-        <v>0</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N52" s="9" t="s">
+      <c r="N52" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="6">
-        <v>601799</v>
+        <v>94</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="C53" s="6">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D53" s="6">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="7">
-        <v>151.78</v>
+        <v>68.95</v>
       </c>
       <c r="G53" s="7">
-        <v>143.693</v>
+        <v>0</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>136602</v>
+        <v>0</v>
       </c>
       <c r="J53" s="7">
-        <v>7278.57</v>
+        <v>13719.77</v>
       </c>
       <c r="K53" s="7">
-        <v>7821</v>
+        <v>-230.48</v>
       </c>
       <c r="L53" s="8">
-        <v>5.63</v>
+        <v>0</v>
       </c>
       <c r="M53" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="6">
+        <v>600690</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>22.3</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>8521.34</v>
+      </c>
+      <c r="K54" s="7">
+        <v>3053.09</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+      <c r="M54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N53" s="8" t="s">
+      <c r="N54" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="10">
-        <v>300122</v>
-      </c>
-      <c r="C54" s="10">
-        <v>4200</v>
-      </c>
-      <c r="D54" s="10">
-        <v>3500</v>
-      </c>
-      <c r="E54" s="10">
-        <v>700</v>
-      </c>
-      <c r="F54" s="11">
-        <v>142</v>
-      </c>
-      <c r="G54" s="11">
-        <v>145.806</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
-        <v>596400</v>
-      </c>
-      <c r="J54" s="11">
-        <v>-15985.38</v>
-      </c>
-      <c r="K54" s="11">
-        <v>-11149.67</v>
-      </c>
-      <c r="L54" s="9">
-        <v>-2.61</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N54" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="B55" s="10">
+        <v>600585</v>
       </c>
       <c r="C55" s="10">
-        <v>0</v>
+        <v>10100</v>
       </c>
       <c r="D55" s="10">
-        <v>0</v>
+        <v>10100</v>
       </c>
       <c r="E55" s="10">
         <v>0</v>
       </c>
       <c r="F55" s="11">
-        <v>18.3</v>
+        <v>59.45</v>
       </c>
       <c r="G55" s="11">
-        <v>0</v>
+        <v>61.016</v>
       </c>
       <c r="H55" s="11">
         <v>0</v>
       </c>
       <c r="I55" s="11">
-        <v>0</v>
+        <v>600445</v>
       </c>
       <c r="J55" s="11">
-        <v>-37.4</v>
+        <v>-15820.42</v>
       </c>
       <c r="K55" s="11">
-        <v>228.8</v>
+        <v>4242</v>
       </c>
       <c r="L55" s="9">
-        <v>0</v>
+        <v>-2.57</v>
       </c>
       <c r="M55" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="10">
+        <v>52300</v>
+      </c>
+      <c r="D56" s="10">
+        <v>52300</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>10.96</v>
+      </c>
+      <c r="G56" s="11">
+        <v>10.982</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
+        <v>573208</v>
+      </c>
+      <c r="J56" s="11">
+        <v>-1131.65</v>
+      </c>
+      <c r="K56" s="11">
+        <v>-10983</v>
+      </c>
+      <c r="L56" s="9">
+        <v>-0.2</v>
+      </c>
+      <c r="M56" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N55" s="9" t="s">
+      <c r="N56" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" s="6">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6">
-        <v>0</v>
-      </c>
-      <c r="E56" s="6">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
-        <v>5.79</v>
-      </c>
-      <c r="G56" s="7">
-        <v>0</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0</v>
-      </c>
-      <c r="J56" s="7">
-        <v>6687.63</v>
-      </c>
-      <c r="K56" s="7">
-        <v>-5.48</v>
-      </c>
-      <c r="L56" s="8">
-        <v>0</v>
-      </c>
-      <c r="M56" s="8" t="s">
+    <row r="57" spans="1:14">
+      <c r="A57" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="6">
+        <v>600436</v>
+      </c>
+      <c r="C57" s="6">
+        <v>2500</v>
+      </c>
+      <c r="D57" s="6">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>198.39</v>
+      </c>
+      <c r="G57" s="7">
+        <v>196.812</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>495975</v>
+      </c>
+      <c r="J57" s="7">
+        <v>3944.27</v>
+      </c>
+      <c r="K57" s="7">
+        <v>3725</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="10">
+        <v>6700</v>
+      </c>
+      <c r="D58" s="10">
+        <v>6700</v>
+      </c>
+      <c r="E58" s="10">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11">
+        <v>92.28</v>
+      </c>
+      <c r="G58" s="11">
+        <v>95.083</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>618276</v>
+      </c>
+      <c r="J58" s="11">
+        <v>-18776.81</v>
+      </c>
+      <c r="K58" s="11">
+        <v>1876</v>
+      </c>
+      <c r="L58" s="9">
+        <v>-2.95</v>
+      </c>
+      <c r="M58" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N56" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" s="10">
-        <v>300142</v>
-      </c>
-      <c r="C57" s="10">
-        <v>8000</v>
-      </c>
-      <c r="D57" s="10">
-        <v>3000</v>
-      </c>
-      <c r="E57" s="10">
-        <v>5000</v>
-      </c>
-      <c r="F57" s="11">
-        <v>71.85</v>
-      </c>
-      <c r="G57" s="11">
-        <v>75.678</v>
-      </c>
-      <c r="H57" s="11">
-        <v>0</v>
-      </c>
-      <c r="I57" s="11">
-        <v>574800</v>
-      </c>
-      <c r="J57" s="11">
-        <v>-30625.46</v>
-      </c>
-      <c r="K57" s="11">
-        <v>-25307.6</v>
-      </c>
-      <c r="L57" s="9">
-        <v>-5.06</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="6">
-        <v>6100</v>
-      </c>
-      <c r="D58" s="6">
-        <v>6100</v>
-      </c>
-      <c r="E58" s="6">
-        <v>0</v>
-      </c>
-      <c r="F58" s="7">
-        <v>66.82</v>
-      </c>
-      <c r="G58" s="7">
-        <v>64.541</v>
-      </c>
-      <c r="H58" s="7">
-        <v>0</v>
-      </c>
-      <c r="I58" s="7">
-        <v>407602</v>
-      </c>
-      <c r="J58" s="7">
-        <v>13899.4</v>
-      </c>
-      <c r="K58" s="7">
-        <v>12351.98</v>
-      </c>
-      <c r="L58" s="8">
-        <v>3.53</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N58" s="8" t="s">
+      <c r="N58" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="6">
-        <v>600690</v>
+        <v>601028</v>
       </c>
       <c r="C59" s="6">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="D59" s="6">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>21.49</v>
+        <v>13.07</v>
       </c>
       <c r="G59" s="7">
-        <v>21.271</v>
+        <v>0</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>537250</v>
+        <v>0</v>
       </c>
       <c r="J59" s="7">
-        <v>5468.25</v>
+        <v>936.6</v>
       </c>
       <c r="K59" s="7">
-        <v>-3000</v>
+        <v>469.43</v>
       </c>
       <c r="L59" s="8">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>24</v>
@@ -3231,129 +3219,129 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="10">
-        <v>600585</v>
-      </c>
-      <c r="C60" s="10">
-        <v>10100</v>
-      </c>
-      <c r="D60" s="10">
-        <v>10100</v>
-      </c>
-      <c r="E60" s="10">
-        <v>0</v>
-      </c>
-      <c r="F60" s="11">
-        <v>59.03</v>
-      </c>
-      <c r="G60" s="11">
-        <v>61.016</v>
-      </c>
-      <c r="H60" s="11">
-        <v>0</v>
-      </c>
-      <c r="I60" s="11">
-        <v>596203</v>
-      </c>
-      <c r="J60" s="11">
-        <v>-20062.42</v>
-      </c>
-      <c r="K60" s="11">
-        <v>-505</v>
-      </c>
-      <c r="L60" s="9">
-        <v>-3.25</v>
-      </c>
-      <c r="M60" s="9" t="s">
+      <c r="A60" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="13">
+        <v>620000</v>
+      </c>
+      <c r="D60" s="13">
+        <v>620000</v>
+      </c>
+      <c r="E60" s="13">
+        <v>0</v>
+      </c>
+      <c r="F60" s="14">
+        <v>0</v>
+      </c>
+      <c r="G60" s="14">
+        <v>0</v>
+      </c>
+      <c r="H60" s="14">
+        <v>0</v>
+      </c>
+      <c r="I60" s="14">
+        <v>0</v>
+      </c>
+      <c r="J60" s="14">
+        <v>0</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L60" s="12">
+        <v>0</v>
+      </c>
+      <c r="M60" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N60" s="9" t="s">
+      <c r="N60" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" s="6">
-        <v>52300</v>
-      </c>
-      <c r="D61" s="6">
-        <v>52300</v>
-      </c>
-      <c r="E61" s="6">
-        <v>0</v>
-      </c>
-      <c r="F61" s="7">
-        <v>11.17</v>
-      </c>
-      <c r="G61" s="7">
-        <v>10.982</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>584191</v>
-      </c>
-      <c r="J61" s="7">
-        <v>9851.35</v>
-      </c>
-      <c r="K61" s="7">
-        <v>7845</v>
-      </c>
-      <c r="L61" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="M61" s="8" t="s">
+      <c r="A61" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="10">
+        <v>0</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>10.86</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>0</v>
+      </c>
+      <c r="J61" s="11">
+        <v>-44724.43</v>
+      </c>
+      <c r="K61" s="11">
+        <v>-3943.03</v>
+      </c>
+      <c r="L61" s="9">
+        <v>0</v>
+      </c>
+      <c r="M61" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N61" s="8" t="s">
+      <c r="N61" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B62" s="6">
-        <v>600436</v>
+        <v>600337</v>
       </c>
       <c r="C62" s="6">
-        <v>2500</v>
+        <v>81800</v>
       </c>
       <c r="D62" s="6">
-        <v>2500</v>
+        <v>81800</v>
       </c>
       <c r="E62" s="6">
         <v>0</v>
       </c>
       <c r="F62" s="7">
-        <v>196.9</v>
+        <v>5.65</v>
       </c>
       <c r="G62" s="7">
-        <v>196.812</v>
+        <v>5.087</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>492250</v>
+        <v>462170</v>
       </c>
       <c r="J62" s="7">
-        <v>219.27</v>
+        <v>46026.6</v>
       </c>
       <c r="K62" s="7">
-        <v>-6650</v>
+        <v>9816</v>
       </c>
       <c r="L62" s="8">
-        <v>0.04</v>
+        <v>11.07</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>24</v>
@@ -3363,363 +3351,363 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="10">
-        <v>6700</v>
-      </c>
-      <c r="D63" s="10">
-        <v>6700</v>
-      </c>
-      <c r="E63" s="10">
-        <v>0</v>
-      </c>
-      <c r="F63" s="11">
-        <v>92</v>
-      </c>
-      <c r="G63" s="11">
-        <v>95.083</v>
-      </c>
-      <c r="H63" s="11">
-        <v>0</v>
-      </c>
-      <c r="I63" s="11">
-        <v>616400</v>
-      </c>
-      <c r="J63" s="11">
-        <v>-20652.81</v>
-      </c>
-      <c r="K63" s="11">
-        <v>-4690</v>
-      </c>
-      <c r="L63" s="9">
-        <v>-3.24</v>
-      </c>
-      <c r="M63" s="9" t="s">
+      <c r="A63" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="6">
+        <v>8700</v>
+      </c>
+      <c r="D63" s="6">
+        <v>8700</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>72.04</v>
+      </c>
+      <c r="G63" s="7">
+        <v>70.398</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>626748</v>
+      </c>
+      <c r="J63" s="7">
+        <v>14283.4</v>
+      </c>
+      <c r="K63" s="7">
+        <v>17661</v>
+      </c>
+      <c r="L63" s="8">
+        <v>2.33</v>
+      </c>
+      <c r="M63" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N63" s="9" t="s">
+      <c r="N63" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B64" s="6">
-        <v>601028</v>
-      </c>
-      <c r="C64" s="6">
-        <v>2500</v>
-      </c>
-      <c r="D64" s="6">
-        <v>2500</v>
-      </c>
-      <c r="E64" s="6">
-        <v>0</v>
-      </c>
-      <c r="F64" s="7">
-        <v>12.96</v>
-      </c>
-      <c r="G64" s="7">
-        <v>12.773</v>
-      </c>
-      <c r="H64" s="7">
-        <v>0</v>
-      </c>
-      <c r="I64" s="7">
-        <v>32400</v>
-      </c>
-      <c r="J64" s="7">
-        <v>467.17</v>
-      </c>
-      <c r="K64" s="7">
-        <v>150</v>
-      </c>
-      <c r="L64" s="8">
-        <v>1.46</v>
-      </c>
-      <c r="M64" s="8" t="s">
+      <c r="A64" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="10">
+        <v>300125</v>
+      </c>
+      <c r="C64" s="10">
+        <v>800</v>
+      </c>
+      <c r="D64" s="10">
+        <v>800</v>
+      </c>
+      <c r="E64" s="10">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11">
+        <v>17.9</v>
+      </c>
+      <c r="G64" s="11">
+        <v>18.21</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+      <c r="I64" s="11">
+        <v>14320</v>
+      </c>
+      <c r="J64" s="11">
+        <v>-247.89</v>
+      </c>
+      <c r="K64" s="11">
+        <v>-488</v>
+      </c>
+      <c r="L64" s="9">
+        <v>-1.7</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="6">
+        <v>600391</v>
+      </c>
+      <c r="C65" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D65" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>31.18</v>
+      </c>
+      <c r="G65" s="7">
+        <v>30.317</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>31180</v>
+      </c>
+      <c r="J65" s="7">
+        <v>862.84</v>
+      </c>
+      <c r="K65" s="7">
+        <v>931.06</v>
+      </c>
+      <c r="L65" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="M65" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N64" s="8" t="s">
+      <c r="N65" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="13">
-        <v>601000</v>
-      </c>
-      <c r="D65" s="13">
-        <v>601000</v>
-      </c>
-      <c r="E65" s="13">
-        <v>0</v>
-      </c>
-      <c r="F65" s="14">
-        <v>0</v>
-      </c>
-      <c r="G65" s="14">
-        <v>0</v>
-      </c>
-      <c r="H65" s="14">
-        <v>0</v>
-      </c>
-      <c r="I65" s="14">
-        <v>0</v>
-      </c>
-      <c r="J65" s="14">
-        <v>0</v>
-      </c>
-      <c r="K65" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L65" s="12">
-        <v>0</v>
-      </c>
-      <c r="M65" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N65" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" s="10">
-        <v>25000</v>
-      </c>
-      <c r="D66" s="10">
-        <v>25000</v>
-      </c>
-      <c r="E66" s="10">
-        <v>0</v>
-      </c>
-      <c r="F66" s="11">
-        <v>10.86</v>
-      </c>
-      <c r="G66" s="11">
-        <v>12.495</v>
-      </c>
-      <c r="H66" s="11">
-        <v>0</v>
-      </c>
-      <c r="I66" s="11">
-        <v>271500</v>
-      </c>
-      <c r="J66" s="11">
-        <v>-40886.76</v>
-      </c>
-      <c r="K66" s="11">
-        <v>3573.88</v>
-      </c>
-      <c r="L66" s="9">
-        <v>-13.09</v>
-      </c>
-      <c r="M66" s="9" t="s">
+      <c r="A66" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="6">
+        <v>3900</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
+        <v>3900</v>
+      </c>
+      <c r="F66" s="7">
+        <v>12.65</v>
+      </c>
+      <c r="G66" s="7">
+        <v>12.292</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>49335</v>
+      </c>
+      <c r="J66" s="7">
+        <v>1397.77</v>
+      </c>
+      <c r="K66" s="7">
+        <v>1397.77</v>
+      </c>
+      <c r="L66" s="8">
+        <v>2.91</v>
+      </c>
+      <c r="M66" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N66" s="9" t="s">
+      <c r="N66" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B67" s="6">
-        <v>600337</v>
+        <v>300677</v>
       </c>
       <c r="C67" s="6">
-        <v>81800</v>
+        <v>3700</v>
       </c>
       <c r="D67" s="6">
-        <v>81800</v>
+        <v>3700</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
       </c>
       <c r="F67" s="7">
-        <v>5.53</v>
+        <v>156.21</v>
       </c>
       <c r="G67" s="7">
-        <v>5.087</v>
+        <v>155.6</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
       <c r="I67" s="7">
-        <v>452354</v>
+        <v>577977</v>
       </c>
       <c r="J67" s="7">
-        <v>36210.6</v>
+        <v>2256.2</v>
       </c>
       <c r="K67" s="7">
-        <v>-6544</v>
+        <v>-8584</v>
       </c>
       <c r="L67" s="8">
-        <v>8.71</v>
+        <v>0.39</v>
       </c>
       <c r="M67" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="6">
+        <v>600211</v>
+      </c>
+      <c r="C68" s="6">
+        <v>5200</v>
+      </c>
+      <c r="D68" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E68" s="6">
+        <v>4000</v>
+      </c>
+      <c r="F68" s="7">
+        <v>118.23</v>
+      </c>
+      <c r="G68" s="7">
+        <v>115.053</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>614796</v>
+      </c>
+      <c r="J68" s="7">
+        <v>16520.31</v>
+      </c>
+      <c r="K68" s="7">
+        <v>11459.86</v>
+      </c>
+      <c r="L68" s="8">
+        <v>2.76</v>
+      </c>
+      <c r="M68" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N67" s="8" t="s">
+      <c r="N68" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C68" s="10">
-        <v>8700</v>
-      </c>
-      <c r="D68" s="10">
-        <v>8700</v>
-      </c>
-      <c r="E68" s="10">
-        <v>0</v>
-      </c>
-      <c r="F68" s="11">
-        <v>70.01</v>
-      </c>
-      <c r="G68" s="11">
-        <v>70.398</v>
-      </c>
-      <c r="H68" s="11">
-        <v>0</v>
-      </c>
-      <c r="I68" s="11">
-        <v>609087</v>
-      </c>
-      <c r="J68" s="11">
-        <v>-3377.6</v>
-      </c>
-      <c r="K68" s="11">
-        <v>3045</v>
-      </c>
-      <c r="L68" s="9">
-        <v>-0.55</v>
-      </c>
-      <c r="M68" s="9" t="s">
+    <row r="69" spans="1:14">
+      <c r="A69" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="10">
+        <v>2300</v>
+      </c>
+      <c r="D69" s="10">
+        <v>2300</v>
+      </c>
+      <c r="E69" s="10">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11">
+        <v>100.33</v>
+      </c>
+      <c r="G69" s="11">
+        <v>104.425</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
+      </c>
+      <c r="I69" s="11">
+        <v>230759</v>
+      </c>
+      <c r="J69" s="11">
+        <v>-9419.31</v>
+      </c>
+      <c r="K69" s="11">
+        <v>6900</v>
+      </c>
+      <c r="L69" s="9">
+        <v>-3.92</v>
+      </c>
+      <c r="M69" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N68" s="9" t="s">
+      <c r="N69" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B69" s="6">
-        <v>300125</v>
-      </c>
-      <c r="C69" s="6">
-        <v>800</v>
-      </c>
-      <c r="D69" s="6">
-        <v>800</v>
-      </c>
-      <c r="E69" s="6">
-        <v>0</v>
-      </c>
-      <c r="F69" s="7">
-        <v>18.51</v>
-      </c>
-      <c r="G69" s="7">
-        <v>18.21</v>
-      </c>
-      <c r="H69" s="7">
-        <v>0</v>
-      </c>
-      <c r="I69" s="7">
-        <v>14808</v>
-      </c>
-      <c r="J69" s="7">
-        <v>240.11</v>
-      </c>
-      <c r="K69" s="7">
-        <v>128</v>
-      </c>
-      <c r="L69" s="8">
-        <v>1.65</v>
-      </c>
-      <c r="M69" s="8" t="s">
+    <row r="70" spans="1:14">
+      <c r="A70" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="6">
+        <v>8000</v>
+      </c>
+      <c r="D70" s="6">
+        <v>8000</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>78.1</v>
+      </c>
+      <c r="G70" s="7">
+        <v>73.576</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>624800</v>
+      </c>
+      <c r="J70" s="7">
+        <v>36191.67</v>
+      </c>
+      <c r="K70" s="7">
+        <v>20160</v>
+      </c>
+      <c r="L70" s="8">
+        <v>6.15</v>
+      </c>
+      <c r="M70" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N69" s="8" t="s">
+      <c r="N70" s="8" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="10">
-        <v>600391</v>
-      </c>
-      <c r="C70" s="10">
-        <v>2000</v>
-      </c>
-      <c r="D70" s="10">
-        <v>0</v>
-      </c>
-      <c r="E70" s="10">
-        <v>2000</v>
-      </c>
-      <c r="F70" s="11">
-        <v>30.76</v>
-      </c>
-      <c r="G70" s="11">
-        <v>30.805</v>
-      </c>
-      <c r="H70" s="11">
-        <v>0</v>
-      </c>
-      <c r="I70" s="11">
-        <v>61520</v>
-      </c>
-      <c r="J70" s="11">
-        <v>-90.22</v>
-      </c>
-      <c r="K70" s="11">
-        <v>-90.22</v>
-      </c>
-      <c r="L70" s="9">
-        <v>-0.15</v>
-      </c>
-      <c r="M70" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N70" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B71" s="10">
-        <v>603660</v>
+        <v>600519</v>
       </c>
       <c r="C71" s="10">
         <v>0</v>
@@ -3731,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="11">
-        <v>9.11</v>
+        <v>1661</v>
       </c>
       <c r="G71" s="11">
         <v>0</v>
@@ -3743,10 +3731,10 @@
         <v>0</v>
       </c>
       <c r="J71" s="11">
-        <v>-14535.75</v>
+        <v>-1224.29</v>
       </c>
       <c r="K71" s="11">
-        <v>-13.57</v>
+        <v>4638.68</v>
       </c>
       <c r="L71" s="9">
         <v>0</v>
@@ -3760,128 +3748,128 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B72" s="6">
-        <v>300677</v>
+        <v>600988</v>
       </c>
       <c r="C72" s="6">
-        <v>3700</v>
+        <v>23300</v>
       </c>
       <c r="D72" s="6">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="E72" s="6">
-        <v>0</v>
+        <v>23300</v>
       </c>
       <c r="F72" s="7">
-        <v>158.53</v>
+        <v>19.55</v>
       </c>
       <c r="G72" s="7">
-        <v>155.6</v>
+        <v>19.428</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>586561</v>
+        <v>455515</v>
       </c>
       <c r="J72" s="7">
-        <v>10840.2</v>
+        <v>2837.61</v>
       </c>
       <c r="K72" s="7">
-        <v>5328</v>
+        <v>2837.61</v>
       </c>
       <c r="L72" s="8">
-        <v>1.88</v>
+        <v>0.63</v>
       </c>
       <c r="M72" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="10">
+        <v>300760</v>
+      </c>
+      <c r="C73" s="10">
+        <v>1900</v>
+      </c>
+      <c r="D73" s="10">
+        <v>1900</v>
+      </c>
+      <c r="E73" s="10">
+        <v>0</v>
+      </c>
+      <c r="F73" s="11">
+        <v>315.72</v>
+      </c>
+      <c r="G73" s="11">
+        <v>329.261</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0</v>
+      </c>
+      <c r="I73" s="11">
+        <v>599868</v>
+      </c>
+      <c r="J73" s="11">
+        <v>-25728.29</v>
+      </c>
+      <c r="K73" s="11">
+        <v>5168</v>
+      </c>
+      <c r="L73" s="9">
+        <v>-4.11</v>
+      </c>
+      <c r="M73" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N72" s="8" t="s">
+      <c r="N73" s="9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" s="6">
-        <v>600211</v>
-      </c>
-      <c r="C73" s="6">
-        <v>1200</v>
-      </c>
-      <c r="D73" s="6">
-        <v>0</v>
-      </c>
-      <c r="E73" s="6">
-        <v>1200</v>
-      </c>
-      <c r="F73" s="7">
-        <v>118.37</v>
-      </c>
-      <c r="G73" s="7">
-        <v>114.18</v>
-      </c>
-      <c r="H73" s="7">
-        <v>0</v>
-      </c>
-      <c r="I73" s="7">
-        <v>142044</v>
-      </c>
-      <c r="J73" s="7">
-        <v>5028.24</v>
-      </c>
-      <c r="K73" s="7">
-        <v>5028.24</v>
-      </c>
-      <c r="L73" s="8">
-        <v>3.67</v>
-      </c>
-      <c r="M73" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N73" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C74" s="10">
-        <v>2300</v>
+        <v>30000</v>
       </c>
       <c r="D74" s="10">
-        <v>2300</v>
+        <v>30000</v>
       </c>
       <c r="E74" s="10">
         <v>0</v>
       </c>
       <c r="F74" s="11">
-        <v>97.33</v>
+        <v>11.88</v>
       </c>
       <c r="G74" s="11">
-        <v>104.425</v>
+        <v>11.907</v>
       </c>
       <c r="H74" s="11">
         <v>0</v>
       </c>
       <c r="I74" s="11">
-        <v>223859</v>
+        <v>356400</v>
       </c>
       <c r="J74" s="11">
-        <v>-16319.31</v>
+        <v>-811.42</v>
       </c>
       <c r="K74" s="11">
-        <v>2714</v>
+        <v>3600</v>
       </c>
       <c r="L74" s="9">
-        <v>-6.79</v>
+        <v>-0.23</v>
       </c>
       <c r="M74" s="9" t="s">
         <v>26</v>
@@ -3891,173 +3879,173 @@
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C75" s="6">
-        <v>8000</v>
-      </c>
-      <c r="D75" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E75" s="6">
-        <v>3000</v>
-      </c>
-      <c r="F75" s="7">
-        <v>75.58</v>
-      </c>
-      <c r="G75" s="7">
-        <v>73.576</v>
-      </c>
-      <c r="H75" s="7">
-        <v>0</v>
-      </c>
-      <c r="I75" s="7">
-        <v>604640</v>
-      </c>
-      <c r="J75" s="7">
-        <v>16031.67</v>
-      </c>
-      <c r="K75" s="7">
-        <v>23970.11</v>
-      </c>
-      <c r="L75" s="8">
-        <v>2.72</v>
-      </c>
-      <c r="M75" s="8" t="s">
+      <c r="A75" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="10">
+        <v>1300</v>
+      </c>
+      <c r="D75" s="10">
+        <v>1300</v>
+      </c>
+      <c r="E75" s="10">
+        <v>0</v>
+      </c>
+      <c r="F75" s="11">
+        <v>452.51</v>
+      </c>
+      <c r="G75" s="11">
+        <v>490.456</v>
+      </c>
+      <c r="H75" s="11">
+        <v>0</v>
+      </c>
+      <c r="I75" s="11">
+        <v>588263</v>
+      </c>
+      <c r="J75" s="11">
+        <v>-49329.81</v>
+      </c>
+      <c r="K75" s="11">
+        <v>2548</v>
+      </c>
+      <c r="L75" s="9">
+        <v>-7.74</v>
+      </c>
+      <c r="M75" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N75" s="8" t="s">
+      <c r="N75" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B76" s="10">
-        <v>600519</v>
-      </c>
-      <c r="C76" s="10">
-        <v>400</v>
-      </c>
-      <c r="D76" s="10">
-        <v>400</v>
-      </c>
-      <c r="E76" s="10">
-        <v>0</v>
-      </c>
-      <c r="F76" s="11">
-        <v>1635</v>
-      </c>
-      <c r="G76" s="11">
-        <v>1649.657</v>
-      </c>
-      <c r="H76" s="11">
-        <v>0</v>
-      </c>
-      <c r="I76" s="11">
-        <v>654000</v>
-      </c>
-      <c r="J76" s="11">
-        <v>-5862.97</v>
-      </c>
-      <c r="K76" s="11">
-        <v>3220</v>
-      </c>
-      <c r="L76" s="9">
-        <v>-0.89</v>
-      </c>
-      <c r="M76" s="9" t="s">
+      <c r="A76" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="6">
+        <v>601012</v>
+      </c>
+      <c r="C76" s="6">
+        <v>10800</v>
+      </c>
+      <c r="D76" s="6">
+        <v>10800</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>56.35</v>
+      </c>
+      <c r="G76" s="7">
+        <v>55.377</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>608580</v>
+      </c>
+      <c r="J76" s="7">
+        <v>10506.33</v>
+      </c>
+      <c r="K76" s="7">
+        <v>2808</v>
+      </c>
+      <c r="L76" s="8">
+        <v>1.76</v>
+      </c>
+      <c r="M76" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N76" s="9" t="s">
+      <c r="N76" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B77" s="10">
-        <v>300760</v>
+        <v>603501</v>
       </c>
       <c r="C77" s="10">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="D77" s="10">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E77" s="10">
         <v>0</v>
       </c>
       <c r="F77" s="11">
-        <v>313</v>
+        <v>186.28</v>
       </c>
       <c r="G77" s="11">
-        <v>329.261</v>
+        <v>205.427</v>
       </c>
       <c r="H77" s="11">
         <v>0</v>
       </c>
       <c r="I77" s="11">
-        <v>594700</v>
+        <v>391188</v>
       </c>
       <c r="J77" s="11">
-        <v>-30896.29</v>
+        <v>-40207.68</v>
       </c>
       <c r="K77" s="11">
-        <v>950</v>
+        <v>6951</v>
       </c>
       <c r="L77" s="9">
-        <v>-4.94</v>
+        <v>-9.32</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C78" s="10">
-        <v>30000</v>
+        <v>400</v>
       </c>
       <c r="D78" s="10">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E78" s="10">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F78" s="11">
-        <v>11.76</v>
+        <v>66.2</v>
       </c>
       <c r="G78" s="11">
-        <v>11.909</v>
+        <v>130.659</v>
       </c>
       <c r="H78" s="11">
         <v>0</v>
       </c>
       <c r="I78" s="11">
-        <v>352800</v>
+        <v>26480</v>
       </c>
       <c r="J78" s="11">
-        <v>-4465.46</v>
+        <v>-25783.69</v>
       </c>
       <c r="K78" s="11">
-        <v>-4465.46</v>
+        <v>699.67</v>
       </c>
       <c r="L78" s="9">
-        <v>-1.25</v>
+        <v>-49.33</v>
       </c>
       <c r="M78" s="9" t="s">
         <v>26</v>
@@ -4068,309 +4056,89 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B79" s="6">
-        <v>300510</v>
+        <v>600723</v>
       </c>
       <c r="C79" s="6">
-        <v>0</v>
+        <v>23600</v>
       </c>
       <c r="D79" s="6">
-        <v>0</v>
+        <v>23600</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
       </c>
       <c r="F79" s="7">
-        <v>5.54</v>
+        <v>11.39</v>
       </c>
       <c r="G79" s="7">
-        <v>0</v>
+        <v>11.098</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
       </c>
       <c r="I79" s="7">
-        <v>0</v>
+        <v>268804</v>
       </c>
       <c r="J79" s="7">
-        <v>10104.11</v>
+        <v>6880.71</v>
       </c>
       <c r="K79" s="7">
-        <v>11593.07</v>
+        <v>944</v>
       </c>
       <c r="L79" s="8">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="M79" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" s="6">
+        <v>300423</v>
+      </c>
+      <c r="C80" s="6">
+        <v>4800</v>
+      </c>
+      <c r="D80" s="6">
+        <v>4800</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>14.7</v>
+      </c>
+      <c r="G80" s="7">
+        <v>13.662</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>70560</v>
+      </c>
+      <c r="J80" s="7">
+        <v>4983.48</v>
+      </c>
+      <c r="K80" s="7">
+        <v>1728</v>
+      </c>
+      <c r="L80" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="M80" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N79" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C80" s="10">
-        <v>1300</v>
-      </c>
-      <c r="D80" s="10">
-        <v>300</v>
-      </c>
-      <c r="E80" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F80" s="11">
-        <v>450.55</v>
-      </c>
-      <c r="G80" s="11">
-        <v>490.456</v>
-      </c>
-      <c r="H80" s="11">
-        <v>0</v>
-      </c>
-      <c r="I80" s="11">
-        <v>585715</v>
-      </c>
-      <c r="J80" s="11">
-        <v>-51877.81</v>
-      </c>
-      <c r="K80" s="11">
-        <v>-31704.77</v>
-      </c>
-      <c r="L80" s="9">
-        <v>-8.14</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N80" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B81" s="6">
-        <v>601012</v>
-      </c>
-      <c r="C81" s="6">
-        <v>10800</v>
-      </c>
-      <c r="D81" s="6">
-        <v>10800</v>
-      </c>
-      <c r="E81" s="6">
-        <v>0</v>
-      </c>
-      <c r="F81" s="7">
-        <v>56.09</v>
-      </c>
-      <c r="G81" s="7">
-        <v>55.377</v>
-      </c>
-      <c r="H81" s="7">
-        <v>0</v>
-      </c>
-      <c r="I81" s="7">
-        <v>605772</v>
-      </c>
-      <c r="J81" s="7">
-        <v>7698.33</v>
-      </c>
-      <c r="K81" s="7">
-        <v>7884</v>
-      </c>
-      <c r="L81" s="8">
-        <v>1.29</v>
-      </c>
-      <c r="M81" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N81" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B82" s="10">
-        <v>603501</v>
-      </c>
-      <c r="C82" s="10">
-        <v>2100</v>
-      </c>
-      <c r="D82" s="10">
-        <v>2100</v>
-      </c>
-      <c r="E82" s="10">
-        <v>0</v>
-      </c>
-      <c r="F82" s="11">
-        <v>182.97</v>
-      </c>
-      <c r="G82" s="11">
-        <v>205.427</v>
-      </c>
-      <c r="H82" s="11">
-        <v>0</v>
-      </c>
-      <c r="I82" s="11">
-        <v>384237</v>
-      </c>
-      <c r="J82" s="11">
-        <v>-47158.68</v>
-      </c>
-      <c r="K82" s="11">
-        <v>-8568</v>
-      </c>
-      <c r="L82" s="9">
-        <v>-10.93</v>
-      </c>
-      <c r="M82" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N82" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C83" s="10">
-        <v>8900</v>
-      </c>
-      <c r="D83" s="10">
-        <v>8900</v>
-      </c>
-      <c r="E83" s="10">
-        <v>0</v>
-      </c>
-      <c r="F83" s="11">
-        <v>64.98</v>
-      </c>
-      <c r="G83" s="11">
-        <v>67.956</v>
-      </c>
-      <c r="H83" s="11">
-        <v>0</v>
-      </c>
-      <c r="I83" s="11">
-        <v>578322</v>
-      </c>
-      <c r="J83" s="11">
-        <v>-26483.36</v>
-      </c>
-      <c r="K83" s="11">
-        <v>3738</v>
-      </c>
-      <c r="L83" s="9">
-        <v>-4.38</v>
-      </c>
-      <c r="M83" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N83" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B84" s="6">
-        <v>600723</v>
-      </c>
-      <c r="C84" s="6">
-        <v>23600</v>
-      </c>
-      <c r="D84" s="6">
-        <v>23600</v>
-      </c>
-      <c r="E84" s="6">
-        <v>0</v>
-      </c>
-      <c r="F84" s="7">
-        <v>11.35</v>
-      </c>
-      <c r="G84" s="7">
-        <v>11.098</v>
-      </c>
-      <c r="H84" s="7">
-        <v>0</v>
-      </c>
-      <c r="I84" s="7">
-        <v>267860</v>
-      </c>
-      <c r="J84" s="7">
-        <v>5936.71</v>
-      </c>
-      <c r="K84" s="7">
-        <v>1888</v>
-      </c>
-      <c r="L84" s="8">
-        <v>2.27</v>
-      </c>
-      <c r="M84" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N84" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B85" s="6">
-        <v>300423</v>
-      </c>
-      <c r="C85" s="6">
-        <v>4800</v>
-      </c>
-      <c r="D85" s="6">
-        <v>4800</v>
-      </c>
-      <c r="E85" s="6">
-        <v>0</v>
-      </c>
-      <c r="F85" s="7">
-        <v>14.34</v>
-      </c>
-      <c r="G85" s="7">
-        <v>13.662</v>
-      </c>
-      <c r="H85" s="7">
-        <v>0</v>
-      </c>
-      <c r="I85" s="7">
-        <v>68832</v>
-      </c>
-      <c r="J85" s="7">
-        <v>3255.48</v>
-      </c>
-      <c r="K85" s="7">
-        <v>-432</v>
-      </c>
-      <c r="L85" s="8">
-        <v>4.96</v>
-      </c>
-      <c r="M85" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N85" s="8" t="s">
+      <c r="N80" s="8" t="s">
         <v>25</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
+++ b/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="142">
   <si>
     <t>资金</t>
   </si>
@@ -136,6 +136,12 @@
     <t>交易市场</t>
   </si>
   <si>
+    <t>TCL科技</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
     <t>一汽富维</t>
   </si>
   <si>
@@ -151,19 +157,19 @@
     <t>中国中免</t>
   </si>
   <si>
-    <t>中国出版</t>
-  </si>
-  <si>
     <t>中材科技</t>
   </si>
   <si>
     <t>002080</t>
   </si>
   <si>
-    <t>五 粮 液</t>
-  </si>
-  <si>
-    <t>000858</t>
+    <t>亚光科技</t>
+  </si>
+  <si>
+    <t>京东方Ａ</t>
+  </si>
+  <si>
+    <t>000725</t>
   </si>
   <si>
     <t>亿嘉和</t>
@@ -181,10 +187,16 @@
     <t>002625</t>
   </si>
   <si>
-    <t>凯撒文化</t>
-  </si>
-  <si>
-    <t>002425</t>
+    <t>分众传媒</t>
+  </si>
+  <si>
+    <t>002027</t>
+  </si>
+  <si>
+    <t>北斗星通</t>
+  </si>
+  <si>
+    <t>002151</t>
   </si>
   <si>
     <t>北方华创</t>
@@ -211,18 +223,15 @@
     <t>同仁堂</t>
   </si>
   <si>
-    <t>大众交通</t>
+    <t>君正集团</t>
+  </si>
+  <si>
+    <t>四方精创</t>
   </si>
   <si>
     <t>天坛生物</t>
   </si>
   <si>
-    <t>太极集团</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
-  </si>
-  <si>
     <t>安琪酵母</t>
   </si>
   <si>
@@ -244,9 +253,6 @@
     <t>002444</t>
   </si>
   <si>
-    <t>广信股份</t>
-  </si>
-  <si>
     <t>广州酒家</t>
   </si>
   <si>
@@ -283,28 +289,31 @@
     <t>000733</t>
   </si>
   <si>
-    <t>数据港</t>
-  </si>
-  <si>
     <t>星宇股份</t>
   </si>
   <si>
     <t>智飞生物</t>
   </si>
   <si>
+    <t>格林美</t>
+  </si>
+  <si>
+    <t>002340</t>
+  </si>
+  <si>
     <t>沃森生物</t>
   </si>
   <si>
     <t>海利生物</t>
   </si>
   <si>
-    <t>海大集团</t>
-  </si>
-  <si>
-    <t>002311</t>
-  </si>
-  <si>
-    <t>海尔智家</t>
+    <t>海南高速</t>
+  </si>
+  <si>
+    <t>000886</t>
+  </si>
+  <si>
+    <t>海汽集团</t>
   </si>
   <si>
     <t>海螺水泥</t>
@@ -325,7 +334,10 @@
     <t>002714</t>
   </si>
   <si>
-    <t>玉龙股份</t>
+    <t>特发信息</t>
+  </si>
+  <si>
+    <t>000070</t>
   </si>
   <si>
     <t>科创额度</t>
@@ -334,10 +346,7 @@
     <t>SHKCED</t>
   </si>
   <si>
-    <t>穗恒运Ａ</t>
-  </si>
-  <si>
-    <t>000531</t>
+    <t>精工钢构</t>
   </si>
   <si>
     <t>美克家居</t>
@@ -364,6 +373,9 @@
     <t>英科医疗</t>
   </si>
   <si>
+    <t>荃银高科</t>
+  </si>
+  <si>
     <t>西藏药业</t>
   </si>
   <si>
@@ -379,9 +391,6 @@
     <t>000710</t>
   </si>
   <si>
-    <t>贵州茅台</t>
-  </si>
-  <si>
     <t>赤峰黄金</t>
   </si>
   <si>
@@ -394,13 +403,28 @@
     <t>002081</t>
   </si>
   <si>
+    <t>金达威</t>
+  </si>
+  <si>
+    <t>002626</t>
+  </si>
+  <si>
     <t>长春高新</t>
   </si>
   <si>
     <t>000661</t>
   </si>
   <si>
+    <t>长盈精密</t>
+  </si>
+  <si>
     <t>隆基股份</t>
+  </si>
+  <si>
+    <t>露笑科技</t>
+  </si>
+  <si>
+    <t>002617</t>
   </si>
   <si>
     <t>韦尔股份</t>
@@ -435,12 +459,12 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFCA4949"/>
+      <color rgb="FF007AD0"/>
       <name val="SimSun"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF007AD0"/>
+      <color rgb="FFCA4949"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -807,7 +831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -887,28 +911,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>1252088.35</v>
+        <v>1577100.37</v>
       </c>
       <c r="D3" s="3">
-        <v>1575327.3</v>
+        <v>1382684.15</v>
       </c>
       <c r="E3" s="3">
-        <v>1252088.35</v>
+        <v>1382684.15</v>
       </c>
       <c r="F3" s="3">
-        <v>-323238.95</v>
+        <v>194416.22</v>
       </c>
       <c r="G3" s="3">
-        <v>20748460.87</v>
+        <v>21303607.18</v>
       </c>
       <c r="H3" s="3">
-        <v>22323788.17</v>
+        <v>22686291.33</v>
       </c>
       <c r="I3" s="3">
-        <v>-158646.25</v>
+        <v>283927.51</v>
       </c>
       <c r="J3" s="3">
-        <v>255579.84</v>
+        <v>361690.09</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1015,10 +1039,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>620000</v>
+        <v>647000</v>
       </c>
       <c r="C8" s="3">
-        <v>620000</v>
+        <v>647000</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1032,7 +1056,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>1394500</v>
+        <v>1375500</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1110,82 +1134,82 @@
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="6">
-        <v>600742</v>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="6">
-        <v>12000</v>
+        <v>98800</v>
       </c>
       <c r="D12" s="6">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>98800</v>
       </c>
       <c r="F12" s="7">
-        <v>11.9</v>
+        <v>6.65</v>
       </c>
       <c r="G12" s="7">
-        <v>11.026</v>
+        <v>6.696</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>142800</v>
+        <v>657020</v>
       </c>
       <c r="J12" s="7">
-        <v>10491.19</v>
+        <v>-4590</v>
       </c>
       <c r="K12" s="7">
-        <v>-1200</v>
+        <v>-4590</v>
       </c>
       <c r="L12" s="8">
-        <v>7.93</v>
+        <v>-0.69</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="10">
-        <v>601607</v>
+        <v>600742</v>
       </c>
       <c r="C13" s="10">
-        <v>8700</v>
+        <v>12000</v>
       </c>
       <c r="D13" s="10">
-        <v>8700</v>
+        <v>12000</v>
       </c>
       <c r="E13" s="10">
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>22.59</v>
+        <v>11.9</v>
       </c>
       <c r="G13" s="11">
-        <v>23.676</v>
+        <v>11.026</v>
       </c>
       <c r="H13" s="11">
         <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>196533</v>
+        <v>142800</v>
       </c>
       <c r="J13" s="11">
-        <v>-9448.88</v>
-      </c>
-      <c r="K13" s="11">
-        <v>1566</v>
+        <v>10491.19</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="L13" s="9">
-        <v>-4.59</v>
+        <v>7.93</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>24</v>
@@ -1196,98 +1220,98 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="B14" s="6">
+        <v>601607</v>
+      </c>
       <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>22.84</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>-8969.39</v>
+      </c>
+      <c r="K14" s="7">
+        <v>479.49</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="10">
         <v>14900</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="10">
         <v>14900</v>
       </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>25.25</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>25.26</v>
+      </c>
+      <c r="G15" s="11">
         <v>25.149</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>376225</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1502.29</v>
-      </c>
-      <c r="K14" s="7">
-        <v>745</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="M14" s="8" t="s">
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>376374</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1651.29</v>
+      </c>
+      <c r="K15" s="11">
+        <v>149</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="M15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N15" s="9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="6">
-        <v>601888</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3000</v>
-      </c>
-      <c r="D15" s="6">
-        <v>3000</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>207.25</v>
-      </c>
-      <c r="G15" s="7">
-        <v>204.899</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>621750</v>
-      </c>
-      <c r="J15" s="7">
-        <v>7053.81</v>
-      </c>
-      <c r="K15" s="7">
-        <v>8280</v>
-      </c>
-      <c r="L15" s="8">
-        <v>1.15</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="10">
-        <v>601949</v>
+        <v>601888</v>
       </c>
       <c r="C16" s="10">
         <v>0</v>
@@ -1299,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="11">
-        <v>5.85</v>
+        <v>207.2</v>
       </c>
       <c r="G16" s="11">
         <v>0</v>
@@ -1311,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="11">
-        <v>-17567.87</v>
+        <v>5833.44</v>
       </c>
       <c r="K16" s="11">
-        <v>-2825.11</v>
+        <v>-1220.37</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
@@ -1327,90 +1351,90 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="10">
-        <v>4300</v>
-      </c>
-      <c r="D17" s="10">
-        <v>4300</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>20.41</v>
-      </c>
-      <c r="G17" s="11">
-        <v>21.998</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>87763</v>
-      </c>
-      <c r="J17" s="11">
-        <v>-6830.3</v>
-      </c>
-      <c r="K17" s="11">
-        <v>473</v>
-      </c>
-      <c r="L17" s="9">
-        <v>-7.22</v>
-      </c>
-      <c r="M17" s="9" t="s">
+      <c r="B17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>20.77</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>-5781.24</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1049.06</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>212.9</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <v>9565.4</v>
-      </c>
-      <c r="K18" s="7">
-        <v>5306.83</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="8" t="s">
+      <c r="B18" s="10">
+        <v>300123</v>
+      </c>
+      <c r="C18" s="10">
+        <v>29100</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>29100</v>
+      </c>
+      <c r="F18" s="11">
+        <v>21.15</v>
+      </c>
+      <c r="G18" s="11">
+        <v>21.116</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>615465</v>
+      </c>
+      <c r="J18" s="11">
+        <v>1003.59</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1003.59</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="M18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1418,82 +1442,82 @@
       <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="6">
-        <v>603666</v>
+      <c r="B19" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C19" s="6">
-        <v>2600</v>
+        <v>125800</v>
       </c>
       <c r="D19" s="6">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="E19" s="6">
-        <v>0</v>
+        <v>125800</v>
       </c>
       <c r="F19" s="7">
-        <v>113</v>
+        <v>5.23</v>
       </c>
       <c r="G19" s="7">
-        <v>106.932</v>
+        <v>5.331</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>293800</v>
+        <v>657934</v>
       </c>
       <c r="J19" s="7">
-        <v>15777.37</v>
+        <v>-12667.17</v>
       </c>
       <c r="K19" s="7">
-        <v>9360</v>
+        <v>-12667.17</v>
       </c>
       <c r="L19" s="8">
-        <v>5.67</v>
+        <v>-1.89</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="10">
-        <v>603733</v>
+        <v>603666</v>
       </c>
       <c r="C20" s="10">
-        <v>4900</v>
+        <v>2300</v>
       </c>
       <c r="D20" s="10">
-        <v>4900</v>
+        <v>2300</v>
       </c>
       <c r="E20" s="10">
         <v>0</v>
       </c>
       <c r="F20" s="11">
-        <v>23.33</v>
+        <v>113</v>
       </c>
       <c r="G20" s="11">
-        <v>23.592</v>
+        <v>106.286</v>
       </c>
       <c r="H20" s="11">
         <v>0</v>
       </c>
       <c r="I20" s="11">
-        <v>114317</v>
+        <v>259900</v>
       </c>
       <c r="J20" s="11">
-        <v>-1281.36</v>
+        <v>15441.09</v>
       </c>
       <c r="K20" s="11">
-        <v>833</v>
+        <v>-336.28</v>
       </c>
       <c r="L20" s="9">
-        <v>-1.11</v>
+        <v>6.32</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>24</v>
@@ -1504,40 +1528,40 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="10">
-        <v>600887</v>
+        <v>603733</v>
       </c>
       <c r="C21" s="10">
-        <v>16466</v>
+        <v>4900</v>
       </c>
       <c r="D21" s="10">
-        <v>16466</v>
+        <v>4900</v>
       </c>
       <c r="E21" s="10">
         <v>0</v>
       </c>
       <c r="F21" s="11">
-        <v>35.24</v>
+        <v>24.32</v>
       </c>
       <c r="G21" s="11">
-        <v>37.331</v>
+        <v>23.592</v>
       </c>
       <c r="H21" s="11">
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <v>580261.84</v>
+        <v>119168</v>
       </c>
       <c r="J21" s="11">
-        <v>-34429.79</v>
+        <v>3569.64</v>
       </c>
       <c r="K21" s="11">
-        <v>6586.4</v>
+        <v>4851</v>
       </c>
       <c r="L21" s="9">
-        <v>-5.6</v>
+        <v>3.09</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>24</v>
@@ -1548,46 +1572,46 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="8" t="s">
         <v>54</v>
       </c>
+      <c r="B22" s="6">
+        <v>600887</v>
+      </c>
       <c r="C22" s="6">
-        <v>25900</v>
+        <v>66</v>
       </c>
       <c r="D22" s="6">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E22" s="6">
-        <v>25900</v>
+        <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>23.4</v>
+        <v>35.35</v>
       </c>
       <c r="G22" s="7">
-        <v>22.575</v>
+        <v>558.155</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>606060</v>
+        <v>2333.1</v>
       </c>
       <c r="J22" s="7">
-        <v>21359.75</v>
+        <v>-34505.16</v>
       </c>
       <c r="K22" s="7">
-        <v>21359.75</v>
+        <v>-75.37</v>
       </c>
       <c r="L22" s="8">
-        <v>3.65</v>
+        <v>-93.67</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1598,34 +1622,34 @@
         <v>56</v>
       </c>
       <c r="C23" s="10">
-        <v>0</v>
+        <v>26600</v>
       </c>
       <c r="D23" s="10">
-        <v>0</v>
+        <v>10900</v>
       </c>
       <c r="E23" s="10">
-        <v>0</v>
+        <v>15700</v>
       </c>
       <c r="F23" s="11">
-        <v>13.12</v>
+        <v>24.99</v>
       </c>
       <c r="G23" s="11">
-        <v>0</v>
+        <v>22.628</v>
       </c>
       <c r="H23" s="11">
         <v>0</v>
       </c>
       <c r="I23" s="11">
-        <v>0</v>
+        <v>664734</v>
       </c>
       <c r="J23" s="11">
-        <v>-39066.61</v>
+        <v>62819.84</v>
       </c>
       <c r="K23" s="11">
-        <v>-6358.09</v>
+        <v>41446.85</v>
       </c>
       <c r="L23" s="9">
-        <v>0</v>
+        <v>10.44</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>26</v>
@@ -1635,258 +1659,258 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="6">
-        <v>3000</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1800</v>
-      </c>
-      <c r="F24" s="7">
-        <v>208</v>
-      </c>
-      <c r="G24" s="7">
-        <v>207.773</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>624000</v>
-      </c>
-      <c r="J24" s="7">
-        <v>682.39</v>
-      </c>
-      <c r="K24" s="7">
-        <v>6784.15</v>
-      </c>
-      <c r="L24" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="M24" s="8" t="s">
+      <c r="C24" s="10">
+        <v>31800</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>31800</v>
+      </c>
+      <c r="F24" s="11">
+        <v>6.73</v>
+      </c>
+      <c r="G24" s="11">
+        <v>6.717</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>214014</v>
+      </c>
+      <c r="J24" s="11">
+        <v>403.12</v>
+      </c>
+      <c r="K24" s="11">
+        <v>403.12</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="N24" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="6">
-        <v>19100</v>
-      </c>
-      <c r="D25" s="6">
-        <v>19100</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>8.35</v>
-      </c>
-      <c r="G25" s="7">
-        <v>8.319</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>159485</v>
-      </c>
-      <c r="J25" s="7">
-        <v>589.31</v>
-      </c>
-      <c r="K25" s="7">
-        <v>382</v>
-      </c>
-      <c r="L25" s="8">
-        <v>0.37</v>
-      </c>
-      <c r="M25" s="8" t="s">
+      <c r="C25" s="10">
+        <v>9100</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>9100</v>
+      </c>
+      <c r="F25" s="11">
+        <v>68.78</v>
+      </c>
+      <c r="G25" s="11">
+        <v>67.76</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>625898</v>
+      </c>
+      <c r="J25" s="11">
+        <v>9282.45</v>
+      </c>
+      <c r="K25" s="11">
+        <v>9282.45</v>
+      </c>
+      <c r="L25" s="9">
+        <v>1.51</v>
+      </c>
+      <c r="M25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="N25" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="6">
-        <v>11400</v>
-      </c>
-      <c r="D26" s="6">
-        <v>11100</v>
-      </c>
-      <c r="E26" s="6">
-        <v>300</v>
-      </c>
-      <c r="F26" s="7">
-        <v>54.85</v>
-      </c>
-      <c r="G26" s="7">
-        <v>53.504</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>625290</v>
-      </c>
-      <c r="J26" s="7">
-        <v>15344.93</v>
-      </c>
-      <c r="K26" s="7">
-        <v>9445</v>
-      </c>
-      <c r="L26" s="8">
-        <v>2.52</v>
-      </c>
-      <c r="M26" s="8" t="s">
+      <c r="C26" s="10">
+        <v>0</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>213.19</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>11822.25</v>
+      </c>
+      <c r="K26" s="11">
+        <v>11128.26</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N26" s="8" t="s">
+      <c r="N26" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="6">
-        <v>511990</v>
-      </c>
-      <c r="C27" s="6">
-        <v>6</v>
-      </c>
-      <c r="D27" s="6">
-        <v>6</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>100.005</v>
-      </c>
-      <c r="G27" s="7">
-        <v>-6751.737</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>600.03</v>
-      </c>
-      <c r="J27" s="7">
-        <v>41110.45</v>
-      </c>
-      <c r="K27" s="7">
-        <v>-0.11</v>
-      </c>
-      <c r="L27" s="8">
-        <v>0</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>23</v>
+      <c r="B27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>8.47</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>1802.33</v>
+      </c>
+      <c r="K27" s="11">
+        <v>1213.02</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="6">
-        <v>600085</v>
-      </c>
-      <c r="C28" s="6">
-        <v>20100</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>20100</v>
-      </c>
-      <c r="F28" s="7">
-        <v>30.45</v>
-      </c>
-      <c r="G28" s="7">
-        <v>29.905</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>612045</v>
-      </c>
-      <c r="J28" s="7">
-        <v>10953.67</v>
-      </c>
-      <c r="K28" s="7">
-        <v>10953.67</v>
-      </c>
-      <c r="L28" s="8">
-        <v>1.82</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>23</v>
+      <c r="A28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11">
+        <v>59.07</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <v>35130.26</v>
+      </c>
+      <c r="K28" s="11">
+        <v>19777.41</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B29" s="10">
-        <v>600611</v>
+        <v>511990</v>
       </c>
       <c r="C29" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D29" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E29" s="10">
         <v>0</v>
       </c>
       <c r="F29" s="11">
-        <v>3.94</v>
+        <v>99.994</v>
       </c>
       <c r="G29" s="11">
-        <v>0</v>
+        <v>-6751.737</v>
       </c>
       <c r="H29" s="11">
         <v>0</v>
       </c>
       <c r="I29" s="11">
-        <v>0</v>
+        <v>599.96</v>
       </c>
       <c r="J29" s="11">
-        <v>-357.32</v>
+        <v>41110.38</v>
       </c>
       <c r="K29" s="11">
-        <v>-218.4</v>
+        <v>-0.07</v>
       </c>
       <c r="L29" s="9">
         <v>0</v>
@@ -1900,40 +1924,40 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B30" s="10">
-        <v>600161</v>
+        <v>600085</v>
       </c>
       <c r="C30" s="10">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="D30" s="10">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="E30" s="10">
         <v>0</v>
       </c>
       <c r="F30" s="11">
-        <v>46.33</v>
+        <v>30.81</v>
       </c>
       <c r="G30" s="11">
-        <v>49.193</v>
+        <v>28.892</v>
       </c>
       <c r="H30" s="11">
         <v>0</v>
       </c>
       <c r="I30" s="11">
-        <v>379906</v>
+        <v>246480</v>
       </c>
       <c r="J30" s="11">
-        <v>-23473.19</v>
+        <v>15345.59</v>
       </c>
       <c r="K30" s="11">
-        <v>1394</v>
+        <v>4353.76</v>
       </c>
       <c r="L30" s="9">
-        <v>-5.82</v>
+        <v>6.64</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>24</v>
@@ -1944,40 +1968,40 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B31" s="10">
-        <v>600129</v>
+        <v>601216</v>
       </c>
       <c r="C31" s="10">
-        <v>0</v>
+        <v>74300</v>
       </c>
       <c r="D31" s="10">
         <v>0</v>
       </c>
       <c r="E31" s="10">
-        <v>0</v>
+        <v>74300</v>
       </c>
       <c r="F31" s="11">
-        <v>16.45</v>
+        <v>9.21</v>
       </c>
       <c r="G31" s="11">
-        <v>0</v>
+        <v>8.758</v>
       </c>
       <c r="H31" s="11">
         <v>0</v>
       </c>
       <c r="I31" s="11">
-        <v>0</v>
+        <v>684303</v>
       </c>
       <c r="J31" s="11">
-        <v>-439.53</v>
+        <v>33553.41</v>
       </c>
       <c r="K31" s="11">
-        <v>-93.25</v>
+        <v>33553.41</v>
       </c>
       <c r="L31" s="9">
-        <v>0</v>
+        <v>5.16</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>24</v>
@@ -1987,129 +2011,129 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="10">
-        <v>300750</v>
-      </c>
-      <c r="C32" s="10">
-        <v>0</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11">
-        <v>200.37</v>
-      </c>
-      <c r="G32" s="11">
-        <v>0</v>
-      </c>
-      <c r="H32" s="11">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11">
-        <v>0</v>
-      </c>
-      <c r="J32" s="11">
-        <v>-3116.11</v>
-      </c>
-      <c r="K32" s="11">
-        <v>134.25</v>
-      </c>
-      <c r="L32" s="9">
-        <v>0</v>
-      </c>
-      <c r="M32" s="9" t="s">
+      <c r="A32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="6">
+        <v>300468</v>
+      </c>
+      <c r="C32" s="6">
+        <v>24300</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>24300</v>
+      </c>
+      <c r="F32" s="7">
+        <v>26.64</v>
+      </c>
+      <c r="G32" s="7">
+        <v>26.732</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>647352</v>
+      </c>
+      <c r="J32" s="7">
+        <v>-2238</v>
+      </c>
+      <c r="K32" s="7">
+        <v>-2238</v>
+      </c>
+      <c r="L32" s="8">
+        <v>-0.34</v>
+      </c>
+      <c r="M32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="N32" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="10">
-        <v>600298</v>
-      </c>
-      <c r="C33" s="10">
-        <v>100</v>
-      </c>
-      <c r="D33" s="10">
-        <v>100</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11">
-        <v>66</v>
-      </c>
-      <c r="G33" s="11">
-        <v>67.21</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="11">
-        <v>6600</v>
-      </c>
-      <c r="J33" s="11">
-        <v>-121</v>
-      </c>
-      <c r="K33" s="11">
-        <v>147</v>
-      </c>
-      <c r="L33" s="9">
-        <v>-1.8</v>
-      </c>
-      <c r="M33" s="9" t="s">
+      <c r="A33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="6">
+        <v>600161</v>
+      </c>
+      <c r="C33" s="6">
+        <v>8200</v>
+      </c>
+      <c r="D33" s="6">
+        <v>8200</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>46.58</v>
+      </c>
+      <c r="G33" s="7">
+        <v>49.193</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>381956</v>
+      </c>
+      <c r="J33" s="7">
+        <v>-21423.19</v>
+      </c>
+      <c r="K33" s="7">
+        <v>2050</v>
+      </c>
+      <c r="L33" s="8">
+        <v>-5.31</v>
+      </c>
+      <c r="M33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N33" s="9" t="s">
+      <c r="N33" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B34" s="6">
-        <v>600989</v>
+        <v>600298</v>
       </c>
       <c r="C34" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="D34" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E34" s="6">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>12.38</v>
+        <v>66.88</v>
       </c>
       <c r="G34" s="7">
-        <v>12.072</v>
+        <v>67.21</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>49520</v>
+        <v>6688</v>
       </c>
       <c r="J34" s="7">
-        <v>1232.75</v>
+        <v>-33</v>
       </c>
       <c r="K34" s="7">
-        <v>1232.75</v>
+        <v>88</v>
       </c>
       <c r="L34" s="8">
-        <v>2.55</v>
+        <v>-0.49</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>24</v>
@@ -2120,40 +2144,40 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B35" s="10">
-        <v>601968</v>
+        <v>600989</v>
       </c>
       <c r="C35" s="10">
-        <v>20400</v>
+        <v>4000</v>
       </c>
       <c r="D35" s="10">
-        <v>20400</v>
+        <v>4000</v>
       </c>
       <c r="E35" s="10">
         <v>0</v>
       </c>
       <c r="F35" s="11">
-        <v>7.08</v>
+        <v>13.49</v>
       </c>
       <c r="G35" s="11">
-        <v>7.091</v>
+        <v>12.072</v>
       </c>
       <c r="H35" s="11">
         <v>0</v>
       </c>
       <c r="I35" s="11">
-        <v>144432</v>
+        <v>53960</v>
       </c>
       <c r="J35" s="11">
-        <v>-221.69</v>
+        <v>5672.75</v>
       </c>
       <c r="K35" s="11">
-        <v>3876</v>
+        <v>4440</v>
       </c>
       <c r="L35" s="9">
-        <v>-0.16</v>
+        <v>11.75</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>24</v>
@@ -2164,139 +2188,139 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B36" s="6">
+        <v>601968</v>
       </c>
       <c r="C36" s="6">
-        <v>51100</v>
+        <v>20400</v>
       </c>
       <c r="D36" s="6">
-        <v>51100</v>
+        <v>20400</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
       </c>
       <c r="F36" s="7">
-        <v>7.96</v>
+        <v>7.08</v>
       </c>
       <c r="G36" s="7">
-        <v>6.961</v>
+        <v>7.091</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>406756</v>
+        <v>144432</v>
       </c>
       <c r="J36" s="7">
-        <v>51050.76</v>
-      </c>
-      <c r="K36" s="7">
-        <v>-5110</v>
+        <v>-221.69</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="L36" s="8">
-        <v>14.35</v>
+        <v>-0.16</v>
       </c>
       <c r="M36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="10">
+        <v>35800</v>
+      </c>
+      <c r="D37" s="10">
+        <v>35800</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>8.14</v>
+      </c>
+      <c r="G37" s="11">
+        <v>6.482</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>291412</v>
+      </c>
+      <c r="J37" s="11">
+        <v>59371.77</v>
+      </c>
+      <c r="K37" s="11">
+        <v>8321.01</v>
+      </c>
+      <c r="L37" s="9">
+        <v>25.58</v>
+      </c>
+      <c r="M37" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N36" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="6">
-        <v>24000</v>
-      </c>
-      <c r="D37" s="6">
-        <v>24000</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="7">
-        <v>21.98</v>
-      </c>
-      <c r="G37" s="7">
-        <v>21.423</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>527520</v>
-      </c>
-      <c r="J37" s="7">
-        <v>13375.17</v>
-      </c>
-      <c r="K37" s="7">
-        <v>4560</v>
-      </c>
-      <c r="L37" s="8">
-        <v>2.6</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N37" s="8" t="s">
+      <c r="N37" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="10">
-        <v>603599</v>
+        <v>77</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="C38" s="10">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="D38" s="10">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="E38" s="10">
         <v>0</v>
       </c>
       <c r="F38" s="11">
-        <v>17.04</v>
+        <v>22.7</v>
       </c>
       <c r="G38" s="11">
-        <v>0</v>
+        <v>21.423</v>
       </c>
       <c r="H38" s="11">
         <v>0</v>
       </c>
       <c r="I38" s="11">
-        <v>0</v>
+        <v>544800</v>
       </c>
       <c r="J38" s="11">
-        <v>-2243.56</v>
+        <v>30655.17</v>
       </c>
       <c r="K38" s="11">
-        <v>-314.2</v>
+        <v>17280</v>
       </c>
       <c r="L38" s="9">
-        <v>0</v>
+        <v>5.96</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="10">
         <v>603043</v>
@@ -2311,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="11">
-        <v>42.86</v>
+        <v>43.47</v>
       </c>
       <c r="G39" s="11">
         <v>43.358</v>
@@ -2320,16 +2344,16 @@
         <v>0</v>
       </c>
       <c r="I39" s="11">
-        <v>338594</v>
+        <v>343413</v>
       </c>
       <c r="J39" s="11">
-        <v>-3935.37</v>
+        <v>883.63</v>
       </c>
       <c r="K39" s="11">
-        <v>5214</v>
+        <v>4819</v>
       </c>
       <c r="L39" s="9">
-        <v>-1.15</v>
+        <v>0.26</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>24</v>
@@ -2339,140 +2363,140 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="10">
-        <v>5500</v>
-      </c>
-      <c r="D40" s="10">
-        <v>5500</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0</v>
-      </c>
-      <c r="F40" s="11">
-        <v>66.45</v>
-      </c>
-      <c r="G40" s="11">
-        <v>76.561</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>365475</v>
-      </c>
-      <c r="J40" s="11">
-        <v>-55612.75</v>
-      </c>
-      <c r="K40" s="11">
-        <v>3575</v>
-      </c>
-      <c r="L40" s="9">
-        <v>-13.21</v>
-      </c>
-      <c r="M40" s="9" t="s">
+      <c r="A40" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>68.3</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
+        <v>-54817.25</v>
+      </c>
+      <c r="K40" s="7">
+        <v>795.5</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N40" s="9" t="s">
+      <c r="N40" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="10">
+      <c r="A41" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="6">
         <v>300601</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="6">
         <v>3200</v>
       </c>
-      <c r="D41" s="10">
-        <v>3000</v>
-      </c>
-      <c r="E41" s="10">
-        <v>200</v>
-      </c>
-      <c r="F41" s="11">
-        <v>199.64</v>
-      </c>
-      <c r="G41" s="11">
-        <v>232.283</v>
-      </c>
-      <c r="H41" s="11">
-        <v>0</v>
-      </c>
-      <c r="I41" s="11">
-        <v>638848</v>
-      </c>
-      <c r="J41" s="11">
-        <v>-104457.09</v>
-      </c>
-      <c r="K41" s="11">
-        <v>17307</v>
-      </c>
-      <c r="L41" s="9">
-        <v>-14.05</v>
-      </c>
-      <c r="M41" s="9" t="s">
+      <c r="D41" s="6">
+        <v>3200</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>207</v>
+      </c>
+      <c r="G41" s="7">
+        <v>231.981</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>662400</v>
+      </c>
+      <c r="J41" s="7">
+        <v>-79940.19</v>
+      </c>
+      <c r="K41" s="7">
+        <v>24512</v>
+      </c>
+      <c r="L41" s="8">
+        <v>-10.77</v>
+      </c>
+      <c r="M41" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N41" s="9" t="s">
+      <c r="N41" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="6">
+      <c r="A42" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="10">
         <v>300391</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="10">
         <v>21700</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="10">
         <v>21700</v>
       </c>
-      <c r="E42" s="6">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7">
-        <v>17.4</v>
-      </c>
-      <c r="G42" s="7">
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
+      <c r="F42" s="11">
+        <v>17.78</v>
+      </c>
+      <c r="G42" s="11">
         <v>15.581</v>
       </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>377580</v>
-      </c>
-      <c r="J42" s="7">
-        <v>39478.58</v>
-      </c>
-      <c r="K42" s="7">
-        <v>4991</v>
-      </c>
-      <c r="L42" s="8">
-        <v>11.67</v>
-      </c>
-      <c r="M42" s="8" t="s">
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>385826</v>
+      </c>
+      <c r="J42" s="11">
+        <v>47724.58</v>
+      </c>
+      <c r="K42" s="11">
+        <v>8246</v>
+      </c>
+      <c r="L42" s="9">
+        <v>14.11</v>
+      </c>
+      <c r="M42" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N42" s="8" t="s">
+      <c r="N42" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="10">
         <v>300759</v>
@@ -2481,31 +2505,31 @@
         <v>4800</v>
       </c>
       <c r="D43" s="10">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="E43" s="10">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="F43" s="11">
-        <v>93.28</v>
+        <v>93.84</v>
       </c>
       <c r="G43" s="11">
-        <v>93.517</v>
+        <v>93.46</v>
       </c>
       <c r="H43" s="11">
         <v>0</v>
       </c>
       <c r="I43" s="11">
-        <v>447744</v>
+        <v>450432</v>
       </c>
       <c r="J43" s="11">
-        <v>-1138.36</v>
+        <v>1826.02</v>
       </c>
       <c r="K43" s="11">
-        <v>5616</v>
+        <v>2964.38</v>
       </c>
       <c r="L43" s="9">
-        <v>-0.25</v>
+        <v>0.41</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>26</v>
@@ -2515,173 +2539,173 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="10">
+      <c r="A44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="6">
         <v>600346</v>
       </c>
-      <c r="C44" s="10">
-        <v>24700</v>
-      </c>
-      <c r="D44" s="10">
-        <v>0</v>
-      </c>
-      <c r="E44" s="10">
-        <v>24700</v>
-      </c>
-      <c r="F44" s="11">
-        <v>18.85</v>
-      </c>
-      <c r="G44" s="11">
-        <v>19.775</v>
-      </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11">
-        <v>465595</v>
-      </c>
-      <c r="J44" s="11">
-        <v>-22845.61</v>
-      </c>
-      <c r="K44" s="11">
-        <v>10207.1</v>
-      </c>
-      <c r="L44" s="9">
-        <v>-4.68</v>
-      </c>
-      <c r="M44" s="9" t="s">
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>19.2</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>-15114.86</v>
+      </c>
+      <c r="K44" s="7">
+        <v>7644.62</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N44" s="9" t="s">
+      <c r="N44" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="6">
+      <c r="A45" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="10">
         <v>300374</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="10">
         <v>5400</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="10">
         <v>5400</v>
       </c>
-      <c r="E45" s="6">
-        <v>0</v>
-      </c>
-      <c r="F45" s="7">
-        <v>18.44</v>
-      </c>
-      <c r="G45" s="7">
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>19.2</v>
+      </c>
+      <c r="G45" s="11">
         <v>18.347</v>
       </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>99576</v>
-      </c>
-      <c r="J45" s="7">
-        <v>504.11</v>
-      </c>
-      <c r="K45" s="7">
-        <v>1026</v>
-      </c>
-      <c r="L45" s="8">
-        <v>0.51</v>
-      </c>
-      <c r="M45" s="8" t="s">
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
+        <v>103680</v>
+      </c>
+      <c r="J45" s="11">
+        <v>4608.11</v>
+      </c>
+      <c r="K45" s="11">
+        <v>4104</v>
+      </c>
+      <c r="L45" s="9">
+        <v>4.65</v>
+      </c>
+      <c r="M45" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N45" s="8" t="s">
+      <c r="N45" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="10">
+      <c r="A46" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="6">
         <v>17800</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="6">
         <v>17800</v>
       </c>
-      <c r="E46" s="10">
-        <v>0</v>
-      </c>
-      <c r="F46" s="11">
-        <v>18.33</v>
-      </c>
-      <c r="G46" s="11">
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>18.53</v>
+      </c>
+      <c r="G46" s="7">
         <v>18.696</v>
       </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="11">
-        <v>326274</v>
-      </c>
-      <c r="J46" s="11">
-        <v>-6508.27</v>
-      </c>
-      <c r="K46" s="11">
-        <v>534</v>
-      </c>
-      <c r="L46" s="9">
-        <v>-1.96</v>
-      </c>
-      <c r="M46" s="9" t="s">
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>329834</v>
+      </c>
+      <c r="J46" s="7">
+        <v>-2948.27</v>
+      </c>
+      <c r="K46" s="7">
+        <v>3560</v>
+      </c>
+      <c r="L46" s="8">
+        <v>-0.89</v>
+      </c>
+      <c r="M46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="9" t="s">
+      <c r="N46" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C47" s="6">
         <v>13700</v>
       </c>
       <c r="D47" s="6">
-        <v>0</v>
+        <v>13700</v>
       </c>
       <c r="E47" s="6">
-        <v>13700</v>
+        <v>0</v>
       </c>
       <c r="F47" s="7">
-        <v>47.02</v>
+        <v>46.5</v>
       </c>
       <c r="G47" s="7">
-        <v>46.632</v>
+        <v>46.629</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>644174</v>
+        <v>637050</v>
       </c>
       <c r="J47" s="7">
-        <v>5310.65</v>
+        <v>-1763.01</v>
       </c>
       <c r="K47" s="7">
-        <v>5310.65</v>
+        <v>-7124</v>
       </c>
       <c r="L47" s="8">
-        <v>0.83</v>
+        <v>-0.28</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>26</v>
@@ -2692,10 +2716,10 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="10">
-        <v>603881</v>
+        <v>601799</v>
       </c>
       <c r="C48" s="10">
         <v>0</v>
@@ -2707,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="11">
-        <v>83.72</v>
+        <v>153.88</v>
       </c>
       <c r="G48" s="11">
         <v>0</v>
@@ -2719,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="J48" s="11">
-        <v>-4385.24</v>
+        <v>9487.75</v>
       </c>
       <c r="K48" s="11">
-        <v>-1006.34</v>
+        <v>-2632.82</v>
       </c>
       <c r="L48" s="9">
         <v>0</v>
@@ -2735,85 +2759,85 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="6">
-        <v>601799</v>
-      </c>
-      <c r="C49" s="6">
-        <v>900</v>
-      </c>
-      <c r="D49" s="6">
-        <v>900</v>
-      </c>
-      <c r="E49" s="6">
-        <v>0</v>
-      </c>
-      <c r="F49" s="7">
-        <v>157.16</v>
-      </c>
-      <c r="G49" s="7">
-        <v>143.693</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>141444</v>
-      </c>
-      <c r="J49" s="7">
-        <v>12120.57</v>
-      </c>
-      <c r="K49" s="7">
-        <v>4842</v>
-      </c>
-      <c r="L49" s="8">
-        <v>9.37</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>23</v>
+      <c r="A49" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="10">
+        <v>300122</v>
+      </c>
+      <c r="C49" s="10">
+        <v>4300</v>
+      </c>
+      <c r="D49" s="10">
+        <v>4300</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>146.68</v>
+      </c>
+      <c r="G49" s="11">
+        <v>145.688</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <v>630724</v>
+      </c>
+      <c r="J49" s="11">
+        <v>4266.79</v>
+      </c>
+      <c r="K49" s="11">
+        <v>7224</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="10">
-        <v>300122</v>
+        <v>93</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="C50" s="10">
-        <v>4300</v>
+        <v>111000</v>
       </c>
       <c r="D50" s="10">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="E50" s="10">
-        <v>100</v>
+        <v>111000</v>
       </c>
       <c r="F50" s="11">
-        <v>145</v>
+        <v>5.79</v>
       </c>
       <c r="G50" s="11">
-        <v>145.688</v>
+        <v>5.754</v>
       </c>
       <c r="H50" s="11">
         <v>0</v>
       </c>
       <c r="I50" s="11">
-        <v>623500</v>
+        <v>642690</v>
       </c>
       <c r="J50" s="11">
-        <v>-2960.38</v>
+        <v>4019.03</v>
       </c>
       <c r="K50" s="11">
-        <v>13025</v>
+        <v>4019.03</v>
       </c>
       <c r="L50" s="9">
-        <v>-0.47</v>
+        <v>0.63</v>
       </c>
       <c r="M50" s="9" t="s">
         <v>26</v>
@@ -2823,129 +2847,129 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="10">
+      <c r="A51" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="6">
         <v>300142</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="6">
         <v>8600</v>
       </c>
-      <c r="D51" s="10">
-        <v>8000</v>
-      </c>
-      <c r="E51" s="10">
-        <v>600</v>
-      </c>
-      <c r="F51" s="11">
-        <v>73.52</v>
-      </c>
-      <c r="G51" s="11">
-        <v>75.363</v>
-      </c>
-      <c r="H51" s="11">
-        <v>0</v>
-      </c>
-      <c r="I51" s="11">
-        <v>632272</v>
-      </c>
-      <c r="J51" s="11">
-        <v>-15847.46</v>
-      </c>
-      <c r="K51" s="11">
-        <v>14778</v>
-      </c>
-      <c r="L51" s="9">
-        <v>-2.45</v>
-      </c>
-      <c r="M51" s="9" t="s">
+      <c r="D51" s="6">
+        <v>8600</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>74.45</v>
+      </c>
+      <c r="G51" s="7">
+        <v>75.361</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>640270</v>
+      </c>
+      <c r="J51" s="7">
+        <v>-7835</v>
+      </c>
+      <c r="K51" s="7">
+        <v>7998</v>
+      </c>
+      <c r="L51" s="8">
+        <v>-1.21</v>
+      </c>
+      <c r="M51" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N51" s="9" t="s">
+      <c r="N51" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="6">
+      <c r="A52" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="10">
         <v>603718</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="10">
         <v>5800</v>
       </c>
-      <c r="D52" s="6">
-        <v>0</v>
-      </c>
-      <c r="E52" s="6">
+      <c r="D52" s="10">
         <v>5800</v>
       </c>
-      <c r="F52" s="7">
-        <v>35.53</v>
-      </c>
-      <c r="G52" s="7">
-        <v>34.931</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>206074</v>
-      </c>
-      <c r="J52" s="7">
-        <v>3475.13</v>
-      </c>
-      <c r="K52" s="7">
-        <v>3475.13</v>
-      </c>
-      <c r="L52" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="M52" s="8" t="s">
+      <c r="E52" s="10">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <v>36.14</v>
+      </c>
+      <c r="G52" s="11">
+        <v>34.926</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
+        <v>209612</v>
+      </c>
+      <c r="J52" s="11">
+        <v>7043.61</v>
+      </c>
+      <c r="K52" s="11">
+        <v>3538</v>
+      </c>
+      <c r="L52" s="9">
+        <v>3.48</v>
+      </c>
+      <c r="M52" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N52" s="8" t="s">
+      <c r="N52" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C53" s="6">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D53" s="6">
         <v>0</v>
       </c>
       <c r="E53" s="6">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F53" s="7">
-        <v>68.95</v>
+        <v>6.57</v>
       </c>
       <c r="G53" s="7">
-        <v>0</v>
+        <v>6.633</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>0</v>
+        <v>2628</v>
       </c>
       <c r="J53" s="7">
-        <v>13719.77</v>
+        <v>-25</v>
       </c>
       <c r="K53" s="7">
-        <v>-230.48</v>
+        <v>-25</v>
       </c>
       <c r="L53" s="8">
-        <v>0</v>
+        <v>-0.95</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>26</v>
@@ -2955,99 +2979,99 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="6">
-        <v>600690</v>
-      </c>
-      <c r="C54" s="6">
-        <v>0</v>
-      </c>
-      <c r="D54" s="6">
-        <v>0</v>
-      </c>
-      <c r="E54" s="6">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7">
-        <v>22.3</v>
-      </c>
-      <c r="G54" s="7">
-        <v>0</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>0</v>
-      </c>
-      <c r="J54" s="7">
-        <v>8521.34</v>
-      </c>
-      <c r="K54" s="7">
-        <v>3053.09</v>
-      </c>
-      <c r="L54" s="8">
-        <v>0</v>
-      </c>
-      <c r="M54" s="8" t="s">
+      <c r="A54" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="10">
+        <v>603069</v>
+      </c>
+      <c r="C54" s="10">
+        <v>9800</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
+      <c r="E54" s="10">
+        <v>9800</v>
+      </c>
+      <c r="F54" s="11">
+        <v>48.8</v>
+      </c>
+      <c r="G54" s="11">
+        <v>47.459</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>478240</v>
+      </c>
+      <c r="J54" s="11">
+        <v>13146.64</v>
+      </c>
+      <c r="K54" s="11">
+        <v>13146.64</v>
+      </c>
+      <c r="L54" s="9">
+        <v>2.83</v>
+      </c>
+      <c r="M54" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N54" s="8" t="s">
+      <c r="N54" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="10">
+      <c r="A55" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="6">
         <v>600585</v>
       </c>
-      <c r="C55" s="10">
-        <v>10100</v>
-      </c>
-      <c r="D55" s="10">
-        <v>10100</v>
-      </c>
-      <c r="E55" s="10">
-        <v>0</v>
-      </c>
-      <c r="F55" s="11">
-        <v>59.45</v>
-      </c>
-      <c r="G55" s="11">
-        <v>61.016</v>
-      </c>
-      <c r="H55" s="11">
-        <v>0</v>
-      </c>
-      <c r="I55" s="11">
-        <v>600445</v>
-      </c>
-      <c r="J55" s="11">
-        <v>-15820.42</v>
-      </c>
-      <c r="K55" s="11">
-        <v>4242</v>
-      </c>
-      <c r="L55" s="9">
-        <v>-2.57</v>
-      </c>
-      <c r="M55" s="9" t="s">
+      <c r="C55" s="6">
+        <v>3400</v>
+      </c>
+      <c r="D55" s="6">
+        <v>3400</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>61.1</v>
+      </c>
+      <c r="G55" s="7">
+        <v>62.144</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>207740</v>
+      </c>
+      <c r="J55" s="7">
+        <v>-3550.55</v>
+      </c>
+      <c r="K55" s="7">
+        <v>12269.87</v>
+      </c>
+      <c r="L55" s="8">
+        <v>-1.68</v>
+      </c>
+      <c r="M55" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N55" s="9" t="s">
+      <c r="N55" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C56" s="10">
         <v>52300</v>
@@ -3059,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="11">
-        <v>10.96</v>
+        <v>11.2</v>
       </c>
       <c r="G56" s="11">
         <v>10.982</v>
@@ -3068,16 +3092,16 @@
         <v>0</v>
       </c>
       <c r="I56" s="11">
-        <v>573208</v>
+        <v>585760</v>
       </c>
       <c r="J56" s="11">
-        <v>-1131.65</v>
+        <v>11420.35</v>
       </c>
       <c r="K56" s="11">
-        <v>-10983</v>
+        <v>12552</v>
       </c>
       <c r="L56" s="9">
-        <v>-0.2</v>
+        <v>1.99</v>
       </c>
       <c r="M56" s="9" t="s">
         <v>26</v>
@@ -3087,149 +3111,149 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="6">
+      <c r="A57" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="10">
         <v>600436</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="10">
         <v>2500</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="10">
         <v>2500</v>
       </c>
-      <c r="E57" s="6">
-        <v>0</v>
-      </c>
-      <c r="F57" s="7">
-        <v>198.39</v>
-      </c>
-      <c r="G57" s="7">
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
+      <c r="F57" s="11">
+        <v>200</v>
+      </c>
+      <c r="G57" s="11">
         <v>196.812</v>
       </c>
-      <c r="H57" s="7">
-        <v>0</v>
-      </c>
-      <c r="I57" s="7">
-        <v>495975</v>
-      </c>
-      <c r="J57" s="7">
-        <v>3944.27</v>
-      </c>
-      <c r="K57" s="7">
-        <v>3725</v>
-      </c>
-      <c r="L57" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="M57" s="8" t="s">
+      <c r="H57" s="11">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11">
+        <v>500000</v>
+      </c>
+      <c r="J57" s="11">
+        <v>7969.27</v>
+      </c>
+      <c r="K57" s="11">
+        <v>4025</v>
+      </c>
+      <c r="L57" s="9">
+        <v>1.62</v>
+      </c>
+      <c r="M57" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N57" s="8" t="s">
+      <c r="N57" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="10">
+      <c r="A58" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="6">
         <v>6700</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="6">
         <v>6700</v>
       </c>
-      <c r="E58" s="10">
-        <v>0</v>
-      </c>
-      <c r="F58" s="11">
-        <v>92.28</v>
-      </c>
-      <c r="G58" s="11">
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>91.71</v>
+      </c>
+      <c r="G58" s="7">
         <v>95.083</v>
       </c>
-      <c r="H58" s="11">
-        <v>0</v>
-      </c>
-      <c r="I58" s="11">
-        <v>618276</v>
-      </c>
-      <c r="J58" s="11">
-        <v>-18776.81</v>
-      </c>
-      <c r="K58" s="11">
-        <v>1876</v>
-      </c>
-      <c r="L58" s="9">
-        <v>-2.95</v>
-      </c>
-      <c r="M58" s="9" t="s">
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>614457</v>
+      </c>
+      <c r="J58" s="7">
+        <v>-22595.81</v>
+      </c>
+      <c r="K58" s="7">
+        <v>-3819</v>
+      </c>
+      <c r="L58" s="8">
+        <v>-3.55</v>
+      </c>
+      <c r="M58" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N58" s="9" t="s">
+      <c r="N58" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B59" s="6">
-        <v>601028</v>
-      </c>
-      <c r="C59" s="6">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6">
-        <v>0</v>
-      </c>
-      <c r="E59" s="6">
-        <v>0</v>
-      </c>
-      <c r="F59" s="7">
-        <v>13.07</v>
-      </c>
-      <c r="G59" s="7">
-        <v>0</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0</v>
-      </c>
-      <c r="I59" s="7">
-        <v>0</v>
-      </c>
-      <c r="J59" s="7">
-        <v>936.6</v>
-      </c>
-      <c r="K59" s="7">
-        <v>469.43</v>
-      </c>
-      <c r="L59" s="8">
-        <v>0</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>23</v>
+      <c r="A59" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="10">
+        <v>34582</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
+        <v>34582</v>
+      </c>
+      <c r="F59" s="11">
+        <v>14.16</v>
+      </c>
+      <c r="G59" s="11">
+        <v>13.99</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+      <c r="I59" s="11">
+        <v>489681.12</v>
+      </c>
+      <c r="J59" s="11">
+        <v>5874.29</v>
+      </c>
+      <c r="K59" s="11">
+        <v>5874.29</v>
+      </c>
+      <c r="L59" s="9">
+        <v>1.22</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C60" s="13">
-        <v>620000</v>
+        <v>647000</v>
       </c>
       <c r="D60" s="13">
-        <v>620000</v>
+        <v>647000</v>
       </c>
       <c r="E60" s="13">
         <v>0</v>
@@ -3264,436 +3288,436 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="B61" s="10">
+        <v>600496</v>
       </c>
       <c r="C61" s="10">
-        <v>0</v>
+        <v>32100</v>
       </c>
       <c r="D61" s="10">
         <v>0</v>
       </c>
       <c r="E61" s="10">
-        <v>0</v>
+        <v>32100</v>
       </c>
       <c r="F61" s="11">
-        <v>10.86</v>
+        <v>6.73</v>
       </c>
       <c r="G61" s="11">
-        <v>0</v>
+        <v>6.441</v>
       </c>
       <c r="H61" s="11">
         <v>0</v>
       </c>
       <c r="I61" s="11">
-        <v>0</v>
+        <v>216033</v>
       </c>
       <c r="J61" s="11">
-        <v>-44724.43</v>
+        <v>9278.02</v>
       </c>
       <c r="K61" s="11">
-        <v>-3943.03</v>
+        <v>9278.02</v>
       </c>
       <c r="L61" s="9">
-        <v>0</v>
+        <v>4.49</v>
       </c>
       <c r="M61" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="10">
+        <v>600337</v>
+      </c>
+      <c r="C62" s="10">
+        <v>13700</v>
+      </c>
+      <c r="D62" s="10">
+        <v>13700</v>
+      </c>
+      <c r="E62" s="10">
+        <v>0</v>
+      </c>
+      <c r="F62" s="11">
+        <v>5.92</v>
+      </c>
+      <c r="G62" s="11">
+        <v>1.201</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
+      </c>
+      <c r="I62" s="11">
+        <v>81104</v>
+      </c>
+      <c r="J62" s="11">
+        <v>64649.38</v>
+      </c>
+      <c r="K62" s="11">
+        <v>18622.78</v>
+      </c>
+      <c r="L62" s="9">
+        <v>392.92</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="10">
+        <v>0</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10">
+        <v>0</v>
+      </c>
+      <c r="F63" s="11">
+        <v>72.13</v>
+      </c>
+      <c r="G63" s="11">
+        <v>0</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0</v>
+      </c>
+      <c r="I63" s="11">
+        <v>0</v>
+      </c>
+      <c r="J63" s="11">
+        <v>23289.3</v>
+      </c>
+      <c r="K63" s="11">
+        <v>9005.9</v>
+      </c>
+      <c r="L63" s="9">
+        <v>0</v>
+      </c>
+      <c r="M63" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N61" s="9" t="s">
+      <c r="N63" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" s="6">
-        <v>600337</v>
-      </c>
-      <c r="C62" s="6">
-        <v>81800</v>
-      </c>
-      <c r="D62" s="6">
-        <v>81800</v>
-      </c>
-      <c r="E62" s="6">
-        <v>0</v>
-      </c>
-      <c r="F62" s="7">
-        <v>5.65</v>
-      </c>
-      <c r="G62" s="7">
-        <v>5.087</v>
-      </c>
-      <c r="H62" s="7">
-        <v>0</v>
-      </c>
-      <c r="I62" s="7">
-        <v>462170</v>
-      </c>
-      <c r="J62" s="7">
-        <v>46026.6</v>
-      </c>
-      <c r="K62" s="7">
-        <v>9816</v>
-      </c>
-      <c r="L62" s="8">
-        <v>11.07</v>
-      </c>
-      <c r="M62" s="8" t="s">
+    <row r="64" spans="1:14">
+      <c r="A64" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="6">
+        <v>300125</v>
+      </c>
+      <c r="C64" s="6">
+        <v>800</v>
+      </c>
+      <c r="D64" s="6">
+        <v>800</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>17.89</v>
+      </c>
+      <c r="G64" s="7">
+        <v>18.21</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>14312</v>
+      </c>
+      <c r="J64" s="7">
+        <v>-255.89</v>
+      </c>
+      <c r="K64" s="7">
+        <v>-8</v>
+      </c>
+      <c r="L64" s="8">
+        <v>-1.76</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="10">
+        <v>600391</v>
+      </c>
+      <c r="C65" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D65" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E65" s="10">
+        <v>0</v>
+      </c>
+      <c r="F65" s="11">
+        <v>31.82</v>
+      </c>
+      <c r="G65" s="11">
+        <v>30.306</v>
+      </c>
+      <c r="H65" s="11">
+        <v>0</v>
+      </c>
+      <c r="I65" s="11">
+        <v>31820</v>
+      </c>
+      <c r="J65" s="11">
+        <v>1513.76</v>
+      </c>
+      <c r="K65" s="11">
+        <v>640</v>
+      </c>
+      <c r="L65" s="9">
+        <v>5</v>
+      </c>
+      <c r="M65" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="8" t="s">
+      <c r="N65" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C63" s="6">
-        <v>8700</v>
-      </c>
-      <c r="D63" s="6">
-        <v>8700</v>
-      </c>
-      <c r="E63" s="6">
-        <v>0</v>
-      </c>
-      <c r="F63" s="7">
-        <v>72.04</v>
-      </c>
-      <c r="G63" s="7">
-        <v>70.398</v>
-      </c>
-      <c r="H63" s="7">
-        <v>0</v>
-      </c>
-      <c r="I63" s="7">
-        <v>626748</v>
-      </c>
-      <c r="J63" s="7">
-        <v>14283.4</v>
-      </c>
-      <c r="K63" s="7">
-        <v>17661</v>
-      </c>
-      <c r="L63" s="8">
-        <v>2.33</v>
-      </c>
-      <c r="M63" s="8" t="s">
+    <row r="66" spans="1:14">
+      <c r="A66" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="10">
+        <v>3900</v>
+      </c>
+      <c r="D66" s="10">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="10">
+        <v>0</v>
+      </c>
+      <c r="F66" s="11">
+        <v>13.55</v>
+      </c>
+      <c r="G66" s="11">
+        <v>12.292</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0</v>
+      </c>
+      <c r="I66" s="11">
+        <v>52845</v>
+      </c>
+      <c r="J66" s="11">
+        <v>4907.77</v>
+      </c>
+      <c r="K66" s="11">
+        <v>3510</v>
+      </c>
+      <c r="L66" s="9">
+        <v>10.23</v>
+      </c>
+      <c r="M66" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N63" s="8" t="s">
+      <c r="N66" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" s="10">
-        <v>300125</v>
-      </c>
-      <c r="C64" s="10">
-        <v>800</v>
-      </c>
-      <c r="D64" s="10">
-        <v>800</v>
-      </c>
-      <c r="E64" s="10">
-        <v>0</v>
-      </c>
-      <c r="F64" s="11">
-        <v>17.9</v>
-      </c>
-      <c r="G64" s="11">
-        <v>18.21</v>
-      </c>
-      <c r="H64" s="11">
-        <v>0</v>
-      </c>
-      <c r="I64" s="11">
-        <v>14320</v>
-      </c>
-      <c r="J64" s="11">
-        <v>-247.89</v>
-      </c>
-      <c r="K64" s="11">
-        <v>-488</v>
-      </c>
-      <c r="L64" s="9">
-        <v>-1.7</v>
-      </c>
-      <c r="M64" s="9" t="s">
+    <row r="67" spans="1:14">
+      <c r="A67" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="10">
+        <v>300677</v>
+      </c>
+      <c r="C67" s="10">
+        <v>3700</v>
+      </c>
+      <c r="D67" s="10">
+        <v>3700</v>
+      </c>
+      <c r="E67" s="10">
+        <v>0</v>
+      </c>
+      <c r="F67" s="11">
+        <v>158.48</v>
+      </c>
+      <c r="G67" s="11">
+        <v>155.6</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
+      <c r="I67" s="11">
+        <v>586376</v>
+      </c>
+      <c r="J67" s="11">
+        <v>10655.2</v>
+      </c>
+      <c r="K67" s="11">
+        <v>8399</v>
+      </c>
+      <c r="L67" s="9">
+        <v>1.85</v>
+      </c>
+      <c r="M67" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N64" s="9" t="s">
+      <c r="N67" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" s="6">
-        <v>600391</v>
-      </c>
-      <c r="C65" s="6">
-        <v>1000</v>
-      </c>
-      <c r="D65" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E65" s="6">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7">
-        <v>31.18</v>
-      </c>
-      <c r="G65" s="7">
-        <v>30.317</v>
-      </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="7">
-        <v>31180</v>
-      </c>
-      <c r="J65" s="7">
-        <v>862.84</v>
-      </c>
-      <c r="K65" s="7">
-        <v>931.06</v>
-      </c>
-      <c r="L65" s="8">
-        <v>2.85</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N65" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" s="6">
-        <v>3900</v>
-      </c>
-      <c r="D66" s="6">
-        <v>0</v>
-      </c>
-      <c r="E66" s="6">
-        <v>3900</v>
-      </c>
-      <c r="F66" s="7">
-        <v>12.65</v>
-      </c>
-      <c r="G66" s="7">
-        <v>12.292</v>
-      </c>
-      <c r="H66" s="7">
-        <v>0</v>
-      </c>
-      <c r="I66" s="7">
-        <v>49335</v>
-      </c>
-      <c r="J66" s="7">
-        <v>1397.77</v>
-      </c>
-      <c r="K66" s="7">
-        <v>1397.77</v>
-      </c>
-      <c r="L66" s="8">
-        <v>2.91</v>
-      </c>
-      <c r="M66" s="8" t="s">
+    <row r="68" spans="1:14">
+      <c r="A68" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="10">
+        <v>300087</v>
+      </c>
+      <c r="C68" s="10">
+        <v>6200</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0</v>
+      </c>
+      <c r="E68" s="10">
+        <v>6200</v>
+      </c>
+      <c r="F68" s="11">
+        <v>21.03</v>
+      </c>
+      <c r="G68" s="11">
+        <v>20.968</v>
+      </c>
+      <c r="H68" s="11">
+        <v>0</v>
+      </c>
+      <c r="I68" s="11">
+        <v>130386</v>
+      </c>
+      <c r="J68" s="11">
+        <v>383</v>
+      </c>
+      <c r="K68" s="11">
+        <v>383</v>
+      </c>
+      <c r="L68" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="M68" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N66" s="8" t="s">
+      <c r="N68" s="9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B67" s="6">
-        <v>300677</v>
-      </c>
-      <c r="C67" s="6">
-        <v>3700</v>
-      </c>
-      <c r="D67" s="6">
-        <v>3700</v>
-      </c>
-      <c r="E67" s="6">
-        <v>0</v>
-      </c>
-      <c r="F67" s="7">
-        <v>156.21</v>
-      </c>
-      <c r="G67" s="7">
-        <v>155.6</v>
-      </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
-      <c r="I67" s="7">
-        <v>577977</v>
-      </c>
-      <c r="J67" s="7">
-        <v>2256.2</v>
-      </c>
-      <c r="K67" s="7">
-        <v>-8584</v>
-      </c>
-      <c r="L67" s="8">
-        <v>0.39</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N67" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" s="6">
-        <v>600211</v>
-      </c>
-      <c r="C68" s="6">
-        <v>5200</v>
-      </c>
-      <c r="D68" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E68" s="6">
-        <v>4000</v>
-      </c>
-      <c r="F68" s="7">
-        <v>118.23</v>
-      </c>
-      <c r="G68" s="7">
-        <v>115.053</v>
-      </c>
-      <c r="H68" s="7">
-        <v>0</v>
-      </c>
-      <c r="I68" s="7">
-        <v>614796</v>
-      </c>
-      <c r="J68" s="7">
-        <v>16520.31</v>
-      </c>
-      <c r="K68" s="7">
-        <v>11459.86</v>
-      </c>
-      <c r="L68" s="8">
-        <v>2.76</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N68" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="B69" s="10">
+        <v>600211</v>
       </c>
       <c r="C69" s="10">
-        <v>2300</v>
+        <v>5200</v>
       </c>
       <c r="D69" s="10">
-        <v>2300</v>
+        <v>5200</v>
       </c>
       <c r="E69" s="10">
         <v>0</v>
       </c>
       <c r="F69" s="11">
-        <v>100.33</v>
+        <v>122.15</v>
       </c>
       <c r="G69" s="11">
-        <v>104.425</v>
+        <v>115.048</v>
       </c>
       <c r="H69" s="11">
         <v>0</v>
       </c>
       <c r="I69" s="11">
-        <v>230759</v>
+        <v>635180</v>
       </c>
       <c r="J69" s="11">
-        <v>-9419.31</v>
+        <v>36930.28</v>
       </c>
       <c r="K69" s="11">
-        <v>6900</v>
+        <v>20384</v>
       </c>
       <c r="L69" s="9">
-        <v>-3.92</v>
+        <v>6.17</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N69" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C70" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="D70" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="6">
         <v>0</v>
       </c>
       <c r="F70" s="7">
-        <v>78.1</v>
+        <v>100.56</v>
       </c>
       <c r="G70" s="7">
-        <v>73.576</v>
+        <v>0</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>624800</v>
+        <v>0</v>
       </c>
       <c r="J70" s="7">
-        <v>36191.67</v>
+        <v>-5872.99</v>
       </c>
       <c r="K70" s="7">
-        <v>20160</v>
+        <v>3546.32</v>
       </c>
       <c r="L70" s="8">
-        <v>6.15</v>
+        <v>0</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>26</v>
@@ -3704,172 +3728,172 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B71" s="10">
-        <v>600519</v>
+        <v>123</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="C71" s="10">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="D71" s="10">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="E71" s="10">
         <v>0</v>
       </c>
       <c r="F71" s="11">
-        <v>1661</v>
+        <v>75.36</v>
       </c>
       <c r="G71" s="11">
-        <v>0</v>
+        <v>73.576</v>
       </c>
       <c r="H71" s="11">
         <v>0</v>
       </c>
       <c r="I71" s="11">
-        <v>0</v>
+        <v>602880</v>
       </c>
       <c r="J71" s="11">
-        <v>-1224.29</v>
+        <v>14271.67</v>
       </c>
       <c r="K71" s="11">
-        <v>4638.68</v>
+        <v>-21920</v>
       </c>
       <c r="L71" s="9">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="M71" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="10">
+        <v>600988</v>
+      </c>
+      <c r="C72" s="10">
+        <v>26800</v>
+      </c>
+      <c r="D72" s="10">
+        <v>23200</v>
+      </c>
+      <c r="E72" s="10">
+        <v>3600</v>
+      </c>
+      <c r="F72" s="11">
+        <v>21.5</v>
+      </c>
+      <c r="G72" s="11">
+        <v>19.543</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0</v>
+      </c>
+      <c r="I72" s="11">
+        <v>576200</v>
+      </c>
+      <c r="J72" s="11">
+        <v>52455.51</v>
+      </c>
+      <c r="K72" s="11">
+        <v>49576.41</v>
+      </c>
+      <c r="L72" s="9">
+        <v>10.01</v>
+      </c>
+      <c r="M72" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N71" s="9" t="s">
+      <c r="N72" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B72" s="6">
-        <v>600988</v>
-      </c>
-      <c r="C72" s="6">
-        <v>23300</v>
-      </c>
-      <c r="D72" s="6">
-        <v>0</v>
-      </c>
-      <c r="E72" s="6">
-        <v>23300</v>
-      </c>
-      <c r="F72" s="7">
-        <v>19.55</v>
-      </c>
-      <c r="G72" s="7">
-        <v>19.428</v>
-      </c>
-      <c r="H72" s="7">
-        <v>0</v>
-      </c>
-      <c r="I72" s="7">
-        <v>455515</v>
-      </c>
-      <c r="J72" s="7">
-        <v>2837.61</v>
-      </c>
-      <c r="K72" s="7">
-        <v>2837.61</v>
-      </c>
-      <c r="L72" s="8">
-        <v>0.63</v>
-      </c>
-      <c r="M72" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N72" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B73" s="10">
+      <c r="A73" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" s="6">
         <v>300760</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="6">
         <v>1900</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="6">
         <v>1900</v>
       </c>
-      <c r="E73" s="10">
-        <v>0</v>
-      </c>
-      <c r="F73" s="11">
-        <v>315.72</v>
-      </c>
-      <c r="G73" s="11">
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>314</v>
+      </c>
+      <c r="G73" s="7">
         <v>329.261</v>
       </c>
-      <c r="H73" s="11">
-        <v>0</v>
-      </c>
-      <c r="I73" s="11">
-        <v>599868</v>
-      </c>
-      <c r="J73" s="11">
-        <v>-25728.29</v>
-      </c>
-      <c r="K73" s="11">
-        <v>5168</v>
-      </c>
-      <c r="L73" s="9">
-        <v>-4.11</v>
-      </c>
-      <c r="M73" s="9" t="s">
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>596600</v>
+      </c>
+      <c r="J73" s="7">
+        <v>-28996.29</v>
+      </c>
+      <c r="K73" s="7">
+        <v>-3268</v>
+      </c>
+      <c r="L73" s="8">
+        <v>-4.63</v>
+      </c>
+      <c r="M73" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N73" s="9" t="s">
+      <c r="N73" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C74" s="10">
-        <v>30000</v>
+        <v>30300</v>
       </c>
       <c r="D74" s="10">
         <v>30000</v>
       </c>
       <c r="E74" s="10">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F74" s="11">
-        <v>11.88</v>
+        <v>12.29</v>
       </c>
       <c r="G74" s="11">
-        <v>11.907</v>
+        <v>11.912</v>
       </c>
       <c r="H74" s="11">
         <v>0</v>
       </c>
       <c r="I74" s="11">
-        <v>356400</v>
+        <v>372387</v>
       </c>
       <c r="J74" s="11">
-        <v>-811.42</v>
+        <v>11465.58</v>
       </c>
       <c r="K74" s="11">
-        <v>3600</v>
+        <v>12277</v>
       </c>
       <c r="L74" s="9">
-        <v>-0.23</v>
+        <v>3.17</v>
       </c>
       <c r="M74" s="9" t="s">
         <v>26</v>
@@ -3879,266 +3903,398 @@
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" s="10">
-        <v>1300</v>
-      </c>
-      <c r="D75" s="10">
-        <v>1300</v>
-      </c>
-      <c r="E75" s="10">
-        <v>0</v>
-      </c>
-      <c r="F75" s="11">
-        <v>452.51</v>
-      </c>
-      <c r="G75" s="11">
-        <v>490.456</v>
-      </c>
-      <c r="H75" s="11">
-        <v>0</v>
-      </c>
-      <c r="I75" s="11">
-        <v>588263</v>
-      </c>
-      <c r="J75" s="11">
-        <v>-49329.81</v>
-      </c>
-      <c r="K75" s="11">
-        <v>2548</v>
-      </c>
-      <c r="L75" s="9">
-        <v>-7.74</v>
-      </c>
-      <c r="M75" s="9" t="s">
+      <c r="A75" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="6">
+        <v>13400</v>
+      </c>
+      <c r="D75" s="6">
+        <v>0</v>
+      </c>
+      <c r="E75" s="6">
+        <v>13400</v>
+      </c>
+      <c r="F75" s="7">
+        <v>47.29</v>
+      </c>
+      <c r="G75" s="7">
+        <v>47.415</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0</v>
+      </c>
+      <c r="I75" s="7">
+        <v>633686</v>
+      </c>
+      <c r="J75" s="7">
+        <v>-1673.23</v>
+      </c>
+      <c r="K75" s="7">
+        <v>-1673.23</v>
+      </c>
+      <c r="L75" s="8">
+        <v>-0.26</v>
+      </c>
+      <c r="M75" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N75" s="9" t="s">
+      <c r="N75" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B76" s="6">
-        <v>601012</v>
+        <v>131</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="C76" s="6">
-        <v>10800</v>
+        <v>0</v>
       </c>
       <c r="D76" s="6">
-        <v>10800</v>
+        <v>0</v>
       </c>
       <c r="E76" s="6">
         <v>0</v>
       </c>
       <c r="F76" s="7">
-        <v>56.35</v>
+        <v>456.98</v>
       </c>
       <c r="G76" s="7">
-        <v>55.377</v>
+        <v>0</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
       </c>
       <c r="I76" s="7">
-        <v>608580</v>
+        <v>0</v>
       </c>
       <c r="J76" s="7">
-        <v>10506.33</v>
+        <v>-47856.98</v>
       </c>
       <c r="K76" s="7">
-        <v>2808</v>
+        <v>1472.83</v>
       </c>
       <c r="L76" s="8">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B77" s="10">
-        <v>603501</v>
+        <v>300115</v>
       </c>
       <c r="C77" s="10">
-        <v>2100</v>
+        <v>7400</v>
       </c>
       <c r="D77" s="10">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="E77" s="10">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="F77" s="11">
-        <v>186.28</v>
+        <v>24.05</v>
       </c>
       <c r="G77" s="11">
-        <v>205.427</v>
+        <v>23.968</v>
       </c>
       <c r="H77" s="11">
         <v>0</v>
       </c>
       <c r="I77" s="11">
-        <v>391188</v>
+        <v>177970</v>
       </c>
       <c r="J77" s="11">
-        <v>-40207.68</v>
+        <v>604.95</v>
       </c>
       <c r="K77" s="11">
-        <v>6951</v>
+        <v>604.95</v>
       </c>
       <c r="L77" s="9">
-        <v>-9.32</v>
+        <v>0.34</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="B78" s="10">
+        <v>601012</v>
       </c>
       <c r="C78" s="10">
-        <v>400</v>
+        <v>10800</v>
       </c>
       <c r="D78" s="10">
-        <v>400</v>
+        <v>10800</v>
       </c>
       <c r="E78" s="10">
         <v>0</v>
       </c>
       <c r="F78" s="11">
-        <v>66.2</v>
+        <v>56.02</v>
       </c>
       <c r="G78" s="11">
-        <v>130.659</v>
+        <v>55.377</v>
       </c>
       <c r="H78" s="11">
         <v>0</v>
       </c>
       <c r="I78" s="11">
-        <v>26480</v>
+        <v>605016</v>
       </c>
       <c r="J78" s="11">
-        <v>-25783.69</v>
+        <v>6942.33</v>
       </c>
       <c r="K78" s="11">
-        <v>699.67</v>
+        <v>-3564</v>
       </c>
       <c r="L78" s="9">
-        <v>-49.33</v>
+        <v>1.16</v>
       </c>
       <c r="M78" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="10">
+        <v>6400</v>
+      </c>
+      <c r="D79" s="10">
+        <v>0</v>
+      </c>
+      <c r="E79" s="10">
+        <v>6400</v>
+      </c>
+      <c r="F79" s="11">
+        <v>6.58</v>
+      </c>
+      <c r="G79" s="11">
+        <v>6.44</v>
+      </c>
+      <c r="H79" s="11">
+        <v>0</v>
+      </c>
+      <c r="I79" s="11">
+        <v>42112</v>
+      </c>
+      <c r="J79" s="11">
+        <v>894</v>
+      </c>
+      <c r="K79" s="11">
+        <v>894</v>
+      </c>
+      <c r="L79" s="9">
+        <v>2.17</v>
+      </c>
+      <c r="M79" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N78" s="9" t="s">
+      <c r="N79" s="9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B79" s="6">
-        <v>600723</v>
-      </c>
-      <c r="C79" s="6">
-        <v>23600</v>
-      </c>
-      <c r="D79" s="6">
-        <v>23600</v>
-      </c>
-      <c r="E79" s="6">
-        <v>0</v>
-      </c>
-      <c r="F79" s="7">
-        <v>11.39</v>
-      </c>
-      <c r="G79" s="7">
-        <v>11.098</v>
-      </c>
-      <c r="H79" s="7">
-        <v>0</v>
-      </c>
-      <c r="I79" s="7">
-        <v>268804</v>
-      </c>
-      <c r="J79" s="7">
-        <v>6880.71</v>
-      </c>
-      <c r="K79" s="7">
-        <v>944</v>
-      </c>
-      <c r="L79" s="8">
-        <v>2.63</v>
-      </c>
-      <c r="M79" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N79" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B80" s="6">
+        <v>603501</v>
+      </c>
+      <c r="C80" s="6">
+        <v>2100</v>
+      </c>
+      <c r="D80" s="6">
+        <v>2100</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>183.71</v>
+      </c>
+      <c r="G80" s="7">
+        <v>205.427</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>385791</v>
+      </c>
+      <c r="J80" s="7">
+        <v>-45604.68</v>
+      </c>
+      <c r="K80" s="7">
+        <v>-5397</v>
+      </c>
+      <c r="L80" s="8">
+        <v>-10.57</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" s="6">
+        <v>0</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>66.4</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0</v>
+      </c>
+      <c r="J81" s="7">
+        <v>-25396.38</v>
+      </c>
+      <c r="K81" s="7">
+        <v>224.27</v>
+      </c>
+      <c r="L81" s="8">
+        <v>0</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" s="10">
+        <v>600723</v>
+      </c>
+      <c r="C82" s="10">
+        <v>23600</v>
+      </c>
+      <c r="D82" s="10">
+        <v>23600</v>
+      </c>
+      <c r="E82" s="10">
+        <v>0</v>
+      </c>
+      <c r="F82" s="11">
+        <v>11.59</v>
+      </c>
+      <c r="G82" s="11">
+        <v>11.098</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0</v>
+      </c>
+      <c r="I82" s="11">
+        <v>273524</v>
+      </c>
+      <c r="J82" s="11">
+        <v>11600.71</v>
+      </c>
+      <c r="K82" s="11">
+        <v>4720</v>
+      </c>
+      <c r="L82" s="9">
+        <v>4.43</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="10">
         <v>300423</v>
       </c>
-      <c r="C80" s="6">
-        <v>4800</v>
-      </c>
-      <c r="D80" s="6">
-        <v>4800</v>
-      </c>
-      <c r="E80" s="6">
-        <v>0</v>
-      </c>
-      <c r="F80" s="7">
-        <v>14.7</v>
-      </c>
-      <c r="G80" s="7">
-        <v>13.662</v>
-      </c>
-      <c r="H80" s="7">
-        <v>0</v>
-      </c>
-      <c r="I80" s="7">
-        <v>70560</v>
-      </c>
-      <c r="J80" s="7">
-        <v>4983.48</v>
-      </c>
-      <c r="K80" s="7">
-        <v>1728</v>
-      </c>
-      <c r="L80" s="8">
-        <v>7.6</v>
-      </c>
-      <c r="M80" s="8" t="s">
+      <c r="C83" s="10">
+        <v>2500</v>
+      </c>
+      <c r="D83" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E83" s="10">
+        <v>0</v>
+      </c>
+      <c r="F83" s="11">
+        <v>14.93</v>
+      </c>
+      <c r="G83" s="11">
+        <v>12.717</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0</v>
+      </c>
+      <c r="I83" s="11">
+        <v>37325</v>
+      </c>
+      <c r="J83" s="11">
+        <v>5531.64</v>
+      </c>
+      <c r="K83" s="11">
+        <v>548.16</v>
+      </c>
+      <c r="L83" s="9">
+        <v>17.4</v>
+      </c>
+      <c r="M83" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N80" s="8" t="s">
+      <c r="N83" s="9" t="s">
         <v>25</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
+++ b/data/trdrec_from_trdclient/908_c_hait_8888.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="136">
   <si>
     <t>资金</t>
   </si>
@@ -142,16 +142,16 @@
     <t>000100</t>
   </si>
   <si>
-    <t>一汽富维</t>
+    <t>东凌国际</t>
+  </si>
+  <si>
+    <t>000893</t>
   </si>
   <si>
     <t>东富龙</t>
   </si>
   <si>
-    <t>东诚药业</t>
-  </si>
-  <si>
-    <t>002675</t>
+    <t>中国中免</t>
   </si>
   <si>
     <t>中国人寿</t>
@@ -160,6 +160,9 @@
     <t>中国卫星</t>
   </si>
   <si>
+    <t>中国核建</t>
+  </si>
+  <si>
     <t>中海达</t>
   </si>
   <si>
@@ -187,13 +190,7 @@
     <t>仙鹤股份</t>
   </si>
   <si>
-    <t>伊利股份</t>
-  </si>
-  <si>
-    <t>光启技术</t>
-  </si>
-  <si>
-    <t>002625</t>
+    <t>内蒙一机</t>
   </si>
   <si>
     <t>分众传媒</t>
@@ -214,9 +211,6 @@
     <t>华宝添益</t>
   </si>
   <si>
-    <t>同仁堂</t>
-  </si>
-  <si>
     <t>君正集团</t>
   </si>
   <si>
@@ -226,9 +220,6 @@
     <t>天坛生物</t>
   </si>
   <si>
-    <t>安琪酵母</t>
-  </si>
-  <si>
     <t>宝丰能源</t>
   </si>
   <si>
@@ -256,12 +247,6 @@
     <t>康跃科技</t>
   </si>
   <si>
-    <t>康龙化成</t>
-  </si>
-  <si>
-    <t>恒通科技</t>
-  </si>
-  <si>
     <t>恩华药业</t>
   </si>
   <si>
@@ -277,6 +262,12 @@
     <t>新安股份</t>
   </si>
   <si>
+    <t>日科化学</t>
+  </si>
+  <si>
+    <t>星云股份</t>
+  </si>
+  <si>
     <t>智飞生物</t>
   </si>
   <si>
@@ -286,7 +277,10 @@
     <t>002340</t>
   </si>
   <si>
-    <t>沃森生物</t>
+    <t>正川股份</t>
+  </si>
+  <si>
+    <t>派思股份</t>
   </si>
   <si>
     <t>海利生物</t>
@@ -313,9 +307,6 @@
     <t>海汽集团</t>
   </si>
   <si>
-    <t>海螺水泥</t>
-  </si>
-  <si>
     <t>爱施德</t>
   </si>
   <si>
@@ -346,10 +337,16 @@
     <t>精工钢构</t>
   </si>
   <si>
+    <t>罗莱生活</t>
+  </si>
+  <si>
+    <t>002293</t>
+  </si>
+  <si>
     <t>美克家居</t>
   </si>
   <si>
-    <t>聆达股份</t>
+    <t>航发动力</t>
   </si>
   <si>
     <t>航发科技</t>
@@ -367,9 +364,6 @@
     <t>英科医疗</t>
   </si>
   <si>
-    <t>荃银高科</t>
-  </si>
-  <si>
     <t>西藏药业</t>
   </si>
   <si>
@@ -394,6 +388,12 @@
     <t>000987</t>
   </si>
   <si>
+    <t>辉隆股份</t>
+  </si>
+  <si>
+    <t>002556</t>
+  </si>
+  <si>
     <t>迈瑞医疗</t>
   </si>
   <si>
@@ -412,9 +412,6 @@
     <t>长盈精密</t>
   </si>
   <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
     <t>露笑科技</t>
   </si>
   <si>
@@ -422,9 +419,6 @@
   </si>
   <si>
     <t>韦尔股份</t>
-  </si>
-  <si>
-    <t>首商股份</t>
   </si>
   <si>
     <t>鲁亿通</t>
@@ -447,12 +441,12 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFCA4949"/>
+      <color rgb="FF007AD0"/>
       <name val="SimSun"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF007AD0"/>
+      <color rgb="FFCA4949"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -819,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -899,28 +893,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>1382929.17</v>
+        <v>2096177.15</v>
       </c>
       <c r="D3" s="3">
-        <v>2094807.96</v>
+        <v>2099662.76</v>
       </c>
       <c r="E3" s="3">
-        <v>1382929.17</v>
+        <v>2096177.15</v>
       </c>
       <c r="F3" s="3">
-        <v>-711878.79</v>
+        <v>-3485.61</v>
       </c>
       <c r="G3" s="3">
-        <v>20765580.07</v>
+        <v>19949473.53</v>
       </c>
       <c r="H3" s="3">
-        <v>22860388.03</v>
+        <v>22049136.29</v>
       </c>
       <c r="I3" s="3">
-        <v>535157.7</v>
+        <v>-349637.17</v>
       </c>
       <c r="J3" s="3">
-        <v>173851.68</v>
+        <v>-812620.93</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1027,10 +1021,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>672000</v>
+        <v>674000</v>
       </c>
       <c r="C8" s="3">
-        <v>672000</v>
+        <v>674500</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1044,7 +1038,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>1357500</v>
+        <v>1366000</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1135,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>6.74</v>
+        <v>6.53</v>
       </c>
       <c r="G12" s="7">
         <v>6.696</v>
@@ -1144,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>665912</v>
+        <v>645164</v>
       </c>
       <c r="J12" s="7">
-        <v>4302</v>
+        <v>-16446</v>
       </c>
       <c r="K12" s="7">
-        <v>8892</v>
+        <v>-20748</v>
       </c>
       <c r="L12" s="8">
-        <v>0.66</v>
+        <v>-2.48</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>26</v>
@@ -1166,49 +1160,49 @@
       <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="6">
-        <v>600742</v>
+      <c r="B13" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C13" s="6">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="D13" s="6">
         <v>0</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="F13" s="7">
-        <v>11.74</v>
+        <v>9.76</v>
       </c>
       <c r="G13" s="7">
-        <v>0</v>
+        <v>9.909</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>87840</v>
       </c>
       <c r="J13" s="7">
-        <v>8601.23</v>
+        <v>-1344</v>
       </c>
       <c r="K13" s="7">
-        <v>-1889.96</v>
+        <v>-1344</v>
       </c>
       <c r="L13" s="8">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="6">
         <v>300171</v>
@@ -1217,31 +1211,31 @@
         <v>700</v>
       </c>
       <c r="D14" s="6">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E14" s="6">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>21.26</v>
+        <v>20.2</v>
       </c>
       <c r="G14" s="7">
-        <v>20.607</v>
+        <v>20.603</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>14882</v>
+        <v>14140</v>
       </c>
       <c r="J14" s="7">
-        <v>457</v>
+        <v>-281.87</v>
       </c>
       <c r="K14" s="7">
-        <v>457</v>
+        <v>-742</v>
       </c>
       <c r="L14" s="8">
-        <v>3.17</v>
+        <v>-1.96</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>26</v>
@@ -1252,46 +1246,46 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="B15" s="6">
+        <v>601888</v>
+      </c>
       <c r="C15" s="6">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="D15" s="6">
         <v>0</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="F15" s="7">
-        <v>26.1</v>
+        <v>200</v>
       </c>
       <c r="G15" s="7">
-        <v>0</v>
+        <v>200.153</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>580000</v>
       </c>
       <c r="J15" s="7">
-        <v>8242.8</v>
+        <v>-443.83</v>
       </c>
       <c r="K15" s="7">
-        <v>6591.51</v>
+        <v>-443.83</v>
       </c>
       <c r="L15" s="8">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1302,34 +1296,34 @@
         <v>601628</v>
       </c>
       <c r="C16" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D16" s="6">
         <v>0</v>
       </c>
       <c r="E16" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>49.49</v>
+        <v>45.76</v>
       </c>
       <c r="G16" s="7">
-        <v>47.791</v>
+        <v>0</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>4949</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7">
-        <v>169.9</v>
+        <v>-136.46</v>
       </c>
       <c r="K16" s="7">
-        <v>169.9</v>
+        <v>-310.74</v>
       </c>
       <c r="L16" s="8">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>24</v>
@@ -1349,31 +1343,31 @@
         <v>800</v>
       </c>
       <c r="D17" s="10">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E17" s="10">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F17" s="11">
-        <v>41.25</v>
+        <v>45.38</v>
       </c>
       <c r="G17" s="11">
-        <v>42.027</v>
+        <v>42.026</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
       </c>
       <c r="I17" s="11">
-        <v>33000</v>
+        <v>36304</v>
       </c>
       <c r="J17" s="11">
-        <v>-621.67</v>
+        <v>2682.96</v>
       </c>
       <c r="K17" s="11">
-        <v>-621.67</v>
+        <v>3304</v>
       </c>
       <c r="L17" s="9">
-        <v>-1.85</v>
+        <v>7.98</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>24</v>
@@ -1383,134 +1377,134 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="6">
+        <v>601611</v>
+      </c>
+      <c r="C18" s="6">
+        <v>10800</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>10800</v>
+      </c>
+      <c r="F18" s="7">
+        <v>9.36</v>
+      </c>
+      <c r="G18" s="7">
+        <v>9.983</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>101088</v>
+      </c>
+      <c r="J18" s="7">
+        <v>-6729.48</v>
+      </c>
+      <c r="K18" s="7">
+        <v>-6729.48</v>
+      </c>
+      <c r="L18" s="8">
+        <v>-6.24</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="6">
         <v>300177</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C19" s="6">
         <v>50400</v>
       </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D19" s="6">
         <v>50400</v>
       </c>
-      <c r="F18" s="11">
-        <v>11.51</v>
-      </c>
-      <c r="G18" s="11">
-        <v>11.746</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
-        <v>580104</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-11870</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-11870</v>
-      </c>
-      <c r="L18" s="9">
-        <v>-2.01</v>
-      </c>
-      <c r="M18" s="9" t="s">
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>11.06</v>
+      </c>
+      <c r="G19" s="7">
+        <v>11.744</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>557424</v>
+      </c>
+      <c r="J19" s="7">
+        <v>-34466.93</v>
+      </c>
+      <c r="K19" s="7">
+        <v>-22680</v>
+      </c>
+      <c r="L19" s="8">
+        <v>-5.82</v>
+      </c>
+      <c r="M19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N19" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="9" t="s">
+    <row r="20" spans="1:14">
+      <c r="A20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="10">
+      <c r="B20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="6">
         <v>22400</v>
       </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="D20" s="6">
         <v>22400</v>
       </c>
-      <c r="F19" s="11">
-        <v>27.53</v>
-      </c>
-      <c r="G19" s="11">
-        <v>27.867</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>616672</v>
-      </c>
-      <c r="J19" s="11">
-        <v>-7548.65</v>
-      </c>
-      <c r="K19" s="11">
-        <v>-7548.65</v>
-      </c>
-      <c r="L19" s="9">
-        <v>-1.21</v>
-      </c>
-      <c r="M19" s="9" t="s">
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>27</v>
+      </c>
+      <c r="G20" s="7">
+        <v>27.864</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>604800</v>
+      </c>
+      <c r="J20" s="7">
+        <v>-19345.14</v>
+      </c>
+      <c r="K20" s="7">
+        <v>-11872</v>
+      </c>
+      <c r="L20" s="8">
+        <v>-3.1</v>
+      </c>
+      <c r="M20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="10">
-        <v>300123</v>
-      </c>
-      <c r="C20" s="10">
-        <v>29100</v>
-      </c>
-      <c r="D20" s="10">
-        <v>29100</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <v>20.59</v>
-      </c>
-      <c r="G20" s="11">
-        <v>21.111</v>
-      </c>
-      <c r="H20" s="11">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11">
-        <v>599169</v>
-      </c>
-      <c r="J20" s="11">
-        <v>-15170.86</v>
-      </c>
-      <c r="K20" s="11">
-        <v>-16296</v>
-      </c>
-      <c r="L20" s="9">
-        <v>-2.47</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1519,218 +1513,218 @@
         <v>52</v>
       </c>
       <c r="B21" s="6">
+        <v>300123</v>
+      </c>
+      <c r="C21" s="6">
+        <v>29100</v>
+      </c>
+      <c r="D21" s="6">
+        <v>29100</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>19.56</v>
+      </c>
+      <c r="G21" s="7">
+        <v>21.111</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>569196</v>
+      </c>
+      <c r="J21" s="7">
+        <v>-45143.86</v>
+      </c>
+      <c r="K21" s="7">
+        <v>-29973</v>
+      </c>
+      <c r="L21" s="8">
+        <v>-7.35</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="6">
         <v>600351</v>
       </c>
-      <c r="C21" s="6">
-        <v>29600</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>29600</v>
-      </c>
-      <c r="F21" s="7">
-        <v>7.12</v>
-      </c>
-      <c r="G21" s="7">
-        <v>6.965</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>210752</v>
-      </c>
-      <c r="J21" s="7">
-        <v>4588.14</v>
-      </c>
-      <c r="K21" s="7">
-        <v>4588.14</v>
-      </c>
-      <c r="L21" s="8">
-        <v>2.23</v>
-      </c>
-      <c r="M21" s="8" t="s">
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>-548.83</v>
+      </c>
+      <c r="K22" s="7">
+        <v>-5149.93</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N22" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="10">
-        <v>125800</v>
-      </c>
-      <c r="D22" s="10">
-        <v>125800</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="F22" s="11">
-        <v>5.24</v>
-      </c>
-      <c r="G22" s="11">
-        <v>5.331</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
-        <v>659192</v>
-      </c>
-      <c r="J22" s="11">
-        <v>-11409.17</v>
-      </c>
-      <c r="K22" s="11">
-        <v>1258</v>
-      </c>
-      <c r="L22" s="9">
-        <v>-1.71</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="6">
+      <c r="C23" s="6">
+        <v>125800</v>
+      </c>
+      <c r="D23" s="6">
+        <v>125800</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>5.13</v>
+      </c>
+      <c r="G23" s="7">
+        <v>5.331</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>645354</v>
+      </c>
+      <c r="J23" s="7">
+        <v>-25247.17</v>
+      </c>
+      <c r="K23" s="7">
+        <v>-13838</v>
+      </c>
+      <c r="L23" s="8">
+        <v>-3.77</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="10">
         <v>603666</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C24" s="10">
         <v>2300</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="10">
         <v>2300</v>
       </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>122.01</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>109.81</v>
+      </c>
+      <c r="G24" s="11">
         <v>106.282</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>280623</v>
-      </c>
-      <c r="J23" s="7">
-        <v>36174.72</v>
-      </c>
-      <c r="K23" s="7">
-        <v>20723</v>
-      </c>
-      <c r="L23" s="8">
-        <v>14.8</v>
-      </c>
-      <c r="M23" s="8" t="s">
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>252563</v>
+      </c>
+      <c r="J24" s="11">
+        <v>8114.72</v>
+      </c>
+      <c r="K24" s="11">
+        <v>-28060</v>
+      </c>
+      <c r="L24" s="9">
+        <v>3.32</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N24" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="6">
+    <row r="25" spans="1:14">
+      <c r="A25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="6">
         <v>603733</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C25" s="6">
+        <v>16700</v>
+      </c>
+      <c r="D25" s="6">
         <v>4900</v>
       </c>
-      <c r="D24" s="6">
-        <v>4900</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>24.22</v>
-      </c>
-      <c r="G24" s="7">
-        <v>23.592</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>118678</v>
-      </c>
-      <c r="J24" s="7">
-        <v>3079.64</v>
-      </c>
-      <c r="K24" s="7">
-        <v>-490</v>
-      </c>
-      <c r="L24" s="8">
-        <v>2.66</v>
-      </c>
-      <c r="M24" s="8" t="s">
+      <c r="E25" s="6">
+        <v>11800</v>
+      </c>
+      <c r="F25" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="G25" s="7">
+        <v>23.852</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>392450</v>
+      </c>
+      <c r="J25" s="7">
+        <v>-5872.9</v>
+      </c>
+      <c r="K25" s="7">
+        <v>-8952.54</v>
+      </c>
+      <c r="L25" s="8">
+        <v>-1.48</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="10">
-        <v>600887</v>
-      </c>
-      <c r="C25" s="10">
-        <v>0</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11">
-        <v>36.14</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <v>-34505.38</v>
-      </c>
-      <c r="K25" s="11">
-        <v>-20.57</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1738,126 +1732,126 @@
       <c r="A26" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6">
+        <v>600967</v>
+      </c>
+      <c r="C26" s="6">
+        <v>14000</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>14000</v>
+      </c>
+      <c r="F26" s="7">
+        <v>13.35</v>
+      </c>
+      <c r="G26" s="7">
+        <v>13.604</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>186900</v>
+      </c>
+      <c r="J26" s="7">
+        <v>-3554.78</v>
+      </c>
+      <c r="K26" s="7">
+        <v>-3554.78</v>
+      </c>
+      <c r="L26" s="8">
+        <v>-1.87</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>25.94</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7">
-        <v>56694.45</v>
-      </c>
-      <c r="K26" s="7">
-        <v>-6133.23</v>
-      </c>
-      <c r="L26" s="8">
-        <v>0</v>
-      </c>
-      <c r="M26" s="8" t="s">
+      <c r="B27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="6">
+        <v>31800</v>
+      </c>
+      <c r="D27" s="6">
+        <v>31800</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>6.48</v>
+      </c>
+      <c r="G27" s="7">
+        <v>6.717</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>206064</v>
+      </c>
+      <c r="J27" s="7">
+        <v>-7522.76</v>
+      </c>
+      <c r="K27" s="7">
+        <v>-4134</v>
+      </c>
+      <c r="L27" s="8">
+        <v>-3.53</v>
+      </c>
+      <c r="M27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N26" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="10">
-        <v>31800</v>
-      </c>
-      <c r="D27" s="10">
-        <v>31800</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" s="11">
-        <v>6.61</v>
-      </c>
-      <c r="G27" s="11">
-        <v>6.717</v>
-      </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
-        <v>210198</v>
-      </c>
-      <c r="J27" s="11">
-        <v>-3388.76</v>
-      </c>
-      <c r="K27" s="11">
-        <v>-3816</v>
-      </c>
-      <c r="L27" s="9">
-        <v>-1.59</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" s="9" t="s">
+      <c r="N27" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="C28" s="6">
         <v>9100</v>
       </c>
       <c r="D28" s="6">
-        <v>300</v>
+        <v>4100</v>
       </c>
       <c r="E28" s="6">
-        <v>8800</v>
+        <v>5000</v>
       </c>
       <c r="F28" s="7">
-        <v>68.83</v>
+        <v>64.8</v>
       </c>
       <c r="G28" s="7">
-        <v>67.236</v>
+        <v>67.215</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>626353</v>
+        <v>589680</v>
       </c>
       <c r="J28" s="7">
-        <v>14505.72</v>
+        <v>-21975.63</v>
       </c>
       <c r="K28" s="7">
-        <v>5160.84</v>
+        <v>-36481.35</v>
       </c>
       <c r="L28" s="8">
-        <v>2.37</v>
+        <v>-3.59</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>26</v>
@@ -1867,261 +1861,261 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="6">
+        <v>300095</v>
+      </c>
+      <c r="C29" s="6">
+        <v>34800</v>
+      </c>
+      <c r="D29" s="6">
+        <v>34800</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>11.85</v>
+      </c>
+      <c r="G29" s="7">
+        <v>12.354</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>412380</v>
+      </c>
+      <c r="J29" s="7">
+        <v>-17547.91</v>
+      </c>
+      <c r="K29" s="7">
+        <v>-6264</v>
+      </c>
+      <c r="L29" s="8">
+        <v>-4.08</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="10">
-        <v>300095</v>
-      </c>
-      <c r="C29" s="10">
-        <v>34800</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0</v>
-      </c>
-      <c r="E29" s="10">
-        <v>34800</v>
-      </c>
-      <c r="F29" s="11">
-        <v>12.03</v>
-      </c>
-      <c r="G29" s="11">
-        <v>12.356</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>418644</v>
-      </c>
-      <c r="J29" s="11">
-        <v>-11328.13</v>
-      </c>
-      <c r="K29" s="11">
-        <v>-11328.13</v>
-      </c>
-      <c r="L29" s="9">
-        <v>-2.64</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="8" t="s">
+      <c r="B30" s="10">
+        <v>511990</v>
+      </c>
+      <c r="C30" s="10">
+        <v>6</v>
+      </c>
+      <c r="D30" s="10">
+        <v>6</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>100.005</v>
+      </c>
+      <c r="G30" s="11">
+        <v>-6751.737</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>600.03</v>
+      </c>
+      <c r="J30" s="11">
+        <v>41110.45</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="6">
-        <v>511990</v>
-      </c>
-      <c r="C30" s="6">
-        <v>6</v>
-      </c>
-      <c r="D30" s="6">
-        <v>6</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>99.998</v>
-      </c>
-      <c r="G30" s="7">
-        <v>-6751.737</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>599.99</v>
-      </c>
-      <c r="J30" s="7">
-        <v>41110.41</v>
-      </c>
-      <c r="K30" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="L30" s="8">
-        <v>0</v>
-      </c>
-      <c r="M30" s="8" t="s">
+      <c r="B31" s="10">
+        <v>601216</v>
+      </c>
+      <c r="C31" s="10">
+        <v>74300</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>74300</v>
+      </c>
+      <c r="F31" s="11">
+        <v>10.38</v>
+      </c>
+      <c r="G31" s="11">
+        <v>8.717</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>771234</v>
+      </c>
+      <c r="J31" s="11">
+        <v>123536.73</v>
+      </c>
+      <c r="K31" s="11">
+        <v>21627.32</v>
+      </c>
+      <c r="L31" s="9">
+        <v>19.08</v>
+      </c>
+      <c r="M31" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N30" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="6">
-        <v>600085</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>30.94</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7">
-        <v>14708.52</v>
-      </c>
-      <c r="K31" s="7">
-        <v>-674.43</v>
-      </c>
-      <c r="L31" s="8">
-        <v>0</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" s="8" t="s">
+      <c r="N31" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="6">
+        <v>300468</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>24.95</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7">
+        <v>-35263.47</v>
+      </c>
+      <c r="K32" s="7">
+        <v>-28497.06</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="6">
-        <v>601216</v>
-      </c>
-      <c r="C32" s="6">
-        <v>74300</v>
-      </c>
-      <c r="D32" s="6">
-        <v>74300</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7">
-        <v>10.13</v>
-      </c>
-      <c r="G32" s="7">
-        <v>8.758</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>752659</v>
-      </c>
-      <c r="J32" s="7">
-        <v>101909.41</v>
-      </c>
-      <c r="K32" s="7">
-        <v>68356</v>
-      </c>
-      <c r="L32" s="8">
-        <v>15.67</v>
-      </c>
-      <c r="M32" s="8" t="s">
+      <c r="B33" s="6">
+        <v>600161</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>44.61</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7">
+        <v>-33893.38</v>
+      </c>
+      <c r="K33" s="7">
+        <v>-16488.19</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="8" t="s">
+      <c r="N33" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="10">
-        <v>300468</v>
-      </c>
-      <c r="C33" s="10">
-        <v>24300</v>
-      </c>
-      <c r="D33" s="10">
-        <v>24300</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11">
-        <v>26.45</v>
-      </c>
-      <c r="G33" s="11">
-        <v>26.728</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="11">
-        <v>642735</v>
-      </c>
-      <c r="J33" s="11">
-        <v>-6766.41</v>
-      </c>
-      <c r="K33" s="11">
-        <v>-4617</v>
-      </c>
-      <c r="L33" s="9">
-        <v>-1.04</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="10">
-        <v>600161</v>
+        <v>600989</v>
       </c>
       <c r="C34" s="10">
-        <v>8200</v>
+        <v>4000</v>
       </c>
       <c r="D34" s="10">
-        <v>8200</v>
+        <v>4000</v>
       </c>
       <c r="E34" s="10">
         <v>0</v>
       </c>
       <c r="F34" s="11">
-        <v>47.07</v>
+        <v>13.43</v>
       </c>
       <c r="G34" s="11">
-        <v>49.193</v>
+        <v>12.072</v>
       </c>
       <c r="H34" s="11">
         <v>0</v>
       </c>
       <c r="I34" s="11">
-        <v>385974</v>
+        <v>53720</v>
       </c>
       <c r="J34" s="11">
-        <v>-17405.19</v>
+        <v>5432.75</v>
       </c>
       <c r="K34" s="11">
-        <v>4018</v>
+        <v>440</v>
       </c>
       <c r="L34" s="9">
-        <v>-4.32</v>
+        <v>11.25</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>24</v>
@@ -2131,217 +2125,217 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="10">
+        <v>601968</v>
+      </c>
+      <c r="C35" s="10">
+        <v>11900</v>
+      </c>
+      <c r="D35" s="10">
+        <v>11900</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>7.15</v>
+      </c>
+      <c r="G35" s="11">
+        <v>6.98</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>85085</v>
+      </c>
+      <c r="J35" s="11">
+        <v>2024.43</v>
+      </c>
+      <c r="K35" s="11">
+        <v>-1190</v>
+      </c>
+      <c r="L35" s="9">
+        <v>2.44</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="6">
-        <v>600298</v>
-      </c>
-      <c r="C35" s="6">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7">
-        <v>68.24</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7">
-        <v>49.08</v>
-      </c>
-      <c r="K35" s="7">
-        <v>82.08</v>
-      </c>
-      <c r="L35" s="8">
-        <v>0</v>
-      </c>
-      <c r="M35" s="8" t="s">
+      <c r="B36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="10">
+        <v>35800</v>
+      </c>
+      <c r="D36" s="10">
+        <v>35800</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>7.88</v>
+      </c>
+      <c r="G36" s="11">
+        <v>6.481</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>282104</v>
+      </c>
+      <c r="J36" s="11">
+        <v>50101.82</v>
+      </c>
+      <c r="K36" s="11">
+        <v>-6444</v>
+      </c>
+      <c r="L36" s="9">
+        <v>21.59</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="10">
+        <v>8600</v>
+      </c>
+      <c r="D37" s="10">
+        <v>8600</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>22.15</v>
+      </c>
+      <c r="G37" s="11">
+        <v>19.335</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>190490</v>
+      </c>
+      <c r="J37" s="11">
+        <v>24208.62</v>
+      </c>
+      <c r="K37" s="11">
+        <v>-5848</v>
+      </c>
+      <c r="L37" s="9">
+        <v>14.56</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="10">
+        <v>603043</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>43.71</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>8614.72</v>
+      </c>
+      <c r="K38" s="11">
+        <v>6072.09</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N35" s="8" t="s">
+      <c r="N38" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="6">
-        <v>600989</v>
-      </c>
-      <c r="C36" s="6">
-        <v>4000</v>
-      </c>
-      <c r="D36" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7">
-        <v>13.32</v>
-      </c>
-      <c r="G36" s="7">
-        <v>12.072</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>53280</v>
-      </c>
-      <c r="J36" s="7">
-        <v>4992.75</v>
-      </c>
-      <c r="K36" s="7">
-        <v>-680</v>
-      </c>
-      <c r="L36" s="8">
-        <v>10.34</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="6">
-        <v>601968</v>
-      </c>
-      <c r="C37" s="6">
-        <v>11900</v>
-      </c>
-      <c r="D37" s="6">
-        <v>11900</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="7">
-        <v>7.25</v>
-      </c>
-      <c r="G37" s="7">
-        <v>6.987</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>86275</v>
-      </c>
-      <c r="J37" s="7">
-        <v>3127.42</v>
-      </c>
-      <c r="K37" s="7">
-        <v>3349.11</v>
-      </c>
-      <c r="L37" s="8">
-        <v>3.76</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="6">
-        <v>35800</v>
-      </c>
-      <c r="D38" s="6">
-        <v>35800</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>8.06</v>
-      </c>
-      <c r="G38" s="7">
-        <v>6.481</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>288548</v>
-      </c>
-      <c r="J38" s="7">
-        <v>56545.82</v>
-      </c>
-      <c r="K38" s="7">
-        <v>-2864</v>
-      </c>
-      <c r="L38" s="8">
-        <v>24.36</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>76</v>
+      <c r="B39" s="6">
+        <v>300601</v>
       </c>
       <c r="C39" s="6">
-        <v>8600</v>
+        <v>2800</v>
       </c>
       <c r="D39" s="6">
-        <v>8600</v>
+        <v>2000</v>
       </c>
       <c r="E39" s="6">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F39" s="7">
-        <v>22.83</v>
+        <v>199.13</v>
       </c>
       <c r="G39" s="7">
-        <v>19.355</v>
+        <v>229.563</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>196338</v>
+        <v>557564</v>
       </c>
       <c r="J39" s="7">
-        <v>29886.89</v>
+        <v>-85213.42</v>
       </c>
       <c r="K39" s="7">
-        <v>-768.28</v>
+        <v>-22562.96</v>
       </c>
       <c r="L39" s="8">
-        <v>17.95</v>
+        <v>-13.26</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>26</v>
@@ -2351,90 +2345,90 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="10">
+        <v>300391</v>
+      </c>
+      <c r="C40" s="10">
+        <v>21700</v>
+      </c>
+      <c r="D40" s="10">
+        <v>21700</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>18.49</v>
+      </c>
+      <c r="G40" s="11">
+        <v>15.581</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>401233</v>
+      </c>
+      <c r="J40" s="11">
+        <v>63131.58</v>
+      </c>
+      <c r="K40" s="11">
+        <v>217</v>
+      </c>
+      <c r="L40" s="9">
+        <v>18.67</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="6">
-        <v>603043</v>
-      </c>
-      <c r="C40" s="6">
-        <v>7900</v>
-      </c>
-      <c r="D40" s="6">
-        <v>7900</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>43.68</v>
-      </c>
-      <c r="G40" s="7">
-        <v>43.358</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>345072</v>
-      </c>
-      <c r="J40" s="7">
-        <v>2542.63</v>
-      </c>
-      <c r="K40" s="7">
-        <v>1659</v>
-      </c>
-      <c r="L40" s="8">
-        <v>0.74</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="10">
-        <v>300601</v>
-      </c>
-      <c r="C41" s="10">
-        <v>2000</v>
-      </c>
-      <c r="D41" s="10">
-        <v>2000</v>
-      </c>
-      <c r="E41" s="10">
-        <v>0</v>
-      </c>
-      <c r="F41" s="11">
-        <v>211.11</v>
-      </c>
-      <c r="G41" s="11">
-        <v>242.443</v>
-      </c>
-      <c r="H41" s="11">
-        <v>0</v>
-      </c>
-      <c r="I41" s="11">
-        <v>422220</v>
-      </c>
-      <c r="J41" s="11">
-        <v>-62665.88</v>
-      </c>
-      <c r="K41" s="11">
-        <v>17274.31</v>
-      </c>
-      <c r="L41" s="9">
-        <v>-12.92</v>
-      </c>
-      <c r="M41" s="9" t="s">
+      <c r="C41" s="6">
+        <v>17800</v>
+      </c>
+      <c r="D41" s="6">
+        <v>17800</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>17.98</v>
+      </c>
+      <c r="G41" s="7">
+        <v>18.696</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>320044</v>
+      </c>
+      <c r="J41" s="7">
+        <v>-12738.27</v>
+      </c>
+      <c r="K41" s="7">
+        <v>-8900</v>
+      </c>
+      <c r="L41" s="8">
+        <v>-3.83</v>
+      </c>
+      <c r="M41" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N41" s="9" t="s">
+      <c r="N41" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2442,38 +2436,38 @@
       <c r="A42" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="6">
-        <v>300391</v>
+      <c r="B42" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C42" s="6">
-        <v>21700</v>
+        <v>13700</v>
       </c>
       <c r="D42" s="6">
-        <v>21700</v>
+        <v>13700</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
       </c>
       <c r="F42" s="7">
-        <v>18.48</v>
+        <v>43.35</v>
       </c>
       <c r="G42" s="7">
-        <v>15.581</v>
+        <v>46.629</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>401016</v>
+        <v>593895</v>
       </c>
       <c r="J42" s="7">
-        <v>62914.58</v>
+        <v>-44918.01</v>
       </c>
       <c r="K42" s="7">
-        <v>15190</v>
+        <v>-17810</v>
       </c>
       <c r="L42" s="8">
-        <v>18.61</v>
+        <v>-7.03</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>26</v>
@@ -2484,84 +2478,84 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B43" s="6">
-        <v>300759</v>
+        <v>600596</v>
       </c>
       <c r="C43" s="6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D43" s="6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>95.68</v>
+        <v>9.36</v>
       </c>
       <c r="G43" s="7">
-        <v>0</v>
+        <v>9.491</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>0</v>
+        <v>2808</v>
       </c>
       <c r="J43" s="7">
-        <v>6315.35</v>
+        <v>-39.43</v>
       </c>
       <c r="K43" s="7">
-        <v>4486.79</v>
+        <v>-57</v>
       </c>
       <c r="L43" s="8">
-        <v>0</v>
+        <v>-1.38</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B44" s="6">
-        <v>300374</v>
+        <v>300214</v>
       </c>
       <c r="C44" s="6">
-        <v>0</v>
+        <v>33100</v>
       </c>
       <c r="D44" s="6">
         <v>0</v>
       </c>
       <c r="E44" s="6">
-        <v>0</v>
+        <v>33100</v>
       </c>
       <c r="F44" s="7">
-        <v>19.96</v>
+        <v>9.03</v>
       </c>
       <c r="G44" s="7">
-        <v>0</v>
+        <v>9.16</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>0</v>
+        <v>298893</v>
       </c>
       <c r="J44" s="7">
-        <v>5472.33</v>
+        <v>-4305</v>
       </c>
       <c r="K44" s="7">
-        <v>864.22</v>
+        <v>-4305</v>
       </c>
       <c r="L44" s="8">
-        <v>0</v>
+        <v>-1.42</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>26</v>
@@ -2571,135 +2565,135 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="10">
-        <v>17800</v>
-      </c>
-      <c r="D45" s="10">
-        <v>17800</v>
-      </c>
-      <c r="E45" s="10">
-        <v>0</v>
-      </c>
-      <c r="F45" s="11">
-        <v>18.48</v>
-      </c>
-      <c r="G45" s="11">
-        <v>18.696</v>
-      </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
-        <v>328944</v>
-      </c>
-      <c r="J45" s="11">
-        <v>-3838.27</v>
-      </c>
-      <c r="K45" s="11">
-        <v>-890</v>
-      </c>
-      <c r="L45" s="9">
-        <v>-1.16</v>
-      </c>
-      <c r="M45" s="9" t="s">
+      <c r="B45" s="6">
+        <v>300648</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1800</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1800</v>
+      </c>
+      <c r="F45" s="7">
+        <v>31.01</v>
+      </c>
+      <c r="G45" s="7">
+        <v>31.49</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>55818</v>
+      </c>
+      <c r="J45" s="7">
+        <v>-864</v>
+      </c>
+      <c r="K45" s="7">
+        <v>-864</v>
+      </c>
+      <c r="L45" s="8">
+        <v>-1.52</v>
+      </c>
+      <c r="M45" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N45" s="9" t="s">
+      <c r="N45" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="10">
-        <v>13700</v>
-      </c>
-      <c r="D46" s="10">
-        <v>13700</v>
-      </c>
-      <c r="E46" s="10">
-        <v>0</v>
-      </c>
-      <c r="F46" s="11">
-        <v>44.65</v>
-      </c>
-      <c r="G46" s="11">
-        <v>46.629</v>
-      </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="11">
-        <v>611705</v>
-      </c>
-      <c r="J46" s="11">
-        <v>-27108.01</v>
-      </c>
-      <c r="K46" s="11">
-        <v>-25345</v>
-      </c>
-      <c r="L46" s="9">
-        <v>-4.24</v>
-      </c>
-      <c r="M46" s="9" t="s">
+      <c r="B46" s="6">
+        <v>300122</v>
+      </c>
+      <c r="C46" s="6">
+        <v>4300</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="6">
+        <v>2500</v>
+      </c>
+      <c r="F46" s="7">
+        <v>135.6</v>
+      </c>
+      <c r="G46" s="7">
+        <v>146.126</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>583080</v>
+      </c>
+      <c r="J46" s="7">
+        <v>-45263.39</v>
+      </c>
+      <c r="K46" s="7">
+        <v>-63247.18</v>
+      </c>
+      <c r="L46" s="8">
+        <v>-7.2</v>
+      </c>
+      <c r="M46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="9" t="s">
+      <c r="N46" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="6">
-        <v>600596</v>
-      </c>
       <c r="C47" s="6">
-        <v>300</v>
+        <v>111000</v>
       </c>
       <c r="D47" s="6">
-        <v>0</v>
+        <v>111000</v>
       </c>
       <c r="E47" s="6">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F47" s="7">
-        <v>9.55</v>
+        <v>5.69</v>
       </c>
       <c r="G47" s="7">
-        <v>9.507</v>
+        <v>5.754</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>2865</v>
+        <v>631590</v>
       </c>
       <c r="J47" s="7">
-        <v>12.94</v>
+        <v>-7077.02</v>
       </c>
       <c r="K47" s="7">
-        <v>12.94</v>
+        <v>-8880</v>
       </c>
       <c r="L47" s="8">
-        <v>0.45</v>
+        <v>-1.11</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2707,175 +2701,175 @@
         <v>87</v>
       </c>
       <c r="B48" s="6">
-        <v>300122</v>
+        <v>603976</v>
       </c>
       <c r="C48" s="6">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="D48" s="6">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="E48" s="6">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="F48" s="7">
-        <v>149.87</v>
+        <v>67.62</v>
       </c>
       <c r="G48" s="7">
-        <v>145.688</v>
+        <v>69.159</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>644441</v>
+        <v>311052</v>
       </c>
       <c r="J48" s="7">
-        <v>17983.79</v>
+        <v>-7079.36</v>
       </c>
       <c r="K48" s="7">
-        <v>13717</v>
+        <v>-7079.36</v>
       </c>
       <c r="L48" s="8">
-        <v>2.87</v>
+        <v>-2.23</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="6">
+        <v>603318</v>
+      </c>
+      <c r="C49" s="6">
+        <v>18900</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>18900</v>
+      </c>
+      <c r="F49" s="7">
+        <v>10.76</v>
+      </c>
+      <c r="G49" s="7">
+        <v>11.027</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>203364</v>
+      </c>
+      <c r="J49" s="7">
+        <v>-5037.12</v>
+      </c>
+      <c r="K49" s="7">
+        <v>-5037.12</v>
+      </c>
+      <c r="L49" s="8">
+        <v>-2.42</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="6">
-        <v>111000</v>
-      </c>
-      <c r="D49" s="6">
-        <v>111000</v>
-      </c>
-      <c r="E49" s="6">
-        <v>0</v>
-      </c>
-      <c r="F49" s="7">
-        <v>5.77</v>
-      </c>
-      <c r="G49" s="7">
-        <v>5.754</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>640470</v>
-      </c>
-      <c r="J49" s="7">
-        <v>1802.98</v>
-      </c>
-      <c r="K49" s="7">
-        <v>-2220</v>
-      </c>
-      <c r="L49" s="8">
-        <v>0.28</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="10">
-        <v>300142</v>
-      </c>
-      <c r="C50" s="10">
-        <v>0</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0</v>
-      </c>
-      <c r="E50" s="10">
-        <v>0</v>
-      </c>
-      <c r="F50" s="11">
-        <v>74.99</v>
-      </c>
-      <c r="G50" s="11">
-        <v>0</v>
-      </c>
-      <c r="H50" s="11">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11">
-        <v>0</v>
-      </c>
-      <c r="J50" s="11">
-        <v>-7644.5</v>
-      </c>
-      <c r="K50" s="11">
-        <v>190.5</v>
-      </c>
-      <c r="L50" s="9">
-        <v>0</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>25</v>
+      <c r="B50" s="6">
+        <v>603718</v>
+      </c>
+      <c r="C50" s="6">
+        <v>5800</v>
+      </c>
+      <c r="D50" s="6">
+        <v>5800</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>33</v>
+      </c>
+      <c r="G50" s="7">
+        <v>34.926</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>191400</v>
+      </c>
+      <c r="J50" s="7">
+        <v>-11168.39</v>
+      </c>
+      <c r="K50" s="7">
+        <v>-11890</v>
+      </c>
+      <c r="L50" s="8">
+        <v>-5.51</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="6">
-        <v>603718</v>
-      </c>
       <c r="C51" s="6">
-        <v>5800</v>
+        <v>16000</v>
       </c>
       <c r="D51" s="6">
-        <v>5800</v>
+        <v>16000</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>35.05</v>
+        <v>22.63</v>
       </c>
       <c r="G51" s="7">
-        <v>34.926</v>
+        <v>25.89</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>203290</v>
+        <v>362080</v>
       </c>
       <c r="J51" s="7">
-        <v>721.61</v>
+        <v>-52160.14</v>
       </c>
       <c r="K51" s="7">
-        <v>-6322</v>
+        <v>-56524.87</v>
       </c>
       <c r="L51" s="8">
-        <v>0.36</v>
+        <v>-12.59</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2886,34 +2880,34 @@
         <v>93</v>
       </c>
       <c r="C52" s="6">
-        <v>26900</v>
+        <v>8800</v>
       </c>
       <c r="D52" s="6">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="E52" s="6">
-        <v>26900</v>
+        <v>0</v>
       </c>
       <c r="F52" s="7">
-        <v>25.12</v>
+        <v>10</v>
       </c>
       <c r="G52" s="7">
-        <v>24.958</v>
+        <v>10.534</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>675728</v>
+        <v>88000</v>
       </c>
       <c r="J52" s="7">
-        <v>4358.48</v>
+        <v>-4696.05</v>
       </c>
       <c r="K52" s="7">
-        <v>4358.48</v>
+        <v>-2816</v>
       </c>
       <c r="L52" s="8">
-        <v>0.65</v>
+        <v>-5.07</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>26</v>
@@ -2923,135 +2917,135 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="10">
-        <v>8800</v>
-      </c>
-      <c r="D53" s="10">
-        <v>0</v>
-      </c>
-      <c r="E53" s="10">
-        <v>8800</v>
-      </c>
-      <c r="F53" s="11">
-        <v>10.32</v>
-      </c>
-      <c r="G53" s="11">
-        <v>10.534</v>
-      </c>
-      <c r="H53" s="11">
-        <v>0</v>
-      </c>
-      <c r="I53" s="11">
-        <v>90816</v>
-      </c>
-      <c r="J53" s="11">
-        <v>-1887.31</v>
-      </c>
-      <c r="K53" s="11">
-        <v>-1887.31</v>
-      </c>
-      <c r="L53" s="9">
-        <v>-2.03</v>
-      </c>
-      <c r="M53" s="9" t="s">
+      <c r="C53" s="6">
+        <v>400</v>
+      </c>
+      <c r="D53" s="6">
+        <v>400</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>6.45</v>
+      </c>
+      <c r="G53" s="7">
+        <v>6.621</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>2580</v>
+      </c>
+      <c r="J53" s="7">
+        <v>-68.34</v>
+      </c>
+      <c r="K53" s="7">
+        <v>-152</v>
+      </c>
+      <c r="L53" s="8">
+        <v>-2.58</v>
+      </c>
+      <c r="M53" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N53" s="9" t="s">
+      <c r="N53" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="6">
-        <v>400</v>
-      </c>
-      <c r="D54" s="6">
-        <v>400</v>
-      </c>
-      <c r="E54" s="6">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7">
-        <v>6.83</v>
-      </c>
-      <c r="G54" s="7">
-        <v>6.621</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>2732</v>
-      </c>
-      <c r="J54" s="7">
-        <v>83.66</v>
-      </c>
-      <c r="K54" s="7">
-        <v>104</v>
-      </c>
-      <c r="L54" s="8">
-        <v>3.16</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N54" s="8" t="s">
-        <v>25</v>
+      <c r="B54" s="10">
+        <v>603069</v>
+      </c>
+      <c r="C54" s="10">
+        <v>6300</v>
+      </c>
+      <c r="D54" s="10">
+        <v>6300</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>48.31</v>
+      </c>
+      <c r="G54" s="11">
+        <v>46.802</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>304353</v>
+      </c>
+      <c r="J54" s="11">
+        <v>9502.97</v>
+      </c>
+      <c r="K54" s="11">
+        <v>-51414.97</v>
+      </c>
+      <c r="L54" s="9">
+        <v>3.22</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="6">
-        <v>603069</v>
-      </c>
       <c r="C55" s="6">
-        <v>9800</v>
+        <v>52300</v>
       </c>
       <c r="D55" s="6">
-        <v>6800</v>
+        <v>52300</v>
       </c>
       <c r="E55" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F55" s="7">
-        <v>53.68</v>
+        <v>10.7</v>
       </c>
       <c r="G55" s="7">
-        <v>47.465</v>
+        <v>10.982</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>526064</v>
+        <v>559610</v>
       </c>
       <c r="J55" s="7">
-        <v>60909.98</v>
+        <v>-14729.65</v>
       </c>
       <c r="K55" s="7">
-        <v>47699.73</v>
+        <v>-18828</v>
       </c>
       <c r="L55" s="8">
-        <v>13.09</v>
+        <v>-2.57</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3059,37 +3053,37 @@
         <v>99</v>
       </c>
       <c r="B56" s="10">
-        <v>600585</v>
+        <v>600436</v>
       </c>
       <c r="C56" s="10">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D56" s="10">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E56" s="10">
         <v>0</v>
       </c>
       <c r="F56" s="11">
-        <v>61.14</v>
+        <v>203.39</v>
       </c>
       <c r="G56" s="11">
-        <v>0</v>
+        <v>196.812</v>
       </c>
       <c r="H56" s="11">
         <v>0</v>
       </c>
       <c r="I56" s="11">
-        <v>0</v>
+        <v>508475</v>
       </c>
       <c r="J56" s="11">
-        <v>-4080.96</v>
+        <v>16444.27</v>
       </c>
       <c r="K56" s="11">
-        <v>-580.21</v>
+        <v>650</v>
       </c>
       <c r="L56" s="9">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="M56" s="9" t="s">
         <v>24</v>
@@ -3106,34 +3100,34 @@
         <v>101</v>
       </c>
       <c r="C57" s="6">
-        <v>52300</v>
+        <v>6700</v>
       </c>
       <c r="D57" s="6">
-        <v>52300</v>
+        <v>0</v>
       </c>
       <c r="E57" s="6">
-        <v>0</v>
+        <v>6700</v>
       </c>
       <c r="F57" s="7">
-        <v>11.06</v>
+        <v>89.6</v>
       </c>
       <c r="G57" s="7">
-        <v>10.982</v>
+        <v>90.392</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>578438</v>
+        <v>600320</v>
       </c>
       <c r="J57" s="7">
-        <v>4098.35</v>
+        <v>-5306.62</v>
       </c>
       <c r="K57" s="7">
-        <v>-7322</v>
+        <v>-5306.62</v>
       </c>
       <c r="L57" s="8">
-        <v>0.71</v>
+        <v>-0.88</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>26</v>
@@ -3146,219 +3140,219 @@
       <c r="A58" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="6">
-        <v>600436</v>
+      <c r="B58" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C58" s="6">
-        <v>2500</v>
+        <v>34582</v>
       </c>
       <c r="D58" s="6">
-        <v>2500</v>
+        <v>34582</v>
       </c>
       <c r="E58" s="6">
         <v>0</v>
       </c>
       <c r="F58" s="7">
-        <v>203.13</v>
+        <v>13.75</v>
       </c>
       <c r="G58" s="7">
-        <v>196.812</v>
+        <v>13.99</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>507825</v>
+        <v>475502.5</v>
       </c>
       <c r="J58" s="7">
-        <v>15794.27</v>
+        <v>-8282.57</v>
       </c>
       <c r="K58" s="7">
-        <v>7825</v>
+        <v>-6570.58</v>
       </c>
       <c r="L58" s="8">
-        <v>3.21</v>
+        <v>-1.72</v>
       </c>
       <c r="M58" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="13">
+        <v>674500</v>
+      </c>
+      <c r="D59" s="13">
+        <v>674500</v>
+      </c>
+      <c r="E59" s="13">
+        <v>0</v>
+      </c>
+      <c r="F59" s="14">
+        <v>0</v>
+      </c>
+      <c r="G59" s="14">
+        <v>0</v>
+      </c>
+      <c r="H59" s="14">
+        <v>0</v>
+      </c>
+      <c r="I59" s="14">
+        <v>0</v>
+      </c>
+      <c r="J59" s="14">
+        <v>0</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L59" s="12">
+        <v>0</v>
+      </c>
+      <c r="M59" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="8" t="s">
+      <c r="N59" s="12" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="10">
-        <v>0</v>
-      </c>
-      <c r="D59" s="10">
-        <v>0</v>
-      </c>
-      <c r="E59" s="10">
-        <v>0</v>
-      </c>
-      <c r="F59" s="11">
-        <v>91.17</v>
-      </c>
-      <c r="G59" s="11">
-        <v>0</v>
-      </c>
-      <c r="H59" s="11">
-        <v>0</v>
-      </c>
-      <c r="I59" s="11">
-        <v>0</v>
-      </c>
-      <c r="J59" s="11">
-        <v>-21599.99</v>
-      </c>
-      <c r="K59" s="11">
-        <v>995.82</v>
-      </c>
-      <c r="L59" s="9">
-        <v>0</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N59" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" s="9" t="s">
         <v>106</v>
       </c>
+      <c r="B60" s="10">
+        <v>600496</v>
+      </c>
       <c r="C60" s="10">
-        <v>34582</v>
+        <v>32100</v>
       </c>
       <c r="D60" s="10">
-        <v>34582</v>
+        <v>32100</v>
       </c>
       <c r="E60" s="10">
         <v>0</v>
       </c>
       <c r="F60" s="11">
-        <v>13.94</v>
+        <v>7.1</v>
       </c>
       <c r="G60" s="11">
-        <v>13.99</v>
+        <v>6.441</v>
       </c>
       <c r="H60" s="11">
         <v>0</v>
       </c>
       <c r="I60" s="11">
-        <v>482073.08</v>
+        <v>227910</v>
       </c>
       <c r="J60" s="11">
-        <v>-1711.99</v>
+        <v>21155.02</v>
       </c>
       <c r="K60" s="11">
-        <v>-7608.04</v>
+        <v>-4494</v>
       </c>
       <c r="L60" s="9">
-        <v>-0.36</v>
+        <v>10.23</v>
       </c>
       <c r="M60" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="6">
+        <v>9100</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>9100</v>
+      </c>
+      <c r="F61" s="7">
+        <v>11.76</v>
+      </c>
+      <c r="G61" s="7">
+        <v>11.93</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>107016</v>
+      </c>
+      <c r="J61" s="7">
+        <v>-1550</v>
+      </c>
+      <c r="K61" s="7">
+        <v>-1550</v>
+      </c>
+      <c r="L61" s="8">
+        <v>-1.42</v>
+      </c>
+      <c r="M61" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N60" s="9" t="s">
+      <c r="N61" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" s="13">
-        <v>672000</v>
-      </c>
-      <c r="D61" s="13">
-        <v>672000</v>
-      </c>
-      <c r="E61" s="13">
-        <v>0</v>
-      </c>
-      <c r="F61" s="14">
-        <v>0</v>
-      </c>
-      <c r="G61" s="14">
-        <v>0</v>
-      </c>
-      <c r="H61" s="14">
-        <v>0</v>
-      </c>
-      <c r="I61" s="14">
-        <v>0</v>
-      </c>
-      <c r="J61" s="14">
-        <v>0</v>
-      </c>
-      <c r="K61" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L61" s="12">
-        <v>0</v>
-      </c>
-      <c r="M61" s="12" t="s">
+    <row r="62" spans="1:14">
+      <c r="A62" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="10">
+        <v>600337</v>
+      </c>
+      <c r="C62" s="10">
+        <v>13700</v>
+      </c>
+      <c r="D62" s="10">
+        <v>13700</v>
+      </c>
+      <c r="E62" s="10">
+        <v>0</v>
+      </c>
+      <c r="F62" s="11">
+        <v>6</v>
+      </c>
+      <c r="G62" s="11">
+        <v>1.186</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
+      </c>
+      <c r="I62" s="11">
+        <v>82200</v>
+      </c>
+      <c r="J62" s="11">
+        <v>65951.12</v>
+      </c>
+      <c r="K62" s="11">
+        <v>-1233</v>
+      </c>
+      <c r="L62" s="9">
+        <v>405.9</v>
+      </c>
+      <c r="M62" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="6">
-        <v>600496</v>
-      </c>
-      <c r="C62" s="6">
-        <v>32100</v>
-      </c>
-      <c r="D62" s="6">
-        <v>32100</v>
-      </c>
-      <c r="E62" s="6">
-        <v>0</v>
-      </c>
-      <c r="F62" s="7">
-        <v>7.24</v>
-      </c>
-      <c r="G62" s="7">
-        <v>6.441</v>
-      </c>
-      <c r="H62" s="7">
-        <v>0</v>
-      </c>
-      <c r="I62" s="7">
-        <v>232404</v>
-      </c>
-      <c r="J62" s="7">
-        <v>25649.02</v>
-      </c>
-      <c r="K62" s="7">
-        <v>16371</v>
-      </c>
-      <c r="L62" s="8">
-        <v>12.4</v>
-      </c>
-      <c r="M62" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N62" s="8" t="s">
+      <c r="N62" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3367,37 +3361,37 @@
         <v>110</v>
       </c>
       <c r="B63" s="6">
-        <v>600337</v>
+        <v>600893</v>
       </c>
       <c r="C63" s="6">
-        <v>13700</v>
+        <v>5700</v>
       </c>
       <c r="D63" s="6">
-        <v>13700</v>
+        <v>0</v>
       </c>
       <c r="E63" s="6">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="F63" s="7">
-        <v>6.09</v>
+        <v>47.9</v>
       </c>
       <c r="G63" s="7">
-        <v>1.186</v>
+        <v>49.329</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>83433</v>
+        <v>273030</v>
       </c>
       <c r="J63" s="7">
-        <v>67184.12</v>
+        <v>-8143.33</v>
       </c>
       <c r="K63" s="7">
-        <v>2329</v>
+        <v>-8143.33</v>
       </c>
       <c r="L63" s="8">
-        <v>413.49</v>
+        <v>-2.9</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>24</v>
@@ -3411,43 +3405,43 @@
         <v>111</v>
       </c>
       <c r="B64" s="6">
-        <v>300125</v>
+        <v>600391</v>
       </c>
       <c r="C64" s="6">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="D64" s="6">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="E64" s="6">
         <v>0</v>
       </c>
       <c r="F64" s="7">
-        <v>18.93</v>
+        <v>29.63</v>
       </c>
       <c r="G64" s="7">
-        <v>0</v>
+        <v>30.948</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>0</v>
+        <v>400005</v>
       </c>
       <c r="J64" s="7">
-        <v>775.74</v>
+        <v>-17787.34</v>
       </c>
       <c r="K64" s="7">
-        <v>1031.63</v>
+        <v>-24030</v>
       </c>
       <c r="L64" s="8">
-        <v>0</v>
+        <v>-4.26</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3455,37 +3449,37 @@
         <v>112</v>
       </c>
       <c r="B65" s="6">
-        <v>600391</v>
+        <v>600879</v>
       </c>
       <c r="C65" s="6">
-        <v>13500</v>
+        <v>75100</v>
       </c>
       <c r="D65" s="6">
-        <v>1000</v>
+        <v>75100</v>
       </c>
       <c r="E65" s="6">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="F65" s="7">
-        <v>31.41</v>
+        <v>7.98</v>
       </c>
       <c r="G65" s="7">
-        <v>30.951</v>
+        <v>8.228</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>424035</v>
+        <v>599298</v>
       </c>
       <c r="J65" s="7">
-        <v>6202.29</v>
+        <v>-18617.64</v>
       </c>
       <c r="K65" s="7">
-        <v>4688.53</v>
+        <v>-19526</v>
       </c>
       <c r="L65" s="8">
-        <v>1.48</v>
+        <v>-3.01</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>24</v>
@@ -3495,85 +3489,85 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B66" s="6">
-        <v>600879</v>
-      </c>
-      <c r="C66" s="6">
-        <v>75100</v>
-      </c>
-      <c r="D66" s="6">
-        <v>0</v>
-      </c>
-      <c r="E66" s="6">
-        <v>75100</v>
-      </c>
-      <c r="F66" s="7">
-        <v>8.24</v>
-      </c>
-      <c r="G66" s="7">
-        <v>8.228</v>
-      </c>
-      <c r="H66" s="7">
-        <v>0</v>
-      </c>
-      <c r="I66" s="7">
-        <v>618824</v>
-      </c>
-      <c r="J66" s="7">
-        <v>894.98</v>
-      </c>
-      <c r="K66" s="7">
-        <v>894.98</v>
-      </c>
-      <c r="L66" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="M66" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>23</v>
+      <c r="B66" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="10">
+        <v>3900</v>
+      </c>
+      <c r="D66" s="10">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="10">
+        <v>0</v>
+      </c>
+      <c r="F66" s="11">
+        <v>13.09</v>
+      </c>
+      <c r="G66" s="11">
+        <v>12.298</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0</v>
+      </c>
+      <c r="I66" s="11">
+        <v>51051</v>
+      </c>
+      <c r="J66" s="11">
+        <v>3090.27</v>
+      </c>
+      <c r="K66" s="11">
+        <v>-897</v>
+      </c>
+      <c r="L66" s="9">
+        <v>6.44</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="8" t="s">
         <v>115</v>
       </c>
+      <c r="B67" s="6">
+        <v>300677</v>
+      </c>
       <c r="C67" s="6">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="D67" s="6">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="E67" s="6">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F67" s="7">
-        <v>13.32</v>
+        <v>147.2</v>
       </c>
       <c r="G67" s="7">
-        <v>12.3</v>
+        <v>155.6</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
       <c r="I67" s="7">
-        <v>51948</v>
+        <v>544640</v>
       </c>
       <c r="J67" s="7">
-        <v>3979.03</v>
+        <v>-31080.8</v>
       </c>
       <c r="K67" s="7">
-        <v>-928.74</v>
+        <v>-10249</v>
       </c>
       <c r="L67" s="8">
-        <v>8.29</v>
+        <v>-5.4</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>26</v>
@@ -3583,85 +3577,85 @@
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B68" s="10">
-        <v>300677</v>
-      </c>
-      <c r="C68" s="10">
-        <v>3700</v>
-      </c>
-      <c r="D68" s="10">
-        <v>3700</v>
-      </c>
-      <c r="E68" s="10">
-        <v>0</v>
-      </c>
-      <c r="F68" s="11">
-        <v>149.97</v>
-      </c>
-      <c r="G68" s="11">
-        <v>155.6</v>
-      </c>
-      <c r="H68" s="11">
-        <v>0</v>
-      </c>
-      <c r="I68" s="11">
-        <v>554889</v>
-      </c>
-      <c r="J68" s="11">
-        <v>-20831.8</v>
-      </c>
-      <c r="K68" s="11">
-        <v>-31487</v>
-      </c>
-      <c r="L68" s="9">
-        <v>-3.62</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N68" s="9" t="s">
-        <v>25</v>
+      <c r="B68" s="6">
+        <v>600211</v>
+      </c>
+      <c r="C68" s="6">
+        <v>5200</v>
+      </c>
+      <c r="D68" s="6">
+        <v>5200</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>109.34</v>
+      </c>
+      <c r="G68" s="7">
+        <v>115.048</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>568568</v>
+      </c>
+      <c r="J68" s="7">
+        <v>-29681.72</v>
+      </c>
+      <c r="K68" s="7">
+        <v>-47424</v>
+      </c>
+      <c r="L68" s="8">
+        <v>-4.96</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="6">
-        <v>300087</v>
+      <c r="B69" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="C69" s="6">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="D69" s="6">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="E69" s="6">
         <v>0</v>
       </c>
       <c r="F69" s="7">
-        <v>21.6</v>
+        <v>8.43</v>
       </c>
       <c r="G69" s="7">
-        <v>0</v>
+        <v>8.799</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>0</v>
+        <v>102846</v>
       </c>
       <c r="J69" s="7">
-        <v>8954.08</v>
+        <v>-4498.95</v>
       </c>
       <c r="K69" s="7">
-        <v>8477.95</v>
+        <v>-5246</v>
       </c>
       <c r="L69" s="8">
-        <v>0</v>
+        <v>-4.19</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>26</v>
@@ -3672,128 +3666,128 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B70" s="6">
-        <v>600211</v>
+        <v>119</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="C70" s="6">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="D70" s="6">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="E70" s="6">
         <v>0</v>
       </c>
       <c r="F70" s="7">
-        <v>118.46</v>
+        <v>72.01</v>
       </c>
       <c r="G70" s="7">
-        <v>115.048</v>
+        <v>73.576</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>615992</v>
+        <v>576080</v>
       </c>
       <c r="J70" s="7">
-        <v>17742.28</v>
+        <v>-12528.33</v>
       </c>
       <c r="K70" s="7">
-        <v>-19188</v>
+        <v>-24640</v>
       </c>
       <c r="L70" s="8">
-        <v>2.97</v>
+        <v>-2.13</v>
       </c>
       <c r="M70" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N70" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="10">
+        <v>600988</v>
+      </c>
+      <c r="C71" s="10">
+        <v>0</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
+      <c r="E71" s="10">
+        <v>0</v>
+      </c>
+      <c r="F71" s="11">
+        <v>22.57</v>
+      </c>
+      <c r="G71" s="11">
+        <v>0</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0</v>
+      </c>
+      <c r="I71" s="11">
+        <v>0</v>
+      </c>
+      <c r="J71" s="11">
+        <v>87874.66</v>
+      </c>
+      <c r="K71" s="11">
+        <v>-23055.29</v>
+      </c>
+      <c r="L71" s="9">
+        <v>0</v>
+      </c>
+      <c r="M71" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N70" s="8" t="s">
+      <c r="N71" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C71" s="6">
-        <v>12200</v>
-      </c>
-      <c r="D71" s="6">
-        <v>0</v>
-      </c>
-      <c r="E71" s="6">
-        <v>12200</v>
-      </c>
-      <c r="F71" s="7">
-        <v>8.86</v>
-      </c>
-      <c r="G71" s="7">
-        <v>8.804</v>
-      </c>
-      <c r="H71" s="7">
-        <v>0</v>
-      </c>
-      <c r="I71" s="7">
-        <v>108092</v>
-      </c>
-      <c r="J71" s="7">
-        <v>681</v>
-      </c>
-      <c r="K71" s="7">
-        <v>681</v>
-      </c>
-      <c r="L71" s="8">
-        <v>0.64</v>
-      </c>
-      <c r="M71" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N71" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C72" s="6">
-        <v>8000</v>
+        <v>3100</v>
       </c>
       <c r="D72" s="6">
-        <v>8000</v>
+        <v>3100</v>
       </c>
       <c r="E72" s="6">
         <v>0</v>
       </c>
       <c r="F72" s="7">
-        <v>75.09</v>
+        <v>23.08</v>
       </c>
       <c r="G72" s="7">
-        <v>73.576</v>
+        <v>36.879</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>600720</v>
+        <v>71548</v>
       </c>
       <c r="J72" s="7">
-        <v>12111.67</v>
+        <v>-42777.91</v>
       </c>
       <c r="K72" s="7">
-        <v>-2160</v>
+        <v>-37328.11</v>
       </c>
       <c r="L72" s="8">
-        <v>2.06</v>
+        <v>-37.42</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>26</v>
@@ -3804,128 +3798,128 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B73" s="6">
-        <v>600988</v>
+        <v>124</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C73" s="6">
-        <v>28600</v>
+        <v>28800</v>
       </c>
       <c r="D73" s="6">
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="E73" s="6">
-        <v>21800</v>
+        <v>28800</v>
       </c>
       <c r="F73" s="7">
-        <v>23.65</v>
+        <v>9.84</v>
       </c>
       <c r="G73" s="7">
-        <v>19.771</v>
+        <v>10.341</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
       </c>
       <c r="I73" s="7">
-        <v>676390</v>
+        <v>283392</v>
       </c>
       <c r="J73" s="7">
-        <v>110929.95</v>
+        <v>-14438.72</v>
       </c>
       <c r="K73" s="7">
-        <v>58459.22</v>
+        <v>-14438.72</v>
       </c>
       <c r="L73" s="8">
-        <v>19.62</v>
+        <v>-4.84</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C74" s="10">
-        <v>25300</v>
-      </c>
-      <c r="D74" s="10">
-        <v>0</v>
-      </c>
-      <c r="E74" s="10">
-        <v>25300</v>
-      </c>
-      <c r="F74" s="11">
-        <v>24.96</v>
-      </c>
-      <c r="G74" s="11">
-        <v>25.177</v>
-      </c>
-      <c r="H74" s="11">
-        <v>0</v>
-      </c>
-      <c r="I74" s="11">
-        <v>631488</v>
-      </c>
-      <c r="J74" s="11">
-        <v>-5479.08</v>
-      </c>
-      <c r="K74" s="11">
-        <v>-5479.08</v>
-      </c>
-      <c r="L74" s="9">
-        <v>-0.86</v>
-      </c>
-      <c r="M74" s="9" t="s">
+      <c r="A74" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="6">
+        <v>300760</v>
+      </c>
+      <c r="C74" s="6">
+        <v>1900</v>
+      </c>
+      <c r="D74" s="6">
+        <v>1900</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>309</v>
+      </c>
+      <c r="G74" s="7">
+        <v>329.261</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="7">
+        <v>587100</v>
+      </c>
+      <c r="J74" s="7">
+        <v>-38496.29</v>
+      </c>
+      <c r="K74" s="7">
+        <v>-19000</v>
+      </c>
+      <c r="L74" s="8">
+        <v>-6.15</v>
+      </c>
+      <c r="M74" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N74" s="9" t="s">
+      <c r="N74" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75" s="10">
-        <v>300760</v>
+        <v>127</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="C75" s="10">
-        <v>1900</v>
+        <v>30300</v>
       </c>
       <c r="D75" s="10">
-        <v>1900</v>
+        <v>30300</v>
       </c>
       <c r="E75" s="10">
         <v>0</v>
       </c>
       <c r="F75" s="11">
-        <v>319</v>
+        <v>11.95</v>
       </c>
       <c r="G75" s="11">
-        <v>329.261</v>
+        <v>11.911</v>
       </c>
       <c r="H75" s="11">
         <v>0</v>
       </c>
       <c r="I75" s="11">
-        <v>606100</v>
+        <v>362085</v>
       </c>
       <c r="J75" s="11">
-        <v>-19496.29</v>
+        <v>1168.1</v>
       </c>
       <c r="K75" s="11">
-        <v>9500</v>
+        <v>-3030</v>
       </c>
       <c r="L75" s="9">
-        <v>-3.12</v>
+        <v>0.33</v>
       </c>
       <c r="M75" s="9" t="s">
         <v>26</v>
@@ -3936,40 +3930,40 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C76" s="6">
-        <v>30300</v>
+        <v>13400</v>
       </c>
       <c r="D76" s="6">
-        <v>30300</v>
+        <v>13400</v>
       </c>
       <c r="E76" s="6">
         <v>0</v>
       </c>
       <c r="F76" s="7">
-        <v>12.05</v>
+        <v>43.61</v>
       </c>
       <c r="G76" s="7">
-        <v>11.911</v>
+        <v>47.462</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
       </c>
       <c r="I76" s="7">
-        <v>365115</v>
+        <v>584374</v>
       </c>
       <c r="J76" s="7">
-        <v>4198.1</v>
+        <v>-51621.94</v>
       </c>
       <c r="K76" s="7">
-        <v>-7272</v>
+        <v>-63784</v>
       </c>
       <c r="L76" s="8">
-        <v>1.17</v>
+        <v>-8.12</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>26</v>
@@ -3980,40 +3974,40 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="B77" s="6">
+        <v>300115</v>
       </c>
       <c r="C77" s="6">
-        <v>13400</v>
+        <v>7400</v>
       </c>
       <c r="D77" s="6">
-        <v>3400</v>
+        <v>7400</v>
       </c>
       <c r="E77" s="6">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F77" s="7">
-        <v>48.37</v>
+        <v>23.61</v>
       </c>
       <c r="G77" s="7">
-        <v>47.462</v>
+        <v>23.968</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
       </c>
       <c r="I77" s="7">
-        <v>648158</v>
+        <v>174714</v>
       </c>
       <c r="J77" s="7">
-        <v>12161.5</v>
+        <v>-2651.05</v>
       </c>
       <c r="K77" s="7">
-        <v>13816.08</v>
+        <v>-2368</v>
       </c>
       <c r="L77" s="8">
-        <v>1.91</v>
+        <v>-1.49</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>26</v>
@@ -4023,55 +4017,55 @@
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B78" s="10">
-        <v>300115</v>
-      </c>
-      <c r="C78" s="10">
-        <v>7400</v>
-      </c>
-      <c r="D78" s="10">
-        <v>7400</v>
-      </c>
-      <c r="E78" s="10">
-        <v>0</v>
-      </c>
-      <c r="F78" s="11">
-        <v>23.93</v>
-      </c>
-      <c r="G78" s="11">
-        <v>23.968</v>
-      </c>
-      <c r="H78" s="11">
-        <v>0</v>
-      </c>
-      <c r="I78" s="11">
-        <v>177082</v>
-      </c>
-      <c r="J78" s="11">
-        <v>-283.05</v>
-      </c>
-      <c r="K78" s="11">
-        <v>-888</v>
-      </c>
-      <c r="L78" s="9">
-        <v>-0.16</v>
-      </c>
-      <c r="M78" s="9" t="s">
+      <c r="A78" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="6">
+        <v>0</v>
+      </c>
+      <c r="D78" s="6">
+        <v>0</v>
+      </c>
+      <c r="E78" s="6">
+        <v>0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <v>0</v>
+      </c>
+      <c r="J78" s="7">
+        <v>-1617.03</v>
+      </c>
+      <c r="K78" s="7">
+        <v>-1511.67</v>
+      </c>
+      <c r="L78" s="8">
+        <v>0</v>
+      </c>
+      <c r="M78" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N78" s="9" t="s">
+      <c r="N78" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B79" s="6">
-        <v>601012</v>
+        <v>603501</v>
       </c>
       <c r="C79" s="6">
         <v>0</v>
@@ -4083,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="7">
-        <v>56.8</v>
+        <v>187.3</v>
       </c>
       <c r="G79" s="7">
         <v>0</v>
@@ -4095,10 +4089,10 @@
         <v>0</v>
       </c>
       <c r="J79" s="7">
-        <v>6939.36</v>
+        <v>-29177.38</v>
       </c>
       <c r="K79" s="7">
-        <v>-2.97</v>
+        <v>18632.3</v>
       </c>
       <c r="L79" s="8">
         <v>0</v>
@@ -4112,177 +4106,45 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="B80" s="10">
+        <v>300423</v>
       </c>
       <c r="C80" s="10">
-        <v>6400</v>
+        <v>2500</v>
       </c>
       <c r="D80" s="10">
-        <v>6400</v>
+        <v>2500</v>
       </c>
       <c r="E80" s="10">
         <v>0</v>
       </c>
       <c r="F80" s="11">
-        <v>6.42</v>
+        <v>14.95</v>
       </c>
       <c r="G80" s="11">
-        <v>6.436</v>
+        <v>12.711</v>
       </c>
       <c r="H80" s="11">
         <v>0</v>
       </c>
       <c r="I80" s="11">
-        <v>41088</v>
+        <v>37375</v>
       </c>
       <c r="J80" s="11">
-        <v>-105.36</v>
+        <v>5597.25</v>
       </c>
       <c r="K80" s="11">
-        <v>-1024</v>
+        <v>375</v>
       </c>
       <c r="L80" s="9">
-        <v>-0.25</v>
+        <v>17.61</v>
       </c>
       <c r="M80" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N80" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B81" s="10">
-        <v>603501</v>
-      </c>
-      <c r="C81" s="10">
-        <v>2100</v>
-      </c>
-      <c r="D81" s="10">
-        <v>2100</v>
-      </c>
-      <c r="E81" s="10">
-        <v>0</v>
-      </c>
-      <c r="F81" s="11">
-        <v>182.66</v>
-      </c>
-      <c r="G81" s="11">
-        <v>205.427</v>
-      </c>
-      <c r="H81" s="11">
-        <v>0</v>
-      </c>
-      <c r="I81" s="11">
-        <v>383586</v>
-      </c>
-      <c r="J81" s="11">
-        <v>-47809.68</v>
-      </c>
-      <c r="K81" s="11">
-        <v>-2205</v>
-      </c>
-      <c r="L81" s="9">
-        <v>-11.08</v>
-      </c>
-      <c r="M81" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N81" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B82" s="6">
-        <v>600723</v>
-      </c>
-      <c r="C82" s="6">
-        <v>0</v>
-      </c>
-      <c r="D82" s="6">
-        <v>0</v>
-      </c>
-      <c r="E82" s="6">
-        <v>0</v>
-      </c>
-      <c r="F82" s="7">
-        <v>12</v>
-      </c>
-      <c r="G82" s="7">
-        <v>0</v>
-      </c>
-      <c r="H82" s="7">
-        <v>0</v>
-      </c>
-      <c r="I82" s="7">
-        <v>0</v>
-      </c>
-      <c r="J82" s="7">
-        <v>23931.87</v>
-      </c>
-      <c r="K82" s="7">
-        <v>12331.16</v>
-      </c>
-      <c r="L82" s="8">
-        <v>0</v>
-      </c>
-      <c r="M82" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N82" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B83" s="6">
-        <v>300423</v>
-      </c>
-      <c r="C83" s="6">
-        <v>2500</v>
-      </c>
-      <c r="D83" s="6">
-        <v>2500</v>
-      </c>
-      <c r="E83" s="6">
-        <v>0</v>
-      </c>
-      <c r="F83" s="7">
-        <v>14.8</v>
-      </c>
-      <c r="G83" s="7">
-        <v>12.711</v>
-      </c>
-      <c r="H83" s="7">
-        <v>0</v>
-      </c>
-      <c r="I83" s="7">
-        <v>37000</v>
-      </c>
-      <c r="J83" s="7">
-        <v>5222.25</v>
-      </c>
-      <c r="K83" s="7">
-        <v>-325</v>
-      </c>
-      <c r="L83" s="8">
-        <v>16.43</v>
-      </c>
-      <c r="M83" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N83" s="8" t="s">
         <v>25</v>
       </c>
     </row>
